--- a/output.xlsx
+++ b/output.xlsx
@@ -503,64 +503,64 @@
         <v>22561132</v>
       </c>
       <c r="B2" t="n">
-        <v>22345232.71775694</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C2" t="n">
-        <v>23820227.59403624</v>
+        <v>26483730.76593198</v>
       </c>
       <c r="D2" t="n">
-        <v>25808041.33037158</v>
+        <v>28231905.31743118</v>
       </c>
       <c r="E2" t="n">
-        <v>26161237.86401328</v>
+        <v>30916143.60546377</v>
       </c>
       <c r="F2" t="n">
-        <v>26975553.67126474</v>
+        <v>32417681.70563634</v>
       </c>
       <c r="G2" t="n">
-        <v>27501557.65752937</v>
+        <v>35311427.34058435</v>
       </c>
       <c r="H2" t="n">
-        <v>29956468.31858106</v>
+        <v>35384098.24315966</v>
       </c>
       <c r="I2" t="n">
-        <v>32456355.39903357</v>
+        <v>37308351.08323214</v>
       </c>
       <c r="J2" t="n">
-        <v>34032698.64695981</v>
+        <v>37168229.79792189</v>
       </c>
       <c r="K2" t="n">
-        <v>34102737.92642291</v>
+        <v>36596460.32606629</v>
       </c>
       <c r="L2" t="n">
-        <v>35759042.83204751</v>
+        <v>37948354.38405246</v>
       </c>
       <c r="M2" t="n">
-        <v>38327369.49596322</v>
+        <v>39350188.17740469</v>
       </c>
       <c r="N2" t="n">
-        <v>39520378.13695963</v>
+        <v>39202398.23803382</v>
       </c>
       <c r="O2" t="n">
-        <v>43048141.86675891</v>
+        <v>41562210.70289277</v>
       </c>
       <c r="P2" t="n">
-        <v>43387006.55549354</v>
+        <v>42372644.05948334</v>
       </c>
       <c r="Q2" t="n">
-        <v>44989747.25318887</v>
+        <v>41967158.04755881</v>
       </c>
       <c r="R2" t="n">
-        <v>46390134.44216494</v>
+        <v>43029474.63628018</v>
       </c>
       <c r="S2" t="n">
-        <v>47294708.85562448</v>
+        <v>45369497.21384285</v>
       </c>
       <c r="T2" t="n">
-        <v>51791403.88574129</v>
+        <v>49419379.1799403</v>
       </c>
       <c r="U2" t="n">
-        <v>54306813.54317745</v>
+        <v>50957646.66789187</v>
       </c>
     </row>
     <row r="3">
@@ -568,64 +568,64 @@
         <v>22561132</v>
       </c>
       <c r="B3" t="n">
-        <v>22345232.71775694</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C3" t="n">
-        <v>23690317.73978446</v>
+        <v>25069485.32064895</v>
       </c>
       <c r="D3" t="n">
-        <v>25116370.98171531</v>
+        <v>26578558.40306742</v>
       </c>
       <c r="E3" t="n">
-        <v>26628266.37532852</v>
+        <v>27405864.06628093</v>
       </c>
       <c r="F3" t="n">
-        <v>26992688.117384</v>
+        <v>29692901.53609636</v>
       </c>
       <c r="G3" t="n">
-        <v>28774458.6262455</v>
+        <v>30962401.6546428</v>
       </c>
       <c r="H3" t="n">
-        <v>31510281.89759549</v>
+        <v>33186218.49789508</v>
       </c>
       <c r="I3" t="n">
-        <v>34323029.01273836</v>
+        <v>35376820.08463005</v>
       </c>
       <c r="J3" t="n">
-        <v>35790487.13055061</v>
+        <v>35655297.96094591</v>
       </c>
       <c r="K3" t="n">
-        <v>36280298.65208525</v>
+        <v>37179716.34536023</v>
       </c>
       <c r="L3" t="n">
-        <v>38886063.54463621</v>
+        <v>40282388.24774215</v>
       </c>
       <c r="M3" t="n">
-        <v>42357205.54869375</v>
+        <v>41302058.18156032</v>
       </c>
       <c r="N3" t="n">
-        <v>45645687.655131</v>
+        <v>41387057.79987998</v>
       </c>
       <c r="O3" t="n">
-        <v>44943507.03299873</v>
+        <v>42675304.76882146</v>
       </c>
       <c r="P3" t="n">
-        <v>45036000.75151896</v>
+        <v>46236587.15736584</v>
       </c>
       <c r="Q3" t="n">
-        <v>47485141.93793792</v>
+        <v>46331742.03423669</v>
       </c>
       <c r="R3" t="n">
-        <v>48687135.50493845</v>
+        <v>45619007.64206646</v>
       </c>
       <c r="S3" t="n">
-        <v>52750109.14183884</v>
+        <v>46243327.60347285</v>
       </c>
       <c r="T3" t="n">
-        <v>57152140.6140985</v>
+        <v>50640059.21345866</v>
       </c>
       <c r="U3" t="n">
-        <v>62253793.43837272</v>
+        <v>53982777.94088437</v>
       </c>
     </row>
     <row r="4">
@@ -633,64 +633,64 @@
         <v>22561132</v>
       </c>
       <c r="B4" t="n">
-        <v>23919213.21206409</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C4" t="n">
-        <v>25219984.35618987</v>
+        <v>22914671.42562358</v>
       </c>
       <c r="D4" t="n">
-        <v>27031362.77002955</v>
+        <v>22828609.3746512</v>
       </c>
       <c r="E4" t="n">
-        <v>27086993.30321054</v>
+        <v>24999112.09690792</v>
       </c>
       <c r="F4" t="n">
-        <v>29504898.11660142</v>
+        <v>26067932.39161708</v>
       </c>
       <c r="G4" t="n">
-        <v>30766360.27486144</v>
+        <v>27182449.38219102</v>
       </c>
       <c r="H4" t="n">
-        <v>31187413.99462066</v>
+        <v>27396423.12994188</v>
       </c>
       <c r="I4" t="n">
-        <v>32702127.17995152</v>
+        <v>30001225.28883573</v>
       </c>
       <c r="J4" t="n">
-        <v>34290407.09429079</v>
+        <v>32853687.30663878</v>
       </c>
       <c r="K4" t="n">
-        <v>34360976.73762981</v>
+        <v>32539293.17479552</v>
       </c>
       <c r="L4" t="n">
-        <v>35830057.28500454</v>
+        <v>32038731.95425154</v>
       </c>
       <c r="M4" t="n">
-        <v>36320410.34478341</v>
+        <v>33967323.12270118</v>
       </c>
       <c r="N4" t="n">
-        <v>37239790.55096049</v>
+        <v>34037227.85936292</v>
       </c>
       <c r="O4" t="n">
-        <v>37316430.02420951</v>
+        <v>35492466.74027608</v>
       </c>
       <c r="P4" t="n">
-        <v>38044073.69688817</v>
+        <v>37422612.86006188</v>
       </c>
       <c r="Q4" t="n">
-        <v>39891801.75995602</v>
+        <v>39675290.04982339</v>
       </c>
       <c r="R4" t="n">
-        <v>39741977.64890172</v>
+        <v>40679592.47922535</v>
       </c>
       <c r="S4" t="n">
-        <v>39361665.86094189</v>
+        <v>41472815.41227257</v>
       </c>
       <c r="T4" t="n">
-        <v>43104101.56964521</v>
+        <v>41317053.39030494</v>
       </c>
       <c r="U4" t="n">
-        <v>42691615.85790795</v>
+        <v>45005196.29894239</v>
       </c>
     </row>
     <row r="5">
@@ -698,64 +698,64 @@
         <v>22561132</v>
       </c>
       <c r="B5" t="n">
-        <v>23263388.00610278</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C5" t="n">
-        <v>23987502.99951646</v>
+        <v>23986740.43724649</v>
       </c>
       <c r="D5" t="n">
-        <v>24315784.51463394</v>
+        <v>24036105.1389506</v>
       </c>
       <c r="E5" t="n">
-        <v>25355389.59621722</v>
+        <v>24924012.53286142</v>
       </c>
       <c r="F5" t="n">
-        <v>25849801.54280536</v>
+        <v>27148840.11699485</v>
       </c>
       <c r="G5" t="n">
-        <v>26954992.49503009</v>
+        <v>28151733.71130348</v>
       </c>
       <c r="H5" t="n">
-        <v>26697046.06164439</v>
+        <v>28209669.96740913</v>
       </c>
       <c r="I5" t="n">
-        <v>26907198.83041694</v>
+        <v>29087746.92581664</v>
       </c>
       <c r="J5" t="n">
-        <v>28370462.17012446</v>
+        <v>30838701.73611724</v>
       </c>
       <c r="K5" t="n">
-        <v>28923665.87357808</v>
+        <v>31977900.91717492</v>
       </c>
       <c r="L5" t="n">
-        <v>30496588.4282259</v>
+        <v>34274654.10398085</v>
       </c>
       <c r="M5" t="n">
-        <v>33218848.78127395</v>
+        <v>37334161.30759137</v>
       </c>
       <c r="N5" t="n">
-        <v>36377236.59748718</v>
+        <v>39798566.01236412</v>
       </c>
       <c r="O5" t="n">
-        <v>38778475.29892414</v>
+        <v>40574609.55998626</v>
       </c>
       <c r="P5" t="n">
-        <v>41789115.88494749</v>
+        <v>43017023.12905068</v>
       </c>
       <c r="Q5" t="n">
-        <v>45276445.22541967</v>
+        <v>47107003.56862406</v>
       </c>
       <c r="R5" t="n">
-        <v>46159303.49638195</v>
+        <v>51585851.9209284</v>
       </c>
       <c r="S5" t="n">
-        <v>47327736.05434696</v>
+        <v>53191554.78820477</v>
       </c>
       <c r="T5" t="n">
-        <v>48525745.19902585</v>
+        <v>56393453.13259364</v>
       </c>
       <c r="U5" t="n">
-        <v>48343494.05174903</v>
+        <v>58148801.27590664</v>
       </c>
     </row>
     <row r="6">
@@ -763,64 +763,64 @@
         <v>22561132</v>
       </c>
       <c r="B6" t="n">
-        <v>24312708.33564088</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C6" t="n">
-        <v>26341619.9153607</v>
+        <v>24530781.84689261</v>
       </c>
       <c r="D6" t="n">
-        <v>27161550.4399478</v>
+        <v>25151730.6483513</v>
       </c>
       <c r="E6" t="n">
-        <v>28480735.1146539</v>
+        <v>26665754.53883794</v>
       </c>
       <c r="F6" t="n">
-        <v>28539348.45550889</v>
+        <v>28270916.02828398</v>
       </c>
       <c r="G6" t="n">
-        <v>30257292.08271594</v>
+        <v>30465782.2921768</v>
       </c>
       <c r="H6" t="n">
-        <v>31726831.02166106</v>
+        <v>30705601.65221908</v>
       </c>
       <c r="I6" t="n">
-        <v>32161029.28556028</v>
+        <v>32553944.22248563</v>
       </c>
       <c r="J6" t="n">
-        <v>34470935.32641916</v>
+        <v>33945766.30492376</v>
       </c>
       <c r="K6" t="n">
-        <v>36946746.06734908</v>
+        <v>36383857.75881055</v>
       </c>
       <c r="L6" t="n">
-        <v>37667181.1675055</v>
+        <v>36035681.57796285</v>
       </c>
       <c r="M6" t="n">
-        <v>40153568.3055461</v>
+        <v>35900340.13635182</v>
       </c>
       <c r="N6" t="n">
-        <v>42337193.76690509</v>
+        <v>39313679.28097873</v>
       </c>
       <c r="O6" t="n">
-        <v>44393430.47956424</v>
+        <v>42365871.44472024</v>
       </c>
       <c r="P6" t="n">
-        <v>44484792.14076948</v>
+        <v>45162416.19766039</v>
       </c>
       <c r="Q6" t="n">
-        <v>47421205.52740845</v>
+        <v>48406122.64338654</v>
       </c>
       <c r="R6" t="n">
-        <v>48345885.0889428</v>
+        <v>49631429.03705457</v>
       </c>
       <c r="S6" t="n">
-        <v>49569666.68664354</v>
+        <v>49445025.20449328</v>
       </c>
       <c r="T6" t="n">
-        <v>53418101.9129403</v>
+        <v>50696629.38614777</v>
       </c>
       <c r="U6" t="n">
-        <v>53528036.34414953</v>
+        <v>50800963.02804456</v>
       </c>
     </row>
     <row r="7">
@@ -828,64 +828,64 @@
         <v>22561132</v>
       </c>
       <c r="B7" t="n">
-        <v>24181543.29444862</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C7" t="n">
-        <v>24793651.80447605</v>
+        <v>22785524.13364177</v>
       </c>
       <c r="D7" t="n">
-        <v>25853687.78198798</v>
+        <v>23892173.56106319</v>
       </c>
       <c r="E7" t="n">
-        <v>27409966.41372016</v>
+        <v>23941343.644176</v>
       </c>
       <c r="F7" t="n">
-        <v>29537991.21899073</v>
+        <v>24408182.70693758</v>
       </c>
       <c r="G7" t="n">
-        <v>31487775.59823203</v>
+        <v>26161254.97898879</v>
       </c>
       <c r="H7" t="n">
-        <v>32284827.10031448</v>
+        <v>28648619.59317327</v>
       </c>
       <c r="I7" t="n">
-        <v>34040535.83173704</v>
+        <v>30872809.59073988</v>
       </c>
       <c r="J7" t="n">
-        <v>36683337.48793967</v>
+        <v>33808140.26115827</v>
       </c>
       <c r="K7" t="n">
-        <v>38678245.36603294</v>
+        <v>35253584.65524013</v>
       </c>
       <c r="L7" t="n">
-        <v>42130836.60040075</v>
+        <v>36965783.99041682</v>
       </c>
       <c r="M7" t="n">
-        <v>44421989.57611982</v>
+        <v>37901500.56916655</v>
       </c>
       <c r="N7" t="n">
-        <v>45804704.28134229</v>
+        <v>37759151.55558804</v>
       </c>
       <c r="O7" t="n">
-        <v>48029351.36292133</v>
+        <v>40471132.30413701</v>
       </c>
       <c r="P7" t="n">
-        <v>51758201.28337187</v>
+        <v>41260290.41299525</v>
       </c>
       <c r="Q7" t="n">
-        <v>50961990.12204173</v>
+        <v>41345204.07326481</v>
       </c>
       <c r="R7" t="n">
-        <v>54029678.45054142</v>
+        <v>43593632.89613968</v>
       </c>
       <c r="S7" t="n">
-        <v>54769102.8376238</v>
+        <v>45457449.47405957</v>
       </c>
       <c r="T7" t="n">
-        <v>57429133.65105386</v>
+        <v>48722346.13547681</v>
       </c>
       <c r="U7" t="n">
-        <v>61219994.94815503</v>
+        <v>51088697.51441417</v>
       </c>
     </row>
     <row r="8">
@@ -893,64 +893,64 @@
         <v>22561132</v>
       </c>
       <c r="B8" t="n">
-        <v>23656883.12967957</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C8" t="n">
-        <v>25906136.61640726</v>
+        <v>22521129.05151839</v>
       </c>
       <c r="D8" t="n">
-        <v>27917408.73897535</v>
+        <v>24662397.10304036</v>
       </c>
       <c r="E8" t="n">
-        <v>28137167.91120376</v>
+        <v>24713152.30587774</v>
       </c>
       <c r="F8" t="n">
-        <v>30812398.73869675</v>
+        <v>25051364.71099828</v>
       </c>
       <c r="G8" t="n">
-        <v>32129762.21036433</v>
+        <v>27433202.97407902</v>
       </c>
       <c r="H8" t="n">
-        <v>32382680.02280399</v>
+        <v>28765581.29399559</v>
       </c>
       <c r="I8" t="n">
-        <v>33955444.99829545</v>
+        <v>28490308.38859891</v>
       </c>
       <c r="J8" t="n">
-        <v>35999413.88688938</v>
+        <v>31033479.31261648</v>
       </c>
       <c r="K8" t="n">
-        <v>36073500.66548683</v>
+        <v>32721137.43221197</v>
       </c>
       <c r="L8" t="n">
-        <v>38244967.21721745</v>
+        <v>33739641.96861047</v>
       </c>
       <c r="M8" t="n">
-        <v>41214187.88996736</v>
+        <v>35966774.69350939</v>
       </c>
       <c r="N8" t="n">
-        <v>44413929.64941116</v>
+        <v>35622589.79884513</v>
       </c>
       <c r="O8" t="n">
-        <v>46829241.45640855</v>
+        <v>37974014.73573298</v>
       </c>
       <c r="P8" t="n">
-        <v>47470124.10006771</v>
+        <v>41363743.22960838</v>
       </c>
       <c r="Q8" t="n">
-        <v>50603597.38756234</v>
+        <v>44334617.06297499</v>
       </c>
       <c r="R8" t="n">
-        <v>50707739.56964528</v>
+        <v>47776619.26823701</v>
       </c>
       <c r="S8" t="n">
-        <v>55234136.65658531</v>
+        <v>48430467.27237835</v>
       </c>
       <c r="T8" t="n">
-        <v>54384454.19077412</v>
+        <v>50782642.65190354</v>
       </c>
       <c r="U8" t="n">
-        <v>55761090.36399189</v>
+        <v>53249058.70114864</v>
       </c>
     </row>
     <row r="9">
@@ -958,64 +958,64 @@
         <v>22561132</v>
       </c>
       <c r="B9" t="n">
-        <v>22345232.71775694</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C9" t="n">
-        <v>22261309.34301482</v>
+        <v>23843104.46213528</v>
       </c>
       <c r="D9" t="n">
-        <v>23601342.54590089</v>
+        <v>25694209.16486428</v>
       </c>
       <c r="E9" t="n">
-        <v>25022039.87133105</v>
+        <v>26493987.85983788</v>
       </c>
       <c r="F9" t="n">
-        <v>26819201.2911414</v>
+        <v>27626720.5666077</v>
       </c>
       <c r="G9" t="n">
-        <v>27653997.39913738</v>
+        <v>28004806.67609213</v>
       </c>
       <c r="H9" t="n">
-        <v>29800968.01347551</v>
+        <v>30341826.30255821</v>
       </c>
       <c r="I9" t="n">
-        <v>29862298.39307951</v>
+        <v>32697471.61910027</v>
       </c>
       <c r="J9" t="n">
-        <v>31659877.80517165</v>
+        <v>34095430.1192541</v>
       </c>
       <c r="K9" t="n">
-        <v>32093159.7793115</v>
+        <v>33769153.10041855</v>
       </c>
       <c r="L9" t="n">
-        <v>34025027.26415464</v>
+        <v>33642324.20021566</v>
       </c>
       <c r="M9" t="n">
-        <v>35281931.12238012</v>
+        <v>33124794.73904591</v>
       </c>
       <c r="N9" t="n">
-        <v>37610869.39248347</v>
+        <v>34926182.46738089</v>
       </c>
       <c r="O9" t="n">
-        <v>39218896.92372183</v>
+        <v>36622480.50304805</v>
       </c>
       <c r="P9" t="n">
-        <v>40439655.96708053</v>
+        <v>36059106.448133</v>
       </c>
       <c r="Q9" t="n">
-        <v>42168626.37375422</v>
+        <v>36762233.21112742</v>
       </c>
       <c r="R9" t="n">
-        <v>42010251.05145503</v>
+        <v>37051616.72860504</v>
       </c>
       <c r="S9" t="n">
-        <v>42829420.87411495</v>
+        <v>39712780.10571808</v>
       </c>
       <c r="T9" t="n">
-        <v>43664563.92191783</v>
+        <v>42565076.58699659</v>
       </c>
       <c r="U9" t="n">
-        <v>45785268.47009419</v>
+        <v>42405212.29207256</v>
       </c>
     </row>
     <row r="10">
@@ -1026,61 +1026,61 @@
         <v>22607562.80014147</v>
       </c>
       <c r="C10" t="n">
-        <v>22391219.1972666</v>
+        <v>24231308.9003507</v>
       </c>
       <c r="D10" t="n">
-        <v>22958009.1516399</v>
+        <v>24140301.87245252</v>
       </c>
       <c r="E10" t="n">
-        <v>23005256.72479207</v>
+        <v>25032058.35295881</v>
       </c>
       <c r="F10" t="n">
-        <v>24925060.60344652</v>
+        <v>24646983.06522666</v>
       </c>
       <c r="G10" t="n">
-        <v>26715256.66792773</v>
+        <v>26273915.04647484</v>
       </c>
       <c r="H10" t="n">
-        <v>28789346.36254565</v>
+        <v>28160990.06960273</v>
       </c>
       <c r="I10" t="n">
-        <v>28681220.43099315</v>
+        <v>29528715.61997238</v>
       </c>
       <c r="J10" t="n">
-        <v>30240958.35314729</v>
+        <v>31992906.45500943</v>
       </c>
       <c r="K10" t="n">
-        <v>30127380.51251843</v>
+        <v>31500750.45709508</v>
       </c>
       <c r="L10" t="n">
-        <v>31765763.30008502</v>
+        <v>34495784.60473682</v>
       </c>
       <c r="M10" t="n">
-        <v>32015815.80006094</v>
+        <v>37575030.89478564</v>
       </c>
       <c r="N10" t="n">
-        <v>31895572.0173713</v>
+        <v>38963073.90612371</v>
       </c>
       <c r="O10" t="n">
-        <v>31961213.09113198</v>
+        <v>38816737.87580212</v>
       </c>
       <c r="P10" t="n">
-        <v>31841174.38321875</v>
+        <v>40701992.76362805</v>
       </c>
       <c r="Q10" t="n">
-        <v>33387639.46310641</v>
+        <v>44571864.32018571</v>
       </c>
       <c r="R10" t="n">
-        <v>33068135.66356857</v>
+        <v>46218374.33757409</v>
       </c>
       <c r="S10" t="n">
-        <v>33712940.63733655</v>
+        <v>50075328.22336821</v>
       </c>
       <c r="T10" t="n">
-        <v>33978320.85213792</v>
+        <v>53671895.42692731</v>
       </c>
       <c r="U10" t="n">
-        <v>35035957.49447045</v>
+        <v>53470316.56445009</v>
       </c>
     </row>
     <row r="11">
@@ -1091,61 +1091,61 @@
         <v>24050378.25325636</v>
       </c>
       <c r="C11" t="n">
-        <v>25218459.23164994</v>
+        <v>26057398.21421815</v>
       </c>
       <c r="D11" t="n">
-        <v>24830516.48607698</v>
+        <v>27322956.32228383</v>
       </c>
       <c r="E11" t="n">
-        <v>25170335.0813415</v>
+        <v>27696885.25932863</v>
       </c>
       <c r="F11" t="n">
-        <v>26100141.57439596</v>
+        <v>27914908.5234075</v>
       </c>
       <c r="G11" t="n">
-        <v>26609075.65143134</v>
+        <v>29432972.98381563</v>
       </c>
       <c r="H11" t="n">
-        <v>26354439.47740004</v>
+        <v>28980197.17206478</v>
       </c>
       <c r="I11" t="n">
-        <v>27940861.16531611</v>
+        <v>30387710.04817519</v>
       </c>
       <c r="J11" t="n">
-        <v>30110102.99301319</v>
+        <v>30450247.94263916</v>
       </c>
       <c r="K11" t="n">
-        <v>31047334.36381572</v>
+        <v>31575097.41964005</v>
       </c>
       <c r="L11" t="n">
-        <v>30569724.37086643</v>
+        <v>34026490.08184322</v>
       </c>
       <c r="M11" t="n">
-        <v>31165812.11290286</v>
+        <v>36074735.57292215</v>
       </c>
       <c r="N11" t="n">
-        <v>33223047.93417425</v>
+        <v>37617086.73152088</v>
       </c>
       <c r="O11" t="n">
-        <v>34450326.21983975</v>
+        <v>40974954.25324046</v>
       </c>
       <c r="P11" t="n">
-        <v>37124942.73118236</v>
+        <v>43917904.04234973</v>
       </c>
       <c r="Q11" t="n">
-        <v>36553839.15661115</v>
+        <v>46306241.0575472</v>
       </c>
       <c r="R11" t="n">
-        <v>36841582.24587619</v>
+        <v>48824460.26595367</v>
       </c>
       <c r="S11" t="n">
-        <v>36703214.0332034</v>
+        <v>53466601.28211388</v>
       </c>
       <c r="T11" t="n">
-        <v>38699202.83466545</v>
+        <v>56685056.21931122</v>
       </c>
       <c r="U11" t="n">
-        <v>41928676.8888611</v>
+        <v>57790374.2378531</v>
       </c>
     </row>
     <row r="12">
@@ -1153,64 +1153,64 @@
         <v>22561132</v>
       </c>
       <c r="B12" t="n">
-        <v>22214067.67656468</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C12" t="n">
-        <v>24067846.30622032</v>
+        <v>23829378.34127586</v>
       </c>
       <c r="D12" t="n">
-        <v>25096850.95575789</v>
+        <v>24848187.4526846</v>
       </c>
       <c r="E12" t="n">
-        <v>25148500.26444094</v>
+        <v>26921785.1186384</v>
       </c>
       <c r="F12" t="n">
-        <v>26369914.93346145</v>
+        <v>26507639.6255013</v>
       </c>
       <c r="G12" t="n">
-        <v>26117567.41353449</v>
+        <v>26562192.33667172</v>
       </c>
       <c r="H12" t="n">
-        <v>26626841.28195886</v>
+        <v>28161119.83568492</v>
       </c>
       <c r="I12" t="n">
-        <v>26217232.99391983</v>
+        <v>29365129.65353119</v>
       </c>
       <c r="J12" t="n">
-        <v>26118767.30788104</v>
+        <v>31474225.40960983</v>
       </c>
       <c r="K12" t="n">
-        <v>27387305.9957203</v>
+        <v>33917786.68171708</v>
       </c>
       <c r="L12" t="n">
-        <v>29672794.78228178</v>
+        <v>35565108.85831363</v>
       </c>
       <c r="M12" t="n">
-        <v>32149009.11864046</v>
+        <v>35845068.89887445</v>
       </c>
       <c r="N12" t="n">
-        <v>31841358.42125789</v>
+        <v>37585995.49508353</v>
       </c>
       <c r="O12" t="n">
-        <v>34683658.89107557</v>
+        <v>39411475.57400284</v>
       </c>
       <c r="P12" t="n">
-        <v>37779675.67078952</v>
+        <v>38805197.61305305</v>
       </c>
       <c r="Q12" t="n">
-        <v>40053846.4759767</v>
+        <v>38659454.52850534</v>
       </c>
       <c r="R12" t="n">
-        <v>41300594.8330748</v>
+        <v>38514258.82028863</v>
       </c>
       <c r="S12" t="n">
-        <v>43306485.91357466</v>
+        <v>39936997.44536282</v>
       </c>
       <c r="T12" t="n">
-        <v>44906252.13296292</v>
+        <v>39322635.23169318</v>
       </c>
       <c r="U12" t="n">
-        <v>46565114.62633201</v>
+        <v>39403561.19841677</v>
       </c>
     </row>
     <row r="13">
@@ -1218,64 +1218,64 @@
         <v>22561132</v>
       </c>
       <c r="B13" t="n">
-        <v>22738727.84133373</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C13" t="n">
-        <v>22653326.59258008</v>
+        <v>25911474.55229704</v>
       </c>
       <c r="D13" t="n">
-        <v>23621854.39912641</v>
+        <v>28375090.49711654</v>
       </c>
       <c r="E13" t="n">
-        <v>25730445.5895003</v>
+        <v>29588248.48728685</v>
       </c>
       <c r="F13" t="n">
-        <v>25932989.51027338</v>
+        <v>32057407.37944863</v>
       </c>
       <c r="G13" t="n">
-        <v>26438664.2417134</v>
+        <v>34173496.84822868</v>
       </c>
       <c r="H13" t="n">
-        <v>28030155.89110146</v>
+        <v>36826621.18549401</v>
       </c>
       <c r="I13" t="n">
-        <v>30369290.92631424</v>
+        <v>39043422.28996967</v>
       </c>
       <c r="J13" t="n">
-        <v>29902111.46880512</v>
+        <v>40258719.36823411</v>
       </c>
       <c r="K13" t="n">
-        <v>29789806.25641039</v>
+        <v>44086445.29534861</v>
       </c>
       <c r="L13" t="n">
-        <v>31409831.13030097</v>
+        <v>45971331.73733876</v>
       </c>
       <c r="M13" t="n">
-        <v>30926644.74628196</v>
+        <v>45798674.35893869</v>
       </c>
       <c r="N13" t="n">
-        <v>31349892.04280192</v>
+        <v>49886866.57502618</v>
       </c>
       <c r="O13" t="n">
-        <v>32507974.88451831</v>
+        <v>52599806.83507276</v>
       </c>
       <c r="P13" t="n">
-        <v>32574876.28312131</v>
+        <v>57295098.21371679</v>
       </c>
       <c r="Q13" t="n">
-        <v>32073767.67748083</v>
+        <v>57746111.53926995</v>
       </c>
       <c r="R13" t="n">
-        <v>33445060.13333242</v>
+        <v>56857786.64793039</v>
       </c>
       <c r="S13" t="n">
-        <v>33902773.26062153</v>
+        <v>58297030.39861821</v>
       </c>
       <c r="T13" t="n">
-        <v>36337776.81915937</v>
+        <v>62823031.08352874</v>
       </c>
       <c r="U13" t="n">
-        <v>39581447.48040456</v>
+        <v>66604702.06526224</v>
       </c>
     </row>
     <row r="14">
@@ -1283,64 +1283,64 @@
         <v>22561132</v>
       </c>
       <c r="B14" t="n">
-        <v>23001057.92371826</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C14" t="n">
-        <v>24251898.08163984</v>
+        <v>24512480.35241337</v>
       </c>
       <c r="D14" t="n">
-        <v>24160813.72567805</v>
+        <v>25417985.31763886</v>
       </c>
       <c r="E14" t="n">
-        <v>23789141.0423504</v>
+        <v>25765843.73089166</v>
       </c>
       <c r="F14" t="n">
-        <v>23561490.29875197</v>
+        <v>25519276.88451682</v>
       </c>
       <c r="G14" t="n">
-        <v>24157903.37897525</v>
+        <v>26016884.51590886</v>
       </c>
       <c r="H14" t="n">
-        <v>25190758.35834331</v>
+        <v>27582986.8753781</v>
       </c>
       <c r="I14" t="n">
-        <v>25389053.99016199</v>
+        <v>30205527.17638557</v>
       </c>
       <c r="J14" t="n">
-        <v>27802999.13665699</v>
+        <v>31672551.99260895</v>
       </c>
       <c r="K14" t="n">
-        <v>29314977.75721114</v>
+        <v>33394964.06894053</v>
       </c>
       <c r="L14" t="n">
-        <v>31079610.8671165</v>
+        <v>36375946.2496293</v>
       </c>
       <c r="M14" t="n">
-        <v>33853914.38145338</v>
+        <v>37296732.23870263</v>
       </c>
       <c r="N14" t="n">
-        <v>37072683.08164335</v>
+        <v>39758666.27398036</v>
       </c>
       <c r="O14" t="n">
-        <v>39735359.51033537</v>
+        <v>40533931.80526606</v>
       </c>
       <c r="P14" t="n">
-        <v>39586122.95912912</v>
+        <v>42031278.29905594</v>
       </c>
       <c r="Q14" t="n">
-        <v>39437446.90488303</v>
+        <v>41629058.99478856</v>
       </c>
       <c r="R14" t="n">
-        <v>39060049.33102623</v>
+        <v>40988667.31606981</v>
       </c>
       <c r="S14" t="n">
-        <v>40730035.57995805</v>
+        <v>41787916.98718571</v>
       </c>
       <c r="T14" t="n">
-        <v>44602573.3965662</v>
+        <v>44546311.32682053</v>
       </c>
       <c r="U14" t="n">
-        <v>48065378.90074529</v>
+        <v>48522712.08013565</v>
       </c>
     </row>
     <row r="15">
@@ -1348,64 +1348,64 @@
         <v>22561132</v>
       </c>
       <c r="B15" t="n">
-        <v>23263388.00610278</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C15" t="n">
-        <v>23852255.2093749</v>
+        <v>23714719.73242343</v>
       </c>
       <c r="D15" t="n">
-        <v>24040014.46416831</v>
+        <v>23487781.16529721</v>
       </c>
       <c r="E15" t="n">
-        <v>24229251.71496047</v>
+        <v>23536119.00903007</v>
       </c>
       <c r="F15" t="n">
-        <v>24983430.96182659</v>
+        <v>25226556.92986308</v>
       </c>
       <c r="G15" t="n">
-        <v>25180094.56190963</v>
+        <v>26451762.66217401</v>
       </c>
       <c r="H15" t="n">
-        <v>25817479.44578421</v>
+        <v>28351611.25912655</v>
       </c>
       <c r="I15" t="n">
-        <v>25720515.13890975</v>
+        <v>30882401.46398491</v>
       </c>
       <c r="J15" t="n">
-        <v>25773447.94821871</v>
+        <v>32920929.52506793</v>
       </c>
       <c r="K15" t="n">
-        <v>26875374.45364422</v>
+        <v>35094019.55215186</v>
       </c>
       <c r="L15" t="n">
-        <v>27555672.03485881</v>
+        <v>36390412.593465</v>
       </c>
       <c r="M15" t="n">
-        <v>29534806.86689682</v>
+        <v>39215651.39544184</v>
       </c>
       <c r="N15" t="n">
-        <v>31999506.02051563</v>
+        <v>41804252.08753784</v>
       </c>
       <c r="O15" t="n">
-        <v>32623473.48121766</v>
+        <v>45049804.60173337</v>
       </c>
       <c r="P15" t="n">
-        <v>35345923.90520824</v>
+        <v>45404425.90132795</v>
       </c>
       <c r="Q15" t="n">
-        <v>36446129.6641074</v>
+        <v>48929484.74776022</v>
       </c>
       <c r="R15" t="n">
-        <v>37368692.2091574</v>
+        <v>48745717.25084969</v>
       </c>
       <c r="S15" t="n">
-        <v>39183618.28214134</v>
+        <v>51113203.72026353</v>
       </c>
       <c r="T15" t="n">
-        <v>41997908.70080231</v>
+        <v>50326914.74026974</v>
       </c>
       <c r="U15" t="n">
-        <v>42084340.37919711</v>
+        <v>50137898.82896951</v>
       </c>
     </row>
     <row r="16">
@@ -1413,64 +1413,64 @@
         <v>22561132</v>
       </c>
       <c r="B16" t="n">
-        <v>24312708.33564088</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C16" t="n">
-        <v>26482968.203662</v>
+        <v>25074823.25653873</v>
       </c>
       <c r="D16" t="n">
-        <v>26845401.46430117</v>
+        <v>24689090.10410688</v>
       </c>
       <c r="E16" t="n">
-        <v>26744576.5270249</v>
+        <v>24452827.27683781</v>
       </c>
       <c r="F16" t="n">
-        <v>27888022.98443016</v>
+        <v>26351268.96839934</v>
       </c>
       <c r="G16" t="n">
-        <v>28593953.78416241</v>
+        <v>25945899.88779737</v>
       </c>
       <c r="H16" t="n">
-        <v>28652800.12899151</v>
+        <v>27809415.83295562</v>
       </c>
       <c r="I16" t="n">
-        <v>28212025.93861419</v>
+        <v>28513356.84627181</v>
       </c>
       <c r="J16" t="n">
-        <v>29582230.20375415</v>
+        <v>29566656.4646029</v>
       </c>
       <c r="K16" t="n">
-        <v>29987078.48462934</v>
+        <v>31346439.52904003</v>
       </c>
       <c r="L16" t="n">
-        <v>29525778.71004047</v>
+        <v>33962320.62568544</v>
       </c>
       <c r="M16" t="n">
-        <v>31474756.9491822</v>
+        <v>36796498.72877228</v>
       </c>
       <c r="N16" t="n">
-        <v>30990571.7927876</v>
+        <v>38583634.45628387</v>
       </c>
       <c r="O16" t="n">
-        <v>30694006.78858636</v>
+        <v>38438723.51020924</v>
       </c>
       <c r="P16" t="n">
-        <v>30757175.04161292</v>
+        <v>40752566.10529453</v>
       </c>
       <c r="Q16" t="n">
-        <v>31356917.93754322</v>
+        <v>44390320.38244948</v>
       </c>
       <c r="R16" t="n">
-        <v>33609070.17817961</v>
+        <v>48610871.43094832</v>
       </c>
       <c r="S16" t="n">
-        <v>35827583.94062221</v>
+        <v>48993524.59789691</v>
       </c>
       <c r="T16" t="n">
-        <v>36942782.23858233</v>
+        <v>49948863.25576846</v>
       </c>
       <c r="U16" t="n">
-        <v>38951799.2030464</v>
+        <v>51503611.89246674</v>
       </c>
     </row>
     <row r="17">
@@ -1478,64 +1478,64 @@
         <v>22561132</v>
       </c>
       <c r="B17" t="n">
-        <v>22869892.88252599</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C17" t="n">
-        <v>24512480.35241337</v>
+        <v>25634878.47385417</v>
       </c>
       <c r="D17" t="n">
-        <v>26558063.0389691</v>
+        <v>26432810.39384732</v>
       </c>
       <c r="E17" t="n">
-        <v>28928753.19780081</v>
+        <v>26794557.21864523</v>
       </c>
       <c r="F17" t="n">
-        <v>30838322.15520963</v>
+        <v>28719026.396293</v>
       </c>
       <c r="G17" t="n">
-        <v>31439647.36176628</v>
+        <v>30113854.70619497</v>
       </c>
       <c r="H17" t="n">
-        <v>32601045.81601184</v>
+        <v>31051202.85585041</v>
       </c>
       <c r="I17" t="n">
-        <v>34753020.51895381</v>
+        <v>31476154.79519751</v>
       </c>
       <c r="J17" t="n">
-        <v>37451137.27714846</v>
+        <v>32455906.99707941</v>
       </c>
       <c r="K17" t="n">
-        <v>39487799.53074789</v>
+        <v>35164373.88721816</v>
       </c>
       <c r="L17" t="n">
-        <v>41176073.95298588</v>
+        <v>38303301.41343067</v>
       </c>
       <c r="M17" t="n">
-        <v>43415305.16646989</v>
+        <v>38159443.33153093</v>
       </c>
       <c r="N17" t="n">
-        <v>46281122.38491206</v>
+        <v>38237975.44981453</v>
       </c>
       <c r="O17" t="n">
-        <v>46914503.73261478</v>
+        <v>40539733.89197786</v>
       </c>
       <c r="P17" t="n">
-        <v>50284050.60294828</v>
+        <v>42744359.75361054</v>
       </c>
       <c r="Q17" t="n">
-        <v>54187948.38149472</v>
+        <v>44571866.22711681</v>
       </c>
       <c r="R17" t="n">
-        <v>55559610.3941858</v>
+        <v>46477506.51593716</v>
       </c>
       <c r="S17" t="n">
-        <v>55996962.37422517</v>
+        <v>49545457.73574109</v>
       </c>
       <c r="T17" t="n">
-        <v>55135545.14299566</v>
+        <v>51375695.12253683</v>
       </c>
       <c r="U17" t="n">
-        <v>54928469.16061083</v>
+        <v>52974856.47966673</v>
       </c>
     </row>
     <row r="18">
@@ -1543,64 +1543,64 @@
         <v>22561132</v>
       </c>
       <c r="B18" t="n">
-        <v>23001057.92371826</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C18" t="n">
-        <v>22780948.76002196</v>
+        <v>26058923.33875809</v>
       </c>
       <c r="D18" t="n">
-        <v>23622489.96344882</v>
+        <v>27779056.61691719</v>
       </c>
       <c r="E18" t="n">
-        <v>23533769.51454657</v>
+        <v>28643729.9565838</v>
       </c>
       <c r="F18" t="n">
-        <v>23171742.83102515</v>
+        <v>30367956.89242523</v>
       </c>
       <c r="G18" t="n">
-        <v>23893005.20274287</v>
+        <v>30430454.134903</v>
       </c>
       <c r="H18" t="n">
-        <v>24775626.40362481</v>
+        <v>31200741.61048565</v>
       </c>
       <c r="I18" t="n">
-        <v>26122970.88430452</v>
+        <v>32716102.09268708</v>
       </c>
       <c r="J18" t="n">
-        <v>28151077.3471178</v>
+        <v>32973635.43260597</v>
       </c>
       <c r="K18" t="n">
-        <v>29845648.75623344</v>
+        <v>32466392.60132337</v>
       </c>
       <c r="L18" t="n">
-        <v>29907071.08878719</v>
+        <v>33099464.01613256</v>
       </c>
       <c r="M18" t="n">
-        <v>31707345.62082518</v>
+        <v>36054068.55527051</v>
       </c>
       <c r="N18" t="n">
-        <v>31956938.27078573</v>
+        <v>36337877.56975512</v>
       </c>
       <c r="O18" t="n">
-        <v>34623765.89092956</v>
+        <v>38102738.94272245</v>
       </c>
       <c r="P18" t="n">
-        <v>34695021.58653148</v>
+        <v>37516593.65035907</v>
       </c>
       <c r="Q18" t="n">
-        <v>36178383.99769662</v>
+        <v>39556815.54284448</v>
       </c>
       <c r="R18" t="n">
-        <v>36042506.59976778</v>
+        <v>41937962.37527391</v>
       </c>
       <c r="S18" t="n">
-        <v>37793022.36835505</v>
+        <v>43730991.86894884</v>
       </c>
       <c r="T18" t="n">
-        <v>38969398.48932957</v>
+        <v>43566748.67377522</v>
       </c>
       <c r="U18" t="n">
-        <v>42221420.5494886</v>
+        <v>47708996.01983146</v>
       </c>
     </row>
     <row r="19">
@@ -1608,64 +1608,64 @@
         <v>22561132</v>
       </c>
       <c r="B19" t="n">
-        <v>23525718.08848731</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C19" t="n">
-        <v>25078636.06788857</v>
+        <v>25187956.74085121</v>
       </c>
       <c r="D19" t="n">
-        <v>27463067.24205725</v>
+        <v>27143471.60466307</v>
       </c>
       <c r="E19" t="n">
-        <v>27519586.22285961</v>
+        <v>28619583.89572016</v>
       </c>
       <c r="F19" t="n">
-        <v>28056198.45443716</v>
+        <v>29676807.60167248</v>
       </c>
       <c r="G19" t="n">
-        <v>28113938.09902447</v>
+        <v>30773085.75259857</v>
       </c>
       <c r="H19" t="n">
-        <v>30786960.27816112</v>
+        <v>33520027.4796185</v>
       </c>
       <c r="I19" t="n">
-        <v>32282224.19063658</v>
+        <v>33199256.78984915</v>
       </c>
       <c r="J19" t="n">
-        <v>31785617.53554007</v>
+        <v>34039631.09351561</v>
       </c>
       <c r="K19" t="n">
-        <v>31851032.32302351</v>
+        <v>36088667.61587169</v>
       </c>
       <c r="L19" t="n">
-        <v>32101756.04037755</v>
+        <v>38051236.24421585</v>
       </c>
       <c r="M19" t="n">
-        <v>32541085.34910467</v>
+        <v>41447857.87144747</v>
       </c>
       <c r="N19" t="n">
-        <v>33175613.21902712</v>
+        <v>41533157.54546743</v>
       </c>
       <c r="O19" t="n">
-        <v>36137015.17278226</v>
+        <v>42101560.51291736</v>
       </c>
       <c r="P19" t="n">
-        <v>35791201.1578556</v>
+        <v>45614963.5640991</v>
       </c>
       <c r="Q19" t="n">
-        <v>38778000.55012249</v>
+        <v>45708839.13987717</v>
       </c>
       <c r="R19" t="n">
-        <v>38857805.6589011</v>
+        <v>45271427.33082154</v>
       </c>
       <c r="S19" t="n">
-        <v>41648695.19259882</v>
+        <v>47996568.73335904</v>
       </c>
       <c r="T19" t="n">
-        <v>43913628.4250054</v>
+        <v>47258223.8376038</v>
       </c>
       <c r="U19" t="n">
-        <v>45025216.10730602</v>
+        <v>47904977.32934834</v>
       </c>
     </row>
     <row r="20">
@@ -1676,61 +1676,61 @@
         <v>22738727.84133373</v>
       </c>
       <c r="C20" t="n">
-        <v>23314314.29788852</v>
+        <v>24900684.79062879</v>
       </c>
       <c r="D20" t="n">
-        <v>24988821.50836996</v>
+        <v>25530996.96219948</v>
       </c>
       <c r="E20" t="n">
-        <v>24749690.3943923</v>
+        <v>27958437.78870531</v>
       </c>
       <c r="F20" t="n">
-        <v>25663958.03347719</v>
+        <v>27690888.86202828</v>
       </c>
       <c r="G20" t="n">
-        <v>28104040.55718087</v>
+        <v>27586888.47535682</v>
       </c>
       <c r="H20" t="n">
-        <v>29142219.79900208</v>
+        <v>29247498.18845498</v>
       </c>
       <c r="I20" t="n">
-        <v>31574157.3023307</v>
+        <v>31688221.24296557</v>
       </c>
       <c r="J20" t="n">
-        <v>31455572.28382048</v>
+        <v>33411485.44217148</v>
       </c>
       <c r="K20" t="n">
-        <v>32617559.01374372</v>
+        <v>34257231.89940879</v>
       </c>
       <c r="L20" t="n">
-        <v>35718777.29081111</v>
+        <v>34726060.02178133</v>
       </c>
       <c r="M20" t="n">
-        <v>38491872.41035616</v>
+        <v>34999415.2703466</v>
       </c>
       <c r="N20" t="n">
-        <v>38571088.66754379</v>
+        <v>36902748.33742173</v>
       </c>
       <c r="O20" t="n">
-        <v>38874711.0630455</v>
+        <v>36764150.39946986</v>
       </c>
       <c r="P20" t="n">
-        <v>38276690.30354463</v>
+        <v>39832143.0490053</v>
       </c>
       <c r="Q20" t="n">
-        <v>38355463.71604718</v>
+        <v>39914117.58260205</v>
       </c>
       <c r="R20" t="n">
-        <v>40441304.91738877</v>
+        <v>43477028.23661635</v>
       </c>
       <c r="S20" t="n">
-        <v>41935229.72126068</v>
+        <v>46346919.75642581</v>
       </c>
       <c r="T20" t="n">
-        <v>44459546.65748693</v>
+        <v>49675700.96457691</v>
       </c>
       <c r="U20" t="n">
-        <v>47652770.80731493</v>
+        <v>52088354.96835472</v>
       </c>
     </row>
     <row r="21">
@@ -1738,64 +1738,64 @@
         <v>22561132</v>
       </c>
       <c r="B21" t="n">
-        <v>22345232.71775694</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C21" t="n">
-        <v>23690317.73978446</v>
+        <v>24666792.19930414</v>
       </c>
       <c r="D21" t="n">
-        <v>24840911.26611269</v>
+        <v>25291183.83702639</v>
       </c>
       <c r="E21" t="n">
-        <v>24892033.85102239</v>
+        <v>26813602.19794572</v>
       </c>
       <c r="F21" t="n">
-        <v>25377410.69227029</v>
+        <v>28895327.13458499</v>
       </c>
       <c r="G21" t="n">
-        <v>25282099.17887443</v>
+        <v>31642642.36420894</v>
       </c>
       <c r="H21" t="n">
-        <v>26950954.77869958</v>
+        <v>31339837.35536867</v>
       </c>
       <c r="I21" t="n">
-        <v>28416597.64796793</v>
+        <v>34137369.83688819</v>
       </c>
       <c r="J21" t="n">
-        <v>29961944.8927538</v>
+        <v>36390756.33033241</v>
       </c>
       <c r="K21" t="n">
-        <v>29849414.96026224</v>
+        <v>39216021.81897385</v>
       </c>
       <c r="L21" t="n">
-        <v>30431457.18442204</v>
+        <v>39068735.77650656</v>
       </c>
       <c r="M21" t="n">
-        <v>33324824.86955009</v>
+        <v>39149139.21825845</v>
       </c>
       <c r="N21" t="n">
-        <v>33974635.09908494</v>
+        <v>39912519.40828468</v>
       </c>
       <c r="O21" t="n">
-        <v>34439595.73655171</v>
+        <v>39762617.48667515</v>
       </c>
       <c r="P21" t="n">
-        <v>34510472.41005359</v>
+        <v>42849663.82073323</v>
       </c>
       <c r="Q21" t="n">
-        <v>36587851.51494735</v>
+        <v>46674614.31429915</v>
       </c>
       <c r="R21" t="n">
-        <v>39428418.86261077</v>
+        <v>50840996.80461159</v>
       </c>
       <c r="S21" t="n">
-        <v>41343381.92874526</v>
+        <v>51832359.84800967</v>
       </c>
       <c r="T21" t="n">
-        <v>43110990.53364528</v>
+        <v>51035007.88434465</v>
       </c>
       <c r="U21" t="n">
-        <v>45956720.13295801</v>
+        <v>50249921.81318048</v>
       </c>
     </row>
     <row r="22">
@@ -1803,64 +1803,64 @@
         <v>22561132</v>
       </c>
       <c r="B22" t="n">
-        <v>22345232.71775694</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C22" t="n">
-        <v>23170678.32277731</v>
+        <v>23574134.0063921</v>
       </c>
       <c r="D22" t="n">
-        <v>25104286.74311649</v>
+        <v>23485595.17095328</v>
       </c>
       <c r="E22" t="n">
-        <v>26907355.39133958</v>
+        <v>23943547.46473245</v>
       </c>
       <c r="F22" t="n">
-        <v>28370627.24512023</v>
+        <v>25663248.17571713</v>
       </c>
       <c r="G22" t="n">
-        <v>29913474.53420196</v>
+        <v>26014463.13936425</v>
       </c>
       <c r="H22" t="n">
-        <v>30670675.68153639</v>
+        <v>26521726.54824902</v>
       </c>
       <c r="I22" t="n">
-        <v>33586787.82694582</v>
+        <v>27964027.19085364</v>
       </c>
       <c r="J22" t="n">
-        <v>35803830.74527968</v>
+        <v>29484762.81542948</v>
       </c>
       <c r="K22" t="n">
-        <v>37750909.41671078</v>
+        <v>30059694.58379959</v>
       </c>
       <c r="L22" t="n">
-        <v>39803873.83482952</v>
+        <v>29772037.63089989</v>
       </c>
       <c r="M22" t="n">
-        <v>43125533.41410417</v>
+        <v>31044921.16017877</v>
       </c>
       <c r="N22" t="n">
-        <v>46724387.68066909</v>
+        <v>31108811.59483408</v>
       </c>
       <c r="O22" t="n">
-        <v>47363835.34560762</v>
+        <v>33162284.84745565</v>
       </c>
       <c r="P22" t="n">
-        <v>51041016.66596679</v>
+        <v>34194520.89439767</v>
       </c>
       <c r="Q22" t="n">
-        <v>53816721.74695357</v>
+        <v>37246875.05333488</v>
       </c>
       <c r="R22" t="n">
-        <v>52988843.77865776</v>
+        <v>38406251.35212895</v>
       </c>
       <c r="S22" t="n">
-        <v>55562410.8067164</v>
+        <v>40494854.47924576</v>
       </c>
       <c r="T22" t="n">
-        <v>56968864.64956268</v>
+        <v>44345031.70389047</v>
       </c>
       <c r="U22" t="n">
-        <v>62054157.4507118</v>
+        <v>47014408.15208644</v>
       </c>
     </row>
     <row r="23">
@@ -1868,64 +1868,64 @@
         <v>22561132</v>
       </c>
       <c r="B23" t="n">
-        <v>23788048.17087183</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C23" t="n">
-        <v>26049772.59151847</v>
+        <v>23179829.07001693</v>
       </c>
       <c r="D23" t="n">
-        <v>28375090.49711653</v>
+        <v>24440391.13419211</v>
       </c>
       <c r="E23" t="n">
-        <v>29423282.47787346</v>
+        <v>25627414.29398309</v>
       </c>
       <c r="F23" t="n">
-        <v>31023375.10940599</v>
+        <v>27170072.25398445</v>
       </c>
       <c r="G23" t="n">
-        <v>32710483.7437047</v>
+        <v>28173750.17550886</v>
       </c>
       <c r="H23" t="n">
-        <v>34108998.56853121</v>
+        <v>28231731.74148855</v>
       </c>
       <c r="I23" t="n">
-        <v>35963909.12514579</v>
+        <v>30587688.41464459</v>
       </c>
       <c r="J23" t="n">
-        <v>38756035.52025507</v>
+        <v>30650637.86450242</v>
       </c>
       <c r="K23" t="n">
-        <v>41539615.60325238</v>
+        <v>32495671.85577383</v>
       </c>
       <c r="L23" t="n">
-        <v>40900599.85771682</v>
+        <v>35207457.1496526</v>
       </c>
       <c r="M23" t="n">
-        <v>44075995.61464487</v>
+        <v>36303352.88054721</v>
       </c>
       <c r="N23" t="n">
-        <v>44935445.97753333</v>
+        <v>37011242.27413103</v>
       </c>
       <c r="O23" t="n">
-        <v>48162850.70984378</v>
+        <v>36657062.32243761</v>
       </c>
       <c r="P23" t="n">
-        <v>51902065.10566254</v>
+        <v>37798079.63406967</v>
       </c>
       <c r="Q23" t="n">
-        <v>54724595.59658737</v>
+        <v>40293107.29825442</v>
       </c>
       <c r="R23" t="n">
-        <v>58973243.52012684</v>
+        <v>44124102.76730627</v>
       </c>
       <c r="S23" t="n">
-        <v>61837461.42408872</v>
+        <v>46267126.2403028</v>
       </c>
       <c r="T23" t="n">
-        <v>64481280.67203455</v>
+        <v>45824371.88973518</v>
       </c>
       <c r="U23" t="n">
-        <v>68737649.7959774</v>
+        <v>50181269.95128845</v>
       </c>
     </row>
     <row r="24">
@@ -1933,64 +1933,64 @@
         <v>22561132</v>
       </c>
       <c r="B24" t="n">
-        <v>23263388.00610278</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C24" t="n">
-        <v>24257998.57979958</v>
+        <v>25776226.76215548</v>
       </c>
       <c r="D24" t="n">
-        <v>26141314.37540714</v>
+        <v>25529560.55511925</v>
       </c>
       <c r="E24" t="n">
-        <v>27866886.23451295</v>
+        <v>26324214.26456065</v>
       </c>
       <c r="F24" t="n">
-        <v>28896304.86077779</v>
+        <v>26378389.48641561</v>
       </c>
       <c r="G24" t="n">
-        <v>31307720.59997789</v>
+        <v>25972603.2031557</v>
       </c>
       <c r="H24" t="n">
-        <v>33738354.95492861</v>
+        <v>25573059.24593949</v>
       </c>
       <c r="I24" t="n">
-        <v>34200081.9751357</v>
+        <v>27558472.2742011</v>
       </c>
       <c r="J24" t="n">
-        <v>34668127.97092634</v>
+        <v>27454969.21271137</v>
       </c>
       <c r="K24" t="n">
-        <v>35344131.64934073</v>
+        <v>28149938.10253817</v>
       </c>
       <c r="L24" t="n">
-        <v>34800422.79916923</v>
+        <v>28535184.71745057</v>
       </c>
       <c r="M24" t="n">
-        <v>35276684.77289241</v>
+        <v>29091600.39266117</v>
       </c>
       <c r="N24" t="n">
-        <v>36374735.33866891</v>
+        <v>29489734.14815409</v>
       </c>
       <c r="O24" t="n">
-        <v>39833179.11762358</v>
+        <v>31607779.39003097</v>
       </c>
       <c r="P24" t="n">
-        <v>43157284.24211626</v>
+        <v>32224108.46185423</v>
       </c>
       <c r="Q24" t="n">
-        <v>46507881.97759417</v>
+        <v>33789171.91921949</v>
       </c>
       <c r="R24" t="n">
-        <v>48225909.58832047</v>
+        <v>33269383.45773698</v>
       </c>
       <c r="S24" t="n">
-        <v>48044784.55222075</v>
+        <v>35658894.9731281</v>
       </c>
       <c r="T24" t="n">
-        <v>50657548.97792301</v>
+        <v>35317656.34067477</v>
       </c>
       <c r="U24" t="n">
-        <v>54590444.01223684</v>
+        <v>38675594.96817093</v>
       </c>
     </row>
     <row r="25">
@@ -1998,64 +1998,64 @@
         <v>22561132</v>
       </c>
       <c r="B25" t="n">
-        <v>22607562.80014147</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C25" t="n">
-        <v>24757048.81551759</v>
+        <v>23986740.43724649</v>
       </c>
       <c r="D25" t="n">
-        <v>26679109.3240757</v>
+        <v>23896651.95027551</v>
       </c>
       <c r="E25" t="n">
-        <v>28440180.69235175</v>
+        <v>25057266.73547662</v>
       </c>
       <c r="F25" t="n">
-        <v>31144221.42480069</v>
+        <v>25837219.44624964</v>
       </c>
       <c r="G25" t="n">
-        <v>33924292.36325408</v>
+        <v>26341026.72999775</v>
       </c>
       <c r="H25" t="n">
-        <v>33402425.30547192</v>
+        <v>26701517.44738706</v>
       </c>
       <c r="I25" t="n">
-        <v>34247942.4230551</v>
+        <v>28308831.70710142</v>
       </c>
       <c r="J25" t="n">
-        <v>33721096.56416338</v>
+        <v>30506641.62673662</v>
       </c>
       <c r="K25" t="n">
-        <v>36143051.53228124</v>
+        <v>31101499.30042001</v>
       </c>
       <c r="L25" t="n">
-        <v>39159213.07084405</v>
+        <v>32431223.07298084</v>
       </c>
       <c r="M25" t="n">
-        <v>41061101.3253758</v>
+        <v>35514724.86718926</v>
       </c>
       <c r="N25" t="n">
-        <v>42577921.76105618</v>
+        <v>38478452.13026729</v>
       </c>
       <c r="O25" t="n">
-        <v>46626153.23997509</v>
+        <v>41913208.93683306</v>
       </c>
       <c r="P25" t="n">
-        <v>48348549.85839828</v>
+        <v>41999466.30314933</v>
       </c>
       <c r="Q25" t="n">
-        <v>52664355.23829012</v>
+        <v>45260174.64376553</v>
       </c>
       <c r="R25" t="n">
-        <v>57365408.49286806</v>
+        <v>44827056.34013677</v>
       </c>
       <c r="S25" t="n">
-        <v>57483466.47935411</v>
+        <v>46222379.48042817</v>
       </c>
       <c r="T25" t="n">
-        <v>59941133.58949784</v>
+        <v>48736038.14084964</v>
       </c>
       <c r="U25" t="n">
-        <v>61806909.69841977</v>
+        <v>50536375.10746807</v>
       </c>
     </row>
     <row r="26">
@@ -2063,64 +2063,64 @@
         <v>22561132</v>
       </c>
       <c r="B26" t="n">
-        <v>23919213.21206409</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C26" t="n">
-        <v>24663741.95022427</v>
+        <v>24659166.57660446</v>
       </c>
       <c r="D26" t="n">
-        <v>25861612.83294787</v>
+        <v>27003715.35330452</v>
       </c>
       <c r="E26" t="n">
-        <v>25914836.02125165</v>
+        <v>28943206.92449741</v>
       </c>
       <c r="F26" t="n">
-        <v>25666843.38965698</v>
+        <v>28666234.2264603</v>
       </c>
       <c r="G26" t="n">
-        <v>26465770.27542167</v>
+        <v>28391912.02515834</v>
       </c>
       <c r="H26" t="n">
-        <v>28366624.94311192</v>
+        <v>28615406.37389852</v>
       </c>
       <c r="I26" t="n">
-        <v>30898755.33580023</v>
+        <v>28674296.86814824</v>
       </c>
       <c r="J26" t="n">
-        <v>32758724.91080717</v>
+        <v>29233425.13071466</v>
       </c>
       <c r="K26" t="n">
-        <v>34540205.08344262</v>
+        <v>30653236.80556253</v>
       </c>
       <c r="L26" t="n">
-        <v>35213714.35712408</v>
+        <v>31072742.37152277</v>
       </c>
       <c r="M26" t="n">
-        <v>34672011.75332742</v>
+        <v>32581886.17493823</v>
       </c>
       <c r="N26" t="n">
-        <v>34340217.12301072</v>
+        <v>35300866.1107333</v>
       </c>
       <c r="O26" t="n">
-        <v>34810180.94153876</v>
+        <v>34963053.64388254</v>
       </c>
       <c r="P26" t="n">
-        <v>34477064.09793228</v>
+        <v>35644808.1617984</v>
       </c>
       <c r="Q26" t="n">
-        <v>36953315.02646364</v>
+        <v>37168778.06187564</v>
       </c>
       <c r="R26" t="n">
-        <v>38103553.73889802</v>
+        <v>37461361.80329631</v>
       </c>
       <c r="S26" t="n">
-        <v>39289595.70997471</v>
+        <v>39934162.93346299</v>
       </c>
       <c r="T26" t="n">
-        <v>40969396.06060127</v>
+        <v>42802359.82410371</v>
       </c>
       <c r="U26" t="n">
-        <v>42482828.85164525</v>
+        <v>43885817.91354686</v>
       </c>
     </row>
     <row r="27">
@@ -2128,64 +2128,64 @@
         <v>22561132</v>
       </c>
       <c r="B27" t="n">
-        <v>24050378.25325636</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C27" t="n">
-        <v>24938812.9041272</v>
+        <v>23442699.02760037</v>
       </c>
       <c r="D27" t="n">
-        <v>25570090.21437656</v>
+        <v>24990136.97056664</v>
       </c>
       <c r="E27" t="n">
-        <v>26960639.10947058</v>
+        <v>26494433.63026594</v>
       </c>
       <c r="F27" t="n">
-        <v>27329609.54610048</v>
+        <v>29013476.26555659</v>
       </c>
       <c r="G27" t="n">
-        <v>29451395.69332283</v>
+        <v>29410540.85154014</v>
       </c>
       <c r="H27" t="n">
-        <v>28998336.4797812</v>
+        <v>29642053.60305497</v>
       </c>
       <c r="I27" t="n">
-        <v>30912498.5862385</v>
+        <v>32288034.39846212</v>
       </c>
       <c r="J27" t="n">
-        <v>32593577.54971909</v>
+        <v>31791338.36328274</v>
       </c>
       <c r="K27" t="n">
-        <v>33608111.55424807</v>
+        <v>31671937.66440815</v>
       </c>
       <c r="L27" t="n">
-        <v>36217341.13031721</v>
+        <v>33210183.23980375</v>
       </c>
       <c r="M27" t="n">
-        <v>37344671.32517794</v>
+        <v>34436986.29634265</v>
       </c>
       <c r="N27" t="n">
-        <v>38289978.69634008</v>
+        <v>34908274.45158213</v>
       </c>
       <c r="O27" t="n">
-        <v>39927041.09103574</v>
+        <v>36197805.96324122</v>
       </c>
       <c r="P27" t="n">
-        <v>39312832.03880225</v>
+        <v>38587200.56041203</v>
       </c>
       <c r="Q27" t="n">
-        <v>40536514.9823779</v>
+        <v>40236970.47684367</v>
       </c>
       <c r="R27" t="n">
-        <v>40384269.48193599</v>
+        <v>41489418.89941146</v>
       </c>
       <c r="S27" t="n">
-        <v>41171733.82794166</v>
+        <v>44228109.56642818</v>
       </c>
       <c r="T27" t="n">
-        <v>44846904.86977261</v>
+        <v>45604789.40596797</v>
       </c>
       <c r="U27" t="n">
-        <v>44939199.78108166</v>
+        <v>49940809.96372962</v>
       </c>
     </row>
     <row r="28">
@@ -2193,64 +2193,64 @@
         <v>22561132</v>
       </c>
       <c r="B28" t="n">
-        <v>23394553.04729505</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C28" t="n">
-        <v>23850730.08483496</v>
+        <v>25488954.81193306</v>
       </c>
       <c r="D28" t="n">
-        <v>25979751.73110878</v>
+        <v>26134157.88942525</v>
       </c>
       <c r="E28" t="n">
-        <v>27392578.77871139</v>
+        <v>28467008.39990508</v>
       </c>
       <c r="F28" t="n">
-        <v>28085968.37663235</v>
+        <v>29518595.88026758</v>
       </c>
       <c r="G28" t="n">
-        <v>27817199.04300068</v>
+        <v>29579345.13814052</v>
       </c>
       <c r="H28" t="n">
-        <v>28844782.1961524</v>
+        <v>30500055.7115216</v>
       </c>
       <c r="I28" t="n">
-        <v>28401054.69092142</v>
+        <v>33222625.56961054</v>
       </c>
       <c r="J28" t="n">
-        <v>28294387.09045362</v>
+        <v>35608778.78675561</v>
       </c>
       <c r="K28" t="n">
-        <v>30491075.57483913</v>
+        <v>37959292.06734854</v>
       </c>
       <c r="L28" t="n">
-        <v>32503772.4580268</v>
+        <v>38037412.27441486</v>
       </c>
       <c r="M28" t="n">
-        <v>32003757.6627922</v>
+        <v>39884816.80490462</v>
       </c>
       <c r="N28" t="n">
-        <v>34488430.17717368</v>
+        <v>41590065.43479943</v>
       </c>
       <c r="O28" t="n">
-        <v>36363974.92786963</v>
+        <v>41917452.49419069</v>
       </c>
       <c r="P28" t="n">
-        <v>37073046.40798023</v>
+        <v>42003718.59374621</v>
       </c>
       <c r="Q28" t="n">
-        <v>37580410.4235294</v>
+        <v>43555359.84741585</v>
       </c>
       <c r="R28" t="n">
-        <v>38750168.61348774</v>
+        <v>44404658.18553805</v>
       </c>
       <c r="S28" t="n">
-        <v>40857474.59866163</v>
+        <v>47593940.07307704</v>
       </c>
       <c r="T28" t="n">
-        <v>40704023.6503063</v>
+        <v>49352087.28752539</v>
       </c>
       <c r="U28" t="n">
-        <v>42917583.89347629</v>
+        <v>53470551.59017231</v>
       </c>
     </row>
     <row r="29">
@@ -2258,64 +2258,64 @@
         <v>22561132</v>
       </c>
       <c r="B29" t="n">
-        <v>24706203.45921767</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C29" t="n">
-        <v>26193408.56662968</v>
+        <v>26057398.21421815</v>
       </c>
       <c r="D29" t="n">
-        <v>26551879.05230374</v>
+        <v>26565498.8263277</v>
       </c>
       <c r="E29" t="n">
-        <v>28613284.61541174</v>
+        <v>28473516.31148062</v>
       </c>
       <c r="F29" t="n">
-        <v>28838521.55629731</v>
+        <v>29028729.49691985</v>
       </c>
       <c r="G29" t="n">
-        <v>29903832.94394799</v>
+        <v>29257236.72066442</v>
       </c>
       <c r="H29" t="n">
-        <v>30660790.03326789</v>
+        <v>30678204.87899843</v>
       </c>
       <c r="I29" t="n">
-        <v>30902144.44766142</v>
+        <v>31276407.91328817</v>
       </c>
       <c r="J29" t="n">
-        <v>30965741.04790258</v>
+        <v>30795274.01664183</v>
       </c>
       <c r="K29" t="n">
-        <v>32109633.13338881</v>
+        <v>31395759.81531221</v>
       </c>
       <c r="L29" t="n">
-        <v>34042492.24190899</v>
+        <v>33833229.2619679</v>
       </c>
       <c r="M29" t="n">
-        <v>33914636.74495982</v>
+        <v>33902858.0335208</v>
       </c>
       <c r="N29" t="n">
-        <v>36942007.20694174</v>
+        <v>33381320.70614168</v>
       </c>
       <c r="O29" t="n">
-        <v>36373717.7816762</v>
+        <v>33838161.52605761</v>
       </c>
       <c r="P29" t="n">
-        <v>38563256.08729917</v>
+        <v>34301254.45135243</v>
       </c>
       <c r="Q29" t="n">
-        <v>40660397.42289257</v>
+        <v>36565458.86599216</v>
       </c>
       <c r="R29" t="n">
-        <v>40507686.64949465</v>
+        <v>38341373.42824297</v>
       </c>
       <c r="S29" t="n">
-        <v>44359083.93358321</v>
+        <v>41540986.38197082</v>
       </c>
       <c r="T29" t="n">
-        <v>46513519.99343051</v>
+        <v>42834024.65621047</v>
       </c>
       <c r="U29" t="n">
-        <v>46879663.31091239</v>
+        <v>45412445.10615463</v>
       </c>
     </row>
     <row r="30">
@@ -2323,64 +2323,64 @@
         <v>22561132</v>
       </c>
       <c r="B30" t="n">
-        <v>24050378.25325636</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C30" t="n">
-        <v>23680404.43027487</v>
+        <v>24911360.66240835</v>
       </c>
       <c r="D30" t="n">
-        <v>24555172.03770919</v>
+        <v>26266086.62363801</v>
       </c>
       <c r="E30" t="n">
-        <v>24605706.57140733</v>
+        <v>27236370.80185277</v>
       </c>
       <c r="F30" t="n">
-        <v>24227189.97464022</v>
+        <v>29667609.71138848</v>
       </c>
       <c r="G30" t="n">
-        <v>25685560.57083489</v>
+        <v>31453469.71858524</v>
       </c>
       <c r="H30" t="n">
-        <v>26037080.89127031</v>
+        <v>31518200.94600146</v>
       </c>
       <c r="I30" t="n">
-        <v>26696158.70924721</v>
+        <v>32132783.30229046</v>
       </c>
       <c r="J30" t="n">
-        <v>26595894.29223127</v>
+        <v>32946161.91384974</v>
       </c>
       <c r="K30" t="n">
-        <v>28042228.31420926</v>
+        <v>35120917.51518118</v>
       </c>
       <c r="L30" t="n">
-        <v>29078124.17662055</v>
+        <v>35601565.62659287</v>
       </c>
       <c r="M30" t="n">
-        <v>30828499.73961691</v>
+        <v>35467854.62115265</v>
       </c>
       <c r="N30" t="n">
-        <v>31788092.50744807</v>
+        <v>37396662.28828671</v>
       </c>
       <c r="O30" t="n">
-        <v>32592745.94517199</v>
+        <v>38125870.43268098</v>
       </c>
       <c r="P30" t="n">
-        <v>35312632.13597067</v>
+        <v>39534261.76982843</v>
       </c>
       <c r="Q30" t="n">
-        <v>37027699.29461098</v>
+        <v>40764837.1139513</v>
       </c>
       <c r="R30" t="n">
-        <v>39687144.84656443</v>
+        <v>43218701.54758479</v>
       </c>
       <c r="S30" t="n">
-        <v>40230284.16544977</v>
+        <v>43307645.61714343</v>
       </c>
       <c r="T30" t="n">
-        <v>40780856.62977451</v>
+        <v>43396772.73355971</v>
       </c>
       <c r="U30" t="n">
-        <v>40627693.4402712</v>
+        <v>44495277.22413275</v>
       </c>
     </row>
     <row r="31">
@@ -2388,64 +2388,64 @@
         <v>22561132</v>
       </c>
       <c r="B31" t="n">
-        <v>22345232.71775694</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C31" t="n">
-        <v>24080047.30253981</v>
+        <v>23179829.07001693</v>
       </c>
       <c r="D31" t="n">
-        <v>24269599.68227194</v>
+        <v>24170867.13736444</v>
       </c>
       <c r="E31" t="n">
-        <v>25166132.49740863</v>
+        <v>25204276.37354003</v>
       </c>
       <c r="F31" t="n">
-        <v>24925304.60175941</v>
+        <v>25256146.76368757</v>
       </c>
       <c r="G31" t="n">
-        <v>26135879.08334948</v>
+        <v>25308123.90307616</v>
       </c>
       <c r="H31" t="n">
-        <v>28164987.69871358</v>
+        <v>25507343.40842478</v>
       </c>
       <c r="I31" t="n">
-        <v>30024140.9718437</v>
+        <v>27191067.23937085</v>
       </c>
       <c r="J31" t="n">
-        <v>29736824.25006815</v>
+        <v>26772779.30262563</v>
       </c>
       <c r="K31" t="n">
-        <v>32564147.49726129</v>
+        <v>27917431.55081307</v>
       </c>
       <c r="L31" t="n">
-        <v>35470967.31650887</v>
+        <v>27812580.32373166</v>
       </c>
       <c r="M31" t="n">
-        <v>35131527.06217671</v>
+        <v>29971862.82463452</v>
       </c>
       <c r="N31" t="n">
-        <v>38267522.53552224</v>
+        <v>32298785.32385595</v>
       </c>
       <c r="O31" t="n">
-        <v>41683450.83363336</v>
+        <v>35181917.74195175</v>
       </c>
       <c r="P31" t="n">
-        <v>43707936.4995076</v>
+        <v>37708793.47094535</v>
       </c>
       <c r="Q31" t="n">
-        <v>47355392.6884798</v>
+        <v>41074847.14179535</v>
       </c>
       <c r="R31" t="n">
-        <v>50205979.6670118</v>
+        <v>42830974.72172877</v>
       </c>
       <c r="S31" t="n">
-        <v>53811930.66722243</v>
+        <v>44413175.28725229</v>
       </c>
       <c r="T31" t="n">
-        <v>54548375.06208874</v>
+        <v>46570238.46092919</v>
       </c>
       <c r="U31" t="n">
-        <v>58783341.76971751</v>
+        <v>50456555.64037648</v>
       </c>
     </row>
     <row r="32">
@@ -2453,64 +2453,64 @@
         <v>22561132</v>
       </c>
       <c r="B32" t="n">
-        <v>23001057.92371826</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C32" t="n">
-        <v>24786788.74404634</v>
+        <v>26767952.46707452</v>
       </c>
       <c r="D32" t="n">
-        <v>25414217.8597871</v>
+        <v>26978663.39413134</v>
       </c>
       <c r="E32" t="n">
-        <v>27239546.73333728</v>
+        <v>27191032.9872679</v>
       </c>
       <c r="F32" t="n">
-        <v>28720883.76794842</v>
+        <v>27563156.48452603</v>
       </c>
       <c r="G32" t="n">
-        <v>30616731.39392873</v>
+        <v>27940372.68632673</v>
       </c>
       <c r="H32" t="n">
-        <v>30323743.86419939</v>
+        <v>27997873.96153212</v>
       </c>
       <c r="I32" t="n">
-        <v>33030575.34706424</v>
+        <v>28055493.57433762</v>
       </c>
       <c r="J32" t="n">
-        <v>33866679.8096641</v>
+        <v>30722958.95420315</v>
       </c>
       <c r="K32" t="n">
-        <v>33936377.42243005</v>
+        <v>31500650.6176384</v>
       </c>
       <c r="L32" t="n">
-        <v>36965688.55343024</v>
+        <v>31382341.67273742</v>
       </c>
       <c r="M32" t="n">
-        <v>40265409.39299102</v>
+        <v>32906522.12342988</v>
       </c>
       <c r="N32" t="n">
-        <v>41986930.00409003</v>
+        <v>35269971.7991744</v>
       </c>
       <c r="O32" t="n">
-        <v>43049747.08125026</v>
+        <v>36162762.20646235</v>
       </c>
       <c r="P32" t="n">
-        <v>47142838.85477161</v>
+        <v>37288393.53368276</v>
       </c>
       <c r="Q32" t="n">
-        <v>50528785.47006747</v>
+        <v>37798704.68719387</v>
       </c>
       <c r="R32" t="n">
-        <v>55332970.63155557</v>
+        <v>38535752.37056664</v>
       </c>
       <c r="S32" t="n">
-        <v>58342080.12350091</v>
+        <v>41079473.35204405</v>
       </c>
       <c r="T32" t="n">
-        <v>58122961.15905403</v>
+        <v>44507582.55411813</v>
       </c>
       <c r="U32" t="n">
-        <v>63311273.71858608</v>
+        <v>44857935.61128871</v>
       </c>
     </row>
     <row r="33">
@@ -2521,61 +2521,61 @@
         <v>24706203.45921767</v>
       </c>
       <c r="C33" t="n">
-        <v>25475228.69107363</v>
+        <v>26767952.46707452</v>
       </c>
       <c r="D33" t="n">
-        <v>25379549.79656011</v>
+        <v>27289908.3784678</v>
       </c>
       <c r="E33" t="n">
-        <v>27202388.70102497</v>
+        <v>28139356.09522127</v>
       </c>
       <c r="F33" t="n">
-        <v>28049112.20965199</v>
+        <v>28688053.39565048</v>
       </c>
       <c r="G33" t="n">
-        <v>28759120.66830085</v>
+        <v>28580307.89636857</v>
       </c>
       <c r="H33" t="n">
-        <v>30323094.94973286</v>
+        <v>29469921.63013386</v>
       </c>
       <c r="I33" t="n">
-        <v>30209208.62360007</v>
+        <v>29016577.4268264</v>
       </c>
       <c r="J33" t="n">
-        <v>31676412.24068966</v>
+        <v>29244988.99237828</v>
       </c>
       <c r="K33" t="n">
-        <v>32662397.81746887</v>
+        <v>32025549.43645021</v>
       </c>
       <c r="L33" t="n">
-        <v>35198205.11128582</v>
+        <v>32836213.63226503</v>
       </c>
       <c r="M33" t="n">
-        <v>36703080.79704791</v>
+        <v>33858300.12335653</v>
       </c>
       <c r="N33" t="n">
-        <v>39339211.2298913</v>
+        <v>34715356.82102922</v>
       </c>
       <c r="O33" t="n">
-        <v>42622094.40767226</v>
+        <v>35190454.62238359</v>
       </c>
       <c r="P33" t="n">
-        <v>44444373.50819936</v>
+        <v>35672054.38544947</v>
       </c>
       <c r="Q33" t="n">
-        <v>45569395.96503536</v>
+        <v>37404577.99689092</v>
       </c>
       <c r="R33" t="n">
-        <v>46987825.76771201</v>
+        <v>38351401.78837067</v>
       </c>
       <c r="S33" t="n">
-        <v>46264998.65248713</v>
+        <v>41105919.80705044</v>
       </c>
       <c r="T33" t="n">
-        <v>50663790.70645828</v>
+        <v>43341335.90806129</v>
       </c>
       <c r="U33" t="n">
-        <v>54302623.13207974</v>
+        <v>43430532.35908207</v>
       </c>
     </row>
     <row r="34">
@@ -2583,64 +2583,64 @@
         <v>22561132</v>
       </c>
       <c r="B34" t="n">
-        <v>22345232.71775694</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C34" t="n">
-        <v>23430498.03128088</v>
+        <v>25637928.72293404</v>
       </c>
       <c r="D34" t="n">
-        <v>24704691.93813623</v>
+        <v>26286902.78384054</v>
       </c>
       <c r="E34" t="n">
-        <v>25330042.9336788</v>
+        <v>27716433.27493601</v>
       </c>
       <c r="F34" t="n">
-        <v>25234909.32230818</v>
+        <v>30029387.95047964</v>
       </c>
       <c r="G34" t="n">
-        <v>26607230.4592983</v>
+        <v>30614939.51911585</v>
       </c>
       <c r="H34" t="n">
-        <v>26352611.94287642</v>
+        <v>32279836.66905791</v>
       </c>
       <c r="I34" t="n">
-        <v>26253637.80573269</v>
+        <v>34973610.37395228</v>
       </c>
       <c r="J34" t="n">
-        <v>25849770.61313072</v>
+        <v>36672211.89253882</v>
       </c>
       <c r="K34" t="n">
-        <v>25902969.43015112</v>
+        <v>39945735.70745962</v>
       </c>
       <c r="L34" t="n">
-        <v>26859839.85272247</v>
+        <v>40027944.01469956</v>
       </c>
       <c r="M34" t="n">
-        <v>27383587.50235873</v>
+        <v>40575747.34831242</v>
       </c>
       <c r="N34" t="n">
-        <v>27917547.85624056</v>
+        <v>40423354.50044343</v>
       </c>
       <c r="O34" t="n">
-        <v>28461920.05479005</v>
+        <v>43091674.92132652</v>
       </c>
       <c r="P34" t="n">
-        <v>28520494.67425979</v>
+        <v>43430882.29186682</v>
       </c>
       <c r="Q34" t="n">
-        <v>29408246.61339215</v>
+        <v>45540237.36918712</v>
       </c>
       <c r="R34" t="n">
-        <v>29639741.30521237</v>
+        <v>47222519.63774939</v>
       </c>
       <c r="S34" t="n">
-        <v>32457834.08231266</v>
+        <v>48417865.43446864</v>
       </c>
       <c r="T34" t="n">
-        <v>35543866.00296237</v>
+        <v>52458368.30601842</v>
       </c>
       <c r="U34" t="n">
-        <v>37683450.87054556</v>
+        <v>52261347.16252378</v>
       </c>
     </row>
     <row r="35">
@@ -2648,64 +2648,64 @@
         <v>22561132</v>
       </c>
       <c r="B35" t="n">
-        <v>23132222.96491052</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C35" t="n">
-        <v>25331592.71596242</v>
+        <v>23448799.52576011</v>
       </c>
       <c r="D35" t="n">
-        <v>27592802.70974653</v>
+        <v>24315011.51630077</v>
       </c>
       <c r="E35" t="n">
-        <v>28612096.5347267</v>
+        <v>25354583.54885802</v>
       </c>
       <c r="F35" t="n">
-        <v>30334419.27729018</v>
+        <v>25848979.77809967</v>
       </c>
       <c r="G35" t="n">
-        <v>30220490.41967887</v>
+        <v>26353016.37990028</v>
       </c>
       <c r="H35" t="n">
-        <v>33093799.76793384</v>
+        <v>25947620.41836918</v>
       </c>
       <c r="I35" t="n">
-        <v>35663099.77158396</v>
+        <v>27962113.21469729</v>
       </c>
       <c r="J35" t="n">
-        <v>35943831.17320438</v>
+        <v>28182224.28987885</v>
       </c>
       <c r="K35" t="n">
-        <v>38316461.05287415</v>
+        <v>30861738.99603323</v>
       </c>
       <c r="L35" t="n">
-        <v>41959520.58653345</v>
+        <v>32360634.76814163</v>
       </c>
       <c r="M35" t="n">
-        <v>45948955.60480422</v>
+        <v>32803506.96755577</v>
       </c>
       <c r="N35" t="n">
-        <v>48714881.23836072</v>
+        <v>35922404.83838742</v>
       </c>
       <c r="O35" t="n">
-        <v>49381569.84792628</v>
+        <v>37458243.19845365</v>
       </c>
       <c r="P35" t="n">
-        <v>52928309.14802803</v>
+        <v>40366385.05769602</v>
       </c>
       <c r="Q35" t="n">
-        <v>53960373.28792986</v>
+        <v>42326903.35208173</v>
       </c>
       <c r="R35" t="n">
-        <v>54385136.45552057</v>
+        <v>44136561.75672937</v>
       </c>
       <c r="S35" t="n">
-        <v>55761789.89893704</v>
+        <v>45766991.44985363</v>
       </c>
       <c r="T35" t="n">
-        <v>55876547.63903306</v>
+        <v>48788042.01325224</v>
       </c>
       <c r="U35" t="n">
-        <v>55991541.5505098</v>
+        <v>48321163.70002285</v>
       </c>
     </row>
     <row r="36">
@@ -2713,64 +2713,64 @@
         <v>22561132</v>
       </c>
       <c r="B36" t="n">
-        <v>24181543.29444862</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C36" t="n">
-        <v>23809551.72225669</v>
+        <v>23040768.46852553</v>
       </c>
       <c r="D36" t="n">
-        <v>25381205.38281256</v>
+        <v>23757954.02651285</v>
       </c>
       <c r="E36" t="n">
-        <v>25876120.71875921</v>
+        <v>25878694.07152242</v>
       </c>
       <c r="F36" t="n">
-        <v>26982436.92972474</v>
+        <v>28038288.19591573</v>
       </c>
       <c r="G36" t="n">
-        <v>27351705.680917</v>
+        <v>28422006.8235045</v>
       </c>
       <c r="H36" t="n">
-        <v>26930946.59724383</v>
+        <v>27984782.99232113</v>
       </c>
       <c r="I36" t="n">
-        <v>27142940.57515466</v>
+        <v>27879678.80925862</v>
       </c>
       <c r="J36" t="n">
-        <v>27356603.31901503</v>
+        <v>28747484.19650684</v>
       </c>
       <c r="K36" t="n">
-        <v>29639529.94691298</v>
+        <v>30477956.68261195</v>
       </c>
       <c r="L36" t="n">
-        <v>29355893.76936834</v>
+        <v>30363488.73267574</v>
       </c>
       <c r="M36" t="n">
-        <v>29586976.35210729</v>
+        <v>29896398.53196498</v>
       </c>
       <c r="N36" t="n">
-        <v>30507924.46081426</v>
+        <v>32738893.81209166</v>
       </c>
       <c r="O36" t="n">
-        <v>33408562.515716</v>
+        <v>35090303.89651772</v>
       </c>
       <c r="P36" t="n">
-        <v>36002299.72315343</v>
+        <v>35162519.72713839</v>
       </c>
       <c r="Q36" t="n">
-        <v>37332245.15055045</v>
+        <v>35643737.18656325</v>
       </c>
       <c r="R36" t="n">
-        <v>40230604.912022</v>
+        <v>39032678.98871895</v>
       </c>
       <c r="S36" t="n">
-        <v>41950637.48084725</v>
+        <v>41609201.7863564</v>
       </c>
       <c r="T36" t="n">
-        <v>41793080.87293695</v>
+        <v>43871987.2941381</v>
       </c>
       <c r="U36" t="n">
-        <v>41150165.99892072</v>
+        <v>43707214.55371182</v>
       </c>
     </row>
     <row r="37">
@@ -2778,64 +2778,64 @@
         <v>22561132</v>
       </c>
       <c r="B37" t="n">
-        <v>23656883.12967957</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C37" t="n">
-        <v>23568033.50823235</v>
+        <v>22776373.38640215</v>
       </c>
       <c r="D37" t="n">
-        <v>24712687.92277908</v>
+        <v>24809493.20247425</v>
       </c>
       <c r="E37" t="n">
-        <v>25194567.6468102</v>
+        <v>27168334.76176668</v>
       </c>
       <c r="F37" t="n">
-        <v>26564694.92872122</v>
+        <v>27224247.18324891</v>
       </c>
       <c r="G37" t="n">
-        <v>27237128.26492957</v>
+        <v>27121999.39163757</v>
       </c>
       <c r="H37" t="n">
-        <v>27609882.60015323</v>
+        <v>29543029.00329448</v>
       </c>
       <c r="I37" t="n">
-        <v>30074462.82464625</v>
+        <v>30806121.42207713</v>
       </c>
       <c r="J37" t="n">
-        <v>30835739.07593066</v>
+        <v>31585918.18086054</v>
       </c>
       <c r="K37" t="n">
-        <v>31257742.2808419</v>
+        <v>31283655.99542429</v>
       </c>
       <c r="L37" t="n">
-        <v>30958620.58238403</v>
+        <v>32984919.18668515</v>
       </c>
       <c r="M37" t="n">
-        <v>33902110.00605394</v>
+        <v>34011634.40689948</v>
       </c>
       <c r="N37" t="n">
-        <v>34563176.88250372</v>
+        <v>34279365.86769801</v>
       </c>
       <c r="O37" t="n">
-        <v>36844670.63347798</v>
+        <v>35944249.25538571</v>
       </c>
       <c r="P37" t="n">
-        <v>37134703.07865036</v>
+        <v>37272050.2654883</v>
       </c>
       <c r="Q37" t="n">
-        <v>36995233.97390791</v>
+        <v>39082282.62368213</v>
       </c>
       <c r="R37" t="n">
-        <v>39652347.76465607</v>
+        <v>42343724.93946192</v>
       </c>
       <c r="S37" t="n">
-        <v>39042364.39814936</v>
+        <v>44892631.49650406</v>
       </c>
       <c r="T37" t="n">
-        <v>41619526.52362309</v>
+        <v>44724025.45942093</v>
       </c>
       <c r="U37" t="n">
-        <v>44850737.51779467</v>
+        <v>47416215.66974885</v>
       </c>
     </row>
     <row r="38">
@@ -2843,64 +2843,64 @@
         <v>22561132</v>
       </c>
       <c r="B38" t="n">
-        <v>24181543.29444862</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C38" t="n">
-        <v>23809551.72225669</v>
+        <v>23045343.84214534</v>
       </c>
       <c r="D38" t="n">
-        <v>24965936.21558915</v>
+        <v>24164612.21701611</v>
       </c>
       <c r="E38" t="n">
-        <v>25307608.10062635</v>
+        <v>25338241.32104618</v>
       </c>
       <c r="F38" t="n">
-        <v>25948220.7405313</v>
+        <v>26421560.85860375</v>
       </c>
       <c r="G38" t="n">
-        <v>27359333.07442969</v>
+        <v>26322327.76574603</v>
       </c>
       <c r="H38" t="n">
-        <v>29960608.77820152</v>
+        <v>26223467.36876237</v>
       </c>
       <c r="I38" t="n">
-        <v>29673900.0292443</v>
+        <v>26582349.22485322</v>
       </c>
       <c r="J38" t="n">
-        <v>32150206.5991925</v>
+        <v>27873403.20178442</v>
       </c>
       <c r="K38" t="n">
-        <v>34833162.58907961</v>
+        <v>28254865.29205479</v>
       </c>
       <c r="L38" t="n">
-        <v>34499825.82205755</v>
+        <v>27984479.69542653</v>
       </c>
       <c r="M38" t="n">
-        <v>34169678.92905179</v>
+        <v>27553986.46874878</v>
       </c>
       <c r="N38" t="n">
-        <v>35829235.03143604</v>
+        <v>27610692.56128133</v>
       </c>
       <c r="O38" t="n">
-        <v>36527879.46635726</v>
+        <v>29754301.1222789</v>
       </c>
       <c r="P38" t="n">
-        <v>39363790.77011693</v>
+        <v>32410301.62766215</v>
       </c>
       <c r="Q38" t="n">
-        <v>38987098.05037067</v>
+        <v>35114962.71958086</v>
       </c>
       <c r="R38" t="n">
-        <v>42467258.84123114</v>
+        <v>36207979.39418304</v>
       </c>
       <c r="S38" t="n">
-        <v>42307761.92647441</v>
+        <v>37335018.18808801</v>
       </c>
       <c r="T38" t="n">
-        <v>46084339.8604193</v>
+        <v>40884763.91647789</v>
       </c>
       <c r="U38" t="n">
-        <v>46715028.13643004</v>
+        <v>44534318.75489861</v>
       </c>
     </row>
     <row r="39">
@@ -2908,64 +2908,64 @@
         <v>22561132</v>
       </c>
       <c r="B39" t="n">
-        <v>24706203.45921767</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C39" t="n">
-        <v>24757048.81551758</v>
+        <v>23984452.75043659</v>
       </c>
       <c r="D39" t="n">
-        <v>25671588.2788638</v>
+        <v>23615493.07825362</v>
       </c>
       <c r="E39" t="n">
-        <v>26321414.36564711</v>
+        <v>25448926.73886782</v>
       </c>
       <c r="F39" t="n">
-        <v>28211900.9389253</v>
+        <v>25797208.60164102</v>
       </c>
       <c r="G39" t="n">
-        <v>28926030.07611446</v>
+        <v>25700320.42723164</v>
       </c>
       <c r="H39" t="n">
-        <v>28649221.75233114</v>
+        <v>26052042.74401578</v>
       </c>
       <c r="I39" t="n">
-        <v>29874100.04072051</v>
+        <v>26862959.6558193</v>
       </c>
       <c r="J39" t="n">
-        <v>32367113.43394551</v>
+        <v>29417041.07637097</v>
       </c>
       <c r="K39" t="n">
-        <v>33750947.69114832</v>
+        <v>29306557.67289785</v>
       </c>
       <c r="L39" t="n">
-        <v>34212847.04953191</v>
+        <v>31922590.61786181</v>
       </c>
       <c r="M39" t="n">
-        <v>33885446.40662599</v>
+        <v>34029780.91628688</v>
       </c>
       <c r="N39" t="n">
-        <v>36516207.40073185</v>
+        <v>37265270.68723264</v>
       </c>
       <c r="O39" t="n">
-        <v>37440543.82673018</v>
+        <v>37991916.78946242</v>
       </c>
       <c r="P39" t="n">
-        <v>37735266.84332795</v>
+        <v>40278863.57928092</v>
       </c>
       <c r="Q39" t="n">
-        <v>40884299.80194782</v>
+        <v>42937646.24456865</v>
       </c>
       <c r="R39" t="n">
-        <v>40968439.6736984</v>
+        <v>43525270.37389256</v>
       </c>
       <c r="S39" t="n">
-        <v>44387283.04192854</v>
+        <v>46398346.32709781</v>
       </c>
       <c r="T39" t="n">
-        <v>48607545.30560651</v>
+        <v>45954336.26282953</v>
       </c>
       <c r="U39" t="n">
-        <v>49555357.64357988</v>
+        <v>50056423.54886687</v>
       </c>
     </row>
     <row r="40">
@@ -2973,64 +2973,64 @@
         <v>22561132</v>
       </c>
       <c r="B40" t="n">
-        <v>22345232.71775694</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C40" t="n">
-        <v>22521129.05151839</v>
+        <v>22647226.09442033</v>
       </c>
       <c r="D40" t="n">
-        <v>23353072.36714561</v>
+        <v>24537152.08033542</v>
       </c>
       <c r="E40" t="n">
-        <v>24487286.52926249</v>
+        <v>25586221.58393076</v>
       </c>
       <c r="F40" t="n">
-        <v>26246040.28605167</v>
+        <v>27721408.68592936</v>
       </c>
       <c r="G40" t="n">
-        <v>26757819.28352342</v>
+        <v>29873612.9035592</v>
       </c>
       <c r="H40" t="n">
-        <v>28524086.2471358</v>
+        <v>30803483.09294128</v>
       </c>
       <c r="I40" t="n">
-        <v>31070272.3321876</v>
+        <v>33553138.22099122</v>
       </c>
       <c r="J40" t="n">
-        <v>34024377.40146764</v>
+        <v>33232050.67720511</v>
       </c>
       <c r="K40" t="n">
-        <v>33698780.32328275</v>
+        <v>35618880.83515251</v>
       </c>
       <c r="L40" t="n">
-        <v>35335465.77896205</v>
+        <v>38591299.98259736</v>
       </c>
       <c r="M40" t="n">
-        <v>38489665.72407867</v>
+        <v>41138687.6273031</v>
       </c>
       <c r="N40" t="n">
-        <v>39016416.91533525</v>
+        <v>43375885.70310812</v>
       </c>
       <c r="O40" t="n">
-        <v>42045530.55069716</v>
+        <v>46995632.03365692</v>
       </c>
       <c r="P40" t="n">
-        <v>44332044.42533501</v>
+        <v>48731677.40885276</v>
       </c>
       <c r="Q40" t="n">
-        <v>45969695.35941461</v>
+        <v>49965224.58517041</v>
       </c>
       <c r="R40" t="n">
-        <v>49805896.82012078</v>
+        <v>53844369.7002456</v>
       </c>
       <c r="S40" t="n">
-        <v>49618837.72809884</v>
+        <v>53642143.06545579</v>
       </c>
       <c r="T40" t="n">
-        <v>51451785.81354575</v>
+        <v>56247439.59323668</v>
       </c>
       <c r="U40" t="n">
-        <v>53651572.45650209</v>
+        <v>57017215.20062354</v>
       </c>
     </row>
     <row r="41">
@@ -3038,64 +3038,64 @@
         <v>22561132</v>
       </c>
       <c r="B41" t="n">
-        <v>23394553.04729505</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C41" t="n">
-        <v>24530781.84689261</v>
+        <v>25768601.1394558</v>
       </c>
       <c r="D41" t="n">
-        <v>24153417.83851611</v>
+        <v>26271070.41534153</v>
       </c>
       <c r="E41" t="n">
-        <v>26309458.73230801</v>
+        <v>27699739.91289578</v>
       </c>
       <c r="F41" t="n">
-        <v>27434302.01981749</v>
+        <v>29689222.15200265</v>
       </c>
       <c r="G41" t="n">
-        <v>27809754.78092555</v>
+        <v>32512019.47815782</v>
       </c>
       <c r="H41" t="n">
-        <v>30453855.76257867</v>
+        <v>34280083.35214482</v>
       </c>
       <c r="I41" t="n">
-        <v>32641147.24410503</v>
+        <v>35147816.66795491</v>
       </c>
       <c r="J41" t="n">
-        <v>34795769.0173065</v>
+        <v>35628832.9083306</v>
       </c>
       <c r="K41" t="n">
-        <v>35676555.90791541</v>
+        <v>37980669.94898211</v>
       </c>
       <c r="L41" t="n">
-        <v>35335148.26873209</v>
+        <v>38279644.70938013</v>
       </c>
       <c r="M41" t="n">
-        <v>37256739.11847585</v>
+        <v>39471167.83014565</v>
       </c>
       <c r="N41" t="n">
-        <v>39282829.63992713</v>
+        <v>40929255.21826777</v>
       </c>
       <c r="O41" t="n">
-        <v>40505578.70461729</v>
+        <v>40775534.67899278</v>
       </c>
       <c r="P41" t="n">
-        <v>44121285.79409587</v>
+        <v>42992983.82443466</v>
       </c>
       <c r="Q41" t="n">
-        <v>46520683.0858822</v>
+        <v>45580972.91924339</v>
       </c>
       <c r="R41" t="n">
-        <v>46075502.31712916</v>
+        <v>47264759.98219231</v>
       </c>
       <c r="S41" t="n">
-        <v>48849045.50783914</v>
+        <v>48186388.96758575</v>
       </c>
       <c r="T41" t="n">
-        <v>49801566.92687924</v>
+        <v>48005412.36152951</v>
       </c>
       <c r="U41" t="n">
-        <v>54247075.03621365</v>
+        <v>52290587.77093896</v>
       </c>
     </row>
     <row r="42">
@@ -3103,64 +3103,64 @@
         <v>22561132</v>
       </c>
       <c r="B42" t="n">
-        <v>23263388.00610278</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C42" t="n">
-        <v>23176016.25866709</v>
+        <v>24524681.34873286</v>
       </c>
       <c r="D42" t="n">
-        <v>23627931.98526731</v>
+        <v>26856443.51419401</v>
       </c>
       <c r="E42" t="n">
-        <v>24912862.71644624</v>
+        <v>29097631.47580672</v>
       </c>
       <c r="F42" t="n">
-        <v>27136695.01865683</v>
+        <v>28819181.00840111</v>
       </c>
       <c r="G42" t="n">
-        <v>26877009.77870625</v>
+        <v>29716230.09947122</v>
       </c>
       <c r="H42" t="n">
-        <v>28338631.38183215</v>
+        <v>29950149.16371775</v>
       </c>
       <c r="I42" t="n">
-        <v>28891214.40769998</v>
+        <v>30011786.55806603</v>
       </c>
       <c r="J42" t="n">
-        <v>30798305.452985</v>
+        <v>32341808.61216392</v>
       </c>
       <c r="K42" t="n">
-        <v>31219796.35920233</v>
+        <v>34288643.66637807</v>
       </c>
       <c r="L42" t="n">
-        <v>32554577.8432827</v>
+        <v>35355939.66712095</v>
       </c>
       <c r="M42" t="n">
-        <v>34892749.77646682</v>
+        <v>35839804.17951138</v>
       </c>
       <c r="N42" t="n">
-        <v>35978849.67163011</v>
+        <v>37372111.00372861</v>
       </c>
       <c r="O42" t="n">
-        <v>37098756.38883612</v>
+        <v>37231750.2513352</v>
       </c>
       <c r="P42" t="n">
-        <v>40194672.12933685</v>
+        <v>37524829.69478747</v>
       </c>
       <c r="Q42" t="n">
-        <v>43782626.32293399</v>
+        <v>37602055.77847429</v>
       </c>
       <c r="R42" t="n">
-        <v>44127272.69784202</v>
+        <v>38772487.71922289</v>
       </c>
       <c r="S42" t="n">
-        <v>44987722.92714637</v>
+        <v>40655593.46138271</v>
       </c>
       <c r="T42" t="n">
-        <v>47695786.56867387</v>
+        <v>42630158.05606277</v>
       </c>
       <c r="U42" t="n">
-        <v>51953323.41050532</v>
+        <v>46683356.06704904</v>
       </c>
     </row>
     <row r="43">
@@ -3168,64 +3168,64 @@
         <v>22561132</v>
       </c>
       <c r="B43" t="n">
-        <v>22738727.84133373</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C43" t="n">
-        <v>24239697.08532035</v>
+        <v>24798989.74036583</v>
       </c>
       <c r="D43" t="n">
-        <v>25416972.91812565</v>
+        <v>26580130.99986487</v>
       </c>
       <c r="E43" t="n">
-        <v>26946963.230121</v>
+        <v>28952791.04248082</v>
       </c>
       <c r="F43" t="n">
-        <v>28099062.59546994</v>
+        <v>29685674.36470521</v>
       </c>
       <c r="G43" t="n">
-        <v>30117225.44266743</v>
+        <v>30091938.33298595</v>
       </c>
       <c r="H43" t="n">
-        <v>30179206.67992733</v>
+        <v>31028604.29591786</v>
       </c>
       <c r="I43" t="n">
-        <v>32171317.29185633</v>
+        <v>30731675.33878519</v>
       </c>
       <c r="J43" t="n">
-        <v>33546780.41613732</v>
+        <v>33296253.95743489</v>
       </c>
       <c r="K43" t="n">
-        <v>36346281.41409247</v>
+        <v>34526236.51523417</v>
       </c>
       <c r="L43" t="n">
-        <v>38322859.55822142</v>
+        <v>35600928.0227768</v>
       </c>
       <c r="M43" t="n">
-        <v>38401727.98703063</v>
+        <v>35881170.02324321</v>
       </c>
       <c r="N43" t="n">
-        <v>39373792.68176069</v>
+        <v>38041059.11371279</v>
       </c>
       <c r="O43" t="n">
-        <v>41743922.34053872</v>
+        <v>38340509.24318883</v>
       </c>
       <c r="P43" t="n">
-        <v>43528655.78248561</v>
+        <v>37973608.84003362</v>
       </c>
       <c r="Q43" t="n">
-        <v>43365172.51348606</v>
+        <v>37389449.99284174</v>
       </c>
       <c r="R43" t="n">
-        <v>46984024.82128018</v>
+        <v>39640130.92342131</v>
       </c>
       <c r="S43" t="n">
-        <v>50631718.83016761</v>
+        <v>43409042.58456858</v>
       </c>
       <c r="T43" t="n">
-        <v>53679526.27519131</v>
+        <v>42741268.91099633</v>
       </c>
       <c r="U43" t="n">
-        <v>52853758.82393807</v>
+        <v>42580742.87964644</v>
       </c>
     </row>
     <row r="44">
@@ -3233,64 +3233,64 @@
         <v>22561132</v>
       </c>
       <c r="B44" t="n">
-        <v>23001057.92371826</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C44" t="n">
-        <v>24653066.07844471</v>
+        <v>25773176.51307561</v>
       </c>
       <c r="D44" t="n">
-        <v>26137072.54855049</v>
+        <v>27624286.92347547</v>
       </c>
       <c r="E44" t="n">
-        <v>26646726.75314501</v>
+        <v>29768950.90860324</v>
       </c>
       <c r="F44" t="n">
-        <v>26391730.27601209</v>
+        <v>32253189.53725636</v>
       </c>
       <c r="G44" t="n">
-        <v>27059785.35006537</v>
+        <v>32882103.64493666</v>
       </c>
       <c r="H44" t="n">
-        <v>26643516.96003842</v>
+        <v>32949775.00037082</v>
       </c>
       <c r="I44" t="n">
-        <v>29176734.16758636</v>
+        <v>34933206.96512077</v>
       </c>
       <c r="J44" t="n">
-        <v>29576033.02328253</v>
+        <v>37239126.17108238</v>
       </c>
       <c r="K44" t="n">
-        <v>32044172.52689953</v>
+        <v>38831260.06986235</v>
       </c>
       <c r="L44" t="n">
-        <v>34159388.37131662</v>
+        <v>42071754.38761638</v>
       </c>
       <c r="M44" t="n">
-        <v>35619850.14310215</v>
+        <v>43625908.92220565</v>
       </c>
       <c r="N44" t="n">
-        <v>35278985.15106624</v>
+        <v>43208429.76275987</v>
       </c>
       <c r="O44" t="n">
-        <v>35556692.89415748</v>
+        <v>43046149.18645971</v>
       </c>
       <c r="P44" t="n">
-        <v>37076895.48498137</v>
+        <v>45887598.64888249</v>
       </c>
       <c r="Q44" t="n">
-        <v>37584312.17716095</v>
+        <v>46515594.41859065</v>
       </c>
       <c r="R44" t="n">
-        <v>37443154.44767521</v>
+        <v>49045198.65076678</v>
       </c>
       <c r="S44" t="n">
-        <v>39697068.15093274</v>
+        <v>52567778.71599483</v>
       </c>
       <c r="T44" t="n">
-        <v>41625079.00035959</v>
+        <v>55732128.47619904</v>
       </c>
       <c r="U44" t="n">
-        <v>42194739.96096056</v>
+        <v>58438931.60723174</v>
       </c>
     </row>
     <row r="45">
@@ -3298,64 +3298,64 @@
         <v>22561132</v>
       </c>
       <c r="B45" t="n">
-        <v>23525718.08848731</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C45" t="n">
-        <v>23710906.92107359</v>
+        <v>24636289.70850542</v>
       </c>
       <c r="D45" t="n">
-        <v>24173252.63269174</v>
+        <v>25976056.80147082</v>
       </c>
       <c r="E45" t="n">
-        <v>24223001.17641542</v>
+        <v>26331552.7146443</v>
       </c>
       <c r="F45" t="n">
-        <v>24836159.11170287</v>
+        <v>27610425.98364909</v>
       </c>
       <c r="G45" t="n">
-        <v>26186795.47323358</v>
+        <v>29593493.41610074</v>
       </c>
       <c r="H45" t="n">
-        <v>27610881.94324863</v>
+        <v>29826446.3264971</v>
       </c>
       <c r="I45" t="n">
-        <v>29915028.29040042</v>
+        <v>29887829.14045856</v>
       </c>
       <c r="J45" t="n">
-        <v>30846187.60854405</v>
+        <v>31165663.258178</v>
       </c>
       <c r="K45" t="n">
-        <v>31268333.80708481</v>
+        <v>31592181.6479513</v>
       </c>
       <c r="L45" t="n">
-        <v>33514123.65750499</v>
+        <v>33677561.8563294</v>
       </c>
       <c r="M45" t="n">
-        <v>35336683.81397192</v>
+        <v>33942663.57781853</v>
       </c>
       <c r="N45" t="n">
-        <v>36642041.01112738</v>
+        <v>33420513.91040697</v>
       </c>
       <c r="O45" t="n">
-        <v>36078366.05134185</v>
+        <v>33294994.41600722</v>
       </c>
       <c r="P45" t="n">
-        <v>37201370.39571293</v>
+        <v>34718499.60315577</v>
       </c>
       <c r="Q45" t="n">
-        <v>37710490.5921001</v>
+        <v>36606555.95562599</v>
       </c>
       <c r="R45" t="n">
-        <v>38226578.36445589</v>
+        <v>36681892.23234487</v>
       </c>
       <c r="S45" t="n">
-        <v>41194371.3836937</v>
+        <v>39956280.15720767</v>
       </c>
       <c r="T45" t="n">
-        <v>43434597.64537036</v>
+        <v>40038510.16492075</v>
       </c>
       <c r="U45" t="n">
-        <v>44786577.99232809</v>
+        <v>40586458.10182156</v>
       </c>
     </row>
     <row r="46">
@@ -3363,64 +3363,64 @@
         <v>22561132</v>
       </c>
       <c r="B46" t="n">
-        <v>22869892.88252599</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C46" t="n">
-        <v>24379520.24908172</v>
+        <v>24231308.9003507</v>
       </c>
       <c r="D46" t="n">
-        <v>25847060.45980404</v>
+        <v>24281176.92384874</v>
       </c>
       <c r="E46" t="n">
-        <v>25599716.40803551</v>
+        <v>25601632.32545137</v>
       </c>
       <c r="F46" t="n">
-        <v>27736029.66202484</v>
+        <v>26398529.39899286</v>
       </c>
       <c r="G46" t="n">
-        <v>27309358.41301869</v>
+        <v>27373706.08865354</v>
       </c>
       <c r="H46" t="n">
-        <v>29588342.42228545</v>
+        <v>27589185.36350716</v>
       </c>
       <c r="I46" t="n">
-        <v>31541450.45305513</v>
+        <v>27164773.06219544</v>
       </c>
       <c r="J46" t="n">
-        <v>31239613.80258389</v>
+        <v>29431691.32837454</v>
       </c>
       <c r="K46" t="n">
-        <v>31122285.2498197</v>
+        <v>30005588.24073806</v>
       </c>
       <c r="L46" t="n">
-        <v>31729147.53344757</v>
+        <v>29892894.39422089</v>
       </c>
       <c r="M46" t="n">
-        <v>32901240.28868276</v>
+        <v>32735056.50729444</v>
       </c>
       <c r="N46" t="n">
-        <v>33734070.88704178</v>
+        <v>34515249.54828204</v>
       </c>
       <c r="O46" t="n">
-        <v>36156957.71174069</v>
+        <v>36994243.07567902</v>
       </c>
       <c r="P46" t="n">
-        <v>38964071.80054852</v>
+        <v>40081437.11112033</v>
       </c>
       <c r="Q46" t="n">
-        <v>39044259.84388202</v>
+        <v>41096020.35963773</v>
       </c>
       <c r="R46" t="n">
-        <v>39124612.9141749</v>
+        <v>41897363.33825502</v>
       </c>
       <c r="S46" t="n">
-        <v>38750209.01253521</v>
+        <v>41983588.09433609</v>
       </c>
       <c r="T46" t="n">
-        <v>40632232.72042385</v>
+        <v>42802238.00841875</v>
       </c>
       <c r="U46" t="n">
-        <v>42133210.50592644</v>
+        <v>42890324.99618942</v>
       </c>
     </row>
     <row r="47">
@@ -3428,64 +3428,64 @@
         <v>22561132</v>
       </c>
       <c r="B47" t="n">
-        <v>24443873.37683315</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C47" t="n">
-        <v>24067846.30622032</v>
+        <v>23430498.03128088</v>
       </c>
       <c r="D47" t="n">
-        <v>24817001.51804665</v>
+        <v>23751156.64230101</v>
       </c>
       <c r="E47" t="n">
-        <v>26310876.18273215</v>
+        <v>24766621.43735857</v>
       </c>
       <c r="F47" t="n">
-        <v>26212058.79516821</v>
+        <v>26833412.3654236</v>
       </c>
       <c r="G47" t="n">
-        <v>26570784.51896697</v>
+        <v>27356644.69797552</v>
       </c>
       <c r="H47" t="n">
-        <v>27243372.00125138</v>
+        <v>29957664.79579623</v>
       </c>
       <c r="I47" t="n">
-        <v>27932984.72119872</v>
+        <v>29670984.21934773</v>
       </c>
       <c r="J47" t="n">
-        <v>30101615.04619615</v>
+        <v>31629547.38360262</v>
       </c>
       <c r="K47" t="n">
-        <v>31563593.04854324</v>
+        <v>33349620.78959567</v>
       </c>
       <c r="L47" t="n">
-        <v>31995557.31546741</v>
+        <v>36520442.17087628</v>
       </c>
       <c r="M47" t="n">
-        <v>34293578.64020243</v>
+        <v>38718812.64131811</v>
       </c>
       <c r="N47" t="n">
-        <v>35759777.62706111</v>
+        <v>39924005.65763192</v>
       </c>
       <c r="O47" t="n">
-        <v>37912359.42760647</v>
+        <v>43719907.61298731</v>
       </c>
       <c r="P47" t="n">
-        <v>37769969.63074064</v>
+        <v>43555706.04764044</v>
       </c>
       <c r="Q47" t="n">
-        <v>39165213.7898526</v>
+        <v>46430791.04068883</v>
       </c>
       <c r="R47" t="n">
-        <v>39701210.20945043</v>
+        <v>50305471.24075142</v>
       </c>
       <c r="S47" t="n">
-        <v>39782915.28331859</v>
+        <v>55088424.09085803</v>
       </c>
       <c r="T47" t="n">
-        <v>39170923.3594608</v>
+        <v>60005860.45156389</v>
       </c>
       <c r="U47" t="n">
-        <v>39023806.69607162</v>
+        <v>65711108.69178731</v>
       </c>
     </row>
     <row r="48">
@@ -3493,64 +3493,64 @@
         <v>22561132</v>
       </c>
       <c r="B48" t="n">
-        <v>23001057.92371826</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C48" t="n">
-        <v>22647226.09442033</v>
+        <v>24934237.53050739</v>
       </c>
       <c r="D48" t="n">
-        <v>23747158.64997959</v>
+        <v>25565399.02411531</v>
       </c>
       <c r="E48" t="n">
-        <v>25728874.7346396</v>
+        <v>26807061.67035945</v>
       </c>
       <c r="F48" t="n">
-        <v>28175129.42040014</v>
+        <v>28109029.50196853</v>
       </c>
       <c r="G48" t="n">
-        <v>30526362.59245092</v>
+        <v>29310812.23248392</v>
       </c>
       <c r="H48" t="n">
-        <v>30589185.83379254</v>
+        <v>31416006.7409412</v>
       </c>
       <c r="I48" t="n">
-        <v>31719167.75551092</v>
+        <v>32393886.72593448</v>
       </c>
       <c r="J48" t="n">
-        <v>34366153.26900431</v>
+        <v>35097177.98345484</v>
       </c>
       <c r="K48" t="n">
-        <v>35036268.6568984</v>
+        <v>35373454.58395571</v>
       </c>
       <c r="L48" t="n">
-        <v>35923143.32587034</v>
+        <v>38119739.91924493</v>
       </c>
       <c r="M48" t="n">
-        <v>37459013.2594743</v>
+        <v>39971142.94634499</v>
       </c>
       <c r="N48" t="n">
-        <v>37100548.35282627</v>
+        <v>41912465.08559053</v>
       </c>
       <c r="O48" t="n">
-        <v>38902451.19038518</v>
+        <v>45166418.92143064</v>
       </c>
       <c r="P48" t="n">
-        <v>40791869.01034071</v>
+        <v>46047131.75822695</v>
       </c>
       <c r="Q48" t="n">
-        <v>41824435.45397567</v>
+        <v>46141896.73596628</v>
       </c>
       <c r="R48" t="n">
-        <v>42639982.00549998</v>
+        <v>49992468.51535954</v>
       </c>
       <c r="S48" t="n">
-        <v>45950417.99926957</v>
+        <v>53873728.76470234</v>
       </c>
       <c r="T48" t="n">
-        <v>48449286.89031742</v>
+        <v>53671391.86425543</v>
       </c>
       <c r="U48" t="n">
-        <v>49957358.50259832</v>
+        <v>57214206.96949466</v>
       </c>
     </row>
     <row r="49">
@@ -3558,64 +3558,64 @@
         <v>22561132</v>
       </c>
       <c r="B49" t="n">
-        <v>23525718.08848731</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C49" t="n">
-        <v>24805090.23852557</v>
+        <v>23182879.3190968</v>
       </c>
       <c r="D49" t="n">
-        <v>26298247.89641686</v>
+        <v>24039268.06596625</v>
       </c>
       <c r="E49" t="n">
-        <v>26352369.67949713</v>
+        <v>26045360.87445558</v>
       </c>
       <c r="F49" t="n">
-        <v>27019428.41697283</v>
+        <v>28067441.93674108</v>
       </c>
       <c r="G49" t="n">
-        <v>28645879.5229635</v>
+        <v>28451559.54850964</v>
       </c>
       <c r="H49" t="n">
-        <v>29370993.9798746</v>
+        <v>28675523.42830407</v>
       </c>
       <c r="I49" t="n">
-        <v>32163534.74933081</v>
+        <v>28901250.2982561</v>
       </c>
       <c r="J49" t="n">
-        <v>34660611.86130778</v>
+        <v>28792704.08216013</v>
       </c>
       <c r="K49" t="n">
-        <v>36142503.10771667</v>
+        <v>30860686.43749802</v>
       </c>
       <c r="L49" t="n">
-        <v>37267503.83387627</v>
+        <v>31641864.40300931</v>
       </c>
       <c r="M49" t="n">
-        <v>39077515.38056229</v>
+        <v>33362607.63134493</v>
       </c>
       <c r="N49" t="n">
-        <v>38476374.82444622</v>
+        <v>33237305.61914459</v>
       </c>
       <c r="O49" t="n">
-        <v>39674021.52557492</v>
+        <v>33498941.74871017</v>
       </c>
       <c r="P49" t="n">
-        <v>42523534.24400763</v>
+        <v>34152147.13274788</v>
       </c>
       <c r="Q49" t="n">
-        <v>45083264.53268956</v>
+        <v>36207956.6272641</v>
       </c>
       <c r="R49" t="n">
-        <v>45176045.87208521</v>
+        <v>39019030.1137464</v>
       </c>
       <c r="S49" t="n">
-        <v>47895445.72907043</v>
+        <v>41821499.2936947</v>
       </c>
       <c r="T49" t="n">
-        <v>51335446.93167129</v>
+        <v>44338970.15690842</v>
       </c>
       <c r="U49" t="n">
-        <v>55619423.90749324</v>
+        <v>45203548.33512191</v>
       </c>
     </row>
     <row r="50">
@@ -3623,64 +3623,64 @@
         <v>22561132</v>
       </c>
       <c r="B50" t="n">
-        <v>23394553.04729505</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C50" t="n">
-        <v>24122750.78965802</v>
+        <v>22914671.42562358</v>
       </c>
       <c r="D50" t="n">
-        <v>25855322.44575804</v>
+        <v>25093356.77139683</v>
       </c>
       <c r="E50" t="n">
-        <v>26810432.7616276</v>
+        <v>26312093.226186</v>
       </c>
       <c r="F50" t="n">
-        <v>27956694.85823651</v>
+        <v>26825160.20870668</v>
       </c>
       <c r="G50" t="n">
-        <v>28501830.39530172</v>
+        <v>28439917.22045831</v>
       </c>
       <c r="H50" t="n">
-        <v>31211732.66955039</v>
+        <v>28333103.6615809</v>
       </c>
       <c r="I50" t="n">
-        <v>32909084.5370542</v>
+        <v>27897247.45307463</v>
       </c>
       <c r="J50" t="n">
-        <v>32976811.41915296</v>
+        <v>29900915.30347284</v>
       </c>
       <c r="K50" t="n">
-        <v>35728748.12759752</v>
+        <v>31526982.49326189</v>
       </c>
       <c r="L50" t="n">
-        <v>38087180.50956154</v>
+        <v>31225284.29427149</v>
       </c>
       <c r="M50" t="n">
-        <v>38829853.2649664</v>
+        <v>31652618.62908342</v>
       </c>
       <c r="N50" t="n">
-        <v>40038502.62136449</v>
+        <v>34294050.57399182</v>
       </c>
       <c r="O50" t="n">
-        <v>42914193.5157961</v>
+        <v>35560892.30628458</v>
       </c>
       <c r="P50" t="n">
-        <v>45996425.55384941</v>
+        <v>38321729.72516773</v>
       </c>
       <c r="Q50" t="n">
-        <v>46358498.42743484</v>
+        <v>40405736.40956584</v>
       </c>
       <c r="R50" t="n">
-        <v>50496663.01567589</v>
+        <v>40253982.0823112</v>
       </c>
       <c r="S50" t="n">
-        <v>54710642.91932669</v>
+        <v>40570851.812737</v>
       </c>
       <c r="T50" t="n">
-        <v>56413610.55356782</v>
+        <v>41126085.12330546</v>
       </c>
       <c r="U50" t="n">
-        <v>60137437.80432653</v>
+        <v>43362597.85158678</v>
       </c>
     </row>
     <row r="51">
@@ -3691,61 +3691,61 @@
         <v>23263388.00610278</v>
       </c>
       <c r="C51" t="n">
-        <v>23581759.62909177</v>
+        <v>24393246.36994114</v>
       </c>
       <c r="D51" t="n">
-        <v>25823870.50980894</v>
+        <v>25436163.2812685</v>
       </c>
       <c r="E51" t="n">
-        <v>25576748.37481122</v>
+        <v>27558827.9187312</v>
       </c>
       <c r="F51" t="n">
-        <v>28008539.16254295</v>
+        <v>27775764.42840627</v>
       </c>
       <c r="G51" t="n">
-        <v>30508705.23483761</v>
+        <v>29447743.64562537</v>
       </c>
       <c r="H51" t="n">
-        <v>32699936.17757287</v>
+        <v>30706762.20275764</v>
       </c>
       <c r="I51" t="n">
-        <v>34288109.67910751</v>
+        <v>30234391.32842432</v>
       </c>
       <c r="J51" t="n">
-        <v>35355389.05853156</v>
+        <v>29769287.06987567</v>
       </c>
       <c r="K51" t="n">
-        <v>36866985.03868521</v>
+        <v>30868981.46495312</v>
       </c>
       <c r="L51" t="n">
-        <v>39086215.87012073</v>
+        <v>30394115.12547727</v>
       </c>
       <c r="M51" t="n">
-        <v>39621131.16190041</v>
+        <v>30456666.20158763</v>
       </c>
       <c r="N51" t="n">
-        <v>43388236.36022612</v>
+        <v>32644159.53766244</v>
       </c>
       <c r="O51" t="n">
-        <v>46000017.92444104</v>
+        <v>34419409.43298143</v>
       </c>
       <c r="P51" t="n">
-        <v>49571316.68886064</v>
+        <v>34490244.56307907</v>
       </c>
       <c r="Q51" t="n">
-        <v>54284467.45740876</v>
+        <v>34160189.35815601</v>
       </c>
       <c r="R51" t="n">
-        <v>58183348.24854609</v>
+        <v>36216482.95937529</v>
       </c>
       <c r="S51" t="n">
-        <v>57288297.22029612</v>
+        <v>37554340.43733099</v>
       </c>
       <c r="T51" t="n">
-        <v>59071499.00300606</v>
+        <v>38941619.13140339</v>
       </c>
       <c r="U51" t="n">
-        <v>60910206.16381499</v>
+        <v>39927350.11533324</v>
       </c>
     </row>
     <row r="52">
@@ -3753,64 +3753,64 @@
         <v>22561132</v>
       </c>
       <c r="B52" t="n">
-        <v>22869892.88252599</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C52" t="n">
-        <v>23049919.21576514</v>
+        <v>24504092.16744373</v>
       </c>
       <c r="D52" t="n">
-        <v>24973450.20881028</v>
+        <v>24127138.7340127</v>
       </c>
       <c r="E52" t="n">
-        <v>24879655.87482636</v>
+        <v>25579486.68426301</v>
       </c>
       <c r="F52" t="n">
-        <v>26232657.67094859</v>
+        <v>26524407.47022659</v>
       </c>
       <c r="G52" t="n">
-        <v>26286644.46937251</v>
+        <v>29046299.96378777</v>
       </c>
       <c r="H52" t="n">
-        <v>26646390.93710341</v>
+        <v>31470232.89347102</v>
       </c>
       <c r="I52" t="n">
-        <v>29024965.63474919</v>
+        <v>32632761.1946527</v>
       </c>
       <c r="J52" t="n">
-        <v>30265908.6011793</v>
+        <v>33648514.86094314</v>
       </c>
       <c r="K52" t="n">
-        <v>30328195.82831672</v>
+        <v>34109012.37251098</v>
       </c>
       <c r="L52" t="n">
-        <v>30037969.44645518</v>
+        <v>37153733.66262657</v>
       </c>
       <c r="M52" t="n">
-        <v>32893925.03203677</v>
+        <v>40254237.29296151</v>
       </c>
       <c r="N52" t="n">
-        <v>34300282.7662873</v>
+        <v>43145422.92845754</v>
       </c>
       <c r="O52" t="n">
-        <v>36564423.04060186</v>
+        <v>43986727.79011148</v>
       </c>
       <c r="P52" t="n">
-        <v>37489979.95129471</v>
+        <v>45100165.83998021</v>
       </c>
       <c r="Q52" t="n">
-        <v>37349176.51119328</v>
+        <v>47028393.22492328</v>
       </c>
       <c r="R52" t="n">
-        <v>37208901.89529421</v>
+        <v>47945413.22775203</v>
       </c>
       <c r="S52" t="n">
-        <v>38799743.57540537</v>
+        <v>48880314.46419142</v>
       </c>
       <c r="T52" t="n">
-        <v>40684173.08248986</v>
+        <v>50970159.57183247</v>
       </c>
       <c r="U52" t="n">
-        <v>44315822.29596385</v>
+        <v>53742011.31272025</v>
       </c>
     </row>
     <row r="53">
@@ -3818,64 +3818,64 @@
         <v>22561132</v>
       </c>
       <c r="B53" t="n">
-        <v>23001057.92371826</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C53" t="n">
-        <v>25054234.07524959</v>
+        <v>24482740.42388462</v>
       </c>
       <c r="D53" t="n">
-        <v>24668817.6520614</v>
+        <v>26383504.47943444</v>
       </c>
       <c r="E53" t="n">
-        <v>25866935.05193768</v>
+        <v>26284414.31727746</v>
       </c>
       <c r="F53" t="n">
-        <v>26521705.96051127</v>
+        <v>28325054.74765673</v>
       </c>
       <c r="G53" t="n">
-        <v>28118196.35721914</v>
+        <v>28712697.92537865</v>
       </c>
       <c r="H53" t="n">
-        <v>28993426.03419787</v>
+        <v>29940290.0950339</v>
       </c>
       <c r="I53" t="n">
-        <v>29727337.95182381</v>
+        <v>30350038.6126538</v>
       </c>
       <c r="J53" t="n">
-        <v>29961344.45443043</v>
+        <v>32529873.62070641</v>
       </c>
       <c r="K53" t="n">
-        <v>30371381.11196229</v>
+        <v>32975061.94226706</v>
       </c>
       <c r="L53" t="n">
-        <v>33082464.90623629</v>
+        <v>33234633.75225731</v>
       </c>
       <c r="M53" t="n">
-        <v>34689217.09817387</v>
+        <v>32916594.14446089</v>
       </c>
       <c r="N53" t="n">
-        <v>37785730.02803436</v>
+        <v>34515290.31001662</v>
       </c>
       <c r="O53" t="n">
-        <v>41378328.61966711</v>
+        <v>36793623.09820508</v>
       </c>
       <c r="P53" t="n">
-        <v>40982357.73268309</v>
+        <v>37938891.11077628</v>
       </c>
       <c r="Q53" t="n">
-        <v>41543222.71683101</v>
+        <v>37796401.66722441</v>
       </c>
       <c r="R53" t="n">
-        <v>43319375.38078356</v>
+        <v>37434708.11428903</v>
       </c>
       <c r="S53" t="n">
-        <v>46178860.3338984</v>
+        <v>39688113.38531529</v>
       </c>
       <c r="T53" t="n">
-        <v>46005423.52749243</v>
+        <v>39077579.82607284</v>
       </c>
       <c r="U53" t="n">
-        <v>45565173.5471779</v>
+        <v>38703626.00867374</v>
       </c>
     </row>
     <row r="54">
@@ -3883,64 +3883,64 @@
         <v>22561132</v>
       </c>
       <c r="B54" t="n">
-        <v>24706203.45921767</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C54" t="n">
-        <v>26911588.44218573</v>
+        <v>25917575.05045678</v>
       </c>
       <c r="D54" t="n">
-        <v>28375090.49711653</v>
+        <v>26422949.21096475</v>
       </c>
       <c r="E54" t="n">
-        <v>29753214.49670022</v>
+        <v>27552644.70787968</v>
       </c>
       <c r="F54" t="n">
-        <v>30160402.78698575</v>
+        <v>29851931.11924893</v>
       </c>
       <c r="G54" t="n">
-        <v>30222472.88320205</v>
+        <v>32343094.50132492</v>
       </c>
       <c r="H54" t="n">
-        <v>31690320.72006941</v>
+        <v>32597691.61459473</v>
       </c>
       <c r="I54" t="n">
-        <v>31755539.38674679</v>
+        <v>34749444.90879297</v>
       </c>
       <c r="J54" t="n">
-        <v>34220941.00379942</v>
+        <v>37649309.05354282</v>
       </c>
       <c r="K54" t="n">
-        <v>37275653.53854371</v>
+        <v>39040095.94230969</v>
       </c>
       <c r="L54" t="n">
-        <v>38002502.09894154</v>
+        <v>40028319.67425243</v>
       </c>
       <c r="M54" t="n">
-        <v>41394773.50084117</v>
+        <v>41739703.67321607</v>
       </c>
       <c r="N54" t="n">
-        <v>42683260.63491893</v>
+        <v>44252250.79876445</v>
       </c>
       <c r="O54" t="n">
-        <v>46741507.54266778</v>
+        <v>47430586.30954871</v>
       </c>
       <c r="P54" t="n">
-        <v>46294213.5890922</v>
+        <v>51388700.08559696</v>
       </c>
       <c r="Q54" t="n">
-        <v>48542635.20365813</v>
+        <v>54183312.83530747</v>
       </c>
       <c r="R54" t="n">
-        <v>52875765.49980255</v>
+        <v>55869866.36768965</v>
       </c>
       <c r="S54" t="n">
-        <v>56980875.9870933</v>
+        <v>58583359.16527811</v>
       </c>
       <c r="T54" t="n">
-        <v>60742148.07534862</v>
+        <v>60066282.41192185</v>
       </c>
       <c r="U54" t="n">
-        <v>64045418.66155575</v>
+        <v>59840687.75413088</v>
       </c>
     </row>
     <row r="55">
@@ -3948,64 +3948,64 @@
         <v>22561132</v>
       </c>
       <c r="B55" t="n">
-        <v>24706203.45921767</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C55" t="n">
-        <v>25044320.76574</v>
+        <v>25637166.16066407</v>
       </c>
       <c r="D55" t="n">
-        <v>27134285.88629957</v>
+        <v>26286120.918797</v>
       </c>
       <c r="E55" t="n">
-        <v>26716871.43329122</v>
+        <v>28632536.32132898</v>
       </c>
       <c r="F55" t="n">
-        <v>28480435.45484656</v>
+        <v>31188403.1396194</v>
       </c>
       <c r="G55" t="n">
-        <v>29532518.93825498</v>
+        <v>31796554.67476818</v>
       </c>
       <c r="H55" t="n">
-        <v>29593296.84977539</v>
+        <v>31492276.79845929</v>
       </c>
       <c r="I55" t="n">
-        <v>30514441.69539471</v>
+        <v>31740176.47802931</v>
       </c>
       <c r="J55" t="n">
-        <v>30045029.34223714</v>
+        <v>34573445.00012131</v>
       </c>
       <c r="K55" t="n">
-        <v>32901656.1698888</v>
+        <v>36855616.54313588</v>
       </c>
       <c r="L55" t="n">
-        <v>32586802.99888271</v>
+        <v>39074163.04099208</v>
       </c>
       <c r="M55" t="n">
-        <v>33790578.03478633</v>
+        <v>40063249.11495996</v>
       </c>
       <c r="N55" t="n">
-        <v>33467218.30512877</v>
+        <v>41310290.14618891</v>
       </c>
       <c r="O55" t="n">
-        <v>34508945.95701829</v>
+        <v>44277324.81137478</v>
       </c>
       <c r="P55" t="n">
-        <v>34178711.78866696</v>
+        <v>47457461.21642405</v>
       </c>
       <c r="Q55" t="n">
-        <v>34845172.20187359</v>
+        <v>51141911.35909789</v>
       </c>
       <c r="R55" t="n">
-        <v>37347861.80951043</v>
+        <v>53328449.52729073</v>
       </c>
       <c r="S55" t="n">
-        <v>40247433.99996278</v>
+        <v>52818121.67778046</v>
       </c>
       <c r="T55" t="n">
-        <v>42670153.03503332</v>
+        <v>56304612.95014539</v>
       </c>
       <c r="U55" t="n">
-        <v>43998338.66198577</v>
+        <v>58384537.37470229</v>
       </c>
     </row>
     <row r="56">
@@ -4013,64 +4013,64 @@
         <v>22561132</v>
       </c>
       <c r="B56" t="n">
-        <v>24181543.29444862</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C56" t="n">
-        <v>23950137.44828802</v>
+        <v>22130636.92649306</v>
       </c>
       <c r="D56" t="n">
-        <v>26227273.02307492</v>
+        <v>21918857.27696078</v>
       </c>
       <c r="E56" t="n">
-        <v>28720914.51300138</v>
+        <v>22473690.31246784</v>
       </c>
       <c r="F56" t="n">
-        <v>31117693.81175799</v>
+        <v>23957164.59446249</v>
       </c>
       <c r="G56" t="n">
-        <v>34076307.62919749</v>
+        <v>25120718.36332044</v>
       </c>
       <c r="H56" t="n">
-        <v>37316221.07551362</v>
+        <v>26632875.45024227</v>
       </c>
       <c r="I56" t="n">
-        <v>39345546.33602696</v>
+        <v>29010243.69575913</v>
       </c>
       <c r="J56" t="n">
-        <v>41485230.06517044</v>
+        <v>30250557.23554764</v>
       </c>
       <c r="K56" t="n">
-        <v>44223644.22985124</v>
+        <v>30664551.92114014</v>
       </c>
       <c r="L56" t="n">
-        <v>45600185.07772029</v>
+        <v>31440765.12467942</v>
       </c>
       <c r="M56" t="n">
-        <v>49405550.66119693</v>
+        <v>32236626.64849738</v>
       </c>
       <c r="N56" t="n">
-        <v>50081691.44277801</v>
+        <v>32115553.55282566</v>
       </c>
       <c r="O56" t="n">
-        <v>51349411.58600517</v>
+        <v>33862056.87501987</v>
       </c>
       <c r="P56" t="n">
-        <v>54738954.22116092</v>
+        <v>34916074.59095171</v>
       </c>
       <c r="Q56" t="n">
-        <v>56442803.09583598</v>
+        <v>37220862.89957888</v>
       </c>
       <c r="R56" t="n">
-        <v>60168557.32810412</v>
+        <v>38163036.30240826</v>
       </c>
       <c r="S56" t="n">
-        <v>60642189.83734707</v>
+        <v>40238412.94436902</v>
       </c>
       <c r="T56" t="n">
-        <v>65350261.42970064</v>
+        <v>40321223.58123909</v>
       </c>
       <c r="U56" t="n">
-        <v>65484752.2401633</v>
+        <v>40873040.5989965</v>
       </c>
     </row>
     <row r="57">
@@ -4078,64 +4078,64 @@
         <v>22561132</v>
       </c>
       <c r="B57" t="n">
-        <v>22607562.80014147</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C57" t="n">
-        <v>23442699.02760037</v>
+        <v>22522654.17605832</v>
       </c>
       <c r="D57" t="n">
-        <v>24172395.40061003</v>
+        <v>24402184.55305221</v>
       </c>
       <c r="E57" t="n">
-        <v>25768000.14608955</v>
+        <v>25445483.61041219</v>
       </c>
       <c r="F57" t="n">
-        <v>28068165.79708124</v>
+        <v>26089586.29939451</v>
       </c>
       <c r="G57" t="n">
-        <v>27799566.82565245</v>
+        <v>26749993.1891657</v>
       </c>
       <c r="H57" t="n">
-        <v>30442699.15501968</v>
+        <v>27427116.98870512</v>
       </c>
       <c r="I57" t="n">
-        <v>33160149.11321818</v>
+        <v>28440290.28891942</v>
       </c>
       <c r="J57" t="n">
-        <v>34577889.07975776</v>
+        <v>30482961.17979327</v>
       </c>
       <c r="K57" t="n">
-        <v>36257271.17020781</v>
+        <v>31077357.1017128</v>
       </c>
       <c r="L57" t="n">
-        <v>35910306.36269107</v>
+        <v>33128754.06285977</v>
       </c>
       <c r="M57" t="n">
-        <v>35775435.80054267</v>
+        <v>33582138.37626369</v>
       </c>
       <c r="N57" t="n">
-        <v>37720970.30225441</v>
+        <v>36775067.10742938</v>
       </c>
       <c r="O57" t="n">
-        <v>41307411.6567646</v>
+        <v>39416367.82296903</v>
       </c>
       <c r="P57" t="n">
-        <v>43073482.37677695</v>
+        <v>42934847.13216006</v>
       </c>
       <c r="Q57" t="n">
-        <v>45666317.13143708</v>
+        <v>45020110.72831667</v>
       </c>
       <c r="R57" t="n">
-        <v>47087763.78057446</v>
+        <v>44851025.90958565</v>
       </c>
       <c r="S57" t="n">
-        <v>48005941.46673826</v>
+        <v>45204082.47080313</v>
       </c>
       <c r="T57" t="n">
-        <v>50337498.43797135</v>
+        <v>45034306.69800232</v>
       </c>
       <c r="U57" t="n">
-        <v>55123496.37582777</v>
+        <v>45388806.00180113</v>
       </c>
     </row>
     <row r="58">
@@ -4143,64 +4143,64 @@
         <v>22561132</v>
       </c>
       <c r="B58" t="n">
-        <v>23919213.21206409</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C58" t="n">
-        <v>26054347.96513828</v>
+        <v>24352068.00736287</v>
       </c>
       <c r="D58" t="n">
-        <v>26259441.56803332</v>
+        <v>25959532.82956281</v>
       </c>
       <c r="E58" t="n">
-        <v>28145477.06052344</v>
+        <v>26616647.6699113</v>
       </c>
       <c r="F58" t="n">
-        <v>30330604.63189425</v>
+        <v>27135653.24607074</v>
       </c>
       <c r="G58" t="n">
-        <v>30216690.10118297</v>
+        <v>27507018.84262751</v>
       </c>
       <c r="H58" t="n">
-        <v>32562620.23104641</v>
+        <v>29482659.2497314</v>
       </c>
       <c r="I58" t="n">
-        <v>33576190.63308547</v>
+        <v>31428791.20018923</v>
       </c>
       <c r="J58" t="n">
-        <v>34035698.34979633</v>
+        <v>31676191.13629614</v>
       </c>
       <c r="K58" t="n">
-        <v>33709992.93553067</v>
+        <v>32293854.18819935</v>
       </c>
       <c r="L58" t="n">
-        <v>33779368.08677574</v>
+        <v>35364295.19830662</v>
       </c>
       <c r="M58" t="n">
-        <v>36598278.67957089</v>
+        <v>36053873.63930684</v>
       </c>
       <c r="N58" t="n">
-        <v>38375787.23753986</v>
+        <v>37804941.48331373</v>
       </c>
       <c r="O58" t="n">
-        <v>38677872.26684136</v>
+        <v>40080633.17962006</v>
       </c>
       <c r="P58" t="n">
-        <v>40331518.79135459</v>
+        <v>39464061.37651443</v>
       </c>
       <c r="Q58" t="n">
-        <v>42290343.69771654</v>
+        <v>42298494.09821109</v>
       </c>
       <c r="R58" t="n">
-        <v>43852573.04573943</v>
+        <v>44844677.95695473</v>
       </c>
       <c r="S58" t="n">
-        <v>46237357.24026282</v>
+        <v>45197684.54860561</v>
       </c>
       <c r="T58" t="n">
-        <v>49558269.32470866</v>
+        <v>44502395.68594105</v>
       </c>
       <c r="U58" t="n">
-        <v>53405819.69516335</v>
+        <v>44852707.91332446</v>
       </c>
     </row>
     <row r="59">
@@ -4208,64 +4208,64 @@
         <v>22561132</v>
       </c>
       <c r="B59" t="n">
-        <v>23656883.12967957</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C59" t="n">
-        <v>25218459.23164993</v>
+        <v>23950137.44828802</v>
       </c>
       <c r="D59" t="n">
-        <v>27616184.53830816</v>
+        <v>23860186.43343013</v>
       </c>
       <c r="E59" t="n">
-        <v>27994126.45673888</v>
+        <v>23493138.38541733</v>
       </c>
       <c r="F59" t="n">
-        <v>27726236.0065154</v>
+        <v>23268320.24619238</v>
       </c>
       <c r="G59" t="n">
-        <v>27299715.41610312</v>
+        <v>25480629.87959393</v>
       </c>
       <c r="H59" t="n">
-        <v>28149468.39462632</v>
+        <v>27607005.28407641</v>
       </c>
       <c r="I59" t="n">
-        <v>28862017.17396972</v>
+        <v>27503319.94415501</v>
       </c>
       <c r="J59" t="n">
-        <v>30095993.38809289</v>
+        <v>28999001.45482325</v>
       </c>
       <c r="K59" t="n">
-        <v>29633018.1445035</v>
+        <v>28890088.10865315</v>
       </c>
       <c r="L59" t="n">
-        <v>31933633.79337826</v>
+        <v>30461184.64221443</v>
       </c>
       <c r="M59" t="n">
-        <v>34784171.17099556</v>
+        <v>32117720.31699554</v>
       </c>
       <c r="N59" t="n">
-        <v>37282479.4931806</v>
+        <v>33864341.47184099</v>
       </c>
       <c r="O59" t="n">
-        <v>36708952.4857019</v>
+        <v>35509067.91657898</v>
       </c>
       <c r="P59" t="n">
-        <v>38705253.35484594</v>
+        <v>35788586.81623443</v>
       </c>
       <c r="Q59" t="n">
-        <v>39009931.86271466</v>
+        <v>38567101.73088258</v>
       </c>
       <c r="R59" t="n">
-        <v>39770597.60895873</v>
+        <v>40664452.1997012</v>
       </c>
       <c r="S59" t="n">
-        <v>42627046.72474459</v>
+        <v>44057927.61231042</v>
       </c>
       <c r="T59" t="n">
-        <v>43706067.10569534</v>
+        <v>45173167.94653089</v>
       </c>
       <c r="U59" t="n">
-        <v>44558304.12747089</v>
+        <v>47104516.48764685</v>
       </c>
     </row>
     <row r="60">
@@ -4273,64 +4273,64 @@
         <v>22561132</v>
       </c>
       <c r="B60" t="n">
-        <v>22214067.67656468</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C60" t="n">
-        <v>22518078.80243852</v>
+        <v>24209957.1567916</v>
       </c>
       <c r="D60" t="n">
-        <v>23218994.69996122</v>
+        <v>24259781.23841039</v>
       </c>
       <c r="E60" t="n">
-        <v>24751666.05977138</v>
+        <v>25155951.35464679</v>
       </c>
       <c r="F60" t="n">
-        <v>24658704.6942549</v>
+        <v>27108981.41950934</v>
       </c>
       <c r="G60" t="n">
-        <v>25999690.75568721</v>
+        <v>26691956.23232535</v>
       </c>
       <c r="H60" t="n">
-        <v>26808978.1172432</v>
+        <v>28764236.95336822</v>
       </c>
       <c r="I60" t="n">
-        <v>29202066.06562358</v>
+        <v>29659575.81143023</v>
       </c>
       <c r="J60" t="n">
-        <v>28752842.36080331</v>
+        <v>30582783.70951077</v>
       </c>
       <c r="K60" t="n">
-        <v>28812015.69825612</v>
+        <v>33312738.2345615</v>
       </c>
       <c r="L60" t="n">
-        <v>30881385.07445964</v>
+        <v>33574968.15165508</v>
       </c>
       <c r="M60" t="n">
-        <v>33637994.07789832</v>
+        <v>33253671.70583508</v>
       </c>
       <c r="N60" t="n">
-        <v>35271727.2616327</v>
+        <v>33322107.74818187</v>
       </c>
       <c r="O60" t="n">
-        <v>36779746.3376919</v>
+        <v>35327952.51160869</v>
       </c>
       <c r="P60" t="n">
-        <v>38993725.78188391</v>
+        <v>34784492.54972395</v>
       </c>
       <c r="Q60" t="n">
-        <v>42474478.19337013</v>
+        <v>37080595.20986973</v>
       </c>
       <c r="R60" t="n">
-        <v>43302700.11298255</v>
+        <v>39097106.69912221</v>
       </c>
       <c r="S60" t="n">
-        <v>46664587.48579939</v>
+        <v>38722966.01885311</v>
       </c>
       <c r="T60" t="n">
-        <v>48117107.10379601</v>
+        <v>40378540.49653236</v>
       </c>
       <c r="U60" t="n">
-        <v>51293287.33588114</v>
+        <v>41165893.13142373</v>
       </c>
     </row>
     <row r="61">
@@ -4338,64 +4338,64 @@
         <v>22561132</v>
       </c>
       <c r="B61" t="n">
-        <v>22476397.75894921</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C61" t="n">
-        <v>22783999.00910183</v>
+        <v>24067846.30622032</v>
       </c>
       <c r="D61" t="n">
-        <v>22830888.46945404</v>
+        <v>25376700.39346912</v>
       </c>
       <c r="E61" t="n">
-        <v>24470674.52000329</v>
+        <v>25428925.63217696</v>
       </c>
       <c r="F61" t="n">
-        <v>24094235.1597668</v>
+        <v>26220446.89777379</v>
       </c>
       <c r="G61" t="n">
-        <v>24704133.63499279</v>
+        <v>27798802.81997623</v>
       </c>
       <c r="H61" t="n">
-        <v>25473094.43982915</v>
+        <v>28502475.18561007</v>
       </c>
       <c r="I61" t="n">
-        <v>26265990.53938627</v>
+        <v>31212438.76535031</v>
       </c>
       <c r="J61" t="n">
-        <v>26930862.75774254</v>
+        <v>33817137.40970007</v>
       </c>
       <c r="K61" t="n">
-        <v>28395412.98567456</v>
+        <v>36049385.56033592</v>
       </c>
       <c r="L61" t="n">
-        <v>31095197.28587144</v>
+        <v>38848148.08084591</v>
       </c>
       <c r="M61" t="n">
-        <v>30797631.06555829</v>
+        <v>41412490.10833584</v>
       </c>
       <c r="N61" t="n">
-        <v>31756262.99012333</v>
+        <v>41016192.31218414</v>
       </c>
       <c r="O61" t="n">
-        <v>32929357.40574953</v>
+        <v>41100603.61866517</v>
       </c>
       <c r="P61" t="n">
-        <v>33188569.44054694</v>
+        <v>41424137.75157043</v>
       </c>
       <c r="Q61" t="n">
-        <v>34221623.64295059</v>
+        <v>42954368.9593045</v>
       </c>
       <c r="R61" t="n">
-        <v>37276397.11308446</v>
+        <v>45540033.60856504</v>
       </c>
       <c r="S61" t="n">
-        <v>38436692.33934066</v>
+        <v>45633754.97852622</v>
       </c>
       <c r="T61" t="n">
-        <v>39856565.61449417</v>
+        <v>48646010.68554433</v>
       </c>
       <c r="U61" t="n">
-        <v>39475157.27430793</v>
+        <v>49594573.07089122</v>
       </c>
     </row>
     <row r="62">
@@ -4403,64 +4403,64 @@
         <v>22561132</v>
       </c>
       <c r="B62" t="n">
-        <v>23394553.04729505</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C62" t="n">
-        <v>23986740.43724649</v>
+        <v>26199509.06478943</v>
       </c>
       <c r="D62" t="n">
-        <v>25430637.02570147</v>
+        <v>28081240.01683535</v>
       </c>
       <c r="E62" t="n">
-        <v>25926516.24329904</v>
+        <v>30098122.79051012</v>
       </c>
       <c r="F62" t="n">
-        <v>27637909.41166148</v>
+        <v>30510031.33105558</v>
       </c>
       <c r="G62" t="n">
-        <v>29622950.79015278</v>
+        <v>30750199.00896098</v>
       </c>
       <c r="H62" t="n">
-        <v>29339473.26723791</v>
+        <v>32780000.46843485</v>
       </c>
       <c r="I62" t="n">
-        <v>31105580.89942997</v>
+        <v>35515513.17296281</v>
       </c>
       <c r="J62" t="n">
-        <v>32254638.74856288</v>
+        <v>35175646.63601171</v>
       </c>
       <c r="K62" t="n">
-        <v>32696060.33705247</v>
+        <v>34839032.45986353</v>
       </c>
       <c r="L62" t="n">
-        <v>33523697.20592323</v>
+        <v>34303093.69447606</v>
       </c>
       <c r="M62" t="n">
-        <v>36711069.45674296</v>
+        <v>34971979.46580776</v>
       </c>
       <c r="N62" t="n">
-        <v>39774632.46652481</v>
+        <v>38297051.76379576</v>
       </c>
       <c r="O62" t="n">
-        <v>40318969.09921288</v>
+        <v>37930567.22800967</v>
       </c>
       <c r="P62" t="n">
-        <v>42277184.49097506</v>
+        <v>39552263.22609039</v>
       </c>
       <c r="Q62" t="n">
-        <v>43347348.79322066</v>
+        <v>41243293.7504486</v>
       </c>
       <c r="R62" t="n">
-        <v>46712702.55113391</v>
+        <v>43246401.82670826</v>
       </c>
       <c r="S62" t="n">
-        <v>46537260.76044264</v>
+        <v>45095372.77281038</v>
       </c>
       <c r="T62" t="n">
-        <v>48797486.71233405</v>
+        <v>47547742.71978177</v>
       </c>
       <c r="U62" t="n">
-        <v>49465305.82098297</v>
+        <v>49027752.14047913</v>
       </c>
     </row>
     <row r="63">
@@ -4468,64 +4468,64 @@
         <v>22561132</v>
       </c>
       <c r="B63" t="n">
-        <v>23525718.08848731</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C63" t="n">
-        <v>24941863.15320707</v>
+        <v>24246560.14575006</v>
       </c>
       <c r="D63" t="n">
-        <v>25863229.76329718</v>
+        <v>26551879.05230374</v>
       </c>
       <c r="E63" t="n">
-        <v>27871170.7308264</v>
+        <v>27687086.85823518</v>
       </c>
       <c r="F63" t="n">
-        <v>27442420.56824392</v>
+        <v>29836626.43558079</v>
       </c>
       <c r="G63" t="n">
-        <v>29732508.70230962</v>
+        <v>31632660.50840733</v>
       </c>
       <c r="H63" t="n">
-        <v>29966555.90782879</v>
+        <v>31881665.25500492</v>
       </c>
       <c r="I63" t="n">
-        <v>30899319.11618587</v>
+        <v>34171506.49457748</v>
       </c>
       <c r="J63" t="n">
-        <v>31142551.17453641</v>
+        <v>37420471.27613142</v>
       </c>
       <c r="K63" t="n">
-        <v>32655085.45830383</v>
+        <v>37279928.89406717</v>
       </c>
       <c r="L63" t="n">
-        <v>35570022.80212356</v>
+        <v>40824436.83242451</v>
       </c>
       <c r="M63" t="n">
-        <v>38745160.34444665</v>
+        <v>41857827.66682757</v>
       </c>
       <c r="N63" t="n">
-        <v>42203724.7057165</v>
+        <v>44620836.76682634</v>
       </c>
       <c r="O63" t="n">
-        <v>46216378.20816098</v>
+        <v>46528570.75827427</v>
       </c>
       <c r="P63" t="n">
-        <v>50341856.51710865</v>
+        <v>48517868.63883402</v>
       </c>
       <c r="Q63" t="n">
-        <v>52786864.42490284</v>
+        <v>49181861.02801053</v>
       </c>
       <c r="R63" t="n">
-        <v>54736841.21828467</v>
+        <v>51284598.5570288</v>
       </c>
       <c r="S63" t="n">
-        <v>55485943.49742752</v>
+        <v>54371706.49862279</v>
       </c>
       <c r="T63" t="n">
-        <v>59148536.0243423</v>
+        <v>56696332.39487155</v>
       </c>
       <c r="U63" t="n">
-        <v>63740644.96586351</v>
+        <v>62086916.71761551</v>
       </c>
     </row>
     <row r="64">
@@ -4533,64 +4533,64 @@
         <v>22561132</v>
       </c>
       <c r="B64" t="n">
-        <v>22738727.84133373</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C64" t="n">
-        <v>23975302.00319697</v>
+        <v>26624316.49196331</v>
       </c>
       <c r="D64" t="n">
-        <v>25279123.35973432</v>
+        <v>26524321.89721324</v>
       </c>
       <c r="E64" t="n">
-        <v>26506882.14323588</v>
+        <v>29046206.25464772</v>
       </c>
       <c r="F64" t="n">
-        <v>26715537.98707217</v>
+        <v>30794660.49870674</v>
       </c>
       <c r="G64" t="n">
-        <v>27391789.62050708</v>
+        <v>31932232.77140687</v>
       </c>
       <c r="H64" t="n">
-        <v>29359153.90330238</v>
+        <v>32554888.45190851</v>
       </c>
       <c r="I64" t="n">
-        <v>29931636.38780257</v>
+        <v>35650148.12576725</v>
       </c>
       <c r="J64" t="n">
-        <v>31907405.03914359</v>
+        <v>35308993.19647506</v>
       </c>
       <c r="K64" t="n">
-        <v>33828090.90319421</v>
+        <v>36202771.35417538</v>
       </c>
       <c r="L64" t="n">
-        <v>33897709.10000692</v>
+        <v>37119173.75920944</v>
       </c>
       <c r="M64" t="n">
-        <v>36923568.52553851</v>
+        <v>38921981.19721503</v>
       </c>
       <c r="N64" t="n">
-        <v>37643551.68022117</v>
+        <v>39002082.61810463</v>
       </c>
       <c r="O64" t="n">
-        <v>40566080.31542219</v>
+        <v>41803334.57573667</v>
       </c>
       <c r="P64" t="n">
-        <v>40649565.29160371</v>
+        <v>45534885.09354489</v>
       </c>
       <c r="Q64" t="n">
-        <v>41914856.47342454</v>
+        <v>48540614.46111477</v>
       </c>
       <c r="R64" t="n">
-        <v>43706898.08974093</v>
+        <v>51744750.14973964</v>
       </c>
       <c r="S64" t="n">
-        <v>45575557.24515461</v>
+        <v>54859557.19937315</v>
       </c>
       <c r="T64" t="n">
-        <v>48054040.51366149</v>
+        <v>57523981.20854672</v>
       </c>
       <c r="U64" t="n">
-        <v>51505432.49134367</v>
+        <v>57307934.82887364</v>
       </c>
     </row>
     <row r="65">
@@ -4598,64 +4598,64 @@
         <v>22561132</v>
       </c>
       <c r="B65" t="n">
-        <v>23394553.04729505</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C65" t="n">
-        <v>23714719.73242343</v>
+        <v>23938699.01423851</v>
       </c>
       <c r="D65" t="n">
-        <v>23625652.89046447</v>
+        <v>25379703.71969808</v>
       </c>
       <c r="E65" t="n">
-        <v>24086336.20951444</v>
+        <v>26612347.49935382</v>
       </c>
       <c r="F65" t="n">
-        <v>25396195.81197185</v>
+        <v>27440704.90925309</v>
       </c>
       <c r="G65" t="n">
-        <v>26481993.1549743</v>
+        <v>28613913.86941302</v>
       </c>
       <c r="H65" t="n">
-        <v>26690453.07864089</v>
+        <v>30169991.53600868</v>
       </c>
       <c r="I65" t="n">
-        <v>26279866.23220425</v>
+        <v>29881279.09383586</v>
       </c>
       <c r="J65" t="n">
-        <v>28778508.1889447</v>
+        <v>30116497.38433643</v>
       </c>
       <c r="K65" t="n">
-        <v>29172357.11399864</v>
+        <v>32804829.12986944</v>
       </c>
       <c r="L65" t="n">
-        <v>31946011.85097478</v>
+        <v>32872341.45438418</v>
       </c>
       <c r="M65" t="n">
-        <v>33869021.67580032</v>
+        <v>35615560.07522096</v>
       </c>
       <c r="N65" t="n">
-        <v>36498507.50473125</v>
+        <v>38794762.4759275</v>
       </c>
       <c r="O65" t="n">
-        <v>38907751.22312579</v>
+        <v>39551232.57315723</v>
       </c>
       <c r="P65" t="n">
-        <v>39214023.74583761</v>
+        <v>38942804.69045898</v>
       </c>
       <c r="Q65" t="n">
-        <v>41346555.03277482</v>
+        <v>41286990.76211504</v>
       </c>
       <c r="R65" t="n">
-        <v>45277710.39934854</v>
+        <v>41131926.65329731</v>
       </c>
       <c r="S65" t="n">
-        <v>45370891.90825578</v>
+        <v>43607888.26745043</v>
       </c>
       <c r="T65" t="n">
-        <v>45728040.73042075</v>
+        <v>43951159.14612997</v>
       </c>
       <c r="U65" t="n">
-        <v>47151408.63812372</v>
+        <v>45574739.96137448</v>
       </c>
     </row>
     <row r="66">
@@ -4663,64 +4663,64 @@
         <v>22561132</v>
       </c>
       <c r="B66" t="n">
-        <v>23001057.92371826</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C66" t="n">
-        <v>24118175.41603821</v>
+        <v>26625841.61650325</v>
       </c>
       <c r="D66" t="n">
-        <v>24868897.21236267</v>
+        <v>26835433.88089412</v>
       </c>
       <c r="E66" t="n">
-        <v>26799641.28365573</v>
+        <v>29386898.20075312</v>
       </c>
       <c r="F66" t="n">
-        <v>27633828.55106976</v>
+        <v>30130770.09730491</v>
       </c>
       <c r="G66" t="n">
-        <v>29136607.36165459</v>
+        <v>29667259.87368641</v>
       </c>
       <c r="H66" t="n">
-        <v>30890503.35593145</v>
+        <v>31798055.5702261</v>
       </c>
       <c r="I66" t="n">
-        <v>32031616.11828626</v>
+        <v>31493763.33106289</v>
       </c>
       <c r="J66" t="n">
-        <v>33214882.23506865</v>
+        <v>32290966.4009</v>
       </c>
       <c r="K66" t="n">
-        <v>35214272.49280786</v>
+        <v>32732885.15229772</v>
       </c>
       <c r="L66" t="n">
-        <v>35900925.59844391</v>
+        <v>33942056.54602993</v>
       </c>
       <c r="M66" t="n">
-        <v>38062003.88790907</v>
+        <v>36182550.53095013</v>
       </c>
       <c r="N66" t="n">
-        <v>38140335.47585879</v>
+        <v>38570938.12654933</v>
       </c>
       <c r="O66" t="n">
-        <v>40214477.60480019</v>
+        <v>39323043.80918981</v>
       </c>
       <c r="P66" t="n">
-        <v>41700023.27874136</v>
+        <v>39632585.41592728</v>
       </c>
       <c r="Q66" t="n">
-        <v>43967747.82759909</v>
+        <v>40405392.46073534</v>
       </c>
       <c r="R66" t="n">
-        <v>47892503.44429973</v>
+        <v>40723454.05748872</v>
       </c>
       <c r="S66" t="n">
-        <v>47712630.60230867</v>
+        <v>43885096.76374371</v>
       </c>
       <c r="T66" t="n">
-        <v>51971671.01707443</v>
+        <v>47037062.11964611</v>
       </c>
       <c r="U66" t="n">
-        <v>54193685.00371787</v>
+        <v>51235798.30397477</v>
       </c>
     </row>
     <row r="67">
@@ -4728,64 +4728,64 @@
         <v>22561132</v>
       </c>
       <c r="B67" t="n">
-        <v>22345232.71775694</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C67" t="n">
-        <v>23300588.1770291</v>
+        <v>22521129.05151838</v>
       </c>
       <c r="D67" t="n">
-        <v>24703181.40831138</v>
+        <v>22567477.52560874</v>
       </c>
       <c r="E67" t="n">
-        <v>24754020.5452318</v>
+        <v>23925940.7104883</v>
       </c>
       <c r="F67" t="n">
-        <v>26100190.05928981</v>
+        <v>25922576.27626102</v>
       </c>
       <c r="G67" t="n">
-        <v>27216086.20484073</v>
+        <v>28236540.07623858</v>
       </c>
       <c r="H67" t="n">
-        <v>27113869.06392155</v>
+        <v>28130490.35350035</v>
       </c>
       <c r="I67" t="n">
-        <v>29218905.78903049</v>
+        <v>28842558.74082181</v>
       </c>
       <c r="J67" t="n">
-        <v>30638012.28715882</v>
+        <v>29908019.26436489</v>
       </c>
       <c r="K67" t="n">
-        <v>33016652.56519372</v>
+        <v>32229985.14751974</v>
       </c>
       <c r="L67" t="n">
-        <v>35388012.15484224</v>
+        <v>33982711.47191034</v>
       </c>
       <c r="M67" t="n">
-        <v>35872315.59598915</v>
+        <v>35238052.160704</v>
       </c>
       <c r="N67" t="n">
-        <v>37197459.33580272</v>
+        <v>37359228.37602807</v>
       </c>
       <c r="O67" t="n">
-        <v>40301611.90246401</v>
+        <v>37436113.65227071</v>
       </c>
       <c r="P67" t="n">
-        <v>39681640.72068636</v>
+        <v>40560182.07937616</v>
       </c>
       <c r="Q67" t="n">
-        <v>39532605.92446613</v>
+        <v>41586883.82114414</v>
       </c>
       <c r="R67" t="n">
-        <v>39154297.7241378</v>
+        <v>41914245.83563279</v>
       </c>
       <c r="S67" t="n">
-        <v>39462511.00200655</v>
+        <v>42487864.19550149</v>
       </c>
       <c r="T67" t="n">
-        <v>41149704.23013504</v>
+        <v>42822318.51225623</v>
       </c>
       <c r="U67" t="n">
-        <v>41712859.43856075</v>
+        <v>45151075.5558705</v>
       </c>
     </row>
     <row r="68">
@@ -4793,64 +4793,64 @@
         <v>22561132</v>
       </c>
       <c r="B68" t="n">
-        <v>23132222.96491052</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C68" t="n">
-        <v>22910858.61427374</v>
+        <v>26193408.56662968</v>
       </c>
       <c r="D68" t="n">
-        <v>23490802.22494692</v>
+        <v>27922419.13080998</v>
       </c>
       <c r="E68" t="n">
-        <v>23402576.36384184</v>
+        <v>30577232.03425002</v>
       </c>
       <c r="F68" t="n">
-        <v>24947365.83479557</v>
+        <v>32062309.84612594</v>
       </c>
       <c r="G68" t="n">
-        <v>26013973.75272484</v>
+        <v>32128294.06626787</v>
       </c>
       <c r="H68" t="n">
-        <v>26369988.57919274</v>
+        <v>34062276.48111606</v>
       </c>
       <c r="I68" t="n">
-        <v>28723890.37999302</v>
+        <v>33736316.72679888</v>
       </c>
       <c r="J68" t="n">
-        <v>28783004.13428154</v>
+        <v>36747769.55534659</v>
       </c>
       <c r="K68" t="n">
-        <v>30013602.19881131</v>
+        <v>38105253.06231662</v>
       </c>
       <c r="L68" t="n">
-        <v>29551894.40236797</v>
+        <v>41728231.32379048</v>
       </c>
       <c r="M68" t="n">
-        <v>30815365.85535048</v>
+        <v>45453077.79318885</v>
       </c>
       <c r="N68" t="n">
-        <v>33566081.69132411</v>
+        <v>49774673.88631795</v>
       </c>
       <c r="O68" t="n">
-        <v>33440015.47899206</v>
+        <v>53349647.15197176</v>
       </c>
       <c r="P68" t="n">
-        <v>34869720.9445616</v>
+        <v>56561061.96339796</v>
       </c>
       <c r="Q68" t="n">
-        <v>36766000.99383709</v>
+        <v>56019799.55330245</v>
       </c>
       <c r="R68" t="n">
-        <v>38124157.98051374</v>
+        <v>60694688.85145032</v>
       </c>
       <c r="S68" t="n">
-        <v>37980972.71870244</v>
+        <v>60113869.60182252</v>
       </c>
       <c r="T68" t="n">
-        <v>38059137.5445401</v>
+        <v>63033485.53800903</v>
       </c>
       <c r="U68" t="n">
-        <v>39465063.73084656</v>
+        <v>69026594.87324065</v>
       </c>
     </row>
     <row r="69">
@@ -4858,64 +4858,64 @@
         <v>22561132</v>
       </c>
       <c r="B69" t="n">
-        <v>22738727.84133373</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C69" t="n">
-        <v>24371894.62638203</v>
+        <v>25346843.96136178</v>
       </c>
       <c r="D69" t="n">
-        <v>23996974.82540121</v>
+        <v>27019973.32390138</v>
       </c>
       <c r="E69" t="n">
-        <v>24325385.96740618</v>
+        <v>29588983.3188752</v>
       </c>
       <c r="F69" t="n">
-        <v>25223979.55964312</v>
+        <v>31886180.24042216</v>
       </c>
       <c r="G69" t="n">
-        <v>26155767.71023532</v>
+        <v>31951801.98590984</v>
       </c>
       <c r="H69" t="n">
-        <v>28338483.81290679</v>
+        <v>34432440.82263146</v>
       </c>
       <c r="I69" t="n">
-        <v>31032855.39074111</v>
+        <v>34703484.77100556</v>
       </c>
       <c r="J69" t="n">
-        <v>31277138.61474364</v>
+        <v>35783693.4508331</v>
       </c>
       <c r="K69" t="n">
-        <v>30977831.30261321</v>
+        <v>36065374.13708719</v>
       </c>
       <c r="L69" t="n">
-        <v>32122170.00898455</v>
+        <v>36978298.60008878</v>
       </c>
       <c r="M69" t="n">
-        <v>34055783.7824393</v>
+        <v>36624433.90365738</v>
       </c>
       <c r="N69" t="n">
-        <v>35709808.21488936</v>
+        <v>38403212.77095035</v>
       </c>
       <c r="O69" t="n">
-        <v>37028948.83962213</v>
+        <v>40714917.77525278</v>
       </c>
       <c r="P69" t="n">
-        <v>37966264.31308516</v>
+        <v>40562002.23639012</v>
       </c>
       <c r="Q69" t="n">
-        <v>40251666.93631615</v>
+        <v>41824567.859873</v>
       </c>
       <c r="R69" t="n">
-        <v>41270559.22017485</v>
+        <v>41910642.80289026</v>
       </c>
       <c r="S69" t="n">
-        <v>44234740.28558336</v>
+        <v>42971528.81864172</v>
       </c>
       <c r="T69" t="n">
-        <v>48440499.06100789</v>
+        <v>42810137.98589273</v>
       </c>
       <c r="U69" t="n">
-        <v>47695325.05850314</v>
+        <v>45387120.56303081</v>
       </c>
     </row>
     <row r="70">
@@ -4923,64 +4923,64 @@
         <v>22561132</v>
       </c>
       <c r="B70" t="n">
-        <v>23656883.12967957</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C70" t="n">
-        <v>25906136.61640726</v>
+        <v>26193408.56662968</v>
       </c>
       <c r="D70" t="n">
-        <v>26411287.73563941</v>
+        <v>27313290.20702942</v>
       </c>
       <c r="E70" t="n">
-        <v>27540484.653987</v>
+        <v>29592602.32710505</v>
       </c>
       <c r="F70" t="n">
-        <v>27116821.52956945</v>
+        <v>30857814.22014581</v>
       </c>
       <c r="G70" t="n">
-        <v>27960881.60534744</v>
+        <v>33253519.23874196</v>
       </c>
       <c r="H70" t="n">
-        <v>29318888.26945881</v>
+        <v>33515282.99804765</v>
       </c>
       <c r="I70" t="n">
-        <v>32106474.92259341</v>
+        <v>33194557.71070606</v>
       </c>
       <c r="J70" t="n">
-        <v>33852484.5320501</v>
+        <v>35385709.763678</v>
       </c>
       <c r="K70" t="n">
-        <v>36283876.19630175</v>
+        <v>36898602.08527309</v>
       </c>
       <c r="L70" t="n">
-        <v>39733681.25300167</v>
+        <v>36330980.37336455</v>
       </c>
       <c r="M70" t="n">
-        <v>41894472.47826353</v>
+        <v>38306726.41854119</v>
       </c>
       <c r="N70" t="n">
-        <v>42711384.70162578</v>
+        <v>38608267.81757391</v>
       </c>
       <c r="O70" t="n">
-        <v>46772305.59456341</v>
+        <v>39136642.14046489</v>
       </c>
       <c r="P70" t="n">
-        <v>49587793.28697605</v>
+        <v>42630151.89815994</v>
       </c>
       <c r="Q70" t="n">
-        <v>50266428.15413623</v>
+        <v>45196300.1020856</v>
       </c>
       <c r="R70" t="n">
-        <v>55045668.85847027</v>
+        <v>45814835.08988805</v>
       </c>
       <c r="S70" t="n">
-        <v>58999221.52279332</v>
+        <v>46708191.57780357</v>
       </c>
       <c r="T70" t="n">
-        <v>62893723.34113567</v>
+        <v>49248269.60043944</v>
       </c>
       <c r="U70" t="n">
-        <v>63023158.59724803</v>
+        <v>53071752.55348417</v>
       </c>
     </row>
     <row r="71">
@@ -4988,64 +4988,64 @@
         <v>22561132</v>
       </c>
       <c r="B71" t="n">
-        <v>24312708.33564088</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C71" t="n">
-        <v>25352181.89725156</v>
+        <v>24239697.08532035</v>
       </c>
       <c r="D71" t="n">
-        <v>26436097.45480819</v>
+        <v>25980668.19133871</v>
       </c>
       <c r="E71" t="n">
-        <v>28642207.25994389</v>
+        <v>26789363.44120167</v>
       </c>
       <c r="F71" t="n">
-        <v>30366342.53612487</v>
+        <v>27778977.76266098</v>
       </c>
       <c r="G71" t="n">
-        <v>32723891.21702623</v>
+        <v>27836146.88718152</v>
       </c>
       <c r="H71" t="n">
-        <v>35835219.36688089</v>
+        <v>29997259.02300036</v>
       </c>
       <c r="I71" t="n">
-        <v>35283955.97439142</v>
+        <v>31802962.47318881</v>
       </c>
       <c r="J71" t="n">
-        <v>36382232.86945512</v>
+        <v>32238202.6357907</v>
       </c>
       <c r="K71" t="n">
-        <v>37937730.86902279</v>
+        <v>33054249.73175444</v>
       </c>
       <c r="L71" t="n">
-        <v>38236367.62324136</v>
+        <v>33698783.93979222</v>
       </c>
       <c r="M71" t="n">
-        <v>40538029.28129557</v>
+        <v>36510969.73226076</v>
       </c>
       <c r="N71" t="n">
-        <v>42742562.44304018</v>
+        <v>39770100.35886812</v>
       </c>
       <c r="O71" t="n">
-        <v>44073001.94367553</v>
+        <v>40545588.84662409</v>
       </c>
       <c r="P71" t="n">
-        <v>45188623.85513443</v>
+        <v>42279088.34261479</v>
       </c>
       <c r="Q71" t="n">
-        <v>48959644.38257122</v>
+        <v>41628697.07718131</v>
       </c>
       <c r="R71" t="n">
-        <v>53329998.76223186</v>
+        <v>43650523.45758678</v>
       </c>
       <c r="S71" t="n">
-        <v>53749799.7721504</v>
+        <v>44501677.41798488</v>
       </c>
       <c r="T71" t="n">
-        <v>56672813.49865909</v>
+        <v>46921761.11126089</v>
       </c>
       <c r="U71" t="n">
-        <v>57777892.79291215</v>
+        <v>47291118.00529505</v>
       </c>
     </row>
     <row r="72">
@@ -5053,64 +5053,64 @@
         <v>22561132</v>
       </c>
       <c r="B72" t="n">
-        <v>22345232.71775694</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C72" t="n">
-        <v>23560407.88553267</v>
+        <v>24613412.84040638</v>
       </c>
       <c r="D72" t="n">
-        <v>23471920.60213626</v>
+        <v>25093356.77139683</v>
       </c>
       <c r="E72" t="n">
-        <v>25430667.8897894</v>
+        <v>25728546.05761797</v>
       </c>
       <c r="F72" t="n">
-        <v>27700721.7717453</v>
+        <v>27576450.96866169</v>
       </c>
       <c r="G72" t="n">
-        <v>27757729.84546954</v>
+        <v>27633203.29312559</v>
       </c>
       <c r="H72" t="n">
-        <v>27653478.41997596</v>
+        <v>29778559.51754698</v>
       </c>
       <c r="I72" t="n">
-        <v>28675013.64020016</v>
+        <v>30186094.66768885</v>
       </c>
       <c r="J72" t="n">
-        <v>29567575.26139495</v>
+        <v>30774701.90513287</v>
       </c>
       <c r="K72" t="n">
-        <v>29284627.65590234</v>
+        <v>32985037.56339535</v>
       </c>
       <c r="L72" t="n">
-        <v>32068956.87211776</v>
+        <v>35545893.60671219</v>
       </c>
       <c r="M72" t="n">
-        <v>34745132.51857973</v>
+        <v>37272289.82987265</v>
       </c>
       <c r="N72" t="n">
-        <v>36432637.3037164</v>
+        <v>40165994.84614371</v>
       </c>
       <c r="O72" t="n">
-        <v>37566668.98105861</v>
+        <v>42583811.60127865</v>
       </c>
       <c r="P72" t="n">
-        <v>37643981.16997893</v>
+        <v>43414165.44407947</v>
       </c>
       <c r="Q72" t="n">
-        <v>39909983.76126039</v>
+        <v>46784706.6395943</v>
       </c>
       <c r="R72" t="n">
-        <v>40224145.61908279</v>
+        <v>50144931.07541889</v>
       </c>
       <c r="S72" t="n">
-        <v>40540780.48399788</v>
+        <v>51122721.33537313</v>
       </c>
       <c r="T72" t="n">
-        <v>40624213.393137</v>
+        <v>52714008.42620192</v>
       </c>
       <c r="U72" t="n">
-        <v>42124894.94012877</v>
+        <v>54354827.20351562</v>
       </c>
     </row>
     <row r="73">
@@ -5118,64 +5118,64 @@
         <v>22561132</v>
       </c>
       <c r="B73" t="n">
-        <v>23263388.00610278</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C73" t="n">
-        <v>25204733.11079051</v>
+        <v>23837003.96397553</v>
       </c>
       <c r="D73" t="n">
-        <v>26135810.28661605</v>
+        <v>25687635.04294256</v>
       </c>
       <c r="E73" t="n">
-        <v>27253229.35112989</v>
+        <v>27532601.59653829</v>
       </c>
       <c r="F73" t="n">
-        <v>29527529.35308439</v>
+        <v>27589263.67901285</v>
       </c>
       <c r="G73" t="n">
-        <v>30103295.03832455</v>
+        <v>29570811.16834068</v>
       </c>
       <c r="H73" t="n">
-        <v>31390341.25620035</v>
+        <v>29115914.95251366</v>
       </c>
       <c r="I73" t="n">
-        <v>31637438.52353374</v>
+        <v>30191473.40998279</v>
       </c>
       <c r="J73" t="n">
-        <v>34461536.20145296</v>
+        <v>31131237.58206656</v>
       </c>
       <c r="K73" t="n">
-        <v>33931404.56859432</v>
+        <v>32462232.79494217</v>
       </c>
       <c r="L73" t="n">
-        <v>36565733.61189795</v>
+        <v>31962857.01618353</v>
       </c>
       <c r="M73" t="n">
-        <v>38979414.88370156</v>
+        <v>34630178.55954272</v>
       </c>
       <c r="N73" t="n">
-        <v>42458889.84112664</v>
+        <v>36513431.84997521</v>
       </c>
       <c r="O73" t="n">
-        <v>46248958.12109056</v>
+        <v>37437698.01833045</v>
       </c>
       <c r="P73" t="n">
-        <v>48495181.76393296</v>
+        <v>40561898.66183075</v>
       </c>
       <c r="Q73" t="n">
-        <v>48031105.98373364</v>
+        <v>39937923.41465253</v>
       </c>
       <c r="R73" t="n">
-        <v>50922367.93952416</v>
+        <v>41413253.0195247</v>
       </c>
       <c r="S73" t="n">
-        <v>52211368.16531564</v>
+        <v>41980015.0308715</v>
       </c>
       <c r="T73" t="n">
-        <v>55961352.46015034</v>
+        <v>42310471.68032554</v>
       </c>
       <c r="U73" t="n">
-        <v>56727212.81560344</v>
+        <v>44857376.53698877</v>
       </c>
     </row>
     <row r="74">
@@ -5183,64 +5183,64 @@
         <v>22561132</v>
       </c>
       <c r="B74" t="n">
-        <v>23919213.21206409</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C74" t="n">
-        <v>25498105.55917267</v>
+        <v>25637928.72293404</v>
       </c>
       <c r="D74" t="n">
-        <v>26736499.89023516</v>
+        <v>26883113.99824732</v>
       </c>
       <c r="E74" t="n">
-        <v>28812238.84276648</v>
+        <v>29282819.6432291</v>
       </c>
       <c r="F74" t="n">
-        <v>28369011.96121543</v>
+        <v>31045516.97569145</v>
       </c>
       <c r="G74" t="n">
-        <v>29416979.39739912</v>
+        <v>31470391.10079697</v>
       </c>
       <c r="H74" t="n">
-        <v>31016729.25573391</v>
+        <v>32449963.89727448</v>
       </c>
       <c r="I74" t="n">
-        <v>31801857.14023126</v>
+        <v>33271371.31572342</v>
       </c>
       <c r="J74" t="n">
-        <v>34085966.31057219</v>
+        <v>36241321.06067602</v>
       </c>
       <c r="K74" t="n">
-        <v>36335959.68930168</v>
+        <v>36737302.4801634</v>
       </c>
       <c r="L74" t="n">
-        <v>35776993.26572238</v>
+        <v>38948726.99025561</v>
       </c>
       <c r="M74" t="n">
-        <v>37930611.3722217</v>
+        <v>42199024.00015441</v>
       </c>
       <c r="N74" t="n">
-        <v>37788153.02539682</v>
+        <v>41549864.38731918</v>
       </c>
       <c r="O74" t="n">
-        <v>37646229.71821</v>
+        <v>43326301.01144524</v>
       </c>
       <c r="P74" t="n">
-        <v>37504839.44117974</v>
+        <v>46186243.12112094</v>
       </c>
       <c r="Q74" t="n">
-        <v>41070731.46591572</v>
+        <v>47892389.20956314</v>
       </c>
       <c r="R74" t="n">
-        <v>42110356.76762712</v>
+        <v>52445910.60233627</v>
       </c>
       <c r="S74" t="n">
-        <v>42686659.00809347</v>
+        <v>57127464.52264629</v>
       </c>
       <c r="T74" t="n">
-        <v>44015358.4132871</v>
+        <v>56580781.90996511</v>
       </c>
       <c r="U74" t="n">
-        <v>46153100.38051687</v>
+        <v>59657749.69180817</v>
       </c>
     </row>
     <row r="75">
@@ -5248,64 +5248,64 @@
         <v>22561132</v>
       </c>
       <c r="B75" t="n">
-        <v>23132222.96491052</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C75" t="n">
-        <v>24793651.80447605</v>
+        <v>24469776.86529516</v>
       </c>
       <c r="D75" t="n">
-        <v>27150987.19241502</v>
+        <v>24235612.76121275</v>
       </c>
       <c r="E75" t="n">
-        <v>29101056.28921474</v>
+        <v>24003689.4960208</v>
       </c>
       <c r="F75" t="n">
-        <v>31529558.67044521</v>
+        <v>24890399.43764601</v>
       </c>
       <c r="G75" t="n">
-        <v>33244194.50490695</v>
+        <v>24507503.32938063</v>
       </c>
       <c r="H75" t="n">
-        <v>35631896.87066581</v>
+        <v>24842901.32077966</v>
       </c>
       <c r="I75" t="n">
-        <v>36326693.35271562</v>
+        <v>26627196.44777346</v>
       </c>
       <c r="J75" t="n">
-        <v>35979064.20799385</v>
+        <v>28849253.59017605</v>
       </c>
       <c r="K75" t="n">
-        <v>35425588.00931803</v>
+        <v>29747238.74470125</v>
       </c>
       <c r="L75" t="n">
-        <v>37969964.90152285</v>
+        <v>30154345.25369758</v>
       </c>
       <c r="M75" t="n">
-        <v>40255590.28395008</v>
+        <v>31443574.0893411</v>
       </c>
       <c r="N75" t="n">
-        <v>39870363.46782333</v>
+        <v>34250366.57050657</v>
       </c>
       <c r="O75" t="n">
-        <v>43197571.65091661</v>
+        <v>35515594.59086613</v>
       </c>
       <c r="P75" t="n">
-        <v>44793314.51549936</v>
+        <v>35588685.66955641</v>
       </c>
       <c r="Q75" t="n">
-        <v>46968840.32610366</v>
+        <v>35455023.03816871</v>
       </c>
       <c r="R75" t="n">
-        <v>49796158.54751737</v>
+        <v>35527989.46062909</v>
       </c>
       <c r="S75" t="n">
-        <v>53662177.8996338</v>
+        <v>36840413.59717351</v>
       </c>
       <c r="T75" t="n">
-        <v>53772614.63912071</v>
+        <v>36916231.15282007</v>
       </c>
       <c r="U75" t="n">
-        <v>56071626.76415436</v>
+        <v>38279937.72701011</v>
       </c>
     </row>
     <row r="76">
@@ -5313,64 +5313,64 @@
         <v>22561132</v>
       </c>
       <c r="B76" t="n">
-        <v>22869892.88252599</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C76" t="n">
-        <v>24246560.14575006</v>
+        <v>22521129.05151838</v>
       </c>
       <c r="D76" t="n">
-        <v>24860314.43030446</v>
+        <v>23745869.78791403</v>
       </c>
       <c r="E76" t="n">
-        <v>27079456.04010133</v>
+        <v>24761108.54705311</v>
       </c>
       <c r="F76" t="n">
-        <v>27292619.04886799</v>
+        <v>26971394.60097691</v>
       </c>
       <c r="G76" t="n">
-        <v>28776842.254357</v>
+        <v>28908564.79431887</v>
       </c>
       <c r="H76" t="n">
-        <v>30509081.96680469</v>
+        <v>31489071.13483327</v>
       </c>
       <c r="I76" t="n">
-        <v>33409830.07527395</v>
+        <v>32286155.43089288</v>
       </c>
       <c r="J76" t="n">
-        <v>35226718.5534511</v>
+        <v>34041936.3993941</v>
       </c>
       <c r="K76" t="n">
-        <v>37756812.01730632</v>
+        <v>34309906.39023852</v>
       </c>
       <c r="L76" t="n">
-        <v>38054024.62154502</v>
+        <v>34181046.54940692</v>
       </c>
       <c r="M76" t="n">
-        <v>38353576.81240129</v>
+        <v>35642434.30209127</v>
       </c>
       <c r="N76" t="n">
-        <v>41108251.04813192</v>
+        <v>38824035.61513845</v>
       </c>
       <c r="O76" t="n">
-        <v>43104800.358031</v>
+        <v>38226794.41049513</v>
       </c>
       <c r="P76" t="n">
-        <v>43694712.07875726</v>
+        <v>38527706.60385597</v>
       </c>
       <c r="Q76" t="n">
-        <v>46324942.13728049</v>
+        <v>37935023.91284641</v>
       </c>
       <c r="R76" t="n">
-        <v>50460111.34266101</v>
+        <v>38454184.54104428</v>
       </c>
       <c r="S76" t="n">
-        <v>54671040.98504046</v>
+        <v>41439648.19811878</v>
       </c>
       <c r="T76" t="n">
-        <v>57644153.51604922</v>
+        <v>42006771.44127954</v>
       </c>
       <c r="U76" t="n">
-        <v>59103302.60719104</v>
+        <v>45268046.93016993</v>
       </c>
     </row>
     <row r="77">
@@ -5378,64 +5378,64 @@
         <v>22561132</v>
       </c>
       <c r="B77" t="n">
-        <v>23656883.12967957</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C77" t="n">
-        <v>25631065.66250433</v>
+        <v>22001489.63451125</v>
       </c>
       <c r="D77" t="n">
-        <v>25534801.48142355</v>
+        <v>24093351.31393689</v>
       </c>
       <c r="E77" t="n">
-        <v>25438898.84569095</v>
+        <v>24142935.42078026</v>
       </c>
       <c r="F77" t="n">
-        <v>26230730.54558205</v>
+        <v>24332982.84075544</v>
       </c>
       <c r="G77" t="n">
-        <v>27352207.86219575</v>
+        <v>24383060.10917995</v>
       </c>
       <c r="H77" t="n">
-        <v>28044575.5492628</v>
+        <v>25709056.10722175</v>
       </c>
       <c r="I77" t="n">
-        <v>28428380.22256808</v>
+        <v>25612499.01259646</v>
       </c>
       <c r="J77" t="n">
-        <v>30966023.1646109</v>
+        <v>27898783.944715</v>
       </c>
       <c r="K77" t="n">
-        <v>32830041.96793157</v>
+        <v>27794002.75360298</v>
       </c>
       <c r="L77" t="n">
-        <v>34997132.56405021</v>
+        <v>28497553.61493745</v>
       </c>
       <c r="M77" t="n">
-        <v>36289946.54492024</v>
+        <v>30875693.29912368</v>
       </c>
       <c r="N77" t="n">
-        <v>39740328.75934296</v>
+        <v>33631794.22952422</v>
       </c>
       <c r="O77" t="n">
-        <v>40746277.51656996</v>
+        <v>33896535.67918885</v>
       </c>
       <c r="P77" t="n">
-        <v>43199024.74382804</v>
+        <v>33966294.7353217</v>
       </c>
       <c r="Q77" t="n">
-        <v>46301714.25444587</v>
+        <v>34036197.35556265</v>
       </c>
       <c r="R77" t="n">
-        <v>45589441.78817003</v>
+        <v>34502000.50468355</v>
       </c>
       <c r="S77" t="n">
-        <v>49393910.83703309</v>
+        <v>34171832.80100136</v>
       </c>
       <c r="T77" t="n">
-        <v>49208399.06628919</v>
+        <v>35036825.96566547</v>
       </c>
       <c r="U77" t="n">
-        <v>52456614.80024327</v>
+        <v>35720018.99104652</v>
       </c>
     </row>
     <row r="78">
@@ -5443,64 +5443,64 @@
         <v>22561132</v>
       </c>
       <c r="B78" t="n">
-        <v>23788048.17087183</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C78" t="n">
-        <v>26049772.59151847</v>
+        <v>24778400.55907669</v>
       </c>
       <c r="D78" t="n">
-        <v>27769301.83455907</v>
+        <v>25981840.19163862</v>
       </c>
       <c r="E78" t="n">
-        <v>27342118.75024032</v>
+        <v>26488467.47639573</v>
       </c>
       <c r="F78" t="n">
-        <v>29941757.74732969</v>
+        <v>27774961.7959512</v>
       </c>
       <c r="G78" t="n">
-        <v>30177452.11134244</v>
+        <v>27993599.65987417</v>
       </c>
       <c r="H78" t="n">
-        <v>31467668.86520891</v>
+        <v>27888462.36350716</v>
       </c>
       <c r="I78" t="n">
-        <v>33361884.53990531</v>
+        <v>28107993.67678306</v>
       </c>
       <c r="J78" t="n">
-        <v>33430543.28421898</v>
+        <v>29963384.8100694</v>
       </c>
       <c r="K78" t="n">
-        <v>35442915.39140727</v>
+        <v>30199249.41715341</v>
       </c>
       <c r="L78" t="n">
-        <v>35103743.58063083</v>
+        <v>32543825.50638522</v>
       </c>
       <c r="M78" t="n">
-        <v>36604580.62691477</v>
+        <v>32800002.72617298</v>
       </c>
       <c r="N78" t="n">
-        <v>38595205.56094483</v>
+        <v>34774419.05679268</v>
       </c>
       <c r="O78" t="n">
-        <v>38225867.83539847</v>
+        <v>36665516.4127876</v>
       </c>
       <c r="P78" t="n">
-        <v>40082425.29287089</v>
+        <v>38019961.4418916</v>
       </c>
       <c r="Q78" t="n">
-        <v>41796122.54132168</v>
+        <v>37435089.53941493</v>
       </c>
       <c r="R78" t="n">
-        <v>42125131.63302921</v>
+        <v>36859214.88810144</v>
       </c>
       <c r="S78" t="n">
-        <v>41966919.66662213</v>
+        <v>38649396.61979555</v>
       </c>
       <c r="T78" t="n">
-        <v>42541258.89539681</v>
+        <v>38953635.43678991</v>
       </c>
       <c r="U78" t="n">
-        <v>43865432.45931487</v>
+        <v>40619072.03094368</v>
       </c>
     </row>
     <row r="79">
@@ -5508,64 +5508,64 @@
         <v>22561132</v>
       </c>
       <c r="B79" t="n">
-        <v>23656883.12967957</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C79" t="n">
-        <v>25631065.66250433</v>
+        <v>25917575.05045678</v>
       </c>
       <c r="D79" t="n">
-        <v>27024930.51547378</v>
+        <v>28231092.41890134</v>
       </c>
       <c r="E79" t="n">
-        <v>28651712.82366659</v>
+        <v>29109836.18982631</v>
       </c>
       <c r="F79" t="n">
-        <v>31209291.42136297</v>
+        <v>30862120.67695518</v>
       </c>
       <c r="G79" t="n">
-        <v>33087953.90696814</v>
+        <v>31284484.92786423</v>
       </c>
       <c r="H79" t="n">
-        <v>32963683.42877446</v>
+        <v>31166987.84983519</v>
       </c>
       <c r="I79" t="n">
-        <v>35906167.5922006</v>
+        <v>30868734.62803508</v>
       </c>
       <c r="J79" t="n">
-        <v>39111310.90507288</v>
+        <v>31470652.85604119</v>
       </c>
       <c r="K79" t="n">
-        <v>40556104.97372102</v>
+        <v>31718382.31710238</v>
       </c>
       <c r="L79" t="n">
-        <v>40168002.37521663</v>
+        <v>34549705.39600623</v>
       </c>
       <c r="M79" t="n">
-        <v>42819467.16156174</v>
+        <v>37633764.8943463</v>
       </c>
       <c r="N79" t="n">
-        <v>43654416.11909515</v>
+        <v>40993121.18263818</v>
       </c>
       <c r="O79" t="n">
-        <v>43490460.5242089</v>
+        <v>43222403.08540297</v>
       </c>
       <c r="P79" t="n">
-        <v>44338493.37198643</v>
+        <v>43060070.02862934</v>
       </c>
       <c r="Q79" t="n">
-        <v>46234155.96068566</v>
+        <v>45902438.39716212</v>
       </c>
       <c r="R79" t="n">
-        <v>49286043.76210099</v>
+        <v>47598100.57769273</v>
       </c>
       <c r="S79" t="n">
-        <v>49100937.11441249</v>
+        <v>52123641.54178003</v>
       </c>
       <c r="T79" t="n">
-        <v>52342059.35194094</v>
+        <v>55261256.19171228</v>
       </c>
       <c r="U79" t="n">
-        <v>52449779.28801342</v>
+        <v>56660086.89403219</v>
       </c>
     </row>
     <row r="80">
@@ -5573,64 +5573,64 @@
         <v>22561132</v>
       </c>
       <c r="B80" t="n">
-        <v>24050378.25325636</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C80" t="n">
-        <v>26197221.37797952</v>
+        <v>25358282.3954113</v>
       </c>
       <c r="D80" t="n">
-        <v>27164961.63485386</v>
+        <v>26589885.78222299</v>
       </c>
       <c r="E80" t="n">
-        <v>27062936.5056492</v>
+        <v>26799195.01087613</v>
       </c>
       <c r="F80" t="n">
-        <v>28534669.14876563</v>
+        <v>28723997.28931476</v>
       </c>
       <c r="G80" t="n">
-        <v>29091074.77075594</v>
+        <v>28449122.32302696</v>
       </c>
       <c r="H80" t="n">
-        <v>28643558.47665692</v>
+        <v>28673067.01756464</v>
       </c>
       <c r="I80" t="n">
-        <v>29868194.63548778</v>
+        <v>30065663.1681423</v>
       </c>
       <c r="J80" t="n">
-        <v>32187068.6579365</v>
+        <v>29952743.69449881</v>
       </c>
       <c r="K80" t="n">
-        <v>34311716.98684735</v>
+        <v>30710938.86388166</v>
       </c>
       <c r="L80" t="n">
-        <v>34781290.76611698</v>
+        <v>32023964.48655362</v>
       </c>
       <c r="M80" t="n">
-        <v>35055080.77790724</v>
+        <v>34137846.41083006</v>
       </c>
       <c r="N80" t="n">
-        <v>37165242.91834705</v>
+        <v>35795856.46854767</v>
       </c>
       <c r="O80" t="n">
-        <v>37025659.11323681</v>
+        <v>38574935.7764612</v>
       </c>
       <c r="P80" t="n">
-        <v>39039183.07574092</v>
+        <v>38878588.45548525</v>
       </c>
       <c r="Q80" t="n">
-        <v>40935241.70245392</v>
+        <v>41897001.51657406</v>
       </c>
       <c r="R80" t="n">
-        <v>44351314.67804201</v>
+        <v>42226804.70347517</v>
       </c>
       <c r="S80" t="n">
-        <v>46763221.36685155</v>
+        <v>44277680.02996994</v>
       </c>
       <c r="T80" t="n">
-        <v>50121902.66296947</v>
+        <v>47200422.07533879</v>
       </c>
       <c r="U80" t="n">
-        <v>50807847.09608126</v>
+        <v>46474324.53052414</v>
       </c>
     </row>
     <row r="81">
@@ -5638,64 +5638,64 @@
         <v>22561132</v>
       </c>
       <c r="B81" t="n">
-        <v>23001057.92371826</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C81" t="n">
-        <v>23449562.08803008</v>
+        <v>26054347.96513828</v>
       </c>
       <c r="D81" t="n">
-        <v>23225160.95320584</v>
+        <v>26713862.86534476</v>
       </c>
       <c r="E81" t="n">
-        <v>22867881.68313637</v>
+        <v>26768839.98385581</v>
       </c>
       <c r="F81" t="n">
-        <v>23712634.23818452</v>
+        <v>28535834.41702415</v>
       </c>
       <c r="G81" t="n">
-        <v>23899294.43004765</v>
+        <v>28262760.07975942</v>
       </c>
       <c r="H81" t="n">
-        <v>23531644.77257719</v>
+        <v>28156611.88092971</v>
       </c>
       <c r="I81" t="n">
-        <v>24127302.37163306</v>
+        <v>29687820.61787051</v>
       </c>
       <c r="J81" t="n">
-        <v>23896415.58525652</v>
+        <v>30094113.95874751</v>
       </c>
       <c r="K81" t="n">
-        <v>25890587.25981447</v>
+        <v>32255567.65509477</v>
       </c>
       <c r="L81" t="n">
-        <v>25793348.37739405</v>
+        <v>35322368.45116336</v>
       </c>
       <c r="M81" t="n">
-        <v>27495951.21797714</v>
+        <v>36216485.17729659</v>
       </c>
       <c r="N81" t="n">
-        <v>28351812.3904721</v>
+        <v>37554342.73718357</v>
       </c>
       <c r="O81" t="n">
-        <v>30717789.87315127</v>
+        <v>38286625.53745651</v>
       </c>
       <c r="P81" t="n">
-        <v>32924037.9306935</v>
+        <v>38588008.70715536</v>
       </c>
       <c r="Q81" t="n">
-        <v>33183208.09185408</v>
+        <v>40013471.69499426</v>
       </c>
       <c r="R81" t="n">
-        <v>34216095.41259059</v>
+        <v>39397933.05614752</v>
       </c>
       <c r="S81" t="n">
-        <v>37270375.40843415</v>
+        <v>39020913.61099368</v>
       </c>
       <c r="T81" t="n">
-        <v>39297207.4966056</v>
+        <v>42050376.3558641</v>
       </c>
       <c r="U81" t="n">
-        <v>40977333.28407162</v>
+        <v>44337153.75436769</v>
       </c>
     </row>
     <row r="82">
@@ -5703,64 +5703,64 @@
         <v>22561132</v>
       </c>
       <c r="B82" t="n">
-        <v>24443873.37683315</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C82" t="n">
-        <v>26767952.46707452</v>
+        <v>25331592.71596242</v>
       </c>
       <c r="D82" t="n">
-        <v>28846133.30015009</v>
+        <v>25530996.96219948</v>
       </c>
       <c r="E82" t="n">
-        <v>30414839.4897632</v>
+        <v>25880401.99887127</v>
       </c>
       <c r="F82" t="n">
-        <v>31361556.33474857</v>
+        <v>25482276.39905773</v>
       </c>
       <c r="G82" t="n">
-        <v>33067055.89083516</v>
+        <v>27164345.57234831</v>
       </c>
       <c r="H82" t="n">
-        <v>33327351.85521152</v>
+        <v>27536103.83838564</v>
       </c>
       <c r="I82" t="n">
-        <v>34752240.46300206</v>
+        <v>29994098.24431966</v>
       </c>
       <c r="J82" t="n">
-        <v>36844172.94448999</v>
+        <v>30055826.08585729</v>
       </c>
       <c r="K82" t="n">
-        <v>38205217.64748258</v>
+        <v>31515580.20577604</v>
       </c>
       <c r="L82" t="n">
-        <v>39838656.14030251</v>
+        <v>33229455.86542268</v>
       </c>
       <c r="M82" t="n">
-        <v>41773543.64819229</v>
+        <v>34456970.86371288</v>
       </c>
       <c r="N82" t="n">
-        <v>41130929.32087238</v>
+        <v>36731454.02162126</v>
       </c>
       <c r="O82" t="n">
-        <v>41693827.58485252</v>
+        <v>37020595.25267213</v>
       </c>
       <c r="P82" t="n">
-        <v>43718817.22973237</v>
+        <v>37957699.27140711</v>
       </c>
       <c r="Q82" t="n">
-        <v>44062961.31470248</v>
+        <v>38035816.20050005</v>
       </c>
       <c r="R82" t="n">
-        <v>43641299.77212793</v>
+        <v>39440880.8830941</v>
       </c>
       <c r="S82" t="n">
-        <v>43731113.54865446</v>
+        <v>39292750.32351031</v>
       </c>
       <c r="T82" t="n">
-        <v>43312627.63106645</v>
+        <v>38916737.42698537</v>
       </c>
       <c r="U82" t="n">
-        <v>45668048.59325512</v>
+        <v>40806849.10219131</v>
       </c>
     </row>
     <row r="83">
@@ -5768,64 +5768,64 @@
         <v>22561132</v>
       </c>
       <c r="B83" t="n">
-        <v>22345232.71775694</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C83" t="n">
-        <v>23430498.03128088</v>
+        <v>26340094.79082076</v>
       </c>
       <c r="D83" t="n">
-        <v>25113349.9220656</v>
+        <v>27925652.99150861</v>
       </c>
       <c r="E83" t="n">
-        <v>27355078.59889644</v>
+        <v>27658417.7997179</v>
       </c>
       <c r="F83" t="n">
-        <v>27252339.43563272</v>
+        <v>27715338.81188555</v>
       </c>
       <c r="G83" t="n">
-        <v>28892810.76359296</v>
+        <v>27450116.22657337</v>
       </c>
       <c r="H83" t="n">
-        <v>28952272.15595969</v>
+        <v>28144962.27254038</v>
       </c>
       <c r="I83" t="n">
-        <v>30021785.55545538</v>
+        <v>27712000.29664166</v>
       </c>
       <c r="J83" t="n">
-        <v>29909030.87567995</v>
+        <v>30024585.03721672</v>
       </c>
       <c r="K83" t="n">
-        <v>32752727.21610654</v>
+        <v>30610042.95248245</v>
       </c>
       <c r="L83" t="n">
-        <v>33200965.40559004</v>
+        <v>32986511.77809453</v>
       </c>
       <c r="M83" t="n">
-        <v>35006495.43593934</v>
+        <v>34588603.70969777</v>
       </c>
       <c r="N83" t="n">
-        <v>36503174.70292832</v>
+        <v>34257607.25461239</v>
       </c>
       <c r="O83" t="n">
-        <v>39124947.25280996</v>
+        <v>36917261.6630374</v>
       </c>
       <c r="P83" t="n">
-        <v>39660392.6038039</v>
+        <v>37637121.83841602</v>
       </c>
       <c r="Q83" t="n">
-        <v>42508926.45030905</v>
+        <v>41215591.03325448</v>
       </c>
       <c r="R83" t="n">
-        <v>42102136.2808466</v>
+        <v>42019265.55441318</v>
       </c>
       <c r="S83" t="n">
-        <v>45615587.38024258</v>
+        <v>41861451.19579567</v>
       </c>
       <c r="T83" t="n">
-        <v>48096247.56168368</v>
+        <v>45841561.95449053</v>
       </c>
       <c r="U83" t="n">
-        <v>50152570.41403177</v>
+        <v>47268463.41544886</v>
       </c>
     </row>
     <row r="84">
@@ -5833,64 +5833,64 @@
         <v>22561132</v>
       </c>
       <c r="B84" t="n">
-        <v>22607562.80014147</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C84" t="n">
-        <v>22654089.15485005</v>
+        <v>24805090.23852557</v>
       </c>
       <c r="D84" t="n">
-        <v>22832416.73269964</v>
+        <v>25432982.6208321</v>
       </c>
       <c r="E84" t="n">
-        <v>23808601.41824232</v>
+        <v>26224630.16753263</v>
       </c>
       <c r="F84" t="n">
-        <v>24411269.63352132</v>
+        <v>25821209.20769621</v>
       </c>
       <c r="G84" t="n">
-        <v>26164563.61832619</v>
+        <v>25574112.54009152</v>
       </c>
       <c r="H84" t="n">
-        <v>28043784.67875238</v>
+        <v>25924107.63598023</v>
       </c>
       <c r="I84" t="n">
-        <v>27775419.02300774</v>
+        <v>25977459.4385623</v>
       </c>
       <c r="J84" t="n">
-        <v>29931816.43574438</v>
+        <v>27390161.82704791</v>
       </c>
       <c r="K84" t="n">
-        <v>30341448.98690832</v>
+        <v>29198169.32760314</v>
       </c>
       <c r="L84" t="n">
-        <v>31285881.4198606</v>
+        <v>29088507.95431535</v>
       </c>
       <c r="M84" t="n">
-        <v>32987265.63382671</v>
+        <v>29486599.38817331</v>
       </c>
       <c r="N84" t="n">
-        <v>34014053.89144883</v>
+        <v>31775847.53879125</v>
       </c>
       <c r="O84" t="n">
-        <v>36259300.37623958</v>
+        <v>32580191.01906422</v>
       </c>
       <c r="P84" t="n">
-        <v>36123119.07565531</v>
+        <v>34351962.18778852</v>
       </c>
       <c r="Q84" t="n">
-        <v>35777438.03975629</v>
+        <v>37618084.3689428</v>
       </c>
       <c r="R84" t="n">
-        <v>38971090.38347609</v>
+        <v>41194743.51575608</v>
       </c>
       <c r="S84" t="n">
-        <v>38598155.6192975</v>
+        <v>45111464.91898357</v>
       </c>
       <c r="T84" t="n">
-        <v>39126391.55147014</v>
+        <v>45728838.89296793</v>
       </c>
       <c r="U84" t="n">
-        <v>38751970.62911911</v>
+        <v>47152231.64492263</v>
       </c>
     </row>
     <row r="85">
@@ -5898,64 +5898,64 @@
         <v>22561132</v>
       </c>
       <c r="B85" t="n">
-        <v>24706203.45921767</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C85" t="n">
-        <v>24757048.81551758</v>
+        <v>24113600.0424184</v>
       </c>
       <c r="D85" t="n">
-        <v>25671588.2788638</v>
+        <v>26406277.34380478</v>
       </c>
       <c r="E85" t="n">
-        <v>27366153.81127759</v>
+        <v>27228220.44770146</v>
       </c>
       <c r="F85" t="n">
-        <v>28377075.09704606</v>
+        <v>27917449.63568166</v>
       </c>
       <c r="G85" t="n">
-        <v>29920273.03226537</v>
+        <v>28137209.12983917</v>
       </c>
       <c r="H85" t="n">
-        <v>31895291.59559403</v>
+        <v>29830945.73308909</v>
       </c>
       <c r="I85" t="n">
-        <v>34371543.14082714</v>
+        <v>30759487.82968194</v>
       </c>
       <c r="J85" t="n">
-        <v>34841935.67228089</v>
+        <v>32253417.45775818</v>
       </c>
       <c r="K85" t="n">
-        <v>35926453.88661987</v>
+        <v>34569959.10704765</v>
       </c>
       <c r="L85" t="n">
-        <v>38297936.70243939</v>
+        <v>34038159.57373194</v>
       </c>
       <c r="M85" t="n">
-        <v>40825959.61997549</v>
+        <v>37076556.22968484</v>
       </c>
       <c r="N85" t="n">
-        <v>40435274.64109957</v>
+        <v>39523956.58391825</v>
       </c>
       <c r="O85" t="n">
-        <v>41223733.55119713</v>
+        <v>42132908.3092336</v>
       </c>
       <c r="P85" t="n">
-        <v>43465556.58195975</v>
+        <v>41974667.13548196</v>
       </c>
       <c r="Q85" t="n">
-        <v>46587389.24553812</v>
+        <v>43769265.91659681</v>
       </c>
       <c r="R85" t="n">
-        <v>46683266.07295849</v>
+        <v>47167376.01177662</v>
       </c>
       <c r="S85" t="n">
-        <v>46236529.46249437</v>
+        <v>48909765.70720033</v>
       </c>
       <c r="T85" t="n">
-        <v>49019765.78122438</v>
+        <v>49010421.9843994</v>
       </c>
       <c r="U85" t="n">
-        <v>50545594.57995737</v>
+        <v>48541415.60081629</v>
       </c>
     </row>
     <row r="86">
@@ -5963,64 +5963,64 @@
         <v>22561132</v>
       </c>
       <c r="B86" t="n">
-        <v>23263388.00610278</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C86" t="n">
-        <v>24798989.74036583</v>
+        <v>22785524.13364177</v>
       </c>
       <c r="D86" t="n">
-        <v>27156832.64955543</v>
+        <v>24422051.97524496</v>
       </c>
       <c r="E86" t="n">
-        <v>28317904.8413736</v>
+        <v>24188344.57561811</v>
       </c>
       <c r="F86" t="n">
-        <v>30351785.6253734</v>
+        <v>24659999.97972834</v>
       </c>
       <c r="G86" t="n">
-        <v>32531746.10936145</v>
+        <v>25284219.6856862</v>
       </c>
       <c r="H86" t="n">
-        <v>34868278.19577202</v>
+        <v>26659222.41162409</v>
       </c>
       <c r="I86" t="n">
-        <v>36764479.78569448</v>
+        <v>28263990.69565632</v>
       </c>
       <c r="J86" t="n">
-        <v>38977540.25040263</v>
+        <v>28815118.28157492</v>
       </c>
       <c r="K86" t="n">
-        <v>41777029.49817522</v>
+        <v>30047089.36496397</v>
       </c>
       <c r="L86" t="n">
-        <v>44777586.84819455</v>
+        <v>32903912.05583547</v>
       </c>
       <c r="M86" t="n">
-        <v>44349086.67980311</v>
+        <v>33354219.28886427</v>
       </c>
       <c r="N86" t="n">
-        <v>46245202.17828323</v>
+        <v>33035035.3044683</v>
       </c>
       <c r="O86" t="n">
-        <v>47684667.67066795</v>
+        <v>32526847.941458</v>
       </c>
       <c r="P86" t="n">
-        <v>48060029.98288223</v>
+        <v>34484821.55186726</v>
       </c>
       <c r="Q86" t="n">
-        <v>51511852.1430381</v>
+        <v>34956764.35757869</v>
       </c>
       <c r="R86" t="n">
-        <v>53714206.88168285</v>
+        <v>35435165.94723736</v>
       </c>
       <c r="S86" t="n">
-        <v>54761595.4648097</v>
+        <v>37980230.756998</v>
       </c>
       <c r="T86" t="n">
-        <v>59331486.80018222</v>
+        <v>41591322.12472448</v>
       </c>
       <c r="U86" t="n">
-        <v>63247921.24227052</v>
+        <v>42402323.13320149</v>
       </c>
     </row>
     <row r="87">
@@ -6028,64 +6028,64 @@
         <v>22561132</v>
       </c>
       <c r="B87" t="n">
-        <v>24050378.25325636</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C87" t="n">
-        <v>24798989.74036583</v>
+        <v>25493530.18555287</v>
       </c>
       <c r="D87" t="n">
-        <v>26868481.82471015</v>
+        <v>26435275.68956797</v>
       </c>
       <c r="E87" t="n">
-        <v>26767570.20309453</v>
+        <v>27719186.58553874</v>
       </c>
       <c r="F87" t="n">
-        <v>26511417.3117308</v>
+        <v>28904301.84325696</v>
       </c>
       <c r="G87" t="n">
-        <v>27336633.08713871</v>
+        <v>30812256.78200122</v>
       </c>
       <c r="H87" t="n">
-        <v>27551820.532181</v>
+        <v>30696533.28047279</v>
       </c>
       <c r="I87" t="n">
-        <v>28409420.73804789</v>
+        <v>31116631.38132018</v>
       </c>
       <c r="J87" t="n">
-        <v>30449874.48091308</v>
+        <v>31723383.41855961</v>
       </c>
       <c r="K87" t="n">
-        <v>33344993.24914542</v>
+        <v>33448559.80204064</v>
       </c>
       <c r="L87" t="n">
-        <v>33219757.39237147</v>
+        <v>36239864.22483201</v>
       </c>
       <c r="M87" t="n">
-        <v>33867518.8813134</v>
+        <v>36103755.9218056</v>
       </c>
       <c r="N87" t="n">
-        <v>33543422.864419</v>
+        <v>36807753.31757452</v>
       </c>
       <c r="O87" t="n">
-        <v>34392509.05965258</v>
+        <v>39665393.1593684</v>
       </c>
       <c r="P87" t="n">
-        <v>34663238.67472805</v>
+        <v>39747024.52176259</v>
       </c>
       <c r="Q87" t="n">
-        <v>37152861.24555905</v>
+        <v>41446381.93487715</v>
       </c>
       <c r="R87" t="n">
-        <v>36581328.19252446</v>
+        <v>44182231.7587046</v>
       </c>
       <c r="S87" t="n">
-        <v>40059414.44484811</v>
+        <v>47098673.32321274</v>
       </c>
       <c r="T87" t="n">
-        <v>42470815.52719793</v>
+        <v>46647961.46331662</v>
       </c>
       <c r="U87" t="n">
-        <v>46508863.53990807</v>
+        <v>47828763.44272058</v>
       </c>
     </row>
     <row r="88">
@@ -6093,64 +6093,64 @@
         <v>22561132</v>
       </c>
       <c r="B88" t="n">
-        <v>22214067.67656468</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C88" t="n">
-        <v>24326140.89018396</v>
+        <v>25078636.06788857</v>
       </c>
       <c r="D88" t="n">
-        <v>25507615.13363785</v>
+        <v>25421850.30930471</v>
       </c>
       <c r="E88" t="n">
-        <v>26894766.51805577</v>
+        <v>26656541.06839275</v>
       </c>
       <c r="F88" t="n">
-        <v>26950115.9362078</v>
+        <v>28726072.26591582</v>
       </c>
       <c r="G88" t="n">
-        <v>28415713.18766681</v>
+        <v>29787229.71282641</v>
       </c>
       <c r="H88" t="n">
-        <v>29795810.15381357</v>
+        <v>32446169.5698273</v>
       </c>
       <c r="I88" t="n">
-        <v>31589387.26546395</v>
+        <v>33078846.64999888</v>
       </c>
       <c r="J88" t="n">
-        <v>33674583.01839675</v>
+        <v>36031610.79185626</v>
       </c>
       <c r="K88" t="n">
-        <v>34722765.2717374</v>
+        <v>38619514.14193199</v>
       </c>
       <c r="L88" t="n">
-        <v>37822272.85993562</v>
+        <v>38025419.14939924</v>
       </c>
       <c r="M88" t="n">
-        <v>40978566.52814669</v>
+        <v>40977594.79089247</v>
       </c>
       <c r="N88" t="n">
-        <v>42015858.85457823</v>
+        <v>40347224.7716883</v>
       </c>
       <c r="O88" t="n">
-        <v>45766380.22939599</v>
+        <v>42072243.34450818</v>
       </c>
       <c r="P88" t="n">
-        <v>48255240.80543955</v>
+        <v>44604807.90002628</v>
       </c>
       <c r="Q88" t="n">
-        <v>49476727.92025134</v>
+        <v>44696604.5758737</v>
       </c>
       <c r="R88" t="n">
-        <v>52742655.87451439</v>
+        <v>48686421.1692652</v>
       </c>
       <c r="S88" t="n">
-        <v>54384366.35542864</v>
+        <v>53315437.67879326</v>
       </c>
       <c r="T88" t="n">
-        <v>55761000.3052663</v>
+        <v>56214829.98965873</v>
       </c>
       <c r="U88" t="n">
-        <v>57820843.36955201</v>
+        <v>56657339.70182415</v>
       </c>
     </row>
     <row r="89">
@@ -6158,64 +6158,64 @@
         <v>22561132</v>
       </c>
       <c r="B89" t="n">
-        <v>22607562.80014147</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C89" t="n">
-        <v>24494178.85793414</v>
+        <v>22388931.5104567</v>
       </c>
       <c r="D89" t="n">
-        <v>24402184.55305221</v>
+        <v>22044516.19622883</v>
       </c>
       <c r="E89" t="n">
-        <v>24452404.23857145</v>
+        <v>23884145.642788</v>
       </c>
       <c r="F89" t="n">
-        <v>24076245.93528122</v>
+        <v>25044153.02049921</v>
       </c>
       <c r="G89" t="n">
-        <v>24965636.15303781</v>
+        <v>25241294.61012185</v>
       </c>
       <c r="H89" t="n">
-        <v>26903890.73573701</v>
+        <v>27200950.46072496</v>
       </c>
       <c r="I89" t="n">
-        <v>26959258.93152519</v>
+        <v>29312747.91547794</v>
       </c>
       <c r="J89" t="n">
-        <v>27955149.28902188</v>
+        <v>31588498.7767981</v>
       </c>
       <c r="K89" t="n">
-        <v>30450549.54509146</v>
+        <v>31469859.89512381</v>
       </c>
       <c r="L89" t="n">
-        <v>32637603.56370336</v>
+        <v>32815332.67820407</v>
       </c>
       <c r="M89" t="n">
-        <v>32135530.00642853</v>
+        <v>33455208.17472529</v>
       </c>
       <c r="N89" t="n">
-        <v>33883119.68519218</v>
+        <v>33913060.18326453</v>
       </c>
       <c r="O89" t="n">
-        <v>35528758.15191971</v>
+        <v>36348802.58086576</v>
       </c>
       <c r="P89" t="n">
-        <v>36634654.95716684</v>
+        <v>36212285.13130715</v>
       </c>
       <c r="Q89" t="n">
-        <v>40117811.4214305</v>
+        <v>36497339.58888098</v>
       </c>
       <c r="R89" t="n">
-        <v>40900080.02599908</v>
+        <v>37421198.41309605</v>
       </c>
       <c r="S89" t="n">
-        <v>43837652.11316126</v>
+        <v>38150884.99436003</v>
       </c>
       <c r="T89" t="n">
-        <v>43673008.32750115</v>
+        <v>41556401.70972214</v>
       </c>
       <c r="U89" t="n">
-        <v>45032409.6377973</v>
+        <v>41400325.75751924</v>
       </c>
     </row>
     <row r="90">
@@ -6223,64 +6223,64 @@
         <v>22561132</v>
       </c>
       <c r="B90" t="n">
-        <v>22345232.71775694</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C90" t="n">
-        <v>24339867.01104338</v>
+        <v>22130636.92649306</v>
       </c>
       <c r="D90" t="n">
-        <v>25946526.45308531</v>
+        <v>22948155.24093687</v>
       </c>
       <c r="E90" t="n">
-        <v>28413475.068977</v>
+        <v>24462948.65696362</v>
       </c>
       <c r="F90" t="n">
-        <v>27976382.48420506</v>
+        <v>24797736.89438505</v>
       </c>
       <c r="G90" t="n">
-        <v>28196605.88366732</v>
+        <v>26002115.65585496</v>
       </c>
       <c r="H90" t="n">
-        <v>29566061.22616334</v>
+        <v>27113818.69597173</v>
       </c>
       <c r="I90" t="n">
-        <v>29455018.13848227</v>
+        <v>29534118.0625547</v>
       </c>
       <c r="J90" t="n">
-        <v>29515636.55338942</v>
+        <v>31655351.09643539</v>
       </c>
       <c r="K90" t="n">
-        <v>29576379.72096889</v>
+        <v>32456644.44475872</v>
       </c>
       <c r="L90" t="n">
-        <v>32044548.15673697</v>
+        <v>34221696.92180251</v>
       </c>
       <c r="M90" t="n">
-        <v>31551597.73980715</v>
+        <v>37077520.14823109</v>
       </c>
       <c r="N90" t="n">
-        <v>31066230.5196309</v>
+        <v>38662744.68973865</v>
       </c>
       <c r="O90" t="n">
-        <v>31310776.46467485</v>
+        <v>40990072.37746127</v>
       </c>
       <c r="P90" t="n">
-        <v>33377581.29240089</v>
+        <v>42265962.45769572</v>
       </c>
       <c r="Q90" t="n">
-        <v>34610568.12820718</v>
+        <v>42844394.24335472</v>
       </c>
       <c r="R90" t="n">
-        <v>37700060.50318652</v>
+        <v>45921613.0786393</v>
       </c>
       <c r="S90" t="n">
-        <v>41065334.63071316</v>
+        <v>46283097.0462923</v>
       </c>
       <c r="T90" t="n">
-        <v>43059799.57211209</v>
+        <v>48261899.86270069</v>
       </c>
       <c r="U90" t="n">
-        <v>43398756.02751827</v>
+        <v>49483555.53853312</v>
       </c>
     </row>
     <row r="91">
@@ -6288,64 +6288,64 @@
         <v>22561132</v>
       </c>
       <c r="B91" t="n">
-        <v>23919213.21206409</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C91" t="n">
-        <v>25080923.75469847</v>
+        <v>24645440.45574503</v>
       </c>
       <c r="D91" t="n">
-        <v>26590685.38068727</v>
+        <v>25269291.61580722</v>
       </c>
       <c r="E91" t="n">
-        <v>26954592.80719016</v>
+        <v>26202753.61952449</v>
       </c>
       <c r="F91" t="n">
-        <v>27636895.64620677</v>
+        <v>27627707.92311019</v>
       </c>
       <c r="G91" t="n">
-        <v>28336469.64815505</v>
+        <v>27202703.01828526</v>
       </c>
       <c r="H91" t="n">
-        <v>29877459.38380929</v>
+        <v>28998336.47978119</v>
       </c>
       <c r="I91" t="n">
-        <v>29417845.91108957</v>
+        <v>30912498.5862385</v>
       </c>
       <c r="J91" t="n">
-        <v>32214841.27708191</v>
+        <v>32413859.65478279</v>
       </c>
       <c r="K91" t="n">
-        <v>31906560.59731388</v>
+        <v>33045906.7147399</v>
       </c>
       <c r="L91" t="n">
-        <v>32343218.55438783</v>
+        <v>35227246.40817308</v>
       </c>
       <c r="M91" t="n">
-        <v>35230317.27914509</v>
+        <v>34685335.63697854</v>
       </c>
       <c r="N91" t="n">
-        <v>36122103.90975612</v>
+        <v>36571588.47150502</v>
       </c>
       <c r="O91" t="n">
-        <v>37246469.67401365</v>
+        <v>38347800.73699896</v>
       </c>
       <c r="P91" t="n">
-        <v>40354712.18579128</v>
+        <v>41770895.02240103</v>
       </c>
       <c r="Q91" t="n">
-        <v>42314663.55106296</v>
+        <v>45256703.81985091</v>
       </c>
       <c r="R91" t="n">
-        <v>42647754.47372167</v>
+        <v>44823618.73035308</v>
       </c>
       <c r="S91" t="n">
-        <v>44471130.65318705</v>
+        <v>46479428.69883359</v>
       </c>
       <c r="T91" t="n">
-        <v>44045563.12454707</v>
+        <v>49007066.17214315</v>
       </c>
       <c r="U91" t="n">
-        <v>44392279.27514279</v>
+        <v>50532499.67259268</v>
       </c>
     </row>
     <row r="92">
@@ -6353,64 +6353,64 @@
         <v>22561132</v>
       </c>
       <c r="B92" t="n">
-        <v>24181543.29444862</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C92" t="n">
-        <v>23950137.44828802</v>
+        <v>24519343.41284309</v>
       </c>
       <c r="D92" t="n">
-        <v>24417147.98393479</v>
+        <v>25140002.67269817</v>
       </c>
       <c r="E92" t="n">
-        <v>24893264.89071933</v>
+        <v>26068688.66932637</v>
       </c>
       <c r="F92" t="n">
-        <v>25812836.25335381</v>
+        <v>27031680.85484252</v>
       </c>
       <c r="G92" t="n">
-        <v>28117004.1735658</v>
+        <v>29444648.23447498</v>
       </c>
       <c r="H92" t="n">
-        <v>29482593.41289962</v>
+        <v>30532350.28634057</v>
       </c>
       <c r="I92" t="n">
-        <v>31942935.31927269</v>
+        <v>30595185.85035368</v>
       </c>
       <c r="J92" t="n">
-        <v>33680051.34201165</v>
+        <v>31725389.41609623</v>
       </c>
       <c r="K92" t="n">
-        <v>36294866.10014691</v>
+        <v>33819562.58617565</v>
       </c>
       <c r="L92" t="n">
-        <v>39745716.05694661</v>
+        <v>35462114.20588475</v>
       </c>
       <c r="M92" t="n">
-        <v>41907161.75715119</v>
+        <v>38627619.34968611</v>
       </c>
       <c r="N92" t="n">
-        <v>43211597.90169749</v>
+        <v>41851119.71474823</v>
       </c>
       <c r="O92" t="n">
-        <v>47068856.2319693</v>
+        <v>44856998.45660833</v>
       </c>
       <c r="P92" t="n">
-        <v>47165723.9182447</v>
+        <v>46774829.38293511</v>
       </c>
       <c r="Q92" t="n">
-        <v>46714370.41610557</v>
+        <v>46871091.9620792</v>
       </c>
       <c r="R92" t="n">
-        <v>48168439.61777595</v>
+        <v>48057542.05399097</v>
       </c>
       <c r="S92" t="n">
-        <v>49107689.7091684</v>
+        <v>50671000.25628306</v>
       </c>
       <c r="T92" t="n">
-        <v>50350754.90202022</v>
+        <v>51659048.48867997</v>
       </c>
       <c r="U92" t="n">
-        <v>54552558.67715074</v>
+        <v>53267029.73140885</v>
       </c>
     </row>
     <row r="93">
@@ -6421,61 +6421,61 @@
         <v>24706203.45921767</v>
       </c>
       <c r="C93" t="n">
-        <v>27055224.41729694</v>
+        <v>25044320.76574</v>
       </c>
       <c r="D93" t="n">
-        <v>28526537.6627559</v>
+        <v>26988684.17780061</v>
       </c>
       <c r="E93" t="n">
-        <v>31072942.57200725</v>
+        <v>29554719.25758471</v>
       </c>
       <c r="F93" t="n">
-        <v>32582096.09877822</v>
+        <v>29615542.85735294</v>
       </c>
       <c r="G93" t="n">
-        <v>34732819.94270343</v>
+        <v>31053913.26101966</v>
       </c>
       <c r="H93" t="n">
-        <v>35410085.06825802</v>
+        <v>31117822.20141471</v>
       </c>
       <c r="I93" t="n">
-        <v>38776811.65132087</v>
+        <v>32086420.65373448</v>
       </c>
       <c r="J93" t="n">
-        <v>42012762.21256077</v>
+        <v>31592826.10024977</v>
       </c>
       <c r="K93" t="n">
-        <v>43564737.54265281</v>
+        <v>33678248.84852219</v>
       </c>
       <c r="L93" t="n">
-        <v>43654393.75414336</v>
+        <v>36488720.97405188</v>
       </c>
       <c r="M93" t="n">
-        <v>45520808.12185301</v>
+        <v>36351678.02431644</v>
       </c>
       <c r="N93" t="n">
-        <v>45879137.04863699</v>
+        <v>36637829.7494436</v>
       </c>
       <c r="O93" t="n">
-        <v>46773747.37871785</v>
+        <v>38630262.83237762</v>
       </c>
       <c r="P93" t="n">
-        <v>49045459.03439084</v>
+        <v>40506460.98317947</v>
       </c>
       <c r="Q93" t="n">
-        <v>48861255.96566774</v>
+        <v>41767297.7847817</v>
       </c>
       <c r="R93" t="n">
-        <v>51518421.62000572</v>
+        <v>44767156.17260812</v>
       </c>
       <c r="S93" t="n">
-        <v>52522993.96237256</v>
+        <v>47201677.09257427</v>
       </c>
       <c r="T93" t="n">
-        <v>51715017.77729691</v>
+        <v>47573237.41834244</v>
       </c>
       <c r="U93" t="n">
-        <v>55730011.41041607</v>
+        <v>47394563.6635427</v>
       </c>
     </row>
     <row r="94">
@@ -6483,64 +6483,64 @@
         <v>22561132</v>
       </c>
       <c r="B94" t="n">
-        <v>22738727.84133373</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C94" t="n">
-        <v>24636289.70850541</v>
+        <v>24394771.49448108</v>
       </c>
       <c r="D94" t="n">
-        <v>25546368.26175915</v>
+        <v>24303150.53999208</v>
       </c>
       <c r="E94" t="n">
-        <v>25301901.69103785</v>
+        <v>23929288.24888412</v>
       </c>
       <c r="F94" t="n">
-        <v>25206873.77147549</v>
+        <v>24117653.88936164</v>
       </c>
       <c r="G94" t="n">
-        <v>26284576.77743373</v>
+        <v>24728145.16395963</v>
       </c>
       <c r="H94" t="n">
-        <v>28478042.08189728</v>
+        <v>26216671.06577906</v>
       </c>
       <c r="I94" t="n">
-        <v>30854553.51575545</v>
+        <v>26575459.91091163</v>
       </c>
       <c r="J94" t="n">
-        <v>30738671.1577639</v>
+        <v>27093662.35525464</v>
       </c>
       <c r="K94" t="n">
-        <v>32410297.06352839</v>
+        <v>29197130.29415541</v>
       </c>
       <c r="L94" t="n">
-        <v>35491809.25076</v>
+        <v>31124414.65632344</v>
       </c>
       <c r="M94" t="n">
-        <v>38247283.27541051</v>
+        <v>32274168.23514733</v>
       </c>
       <c r="N94" t="n">
-        <v>39882520.25597931</v>
+        <v>31965319.82466155</v>
       </c>
       <c r="O94" t="n">
-        <v>40196465.92764907</v>
+        <v>33889491.90483433</v>
       </c>
       <c r="P94" t="n">
-        <v>40279190.23757643</v>
+        <v>36126516.13057071</v>
       </c>
       <c r="Q94" t="n">
-        <v>43874688.89129298</v>
+        <v>37671081.13223201</v>
       </c>
       <c r="R94" t="n">
-        <v>46770829.74291986</v>
+        <v>38405640.24764176</v>
       </c>
       <c r="S94" t="n">
-        <v>49586228.59553542</v>
+        <v>39377803.97360338</v>
       </c>
       <c r="T94" t="n">
-        <v>51417972.08107961</v>
+        <v>40145642.96267023</v>
       </c>
       <c r="U94" t="n">
-        <v>54812040.35175804</v>
+        <v>39994865.48448616</v>
       </c>
     </row>
     <row r="95">
@@ -6548,64 +6548,64 @@
         <v>22561132</v>
       </c>
       <c r="B95" t="n">
-        <v>23525718.08848731</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C95" t="n">
-        <v>25078636.06788857</v>
+        <v>24768487.2495671</v>
       </c>
       <c r="D95" t="n">
-        <v>25276049.09982238</v>
+        <v>24963458.86409649</v>
       </c>
       <c r="E95" t="n">
-        <v>25621965.04175435</v>
+        <v>25305096.84528377</v>
       </c>
       <c r="F95" t="n">
-        <v>26419495.00783617</v>
+        <v>26681234.90985236</v>
       </c>
       <c r="G95" t="n">
-        <v>28163429.39700358</v>
+        <v>29062919.93460179</v>
       </c>
       <c r="H95" t="n">
-        <v>29531273.42085032</v>
+        <v>28615836.75437141</v>
       </c>
       <c r="I95" t="n">
-        <v>29763736.5503082</v>
+        <v>30338384.64175601</v>
       </c>
       <c r="J95" t="n">
-        <v>31728422.23808556</v>
+        <v>31635481.95817678</v>
       </c>
       <c r="K95" t="n">
-        <v>31978180.79814206</v>
+        <v>32252351.21024814</v>
       </c>
       <c r="L95" t="n">
-        <v>32229905.39791694</v>
+        <v>32693741.49258035</v>
       </c>
       <c r="M95" t="n">
-        <v>32296234.52963378</v>
+        <v>32190804.34954641</v>
       </c>
       <c r="N95" t="n">
-        <v>34615851.43538035</v>
+        <v>32631352.33092374</v>
       </c>
       <c r="O95" t="n">
-        <v>35693332.36926512</v>
+        <v>34975038.44871965</v>
       </c>
       <c r="P95" t="n">
-        <v>35974301.75467202</v>
+        <v>36470372.79328816</v>
       </c>
       <c r="Q95" t="n">
-        <v>39185527.02420711</v>
+        <v>36757458.85528092</v>
       </c>
       <c r="R95" t="n">
-        <v>40177432.05976923</v>
+        <v>36833105.69010365</v>
       </c>
       <c r="S95" t="n">
-        <v>41895191.25890858</v>
+        <v>40120991.59694148</v>
       </c>
       <c r="T95" t="n">
-        <v>43929960.75319153</v>
+        <v>42069591.59920259</v>
       </c>
       <c r="U95" t="n">
-        <v>46829750.06595249</v>
+        <v>42889918.52006494</v>
       </c>
     </row>
     <row r="96">
@@ -6613,64 +6613,64 @@
         <v>22561132</v>
       </c>
       <c r="B96" t="n">
-        <v>22738727.84133373</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C96" t="n">
-        <v>24636289.70850541</v>
+        <v>23717769.9815033</v>
       </c>
       <c r="D96" t="n">
-        <v>26548974.85441969</v>
+        <v>23628691.68353492</v>
       </c>
       <c r="E96" t="n">
-        <v>27838407.90186451</v>
+        <v>24089434.25687446</v>
       </c>
       <c r="F96" t="n">
-        <v>28866774.5223248</v>
+        <v>24699211.20662622</v>
       </c>
       <c r="G96" t="n">
-        <v>30100954.13369068</v>
+        <v>24893637.49669537</v>
       </c>
       <c r="H96" t="n">
-        <v>32612898.65090977</v>
+        <v>25089594.26407222</v>
       </c>
       <c r="I96" t="n">
-        <v>32111205.1363493</v>
+        <v>27183337.48799044</v>
       </c>
       <c r="J96" t="n">
-        <v>33484098.20568131</v>
+        <v>29609842.40939308</v>
       </c>
       <c r="K96" t="n">
-        <v>35499694.08429436</v>
+        <v>29842924.01515893</v>
       </c>
       <c r="L96" t="n">
-        <v>37636619.99607498</v>
+        <v>31118838.2443211</v>
       </c>
       <c r="M96" t="n">
-        <v>39026938.14384232</v>
+        <v>31725633.31380928</v>
       </c>
       <c r="N96" t="n">
-        <v>42056868.61476349</v>
+        <v>31975369.92012014</v>
       </c>
       <c r="O96" t="n">
-        <v>45566542.09750587</v>
+        <v>34271941.32277562</v>
       </c>
       <c r="P96" t="n">
-        <v>49369100.15204781</v>
+        <v>35936464.11448409</v>
       </c>
       <c r="Q96" t="n">
-        <v>48896661.38932027</v>
+        <v>38099681.66677253</v>
       </c>
       <c r="R96" t="n">
-        <v>50134384.81267198</v>
+        <v>37956588.33216898</v>
       </c>
       <c r="S96" t="n">
-        <v>53443724.28826143</v>
+        <v>38917385.18648151</v>
       </c>
       <c r="T96" t="n">
-        <v>54796547.72248428</v>
+        <v>42617579.49547727</v>
       </c>
       <c r="U96" t="n">
-        <v>57457911.48160118</v>
+        <v>43200823.34406364</v>
       </c>
     </row>
     <row r="97">
@@ -6678,64 +6678,64 @@
         <v>22561132</v>
       </c>
       <c r="B97" t="n">
-        <v>22869892.88252599</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C97" t="n">
-        <v>22651038.90577017</v>
+        <v>22780948.76002196</v>
       </c>
       <c r="D97" t="n">
-        <v>22829342.4727877</v>
+        <v>24814476.99417777</v>
       </c>
       <c r="E97" t="n">
-        <v>23805395.72040681</v>
+        <v>25154076.08061294</v>
       </c>
       <c r="F97" t="n">
-        <v>25376775.04587243</v>
+        <v>25937042.15720771</v>
       </c>
       <c r="G97" t="n">
-        <v>27789552.73264312</v>
+        <v>25688837.02347377</v>
       </c>
       <c r="H97" t="n">
-        <v>27846743.62044742</v>
+        <v>26189750.95619662</v>
       </c>
       <c r="I97" t="n">
-        <v>30170572.7804506</v>
+        <v>26852693.31850098</v>
       </c>
       <c r="J97" t="n">
-        <v>31109686.38266846</v>
+        <v>29093568.32380448</v>
       </c>
       <c r="K97" t="n">
-        <v>31897167.29516619</v>
+        <v>29491729.01146359</v>
       </c>
       <c r="L97" t="n">
-        <v>34373564.4638983</v>
+        <v>31095543.89234522</v>
       </c>
       <c r="M97" t="n">
-        <v>36442702.31079775</v>
+        <v>32786577.1988111</v>
       </c>
       <c r="N97" t="n">
-        <v>36517701.37678467</v>
+        <v>34188345.34834759</v>
       </c>
       <c r="O97" t="n">
-        <v>37442075.61986708</v>
+        <v>37438911.13753839</v>
       </c>
       <c r="P97" t="n">
-        <v>37736810.69437449</v>
+        <v>39910230.31325957</v>
       </c>
       <c r="Q97" t="n">
-        <v>39350222.76162682</v>
+        <v>39296279.86601166</v>
       </c>
       <c r="R97" t="n">
-        <v>38973659.88125629</v>
+        <v>40976365.99325291</v>
       </c>
       <c r="S97" t="n">
-        <v>42226037.55738811</v>
+        <v>42013602.61744417</v>
       </c>
       <c r="T97" t="n">
-        <v>44031383.51253784</v>
+        <v>43565608.99257056</v>
       </c>
       <c r="U97" t="n">
-        <v>47193855.64176944</v>
+        <v>44668387.2430804</v>
       </c>
     </row>
     <row r="98">
@@ -6743,64 +6743,64 @@
         <v>22561132</v>
       </c>
       <c r="B98" t="n">
-        <v>24575038.41802541</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C98" t="n">
-        <v>25054234.07524959</v>
+        <v>24668317.32384408</v>
       </c>
       <c r="D98" t="n">
-        <v>25397114.36264328</v>
+        <v>26870320.42281877</v>
       </c>
       <c r="E98" t="n">
-        <v>27516520.34203792</v>
+        <v>27550490.07112021</v>
       </c>
       <c r="F98" t="n">
-        <v>27893098.30385527</v>
+        <v>28247876.88479931</v>
       </c>
       <c r="G98" t="n">
-        <v>29572140.50584773</v>
+        <v>29619822.36198407</v>
       </c>
       <c r="H98" t="n">
-        <v>31524179.05821755</v>
+        <v>32263818.69849645</v>
       </c>
       <c r="I98" t="n">
-        <v>33788344.51738673</v>
+        <v>35143829.84097415</v>
       </c>
       <c r="J98" t="n">
-        <v>35822254.68979349</v>
+        <v>37667969.97740414</v>
       </c>
       <c r="K98" t="n">
-        <v>37978597.33554298</v>
+        <v>40592394.37348729</v>
       </c>
       <c r="L98" t="n">
-        <v>37835958.76486306</v>
+        <v>42327895.00843133</v>
       </c>
       <c r="M98" t="n">
-        <v>39233640.60011956</v>
+        <v>42907174.37341491</v>
       </c>
       <c r="N98" t="n">
-        <v>41139143.65772426</v>
+        <v>45988902.27463716</v>
       </c>
       <c r="O98" t="n">
-        <v>43854712.87448347</v>
+        <v>47153021.45869219</v>
       </c>
       <c r="P98" t="n">
-        <v>43944965.85508464</v>
+        <v>49991426.57662266</v>
       </c>
       <c r="Q98" t="n">
-        <v>45312832.33490998</v>
+        <v>54453882.39793989</v>
       </c>
       <c r="R98" t="n">
-        <v>49357656.14331572</v>
+        <v>57415185.44252052</v>
       </c>
       <c r="S98" t="n">
-        <v>53763538.81293154</v>
+        <v>59536135.04656276</v>
       </c>
       <c r="T98" t="n">
-        <v>55124457.72682651</v>
+        <v>60350918.16999661</v>
       </c>
       <c r="U98" t="n">
-        <v>59083669.25490521</v>
+        <v>62580315.41063401</v>
       </c>
     </row>
     <row r="99">
@@ -6808,64 +6808,64 @@
         <v>22561132</v>
       </c>
       <c r="B99" t="n">
-        <v>24312708.33564088</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C99" t="n">
-        <v>25210833.60895025</v>
+        <v>24625613.83672586</v>
       </c>
       <c r="D99" t="n">
-        <v>25995566.36618704</v>
+        <v>26251135.24852745</v>
       </c>
       <c r="E99" t="n">
-        <v>26502461.30152203</v>
+        <v>28136574.15508641</v>
       </c>
       <c r="F99" t="n">
-        <v>27327398.30492684</v>
+        <v>29666693.20335978</v>
       </c>
       <c r="G99" t="n">
-        <v>29449012.77824062</v>
+        <v>30072697.4045274</v>
       </c>
       <c r="H99" t="n">
-        <v>29167199.75921352</v>
+        <v>31708106.42333683</v>
       </c>
       <c r="I99" t="n">
-        <v>30414223.85037471</v>
+        <v>31773361.69298404</v>
       </c>
       <c r="J99" t="n">
-        <v>30476816.31023243</v>
+        <v>32947087.74441848</v>
       </c>
       <c r="K99" t="n">
-        <v>31425462.29575974</v>
+        <v>34930357.94814415</v>
       </c>
       <c r="L99" t="n">
-        <v>31672836.02752626</v>
+        <v>36829935.55005347</v>
       </c>
       <c r="M99" t="n">
-        <v>31738018.71071376</v>
+        <v>39046936.16474156</v>
       </c>
       <c r="N99" t="n">
-        <v>33094956.44435693</v>
+        <v>38446266.01741747</v>
       </c>
       <c r="O99" t="n">
-        <v>35664346.24877815</v>
+        <v>39195940.68317582</v>
       </c>
       <c r="P99" t="n">
-        <v>37811183.49883343</v>
+        <v>42238991.98724313</v>
       </c>
       <c r="Q99" t="n">
-        <v>40966551.75253119</v>
+        <v>42571487.2414291</v>
       </c>
       <c r="R99" t="n">
-        <v>44147067.81008279</v>
+        <v>45629105.03948493</v>
       </c>
       <c r="S99" t="n">
-        <v>47831169.79715957</v>
+        <v>47845223.60096861</v>
       </c>
       <c r="T99" t="n">
-        <v>48485764.3537989</v>
+        <v>48221849.77111001</v>
       </c>
       <c r="U99" t="n">
-        <v>47739894.02239463</v>
+        <v>50563892.99668629</v>
       </c>
     </row>
     <row r="100">
@@ -6876,61 +6876,61 @@
         <v>24443873.37683315</v>
       </c>
       <c r="C100" t="n">
-        <v>26483730.76593198</v>
+        <v>25204733.11079051</v>
       </c>
       <c r="D100" t="n">
-        <v>28539845.50738603</v>
+        <v>25256604.44090312</v>
       </c>
       <c r="E100" t="n">
-        <v>30755590.62219606</v>
+        <v>25161746.64702912</v>
       </c>
       <c r="F100" t="n">
-        <v>30640079.94527432</v>
+        <v>24920960.72187806</v>
       </c>
       <c r="G100" t="n">
-        <v>30525003.09895745</v>
+        <v>25696670.66164484</v>
       </c>
       <c r="H100" t="n">
-        <v>33249799.87117774</v>
+        <v>26048343.02947945</v>
       </c>
       <c r="I100" t="n">
-        <v>36217824.05359134</v>
+        <v>28524972.18055431</v>
       </c>
       <c r="J100" t="n">
-        <v>39029663.61645883</v>
+        <v>29910375.64749563</v>
       </c>
       <c r="K100" t="n">
-        <v>38429259.17766762</v>
+        <v>32580308.05523308</v>
       </c>
       <c r="L100" t="n">
-        <v>40965950.60989536</v>
+        <v>32079115.89109416</v>
       </c>
       <c r="M100" t="n">
-        <v>42717422.39154014</v>
+        <v>34196638.32518959</v>
       </c>
       <c r="N100" t="n">
-        <v>46033870.61677094</v>
+        <v>36056314.89419466</v>
       </c>
       <c r="O100" t="n">
-        <v>49072537.70754077</v>
+        <v>38017124.12157449</v>
       </c>
       <c r="P100" t="n">
-        <v>50314713.09616964</v>
+        <v>41189678.25635327</v>
       </c>
       <c r="Q100" t="n">
-        <v>53343438.18612981</v>
+        <v>43908583.23045249</v>
       </c>
       <c r="R100" t="n">
-        <v>57484857.33072536</v>
+        <v>45530591.26715761</v>
       </c>
       <c r="S100" t="n">
-        <v>57268957.89102382</v>
+        <v>46683109.20374463</v>
       </c>
       <c r="T100" t="n">
-        <v>60383349.95811847</v>
+        <v>48407609.8078621</v>
       </c>
       <c r="U100" t="n">
-        <v>61560782.05716066</v>
+        <v>47944372.04955194</v>
       </c>
     </row>
     <row r="101">
@@ -6938,64 +6938,64 @@
         <v>22561132</v>
       </c>
       <c r="B101" t="n">
-        <v>23394553.04729505</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C101" t="n">
-        <v>24938812.9041272</v>
+        <v>22647226.09442033</v>
       </c>
       <c r="D101" t="n">
-        <v>26440020.08009145</v>
+        <v>23352161.93480167</v>
       </c>
       <c r="E101" t="n">
-        <v>27416729.45910895</v>
+        <v>25029387.4813277</v>
       </c>
       <c r="F101" t="n">
-        <v>29067096.34560472</v>
+        <v>26099502.17982098</v>
       </c>
       <c r="G101" t="n">
-        <v>29464894.75040714</v>
+        <v>26760160.07072637</v>
       </c>
       <c r="H101" t="n">
-        <v>31581155.94879469</v>
+        <v>26504078.09079827</v>
       </c>
       <c r="I101" t="n">
-        <v>31646149.95441883</v>
+        <v>26096358.30391613</v>
       </c>
       <c r="J101" t="n">
-        <v>31711277.71767914</v>
+        <v>27515526.63305583</v>
       </c>
       <c r="K101" t="n">
-        <v>34541966.60861866</v>
+        <v>29811715.51654841</v>
       </c>
       <c r="L101" t="n">
-        <v>37625335.30857204</v>
+        <v>29353113.40047563</v>
       </c>
       <c r="M101" t="n">
-        <v>38577747.13996659</v>
+        <v>30949390.1075344</v>
       </c>
       <c r="N101" t="n">
-        <v>39329985.5934945</v>
+        <v>31372948.68621049</v>
       </c>
       <c r="O101" t="n">
-        <v>40096892.1583798</v>
+        <v>32167093.56942362</v>
       </c>
       <c r="P101" t="n">
-        <v>39713184.00769075</v>
+        <v>32794328.86736258</v>
       </c>
       <c r="Q101" t="n">
-        <v>42103743.53600205</v>
+        <v>33433794.80460788</v>
       </c>
       <c r="R101" t="n">
-        <v>42924736.39518449</v>
+        <v>35835114.85883495</v>
       </c>
       <c r="S101" t="n">
-        <v>43013075.48458346</v>
+        <v>36325537.13415492</v>
       </c>
       <c r="T101" t="n">
-        <v>43101596.37579116</v>
+        <v>36611483.08443968</v>
       </c>
       <c r="U101" t="n">
-        <v>43942046.65104115</v>
+        <v>39028184.25039449</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -503,64 +503,64 @@
         <v>22561132</v>
       </c>
       <c r="B2" t="n">
-        <v>24443873.37683315</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C2" t="n">
-        <v>26483730.76593198</v>
+        <v>25080923.75469847</v>
       </c>
       <c r="D2" t="n">
-        <v>28231905.31743118</v>
+        <v>26153241.85204362</v>
       </c>
       <c r="E2" t="n">
-        <v>30916143.60546377</v>
+        <v>26663211.34648155</v>
       </c>
       <c r="F2" t="n">
-        <v>32417681.70563634</v>
+        <v>28268219.74690006</v>
       </c>
       <c r="G2" t="n">
-        <v>35311427.34058435</v>
+        <v>27833361.66614512</v>
       </c>
       <c r="H2" t="n">
-        <v>35384098.24315966</v>
+        <v>29994257.56603852</v>
       </c>
       <c r="I2" t="n">
-        <v>37308351.08323214</v>
+        <v>32148539.26292367</v>
       </c>
       <c r="J2" t="n">
-        <v>37168229.79792189</v>
+        <v>32027797.00250272</v>
       </c>
       <c r="K2" t="n">
-        <v>36596460.32606629</v>
+        <v>31907508.22126887</v>
       </c>
       <c r="L2" t="n">
-        <v>37948354.38405246</v>
+        <v>33828200.29643096</v>
       </c>
       <c r="M2" t="n">
-        <v>39350188.17740469</v>
+        <v>36454516.88003805</v>
       </c>
       <c r="N2" t="n">
-        <v>39202398.23803382</v>
+        <v>38436981.06939871</v>
       </c>
       <c r="O2" t="n">
-        <v>41562210.70289277</v>
+        <v>37845694.03514231</v>
       </c>
       <c r="P2" t="n">
-        <v>42372644.05948334</v>
+        <v>39023709.65693411</v>
       </c>
       <c r="Q2" t="n">
-        <v>41967158.04755881</v>
+        <v>42280264.01992588</v>
       </c>
       <c r="R2" t="n">
-        <v>43029474.63628018</v>
+        <v>46300194.74136888</v>
       </c>
       <c r="S2" t="n">
-        <v>45369497.21384285</v>
+        <v>46933837.10423748</v>
       </c>
       <c r="T2" t="n">
-        <v>49419379.1799403</v>
+        <v>46484702.64840798</v>
       </c>
       <c r="U2" t="n">
-        <v>50957646.66789187</v>
+        <v>46580368.14685477</v>
       </c>
     </row>
     <row r="3">
@@ -568,64 +568,64 @@
         <v>22561132</v>
       </c>
       <c r="B3" t="n">
-        <v>24312708.33564088</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C3" t="n">
-        <v>25069485.32064895</v>
+        <v>24613412.84040638</v>
       </c>
       <c r="D3" t="n">
-        <v>26578558.40306742</v>
+        <v>25665742.8217234</v>
       </c>
       <c r="E3" t="n">
-        <v>27405864.06628093</v>
+        <v>27359922.49915682</v>
       </c>
       <c r="F3" t="n">
-        <v>29692901.53609636</v>
+        <v>27257165.14335682</v>
       </c>
       <c r="G3" t="n">
-        <v>30962401.6546428</v>
+        <v>27154793.71972353</v>
       </c>
       <c r="H3" t="n">
-        <v>33186218.49789508</v>
+        <v>29263007.70821832</v>
       </c>
       <c r="I3" t="n">
-        <v>35376820.08463005</v>
+        <v>30003743.55907325</v>
       </c>
       <c r="J3" t="n">
-        <v>35655297.96094591</v>
+        <v>31112098.91020434</v>
       </c>
       <c r="K3" t="n">
-        <v>37179716.34536023</v>
+        <v>33889302.45094431</v>
       </c>
       <c r="L3" t="n">
-        <v>40282388.24774215</v>
+        <v>35929289.84823383</v>
       </c>
       <c r="M3" t="n">
-        <v>41302058.18156032</v>
+        <v>35585463.6656763</v>
       </c>
       <c r="N3" t="n">
-        <v>41387057.79987998</v>
+        <v>35451813.13536816</v>
       </c>
       <c r="O3" t="n">
-        <v>42675304.76882146</v>
+        <v>37173640.0495615</v>
       </c>
       <c r="P3" t="n">
-        <v>46236587.15736584</v>
+        <v>37898499.41995007</v>
       </c>
       <c r="Q3" t="n">
-        <v>46331742.03423669</v>
+        <v>41501819.92057532</v>
       </c>
       <c r="R3" t="n">
-        <v>45619007.64206646</v>
+        <v>44482610.85515577</v>
       </c>
       <c r="S3" t="n">
-        <v>46243327.60347285</v>
+        <v>43798322.17491218</v>
       </c>
       <c r="T3" t="n">
-        <v>50640059.21345866</v>
+        <v>47962587.1089157</v>
       </c>
       <c r="U3" t="n">
-        <v>53982777.94088437</v>
+        <v>48061294.09295896</v>
       </c>
     </row>
     <row r="4">
@@ -633,64 +633,64 @@
         <v>22561132</v>
       </c>
       <c r="B4" t="n">
-        <v>23001057.92371826</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C4" t="n">
-        <v>22914671.42562358</v>
+        <v>23837003.96397553</v>
       </c>
       <c r="D4" t="n">
-        <v>22828609.3746512</v>
+        <v>24856139.10377559</v>
       </c>
       <c r="E4" t="n">
-        <v>24999112.09690792</v>
+        <v>27219415.67065413</v>
       </c>
       <c r="F4" t="n">
-        <v>26067932.39161708</v>
+        <v>26800691.64191122</v>
       </c>
       <c r="G4" t="n">
-        <v>27182449.38219102</v>
+        <v>27011660.2839311</v>
       </c>
       <c r="H4" t="n">
-        <v>27396423.12994188</v>
+        <v>28637643.78237722</v>
       </c>
       <c r="I4" t="n">
-        <v>30001225.28883573</v>
+        <v>30860981.65202513</v>
       </c>
       <c r="J4" t="n">
-        <v>32853687.30663878</v>
+        <v>33436350.96797772</v>
       </c>
       <c r="K4" t="n">
-        <v>32539293.17479552</v>
+        <v>33893944.9057873</v>
       </c>
       <c r="L4" t="n">
-        <v>32038731.95425154</v>
+        <v>33963698.63010958</v>
       </c>
       <c r="M4" t="n">
-        <v>33967323.12270118</v>
+        <v>34428509.59628271</v>
       </c>
       <c r="N4" t="n">
-        <v>34037227.85936292</v>
+        <v>37701909.76602542</v>
       </c>
       <c r="O4" t="n">
-        <v>35492466.74027608</v>
+        <v>40628969.14206374</v>
       </c>
       <c r="P4" t="n">
-        <v>37422612.86006188</v>
+        <v>43547069.19482725</v>
       </c>
       <c r="Q4" t="n">
-        <v>39675290.04982339</v>
+        <v>45155722.69745215</v>
       </c>
       <c r="R4" t="n">
-        <v>40679592.47922535</v>
+        <v>44461079.34590293</v>
       </c>
       <c r="S4" t="n">
-        <v>41472815.41227257</v>
+        <v>44811066.34092789</v>
       </c>
       <c r="T4" t="n">
-        <v>41317053.39030494</v>
+        <v>48290058.59085591</v>
       </c>
       <c r="U4" t="n">
-        <v>45005196.29894239</v>
+        <v>52600642.78153162</v>
       </c>
     </row>
     <row r="5">
@@ -701,61 +701,61 @@
         <v>23132222.96491052</v>
       </c>
       <c r="C5" t="n">
-        <v>23986740.43724649</v>
+        <v>23179829.07001693</v>
       </c>
       <c r="D5" t="n">
-        <v>24036105.1389506</v>
+        <v>23092771.15005373</v>
       </c>
       <c r="E5" t="n">
-        <v>24924012.53286142</v>
+        <v>24348598.84319623</v>
       </c>
       <c r="F5" t="n">
-        <v>27148840.11699485</v>
+        <v>25531163.82657326</v>
       </c>
       <c r="G5" t="n">
-        <v>28151733.71130348</v>
+        <v>26771163.73460101</v>
       </c>
       <c r="H5" t="n">
-        <v>28209669.96740913</v>
+        <v>28227029.23368321</v>
       </c>
       <c r="I5" t="n">
-        <v>29087746.92581664</v>
+        <v>28941541.31408865</v>
       </c>
       <c r="J5" t="n">
-        <v>30838701.73611724</v>
+        <v>30683695.18769927</v>
       </c>
       <c r="K5" t="n">
-        <v>31977900.91717492</v>
+        <v>32887494.45794718</v>
       </c>
       <c r="L5" t="n">
-        <v>34274654.10398085</v>
+        <v>33337577.00756855</v>
       </c>
       <c r="M5" t="n">
-        <v>37334161.30759137</v>
+        <v>34569086.06234147</v>
       </c>
       <c r="N5" t="n">
-        <v>39798566.01236412</v>
+        <v>34841205.64939852</v>
       </c>
       <c r="O5" t="n">
-        <v>40574609.55998626</v>
+        <v>35925701.14045598</v>
       </c>
       <c r="P5" t="n">
-        <v>43017023.12905068</v>
+        <v>38088270.80890538</v>
       </c>
       <c r="Q5" t="n">
-        <v>47107003.56862406</v>
+        <v>39052400.9477668</v>
       </c>
       <c r="R5" t="n">
-        <v>51585851.9209284</v>
+        <v>42765432.31015499</v>
       </c>
       <c r="S5" t="n">
-        <v>53191554.78820477</v>
+        <v>46085607.87660793</v>
       </c>
       <c r="T5" t="n">
-        <v>56393453.13259364</v>
+        <v>46984244.24003305</v>
       </c>
       <c r="U5" t="n">
-        <v>58148801.27590664</v>
+        <v>46261472.22046918</v>
       </c>
     </row>
     <row r="6">
@@ -763,64 +763,64 @@
         <v>22561132</v>
       </c>
       <c r="B6" t="n">
-        <v>23394553.04729505</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C6" t="n">
-        <v>24530781.84689261</v>
+        <v>24099873.92155898</v>
       </c>
       <c r="D6" t="n">
-        <v>25151730.6483513</v>
+        <v>24429693.29147294</v>
       </c>
       <c r="E6" t="n">
-        <v>26665754.53883794</v>
+        <v>24621998.00090082</v>
       </c>
       <c r="F6" t="n">
-        <v>28270916.02828398</v>
+        <v>24243230.78843079</v>
       </c>
       <c r="G6" t="n">
-        <v>30465782.2921768</v>
+        <v>26266344.4209158</v>
       </c>
       <c r="H6" t="n">
-        <v>30705601.65221908</v>
+        <v>27847463.17274308</v>
       </c>
       <c r="I6" t="n">
-        <v>32553944.22248563</v>
+        <v>27904773.24020869</v>
       </c>
       <c r="J6" t="n">
-        <v>33945766.30492376</v>
+        <v>30395676.70737514</v>
       </c>
       <c r="K6" t="n">
-        <v>36383857.75881055</v>
+        <v>30104804.5656575</v>
       </c>
       <c r="L6" t="n">
-        <v>36035681.57796285</v>
+        <v>30691826.70430304</v>
       </c>
       <c r="M6" t="n">
-        <v>35900340.13635182</v>
+        <v>33609949.85054656</v>
       </c>
       <c r="N6" t="n">
-        <v>39313679.28097873</v>
+        <v>34851520.51304596</v>
       </c>
       <c r="O6" t="n">
-        <v>42365871.44472024</v>
+        <v>34315389.64037731</v>
       </c>
       <c r="P6" t="n">
-        <v>45162416.19766039</v>
+        <v>34585512.18980779</v>
       </c>
       <c r="Q6" t="n">
-        <v>48406122.64338654</v>
+        <v>37471696.04080953</v>
       </c>
       <c r="R6" t="n">
-        <v>49631429.03705457</v>
+        <v>37113109.76598782</v>
       </c>
       <c r="S6" t="n">
-        <v>49445025.20449328</v>
+        <v>38484089.14811925</v>
       </c>
       <c r="T6" t="n">
-        <v>50696629.38614777</v>
+        <v>40800662.55567081</v>
       </c>
       <c r="U6" t="n">
-        <v>50800963.02804456</v>
+        <v>43019478.20161612</v>
       </c>
     </row>
     <row r="7">
@@ -828,64 +828,64 @@
         <v>22561132</v>
       </c>
       <c r="B7" t="n">
-        <v>22607562.80014147</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C7" t="n">
-        <v>22785524.13364177</v>
+        <v>23950137.44828803</v>
       </c>
       <c r="D7" t="n">
-        <v>23892173.56106319</v>
+        <v>23720946.04580397</v>
       </c>
       <c r="E7" t="n">
-        <v>23941343.644176</v>
+        <v>25010935.05397852</v>
       </c>
       <c r="F7" t="n">
-        <v>24408182.70693758</v>
+        <v>25644037.99550162</v>
       </c>
       <c r="G7" t="n">
-        <v>26161254.97898879</v>
+        <v>25398636.7719707</v>
       </c>
       <c r="H7" t="n">
-        <v>28648619.59317327</v>
+        <v>27370508.1801661</v>
       </c>
       <c r="I7" t="n">
-        <v>30872809.59073988</v>
+        <v>27745087.88923801</v>
       </c>
       <c r="J7" t="n">
-        <v>33808140.26115827</v>
+        <v>27640883.94392258</v>
       </c>
       <c r="K7" t="n">
-        <v>35253584.65524013</v>
+        <v>29786836.47025729</v>
       </c>
       <c r="L7" t="n">
-        <v>36965783.99041682</v>
+        <v>31406699.84167294</v>
       </c>
       <c r="M7" t="n">
-        <v>37901500.56916655</v>
+        <v>33662427.57487377</v>
       </c>
       <c r="N7" t="n">
-        <v>37759151.55558804</v>
+        <v>35297347.44693181</v>
       </c>
       <c r="O7" t="n">
-        <v>40471132.30413701</v>
+        <v>35164779.0125544</v>
       </c>
       <c r="P7" t="n">
-        <v>41260290.41299525</v>
+        <v>36668225.58785214</v>
       </c>
       <c r="Q7" t="n">
-        <v>41345204.07326481</v>
+        <v>37809590.37629453</v>
       </c>
       <c r="R7" t="n">
-        <v>43593632.89613968</v>
+        <v>40525193.79921779</v>
       </c>
       <c r="S7" t="n">
-        <v>45457449.47405957</v>
+        <v>40137387.00592338</v>
       </c>
       <c r="T7" t="n">
-        <v>48722346.13547681</v>
+        <v>42086783.30191272</v>
       </c>
       <c r="U7" t="n">
-        <v>51088697.51441417</v>
+        <v>46088318.22805081</v>
       </c>
     </row>
     <row r="8">
@@ -893,64 +893,64 @@
         <v>22561132</v>
       </c>
       <c r="B8" t="n">
-        <v>22345232.71775694</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C8" t="n">
-        <v>22521129.05151839</v>
+        <v>24118175.41603821</v>
       </c>
       <c r="D8" t="n">
-        <v>24662397.10304036</v>
+        <v>24728679.89206478</v>
       </c>
       <c r="E8" t="n">
-        <v>24713152.30587774</v>
+        <v>24492038.20939057</v>
       </c>
       <c r="F8" t="n">
-        <v>25051364.71099828</v>
+        <v>24115270.20543163</v>
       </c>
       <c r="G8" t="n">
-        <v>27433202.97407902</v>
+        <v>24445300.28153693</v>
       </c>
       <c r="H8" t="n">
-        <v>28765581.29399559</v>
+        <v>26627395.89303132</v>
       </c>
       <c r="I8" t="n">
-        <v>28490308.38859891</v>
+        <v>27146611.05184753</v>
       </c>
       <c r="J8" t="n">
-        <v>31033479.31261648</v>
+        <v>27202478.7659439</v>
       </c>
       <c r="K8" t="n">
-        <v>32721137.43221197</v>
+        <v>27258461.45577232</v>
       </c>
       <c r="L8" t="n">
-        <v>33739641.96861047</v>
+        <v>29691672.27477192</v>
       </c>
       <c r="M8" t="n">
-        <v>35966774.69350939</v>
+        <v>31824221.34656085</v>
       </c>
       <c r="N8" t="n">
-        <v>35622589.79884513</v>
+        <v>34109936.78437665</v>
       </c>
       <c r="O8" t="n">
-        <v>37974014.73573298</v>
+        <v>34775056.13423189</v>
       </c>
       <c r="P8" t="n">
-        <v>41363743.22960838</v>
+        <v>35048797.06848938</v>
       </c>
       <c r="Q8" t="n">
-        <v>44334617.06297499</v>
+        <v>34917162.13016529</v>
       </c>
       <c r="R8" t="n">
-        <v>47776619.26823701</v>
+        <v>34786021.58133347</v>
       </c>
       <c r="S8" t="n">
-        <v>48430467.27237835</v>
+        <v>36475512.27022284</v>
       </c>
       <c r="T8" t="n">
-        <v>50782642.65190354</v>
+        <v>37398818.57852364</v>
       </c>
       <c r="U8" t="n">
-        <v>53249058.70114864</v>
+        <v>37475785.33138632</v>
       </c>
     </row>
     <row r="9">
@@ -958,64 +958,64 @@
         <v>22561132</v>
       </c>
       <c r="B9" t="n">
-        <v>23656883.12967957</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C9" t="n">
-        <v>23843104.46213528</v>
+        <v>24390196.12086127</v>
       </c>
       <c r="D9" t="n">
-        <v>25694209.16486428</v>
+        <v>24440391.13419211</v>
       </c>
       <c r="E9" t="n">
-        <v>26493987.85983788</v>
+        <v>24206508.23755325</v>
       </c>
       <c r="F9" t="n">
-        <v>27626720.5666077</v>
+        <v>24115594.35504067</v>
       </c>
       <c r="G9" t="n">
-        <v>28004806.67609213</v>
+        <v>23744617.29417897</v>
       </c>
       <c r="H9" t="n">
-        <v>30341826.30255821</v>
+        <v>25726121.30101775</v>
       </c>
       <c r="I9" t="n">
-        <v>32697471.61910027</v>
+        <v>25629500.11358698</v>
       </c>
       <c r="J9" t="n">
-        <v>34095430.1192541</v>
+        <v>27023279.82910486</v>
       </c>
       <c r="K9" t="n">
-        <v>33769153.10041855</v>
+        <v>28335748.9640928</v>
       </c>
       <c r="L9" t="n">
-        <v>33642324.20021566</v>
+        <v>30041436.79473441</v>
       </c>
       <c r="M9" t="n">
-        <v>33124794.73904591</v>
+        <v>32373760.80127398</v>
       </c>
       <c r="N9" t="n">
-        <v>34926182.46738089</v>
+        <v>33193239.28727291</v>
       </c>
       <c r="O9" t="n">
-        <v>36622480.50304805</v>
+        <v>35577281.88940975</v>
       </c>
       <c r="P9" t="n">
-        <v>36059106.448133</v>
+        <v>37098364.7489363</v>
       </c>
       <c r="Q9" t="n">
-        <v>36762233.21112742</v>
+        <v>39331523.62429022</v>
       </c>
       <c r="R9" t="n">
-        <v>37051616.72860504</v>
+        <v>43071093.46387143</v>
       </c>
       <c r="S9" t="n">
-        <v>39712780.10571808</v>
+        <v>43910948.95417435</v>
       </c>
       <c r="T9" t="n">
-        <v>42565076.58699659</v>
+        <v>46298907.73878694</v>
       </c>
       <c r="U9" t="n">
-        <v>42405212.29207256</v>
+        <v>47740044.91379934</v>
       </c>
     </row>
     <row r="10">
@@ -1023,64 +1023,64 @@
         <v>22561132</v>
       </c>
       <c r="B10" t="n">
-        <v>22607562.80014147</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C10" t="n">
-        <v>24231308.9003507</v>
+        <v>25475228.69107363</v>
       </c>
       <c r="D10" t="n">
-        <v>24140301.87245252</v>
+        <v>27453046.45838798</v>
       </c>
       <c r="E10" t="n">
-        <v>25032058.35295881</v>
+        <v>27349939.35116553</v>
       </c>
       <c r="F10" t="n">
-        <v>24646983.06522666</v>
+        <v>28360261.6655558</v>
       </c>
       <c r="G10" t="n">
-        <v>26273915.04647484</v>
+        <v>30891824.04394811</v>
       </c>
       <c r="H10" t="n">
-        <v>28160990.06960273</v>
+        <v>32571778.68750266</v>
       </c>
       <c r="I10" t="n">
-        <v>29528715.61997238</v>
+        <v>33774998.7167991</v>
       </c>
       <c r="J10" t="n">
-        <v>31992906.45500943</v>
+        <v>34237227.22603849</v>
       </c>
       <c r="K10" t="n">
-        <v>31500750.45709508</v>
+        <v>35900064.02031051</v>
       </c>
       <c r="L10" t="n">
-        <v>34495784.60473682</v>
+        <v>35765231.92596187</v>
       </c>
       <c r="M10" t="n">
-        <v>37575030.89478564</v>
+        <v>38749864.16866327</v>
       </c>
       <c r="N10" t="n">
-        <v>38963073.90612371</v>
+        <v>38153763.96451981</v>
       </c>
       <c r="O10" t="n">
-        <v>38816737.87580212</v>
+        <v>37566833.73970409</v>
       </c>
       <c r="P10" t="n">
-        <v>40701992.76362805</v>
+        <v>36988932.4298107</v>
       </c>
       <c r="Q10" t="n">
-        <v>44571864.32018571</v>
+        <v>37925234.96606423</v>
       </c>
       <c r="R10" t="n">
-        <v>46218374.33757409</v>
+        <v>39767191.25874618</v>
       </c>
       <c r="S10" t="n">
-        <v>50075328.22336821</v>
+        <v>40773819.98764765</v>
       </c>
       <c r="T10" t="n">
-        <v>53671895.42692731</v>
+        <v>43939372.94855604</v>
       </c>
       <c r="U10" t="n">
-        <v>53470316.56445009</v>
+        <v>44540706.23135563</v>
       </c>
     </row>
     <row r="11">
@@ -1088,64 +1088,64 @@
         <v>22561132</v>
       </c>
       <c r="B11" t="n">
-        <v>24050378.25325636</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C11" t="n">
-        <v>26057398.21421815</v>
+        <v>24524681.34873286</v>
       </c>
       <c r="D11" t="n">
-        <v>27322956.32228383</v>
+        <v>24717733.7814552</v>
       </c>
       <c r="E11" t="n">
-        <v>27696885.25932863</v>
+        <v>24768602.86715342</v>
       </c>
       <c r="F11" t="n">
-        <v>27914908.5234075</v>
+        <v>25107574.1421851</v>
       </c>
       <c r="G11" t="n">
-        <v>29432972.98381563</v>
+        <v>27494756.69590594</v>
       </c>
       <c r="H11" t="n">
-        <v>28980197.17206478</v>
+        <v>27391492.93496061</v>
       </c>
       <c r="I11" t="n">
-        <v>30387710.04817519</v>
+        <v>29677331.12436898</v>
       </c>
       <c r="J11" t="n">
-        <v>30450247.94263916</v>
+        <v>29910943.98517632</v>
       </c>
       <c r="K11" t="n">
-        <v>31575097.41964005</v>
+        <v>32407032.02991761</v>
       </c>
       <c r="L11" t="n">
-        <v>34026490.08184322</v>
+        <v>33604166.22398632</v>
       </c>
       <c r="M11" t="n">
-        <v>36074735.57292215</v>
+        <v>35822356.27947093</v>
       </c>
       <c r="N11" t="n">
-        <v>37617086.73152088</v>
+        <v>36520866.58365295</v>
       </c>
       <c r="O11" t="n">
-        <v>40974954.25324046</v>
+        <v>37657644.55678163</v>
       </c>
       <c r="P11" t="n">
-        <v>43917904.04234973</v>
+        <v>41238065.01441275</v>
       </c>
       <c r="Q11" t="n">
-        <v>46306241.0575472</v>
+        <v>42042177.76211615</v>
       </c>
       <c r="R11" t="n">
-        <v>48824460.26595367</v>
+        <v>42861970.13277938</v>
       </c>
       <c r="S11" t="n">
-        <v>53466601.28211388</v>
+        <v>46688019.14218272</v>
       </c>
       <c r="T11" t="n">
-        <v>56685056.21931122</v>
+        <v>45969804.03772266</v>
       </c>
       <c r="U11" t="n">
-        <v>57790374.2378531</v>
+        <v>50340529.5237997</v>
       </c>
     </row>
     <row r="12">
@@ -1153,64 +1153,64 @@
         <v>22561132</v>
       </c>
       <c r="B12" t="n">
-        <v>22476397.75894921</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C12" t="n">
-        <v>23829378.34127586</v>
+        <v>25359044.95768127</v>
       </c>
       <c r="D12" t="n">
-        <v>24848187.4526846</v>
+        <v>26738116.82058447</v>
       </c>
       <c r="E12" t="n">
-        <v>26921785.1186384</v>
+        <v>28813981.30657468</v>
       </c>
       <c r="F12" t="n">
-        <v>26507639.6255013</v>
+        <v>28873280.46795211</v>
       </c>
       <c r="G12" t="n">
-        <v>26562192.33667172</v>
+        <v>29604151.13537141</v>
       </c>
       <c r="H12" t="n">
-        <v>28161119.83568492</v>
+        <v>29492964.99105876</v>
       </c>
       <c r="I12" t="n">
-        <v>29365129.65353119</v>
+        <v>30068056.69598215</v>
       </c>
       <c r="J12" t="n">
-        <v>31474225.40960983</v>
+        <v>30479553.76631058</v>
       </c>
       <c r="K12" t="n">
-        <v>33917786.68171708</v>
+        <v>30365079.81810819</v>
       </c>
       <c r="L12" t="n">
-        <v>35565108.85831363</v>
+        <v>30604106.47233205</v>
       </c>
       <c r="M12" t="n">
-        <v>35845068.89887445</v>
+        <v>32624264.45457244</v>
       </c>
       <c r="N12" t="n">
-        <v>37585995.49508353</v>
+        <v>35346780.88581225</v>
       </c>
       <c r="O12" t="n">
-        <v>39411475.57400284</v>
+        <v>36447013.31978146</v>
       </c>
       <c r="P12" t="n">
-        <v>38805197.61305305</v>
+        <v>37793386.72036032</v>
       </c>
       <c r="Q12" t="n">
-        <v>38659454.52850534</v>
+        <v>40727548.08350059</v>
       </c>
       <c r="R12" t="n">
-        <v>38514258.82028863</v>
+        <v>41521706.11650238</v>
       </c>
       <c r="S12" t="n">
-        <v>39936997.44536282</v>
+        <v>44503925.34007489</v>
       </c>
       <c r="T12" t="n">
-        <v>39322635.23169318</v>
+        <v>48476542.53276276</v>
       </c>
       <c r="U12" t="n">
-        <v>39403561.19841677</v>
+        <v>48012645.12112363</v>
       </c>
     </row>
     <row r="13">
@@ -1218,64 +1218,64 @@
         <v>22561132</v>
       </c>
       <c r="B13" t="n">
-        <v>24575038.41802541</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C13" t="n">
-        <v>25911474.55229704</v>
+        <v>25062622.26021924</v>
       </c>
       <c r="D13" t="n">
-        <v>28375090.49711654</v>
+        <v>25842741.6713784</v>
       </c>
       <c r="E13" t="n">
-        <v>29588248.48728685</v>
+        <v>26947630.78352857</v>
       </c>
       <c r="F13" t="n">
-        <v>32057407.37944863</v>
+        <v>28883094.1849333</v>
       </c>
       <c r="G13" t="n">
-        <v>34173496.84822868</v>
+        <v>29110455.00229364</v>
       </c>
       <c r="H13" t="n">
-        <v>36826621.18549401</v>
+        <v>30524294.25265792</v>
       </c>
       <c r="I13" t="n">
-        <v>39043422.28996967</v>
+        <v>31296957.10742793</v>
       </c>
       <c r="J13" t="n">
-        <v>40258719.36823411</v>
+        <v>33362849.72800042</v>
       </c>
       <c r="K13" t="n">
-        <v>44086445.29534861</v>
+        <v>33237546.80654268</v>
       </c>
       <c r="L13" t="n">
-        <v>45971331.73733876</v>
+        <v>34851831.03044805</v>
       </c>
       <c r="M13" t="n">
-        <v>45798674.35893869</v>
+        <v>36747138.19303854</v>
       </c>
       <c r="N13" t="n">
-        <v>49886866.57502618</v>
+        <v>36181846.49335116</v>
       </c>
       <c r="O13" t="n">
-        <v>52599806.83507276</v>
+        <v>35835603.46405002</v>
       </c>
       <c r="P13" t="n">
-        <v>57295098.21371679</v>
+        <v>37576070.34215178</v>
       </c>
       <c r="Q13" t="n">
-        <v>57746111.53926995</v>
+        <v>38745693.43923382</v>
       </c>
       <c r="R13" t="n">
-        <v>56857786.64793039</v>
+        <v>40402239.6125499</v>
       </c>
       <c r="S13" t="n">
-        <v>58297030.39861821</v>
+        <v>42599388.28044812</v>
       </c>
       <c r="T13" t="n">
-        <v>62823031.08352874</v>
+        <v>45906672.70326922</v>
       </c>
       <c r="U13" t="n">
-        <v>66604702.06526224</v>
+        <v>50004505.32919002</v>
       </c>
     </row>
     <row r="14">
@@ -1283,64 +1283,64 @@
         <v>22561132</v>
       </c>
       <c r="B14" t="n">
-        <v>22869892.88252599</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C14" t="n">
-        <v>24512480.35241337</v>
+        <v>25197107.48809083</v>
       </c>
       <c r="D14" t="n">
-        <v>25417985.31763886</v>
+        <v>25395453.0987421</v>
       </c>
       <c r="E14" t="n">
-        <v>25765843.73089166</v>
+        <v>26924148.01197857</v>
       </c>
       <c r="F14" t="n">
-        <v>25519276.88451682</v>
+        <v>29484047.11031493</v>
       </c>
       <c r="G14" t="n">
-        <v>26016884.51590886</v>
+        <v>32115923.54740269</v>
       </c>
       <c r="H14" t="n">
-        <v>27582986.8753781</v>
+        <v>31621875.14249642</v>
       </c>
       <c r="I14" t="n">
-        <v>30205527.17638557</v>
+        <v>31135426.82500567</v>
       </c>
       <c r="J14" t="n">
-        <v>31672551.99260895</v>
+        <v>32647615.09271119</v>
       </c>
       <c r="K14" t="n">
-        <v>33394964.06894053</v>
+        <v>34423052.90751794</v>
       </c>
       <c r="L14" t="n">
-        <v>36375946.2496293</v>
+        <v>34694022.956467</v>
       </c>
       <c r="M14" t="n">
-        <v>37296732.23870263</v>
+        <v>36379045.44770005</v>
       </c>
       <c r="N14" t="n">
-        <v>39758666.27398036</v>
+        <v>36876911.69740263</v>
       </c>
       <c r="O14" t="n">
-        <v>40533931.80526606</v>
+        <v>39525527.21097065</v>
       </c>
       <c r="P14" t="n">
-        <v>42031278.29905594</v>
+        <v>42134582.61239821</v>
       </c>
       <c r="Q14" t="n">
-        <v>41629058.99478856</v>
+        <v>43691058.05734329</v>
       </c>
       <c r="R14" t="n">
-        <v>40988667.31606981</v>
+        <v>47337105.72916133</v>
       </c>
       <c r="S14" t="n">
-        <v>41787916.98718571</v>
+        <v>46608905.54074536</v>
       </c>
       <c r="T14" t="n">
-        <v>44546311.32682053</v>
+        <v>48059691.95757345</v>
       </c>
       <c r="U14" t="n">
-        <v>48522712.08013565</v>
+        <v>47320376.01927012</v>
       </c>
     </row>
     <row r="15">
@@ -1348,64 +1348,64 @@
         <v>22561132</v>
       </c>
       <c r="B15" t="n">
-        <v>22869892.88252599</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C15" t="n">
-        <v>23714719.73242343</v>
+        <v>23049919.21576514</v>
       </c>
       <c r="D15" t="n">
-        <v>23487781.16529721</v>
+        <v>22963349.20628911</v>
       </c>
       <c r="E15" t="n">
-        <v>23536119.00903007</v>
+        <v>23144111.20538256</v>
       </c>
       <c r="F15" t="n">
-        <v>25226556.92986308</v>
+        <v>23595404.80628281</v>
       </c>
       <c r="G15" t="n">
-        <v>26451762.66217401</v>
+        <v>23781142.19606368</v>
       </c>
       <c r="H15" t="n">
-        <v>28351611.25912655</v>
+        <v>25074404.78245132</v>
       </c>
       <c r="I15" t="n">
-        <v>30882401.46398491</v>
+        <v>26292220.77530194</v>
       </c>
       <c r="J15" t="n">
-        <v>32920929.52506793</v>
+        <v>26804900.25925598</v>
       </c>
       <c r="K15" t="n">
-        <v>35094019.55215186</v>
+        <v>27015902.03050617</v>
       </c>
       <c r="L15" t="n">
-        <v>36390412.593465</v>
+        <v>26757372.72189102</v>
       </c>
       <c r="M15" t="n">
-        <v>39215651.39544184</v>
+        <v>26968000.36772123</v>
       </c>
       <c r="N15" t="n">
-        <v>41804252.08753784</v>
+        <v>29218497.82249257</v>
       </c>
       <c r="O15" t="n">
-        <v>45049804.60173337</v>
+        <v>31826670.15576819</v>
       </c>
       <c r="P15" t="n">
-        <v>45404425.90132795</v>
+        <v>33927528.80431046</v>
       </c>
       <c r="Q15" t="n">
-        <v>48929484.74776022</v>
+        <v>35575324.13721128</v>
       </c>
       <c r="R15" t="n">
-        <v>48745717.25084969</v>
+        <v>35234885.23783389</v>
       </c>
       <c r="S15" t="n">
-        <v>51113203.72026353</v>
+        <v>36946176.37798973</v>
       </c>
       <c r="T15" t="n">
-        <v>50326914.74026974</v>
+        <v>40029359.21573993</v>
       </c>
       <c r="U15" t="n">
-        <v>50137898.82896951</v>
+        <v>42671672.25359164</v>
       </c>
     </row>
     <row r="16">
@@ -1413,64 +1413,64 @@
         <v>22561132</v>
       </c>
       <c r="B16" t="n">
-        <v>23394553.04729505</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C16" t="n">
-        <v>25074823.25653873</v>
+        <v>25355994.7086014</v>
       </c>
       <c r="D16" t="n">
-        <v>24689090.10410688</v>
+        <v>24965936.21558915</v>
       </c>
       <c r="E16" t="n">
-        <v>24452827.27683781</v>
+        <v>24727024.10295794</v>
       </c>
       <c r="F16" t="n">
-        <v>26351268.96839934</v>
+        <v>25640454.43634622</v>
       </c>
       <c r="G16" t="n">
-        <v>25945899.88779737</v>
+        <v>26289492.43075169</v>
       </c>
       <c r="H16" t="n">
-        <v>27809415.83295562</v>
+        <v>26190755.35546973</v>
       </c>
       <c r="I16" t="n">
-        <v>28513356.84627181</v>
+        <v>25787855.50152152</v>
       </c>
       <c r="J16" t="n">
-        <v>29566656.4646029</v>
+        <v>25541078.01299097</v>
       </c>
       <c r="K16" t="n">
-        <v>31346439.52904003</v>
+        <v>25445151.80409995</v>
       </c>
       <c r="L16" t="n">
-        <v>33962320.62568544</v>
+        <v>26089246.09405393</v>
       </c>
       <c r="M16" t="n">
-        <v>36796498.72877228</v>
+        <v>28266410.92388862</v>
       </c>
       <c r="N16" t="n">
-        <v>38583634.45628387</v>
+        <v>29803590.73627689</v>
       </c>
       <c r="O16" t="n">
-        <v>38438723.51020924</v>
+        <v>31251094.26658659</v>
       </c>
       <c r="P16" t="n">
-        <v>40752566.10529453</v>
+        <v>31497095.41488332</v>
       </c>
       <c r="Q16" t="n">
-        <v>44390320.38244948</v>
+        <v>33576199.04031634</v>
       </c>
       <c r="R16" t="n">
-        <v>48610871.43094832</v>
+        <v>33254890.81547841</v>
       </c>
       <c r="S16" t="n">
-        <v>48993524.59789691</v>
+        <v>34870017.40480164</v>
       </c>
       <c r="T16" t="n">
-        <v>49948863.25576846</v>
+        <v>34536327.95475544</v>
       </c>
       <c r="U16" t="n">
-        <v>51503611.89246674</v>
+        <v>34005045.77904025</v>
       </c>
     </row>
     <row r="17">
@@ -1478,64 +1478,64 @@
         <v>22561132</v>
       </c>
       <c r="B17" t="n">
-        <v>23788048.17087183</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C17" t="n">
-        <v>25634878.47385417</v>
+        <v>23717007.41923334</v>
       </c>
       <c r="D17" t="n">
-        <v>26432810.39384732</v>
+        <v>25696207.36375958</v>
       </c>
       <c r="E17" t="n">
-        <v>26794557.21864523</v>
+        <v>26346656.63456347</v>
       </c>
       <c r="F17" t="n">
-        <v>28719026.396293</v>
+        <v>27473090.29347082</v>
       </c>
       <c r="G17" t="n">
-        <v>30113854.70619497</v>
+        <v>28647683.86904308</v>
       </c>
       <c r="H17" t="n">
-        <v>31051202.85585041</v>
+        <v>28206988.38355067</v>
       </c>
       <c r="I17" t="n">
-        <v>31476154.79519751</v>
+        <v>27937060.94612213</v>
       </c>
       <c r="J17" t="n">
-        <v>32455906.99707941</v>
+        <v>28644233.04601875</v>
       </c>
       <c r="K17" t="n">
-        <v>35164373.88721816</v>
+        <v>29202775.08557469</v>
       </c>
       <c r="L17" t="n">
-        <v>38303301.41343067</v>
+        <v>31130432.05690398</v>
       </c>
       <c r="M17" t="n">
-        <v>38159443.33153093</v>
+        <v>31556468.28927499</v>
       </c>
       <c r="N17" t="n">
-        <v>38237975.44981453</v>
+        <v>31071026.14404818</v>
       </c>
       <c r="O17" t="n">
-        <v>40539733.89197786</v>
+        <v>32038167.98451231</v>
       </c>
       <c r="P17" t="n">
-        <v>42744359.75361054</v>
+        <v>34339249.74120546</v>
       </c>
       <c r="Q17" t="n">
-        <v>44571866.22711681</v>
+        <v>37404523.03706628</v>
       </c>
       <c r="R17" t="n">
-        <v>46477506.51593716</v>
+        <v>38568806.41425629</v>
       </c>
       <c r="S17" t="n">
-        <v>49545457.73574109</v>
+        <v>39320870.53003303</v>
       </c>
       <c r="T17" t="n">
-        <v>51375695.12253683</v>
+        <v>42830825.32852363</v>
       </c>
       <c r="U17" t="n">
-        <v>52974856.47966673</v>
+        <v>42669962.94458865</v>
       </c>
     </row>
     <row r="18">
@@ -1543,64 +1543,64 @@
         <v>22561132</v>
       </c>
       <c r="B18" t="n">
-        <v>24181543.29444862</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C18" t="n">
-        <v>26058923.33875809</v>
+        <v>23049919.21576514</v>
       </c>
       <c r="D18" t="n">
-        <v>27779056.61691719</v>
+        <v>22963349.20628911</v>
       </c>
       <c r="E18" t="n">
-        <v>28643729.9565838</v>
+        <v>24479145.56649317</v>
       </c>
       <c r="F18" t="n">
-        <v>30367956.89242523</v>
+        <v>26094998.69912042</v>
       </c>
       <c r="G18" t="n">
-        <v>30430454.134903</v>
+        <v>25693571.89710731</v>
       </c>
       <c r="H18" t="n">
-        <v>31200741.61048565</v>
+        <v>26045201.85672972</v>
       </c>
       <c r="I18" t="n">
-        <v>32716102.09268708</v>
+        <v>27915849.98089472</v>
       </c>
       <c r="J18" t="n">
-        <v>32973635.43260597</v>
+        <v>29433965.63950582</v>
       </c>
       <c r="K18" t="n">
-        <v>32466392.60132337</v>
+        <v>29152296.61442604</v>
       </c>
       <c r="L18" t="n">
-        <v>33099464.01613256</v>
+        <v>30737652.53248421</v>
       </c>
       <c r="M18" t="n">
-        <v>36054068.55527051</v>
+        <v>32945327.18854645</v>
       </c>
       <c r="N18" t="n">
-        <v>36337877.56975512</v>
+        <v>35311563.96583341</v>
       </c>
       <c r="O18" t="n">
-        <v>38102738.94272245</v>
+        <v>35589528.16157155</v>
       </c>
       <c r="P18" t="n">
-        <v>37516593.65035907</v>
+        <v>37318043.63179728</v>
       </c>
       <c r="Q18" t="n">
-        <v>39556815.54284448</v>
+        <v>36960927.73731025</v>
       </c>
       <c r="R18" t="n">
-        <v>41937962.37527391</v>
+        <v>37251875.3306306</v>
       </c>
       <c r="S18" t="n">
-        <v>43730991.86894884</v>
+        <v>37111966.1548029</v>
       </c>
       <c r="T18" t="n">
-        <v>43566748.67377522</v>
+        <v>39561703.89611025</v>
       </c>
       <c r="U18" t="n">
-        <v>47708996.01983146</v>
+        <v>42173147.29796259</v>
       </c>
     </row>
     <row r="19">
@@ -1608,64 +1608,64 @@
         <v>22561132</v>
       </c>
       <c r="B19" t="n">
-        <v>23001057.92371826</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C19" t="n">
-        <v>25187956.74085121</v>
+        <v>24339867.01104338</v>
       </c>
       <c r="D19" t="n">
-        <v>27143471.60466307</v>
+        <v>25238995.5412681</v>
       </c>
       <c r="E19" t="n">
-        <v>28619583.89572016</v>
+        <v>26611538.89441828</v>
       </c>
       <c r="F19" t="n">
-        <v>29676807.60167248</v>
+        <v>26511592.28928285</v>
       </c>
       <c r="G19" t="n">
-        <v>30773085.75259857</v>
+        <v>27182681.43595337</v>
       </c>
       <c r="H19" t="n">
-        <v>33520027.4796185</v>
+        <v>28344858.77532192</v>
       </c>
       <c r="I19" t="n">
-        <v>33199256.78984915</v>
+        <v>27908821.73455079</v>
       </c>
       <c r="J19" t="n">
-        <v>34039631.09351561</v>
+        <v>30562341.82224758</v>
       </c>
       <c r="K19" t="n">
-        <v>36088667.61587169</v>
+        <v>30447556.94181502</v>
       </c>
       <c r="L19" t="n">
-        <v>38051236.24421585</v>
+        <v>32811410.85736153</v>
       </c>
       <c r="M19" t="n">
-        <v>41447857.87144747</v>
+        <v>34977271.62549056</v>
       </c>
       <c r="N19" t="n">
-        <v>41533157.54546743</v>
+        <v>36879400.48011944</v>
       </c>
       <c r="O19" t="n">
-        <v>42101560.51291736</v>
+        <v>36312074.1519754</v>
       </c>
       <c r="P19" t="n">
-        <v>45614963.5640991</v>
+        <v>35753475.16642412</v>
       </c>
       <c r="Q19" t="n">
-        <v>45708839.13987717</v>
+        <v>35203469.26826721</v>
       </c>
       <c r="R19" t="n">
-        <v>45271427.33082154</v>
+        <v>36913234.59472972</v>
       </c>
       <c r="S19" t="n">
-        <v>47996568.73335904</v>
+        <v>37418411.50209225</v>
       </c>
       <c r="T19" t="n">
-        <v>47258223.8376038</v>
+        <v>38365585.46172108</v>
       </c>
       <c r="U19" t="n">
-        <v>47904977.32934834</v>
+        <v>40228928.73769229</v>
       </c>
     </row>
     <row r="20">
@@ -1673,64 +1673,64 @@
         <v>22561132</v>
       </c>
       <c r="B20" t="n">
-        <v>22738727.84133373</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C20" t="n">
-        <v>24900684.79062879</v>
+        <v>22522654.17605833</v>
       </c>
       <c r="D20" t="n">
-        <v>25530996.96219948</v>
+        <v>23878419.19185282</v>
       </c>
       <c r="E20" t="n">
-        <v>27958437.78870531</v>
+        <v>26009912.49027302</v>
       </c>
       <c r="F20" t="n">
-        <v>27690888.86202828</v>
+        <v>26819518.02179077</v>
       </c>
       <c r="G20" t="n">
-        <v>27586888.47535682</v>
+        <v>28589857.68063826</v>
       </c>
       <c r="H20" t="n">
-        <v>29247498.18845498</v>
+        <v>31308129.42931791</v>
       </c>
       <c r="I20" t="n">
-        <v>31688221.24296557</v>
+        <v>31008525.54985997</v>
       </c>
       <c r="J20" t="n">
-        <v>33411485.44217148</v>
+        <v>30892064.9095618</v>
       </c>
       <c r="K20" t="n">
-        <v>34257231.89940879</v>
+        <v>33110829.94707383</v>
       </c>
       <c r="L20" t="n">
-        <v>34726060.02178133</v>
+        <v>35103956.71336243</v>
       </c>
       <c r="M20" t="n">
-        <v>34999415.2703466</v>
+        <v>34768028.57561179</v>
       </c>
       <c r="N20" t="n">
-        <v>36902748.33742173</v>
+        <v>36052379.32485036</v>
       </c>
       <c r="O20" t="n">
-        <v>36764150.39946986</v>
+        <v>39060974.20777465</v>
       </c>
       <c r="P20" t="n">
-        <v>39832143.0490053</v>
+        <v>40958091.1881883</v>
       </c>
       <c r="Q20" t="n">
-        <v>39914117.58260205</v>
+        <v>43899829.81905118</v>
       </c>
       <c r="R20" t="n">
-        <v>43477028.23661635</v>
+        <v>43479729.3671534</v>
       </c>
       <c r="S20" t="n">
-        <v>46346919.75642581</v>
+        <v>46855360.74236879</v>
       </c>
       <c r="T20" t="n">
-        <v>49675700.96457691</v>
+        <v>49131036.20337821</v>
       </c>
       <c r="U20" t="n">
-        <v>52088354.96835472</v>
+        <v>50089056.2391196</v>
       </c>
     </row>
     <row r="21">
@@ -1738,64 +1738,64 @@
         <v>22561132</v>
       </c>
       <c r="B21" t="n">
-        <v>23394553.04729505</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C21" t="n">
-        <v>24666792.19930414</v>
+        <v>25762500.64129606</v>
       </c>
       <c r="D21" t="n">
-        <v>25291183.83702639</v>
+        <v>26264850.96183468</v>
       </c>
       <c r="E21" t="n">
-        <v>26813602.19794572</v>
+        <v>28609367.71394268</v>
       </c>
       <c r="F21" t="n">
-        <v>28895327.13458499</v>
+        <v>30331526.19346129</v>
       </c>
       <c r="G21" t="n">
-        <v>31642642.36420894</v>
+        <v>33215392.62144491</v>
       </c>
       <c r="H21" t="n">
-        <v>31339837.35536867</v>
+        <v>35794132.71723194</v>
       </c>
       <c r="I21" t="n">
-        <v>34137369.83688819</v>
+        <v>36075895.57889722</v>
       </c>
       <c r="J21" t="n">
-        <v>36390756.33033241</v>
+        <v>38666979.60133874</v>
       </c>
       <c r="K21" t="n">
-        <v>39216021.81897385</v>
+        <v>38521755.63073983</v>
       </c>
       <c r="L21" t="n">
-        <v>39068735.77650656</v>
+        <v>39720814.89147687</v>
       </c>
       <c r="M21" t="n">
-        <v>39149139.21825845</v>
+        <v>42804615.80165651</v>
       </c>
       <c r="N21" t="n">
-        <v>39912519.40828468</v>
+        <v>42146140.19754627</v>
       </c>
       <c r="O21" t="n">
-        <v>39762617.48667515</v>
+        <v>43703042.58625987</v>
       </c>
       <c r="P21" t="n">
-        <v>42849663.82073323</v>
+        <v>43792983.42947184</v>
       </c>
       <c r="Q21" t="n">
-        <v>46674614.31429915</v>
+        <v>46683730.95451885</v>
       </c>
       <c r="R21" t="n">
-        <v>50840996.80461159</v>
+        <v>46508397.9742477</v>
       </c>
       <c r="S21" t="n">
-        <v>51832359.84800967</v>
+        <v>47685667.17667759</v>
       </c>
       <c r="T21" t="n">
-        <v>51035007.88434465</v>
+        <v>51665067.61967953</v>
       </c>
       <c r="U21" t="n">
-        <v>50249921.81318048</v>
+        <v>52071762.68938974</v>
       </c>
     </row>
     <row r="22">
@@ -1803,64 +1803,64 @@
         <v>22561132</v>
       </c>
       <c r="B22" t="n">
-        <v>22607562.80014147</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C22" t="n">
-        <v>23574134.0063921</v>
+        <v>24390196.12086127</v>
       </c>
       <c r="D22" t="n">
-        <v>23485595.17095328</v>
+        <v>26141976.53986066</v>
       </c>
       <c r="E22" t="n">
-        <v>23943547.46473245</v>
+        <v>27107676.02099543</v>
       </c>
       <c r="F22" t="n">
-        <v>25663248.17571713</v>
+        <v>29054634.37355837</v>
       </c>
       <c r="G22" t="n">
-        <v>26014463.13936425</v>
+        <v>29621178.94521745</v>
       </c>
       <c r="H22" t="n">
-        <v>26521726.54824902</v>
+        <v>29682139.31899479</v>
       </c>
       <c r="I22" t="n">
-        <v>27964027.19085364</v>
+        <v>31123744.18572288</v>
       </c>
       <c r="J22" t="n">
-        <v>29484762.81542948</v>
+        <v>31549688.89108151</v>
       </c>
       <c r="K22" t="n">
-        <v>30059694.58379959</v>
+        <v>33265419.44424893</v>
       </c>
       <c r="L22" t="n">
-        <v>29772037.63089989</v>
+        <v>33527276.87912945</v>
       </c>
       <c r="M22" t="n">
-        <v>31044921.16017877</v>
+        <v>33791195.59318059</v>
       </c>
       <c r="N22" t="n">
-        <v>31108811.59483408</v>
+        <v>33664283.90662217</v>
       </c>
       <c r="O22" t="n">
-        <v>33162284.84745565</v>
+        <v>34320713.34437975</v>
       </c>
       <c r="P22" t="n">
-        <v>34194520.89439767</v>
+        <v>35189475.12903927</v>
       </c>
       <c r="Q22" t="n">
-        <v>37246875.05333488</v>
+        <v>37716893.65328771</v>
       </c>
       <c r="R22" t="n">
-        <v>38406251.35212895</v>
+        <v>38013792.0297012</v>
       </c>
       <c r="S22" t="n">
-        <v>40494854.47924576</v>
+        <v>37429015.03305053</v>
       </c>
       <c r="T22" t="n">
-        <v>44345031.70389047</v>
+        <v>38594060.76787762</v>
       </c>
       <c r="U22" t="n">
-        <v>47014408.15208644</v>
+        <v>38673487.32866194</v>
       </c>
     </row>
     <row r="23">
@@ -1868,64 +1868,64 @@
         <v>22561132</v>
       </c>
       <c r="B23" t="n">
-        <v>23132222.96491052</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C23" t="n">
-        <v>23179829.07001693</v>
+        <v>21872342.34252943</v>
       </c>
       <c r="D23" t="n">
-        <v>24440391.13419211</v>
+        <v>21917355.6138463</v>
       </c>
       <c r="E23" t="n">
-        <v>25627414.29398309</v>
+        <v>23364106.58933848</v>
       </c>
       <c r="F23" t="n">
-        <v>27170072.25398445</v>
+        <v>24363023.3186059</v>
       </c>
       <c r="G23" t="n">
-        <v>28173750.17550886</v>
+        <v>23988239.98748089</v>
       </c>
       <c r="H23" t="n">
-        <v>28231731.74148855</v>
+        <v>25432226.84228421</v>
       </c>
       <c r="I23" t="n">
-        <v>30587688.41464459</v>
+        <v>25780280.15824481</v>
       </c>
       <c r="J23" t="n">
-        <v>30650637.86450242</v>
+        <v>27032379.17113356</v>
       </c>
       <c r="K23" t="n">
-        <v>32495671.85577383</v>
+        <v>28502450.04976689</v>
       </c>
       <c r="L23" t="n">
-        <v>35207457.1496526</v>
+        <v>29058227.42239062</v>
       </c>
       <c r="M23" t="n">
-        <v>36303352.88054721</v>
+        <v>30638467.68344678</v>
       </c>
       <c r="N23" t="n">
-        <v>37011242.27413103</v>
+        <v>30701521.63701838</v>
       </c>
       <c r="O23" t="n">
-        <v>36657062.32243761</v>
+        <v>30229231.37980139</v>
       </c>
       <c r="P23" t="n">
-        <v>37798079.63406967</v>
+        <v>29764206.49821297</v>
       </c>
       <c r="Q23" t="n">
-        <v>40293107.29825442</v>
+        <v>31555881.2083835</v>
       </c>
       <c r="R23" t="n">
-        <v>44124102.76730627</v>
+        <v>33271948.51124208</v>
       </c>
       <c r="S23" t="n">
-        <v>46267126.2403028</v>
+        <v>35855079.43095628</v>
       </c>
       <c r="T23" t="n">
-        <v>45824371.88973518</v>
+        <v>36345774.9318798</v>
       </c>
       <c r="U23" t="n">
-        <v>50181269.95128845</v>
+        <v>37054491.52509698</v>
       </c>
     </row>
     <row r="24">
@@ -1933,64 +1933,64 @@
         <v>22561132</v>
       </c>
       <c r="B24" t="n">
-        <v>23919213.21206409</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C24" t="n">
-        <v>25776226.76215548</v>
+        <v>25358282.3954113</v>
       </c>
       <c r="D24" t="n">
-        <v>25529560.55511925</v>
+        <v>27769301.83455907</v>
       </c>
       <c r="E24" t="n">
-        <v>26324214.26456065</v>
+        <v>28956559.73618478</v>
       </c>
       <c r="F24" t="n">
-        <v>26378389.48641561</v>
+        <v>28511112.7251991</v>
       </c>
       <c r="G24" t="n">
-        <v>25972603.2031557</v>
+        <v>30724627.11588873</v>
       </c>
       <c r="H24" t="n">
-        <v>25573059.24593949</v>
+        <v>32038237.97060764</v>
       </c>
       <c r="I24" t="n">
-        <v>27558472.2742011</v>
+        <v>34711850.1044354</v>
       </c>
       <c r="J24" t="n">
-        <v>27454969.21271137</v>
+        <v>37204964.100685</v>
       </c>
       <c r="K24" t="n">
-        <v>28149938.10253817</v>
+        <v>40742344.52262471</v>
       </c>
       <c r="L24" t="n">
-        <v>28535184.71745057</v>
+        <v>41063058.5255127</v>
       </c>
       <c r="M24" t="n">
-        <v>29091600.39266117</v>
+        <v>42579951.26127926</v>
       </c>
       <c r="N24" t="n">
-        <v>29489734.14815409</v>
+        <v>42915130.46541654</v>
       </c>
       <c r="O24" t="n">
-        <v>31607779.39003097</v>
+        <v>45997429.79813163</v>
       </c>
       <c r="P24" t="n">
-        <v>32224108.46185423</v>
+        <v>46092092.48925804</v>
       </c>
       <c r="Q24" t="n">
-        <v>33789171.91921949</v>
+        <v>48330697.46769617</v>
       </c>
       <c r="R24" t="n">
-        <v>33269383.45773698</v>
+        <v>49835077.76988252</v>
       </c>
       <c r="S24" t="n">
-        <v>35658894.9731281</v>
+        <v>49068450.56564689</v>
       </c>
       <c r="T24" t="n">
-        <v>35317656.34067477</v>
+        <v>50881067.03629059</v>
       </c>
       <c r="U24" t="n">
-        <v>38675594.96817093</v>
+        <v>52760642.59025103</v>
       </c>
     </row>
     <row r="25">
@@ -1998,64 +1998,64 @@
         <v>22561132</v>
       </c>
       <c r="B25" t="n">
-        <v>23394553.04729505</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C25" t="n">
-        <v>23986740.43724649</v>
+        <v>26340094.79082076</v>
       </c>
       <c r="D25" t="n">
-        <v>23896651.95027551</v>
+        <v>28844463.16953854</v>
       </c>
       <c r="E25" t="n">
-        <v>25057266.73547662</v>
+        <v>30245383.70415633</v>
       </c>
       <c r="F25" t="n">
-        <v>25837219.44624964</v>
+        <v>31186825.93157324</v>
       </c>
       <c r="G25" t="n">
-        <v>26341026.72999775</v>
+        <v>31432321.17489021</v>
       </c>
       <c r="H25" t="n">
-        <v>26701517.44738706</v>
+        <v>34420849.19064848</v>
       </c>
       <c r="I25" t="n">
-        <v>28308831.70710142</v>
+        <v>36292718.76204886</v>
       </c>
       <c r="J25" t="n">
-        <v>30506641.62673662</v>
+        <v>37844389.64590586</v>
       </c>
       <c r="K25" t="n">
-        <v>31101499.30042001</v>
+        <v>37482236.87088209</v>
       </c>
       <c r="L25" t="n">
-        <v>32431223.07298084</v>
+        <v>38213113.65837879</v>
       </c>
       <c r="M25" t="n">
-        <v>35514724.86718926</v>
+        <v>38069594.30021758</v>
       </c>
       <c r="N25" t="n">
-        <v>38478452.13026729</v>
+        <v>39697234.30765805</v>
       </c>
       <c r="O25" t="n">
-        <v>41913208.93683306</v>
+        <v>41394462.97351525</v>
       </c>
       <c r="P25" t="n">
-        <v>41999466.30314933</v>
+        <v>43886228.12287983</v>
       </c>
       <c r="Q25" t="n">
-        <v>45260174.64376553</v>
+        <v>47038274.73654545</v>
       </c>
       <c r="R25" t="n">
-        <v>44827056.34013677</v>
+        <v>47135079.48611617</v>
       </c>
       <c r="S25" t="n">
-        <v>46222379.48042817</v>
+        <v>47506115.57143623</v>
       </c>
       <c r="T25" t="n">
-        <v>48736038.14084964</v>
+        <v>51470532.3143089</v>
       </c>
       <c r="U25" t="n">
-        <v>50536375.10746807</v>
+        <v>54868070.05320404</v>
       </c>
     </row>
     <row r="26">
@@ -2063,64 +2063,64 @@
         <v>22561132</v>
       </c>
       <c r="B26" t="n">
-        <v>24050378.25325636</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C26" t="n">
-        <v>24659166.57660446</v>
+        <v>22910858.61427374</v>
       </c>
       <c r="D26" t="n">
-        <v>27003715.35330452</v>
+        <v>23357603.95662016</v>
       </c>
       <c r="E26" t="n">
-        <v>28943206.92449741</v>
+        <v>23269878.3565027</v>
       </c>
       <c r="F26" t="n">
-        <v>28666234.2264603</v>
+        <v>23047196.70936495</v>
       </c>
       <c r="G26" t="n">
-        <v>28391912.02515834</v>
+        <v>22692655.11397795</v>
       </c>
       <c r="H26" t="n">
-        <v>28615406.37389852</v>
+        <v>23794794.07032865</v>
       </c>
       <c r="I26" t="n">
-        <v>28674296.86814824</v>
+        <v>25088799.07093994</v>
       </c>
       <c r="J26" t="n">
-        <v>29233425.13071466</v>
+        <v>26599034.7564319</v>
       </c>
       <c r="K26" t="n">
-        <v>30653236.80556253</v>
+        <v>26653775.55874323</v>
       </c>
       <c r="L26" t="n">
-        <v>31072742.37152277</v>
+        <v>28723092.05067183</v>
       </c>
       <c r="M26" t="n">
-        <v>32581886.17493823</v>
+        <v>31120053.06638625</v>
       </c>
       <c r="N26" t="n">
-        <v>35300866.1107333</v>
+        <v>34078891.19747137</v>
       </c>
       <c r="O26" t="n">
-        <v>34963053.64388254</v>
+        <v>36130291.00592346</v>
       </c>
       <c r="P26" t="n">
-        <v>35644808.1617984</v>
+        <v>37885070.29560592</v>
       </c>
       <c r="Q26" t="n">
-        <v>37168778.06187564</v>
+        <v>41266859.21540235</v>
       </c>
       <c r="R26" t="n">
-        <v>37461361.80329631</v>
+        <v>42791280.4645612</v>
       </c>
       <c r="S26" t="n">
-        <v>39934162.93346299</v>
+        <v>45118349.60161878</v>
       </c>
       <c r="T26" t="n">
-        <v>42802359.82410371</v>
+        <v>45998125.12108897</v>
       </c>
       <c r="U26" t="n">
-        <v>43885817.91354686</v>
+        <v>49569276.93412512</v>
       </c>
     </row>
     <row r="27">
@@ -2128,64 +2128,64 @@
         <v>22561132</v>
       </c>
       <c r="B27" t="n">
-        <v>23394553.04729505</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C27" t="n">
-        <v>23442699.02760037</v>
+        <v>23182116.75682683</v>
       </c>
       <c r="D27" t="n">
-        <v>24990136.97056664</v>
+        <v>24712353.82660932</v>
       </c>
       <c r="E27" t="n">
-        <v>26494433.63026594</v>
+        <v>25194227.03600428</v>
       </c>
       <c r="F27" t="n">
-        <v>29013476.26555659</v>
+        <v>27296701.93389565</v>
       </c>
       <c r="G27" t="n">
-        <v>29410540.85154014</v>
+        <v>29574629.75161449</v>
       </c>
       <c r="H27" t="n">
-        <v>29642053.60305497</v>
+        <v>29635494.32717103</v>
       </c>
       <c r="I27" t="n">
-        <v>32288034.39846212</v>
+        <v>30385658.94882673</v>
       </c>
       <c r="J27" t="n">
-        <v>31791338.36328274</v>
+        <v>31508122.47166242</v>
       </c>
       <c r="K27" t="n">
-        <v>31671937.66440815</v>
+        <v>31206604.75409141</v>
       </c>
       <c r="L27" t="n">
-        <v>33210183.23980375</v>
+        <v>32359394.48187091</v>
       </c>
       <c r="M27" t="n">
-        <v>34436986.29634265</v>
+        <v>33554768.91782183</v>
       </c>
       <c r="N27" t="n">
-        <v>34908274.45158213</v>
+        <v>35769698.28793274</v>
       </c>
       <c r="O27" t="n">
-        <v>36197805.96324122</v>
+        <v>35843312.31192443</v>
       </c>
       <c r="P27" t="n">
-        <v>38587200.56041203</v>
+        <v>38417691.47431272</v>
       </c>
       <c r="Q27" t="n">
-        <v>40236970.47684367</v>
+        <v>38273403.77057517</v>
       </c>
       <c r="R27" t="n">
-        <v>41489418.89941146</v>
+        <v>39687245.07313122</v>
       </c>
       <c r="S27" t="n">
-        <v>44228109.56642818</v>
+        <v>39768921.40675472</v>
       </c>
       <c r="T27" t="n">
-        <v>45604789.40596797</v>
+        <v>41700422.03170517</v>
       </c>
       <c r="U27" t="n">
-        <v>49940809.96372962</v>
+        <v>41786241.48266042</v>
       </c>
     </row>
     <row r="28">
@@ -2193,64 +2193,64 @@
         <v>22561132</v>
       </c>
       <c r="B28" t="n">
-        <v>23525718.08848731</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C28" t="n">
-        <v>25488954.81193306</v>
+        <v>23176016.25866709</v>
       </c>
       <c r="D28" t="n">
-        <v>26134157.88942525</v>
+        <v>22954232.82707777</v>
       </c>
       <c r="E28" t="n">
-        <v>28467008.39990508</v>
+        <v>25136679.5990572</v>
       </c>
       <c r="F28" t="n">
-        <v>29518595.88026758</v>
+        <v>26211381.5001858</v>
       </c>
       <c r="G28" t="n">
-        <v>29579345.13814052</v>
+        <v>27636805.00391197</v>
       </c>
       <c r="H28" t="n">
-        <v>30500055.7115216</v>
+        <v>28657724.29866408</v>
       </c>
       <c r="I28" t="n">
-        <v>33222625.56961054</v>
+        <v>28383483.53331592</v>
       </c>
       <c r="J28" t="n">
-        <v>35608778.78675561</v>
+        <v>28606911.53498185</v>
       </c>
       <c r="K28" t="n">
-        <v>37959292.06734854</v>
+        <v>29164725.831789</v>
       </c>
       <c r="L28" t="n">
-        <v>38037412.27441486</v>
+        <v>29055190.06431017</v>
       </c>
       <c r="M28" t="n">
-        <v>39884816.80490462</v>
+        <v>31310944.93264717</v>
       </c>
       <c r="N28" t="n">
-        <v>41590065.43479943</v>
+        <v>33377760.880839</v>
       </c>
       <c r="O28" t="n">
-        <v>41917452.49419069</v>
+        <v>36551257.7708922</v>
       </c>
       <c r="P28" t="n">
-        <v>42003718.59374621</v>
+        <v>39176483.79759409</v>
       </c>
       <c r="Q28" t="n">
-        <v>43555359.84741585</v>
+        <v>42901312.7320076</v>
       </c>
       <c r="R28" t="n">
-        <v>44404658.18553805</v>
+        <v>44984947.62633976</v>
       </c>
       <c r="S28" t="n">
-        <v>47593940.07307704</v>
+        <v>46123653.66052171</v>
       </c>
       <c r="T28" t="n">
-        <v>49352087.28752539</v>
+        <v>46218576.12030369</v>
       </c>
       <c r="U28" t="n">
-        <v>53470551.59017231</v>
+        <v>50075546.84499996</v>
       </c>
     </row>
     <row r="29">
@@ -2258,64 +2258,64 @@
         <v>22561132</v>
       </c>
       <c r="B29" t="n">
-        <v>24050378.25325636</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C29" t="n">
-        <v>26057398.21421815</v>
+        <v>25637166.16066407</v>
       </c>
       <c r="D29" t="n">
-        <v>26565498.8263277</v>
+        <v>25838975.80805746</v>
       </c>
       <c r="E29" t="n">
-        <v>28473516.31148062</v>
+        <v>27694812.13029347</v>
       </c>
       <c r="F29" t="n">
-        <v>29028729.49691985</v>
+        <v>27429785.9755426</v>
       </c>
       <c r="G29" t="n">
-        <v>29257236.72066442</v>
+        <v>29878289.97885275</v>
       </c>
       <c r="H29" t="n">
-        <v>30678204.87899843</v>
+        <v>29766074.23430351</v>
       </c>
       <c r="I29" t="n">
-        <v>31276407.91328817</v>
+        <v>31038702.80255485</v>
       </c>
       <c r="J29" t="n">
-        <v>30795274.01664183</v>
+        <v>30922128.82367934</v>
       </c>
       <c r="K29" t="n">
-        <v>31395759.81531221</v>
+        <v>31165540.43459812</v>
       </c>
       <c r="L29" t="n">
-        <v>33833229.2619679</v>
+        <v>32316813.22306099</v>
       </c>
       <c r="M29" t="n">
-        <v>33902858.0335208</v>
+        <v>34637908.15514305</v>
       </c>
       <c r="N29" t="n">
-        <v>33381320.70614168</v>
+        <v>35313322.56878237</v>
       </c>
       <c r="O29" t="n">
-        <v>33838161.52605761</v>
+        <v>34975390.89956392</v>
       </c>
       <c r="P29" t="n">
-        <v>34301254.45135243</v>
+        <v>35454047.40318444</v>
       </c>
       <c r="Q29" t="n">
-        <v>36565458.86599216</v>
+        <v>37382104.20821636</v>
       </c>
       <c r="R29" t="n">
-        <v>38341373.42824297</v>
+        <v>37459036.562912</v>
       </c>
       <c r="S29" t="n">
-        <v>41540986.38197082</v>
+        <v>37536127.24436116</v>
       </c>
       <c r="T29" t="n">
-        <v>42834024.65621047</v>
+        <v>40886767.96421677</v>
       </c>
       <c r="U29" t="n">
-        <v>45412445.10615463</v>
+        <v>40495501.0784633</v>
       </c>
     </row>
     <row r="30">
@@ -2323,64 +2323,64 @@
         <v>22561132</v>
       </c>
       <c r="B30" t="n">
-        <v>24575038.41802541</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C30" t="n">
-        <v>24911360.66240835</v>
+        <v>23176016.25866709</v>
       </c>
       <c r="D30" t="n">
-        <v>26266086.62363801</v>
+        <v>22954232.82707777</v>
       </c>
       <c r="E30" t="n">
-        <v>27236370.80185277</v>
+        <v>24602877.85643179</v>
       </c>
       <c r="F30" t="n">
-        <v>29667609.71138848</v>
+        <v>26942074.80383897</v>
       </c>
       <c r="G30" t="n">
-        <v>31453469.71858524</v>
+        <v>29347043.55107966</v>
       </c>
       <c r="H30" t="n">
-        <v>31518200.94600146</v>
+        <v>28895589.61628231</v>
       </c>
       <c r="I30" t="n">
-        <v>32132783.30229046</v>
+        <v>28619072.59319387</v>
       </c>
       <c r="J30" t="n">
-        <v>32946161.91384974</v>
+        <v>30009046.33761298</v>
       </c>
       <c r="K30" t="n">
-        <v>35120917.51518118</v>
+        <v>31989924.77146491</v>
       </c>
       <c r="L30" t="n">
-        <v>35601565.62659287</v>
+        <v>33729596.16769998</v>
       </c>
       <c r="M30" t="n">
-        <v>35467854.62115265</v>
+        <v>35956065.77554578</v>
       </c>
       <c r="N30" t="n">
-        <v>37396662.28828671</v>
+        <v>38329503.25368609</v>
       </c>
       <c r="O30" t="n">
-        <v>38125870.43268098</v>
+        <v>39745416.90305377</v>
       </c>
       <c r="P30" t="n">
-        <v>39534261.76982843</v>
+        <v>40520424.0810909</v>
       </c>
       <c r="Q30" t="n">
-        <v>40764837.1139513</v>
+        <v>43666304.16949124</v>
       </c>
       <c r="R30" t="n">
-        <v>43218701.54758479</v>
+        <v>46548689.6755894</v>
       </c>
       <c r="S30" t="n">
-        <v>43307645.61714343</v>
+        <v>50162585.61356155</v>
       </c>
       <c r="T30" t="n">
-        <v>43396772.73355971</v>
+        <v>50849086.81411429</v>
       </c>
       <c r="U30" t="n">
-        <v>44495277.22413275</v>
+        <v>53023105.46500371</v>
       </c>
     </row>
     <row r="31">
@@ -2391,61 +2391,61 @@
         <v>23132222.96491052</v>
       </c>
       <c r="C31" t="n">
-        <v>23179829.07001693</v>
+        <v>24659166.57660446</v>
       </c>
       <c r="D31" t="n">
-        <v>24170867.13736444</v>
+        <v>26286902.78384054</v>
       </c>
       <c r="E31" t="n">
-        <v>25204276.37354003</v>
+        <v>27716433.27493601</v>
       </c>
       <c r="F31" t="n">
-        <v>25256146.76368757</v>
+        <v>28901430.81670342</v>
       </c>
       <c r="G31" t="n">
-        <v>25308123.90307616</v>
+        <v>29464988.02867388</v>
       </c>
       <c r="H31" t="n">
-        <v>25507343.40842478</v>
+        <v>31067348.68535214</v>
       </c>
       <c r="I31" t="n">
-        <v>27191067.23937085</v>
+        <v>33118084.99717681</v>
       </c>
       <c r="J31" t="n">
-        <v>26772779.30262563</v>
+        <v>35304189.13402026</v>
       </c>
       <c r="K31" t="n">
-        <v>27917431.55081307</v>
+        <v>37224096.36864161</v>
       </c>
       <c r="L31" t="n">
-        <v>27812580.32373166</v>
+        <v>37517115.56255779</v>
       </c>
       <c r="M31" t="n">
-        <v>29971862.82463452</v>
+        <v>39557365.83759583</v>
       </c>
       <c r="N31" t="n">
-        <v>32298785.32385595</v>
+        <v>39178820.69669762</v>
       </c>
       <c r="O31" t="n">
-        <v>35181917.74195175</v>
+        <v>39259450.69316884</v>
       </c>
       <c r="P31" t="n">
-        <v>37708793.47094535</v>
+        <v>42307432.71749344</v>
       </c>
       <c r="Q31" t="n">
-        <v>41074847.14179535</v>
+        <v>43870293.34362595</v>
       </c>
       <c r="R31" t="n">
-        <v>42830974.72172877</v>
+        <v>47531298.31854708</v>
       </c>
       <c r="S31" t="n">
-        <v>44413175.28725229</v>
+        <v>50668809.67805274</v>
       </c>
       <c r="T31" t="n">
-        <v>46570238.46092919</v>
+        <v>54897155.33445658</v>
       </c>
       <c r="U31" t="n">
-        <v>50456555.64037648</v>
+        <v>60116677.16962788</v>
       </c>
     </row>
     <row r="32">
@@ -2453,64 +2453,64 @@
         <v>22561132</v>
       </c>
       <c r="B32" t="n">
-        <v>24443873.37683315</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C32" t="n">
-        <v>26767952.46707452</v>
+        <v>24352068.00736287</v>
       </c>
       <c r="D32" t="n">
-        <v>26978663.39413134</v>
+        <v>26667418.40979489</v>
       </c>
       <c r="E32" t="n">
-        <v>27191032.9872679</v>
+        <v>28427718.0681102</v>
       </c>
       <c r="F32" t="n">
-        <v>27563156.48452603</v>
+        <v>28486222.29990577</v>
       </c>
       <c r="G32" t="n">
-        <v>27940372.68632673</v>
+        <v>29704131.65587452</v>
       </c>
       <c r="H32" t="n">
-        <v>27997873.96153212</v>
+        <v>29247184.53299169</v>
       </c>
       <c r="I32" t="n">
-        <v>28055493.57433762</v>
+        <v>31687881.41274656</v>
       </c>
       <c r="J32" t="n">
-        <v>30722958.95420315</v>
+        <v>32489998.20245266</v>
       </c>
       <c r="K32" t="n">
-        <v>31500650.6176384</v>
+        <v>32556862.60505155</v>
       </c>
       <c r="L32" t="n">
-        <v>31382341.67273742</v>
+        <v>35463032.14260334</v>
       </c>
       <c r="M32" t="n">
-        <v>32906522.12342988</v>
+        <v>36979230.33072322</v>
       </c>
       <c r="N32" t="n">
-        <v>35269971.7991744</v>
+        <v>36625356.71807364</v>
       </c>
       <c r="O32" t="n">
-        <v>36162762.20646235</v>
+        <v>37339524.95598427</v>
       </c>
       <c r="P32" t="n">
-        <v>37288393.53368276</v>
+        <v>40455532.9925458</v>
       </c>
       <c r="Q32" t="n">
-        <v>37798704.68719387</v>
+        <v>42420381.03201346</v>
       </c>
       <c r="R32" t="n">
-        <v>38535752.37056664</v>
+        <v>44234036.01226051</v>
       </c>
       <c r="S32" t="n">
-        <v>41079473.35204405</v>
+        <v>47668229.41660574</v>
       </c>
       <c r="T32" t="n">
-        <v>44507582.55411813</v>
+        <v>48597725.76714852</v>
       </c>
       <c r="U32" t="n">
-        <v>44857935.61128871</v>
+        <v>51240560.16088858</v>
       </c>
     </row>
     <row r="33">
@@ -2518,64 +2518,64 @@
         <v>22561132</v>
       </c>
       <c r="B33" t="n">
-        <v>24706203.45921767</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C33" t="n">
-        <v>26767952.46707452</v>
+        <v>25637928.72293404</v>
       </c>
       <c r="D33" t="n">
-        <v>27289908.3784678</v>
+        <v>27926483.6234592</v>
       </c>
       <c r="E33" t="n">
-        <v>28139356.09522127</v>
+        <v>27821598.3989478</v>
       </c>
       <c r="F33" t="n">
-        <v>28688053.39565048</v>
+        <v>28040603.37506825</v>
       </c>
       <c r="G33" t="n">
-        <v>28580307.89636857</v>
+        <v>30054567.49761825</v>
       </c>
       <c r="H33" t="n">
-        <v>29469921.63013386</v>
+        <v>32912101.19576212</v>
       </c>
       <c r="I33" t="n">
-        <v>29016577.4268264</v>
+        <v>35658637.79329548</v>
       </c>
       <c r="J33" t="n">
-        <v>29244988.99237828</v>
+        <v>35939334.07128876</v>
       </c>
       <c r="K33" t="n">
-        <v>32025549.43645021</v>
+        <v>35595411.77030294</v>
       </c>
       <c r="L33" t="n">
-        <v>32836213.63226503</v>
+        <v>35875610.34814768</v>
       </c>
       <c r="M33" t="n">
-        <v>33858300.12335653</v>
+        <v>37200875.79797981</v>
       </c>
       <c r="N33" t="n">
-        <v>34715356.82102922</v>
+        <v>36628604.12340128</v>
       </c>
       <c r="O33" t="n">
-        <v>35190454.62238359</v>
+        <v>37981685.59154218</v>
       </c>
       <c r="P33" t="n">
-        <v>35672054.38544947</v>
+        <v>39605567.12101953</v>
       </c>
       <c r="Q33" t="n">
-        <v>37404577.99689092</v>
+        <v>42450163.22931512</v>
       </c>
       <c r="R33" t="n">
-        <v>38351401.78837067</v>
+        <v>42043935.3958753</v>
       </c>
       <c r="S33" t="n">
-        <v>41105919.80705044</v>
+        <v>43108195.4531218</v>
       </c>
       <c r="T33" t="n">
-        <v>43341335.90806129</v>
+        <v>43698153.63749876</v>
       </c>
       <c r="U33" t="n">
-        <v>43430532.35908207</v>
+        <v>47344793.44017049</v>
       </c>
     </row>
     <row r="34">
@@ -2583,64 +2583,64 @@
         <v>22561132</v>
       </c>
       <c r="B34" t="n">
-        <v>24050378.25325636</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C34" t="n">
-        <v>25637928.72293404</v>
+        <v>25906136.61640726</v>
       </c>
       <c r="D34" t="n">
-        <v>26286902.78384054</v>
+        <v>27164348.23730738</v>
       </c>
       <c r="E34" t="n">
-        <v>27716433.27493601</v>
+        <v>28009887.66775424</v>
       </c>
       <c r="F34" t="n">
-        <v>30029387.95047964</v>
+        <v>28393217.61927218</v>
       </c>
       <c r="G34" t="n">
-        <v>30614939.51911585</v>
+        <v>28286579.45297986</v>
       </c>
       <c r="H34" t="n">
-        <v>32279836.66905791</v>
+        <v>28180341.79425461</v>
       </c>
       <c r="I34" t="n">
-        <v>34973610.37395228</v>
+        <v>29712841.00786084</v>
       </c>
       <c r="J34" t="n">
-        <v>36672211.89253882</v>
+        <v>29946733.39398785</v>
       </c>
       <c r="K34" t="n">
-        <v>39945735.70745962</v>
+        <v>30704776.42435931</v>
       </c>
       <c r="L34" t="n">
-        <v>40027944.01469956</v>
+        <v>33624130.80646889</v>
       </c>
       <c r="M34" t="n">
-        <v>40575747.34831242</v>
+        <v>34084294.60950744</v>
       </c>
       <c r="N34" t="n">
-        <v>40423354.50044343</v>
+        <v>33559966.19157084</v>
       </c>
       <c r="O34" t="n">
-        <v>43091674.92132652</v>
+        <v>34604580.78904037</v>
       </c>
       <c r="P34" t="n">
-        <v>43430882.29186682</v>
+        <v>35480528.12329368</v>
       </c>
       <c r="Q34" t="n">
-        <v>45540237.36918712</v>
+        <v>35966097.69382039</v>
       </c>
       <c r="R34" t="n">
-        <v>47222519.63774939</v>
+        <v>37922000.74264367</v>
       </c>
       <c r="S34" t="n">
-        <v>48417865.43446864</v>
+        <v>37338635.79752215</v>
       </c>
       <c r="T34" t="n">
-        <v>52458368.30601842</v>
+        <v>37849634.54267198</v>
       </c>
       <c r="U34" t="n">
-        <v>52261347.16252378</v>
+        <v>39687919.06705186</v>
       </c>
     </row>
     <row r="35">
@@ -2648,64 +2648,64 @@
         <v>22561132</v>
       </c>
       <c r="B35" t="n">
-        <v>22869892.88252599</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C35" t="n">
-        <v>23448799.52576011</v>
+        <v>22776373.38640215</v>
       </c>
       <c r="D35" t="n">
-        <v>24315011.51630077</v>
+        <v>24412243.99262461</v>
       </c>
       <c r="E35" t="n">
-        <v>25354583.54885802</v>
+        <v>26733315.81845486</v>
       </c>
       <c r="F35" t="n">
-        <v>25848979.77809967</v>
+        <v>27099175.21704143</v>
       </c>
       <c r="G35" t="n">
-        <v>26353016.37990028</v>
+        <v>26997397.16596143</v>
       </c>
       <c r="H35" t="n">
-        <v>25947620.41836918</v>
+        <v>28465565.6583211</v>
       </c>
       <c r="I35" t="n">
-        <v>27962113.21469729</v>
+        <v>30675543.91596114</v>
       </c>
       <c r="J35" t="n">
-        <v>28182224.28987885</v>
+        <v>30917014.46939458</v>
       </c>
       <c r="K35" t="n">
-        <v>30861738.99603323</v>
+        <v>33317315.61178666</v>
       </c>
       <c r="L35" t="n">
-        <v>32360634.76814163</v>
+        <v>32804785.85035953</v>
       </c>
       <c r="M35" t="n">
-        <v>32803506.96755577</v>
+        <v>34398051.70042538</v>
       </c>
       <c r="N35" t="n">
-        <v>35922404.83838742</v>
+        <v>35668735.29347725</v>
       </c>
       <c r="O35" t="n">
-        <v>37458243.19845365</v>
+        <v>36156880.57749049</v>
       </c>
       <c r="P35" t="n">
-        <v>40366385.05769602</v>
+        <v>36861913.86601622</v>
       </c>
       <c r="Q35" t="n">
-        <v>42326903.35208173</v>
+        <v>39080839.435095</v>
       </c>
       <c r="R35" t="n">
-        <v>44136561.75672937</v>
+        <v>42796574.67721365</v>
       </c>
       <c r="S35" t="n">
-        <v>45766991.44985363</v>
+        <v>46119168.04048529</v>
       </c>
       <c r="T35" t="n">
-        <v>48788042.01325224</v>
+        <v>49699717.2504788</v>
       </c>
       <c r="U35" t="n">
-        <v>48321163.70002285</v>
+        <v>53847191.50329487</v>
       </c>
     </row>
     <row r="36">
@@ -2713,64 +2713,64 @@
         <v>22561132</v>
       </c>
       <c r="B36" t="n">
-        <v>23263388.00610278</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C36" t="n">
-        <v>23040768.46852553</v>
+        <v>24911360.66240835</v>
       </c>
       <c r="D36" t="n">
-        <v>23757954.02651285</v>
+        <v>24962628.23214591</v>
       </c>
       <c r="E36" t="n">
-        <v>25878694.07152242</v>
+        <v>25449381.61329107</v>
       </c>
       <c r="F36" t="n">
-        <v>28038288.19591573</v>
+        <v>25501756.42991865</v>
       </c>
       <c r="G36" t="n">
-        <v>28422006.8235045</v>
+        <v>25405977.90353303</v>
       </c>
       <c r="H36" t="n">
-        <v>27984782.99232113</v>
+        <v>25753671.98904837</v>
       </c>
       <c r="I36" t="n">
-        <v>27879678.80925862</v>
+        <v>25357495.91309374</v>
       </c>
       <c r="J36" t="n">
-        <v>28747484.19650684</v>
+        <v>26883905.97020279</v>
       </c>
       <c r="K36" t="n">
-        <v>30477956.68261195</v>
+        <v>26626639.80098501</v>
       </c>
       <c r="L36" t="n">
-        <v>30363488.73267574</v>
+        <v>29003451.42487226</v>
       </c>
       <c r="M36" t="n">
-        <v>29896398.53196498</v>
+        <v>31761046.91566144</v>
       </c>
       <c r="N36" t="n">
-        <v>32738893.81209166</v>
+        <v>33118969.20478416</v>
       </c>
       <c r="O36" t="n">
-        <v>35090303.89651772</v>
+        <v>35690223.28547121</v>
       </c>
       <c r="P36" t="n">
-        <v>35162519.72713839</v>
+        <v>35141190.40902566</v>
       </c>
       <c r="Q36" t="n">
-        <v>35643737.18656325</v>
+        <v>37869443.47392949</v>
       </c>
       <c r="R36" t="n">
-        <v>39032678.98871895</v>
+        <v>41029673.56105503</v>
       </c>
       <c r="S36" t="n">
-        <v>41609201.7863564</v>
+        <v>40875575.8743894</v>
       </c>
       <c r="T36" t="n">
-        <v>43871987.2941381</v>
+        <v>42147902.04404702</v>
       </c>
       <c r="U36" t="n">
-        <v>43707214.55371182</v>
+        <v>45665172.32663026</v>
       </c>
     </row>
     <row r="37">
@@ -2778,64 +2778,64 @@
         <v>22561132</v>
       </c>
       <c r="B37" t="n">
-        <v>22214067.67656468</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C37" t="n">
-        <v>22776373.38640215</v>
+        <v>24494178.85793414</v>
       </c>
       <c r="D37" t="n">
-        <v>24809493.20247425</v>
+        <v>24686991.18233585</v>
       </c>
       <c r="E37" t="n">
-        <v>27168334.76176668</v>
+        <v>25455418.39735333</v>
       </c>
       <c r="F37" t="n">
-        <v>27224247.18324891</v>
+        <v>26691739.49442266</v>
       </c>
       <c r="G37" t="n">
-        <v>27121999.39163757</v>
+        <v>27367388.71552601</v>
       </c>
       <c r="H37" t="n">
-        <v>29543029.00329448</v>
+        <v>27105495.84682825</v>
       </c>
       <c r="I37" t="n">
-        <v>30806121.42207713</v>
+        <v>28737127.83467615</v>
       </c>
       <c r="J37" t="n">
-        <v>31585918.18086054</v>
+        <v>31469401.76215699</v>
       </c>
       <c r="K37" t="n">
-        <v>31283655.99542429</v>
+        <v>32083032.56929369</v>
       </c>
       <c r="L37" t="n">
-        <v>32984919.18668515</v>
+        <v>33454721.13938964</v>
       </c>
       <c r="M37" t="n">
-        <v>34011634.40689948</v>
+        <v>34496059.79441059</v>
       </c>
       <c r="N37" t="n">
-        <v>34279365.86769801</v>
+        <v>36372019.45783191</v>
       </c>
       <c r="O37" t="n">
-        <v>35944249.25538571</v>
+        <v>36658331.3058642</v>
       </c>
       <c r="P37" t="n">
-        <v>37272050.2654883</v>
+        <v>37586265.32076538</v>
       </c>
       <c r="Q37" t="n">
-        <v>39082282.62368213</v>
+        <v>38319170.58856653</v>
       </c>
       <c r="R37" t="n">
-        <v>42343724.93946192</v>
+        <v>40848595.14168354</v>
       </c>
       <c r="S37" t="n">
-        <v>44892631.49650406</v>
+        <v>41882597.49647244</v>
       </c>
       <c r="T37" t="n">
-        <v>44724025.45942093</v>
+        <v>45621223.37312264</v>
       </c>
       <c r="U37" t="n">
-        <v>47416215.66974885</v>
+        <v>47041266.39753879</v>
       </c>
     </row>
     <row r="38">
@@ -2843,64 +2843,64 @@
         <v>22561132</v>
       </c>
       <c r="B38" t="n">
-        <v>22476397.75894921</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C38" t="n">
-        <v>23045343.84214534</v>
+        <v>24943388.277747</v>
       </c>
       <c r="D38" t="n">
-        <v>24164612.21701611</v>
+        <v>26009826.1378886</v>
       </c>
       <c r="E38" t="n">
-        <v>25338241.32104618</v>
+        <v>26516999.12856397</v>
       </c>
       <c r="F38" t="n">
-        <v>26421560.85860375</v>
+        <v>27650715.66671653</v>
       </c>
       <c r="G38" t="n">
-        <v>26322327.76574603</v>
+        <v>29958186.16441921</v>
       </c>
       <c r="H38" t="n">
-        <v>26223467.36876237</v>
+        <v>32806556.10043241</v>
       </c>
       <c r="I38" t="n">
-        <v>26582349.22485322</v>
+        <v>32683342.48541254</v>
       </c>
       <c r="J38" t="n">
-        <v>27873403.20178442</v>
+        <v>32750604.79046422</v>
       </c>
       <c r="K38" t="n">
-        <v>28254865.29205479</v>
+        <v>34912451.78803857</v>
       </c>
       <c r="L38" t="n">
-        <v>27984479.69542653</v>
+        <v>34984301.59909499</v>
       </c>
       <c r="M38" t="n">
-        <v>27553986.46874878</v>
+        <v>35666470.43692724</v>
       </c>
       <c r="N38" t="n">
-        <v>27610692.56128133</v>
+        <v>35739872.01804509</v>
       </c>
       <c r="O38" t="n">
-        <v>29754301.1222789</v>
+        <v>35813424.65958592</v>
       </c>
       <c r="P38" t="n">
-        <v>32410301.62766215</v>
+        <v>36928182.22433505</v>
       </c>
       <c r="Q38" t="n">
-        <v>35114962.71958086</v>
+        <v>39151096.8579868</v>
       </c>
       <c r="R38" t="n">
-        <v>36207979.39418304</v>
+        <v>41735436.3453243</v>
       </c>
       <c r="S38" t="n">
-        <v>37335018.18808801</v>
+        <v>43519806.97422924</v>
       </c>
       <c r="T38" t="n">
-        <v>40884763.91647789</v>
+        <v>42850329.3804832</v>
       </c>
       <c r="U38" t="n">
-        <v>44534318.75489861</v>
+        <v>45927974.49594011</v>
       </c>
     </row>
     <row r="39">
@@ -2908,64 +2908,64 @@
         <v>22561132</v>
       </c>
       <c r="B39" t="n">
-        <v>23525718.08848731</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C39" t="n">
-        <v>23984452.75043659</v>
+        <v>26337044.54174089</v>
       </c>
       <c r="D39" t="n">
-        <v>23615493.07825362</v>
+        <v>27463067.24205725</v>
       </c>
       <c r="E39" t="n">
-        <v>25448926.73886782</v>
+        <v>27998577.393968</v>
       </c>
       <c r="F39" t="n">
-        <v>25797208.60164102</v>
+        <v>30335077.18272367</v>
       </c>
       <c r="G39" t="n">
-        <v>25700320.42723164</v>
+        <v>30926589.47256242</v>
       </c>
       <c r="H39" t="n">
-        <v>26052042.74401578</v>
+        <v>31529635.8286217</v>
       </c>
       <c r="I39" t="n">
-        <v>26862959.6558193</v>
+        <v>33060970.07539609</v>
       </c>
       <c r="J39" t="n">
-        <v>29417041.07637097</v>
+        <v>33705635.32532416</v>
       </c>
       <c r="K39" t="n">
-        <v>29306557.67289785</v>
+        <v>34754784.13783583</v>
       </c>
       <c r="L39" t="n">
-        <v>31922590.61786181</v>
+        <v>35634533.5763185</v>
       </c>
       <c r="M39" t="n">
-        <v>34029780.91628688</v>
+        <v>37365234.87365835</v>
       </c>
       <c r="N39" t="n">
-        <v>37265270.68723264</v>
+        <v>38093830.20596454</v>
       </c>
       <c r="O39" t="n">
-        <v>37991916.78946242</v>
+        <v>40386911.73654909</v>
       </c>
       <c r="P39" t="n">
-        <v>40278863.57928092</v>
+        <v>43052826.59331474</v>
       </c>
       <c r="Q39" t="n">
-        <v>42937646.24456865</v>
+        <v>47146211.16125075</v>
       </c>
       <c r="R39" t="n">
-        <v>43525270.37389256</v>
+        <v>49984206.32913954</v>
       </c>
       <c r="S39" t="n">
-        <v>46398346.32709781</v>
+        <v>50087073.80468545</v>
       </c>
       <c r="T39" t="n">
-        <v>45954336.26282953</v>
+        <v>49898958.67884446</v>
       </c>
       <c r="U39" t="n">
-        <v>50056423.54886687</v>
+        <v>54063059.7605432</v>
       </c>
     </row>
     <row r="40">
@@ -2973,64 +2973,64 @@
         <v>22561132</v>
       </c>
       <c r="B40" t="n">
-        <v>23001057.92371826</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C40" t="n">
-        <v>22647226.09442033</v>
+        <v>23975302.00319697</v>
       </c>
       <c r="D40" t="n">
-        <v>24537152.08033542</v>
+        <v>23885256.47626133</v>
       </c>
       <c r="E40" t="n">
-        <v>25586221.58393076</v>
+        <v>26017360.10092545</v>
       </c>
       <c r="F40" t="n">
-        <v>27721408.68592936</v>
+        <v>28339784.72427024</v>
       </c>
       <c r="G40" t="n">
-        <v>29873612.9035592</v>
+        <v>29716193.98983789</v>
       </c>
       <c r="H40" t="n">
-        <v>30803483.09294128</v>
+        <v>32196030.01875117</v>
       </c>
       <c r="I40" t="n">
-        <v>33553138.22099122</v>
+        <v>33759729.7597147</v>
       </c>
       <c r="J40" t="n">
-        <v>33232050.67720511</v>
+        <v>35988188.46717682</v>
       </c>
       <c r="K40" t="n">
-        <v>35618880.83515251</v>
+        <v>36480705.63482769</v>
       </c>
       <c r="L40" t="n">
-        <v>38591299.98259736</v>
+        <v>39949224.87709755</v>
       </c>
       <c r="M40" t="n">
-        <v>41138687.6273031</v>
+        <v>42121737.76410633</v>
       </c>
       <c r="N40" t="n">
-        <v>43375885.70310812</v>
+        <v>41473767.06746666</v>
       </c>
       <c r="O40" t="n">
-        <v>46995632.03365692</v>
+        <v>44693661.74940269</v>
       </c>
       <c r="P40" t="n">
-        <v>48731677.40885276</v>
+        <v>44265964.70421409</v>
       </c>
       <c r="Q40" t="n">
-        <v>49965224.58517041</v>
+        <v>43585008.75345418</v>
       </c>
       <c r="R40" t="n">
-        <v>53844369.7002456</v>
+        <v>45701849.45890687</v>
       </c>
       <c r="S40" t="n">
-        <v>53642143.06545579</v>
+        <v>45795903.84581982</v>
       </c>
       <c r="T40" t="n">
-        <v>56247439.59323668</v>
+        <v>50150095.217456</v>
       </c>
       <c r="U40" t="n">
-        <v>57017215.20062354</v>
+        <v>51419546.86855628</v>
       </c>
     </row>
     <row r="41">
@@ -3038,64 +3038,64 @@
         <v>22561132</v>
       </c>
       <c r="B41" t="n">
-        <v>24575038.41802541</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C41" t="n">
-        <v>25768601.1394558</v>
+        <v>22259784.21847488</v>
       </c>
       <c r="D41" t="n">
-        <v>26271070.41534153</v>
+        <v>22693834.07617181</v>
       </c>
       <c r="E41" t="n">
-        <v>27699739.91289578</v>
+        <v>23004411.05596419</v>
       </c>
       <c r="F41" t="n">
-        <v>29689222.15200265</v>
+        <v>24255433.56343169</v>
       </c>
       <c r="G41" t="n">
-        <v>32512019.47815782</v>
+        <v>25433473.68695023</v>
       </c>
       <c r="H41" t="n">
-        <v>34280083.35214482</v>
+        <v>27408049.72520962</v>
       </c>
       <c r="I41" t="n">
-        <v>35147816.66795491</v>
+        <v>27305111.61500539</v>
       </c>
       <c r="J41" t="n">
-        <v>35628832.9083306</v>
+        <v>26885069.30112736</v>
       </c>
       <c r="K41" t="n">
-        <v>37980669.94898211</v>
+        <v>28190825.81450726</v>
       </c>
       <c r="L41" t="n">
-        <v>38279644.70938013</v>
+        <v>29068316.21460044</v>
       </c>
       <c r="M41" t="n">
-        <v>39471167.83014565</v>
+        <v>29804123.83078389</v>
       </c>
       <c r="N41" t="n">
-        <v>40929255.21826777</v>
+        <v>30385282.91034031</v>
       </c>
       <c r="O41" t="n">
-        <v>40775534.67899278</v>
+        <v>30624468.59847978</v>
       </c>
       <c r="P41" t="n">
-        <v>42992983.82443466</v>
+        <v>31043580.45649099</v>
       </c>
       <c r="Q41" t="n">
-        <v>45580972.91924339</v>
+        <v>30566028.21096793</v>
       </c>
       <c r="R41" t="n">
-        <v>47264759.98219231</v>
+        <v>33116783.46731937</v>
       </c>
       <c r="S41" t="n">
-        <v>48186388.96758575</v>
+        <v>32607338.54902186</v>
       </c>
       <c r="T41" t="n">
-        <v>48005412.36152951</v>
+        <v>35138871.21195285</v>
       </c>
       <c r="U41" t="n">
-        <v>52290587.77093896</v>
+        <v>38275522.25658661</v>
       </c>
     </row>
     <row r="42">
@@ -3103,64 +3103,64 @@
         <v>22561132</v>
       </c>
       <c r="B42" t="n">
-        <v>23132222.96491052</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C42" t="n">
-        <v>24524681.34873286</v>
+        <v>23176016.25866709</v>
       </c>
       <c r="D42" t="n">
-        <v>26856443.51419401</v>
+        <v>24571110.80673267</v>
       </c>
       <c r="E42" t="n">
-        <v>29097631.47580672</v>
+        <v>26621586.24345223</v>
       </c>
       <c r="F42" t="n">
-        <v>28819181.00840111</v>
+        <v>26521601.90286563</v>
       </c>
       <c r="G42" t="n">
-        <v>29716230.09947122</v>
+        <v>27347134.69207826</v>
       </c>
       <c r="H42" t="n">
-        <v>29950149.16371775</v>
+        <v>27403415.08374166</v>
       </c>
       <c r="I42" t="n">
-        <v>30011786.55806603</v>
+        <v>28734346.66266634</v>
       </c>
       <c r="J42" t="n">
-        <v>32341808.61216392</v>
+        <v>28960536.57506662</v>
       </c>
       <c r="K42" t="n">
-        <v>34288643.66637807</v>
+        <v>28683398.04053162</v>
       </c>
       <c r="L42" t="n">
-        <v>35355939.66712095</v>
+        <v>28575670.02565531</v>
       </c>
       <c r="M42" t="n">
-        <v>35839804.17951138</v>
+        <v>30129667.92114983</v>
       </c>
       <c r="N42" t="n">
-        <v>37372111.00372861</v>
+        <v>29841341.3567559</v>
       </c>
       <c r="O42" t="n">
-        <v>37231750.2513352</v>
+        <v>30943697.47817022</v>
       </c>
       <c r="P42" t="n">
-        <v>37524829.69478747</v>
+        <v>32446573.81736135</v>
       </c>
       <c r="Q42" t="n">
-        <v>37602055.77847429</v>
+        <v>34399715.27751544</v>
       </c>
       <c r="R42" t="n">
-        <v>38772487.71922289</v>
+        <v>35470468.5828842</v>
       </c>
       <c r="S42" t="n">
-        <v>40655593.46138271</v>
+        <v>35337249.94673213</v>
       </c>
       <c r="T42" t="n">
-        <v>42630158.05606277</v>
+        <v>37669839.77793184</v>
       </c>
       <c r="U42" t="n">
-        <v>46683356.06704904</v>
+        <v>40813412.8047014</v>
       </c>
     </row>
     <row r="43">
@@ -3168,64 +3168,64 @@
         <v>22561132</v>
       </c>
       <c r="B43" t="n">
-        <v>23263388.00610278</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C43" t="n">
-        <v>24798989.74036583</v>
+        <v>22905520.67838397</v>
       </c>
       <c r="D43" t="n">
-        <v>26580130.99986487</v>
+        <v>22686325.7605994</v>
       </c>
       <c r="E43" t="n">
-        <v>28952791.04248082</v>
+        <v>23128692.87302998</v>
       </c>
       <c r="F43" t="n">
-        <v>29685674.36470521</v>
+        <v>22907362.30369031</v>
       </c>
       <c r="G43" t="n">
-        <v>30091938.33298595</v>
+        <v>23354039.47048317</v>
       </c>
       <c r="H43" t="n">
-        <v>31028604.29591786</v>
+        <v>23537876.89000191</v>
       </c>
       <c r="I43" t="n">
-        <v>30731675.33878519</v>
+        <v>23449474.22766114</v>
       </c>
       <c r="J43" t="n">
-        <v>33296253.95743489</v>
+        <v>23770392.53784625</v>
       </c>
       <c r="K43" t="n">
-        <v>34526236.51523417</v>
+        <v>25615852.11222338</v>
       </c>
       <c r="L43" t="n">
-        <v>35600928.0227768</v>
+        <v>25817493.98051929</v>
       </c>
       <c r="M43" t="n">
-        <v>35881170.02324321</v>
+        <v>26320916.63180605</v>
       </c>
       <c r="N43" t="n">
-        <v>38041059.11371279</v>
+        <v>26681132.13199148</v>
       </c>
       <c r="O43" t="n">
-        <v>38340509.24318883</v>
+        <v>28907690.24289002</v>
       </c>
       <c r="P43" t="n">
-        <v>37973608.84003362</v>
+        <v>29135244.6745427</v>
       </c>
       <c r="Q43" t="n">
-        <v>37389449.99284174</v>
+        <v>30380902.5474605</v>
       </c>
       <c r="R43" t="n">
-        <v>39640130.92342131</v>
+        <v>30973308.39910774</v>
       </c>
       <c r="S43" t="n">
-        <v>43409042.58456858</v>
+        <v>33918194.31371845</v>
       </c>
       <c r="T43" t="n">
-        <v>42741268.91099633</v>
+        <v>37143074.6331349</v>
       </c>
       <c r="U43" t="n">
-        <v>42580742.87964644</v>
+        <v>36571692.1303484</v>
       </c>
     </row>
     <row r="44">
@@ -3233,64 +3233,64 @@
         <v>22561132</v>
       </c>
       <c r="B44" t="n">
-        <v>24443873.37683315</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C44" t="n">
-        <v>25773176.51307561</v>
+        <v>23430498.03128088</v>
       </c>
       <c r="D44" t="n">
-        <v>27624286.92347547</v>
+        <v>24296033.95420685</v>
       </c>
       <c r="E44" t="n">
-        <v>29768950.90860324</v>
+        <v>24911040.57153468</v>
       </c>
       <c r="F44" t="n">
-        <v>32253189.53725636</v>
+        <v>25396788.03022671</v>
       </c>
       <c r="G44" t="n">
-        <v>32882103.64493666</v>
+        <v>27220865.03872508</v>
       </c>
       <c r="H44" t="n">
-        <v>32949775.00037082</v>
+        <v>28859441.74601197</v>
       </c>
       <c r="I44" t="n">
-        <v>34933206.96512077</v>
+        <v>30932217.40978273</v>
       </c>
       <c r="J44" t="n">
-        <v>37239126.17108238</v>
+        <v>32794201.25490663</v>
       </c>
       <c r="K44" t="n">
-        <v>38831260.06986235</v>
+        <v>35340241.35893772</v>
       </c>
       <c r="L44" t="n">
-        <v>42071754.38761638</v>
+        <v>38289407.85792997</v>
       </c>
       <c r="M44" t="n">
-        <v>43625908.92220565</v>
+        <v>40816867.79175895</v>
       </c>
       <c r="N44" t="n">
-        <v>43208429.76275987</v>
+        <v>43511163.77959046</v>
       </c>
       <c r="O44" t="n">
-        <v>43046149.18645971</v>
+        <v>46889235.6251222</v>
       </c>
       <c r="P44" t="n">
-        <v>45887598.64888249</v>
+        <v>46985733.65226447</v>
       </c>
       <c r="Q44" t="n">
-        <v>46515594.41859065</v>
+        <v>47355594.12285861</v>
       </c>
       <c r="R44" t="n">
-        <v>49045198.65076678</v>
+        <v>47728366.04671898</v>
       </c>
       <c r="S44" t="n">
-        <v>52567778.71599483</v>
+        <v>50601404.38586645</v>
       </c>
       <c r="T44" t="n">
-        <v>55732128.47619904</v>
+        <v>53941571.53222956</v>
       </c>
       <c r="U44" t="n">
-        <v>58438931.60723174</v>
+        <v>53425376.39730144</v>
       </c>
     </row>
     <row r="45">
@@ -3298,64 +3298,64 @@
         <v>22561132</v>
       </c>
       <c r="B45" t="n">
-        <v>24443873.37683315</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C45" t="n">
-        <v>24636289.70850542</v>
+        <v>22647226.09442033</v>
       </c>
       <c r="D45" t="n">
-        <v>25976056.80147082</v>
+        <v>24273820.93688348</v>
       </c>
       <c r="E45" t="n">
-        <v>26331552.7146443</v>
+        <v>25311631.89380487</v>
       </c>
       <c r="F45" t="n">
-        <v>27610425.98364909</v>
+        <v>25216567.42991721</v>
       </c>
       <c r="G45" t="n">
-        <v>29593493.41610074</v>
+        <v>25561669.33410967</v>
       </c>
       <c r="H45" t="n">
-        <v>29826446.3264971</v>
+        <v>26654541.3867263</v>
       </c>
       <c r="I45" t="n">
-        <v>29887829.14045856</v>
+        <v>27329249.01043033</v>
       </c>
       <c r="J45" t="n">
-        <v>31165663.258178</v>
+        <v>28974349.95753204</v>
       </c>
       <c r="K45" t="n">
-        <v>31592181.6479513</v>
+        <v>30550028.80659847</v>
       </c>
       <c r="L45" t="n">
-        <v>33677561.8563294</v>
+        <v>30612900.75299882</v>
       </c>
       <c r="M45" t="n">
-        <v>33942663.57781853</v>
+        <v>32989591.44938213</v>
       </c>
       <c r="N45" t="n">
-        <v>33420513.91040697</v>
+        <v>34591832.95474312</v>
       </c>
       <c r="O45" t="n">
-        <v>33294994.41600722</v>
+        <v>36271892.27259324</v>
       </c>
       <c r="P45" t="n">
-        <v>34718499.60315577</v>
+        <v>36979168.20684289</v>
       </c>
       <c r="Q45" t="n">
-        <v>36606555.95562599</v>
+        <v>37700235.51551021</v>
       </c>
       <c r="R45" t="n">
-        <v>36681892.23234487</v>
+        <v>38435363.12052385</v>
       </c>
       <c r="S45" t="n">
-        <v>39956280.15720767</v>
+        <v>40302095.36423212</v>
       </c>
       <c r="T45" t="n">
-        <v>40038510.16492075</v>
+        <v>42728104.77373245</v>
       </c>
       <c r="U45" t="n">
-        <v>40586458.10182156</v>
+        <v>43064450.20692644</v>
       </c>
     </row>
     <row r="46">
@@ -3363,64 +3363,64 @@
         <v>22561132</v>
       </c>
       <c r="B46" t="n">
-        <v>24181543.29444862</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C46" t="n">
-        <v>24231308.9003507</v>
+        <v>23820227.59403624</v>
       </c>
       <c r="D46" t="n">
-        <v>24281176.92384874</v>
+        <v>24146219.85780672</v>
       </c>
       <c r="E46" t="n">
-        <v>25601632.32545137</v>
+        <v>25599716.40803551</v>
       </c>
       <c r="F46" t="n">
-        <v>26398529.39899286</v>
+        <v>26991876.43044714</v>
       </c>
       <c r="G46" t="n">
-        <v>27373706.08865354</v>
+        <v>29401290.69112458</v>
       </c>
       <c r="H46" t="n">
-        <v>27589185.36350716</v>
+        <v>29632730.62758645</v>
       </c>
       <c r="I46" t="n">
-        <v>27164773.06219544</v>
+        <v>32105601.58375602</v>
       </c>
       <c r="J46" t="n">
-        <v>29431691.32837454</v>
+        <v>32731637.83199322</v>
       </c>
       <c r="K46" t="n">
-        <v>30005588.24073806</v>
+        <v>35843702.51593098</v>
       </c>
       <c r="L46" t="n">
-        <v>29892894.39422089</v>
+        <v>35709082.10197578</v>
       </c>
       <c r="M46" t="n">
-        <v>32735056.50729444</v>
+        <v>37028195.90368456</v>
       </c>
       <c r="N46" t="n">
-        <v>34515249.54828204</v>
+        <v>36673853.71383518</v>
       </c>
       <c r="O46" t="n">
-        <v>36994243.07567902</v>
+        <v>39307884.96585104</v>
       </c>
       <c r="P46" t="n">
-        <v>40081437.11112033</v>
+        <v>40988467.26136348</v>
       </c>
       <c r="Q46" t="n">
-        <v>41096020.35963773</v>
+        <v>42979198.90131281</v>
       </c>
       <c r="R46" t="n">
-        <v>41897363.33825502</v>
+        <v>45566358.20419879</v>
       </c>
       <c r="S46" t="n">
-        <v>41983588.09433609</v>
+        <v>47514517.3314447</v>
       </c>
       <c r="T46" t="n">
-        <v>42802238.00841875</v>
+        <v>48993492.55188495</v>
       </c>
       <c r="U46" t="n">
-        <v>42890324.99618942</v>
+        <v>48239811.69290795</v>
       </c>
     </row>
     <row r="47">
@@ -3428,64 +3428,64 @@
         <v>22561132</v>
       </c>
       <c r="B47" t="n">
-        <v>22345232.71775694</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C47" t="n">
-        <v>23430498.03128088</v>
+        <v>24757048.81551758</v>
       </c>
       <c r="D47" t="n">
-        <v>23751156.64230101</v>
+        <v>25095861.96731415</v>
       </c>
       <c r="E47" t="n">
-        <v>24766621.43735857</v>
+        <v>25439311.95416669</v>
       </c>
       <c r="F47" t="n">
-        <v>26833412.3654236</v>
+        <v>26674850.79202505</v>
       </c>
       <c r="G47" t="n">
-        <v>27356644.69797552</v>
+        <v>27194991.28740127</v>
       </c>
       <c r="H47" t="n">
-        <v>29957664.79579623</v>
+        <v>28832010.5083192</v>
       </c>
       <c r="I47" t="n">
-        <v>29670984.21934773</v>
+        <v>31405683.27470699</v>
       </c>
       <c r="J47" t="n">
-        <v>31629547.38360262</v>
+        <v>31835486.46384795</v>
       </c>
       <c r="K47" t="n">
-        <v>33349620.78959567</v>
+        <v>33196591.36599797</v>
       </c>
       <c r="L47" t="n">
-        <v>36520442.17087628</v>
+        <v>35773871.7906071</v>
       </c>
       <c r="M47" t="n">
-        <v>38718812.64131811</v>
+        <v>37095378.96026181</v>
       </c>
       <c r="N47" t="n">
-        <v>39924005.65763192</v>
+        <v>39112694.41725945</v>
       </c>
       <c r="O47" t="n">
-        <v>43719907.61298731</v>
+        <v>41239715.22751419</v>
       </c>
       <c r="P47" t="n">
-        <v>43555706.04764044</v>
+        <v>43961923.11087459</v>
       </c>
       <c r="Q47" t="n">
-        <v>46430791.04068883</v>
+        <v>44052396.73009705</v>
       </c>
       <c r="R47" t="n">
-        <v>50305471.24075142</v>
+        <v>46448047.70691051</v>
       </c>
       <c r="S47" t="n">
-        <v>55088424.09085803</v>
+        <v>46543637.76950315</v>
       </c>
       <c r="T47" t="n">
-        <v>60005860.45156389</v>
+        <v>50698328.71418857</v>
       </c>
       <c r="U47" t="n">
-        <v>65711108.69178731</v>
+        <v>49918421.87465182</v>
       </c>
     </row>
     <row r="48">
@@ -3493,64 +3493,64 @@
         <v>22561132</v>
       </c>
       <c r="B48" t="n">
-        <v>24181543.29444862</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C48" t="n">
-        <v>24934237.53050739</v>
+        <v>24390196.12086127</v>
       </c>
       <c r="D48" t="n">
-        <v>25565399.02411531</v>
+        <v>24156793.56658069</v>
       </c>
       <c r="E48" t="n">
-        <v>26807061.67035945</v>
+        <v>23925624.56352186</v>
       </c>
       <c r="F48" t="n">
-        <v>28109029.50196853</v>
+        <v>25226744.36882212</v>
       </c>
       <c r="G48" t="n">
-        <v>29310812.23248392</v>
+        <v>25425323.27391836</v>
       </c>
       <c r="H48" t="n">
-        <v>31416006.7409412</v>
+        <v>25773282.11093787</v>
       </c>
       <c r="I48" t="n">
-        <v>32393886.72593448</v>
+        <v>27624400.10570757</v>
       </c>
       <c r="J48" t="n">
-        <v>35097177.98345484</v>
+        <v>30250877.90144774</v>
       </c>
       <c r="K48" t="n">
-        <v>35373454.58395571</v>
+        <v>30840748.36557527</v>
       </c>
       <c r="L48" t="n">
-        <v>38119739.91924493</v>
+        <v>31621421.63776121</v>
       </c>
       <c r="M48" t="n">
-        <v>39971142.94634499</v>
+        <v>31502659.10565852</v>
       </c>
       <c r="N48" t="n">
-        <v>41912465.08559053</v>
+        <v>31018044.72243879</v>
       </c>
       <c r="O48" t="n">
-        <v>45166418.92143064</v>
+        <v>30540885.3003903</v>
       </c>
       <c r="P48" t="n">
-        <v>46047131.75822695</v>
+        <v>32911984.94032353</v>
       </c>
       <c r="Q48" t="n">
-        <v>46141896.73596628</v>
+        <v>32979717.791451</v>
       </c>
       <c r="R48" t="n">
-        <v>49992468.51535954</v>
+        <v>34389743.53767113</v>
       </c>
       <c r="S48" t="n">
-        <v>53873728.76470234</v>
+        <v>36859722.82956278</v>
       </c>
       <c r="T48" t="n">
-        <v>53671391.86425543</v>
+        <v>37578461.03887755</v>
       </c>
       <c r="U48" t="n">
-        <v>57214206.96949466</v>
+        <v>38529686.33974211</v>
       </c>
     </row>
     <row r="49">
@@ -3558,64 +3558,64 @@
         <v>22561132</v>
       </c>
       <c r="B49" t="n">
-        <v>22869892.88252599</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C49" t="n">
-        <v>23182879.3190968</v>
+        <v>24934237.53050739</v>
       </c>
       <c r="D49" t="n">
-        <v>24039268.06596625</v>
+        <v>26290207.57822214</v>
       </c>
       <c r="E49" t="n">
-        <v>26045360.87445558</v>
+        <v>27108537.80090314</v>
       </c>
       <c r="F49" t="n">
-        <v>28067441.93674108</v>
+        <v>29528365.77143774</v>
       </c>
       <c r="G49" t="n">
-        <v>28451559.54850964</v>
+        <v>29760806.01257407</v>
       </c>
       <c r="H49" t="n">
-        <v>28675523.42830407</v>
+        <v>29302987.05191005</v>
       </c>
       <c r="I49" t="n">
-        <v>28901250.2982561</v>
+        <v>31407619.531344</v>
       </c>
       <c r="J49" t="n">
-        <v>28792704.08216013</v>
+        <v>32750431.26935593</v>
       </c>
       <c r="K49" t="n">
-        <v>30860686.43749802</v>
+        <v>32817831.64309668</v>
       </c>
       <c r="L49" t="n">
-        <v>31641864.40300931</v>
+        <v>34030141.00851071</v>
       </c>
       <c r="M49" t="n">
-        <v>33362607.63134493</v>
+        <v>34891547.52235901</v>
       </c>
       <c r="N49" t="n">
-        <v>33237305.61914459</v>
+        <v>36991865.67793549</v>
       </c>
       <c r="O49" t="n">
-        <v>33498941.74871017</v>
+        <v>37928242.46363278</v>
       </c>
       <c r="P49" t="n">
-        <v>34152147.13274788</v>
+        <v>41093379.36531136</v>
       </c>
       <c r="Q49" t="n">
-        <v>36207956.6272641</v>
+        <v>42850299.27804937</v>
       </c>
       <c r="R49" t="n">
-        <v>39019030.1137464</v>
+        <v>43685849.43978326</v>
       </c>
       <c r="S49" t="n">
-        <v>41821499.2936947</v>
+        <v>44791671.34222598</v>
       </c>
       <c r="T49" t="n">
-        <v>44338970.15690842</v>
+        <v>45925484.96499929</v>
       </c>
       <c r="U49" t="n">
-        <v>45203548.33512191</v>
+        <v>49223997.40401676</v>
       </c>
     </row>
     <row r="50">
@@ -3623,64 +3623,64 @@
         <v>22561132</v>
       </c>
       <c r="B50" t="n">
-        <v>22476397.75894921</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C50" t="n">
-        <v>22914671.42562358</v>
+        <v>23163815.2623476</v>
       </c>
       <c r="D50" t="n">
-        <v>25093356.77139683</v>
+        <v>24154168.67007335</v>
       </c>
       <c r="E50" t="n">
-        <v>26312093.226186</v>
+        <v>23923024.78602327</v>
       </c>
       <c r="F50" t="n">
-        <v>26825160.20870668</v>
+        <v>26197582.53811902</v>
       </c>
       <c r="G50" t="n">
-        <v>28439917.22045831</v>
+        <v>28079175.12097427</v>
       </c>
       <c r="H50" t="n">
-        <v>28333103.6615809</v>
+        <v>29606172.70339457</v>
       </c>
       <c r="I50" t="n">
-        <v>27897247.45307463</v>
+        <v>31388334.47212164</v>
       </c>
       <c r="J50" t="n">
-        <v>29900915.30347284</v>
+        <v>31817900.23383224</v>
       </c>
       <c r="K50" t="n">
-        <v>31526982.49326189</v>
+        <v>33918179.98529681</v>
       </c>
       <c r="L50" t="n">
-        <v>31225284.29427149</v>
+        <v>35762713.47370962</v>
       </c>
       <c r="M50" t="n">
-        <v>31652618.62908342</v>
+        <v>38331303.77462754</v>
       </c>
       <c r="N50" t="n">
-        <v>34294050.57399182</v>
+        <v>41752925.46821118</v>
       </c>
       <c r="O50" t="n">
-        <v>35560892.30628458</v>
+        <v>44751751.59116285</v>
       </c>
       <c r="P50" t="n">
-        <v>38321729.72516773</v>
+        <v>45884554.72345395</v>
       </c>
       <c r="Q50" t="n">
-        <v>40405736.40956584</v>
+        <v>45978985.11772428</v>
       </c>
       <c r="R50" t="n">
-        <v>40253982.0823112</v>
+        <v>47677474.97764696</v>
       </c>
       <c r="S50" t="n">
-        <v>40570851.812737</v>
+        <v>46944038.79207695</v>
       </c>
       <c r="T50" t="n">
-        <v>41126085.12330546</v>
+        <v>51134471.30279484</v>
       </c>
       <c r="U50" t="n">
-        <v>43362597.85158678</v>
+        <v>55401676.72955529</v>
       </c>
     </row>
     <row r="51">
@@ -3688,64 +3688,64 @@
         <v>22561132</v>
       </c>
       <c r="B51" t="n">
-        <v>23263388.00610278</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C51" t="n">
-        <v>24393246.36994114</v>
+        <v>22653326.59258008</v>
       </c>
       <c r="D51" t="n">
-        <v>25436163.2812685</v>
+        <v>22699947.12915419</v>
       </c>
       <c r="E51" t="n">
-        <v>27558827.9187312</v>
+        <v>23142579.84852079</v>
       </c>
       <c r="F51" t="n">
-        <v>27775764.42840627</v>
+        <v>23190207.2680893</v>
       </c>
       <c r="G51" t="n">
-        <v>29447743.64562537</v>
+        <v>23912044.37877967</v>
       </c>
       <c r="H51" t="n">
-        <v>30706762.20275764</v>
+        <v>25490463.51567393</v>
       </c>
       <c r="I51" t="n">
-        <v>30234391.32842432</v>
+        <v>27469464.06753328</v>
       </c>
       <c r="J51" t="n">
-        <v>29769287.06987567</v>
+        <v>30081210.82612993</v>
       </c>
       <c r="K51" t="n">
-        <v>30868981.46495312</v>
+        <v>30143117.94532419</v>
       </c>
       <c r="L51" t="n">
-        <v>30394115.12547727</v>
+        <v>32658581.06049162</v>
       </c>
       <c r="M51" t="n">
-        <v>30456666.20158763</v>
+        <v>34054876.82085884</v>
       </c>
       <c r="N51" t="n">
-        <v>32644159.53766244</v>
+        <v>37292752.66483678</v>
       </c>
       <c r="O51" t="n">
-        <v>34419409.43298143</v>
+        <v>38019934.645957</v>
       </c>
       <c r="P51" t="n">
-        <v>34490244.56307907</v>
+        <v>38982334.98840411</v>
       </c>
       <c r="Q51" t="n">
-        <v>34160189.35815601</v>
+        <v>38609292.61871473</v>
       </c>
       <c r="R51" t="n">
-        <v>36216482.95937529</v>
+        <v>39137680.96654491</v>
       </c>
       <c r="S51" t="n">
-        <v>37554340.43733099</v>
+        <v>41948672.02305379</v>
       </c>
       <c r="T51" t="n">
-        <v>38941619.13140339</v>
+        <v>42522761.52328948</v>
       </c>
       <c r="U51" t="n">
-        <v>39927350.11533324</v>
+        <v>44835228.10267257</v>
       </c>
     </row>
     <row r="52">
@@ -3753,64 +3753,64 @@
         <v>22561132</v>
       </c>
       <c r="B52" t="n">
-        <v>22738727.84133373</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C52" t="n">
-        <v>24504092.16744373</v>
+        <v>24920511.40964796</v>
       </c>
       <c r="D52" t="n">
-        <v>24127138.7340127</v>
+        <v>27289908.3784678</v>
       </c>
       <c r="E52" t="n">
-        <v>25579486.68426301</v>
+        <v>28773984.17267675</v>
       </c>
       <c r="F52" t="n">
-        <v>26524407.47022659</v>
+        <v>28498630.85573529</v>
       </c>
       <c r="G52" t="n">
-        <v>29046299.96378777</v>
+        <v>28391596.78242073</v>
       </c>
       <c r="H52" t="n">
-        <v>31470232.89347102</v>
+        <v>29440398.51474443</v>
       </c>
       <c r="I52" t="n">
-        <v>32632761.1946527</v>
+        <v>32239538.14133643</v>
       </c>
       <c r="J52" t="n">
-        <v>33648514.86094314</v>
+        <v>34929948.90745776</v>
       </c>
       <c r="K52" t="n">
-        <v>34109012.37251098</v>
+        <v>37235653.05106489</v>
       </c>
       <c r="L52" t="n">
-        <v>37153733.66262657</v>
+        <v>38611159.25184123</v>
       </c>
       <c r="M52" t="n">
-        <v>40254237.29296151</v>
+        <v>39588525.28974428</v>
       </c>
       <c r="N52" t="n">
-        <v>43145422.92845754</v>
+        <v>39439840.21291628</v>
       </c>
       <c r="O52" t="n">
-        <v>43986727.79011148</v>
+        <v>42501827.12023998</v>
       </c>
       <c r="P52" t="n">
-        <v>45100165.83998021</v>
+        <v>45801537.19707976</v>
       </c>
       <c r="Q52" t="n">
-        <v>47028393.22492328</v>
+        <v>47493472.02989369</v>
       </c>
       <c r="R52" t="n">
-        <v>47945413.22775203</v>
+        <v>50076255.05888025</v>
       </c>
       <c r="S52" t="n">
-        <v>48880314.46419142</v>
+        <v>49305917.75567291</v>
       </c>
       <c r="T52" t="n">
-        <v>50970159.57183247</v>
+        <v>52560570.63749649</v>
       </c>
       <c r="U52" t="n">
-        <v>53742011.31272025</v>
+        <v>56946784.99629621</v>
       </c>
     </row>
     <row r="53">
@@ -3818,64 +3818,64 @@
         <v>22561132</v>
       </c>
       <c r="B53" t="n">
-        <v>22476397.75894921</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C53" t="n">
-        <v>24482740.42388462</v>
+        <v>23292962.55432942</v>
       </c>
       <c r="D53" t="n">
-        <v>26383504.47943444</v>
+        <v>23476319.19095524</v>
       </c>
       <c r="E53" t="n">
-        <v>26284414.31727746</v>
+        <v>25708404.98629575</v>
       </c>
       <c r="F53" t="n">
-        <v>28325054.74765673</v>
+        <v>26060237.94449591</v>
       </c>
       <c r="G53" t="n">
-        <v>28712697.92537865</v>
+        <v>26719901.93801892</v>
       </c>
       <c r="H53" t="n">
-        <v>29940290.0950339</v>
+        <v>27085577.76064124</v>
       </c>
       <c r="I53" t="n">
-        <v>30350038.6126538</v>
+        <v>28086134.40752691</v>
       </c>
       <c r="J53" t="n">
-        <v>32529873.62070641</v>
+        <v>28143935.66029305</v>
       </c>
       <c r="K53" t="n">
-        <v>32975061.94226706</v>
+        <v>29347210.78022943</v>
       </c>
       <c r="L53" t="n">
-        <v>33234633.75225731</v>
+        <v>28895754.27289841</v>
       </c>
       <c r="M53" t="n">
-        <v>32916594.14446089</v>
+        <v>29123214.74744676</v>
       </c>
       <c r="N53" t="n">
-        <v>34515290.31001662</v>
+        <v>29183150.3111151</v>
       </c>
       <c r="O53" t="n">
-        <v>36793623.09820508</v>
+        <v>31788167.36920221</v>
       </c>
       <c r="P53" t="n">
-        <v>37938891.11077628</v>
+        <v>34071293.29723093</v>
       </c>
       <c r="Q53" t="n">
-        <v>37796401.66722441</v>
+        <v>36914565.24178205</v>
       </c>
       <c r="R53" t="n">
-        <v>37434708.11428903</v>
+        <v>37205147.88061344</v>
       </c>
       <c r="S53" t="n">
-        <v>39688113.38531529</v>
+        <v>37930621.63115278</v>
       </c>
       <c r="T53" t="n">
-        <v>39077579.82607284</v>
+        <v>37567643.65712209</v>
       </c>
       <c r="U53" t="n">
-        <v>38703626.00867374</v>
+        <v>36989729.88803824</v>
       </c>
     </row>
     <row r="54">
@@ -3883,64 +3883,64 @@
         <v>22561132</v>
       </c>
       <c r="B54" t="n">
-        <v>24312708.33564088</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C54" t="n">
-        <v>25917575.05045678</v>
+        <v>25355994.7086014</v>
       </c>
       <c r="D54" t="n">
-        <v>26422949.21096475</v>
+        <v>24965936.21558915</v>
       </c>
       <c r="E54" t="n">
-        <v>27552644.70787968</v>
+        <v>26033338.09771185</v>
       </c>
       <c r="F54" t="n">
-        <v>29851931.11924893</v>
+        <v>28054485.74888868</v>
       </c>
       <c r="G54" t="n">
-        <v>32343094.50132492</v>
+        <v>27949119.77886544</v>
       </c>
       <c r="H54" t="n">
-        <v>32597691.61459473</v>
+        <v>27519170.50386165</v>
       </c>
       <c r="I54" t="n">
-        <v>34749444.90879297</v>
+        <v>28695734.20796724</v>
       </c>
       <c r="J54" t="n">
-        <v>37649309.05354282</v>
+        <v>28754790.0168656</v>
       </c>
       <c r="K54" t="n">
-        <v>39040095.94230969</v>
+        <v>29817008.31382895</v>
       </c>
       <c r="L54" t="n">
-        <v>40028319.67425243</v>
+        <v>29878371.70436431</v>
       </c>
       <c r="M54" t="n">
-        <v>41739703.67321607</v>
+        <v>31676918.65931164</v>
       </c>
       <c r="N54" t="n">
-        <v>44252250.79876445</v>
+        <v>33215406.15212488</v>
       </c>
       <c r="O54" t="n">
-        <v>47430586.30954871</v>
+        <v>35601040.84805243</v>
       </c>
       <c r="P54" t="n">
-        <v>51388700.08559696</v>
+        <v>38985923.15987968</v>
       </c>
       <c r="Q54" t="n">
-        <v>54183312.83530747</v>
+        <v>42239324.21471784</v>
       </c>
       <c r="R54" t="n">
-        <v>55869866.36768965</v>
+        <v>43062960.80008043</v>
       </c>
       <c r="S54" t="n">
-        <v>58583359.16527811</v>
+        <v>45404804.41729071</v>
       </c>
       <c r="T54" t="n">
-        <v>60066282.41192185</v>
+        <v>49721810.76550457</v>
       </c>
       <c r="U54" t="n">
-        <v>59840687.75413088</v>
+        <v>49535067.48068684</v>
       </c>
     </row>
     <row r="55">
@@ -3948,64 +3948,64 @@
         <v>22561132</v>
       </c>
       <c r="B55" t="n">
-        <v>23919213.21206409</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C55" t="n">
-        <v>25637166.16066407</v>
+        <v>23705568.98518381</v>
       </c>
       <c r="D55" t="n">
-        <v>26286120.918797</v>
+        <v>23616536.51125312</v>
       </c>
       <c r="E55" t="n">
-        <v>28632536.32132898</v>
+        <v>23253236.59943293</v>
       </c>
       <c r="F55" t="n">
-        <v>31188403.1396194</v>
+        <v>24923357.01795658</v>
       </c>
       <c r="G55" t="n">
-        <v>31796554.67476818</v>
+        <v>27003227.63381449</v>
       </c>
       <c r="H55" t="n">
-        <v>31492276.79845929</v>
+        <v>28000742.22018011</v>
       </c>
       <c r="I55" t="n">
-        <v>31740176.47802931</v>
+        <v>27895578.0980569</v>
       </c>
       <c r="J55" t="n">
-        <v>34573445.00012131</v>
+        <v>28277343.66337201</v>
       </c>
       <c r="K55" t="n">
-        <v>36855616.54313588</v>
+        <v>28499936.15733816</v>
       </c>
       <c r="L55" t="n">
-        <v>39074163.04099208</v>
+        <v>28889972.67854969</v>
       </c>
       <c r="M55" t="n">
-        <v>40063249.11495996</v>
+        <v>30629022.34643796</v>
       </c>
       <c r="N55" t="n">
-        <v>41310290.14618891</v>
+        <v>31226266.35654985</v>
       </c>
       <c r="O55" t="n">
-        <v>44277324.81137478</v>
+        <v>30927445.86768831</v>
       </c>
       <c r="P55" t="n">
-        <v>47457461.21642405</v>
+        <v>33867971.25609869</v>
       </c>
       <c r="Q55" t="n">
-        <v>51141911.35909789</v>
+        <v>34922173.06783011</v>
       </c>
       <c r="R55" t="n">
-        <v>53328449.52729073</v>
+        <v>37024334.74694581</v>
       </c>
       <c r="S55" t="n">
-        <v>52818121.67778046</v>
+        <v>39898789.29938567</v>
       </c>
       <c r="T55" t="n">
-        <v>56304612.95014539</v>
+        <v>40212863.03707851</v>
       </c>
       <c r="U55" t="n">
-        <v>58384537.37470229</v>
+        <v>42867289.04773615</v>
       </c>
     </row>
     <row r="56">
@@ -4013,64 +4013,64 @@
         <v>22561132</v>
       </c>
       <c r="B56" t="n">
-        <v>22476397.75894921</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C56" t="n">
-        <v>22130636.92649306</v>
+        <v>25080923.75469847</v>
       </c>
       <c r="D56" t="n">
-        <v>21918857.27696078</v>
+        <v>26299056.36159151</v>
       </c>
       <c r="E56" t="n">
-        <v>22473690.31246784</v>
+        <v>26506076.2505235</v>
       </c>
       <c r="F56" t="n">
-        <v>23957164.59446249</v>
+        <v>28872125.83870906</v>
       </c>
       <c r="G56" t="n">
-        <v>25120718.36332044</v>
+        <v>31281523.82253678</v>
       </c>
       <c r="H56" t="n">
-        <v>26632875.45024227</v>
+        <v>30800311.22640044</v>
       </c>
       <c r="I56" t="n">
-        <v>29010243.69575913</v>
+        <v>33370617.55523548</v>
       </c>
       <c r="J56" t="n">
-        <v>30250557.23554764</v>
+        <v>33633303.08451425</v>
       </c>
       <c r="K56" t="n">
-        <v>30664551.92114014</v>
+        <v>33702520.40807826</v>
       </c>
       <c r="L56" t="n">
-        <v>31440765.12467942</v>
+        <v>36123141.17837627</v>
       </c>
       <c r="M56" t="n">
-        <v>32236626.64849738</v>
+        <v>36197482.58768743</v>
       </c>
       <c r="N56" t="n">
-        <v>32115553.55282566</v>
+        <v>35851089.92841452</v>
       </c>
       <c r="O56" t="n">
-        <v>33862056.87501987</v>
+        <v>39259746.45270985</v>
       </c>
       <c r="P56" t="n">
-        <v>34916074.59095171</v>
+        <v>42307751.43888818</v>
       </c>
       <c r="Q56" t="n">
-        <v>37220862.89957888</v>
+        <v>43132722.30613878</v>
       </c>
       <c r="R56" t="n">
-        <v>38163036.30240826</v>
+        <v>43973779.5147492</v>
       </c>
       <c r="S56" t="n">
-        <v>40238412.94436902</v>
+        <v>43808624.46697424</v>
       </c>
       <c r="T56" t="n">
-        <v>40321223.58123909</v>
+        <v>46700404.44715237</v>
       </c>
       <c r="U56" t="n">
-        <v>40873040.5989965</v>
+        <v>45981998.81601618</v>
       </c>
     </row>
     <row r="57">
@@ -4078,64 +4078,64 @@
         <v>22561132</v>
       </c>
       <c r="B57" t="n">
-        <v>22476397.75894921</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C57" t="n">
-        <v>22522654.17605832</v>
+        <v>23986740.43724649</v>
       </c>
       <c r="D57" t="n">
-        <v>24402184.55305221</v>
+        <v>24036105.1389506</v>
       </c>
       <c r="E57" t="n">
-        <v>25445483.61041219</v>
+        <v>25902193.81581141</v>
       </c>
       <c r="F57" t="n">
-        <v>26089586.29939451</v>
+        <v>26859035.58674794</v>
       </c>
       <c r="G57" t="n">
-        <v>26749993.1891657</v>
+        <v>29412743.91393847</v>
       </c>
       <c r="H57" t="n">
-        <v>27427116.98870512</v>
+        <v>30670266.08098332</v>
       </c>
       <c r="I57" t="n">
-        <v>28440290.28891942</v>
+        <v>32338171.99189685</v>
       </c>
       <c r="J57" t="n">
-        <v>30482961.17979327</v>
+        <v>34284788.13751811</v>
       </c>
       <c r="K57" t="n">
-        <v>31077357.1017128</v>
+        <v>33757375.47049984</v>
       </c>
       <c r="L57" t="n">
-        <v>33128754.06285977</v>
+        <v>33238076.14284992</v>
       </c>
       <c r="M57" t="n">
-        <v>33582138.37626369</v>
+        <v>33692956.58605342</v>
       </c>
       <c r="N57" t="n">
-        <v>36775067.10742938</v>
+        <v>34545827.93521345</v>
       </c>
       <c r="O57" t="n">
-        <v>39416367.82296903</v>
+        <v>37629541.31425524</v>
       </c>
       <c r="P57" t="n">
-        <v>42934847.13216006</v>
+        <v>38800828.79197703</v>
       </c>
       <c r="Q57" t="n">
-        <v>45020110.72831667</v>
+        <v>42264362.36506493</v>
       </c>
       <c r="R57" t="n">
-        <v>44851025.90958565</v>
+        <v>42597057.32880422</v>
       </c>
       <c r="S57" t="n">
-        <v>45204082.47080313</v>
+        <v>44418265.98579274</v>
       </c>
       <c r="T57" t="n">
-        <v>45034306.69800232</v>
+        <v>43993204.34682827</v>
       </c>
       <c r="U57" t="n">
-        <v>45388806.00180113</v>
+        <v>43827976.34400815</v>
       </c>
     </row>
     <row r="58">
@@ -4143,64 +4143,64 @@
         <v>22561132</v>
       </c>
       <c r="B58" t="n">
-        <v>22476397.75894921</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C58" t="n">
-        <v>24352068.00736287</v>
+        <v>25210833.60895025</v>
       </c>
       <c r="D58" t="n">
-        <v>25959532.82956281</v>
+        <v>25702426.81726643</v>
       </c>
       <c r="E58" t="n">
-        <v>26616647.6699113</v>
+        <v>26203605.74124005</v>
       </c>
       <c r="F58" t="n">
-        <v>27135653.24607074</v>
+        <v>27933289.414557</v>
       </c>
       <c r="G58" t="n">
-        <v>27507018.84262751</v>
+        <v>27990776.11239206</v>
       </c>
       <c r="H58" t="n">
-        <v>29482659.2497314</v>
+        <v>29024771.30120577</v>
       </c>
       <c r="I58" t="n">
-        <v>31428791.20018923</v>
+        <v>29759476.66300732</v>
       </c>
       <c r="J58" t="n">
-        <v>31676191.13629614</v>
+        <v>32588953.66048561</v>
       </c>
       <c r="K58" t="n">
-        <v>32293854.18819935</v>
+        <v>35308523.38262076</v>
       </c>
       <c r="L58" t="n">
-        <v>35364295.19830662</v>
+        <v>36818115.65218883</v>
       </c>
       <c r="M58" t="n">
-        <v>36053873.63930684</v>
+        <v>36679835.57445565</v>
       </c>
       <c r="N58" t="n">
-        <v>37804941.48331373</v>
+        <v>36328827.02695376</v>
       </c>
       <c r="O58" t="n">
-        <v>40080633.17962006</v>
+        <v>38938077.37966417</v>
       </c>
       <c r="P58" t="n">
-        <v>39464061.37651443</v>
+        <v>42640239.06481041</v>
       </c>
       <c r="Q58" t="n">
-        <v>42298494.09821109</v>
+        <v>42232192.29620124</v>
       </c>
       <c r="R58" t="n">
-        <v>44844677.95695473</v>
+        <v>46002024.55074427</v>
       </c>
       <c r="S58" t="n">
-        <v>45197684.54860561</v>
+        <v>45829251.89744356</v>
       </c>
       <c r="T58" t="n">
-        <v>44502395.68594105</v>
+        <v>49920173.59984595</v>
       </c>
       <c r="U58" t="n">
-        <v>44852707.91332446</v>
+        <v>54086045.08072393</v>
       </c>
     </row>
     <row r="59">
@@ -4208,64 +4208,64 @@
         <v>22561132</v>
       </c>
       <c r="B59" t="n">
-        <v>24181543.29444862</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C59" t="n">
-        <v>23950137.44828802</v>
+        <v>25777751.88669541</v>
       </c>
       <c r="D59" t="n">
-        <v>23860186.43343013</v>
+        <v>28078788.02118026</v>
       </c>
       <c r="E59" t="n">
-        <v>23493138.38541733</v>
+        <v>29116034.41995971</v>
       </c>
       <c r="F59" t="n">
-        <v>23268320.24619238</v>
+        <v>29853049.92925519</v>
       </c>
       <c r="G59" t="n">
-        <v>25480629.87959393</v>
+        <v>32691423.70295792</v>
       </c>
       <c r="H59" t="n">
-        <v>27607005.28407641</v>
+        <v>32758702.63915191</v>
       </c>
       <c r="I59" t="n">
-        <v>27503319.94415501</v>
+        <v>35111535.45569523</v>
       </c>
       <c r="J59" t="n">
-        <v>28999001.45482325</v>
+        <v>34775534.79299194</v>
       </c>
       <c r="K59" t="n">
-        <v>28890088.10865315</v>
+        <v>36262339.4923761</v>
       </c>
       <c r="L59" t="n">
-        <v>30461184.64221443</v>
+        <v>38234352.71923194</v>
       </c>
       <c r="M59" t="n">
-        <v>32117720.31699554</v>
+        <v>40535893.08890048</v>
       </c>
       <c r="N59" t="n">
-        <v>33864341.47184099</v>
+        <v>43918640.15874422</v>
       </c>
       <c r="O59" t="n">
-        <v>35509067.91657898</v>
+        <v>46562349.70572059</v>
       </c>
       <c r="P59" t="n">
-        <v>35788586.81623443</v>
+        <v>45846067.81001718</v>
       </c>
       <c r="Q59" t="n">
-        <v>38567101.73088258</v>
+        <v>49938490.57514358</v>
       </c>
       <c r="R59" t="n">
-        <v>40664452.1997012</v>
+        <v>53525229.66942656</v>
       </c>
       <c r="S59" t="n">
-        <v>44057927.61231042</v>
+        <v>53013018.72772717</v>
       </c>
       <c r="T59" t="n">
-        <v>45173167.94653089</v>
+        <v>56204169.98418578</v>
       </c>
       <c r="U59" t="n">
-        <v>47104516.48764685</v>
+        <v>60894445.11664767</v>
       </c>
     </row>
     <row r="60">
@@ -4273,64 +4273,64 @@
         <v>22561132</v>
       </c>
       <c r="B60" t="n">
-        <v>24443873.37683315</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C60" t="n">
         <v>24209957.1567916</v>
       </c>
       <c r="D60" t="n">
-        <v>24259781.23841039</v>
+        <v>25667290.41292056</v>
       </c>
       <c r="E60" t="n">
-        <v>25155951.35464679</v>
+        <v>27212348.7404185</v>
       </c>
       <c r="F60" t="n">
-        <v>27108981.41950934</v>
+        <v>28217588.37939573</v>
       </c>
       <c r="G60" t="n">
-        <v>26691956.23232535</v>
+        <v>29259962.14234771</v>
       </c>
       <c r="H60" t="n">
-        <v>28764236.95336822</v>
+        <v>31361504.43776974</v>
       </c>
       <c r="I60" t="n">
-        <v>29659575.81143023</v>
+        <v>33431657.78736369</v>
       </c>
       <c r="J60" t="n">
-        <v>30582783.70951077</v>
+        <v>33889187.49654377</v>
       </c>
       <c r="K60" t="n">
-        <v>33312738.2345615</v>
+        <v>36914286.24606378</v>
       </c>
       <c r="L60" t="n">
-        <v>33574968.15165508</v>
+        <v>37848699.26005827</v>
       </c>
       <c r="M60" t="n">
-        <v>33253671.70583508</v>
+        <v>39246851.7364532</v>
       </c>
       <c r="N60" t="n">
-        <v>33322107.74818187</v>
+        <v>41609340.10698098</v>
       </c>
       <c r="O60" t="n">
-        <v>35327952.51160869</v>
+        <v>42420692.4532139</v>
       </c>
       <c r="P60" t="n">
-        <v>34784492.54972395</v>
+        <v>44727608.32740092</v>
       </c>
       <c r="Q60" t="n">
-        <v>37080595.20986973</v>
+        <v>48980228.10118596</v>
       </c>
       <c r="R60" t="n">
-        <v>39097106.69912221</v>
+        <v>48226751.29303441</v>
       </c>
       <c r="S60" t="n">
-        <v>38722966.01885311</v>
+        <v>52531684.39433257</v>
       </c>
       <c r="T60" t="n">
-        <v>40378540.49653236</v>
+        <v>56304674.80585035</v>
       </c>
       <c r="U60" t="n">
-        <v>41165893.13142373</v>
+        <v>56093207.85076647</v>
       </c>
     </row>
     <row r="61">
@@ -4338,64 +4338,64 @@
         <v>22561132</v>
       </c>
       <c r="B61" t="n">
-        <v>22214067.67656468</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C61" t="n">
-        <v>24067846.30622032</v>
+        <v>25762500.64129605</v>
       </c>
       <c r="D61" t="n">
-        <v>25376700.39346912</v>
+        <v>27912398.34714071</v>
       </c>
       <c r="E61" t="n">
-        <v>25428925.63217696</v>
+        <v>28943498.21673017</v>
       </c>
       <c r="F61" t="n">
-        <v>26220446.89777379</v>
+        <v>29171334.52019852</v>
       </c>
       <c r="G61" t="n">
-        <v>27798802.81997623</v>
+        <v>31775296.84853355</v>
       </c>
       <c r="H61" t="n">
-        <v>28502475.18561007</v>
+        <v>31471222.39949179</v>
       </c>
       <c r="I61" t="n">
-        <v>31212438.76535031</v>
+        <v>33365651.98136918</v>
       </c>
       <c r="J61" t="n">
-        <v>33817137.40970007</v>
+        <v>36150037.69172886</v>
       </c>
       <c r="K61" t="n">
-        <v>36049385.56033592</v>
+        <v>39166782.22991496</v>
       </c>
       <c r="L61" t="n">
-        <v>38848148.08084591</v>
+        <v>40613625.44085104</v>
       </c>
       <c r="M61" t="n">
-        <v>41412490.10833584</v>
+        <v>40933326.19787781</v>
       </c>
       <c r="N61" t="n">
-        <v>41016192.31218414</v>
+        <v>42207449.95072071</v>
       </c>
       <c r="O61" t="n">
-        <v>41100603.61866517</v>
+        <v>42785080.96214142</v>
       </c>
       <c r="P61" t="n">
-        <v>41424137.75157043</v>
+        <v>46106781.98901215</v>
       </c>
       <c r="Q61" t="n">
-        <v>42954368.9593045</v>
+        <v>49954423.41956353</v>
       </c>
       <c r="R61" t="n">
-        <v>45540033.60856504</v>
+        <v>52380614.44111681</v>
       </c>
       <c r="S61" t="n">
-        <v>45633754.97852622</v>
+        <v>56751811.33638938</v>
       </c>
       <c r="T61" t="n">
-        <v>48646010.68554433</v>
+        <v>59178197.02091698</v>
       </c>
       <c r="U61" t="n">
-        <v>49594573.07089122</v>
+        <v>60676177.42537276</v>
       </c>
     </row>
     <row r="62">
@@ -4403,64 +4403,64 @@
         <v>22561132</v>
       </c>
       <c r="B62" t="n">
-        <v>24443873.37683315</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C62" t="n">
-        <v>26199509.06478943</v>
+        <v>23852255.2093749</v>
       </c>
       <c r="D62" t="n">
-        <v>28081240.01683535</v>
+        <v>24594699.75869449</v>
       </c>
       <c r="E62" t="n">
-        <v>30098122.79051012</v>
+        <v>25789217.39392305</v>
       </c>
       <c r="F62" t="n">
-        <v>30510031.33105558</v>
+        <v>25842291.59244386</v>
       </c>
       <c r="G62" t="n">
-        <v>30750199.00896098</v>
+        <v>27397884.22353967</v>
       </c>
       <c r="H62" t="n">
-        <v>32780000.46843485</v>
+        <v>26976414.76218453</v>
       </c>
       <c r="I62" t="n">
-        <v>35515513.17296281</v>
+        <v>28757111.07701806</v>
       </c>
       <c r="J62" t="n">
-        <v>35175646.63601171</v>
+        <v>31156911.00296543</v>
       </c>
       <c r="K62" t="n">
-        <v>34839032.45986353</v>
+        <v>33032420.41707995</v>
       </c>
       <c r="L62" t="n">
-        <v>34303093.69447606</v>
+        <v>34828784.65858842</v>
       </c>
       <c r="M62" t="n">
-        <v>34971979.46580776</v>
+        <v>37330297.26144432</v>
       </c>
       <c r="N62" t="n">
-        <v>38297051.76379576</v>
+        <v>37407122.99746535</v>
       </c>
       <c r="O62" t="n">
-        <v>37930567.22800967</v>
+        <v>39441391.67296363</v>
       </c>
       <c r="P62" t="n">
-        <v>39552263.22609039</v>
+        <v>40439773.42206763</v>
       </c>
       <c r="Q62" t="n">
-        <v>41243293.7504486</v>
+        <v>43579392.0433661</v>
       </c>
       <c r="R62" t="n">
-        <v>43246401.82670826</v>
+        <v>44682519.18487034</v>
       </c>
       <c r="S62" t="n">
-        <v>45095372.77281038</v>
+        <v>45813569.83409842</v>
       </c>
       <c r="T62" t="n">
-        <v>47547742.71978177</v>
+        <v>45375155.80220614</v>
       </c>
       <c r="U62" t="n">
-        <v>49027752.14047913</v>
+        <v>48897942.20889719</v>
       </c>
     </row>
     <row r="63">
@@ -4468,64 +4468,64 @@
         <v>22561132</v>
       </c>
       <c r="B63" t="n">
-        <v>22869892.88252599</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C63" t="n">
-        <v>24246560.14575006</v>
+        <v>26911588.44218573</v>
       </c>
       <c r="D63" t="n">
-        <v>26551879.05230374</v>
+        <v>29000920.72701254</v>
       </c>
       <c r="E63" t="n">
-        <v>27687086.85823518</v>
+        <v>31083857.85514336</v>
       </c>
       <c r="F63" t="n">
-        <v>29836626.43558079</v>
+        <v>34039254.61127453</v>
       </c>
       <c r="G63" t="n">
-        <v>31632660.50840733</v>
+        <v>33911411.2740953</v>
       </c>
       <c r="H63" t="n">
-        <v>31881665.25500492</v>
+        <v>33981200.94419619</v>
       </c>
       <c r="I63" t="n">
-        <v>34171506.49457748</v>
+        <v>34446251.43868481</v>
       </c>
       <c r="J63" t="n">
-        <v>37420471.27613142</v>
+        <v>35117928.68354978</v>
       </c>
       <c r="K63" t="n">
-        <v>37279928.89406717</v>
+        <v>36823539.46704265</v>
       </c>
       <c r="L63" t="n">
-        <v>40824436.83242451</v>
+        <v>37541572.12668998</v>
       </c>
       <c r="M63" t="n">
-        <v>41857827.66682757</v>
+        <v>40237925.63791654</v>
       </c>
       <c r="N63" t="n">
-        <v>44620836.76682634</v>
+        <v>39618934.16009689</v>
       </c>
       <c r="O63" t="n">
-        <v>46528570.75827427</v>
+        <v>41543150.19068555</v>
       </c>
       <c r="P63" t="n">
-        <v>48517868.63883402</v>
+        <v>41145602.03980887</v>
       </c>
       <c r="Q63" t="n">
-        <v>49181861.02801053</v>
+        <v>43861597.57034176</v>
       </c>
       <c r="R63" t="n">
-        <v>51284598.5570288</v>
+        <v>44716867.32484215</v>
       </c>
       <c r="S63" t="n">
-        <v>54371706.49862279</v>
+        <v>46108760.63289831</v>
       </c>
       <c r="T63" t="n">
-        <v>56696332.39487155</v>
+        <v>47007848.45849729</v>
       </c>
       <c r="U63" t="n">
-        <v>62086916.71761551</v>
+        <v>47651175.43232528</v>
       </c>
     </row>
     <row r="64">
@@ -4533,64 +4533,64 @@
         <v>22561132</v>
       </c>
       <c r="B64" t="n">
-        <v>24706203.45921767</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C64" t="n">
-        <v>26624316.49196331</v>
+        <v>23034667.97036579</v>
       </c>
       <c r="D64" t="n">
-        <v>26524321.89721324</v>
+        <v>23215991.37373226</v>
       </c>
       <c r="E64" t="n">
-        <v>29046206.25464772</v>
+        <v>23533714.3490364</v>
       </c>
       <c r="F64" t="n">
-        <v>30794660.49870674</v>
+        <v>25223979.55964312</v>
       </c>
       <c r="G64" t="n">
-        <v>31932232.77140687</v>
+        <v>24982598.09517403</v>
       </c>
       <c r="H64" t="n">
-        <v>32554888.45190851</v>
+        <v>26341198.08002235</v>
       </c>
       <c r="I64" t="n">
-        <v>35650148.12576725</v>
+        <v>27620539.80601809</v>
       </c>
       <c r="J64" t="n">
-        <v>35308993.19647506</v>
+        <v>28640858.25510947</v>
       </c>
       <c r="K64" t="n">
-        <v>36202771.35417538</v>
+        <v>28366778.88976099</v>
       </c>
       <c r="L64" t="n">
-        <v>37119173.75920944</v>
+        <v>29579581.52272546</v>
       </c>
       <c r="M64" t="n">
-        <v>38921981.19721503</v>
+        <v>29468487.65602904</v>
       </c>
       <c r="N64" t="n">
-        <v>39002082.61810463</v>
+        <v>30728393.10943295</v>
       </c>
       <c r="O64" t="n">
-        <v>41803334.57573667</v>
+        <v>31863517.42708499</v>
       </c>
       <c r="P64" t="n">
-        <v>45534885.09354489</v>
+        <v>32484833.20756192</v>
       </c>
       <c r="Q64" t="n">
-        <v>48540614.46111477</v>
+        <v>33307123.27445501</v>
       </c>
       <c r="R64" t="n">
-        <v>51744750.14973964</v>
+        <v>34731147.02282327</v>
       </c>
       <c r="S64" t="n">
-        <v>54859557.19937315</v>
+        <v>35408379.52763774</v>
       </c>
       <c r="T64" t="n">
-        <v>57523981.20854672</v>
+        <v>36922241.079808</v>
       </c>
       <c r="U64" t="n">
-        <v>57307934.82887364</v>
+        <v>38500826.76874229</v>
       </c>
     </row>
     <row r="65">
@@ -4601,61 +4601,61 @@
         <v>22214067.67656468</v>
       </c>
       <c r="C65" t="n">
-        <v>23938699.01423851</v>
+        <v>22259784.21847488</v>
       </c>
       <c r="D65" t="n">
-        <v>25379703.71969808</v>
+        <v>23987964.84671433</v>
       </c>
       <c r="E65" t="n">
-        <v>26612347.49935382</v>
+        <v>25431935.13925003</v>
       </c>
       <c r="F65" t="n">
-        <v>27440704.90925309</v>
+        <v>27849957.34752754</v>
       </c>
       <c r="G65" t="n">
-        <v>28613913.86941302</v>
+        <v>27583446.52697868</v>
       </c>
       <c r="H65" t="n">
-        <v>30169991.53600868</v>
+        <v>29724939.7903518</v>
       </c>
       <c r="I65" t="n">
-        <v>29881279.09383586</v>
+        <v>29786113.70390467</v>
       </c>
       <c r="J65" t="n">
-        <v>30116497.38433643</v>
+        <v>31925445.85548013</v>
       </c>
       <c r="K65" t="n">
-        <v>32804829.12986944</v>
+        <v>31805541.48078952</v>
       </c>
       <c r="L65" t="n">
-        <v>32872341.45438418</v>
+        <v>32240816.93845829</v>
       </c>
       <c r="M65" t="n">
-        <v>35615560.07522096</v>
+        <v>33244370.63145085</v>
       </c>
       <c r="N65" t="n">
-        <v>38794762.4759275</v>
+        <v>34665711.43259565</v>
       </c>
       <c r="O65" t="n">
-        <v>39551232.57315723</v>
+        <v>34132438.9139668</v>
       </c>
       <c r="P65" t="n">
-        <v>38942804.69045898</v>
+        <v>33805807.73860155</v>
       </c>
       <c r="Q65" t="n">
-        <v>41286990.76211504</v>
+        <v>35644230.21597876</v>
       </c>
       <c r="R65" t="n">
-        <v>41131926.65329731</v>
+        <v>37997083.62330573</v>
       </c>
       <c r="S65" t="n">
-        <v>43607888.26745043</v>
+        <v>40505247.41671275</v>
       </c>
       <c r="T65" t="n">
-        <v>43951159.14612997</v>
+        <v>44356412.7829781</v>
       </c>
       <c r="U65" t="n">
-        <v>45574739.96137448</v>
+        <v>47542229.53431677</v>
       </c>
     </row>
     <row r="66">
@@ -4663,64 +4663,64 @@
         <v>22561132</v>
       </c>
       <c r="B66" t="n">
-        <v>24575038.41802541</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C66" t="n">
-        <v>26625841.61650325</v>
+        <v>23710906.92107359</v>
       </c>
       <c r="D66" t="n">
-        <v>26835433.88089412</v>
+        <v>24724650.86625706</v>
       </c>
       <c r="E66" t="n">
-        <v>29386898.20075312</v>
+        <v>25925479.97880488</v>
       </c>
       <c r="F66" t="n">
-        <v>30130770.09730491</v>
+        <v>25526660.93157888</v>
       </c>
       <c r="G66" t="n">
-        <v>29667259.87368641</v>
+        <v>25282382.95061632</v>
       </c>
       <c r="H66" t="n">
-        <v>31798055.5702261</v>
+        <v>25775371.31987672</v>
       </c>
       <c r="I66" t="n">
-        <v>31493763.33106289</v>
+        <v>27476787.50610434</v>
       </c>
       <c r="J66" t="n">
-        <v>32290966.4009</v>
+        <v>29769743.58384878</v>
       </c>
       <c r="K66" t="n">
-        <v>32732885.15229772</v>
+        <v>32254048.36177505</v>
       </c>
       <c r="L66" t="n">
-        <v>33942056.54602993</v>
+        <v>32507944.52510711</v>
       </c>
       <c r="M66" t="n">
-        <v>36182550.53095013</v>
+        <v>34653773.66989831</v>
       </c>
       <c r="N66" t="n">
-        <v>38570938.12654933</v>
+        <v>37142716.43438236</v>
       </c>
       <c r="O66" t="n">
-        <v>39323043.80918981</v>
+        <v>37651033.92065444</v>
       </c>
       <c r="P66" t="n">
-        <v>39632585.41592728</v>
+        <v>39260778.65939481</v>
       </c>
       <c r="Q66" t="n">
-        <v>40405392.46073534</v>
+        <v>42993622.19618765</v>
       </c>
       <c r="R66" t="n">
-        <v>40723454.05748872</v>
+        <v>45831604.38474059</v>
       </c>
       <c r="S66" t="n">
-        <v>43885096.76374371</v>
+        <v>50189190.09878466</v>
       </c>
       <c r="T66" t="n">
-        <v>47037062.11964611</v>
+        <v>50584267.41323201</v>
       </c>
       <c r="U66" t="n">
-        <v>51235798.30397477</v>
+        <v>53923303.35871886</v>
       </c>
     </row>
     <row r="67">
@@ -4728,64 +4728,64 @@
         <v>22561132</v>
       </c>
       <c r="B67" t="n">
-        <v>22738727.84133373</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C67" t="n">
-        <v>22521129.05151838</v>
+        <v>25637166.16066407</v>
       </c>
       <c r="D67" t="n">
-        <v>22567477.52560874</v>
+        <v>26137072.54855049</v>
       </c>
       <c r="E67" t="n">
-        <v>23925940.7104883</v>
+        <v>26646726.75314501</v>
       </c>
       <c r="F67" t="n">
-        <v>25922576.27626102</v>
+        <v>27631071.9942256</v>
       </c>
       <c r="G67" t="n">
-        <v>28236540.07623858</v>
+        <v>28651779.50833936</v>
       </c>
       <c r="H67" t="n">
-        <v>28130490.35350035</v>
+        <v>29876767.15187381</v>
       </c>
       <c r="I67" t="n">
-        <v>28842558.74082181</v>
+        <v>31675217.51979744</v>
       </c>
       <c r="J67" t="n">
-        <v>29908019.26436489</v>
+        <v>31556252.94316809</v>
       </c>
       <c r="K67" t="n">
-        <v>32229985.14751974</v>
+        <v>31437735.1691687</v>
       </c>
       <c r="L67" t="n">
-        <v>33982711.47191034</v>
+        <v>31136891.02454108</v>
       </c>
       <c r="M67" t="n">
-        <v>35238052.160704</v>
+        <v>33011195.32374541</v>
       </c>
       <c r="N67" t="n">
-        <v>37359228.37602807</v>
+        <v>34614486.08805932</v>
       </c>
       <c r="O67" t="n">
-        <v>37436113.65227071</v>
+        <v>36698126.36025167</v>
       </c>
       <c r="P67" t="n">
-        <v>40560182.07937616</v>
+        <v>39973963.41516621</v>
       </c>
       <c r="Q67" t="n">
-        <v>41586883.82114414</v>
+        <v>39823830.72449376</v>
       </c>
       <c r="R67" t="n">
-        <v>41914245.83563279</v>
+        <v>39674261.89646796</v>
       </c>
       <c r="S67" t="n">
-        <v>42487864.19550149</v>
+        <v>42985105.27382132</v>
       </c>
       <c r="T67" t="n">
-        <v>42822318.51225623</v>
+        <v>46072430.41684886</v>
       </c>
       <c r="U67" t="n">
-        <v>45151075.5558705</v>
+        <v>48310080.44594959</v>
       </c>
     </row>
     <row r="68">
@@ -4793,64 +4793,64 @@
         <v>22561132</v>
       </c>
       <c r="B68" t="n">
-        <v>23919213.21206409</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C68" t="n">
-        <v>26193408.56662968</v>
+        <v>23710906.92107359</v>
       </c>
       <c r="D68" t="n">
-        <v>27922419.13080998</v>
+        <v>25276049.09982239</v>
       </c>
       <c r="E68" t="n">
-        <v>30577232.03425002</v>
+        <v>24887220.43289433</v>
       </c>
       <c r="F68" t="n">
-        <v>32062309.84612594</v>
+        <v>26674698.69758843</v>
       </c>
       <c r="G68" t="n">
-        <v>32128294.06626787</v>
+        <v>27039755.89024093</v>
       </c>
       <c r="H68" t="n">
-        <v>34062276.48111606</v>
+        <v>28038619.85117369</v>
       </c>
       <c r="I68" t="n">
-        <v>33736316.72679888</v>
+        <v>30215451.36013107</v>
       </c>
       <c r="J68" t="n">
-        <v>36747769.55534659</v>
+        <v>33088281.60375524</v>
       </c>
       <c r="K68" t="n">
-        <v>38105253.06231662</v>
+        <v>33348744.65187296</v>
       </c>
       <c r="L68" t="n">
-        <v>41728231.32379048</v>
+        <v>33611258.00288181</v>
       </c>
       <c r="M68" t="n">
-        <v>45453077.79318885</v>
+        <v>34462061.31207401</v>
       </c>
       <c r="N68" t="n">
-        <v>49774673.88631795</v>
+        <v>34733338.42586477</v>
       </c>
       <c r="O68" t="n">
-        <v>53349647.15197176</v>
+        <v>35612545.00806068</v>
       </c>
       <c r="P68" t="n">
-        <v>56561061.96339796</v>
+        <v>38998521.1145298</v>
       </c>
       <c r="Q68" t="n">
-        <v>56019799.55330245</v>
+        <v>42026245.37540473</v>
       </c>
       <c r="R68" t="n">
-        <v>60694688.85145032</v>
+        <v>42112735.37066391</v>
       </c>
       <c r="S68" t="n">
-        <v>60113869.60182252</v>
+        <v>45382237.57048091</v>
       </c>
       <c r="T68" t="n">
-        <v>63033485.53800903</v>
+        <v>45739475.70298848</v>
       </c>
       <c r="U68" t="n">
-        <v>69026594.87324065</v>
+        <v>46365444.33276872</v>
       </c>
     </row>
     <row r="69">
@@ -4858,64 +4858,64 @@
         <v>22561132</v>
       </c>
       <c r="B69" t="n">
-        <v>23394553.04729505</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C69" t="n">
-        <v>25346843.96136178</v>
+        <v>25915287.36364688</v>
       </c>
       <c r="D69" t="n">
-        <v>27019973.32390138</v>
+        <v>25667290.41292056</v>
       </c>
       <c r="E69" t="n">
-        <v>29588983.3188752</v>
+        <v>25720113.68576588</v>
       </c>
       <c r="F69" t="n">
-        <v>31886180.24042216</v>
+        <v>25773045.66888444</v>
       </c>
       <c r="G69" t="n">
-        <v>31951801.98590984</v>
+        <v>26425439.95121593</v>
       </c>
       <c r="H69" t="n">
-        <v>34432440.82263146</v>
+        <v>28630660.38063295</v>
       </c>
       <c r="I69" t="n">
-        <v>34703484.77100556</v>
+        <v>28356678.60408364</v>
       </c>
       <c r="J69" t="n">
-        <v>35783693.4508331</v>
+        <v>30228485.27433079</v>
       </c>
       <c r="K69" t="n">
-        <v>36065374.13708719</v>
+        <v>32223848.73554417</v>
       </c>
       <c r="L69" t="n">
-        <v>36978298.60008878</v>
+        <v>33976241.35047888</v>
       </c>
       <c r="M69" t="n">
-        <v>36624433.90365738</v>
+        <v>35033813.26456419</v>
       </c>
       <c r="N69" t="n">
-        <v>38403212.77095035</v>
+        <v>34902234.6018407</v>
       </c>
       <c r="O69" t="n">
-        <v>40714917.77525278</v>
+        <v>38220675.68482041</v>
       </c>
       <c r="P69" t="n">
-        <v>40562002.23639012</v>
+        <v>38965951.50058091</v>
       </c>
       <c r="Q69" t="n">
-        <v>41824567.859873</v>
+        <v>40178837.16051999</v>
       </c>
       <c r="R69" t="n">
-        <v>41910642.80289026</v>
+        <v>39560754.65758824</v>
       </c>
       <c r="S69" t="n">
-        <v>42971528.81864172</v>
+        <v>41712141.81410539</v>
       </c>
       <c r="T69" t="n">
-        <v>42810137.98589273</v>
+        <v>41312976.49392172</v>
       </c>
       <c r="U69" t="n">
-        <v>45387120.56303081</v>
+        <v>43559652.7213043</v>
       </c>
     </row>
     <row r="70">
@@ -4923,64 +4923,64 @@
         <v>22561132</v>
       </c>
       <c r="B70" t="n">
-        <v>24706203.45921767</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C70" t="n">
-        <v>26193408.56662968</v>
+        <v>23690317.73978446</v>
       </c>
       <c r="D70" t="n">
-        <v>27313290.20702942</v>
+        <v>23463612.68809957</v>
       </c>
       <c r="E70" t="n">
-        <v>29592602.32710505</v>
+        <v>24876019.28005856</v>
       </c>
       <c r="F70" t="n">
-        <v>30857814.22014581</v>
+        <v>27096562.77419856</v>
       </c>
       <c r="G70" t="n">
-        <v>33253519.23874196</v>
+        <v>27782459.30547525</v>
       </c>
       <c r="H70" t="n">
-        <v>33515282.99804765</v>
+        <v>30423965.08289153</v>
       </c>
       <c r="I70" t="n">
-        <v>33194557.71070606</v>
+        <v>29955944.55724975</v>
       </c>
       <c r="J70" t="n">
-        <v>35385709.763678</v>
+        <v>31933317.77569639</v>
       </c>
       <c r="K70" t="n">
-        <v>36898602.08527309</v>
+        <v>31999036.53021178</v>
       </c>
       <c r="L70" t="n">
-        <v>36330980.37336455</v>
+        <v>32250925.30132715</v>
       </c>
       <c r="M70" t="n">
-        <v>38306726.41854119</v>
+        <v>33629792.01273611</v>
       </c>
       <c r="N70" t="n">
-        <v>38608267.81757391</v>
+        <v>34481064.47416639</v>
       </c>
       <c r="O70" t="n">
-        <v>39136642.14046489</v>
+        <v>37759461.46625787</v>
       </c>
       <c r="P70" t="n">
-        <v>42630151.89815994</v>
+        <v>37837170.42203142</v>
       </c>
       <c r="Q70" t="n">
-        <v>45196300.1020856</v>
+        <v>39234897.01659283</v>
       </c>
       <c r="R70" t="n">
-        <v>45814835.08988805</v>
+        <v>40912358.76121795</v>
       </c>
       <c r="S70" t="n">
-        <v>46708191.57780357</v>
+        <v>41472265.77285787</v>
       </c>
       <c r="T70" t="n">
-        <v>49248269.60043944</v>
+        <v>40834286.08895784</v>
       </c>
       <c r="U70" t="n">
-        <v>53071752.55348417</v>
+        <v>40918323.03250819</v>
       </c>
     </row>
     <row r="71">
@@ -4988,64 +4988,64 @@
         <v>22561132</v>
       </c>
       <c r="B71" t="n">
-        <v>24050378.25325636</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C71" t="n">
-        <v>24239697.08532035</v>
+        <v>24636289.70850541</v>
       </c>
       <c r="D71" t="n">
-        <v>25980668.19133871</v>
+        <v>25546368.26175915</v>
       </c>
       <c r="E71" t="n">
-        <v>26789363.44120167</v>
+        <v>27975270.56351262</v>
       </c>
       <c r="F71" t="n">
-        <v>27778977.76266098</v>
+        <v>29333976.07186479</v>
       </c>
       <c r="G71" t="n">
-        <v>27836146.88718152</v>
+        <v>32122997.24585249</v>
       </c>
       <c r="H71" t="n">
-        <v>29997259.02300036</v>
+        <v>33496394.47892862</v>
       </c>
       <c r="I71" t="n">
-        <v>31802962.47318881</v>
+        <v>35123250.44034397</v>
       </c>
       <c r="J71" t="n">
-        <v>32238202.6357907</v>
+        <v>36012326.8831736</v>
       </c>
       <c r="K71" t="n">
-        <v>33054249.73175444</v>
+        <v>38598845.20241708</v>
       </c>
       <c r="L71" t="n">
-        <v>33698783.93979222</v>
+        <v>38005068.16607149</v>
       </c>
       <c r="M71" t="n">
-        <v>36510969.73226076</v>
+        <v>38304234.9834058</v>
       </c>
       <c r="N71" t="n">
-        <v>39770100.35886812</v>
+        <v>41500748.7093659</v>
       </c>
       <c r="O71" t="n">
-        <v>40545588.84662409</v>
+        <v>42309983.60107998</v>
       </c>
       <c r="P71" t="n">
-        <v>42279088.34261479</v>
+        <v>42151077.37468544</v>
       </c>
       <c r="Q71" t="n">
-        <v>41628697.07718131</v>
+        <v>42482880.58604382</v>
       </c>
       <c r="R71" t="n">
-        <v>43650523.45758678</v>
+        <v>46028105.0493556</v>
       </c>
       <c r="S71" t="n">
-        <v>44501677.41798488</v>
+        <v>49066391.558616</v>
       </c>
       <c r="T71" t="n">
-        <v>46921761.11126089</v>
+        <v>53731534.96273181</v>
       </c>
       <c r="U71" t="n">
-        <v>47291118.00529505</v>
+        <v>56965937.74572387</v>
       </c>
     </row>
     <row r="72">
@@ -5053,64 +5053,64 @@
         <v>22561132</v>
       </c>
       <c r="B72" t="n">
-        <v>22476397.75894921</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C72" t="n">
-        <v>24613412.84040638</v>
+        <v>23163815.2623476</v>
       </c>
       <c r="D72" t="n">
-        <v>25093356.77139683</v>
+        <v>24962182.05780295</v>
       </c>
       <c r="E72" t="n">
-        <v>25728546.05761797</v>
+        <v>25158678.39158981</v>
       </c>
       <c r="F72" t="n">
-        <v>27576450.96866169</v>
+        <v>26673120.50575238</v>
       </c>
       <c r="G72" t="n">
-        <v>27633203.29312559</v>
+        <v>27038156.10002479</v>
       </c>
       <c r="H72" t="n">
-        <v>29778559.51754698</v>
+        <v>29137314.70537171</v>
       </c>
       <c r="I72" t="n">
-        <v>30186094.66768885</v>
+        <v>30044266.28269301</v>
       </c>
       <c r="J72" t="n">
-        <v>30774701.90513287</v>
+        <v>31678129.16440548</v>
       </c>
       <c r="K72" t="n">
-        <v>32985037.56339535</v>
+        <v>32295830.0064695</v>
       </c>
       <c r="L72" t="n">
-        <v>35545893.60671219</v>
+        <v>32737815.31885129</v>
       </c>
       <c r="M72" t="n">
-        <v>37272289.82987265</v>
+        <v>35660137.49589299</v>
       </c>
       <c r="N72" t="n">
-        <v>40165994.84614371</v>
+        <v>38221360.46821263</v>
       </c>
       <c r="O72" t="n">
-        <v>42583811.60127865</v>
+        <v>40966538.51122412</v>
       </c>
       <c r="P72" t="n">
-        <v>43414165.44407947</v>
+        <v>42956205.11362401</v>
       </c>
       <c r="Q72" t="n">
-        <v>46784706.6395943</v>
+        <v>43294346.09820131</v>
       </c>
       <c r="R72" t="n">
-        <v>50144931.07541889</v>
+        <v>44390257.85867467</v>
       </c>
       <c r="S72" t="n">
-        <v>51122721.33537313</v>
+        <v>46546207.97657701</v>
       </c>
       <c r="T72" t="n">
-        <v>52714008.42620192</v>
+        <v>49077477.03077278</v>
       </c>
       <c r="U72" t="n">
-        <v>54354827.20351562</v>
+        <v>50890426.94417185</v>
       </c>
     </row>
     <row r="73">
@@ -5118,64 +5118,64 @@
         <v>22561132</v>
       </c>
       <c r="B73" t="n">
-        <v>23788048.17087183</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C73" t="n">
-        <v>23837003.96397553</v>
+        <v>25331592.71596242</v>
       </c>
       <c r="D73" t="n">
-        <v>25687635.04294256</v>
+        <v>27003715.35330452</v>
       </c>
       <c r="E73" t="n">
-        <v>27532601.59653829</v>
+        <v>27530268.47220952</v>
       </c>
       <c r="F73" t="n">
-        <v>27589263.67901285</v>
+        <v>29347524.3250355</v>
       </c>
       <c r="G73" t="n">
-        <v>29570811.16834068</v>
+        <v>31284736.10338993</v>
       </c>
       <c r="H73" t="n">
-        <v>29115914.95251366</v>
+        <v>31712884.06728091</v>
       </c>
       <c r="I73" t="n">
-        <v>30191473.40998279</v>
+        <v>32884376.04082637</v>
       </c>
       <c r="J73" t="n">
-        <v>31131237.58206656</v>
+        <v>33525597.83349435</v>
       </c>
       <c r="K73" t="n">
-        <v>32462232.79494217</v>
+        <v>33399683.66889501</v>
       </c>
       <c r="L73" t="n">
-        <v>31962857.01618353</v>
+        <v>33274242.40792369</v>
       </c>
       <c r="M73" t="n">
-        <v>34630178.55954272</v>
+        <v>36050999.9289636</v>
       </c>
       <c r="N73" t="n">
-        <v>36513431.84997521</v>
+        <v>39478663.53307168</v>
       </c>
       <c r="O73" t="n">
-        <v>37437698.01833045</v>
+        <v>40477988.74647319</v>
       </c>
       <c r="P73" t="n">
-        <v>40561898.66183075</v>
+        <v>42914586.16626255</v>
       </c>
       <c r="Q73" t="n">
-        <v>39937923.41465253</v>
+        <v>45747351.23577031</v>
       </c>
       <c r="R73" t="n">
-        <v>41413253.0195247</v>
+        <v>49033069.55139163</v>
       </c>
       <c r="S73" t="n">
-        <v>41980015.0308715</v>
+        <v>51984645.32017739</v>
       </c>
       <c r="T73" t="n">
-        <v>42310471.68032554</v>
+        <v>51184950.70569295</v>
       </c>
       <c r="U73" t="n">
-        <v>44857376.53698877</v>
+        <v>53373328.99232414</v>
       </c>
     </row>
     <row r="74">
@@ -5183,64 +5183,64 @@
         <v>22561132</v>
       </c>
       <c r="B74" t="n">
-        <v>24050378.25325636</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C74" t="n">
-        <v>25637928.72293404</v>
+        <v>26767952.46707452</v>
       </c>
       <c r="D74" t="n">
-        <v>26883113.99824732</v>
+        <v>28534888.31581362</v>
       </c>
       <c r="E74" t="n">
-        <v>29282819.6432291</v>
+        <v>30418458.49799305</v>
       </c>
       <c r="F74" t="n">
-        <v>31045516.97569145</v>
+        <v>33133744.62794201</v>
       </c>
       <c r="G74" t="n">
-        <v>31470391.10079697</v>
+        <v>35320882.44724628</v>
       </c>
       <c r="H74" t="n">
-        <v>32449963.89727448</v>
+        <v>35598919.99584395</v>
       </c>
       <c r="I74" t="n">
-        <v>33271371.31572342</v>
+        <v>36707000.71528009</v>
       </c>
       <c r="J74" t="n">
-        <v>36241321.06067602</v>
+        <v>36355732.21032545</v>
       </c>
       <c r="K74" t="n">
-        <v>36737302.4801634</v>
+        <v>39178278.53488501</v>
       </c>
       <c r="L74" t="n">
-        <v>38948726.99025561</v>
+        <v>39714453.75234663</v>
       </c>
       <c r="M74" t="n">
-        <v>42199024.00015441</v>
+        <v>43490431.89309679</v>
       </c>
       <c r="N74" t="n">
-        <v>41549864.38731918</v>
+        <v>45855522.18058062</v>
       </c>
       <c r="O74" t="n">
-        <v>43326301.01144524</v>
+        <v>49682195.81405208</v>
       </c>
       <c r="P74" t="n">
-        <v>46186243.12112094</v>
+        <v>52672846.13732281</v>
       </c>
       <c r="Q74" t="n">
-        <v>47892389.20956314</v>
+        <v>52475019.46615084</v>
       </c>
       <c r="R74" t="n">
-        <v>52445910.60233627</v>
+        <v>52277935.78486259</v>
       </c>
       <c r="S74" t="n">
-        <v>57127464.52264629</v>
+        <v>56032701.17501461</v>
       </c>
       <c r="T74" t="n">
-        <v>56580781.90996511</v>
+        <v>56799537.97491954</v>
       </c>
       <c r="U74" t="n">
-        <v>59657749.69180817</v>
+        <v>60548840.05408122</v>
       </c>
     </row>
     <row r="75">
@@ -5248,64 +5248,64 @@
         <v>22561132</v>
       </c>
       <c r="B75" t="n">
-        <v>24706203.45921767</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C75" t="n">
-        <v>24469776.86529516</v>
+        <v>24530781.84689261</v>
       </c>
       <c r="D75" t="n">
-        <v>24235612.76121275</v>
+        <v>25864811.22680501</v>
       </c>
       <c r="E75" t="n">
-        <v>24003689.4960208</v>
+        <v>25466925.46428151</v>
       </c>
       <c r="F75" t="n">
-        <v>24890399.43764601</v>
+        <v>25667395.01758284</v>
       </c>
       <c r="G75" t="n">
-        <v>24507503.32938063</v>
+        <v>27660131.98265821</v>
       </c>
       <c r="H75" t="n">
-        <v>24842901.32077966</v>
+        <v>28681912.98927198</v>
       </c>
       <c r="I75" t="n">
-        <v>26627196.44777346</v>
+        <v>28574190.55189469</v>
       </c>
       <c r="J75" t="n">
-        <v>28849253.59017605</v>
+        <v>29795860.93156106</v>
       </c>
       <c r="K75" t="n">
-        <v>29747238.74470125</v>
+        <v>32109119.18951412</v>
       </c>
       <c r="L75" t="n">
-        <v>30154345.25369758</v>
+        <v>33108573.55206589</v>
       </c>
       <c r="M75" t="n">
-        <v>31443574.0893411</v>
+        <v>33754167.03571229</v>
       </c>
       <c r="N75" t="n">
-        <v>34250366.57050657</v>
+        <v>35786019.87359623</v>
       </c>
       <c r="O75" t="n">
-        <v>35515594.59086613</v>
+        <v>37524078.57132596</v>
       </c>
       <c r="P75" t="n">
-        <v>35588685.66955641</v>
+        <v>38692083.33058123</v>
       </c>
       <c r="Q75" t="n">
-        <v>35455023.03816871</v>
+        <v>42370856.34826942</v>
       </c>
       <c r="R75" t="n">
-        <v>35527989.46062909</v>
+        <v>45906732.31489823</v>
       </c>
       <c r="S75" t="n">
-        <v>36840413.59717351</v>
+        <v>50271461.05610828</v>
       </c>
       <c r="T75" t="n">
-        <v>36916231.15282007</v>
+        <v>52128517.41845898</v>
       </c>
       <c r="U75" t="n">
-        <v>38279937.72701011</v>
+        <v>57084802.18846376</v>
       </c>
     </row>
     <row r="76">
@@ -5313,64 +5313,64 @@
         <v>22561132</v>
       </c>
       <c r="B76" t="n">
-        <v>22738727.84133373</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C76" t="n">
-        <v>22521129.05151838</v>
+        <v>22518078.80243851</v>
       </c>
       <c r="D76" t="n">
-        <v>23745869.78791403</v>
+        <v>23349909.44012995</v>
       </c>
       <c r="E76" t="n">
-        <v>24761108.54705311</v>
+        <v>23397963.54391056</v>
       </c>
       <c r="F76" t="n">
-        <v>26971394.60097691</v>
+        <v>23718176.90346755</v>
       </c>
       <c r="G76" t="n">
-        <v>28908564.79431887</v>
+        <v>24456448.02320872</v>
       </c>
       <c r="H76" t="n">
-        <v>31489071.13483327</v>
+        <v>25359883.12232606</v>
       </c>
       <c r="I76" t="n">
-        <v>32286155.43089288</v>
+        <v>27771054.75568194</v>
       </c>
       <c r="J76" t="n">
-        <v>34041936.3993941</v>
+        <v>30411476.20921471</v>
       </c>
       <c r="K76" t="n">
-        <v>34309906.39023852</v>
+        <v>30297257.94411071</v>
       </c>
       <c r="L76" t="n">
-        <v>34181046.54940692</v>
+        <v>30711891.75330704</v>
       </c>
       <c r="M76" t="n">
-        <v>35642434.30209127</v>
+        <v>30596545.19893421</v>
       </c>
       <c r="N76" t="n">
-        <v>38824035.61513845</v>
+        <v>31548917.96249709</v>
       </c>
       <c r="O76" t="n">
-        <v>38226794.41049513</v>
+        <v>32714352.93487922</v>
       </c>
       <c r="P76" t="n">
-        <v>38527706.60385597</v>
+        <v>33732646.29153726</v>
       </c>
       <c r="Q76" t="n">
-        <v>37935023.91284641</v>
+        <v>35959317.23615538</v>
       </c>
       <c r="R76" t="n">
-        <v>38454184.54104428</v>
+        <v>38542028.2362119</v>
       </c>
       <c r="S76" t="n">
-        <v>41439648.19811878</v>
+        <v>40862089.32279404</v>
       </c>
       <c r="T76" t="n">
-        <v>42006771.44127954</v>
+        <v>42609120.58466924</v>
       </c>
       <c r="U76" t="n">
-        <v>45268046.93016993</v>
+        <v>46164879.8593027</v>
       </c>
     </row>
     <row r="77">
@@ -5378,64 +5378,64 @@
         <v>22561132</v>
       </c>
       <c r="B77" t="n">
-        <v>22214067.67656468</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C77" t="n">
-        <v>22001489.63451125</v>
+        <v>23311264.04880865</v>
       </c>
       <c r="D77" t="n">
-        <v>24093351.31393689</v>
+        <v>24443447.66068331</v>
       </c>
       <c r="E77" t="n">
-        <v>24142935.42078026</v>
+        <v>24351643.89010154</v>
       </c>
       <c r="F77" t="n">
-        <v>24332982.84075544</v>
+        <v>24826483.51394714</v>
       </c>
       <c r="G77" t="n">
-        <v>24383060.10917995</v>
+        <v>26465264.20787139</v>
       </c>
       <c r="H77" t="n">
-        <v>25709056.10722175</v>
+        <v>26981317.9148882</v>
       </c>
       <c r="I77" t="n">
-        <v>25612499.01259646</v>
+        <v>27036845.45577842</v>
       </c>
       <c r="J77" t="n">
-        <v>27898783.944715</v>
+        <v>28821530.76300897</v>
       </c>
       <c r="K77" t="n">
-        <v>27794002.75360298</v>
+        <v>30053776.00774702</v>
       </c>
       <c r="L77" t="n">
-        <v>28497553.61493745</v>
+        <v>31163979.58598712</v>
       </c>
       <c r="M77" t="n">
-        <v>30875693.29912368</v>
+        <v>34126994.1707847</v>
       </c>
       <c r="N77" t="n">
-        <v>33631794.22952422</v>
+        <v>35189258.53884336</v>
       </c>
       <c r="O77" t="n">
-        <v>33896535.67918885</v>
+        <v>35057096.06067387</v>
       </c>
       <c r="P77" t="n">
-        <v>33966294.7353217</v>
+        <v>35740684.33839732</v>
       </c>
       <c r="Q77" t="n">
-        <v>34036197.35556265</v>
+        <v>38099904.62219232</v>
       </c>
       <c r="R77" t="n">
-        <v>34502000.50468355</v>
+        <v>40171848.04638053</v>
       </c>
       <c r="S77" t="n">
-        <v>34171832.80100136</v>
+        <v>41655818.96018893</v>
       </c>
       <c r="T77" t="n">
-        <v>35036825.96566547</v>
+        <v>45132024.58418947</v>
       </c>
       <c r="U77" t="n">
-        <v>35720018.99104652</v>
+        <v>49160708.69315083</v>
       </c>
     </row>
     <row r="78">
@@ -5443,64 +5443,64 @@
         <v>22561132</v>
       </c>
       <c r="B78" t="n">
-        <v>22869892.88252599</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C78" t="n">
-        <v>24778400.55907669</v>
+        <v>25498105.55917267</v>
       </c>
       <c r="D78" t="n">
-        <v>25981840.19163862</v>
+        <v>25105860.93444477</v>
       </c>
       <c r="E78" t="n">
-        <v>26488467.47639573</v>
+        <v>25741366.73911633</v>
       </c>
       <c r="F78" t="n">
-        <v>27774961.7959512</v>
+        <v>27739846.63929552</v>
       </c>
       <c r="G78" t="n">
-        <v>27993599.65987417</v>
+        <v>27958208.08509418</v>
       </c>
       <c r="H78" t="n">
-        <v>27888462.36350716</v>
+        <v>30616423.73731431</v>
       </c>
       <c r="I78" t="n">
-        <v>28107993.67678306</v>
+        <v>30679432.32445407</v>
       </c>
       <c r="J78" t="n">
-        <v>29963384.8100694</v>
+        <v>32169473.80940476</v>
       </c>
       <c r="K78" t="n">
-        <v>30199249.41715341</v>
+        <v>34105935.06420973</v>
       </c>
       <c r="L78" t="n">
-        <v>32543825.50638522</v>
+        <v>33581273.74499095</v>
       </c>
       <c r="M78" t="n">
-        <v>32800002.72617298</v>
+        <v>34040851.02674483</v>
       </c>
       <c r="N78" t="n">
-        <v>34774419.05679268</v>
+        <v>33715096.30381616</v>
       </c>
       <c r="O78" t="n">
-        <v>36665516.4127876</v>
+        <v>35940608.78468971</v>
       </c>
       <c r="P78" t="n">
-        <v>38019961.4418916</v>
+        <v>37686175.57084189</v>
       </c>
       <c r="Q78" t="n">
-        <v>37435089.53941493</v>
+        <v>39735619.64245058</v>
       </c>
       <c r="R78" t="n">
-        <v>36859214.88810144</v>
+        <v>39124355.28091542</v>
       </c>
       <c r="S78" t="n">
-        <v>38649396.61979555</v>
+        <v>40342171.5447856</v>
       </c>
       <c r="T78" t="n">
-        <v>38953635.43678991</v>
+        <v>43943292.18851597</v>
       </c>
       <c r="U78" t="n">
-        <v>40619072.03094368</v>
+        <v>44289203.28673539</v>
       </c>
     </row>
     <row r="79">
@@ -5508,64 +5508,64 @@
         <v>22561132</v>
       </c>
       <c r="B79" t="n">
-        <v>24312708.33564088</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C79" t="n">
-        <v>25917575.05045678</v>
+        <v>24251898.08163984</v>
       </c>
       <c r="D79" t="n">
-        <v>28231092.41890134</v>
+        <v>24583797.98163677</v>
       </c>
       <c r="E79" t="n">
-        <v>29109836.18982631</v>
+        <v>26635332.17148747</v>
       </c>
       <c r="F79" t="n">
-        <v>30862120.67695518</v>
+        <v>27619256.49024118</v>
       </c>
       <c r="G79" t="n">
-        <v>31284484.92786423</v>
+        <v>28800099.30366248</v>
       </c>
       <c r="H79" t="n">
-        <v>31166987.84983519</v>
+        <v>28859369.89588378</v>
       </c>
       <c r="I79" t="n">
-        <v>30868734.62803508</v>
+        <v>31267703.38785188</v>
       </c>
       <c r="J79" t="n">
-        <v>31470652.85604119</v>
+        <v>33877013.9014757</v>
       </c>
       <c r="K79" t="n">
-        <v>31718382.31710238</v>
+        <v>36310167.34200981</v>
       </c>
       <c r="L79" t="n">
-        <v>34549705.39600623</v>
+        <v>38284781.53596843</v>
       </c>
       <c r="M79" t="n">
-        <v>37633764.8943463</v>
+        <v>39699043.13964899</v>
       </c>
       <c r="N79" t="n">
-        <v>40993121.18263818</v>
+        <v>40703946.83209875</v>
       </c>
       <c r="O79" t="n">
-        <v>43222403.08540297</v>
+        <v>41024358.57753998</v>
       </c>
       <c r="P79" t="n">
-        <v>43060070.02862934</v>
+        <v>44924880.0902634</v>
       </c>
       <c r="Q79" t="n">
-        <v>45902438.39716212</v>
+        <v>44233787.85633027</v>
       </c>
       <c r="R79" t="n">
-        <v>47598100.57769273</v>
+        <v>46124973.83083345</v>
       </c>
       <c r="S79" t="n">
-        <v>52123641.54178003</v>
+        <v>49437814.186168</v>
       </c>
       <c r="T79" t="n">
-        <v>55261256.19171228</v>
+        <v>50114396.51095016</v>
       </c>
       <c r="U79" t="n">
-        <v>56660086.89403219</v>
+        <v>49343472.46691539</v>
       </c>
     </row>
     <row r="80">
@@ -5573,64 +5573,64 @@
         <v>22561132</v>
       </c>
       <c r="B80" t="n">
-        <v>23788048.17087183</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C80" t="n">
-        <v>25358282.3954113</v>
+        <v>23950137.44828802</v>
       </c>
       <c r="D80" t="n">
-        <v>26589885.78222299</v>
+        <v>25531071.0849441</v>
       </c>
       <c r="E80" t="n">
-        <v>26799195.01087613</v>
+        <v>27810087.40012863</v>
       </c>
       <c r="F80" t="n">
-        <v>28723997.28931476</v>
+        <v>30454220.00661154</v>
       </c>
       <c r="G80" t="n">
-        <v>28449122.32302696</v>
+        <v>31756269.78647672</v>
       </c>
       <c r="H80" t="n">
-        <v>28673067.01756464</v>
+        <v>34037104.73002319</v>
       </c>
       <c r="I80" t="n">
-        <v>30065663.1681423</v>
+        <v>37075407.22596164</v>
       </c>
       <c r="J80" t="n">
-        <v>29952743.69449881</v>
+        <v>39091636.58303427</v>
       </c>
       <c r="K80" t="n">
-        <v>30710938.86388166</v>
+        <v>38944817.70190291</v>
       </c>
       <c r="L80" t="n">
-        <v>32023964.48655362</v>
+        <v>41968372.5963338</v>
       </c>
       <c r="M80" t="n">
-        <v>34137846.41083006</v>
+        <v>45958649.24762101</v>
       </c>
       <c r="N80" t="n">
-        <v>35795856.46854767</v>
+        <v>48457965.76920924</v>
       </c>
       <c r="O80" t="n">
-        <v>38574935.7764612</v>
+        <v>48275969.18533573</v>
       </c>
       <c r="P80" t="n">
-        <v>38878588.45548525</v>
+        <v>48375321.1095601</v>
       </c>
       <c r="Q80" t="n">
-        <v>41897001.51657406</v>
+        <v>52693516.20972543</v>
       </c>
       <c r="R80" t="n">
-        <v>42226804.70347517</v>
+        <v>55865434.81567229</v>
       </c>
       <c r="S80" t="n">
-        <v>44277680.02996994</v>
+        <v>59228289.01230373</v>
       </c>
       <c r="T80" t="n">
-        <v>47200422.07533879</v>
+        <v>64859607.17216329</v>
       </c>
       <c r="U80" t="n">
-        <v>46474324.53052414</v>
+        <v>67632636.23750541</v>
       </c>
     </row>
     <row r="81">
@@ -5638,64 +5638,64 @@
         <v>22561132</v>
       </c>
       <c r="B81" t="n">
-        <v>23919213.21206409</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C81" t="n">
-        <v>26054347.96513828</v>
+        <v>22391219.1972666</v>
       </c>
       <c r="D81" t="n">
-        <v>26713862.86534476</v>
+        <v>22697654.7342858</v>
       </c>
       <c r="E81" t="n">
-        <v>26768839.98385581</v>
+        <v>24855706.52715211</v>
       </c>
       <c r="F81" t="n">
-        <v>28535834.41702415</v>
+        <v>27074436.81513534</v>
       </c>
       <c r="G81" t="n">
-        <v>28262760.07975942</v>
+        <v>29176412.14271178</v>
       </c>
       <c r="H81" t="n">
-        <v>28156611.88092971</v>
+        <v>31441578.31735582</v>
       </c>
       <c r="I81" t="n">
-        <v>29687820.61787051</v>
+        <v>31689078.91059428</v>
       </c>
       <c r="J81" t="n">
-        <v>30094113.95874751</v>
+        <v>31754295.02162829</v>
       </c>
       <c r="K81" t="n">
-        <v>32255567.65509477</v>
+        <v>33850376.23270214</v>
       </c>
       <c r="L81" t="n">
-        <v>35322368.45116336</v>
+        <v>36281616.47227902</v>
       </c>
       <c r="M81" t="n">
-        <v>36216485.17729659</v>
+        <v>39520274.01259478</v>
       </c>
       <c r="N81" t="n">
-        <v>37554342.73718357</v>
+        <v>39601606.71984612</v>
       </c>
       <c r="O81" t="n">
-        <v>38286625.53745651</v>
+        <v>40834278.29724447</v>
       </c>
       <c r="P81" t="n">
-        <v>38588008.70715536</v>
+        <v>40206112.956507</v>
       </c>
       <c r="Q81" t="n">
-        <v>40013471.69499426</v>
+        <v>42860093.39855575</v>
       </c>
       <c r="R81" t="n">
-        <v>39397933.05614752</v>
+        <v>46935153.24434034</v>
       </c>
       <c r="S81" t="n">
-        <v>39020913.61099368</v>
+        <v>48668964.49866266</v>
       </c>
       <c r="T81" t="n">
-        <v>42050376.3558641</v>
+        <v>50466823.72679184</v>
       </c>
       <c r="U81" t="n">
-        <v>44337153.75436769</v>
+        <v>51744292.74111713</v>
       </c>
     </row>
     <row r="82">
@@ -5703,64 +5703,64 @@
         <v>22561132</v>
       </c>
       <c r="B82" t="n">
-        <v>24706203.45921767</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C82" t="n">
-        <v>25331592.71596242</v>
+        <v>22917721.67470345</v>
       </c>
       <c r="D82" t="n">
-        <v>25530996.96219948</v>
+        <v>23897553.51590907</v>
       </c>
       <c r="E82" t="n">
-        <v>25880401.99887127</v>
+        <v>25752885.47434883</v>
       </c>
       <c r="F82" t="n">
-        <v>25482276.39905773</v>
+        <v>26404769.44075513</v>
       </c>
       <c r="G82" t="n">
-        <v>27164345.57234831</v>
+        <v>27533687.67377052</v>
       </c>
       <c r="H82" t="n">
-        <v>27536103.83838564</v>
+        <v>28390723.46164959</v>
       </c>
       <c r="I82" t="n">
-        <v>29994098.24431966</v>
+        <v>28449151.55856066</v>
       </c>
       <c r="J82" t="n">
-        <v>30055826.08585729</v>
+        <v>31154045.22467752</v>
       </c>
       <c r="K82" t="n">
-        <v>31515580.20577604</v>
+        <v>32486015.56303768</v>
       </c>
       <c r="L82" t="n">
-        <v>33229455.86542268</v>
+        <v>34063799.34853154</v>
       </c>
       <c r="M82" t="n">
-        <v>34456970.86371288</v>
+        <v>37302523.53023717</v>
       </c>
       <c r="N82" t="n">
-        <v>36731454.02162126</v>
+        <v>37596160.08403348</v>
       </c>
       <c r="O82" t="n">
-        <v>37020595.25267213</v>
+        <v>37236382.74762864</v>
       </c>
       <c r="P82" t="n">
-        <v>37957699.27140711</v>
+        <v>37313015.20761985</v>
       </c>
       <c r="Q82" t="n">
-        <v>38035816.20050005</v>
+        <v>39776024.07152107</v>
       </c>
       <c r="R82" t="n">
-        <v>39440880.8830941</v>
+        <v>41245373.02258079</v>
       </c>
       <c r="S82" t="n">
-        <v>39292750.32351031</v>
+        <v>41570046.7456488</v>
       </c>
       <c r="T82" t="n">
-        <v>38916737.42698537</v>
+        <v>41897276.22270146</v>
       </c>
       <c r="U82" t="n">
-        <v>40806849.10219131</v>
+        <v>41252758.48192433</v>
       </c>
     </row>
     <row r="83">
@@ -5768,64 +5768,64 @@
         <v>22561132</v>
       </c>
       <c r="B83" t="n">
-        <v>24575038.41802541</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C83" t="n">
-        <v>26340094.79082076</v>
+        <v>23690317.73978446</v>
       </c>
       <c r="D83" t="n">
-        <v>27925652.99150861</v>
+        <v>24565451.55051007</v>
       </c>
       <c r="E83" t="n">
-        <v>27658417.7997179</v>
+        <v>25472913.30191961</v>
       </c>
       <c r="F83" t="n">
-        <v>27715338.81188555</v>
+        <v>26265803.76323194</v>
       </c>
       <c r="G83" t="n">
-        <v>27450116.22657337</v>
+        <v>28763108.68596015</v>
       </c>
       <c r="H83" t="n">
-        <v>28144962.27254038</v>
+        <v>29491190.57002923</v>
       </c>
       <c r="I83" t="n">
-        <v>27712000.29664166</v>
+        <v>29894792.92593692</v>
       </c>
       <c r="J83" t="n">
-        <v>30024585.03721672</v>
+        <v>30651521.18486796</v>
       </c>
       <c r="K83" t="n">
-        <v>30610042.95248245</v>
+        <v>33031210.25183544</v>
       </c>
       <c r="L83" t="n">
-        <v>32986511.77809453</v>
+        <v>33675295.2065075</v>
       </c>
       <c r="M83" t="n">
-        <v>34588603.70969777</v>
+        <v>36877081.11991863</v>
       </c>
       <c r="N83" t="n">
-        <v>34257607.25461239</v>
+        <v>36738579.58192555</v>
       </c>
       <c r="O83" t="n">
-        <v>36917261.6630374</v>
+        <v>39590848.98936309</v>
       </c>
       <c r="P83" t="n">
-        <v>37637121.83841602</v>
+        <v>41283529.22218746</v>
       </c>
       <c r="Q83" t="n">
-        <v>41215591.03325448</v>
+        <v>44728667.02149259</v>
       </c>
       <c r="R83" t="n">
-        <v>42019265.55441318</v>
+        <v>48461303.84716058</v>
       </c>
       <c r="S83" t="n">
-        <v>41861451.19579567</v>
+        <v>49688007.04516043</v>
       </c>
       <c r="T83" t="n">
-        <v>45841561.95449053</v>
+        <v>50945761.83724716</v>
       </c>
       <c r="U83" t="n">
-        <v>47268463.41544886</v>
+        <v>53420100.27405742</v>
       </c>
     </row>
     <row r="84">
@@ -5833,64 +5833,64 @@
         <v>22561132</v>
       </c>
       <c r="B84" t="n">
-        <v>23788048.17087183</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C84" t="n">
-        <v>24805090.23852557</v>
+        <v>23714719.73242343</v>
       </c>
       <c r="D84" t="n">
-        <v>25432982.6208321</v>
+        <v>23763524.61563173</v>
       </c>
       <c r="E84" t="n">
-        <v>26224630.16753263</v>
+        <v>23536119.00903007</v>
       </c>
       <c r="F84" t="n">
-        <v>25821209.20769621</v>
+        <v>25773890.4624758</v>
       </c>
       <c r="G84" t="n">
-        <v>25574112.54009152</v>
+        <v>27025679.14003397</v>
       </c>
       <c r="H84" t="n">
-        <v>25924107.63598023</v>
+        <v>27552660.53705752</v>
       </c>
       <c r="I84" t="n">
-        <v>25977459.4385623</v>
+        <v>28089917.69408583</v>
       </c>
       <c r="J84" t="n">
-        <v>27390161.82704791</v>
+        <v>29290883.31205521</v>
       </c>
       <c r="K84" t="n">
-        <v>29198169.32760314</v>
+        <v>31735226.88380497</v>
       </c>
       <c r="L84" t="n">
-        <v>29088507.95431535</v>
+        <v>32723043.1726413</v>
       </c>
       <c r="M84" t="n">
-        <v>29486599.38817331</v>
+        <v>35263558.7837974</v>
       </c>
       <c r="N84" t="n">
-        <v>31775847.53879125</v>
+        <v>35541145.09421081</v>
       </c>
       <c r="O84" t="n">
-        <v>32580191.01906422</v>
+        <v>36234171.98158398</v>
       </c>
       <c r="P84" t="n">
-        <v>34351962.18778852</v>
+        <v>38836623.91191941</v>
       </c>
       <c r="Q84" t="n">
-        <v>37618084.3689428</v>
+        <v>38916549.66755188</v>
       </c>
       <c r="R84" t="n">
-        <v>41194743.51575608</v>
+        <v>40580400.68447983</v>
       </c>
       <c r="S84" t="n">
-        <v>45111464.91898357</v>
+        <v>40192065.58760105</v>
       </c>
       <c r="T84" t="n">
-        <v>45728838.89296793</v>
+        <v>42845118.77158883</v>
       </c>
       <c r="U84" t="n">
-        <v>47152231.64492263</v>
+        <v>45424207.03862923</v>
       </c>
     </row>
     <row r="85">
@@ -5898,64 +5898,64 @@
         <v>22561132</v>
       </c>
       <c r="B85" t="n">
-        <v>22869892.88252599</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C85" t="n">
-        <v>24113600.0424184</v>
+        <v>23049919.21576514</v>
       </c>
       <c r="D85" t="n">
-        <v>26406277.34380478</v>
+        <v>23365369.40679334</v>
       </c>
       <c r="E85" t="n">
-        <v>27228220.44770146</v>
+        <v>23005933.2701232</v>
       </c>
       <c r="F85" t="n">
-        <v>27917449.63568166</v>
+        <v>24658291.58752673</v>
       </c>
       <c r="G85" t="n">
-        <v>28137209.12983917</v>
+        <v>25855897.75653459</v>
       </c>
       <c r="H85" t="n">
-        <v>29830945.73308909</v>
+        <v>28163909.53695828</v>
       </c>
       <c r="I85" t="n">
-        <v>30759487.82968194</v>
+        <v>29368038.6266141</v>
       </c>
       <c r="J85" t="n">
-        <v>32253417.45775818</v>
+        <v>31818820.86035842</v>
       </c>
       <c r="K85" t="n">
-        <v>34569959.10704765</v>
+        <v>34104148.41830907</v>
       </c>
       <c r="L85" t="n">
-        <v>34038159.57373194</v>
+        <v>33777787.96950607</v>
       </c>
       <c r="M85" t="n">
-        <v>37076556.22968484</v>
+        <v>33847302.64290246</v>
       </c>
       <c r="N85" t="n">
-        <v>39523956.58391825</v>
+        <v>36671882.4193067</v>
       </c>
       <c r="O85" t="n">
-        <v>42132908.3092336</v>
+        <v>40158578.40306501</v>
       </c>
       <c r="P85" t="n">
-        <v>41974667.13548196</v>
+        <v>42575948.72084896</v>
       </c>
       <c r="Q85" t="n">
-        <v>43769265.91659681</v>
+        <v>41920990.76761246</v>
       </c>
       <c r="R85" t="n">
-        <v>47167376.01177662</v>
+        <v>43713294.65156845</v>
       </c>
       <c r="S85" t="n">
-        <v>48909765.70720033</v>
+        <v>47361197.98187152</v>
       </c>
       <c r="T85" t="n">
-        <v>49010421.9843994</v>
+        <v>48835400.86047673</v>
       </c>
       <c r="U85" t="n">
-        <v>48541415.60081629</v>
+        <v>49503738.84405803</v>
       </c>
     </row>
     <row r="86">
@@ -5963,64 +5963,64 @@
         <v>22561132</v>
       </c>
       <c r="B86" t="n">
-        <v>22607562.80014147</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C86" t="n">
-        <v>22785524.13364177</v>
+        <v>23717769.9815033</v>
       </c>
       <c r="D86" t="n">
-        <v>24422051.97524496</v>
+        <v>25007586.26941496</v>
       </c>
       <c r="E86" t="n">
-        <v>24188344.57561811</v>
+        <v>26076768.87169413</v>
       </c>
       <c r="F86" t="n">
-        <v>24659999.97972834</v>
+        <v>27040059.54448121</v>
       </c>
       <c r="G86" t="n">
-        <v>25284219.6856862</v>
+        <v>28510548.09605129</v>
       </c>
       <c r="H86" t="n">
-        <v>26659222.41162409</v>
+        <v>30889772.17827497</v>
       </c>
       <c r="I86" t="n">
-        <v>28263990.69565632</v>
+        <v>33287958.31365171</v>
       </c>
       <c r="J86" t="n">
-        <v>28815118.28157492</v>
+        <v>35098219.17956601</v>
       </c>
       <c r="K86" t="n">
-        <v>30047089.36496397</v>
+        <v>37619083.41517272</v>
       </c>
       <c r="L86" t="n">
-        <v>32903912.05583547</v>
+        <v>37477795.0931944</v>
       </c>
       <c r="M86" t="n">
-        <v>33354219.28886427</v>
+        <v>38426472.23237745</v>
       </c>
       <c r="N86" t="n">
-        <v>33035035.3044683</v>
+        <v>40516175.00843768</v>
       </c>
       <c r="O86" t="n">
-        <v>32526847.941458</v>
+        <v>42483968.31489902</v>
       </c>
       <c r="P86" t="n">
-        <v>34484821.55186726</v>
+        <v>43065383.62465008</v>
       </c>
       <c r="Q86" t="n">
-        <v>34956764.35757869</v>
+        <v>43905127.77717555</v>
       </c>
       <c r="R86" t="n">
-        <v>35435165.94723736</v>
+        <v>47569039.70859967</v>
       </c>
       <c r="S86" t="n">
-        <v>37980230.756998</v>
+        <v>48773156.98370142</v>
       </c>
       <c r="T86" t="n">
-        <v>41591322.12472448</v>
+        <v>50574865.14148544</v>
       </c>
       <c r="U86" t="n">
-        <v>42402323.13320149</v>
+        <v>53031189.83353434</v>
       </c>
     </row>
     <row r="87">
@@ -6028,64 +6028,64 @@
         <v>22561132</v>
       </c>
       <c r="B87" t="n">
-        <v>24312708.33564088</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C87" t="n">
-        <v>25493530.18555287</v>
+        <v>23680404.43027487</v>
       </c>
       <c r="D87" t="n">
-        <v>26435275.68956797</v>
+        <v>24555172.03770919</v>
       </c>
       <c r="E87" t="n">
-        <v>27719186.58553874</v>
+        <v>24891222.40029475</v>
       </c>
       <c r="F87" t="n">
-        <v>28904301.84325696</v>
+        <v>25666006.68105899</v>
       </c>
       <c r="G87" t="n">
-        <v>30812256.78200122</v>
+        <v>28106283.98645438</v>
       </c>
       <c r="H87" t="n">
-        <v>30696533.28047279</v>
+        <v>30124965.49661225</v>
       </c>
       <c r="I87" t="n">
-        <v>31116631.38132018</v>
+        <v>29836683.93218032</v>
       </c>
       <c r="J87" t="n">
-        <v>31723383.41855961</v>
+        <v>31979648.19623403</v>
       </c>
       <c r="K87" t="n">
-        <v>33448559.80204064</v>
+        <v>34648370.9746663</v>
       </c>
       <c r="L87" t="n">
-        <v>36239864.22483201</v>
+        <v>37539800.43281002</v>
       </c>
       <c r="M87" t="n">
-        <v>36103755.9218056</v>
+        <v>36962314.98398103</v>
       </c>
       <c r="N87" t="n">
-        <v>36807753.31757452</v>
+        <v>39617064.42957668</v>
       </c>
       <c r="O87" t="n">
-        <v>39665393.1593684</v>
+        <v>39007623.83666917</v>
       </c>
       <c r="P87" t="n">
-        <v>39747024.52176259</v>
+        <v>41582492.75934526</v>
       </c>
       <c r="Q87" t="n">
-        <v>41446381.93487715</v>
+        <v>41184568.11883432</v>
       </c>
       <c r="R87" t="n">
-        <v>44182231.7587046</v>
+        <v>41748200.45779777</v>
       </c>
       <c r="S87" t="n">
-        <v>47098673.32321274</v>
+        <v>43290402.72620439</v>
       </c>
       <c r="T87" t="n">
-        <v>46647961.46331662</v>
+        <v>47406375.60141384</v>
       </c>
       <c r="U87" t="n">
-        <v>47828763.44272058</v>
+        <v>47228328.53987656</v>
       </c>
     </row>
     <row r="88">
@@ -6093,64 +6093,64 @@
         <v>22561132</v>
       </c>
       <c r="B88" t="n">
-        <v>23525718.08848731</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C88" t="n">
-        <v>25078636.06788857</v>
+        <v>24920511.40964796</v>
       </c>
       <c r="D88" t="n">
-        <v>25421850.30930471</v>
+        <v>25406443.54290354</v>
       </c>
       <c r="E88" t="n">
-        <v>26656541.06839275</v>
+        <v>25163315.98506373</v>
       </c>
       <c r="F88" t="n">
-        <v>28726072.26591582</v>
+        <v>26824330.78034359</v>
       </c>
       <c r="G88" t="n">
-        <v>29787229.71282641</v>
+        <v>28750938.3886185</v>
       </c>
       <c r="H88" t="n">
-        <v>32446169.5698273</v>
+        <v>30648769.90136594</v>
       </c>
       <c r="I88" t="n">
-        <v>33078846.64999888</v>
+        <v>31780952.89242779</v>
       </c>
       <c r="J88" t="n">
-        <v>36031610.79185626</v>
+        <v>32585425.60475057</v>
       </c>
       <c r="K88" t="n">
-        <v>38619514.14193199</v>
+        <v>32084154.71588893</v>
       </c>
       <c r="L88" t="n">
-        <v>38025419.14939924</v>
+        <v>34388539.38393056</v>
       </c>
       <c r="M88" t="n">
-        <v>40977594.79089247</v>
+        <v>37458212.49128251</v>
       </c>
       <c r="N88" t="n">
-        <v>40347224.7716883</v>
+        <v>37970847.70598071</v>
       </c>
       <c r="O88" t="n">
-        <v>42072243.34450818</v>
+        <v>37607484.78758275</v>
       </c>
       <c r="P88" t="n">
-        <v>44604807.90002628</v>
+        <v>38778085.71605118</v>
       </c>
       <c r="Q88" t="n">
-        <v>44696604.5758737</v>
+        <v>40210570.25670138</v>
       </c>
       <c r="R88" t="n">
-        <v>48686421.1692652</v>
+        <v>39825774.26078212</v>
       </c>
       <c r="S88" t="n">
-        <v>53315437.67879326</v>
+        <v>41528498.56624632</v>
       </c>
       <c r="T88" t="n">
-        <v>56214829.98965873</v>
+        <v>42579711.34747923</v>
       </c>
       <c r="U88" t="n">
-        <v>56657339.70182415</v>
+        <v>44400178.38865357</v>
       </c>
     </row>
     <row r="89">
@@ -6158,64 +6158,64 @@
         <v>22561132</v>
       </c>
       <c r="B89" t="n">
-        <v>22214067.67656468</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C89" t="n">
-        <v>22388931.5104567</v>
+        <v>25069485.32064895</v>
       </c>
       <c r="D89" t="n">
-        <v>22044516.19622883</v>
+        <v>27161550.4399478</v>
       </c>
       <c r="E89" t="n">
-        <v>23884145.642788</v>
+        <v>28638645.89157331</v>
       </c>
       <c r="F89" t="n">
-        <v>25044153.02049921</v>
+        <v>28531085.95511511</v>
       </c>
       <c r="G89" t="n">
-        <v>25241294.61012185</v>
+        <v>28258057.05836807</v>
       </c>
       <c r="H89" t="n">
-        <v>27200950.46072496</v>
+        <v>30123353.78188704</v>
       </c>
       <c r="I89" t="n">
-        <v>29312747.91547794</v>
+        <v>30010217.63603174</v>
       </c>
       <c r="J89" t="n">
-        <v>31588498.7767981</v>
+        <v>30246450.89993354</v>
       </c>
       <c r="K89" t="n">
-        <v>31469859.89512381</v>
+        <v>31539617.65079472</v>
       </c>
       <c r="L89" t="n">
-        <v>32815332.67820407</v>
+        <v>31421162.35499341</v>
       </c>
       <c r="M89" t="n">
-        <v>33455208.17472529</v>
+        <v>33129903.3969292</v>
       </c>
       <c r="N89" t="n">
-        <v>33913060.18326453</v>
+        <v>34353740.87041467</v>
       </c>
       <c r="O89" t="n">
-        <v>36348802.58086576</v>
+        <v>34424440.85463825</v>
       </c>
       <c r="P89" t="n">
-        <v>36212285.13130715</v>
+        <v>37297183.19626246</v>
       </c>
       <c r="Q89" t="n">
-        <v>36497339.58888098</v>
+        <v>39542310.07029328</v>
       </c>
       <c r="R89" t="n">
-        <v>37421198.41309605</v>
+        <v>40543246.37139886</v>
       </c>
       <c r="S89" t="n">
-        <v>38150884.99436003</v>
+        <v>40155266.82359122</v>
       </c>
       <c r="T89" t="n">
-        <v>41556401.70972214</v>
+        <v>42338984.65350939</v>
       </c>
       <c r="U89" t="n">
-        <v>41400325.75751924</v>
+        <v>42918415.78608163</v>
       </c>
     </row>
     <row r="90">
@@ -6223,64 +6223,64 @@
         <v>22561132</v>
       </c>
       <c r="B90" t="n">
-        <v>22214067.67656468</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C90" t="n">
-        <v>22130636.92649306</v>
+        <v>24393246.36994114</v>
       </c>
       <c r="D90" t="n">
-        <v>22948155.24093687</v>
+        <v>24017998.10900394</v>
       </c>
       <c r="E90" t="n">
-        <v>24462948.65696362</v>
+        <v>23927792.22565881</v>
       </c>
       <c r="F90" t="n">
-        <v>24797736.89438505</v>
+        <v>24533477.52329059</v>
       </c>
       <c r="G90" t="n">
-        <v>26002115.65585496</v>
+        <v>26866076.01305471</v>
       </c>
       <c r="H90" t="n">
-        <v>27113818.69597173</v>
+        <v>28170910.05867627</v>
       </c>
       <c r="I90" t="n">
-        <v>29534118.0625547</v>
+        <v>28228885.77969672</v>
       </c>
       <c r="J90" t="n">
-        <v>31655351.09643539</v>
+        <v>29764024.90519822</v>
       </c>
       <c r="K90" t="n">
-        <v>32456644.44475872</v>
+        <v>31036565.85575619</v>
       </c>
       <c r="L90" t="n">
-        <v>34221696.92180251</v>
+        <v>31280878.2876529</v>
       </c>
       <c r="M90" t="n">
-        <v>37077520.14823109</v>
+        <v>31163394.75530592</v>
       </c>
       <c r="N90" t="n">
-        <v>38662744.68973865</v>
+        <v>31952235.19029362</v>
       </c>
       <c r="O90" t="n">
-        <v>40990072.37746127</v>
+        <v>32761043.57924647</v>
       </c>
       <c r="P90" t="n">
-        <v>42265962.45769572</v>
+        <v>34161720.05597945</v>
       </c>
       <c r="Q90" t="n">
-        <v>42844394.24335472</v>
+        <v>35622281.5173811</v>
       </c>
       <c r="R90" t="n">
-        <v>45921613.0786393</v>
+        <v>37559487.20533256</v>
       </c>
       <c r="S90" t="n">
-        <v>46283097.0462923</v>
+        <v>39820403.63046247</v>
       </c>
       <c r="T90" t="n">
-        <v>48261899.86270069</v>
+        <v>43374948.96266259</v>
       </c>
       <c r="U90" t="n">
-        <v>49483555.53853312</v>
+        <v>44977244.24602121</v>
       </c>
     </row>
     <row r="91">
@@ -6288,64 +6288,64 @@
         <v>22561132</v>
       </c>
       <c r="B91" t="n">
-        <v>24312708.33564088</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C91" t="n">
-        <v>24645440.45574503</v>
+        <v>24943388.277747</v>
       </c>
       <c r="D91" t="n">
-        <v>25269291.61580722</v>
+        <v>24994721.76030342</v>
       </c>
       <c r="E91" t="n">
-        <v>26202753.61952449</v>
+        <v>27225861.16278706</v>
       </c>
       <c r="F91" t="n">
-        <v>27627707.92311019</v>
+        <v>27440176.63770385</v>
       </c>
       <c r="G91" t="n">
-        <v>27202703.01828526</v>
+        <v>27496648.50965211</v>
       </c>
       <c r="H91" t="n">
-        <v>28998336.47978119</v>
+        <v>27233518.68632039</v>
       </c>
       <c r="I91" t="n">
-        <v>30912498.5862385</v>
+        <v>29664503.00341032</v>
       </c>
       <c r="J91" t="n">
-        <v>32413859.65478279</v>
+        <v>30760326.61547859</v>
       </c>
       <c r="K91" t="n">
-        <v>33045906.7147399</v>
+        <v>32254296.98178039</v>
       </c>
       <c r="L91" t="n">
-        <v>35227246.40817308</v>
+        <v>31758119.93889692</v>
       </c>
       <c r="M91" t="n">
-        <v>34685335.63697854</v>
+        <v>33485185.35873135</v>
       </c>
       <c r="N91" t="n">
-        <v>36571588.47150502</v>
+        <v>35111496.91456816</v>
       </c>
       <c r="O91" t="n">
-        <v>38347800.73699896</v>
+        <v>38041574.53849265</v>
       </c>
       <c r="P91" t="n">
-        <v>41770895.02240103</v>
+        <v>39004522.65252803</v>
       </c>
       <c r="Q91" t="n">
-        <v>45256703.81985091</v>
+        <v>42259475.84732075</v>
       </c>
       <c r="R91" t="n">
-        <v>44823618.73035308</v>
+        <v>45540370.52276322</v>
       </c>
       <c r="S91" t="n">
-        <v>46479428.69883359</v>
+        <v>49340744.54209518</v>
       </c>
       <c r="T91" t="n">
-        <v>49007066.17214315</v>
+        <v>49729143.09581075</v>
       </c>
       <c r="U91" t="n">
-        <v>50532499.67259268</v>
+        <v>53300846.19722</v>
       </c>
     </row>
     <row r="92">
@@ -6353,64 +6353,64 @@
         <v>22561132</v>
       </c>
       <c r="B92" t="n">
-        <v>23001057.92371826</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C92" t="n">
-        <v>24519343.41284309</v>
+        <v>24121225.66511808</v>
       </c>
       <c r="D92" t="n">
-        <v>25140002.67269817</v>
+        <v>25292747.56711347</v>
       </c>
       <c r="E92" t="n">
-        <v>26068688.66932637</v>
+        <v>27403444.06844153</v>
       </c>
       <c r="F92" t="n">
-        <v>27031680.85484252</v>
+        <v>28893694.14388777</v>
       </c>
       <c r="G92" t="n">
-        <v>29444648.23447498</v>
+        <v>31640854.11172177</v>
       </c>
       <c r="H92" t="n">
-        <v>30532350.28634057</v>
+        <v>32073875.73667442</v>
       </c>
       <c r="I92" t="n">
-        <v>30595185.85035368</v>
+        <v>33631642.6772545</v>
       </c>
       <c r="J92" t="n">
-        <v>31725389.41609623</v>
+        <v>34482961.98464027</v>
       </c>
       <c r="K92" t="n">
-        <v>33819562.58617565</v>
+        <v>35756782.21188215</v>
       </c>
       <c r="L92" t="n">
-        <v>35462114.20588475</v>
+        <v>37285539.48747683</v>
       </c>
       <c r="M92" t="n">
-        <v>38627619.34968611</v>
+        <v>39096426.99144228</v>
       </c>
       <c r="N92" t="n">
-        <v>41851119.71474823</v>
+        <v>38494995.51262626</v>
       </c>
       <c r="O92" t="n">
-        <v>44856998.45660833</v>
+        <v>41036026.1593287</v>
       </c>
       <c r="P92" t="n">
-        <v>46774829.38293511</v>
+        <v>43267641.31424202</v>
       </c>
       <c r="Q92" t="n">
-        <v>46871091.9620792</v>
+        <v>44614424.84366897</v>
       </c>
       <c r="R92" t="n">
-        <v>48057542.05399097</v>
+        <v>47040639.95090931</v>
       </c>
       <c r="S92" t="n">
-        <v>50671000.25628306</v>
+        <v>51513178.57095861</v>
       </c>
       <c r="T92" t="n">
-        <v>51659048.48867997</v>
+        <v>52517648.67762225</v>
       </c>
       <c r="U92" t="n">
-        <v>53267029.73140885</v>
+        <v>53236380.14703135</v>
       </c>
     </row>
     <row r="93">
@@ -6418,64 +6418,64 @@
         <v>22561132</v>
       </c>
       <c r="B93" t="n">
-        <v>24706203.45921767</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C93" t="n">
-        <v>25044320.76574</v>
+        <v>25777751.88669541</v>
       </c>
       <c r="D93" t="n">
-        <v>26988684.17780061</v>
+        <v>26729996.70199641</v>
       </c>
       <c r="E93" t="n">
-        <v>29554719.25758471</v>
+        <v>27095810.67673958</v>
       </c>
       <c r="F93" t="n">
-        <v>29615542.85735294</v>
+        <v>26994045.26207202</v>
       </c>
       <c r="G93" t="n">
-        <v>31053913.26101966</v>
+        <v>27834283.70464221</v>
       </c>
       <c r="H93" t="n">
-        <v>31117822.20141471</v>
+        <v>27729744.76107743</v>
       </c>
       <c r="I93" t="n">
-        <v>32086420.65373448</v>
+        <v>29076525.54972211</v>
       </c>
       <c r="J93" t="n">
-        <v>31592826.10024977</v>
+        <v>31164892.85345907</v>
       </c>
       <c r="K93" t="n">
-        <v>33678248.84852219</v>
+        <v>33222067.99498786</v>
       </c>
       <c r="L93" t="n">
-        <v>36488720.97405188</v>
+        <v>35415035.98466869</v>
       </c>
       <c r="M93" t="n">
-        <v>36351678.02431644</v>
+        <v>35899709.26105021</v>
       </c>
       <c r="N93" t="n">
-        <v>36637829.7494436</v>
+        <v>39312988.42319913</v>
       </c>
       <c r="O93" t="n">
-        <v>38630262.83237762</v>
+        <v>40308119.89497638</v>
       </c>
       <c r="P93" t="n">
-        <v>40506460.98317947</v>
+        <v>42968833.7514177</v>
       </c>
       <c r="Q93" t="n">
-        <v>41767297.7847817</v>
+        <v>46554611.32756321</v>
       </c>
       <c r="R93" t="n">
-        <v>44767156.17260812</v>
+        <v>50710281.82057118</v>
       </c>
       <c r="S93" t="n">
-        <v>47201677.09257427</v>
+        <v>55236905.84007187</v>
       </c>
       <c r="T93" t="n">
-        <v>47573237.41834244</v>
+        <v>60488730.53632524</v>
       </c>
       <c r="U93" t="n">
-        <v>47394563.6635427</v>
+        <v>59909882.2096284</v>
       </c>
     </row>
     <row r="94">
@@ -6483,64 +6483,64 @@
         <v>22561132</v>
       </c>
       <c r="B94" t="n">
-        <v>23394553.04729505</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C94" t="n">
-        <v>24394771.49448108</v>
+        <v>23422109.84631123</v>
       </c>
       <c r="D94" t="n">
-        <v>24303150.53999208</v>
+        <v>23606483.09956673</v>
       </c>
       <c r="E94" t="n">
-        <v>23929288.24888412</v>
+        <v>25576459.71656745</v>
       </c>
       <c r="F94" t="n">
-        <v>24117653.88936164</v>
+        <v>25629096.05987798</v>
       </c>
       <c r="G94" t="n">
-        <v>24728145.16395963</v>
+        <v>26277846.53918106</v>
       </c>
       <c r="H94" t="n">
-        <v>26216671.06577906</v>
+        <v>26331926.33627674</v>
       </c>
       <c r="I94" t="n">
-        <v>26575459.91091163</v>
+        <v>26539204.96979694</v>
       </c>
       <c r="J94" t="n">
-        <v>27093662.35525464</v>
+        <v>28753919.16520578</v>
       </c>
       <c r="K94" t="n">
-        <v>29197130.29415541</v>
+        <v>30986284.29505412</v>
       </c>
       <c r="L94" t="n">
-        <v>31124414.65632344</v>
+        <v>32311082.12722503</v>
       </c>
       <c r="M94" t="n">
-        <v>32274168.23514733</v>
+        <v>33880369.72955262</v>
       </c>
       <c r="N94" t="n">
-        <v>31965319.82466155</v>
+        <v>35722847.02618404</v>
       </c>
       <c r="O94" t="n">
-        <v>33889491.90483433</v>
+        <v>37457837.53926253</v>
       </c>
       <c r="P94" t="n">
-        <v>36126516.13057071</v>
+        <v>40801489.77380794</v>
       </c>
       <c r="Q94" t="n">
-        <v>37671081.13223201</v>
+        <v>44680821.32540549</v>
       </c>
       <c r="R94" t="n">
-        <v>38405640.24764176</v>
+        <v>48409465.39611213</v>
       </c>
       <c r="S94" t="n">
-        <v>39377803.97360338</v>
+        <v>53012149.45368449</v>
       </c>
       <c r="T94" t="n">
-        <v>40145642.96267023</v>
+        <v>57744248.35803457</v>
       </c>
       <c r="U94" t="n">
-        <v>39994865.48448616</v>
+        <v>62563044.04868525</v>
       </c>
     </row>
     <row r="95">
@@ -6548,64 +6548,64 @@
         <v>22561132</v>
       </c>
       <c r="B95" t="n">
-        <v>22738727.84133373</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C95" t="n">
-        <v>24768487.2495671</v>
+        <v>23551257.13829305</v>
       </c>
       <c r="D95" t="n">
-        <v>24963458.86409649</v>
+        <v>25516625.11232474</v>
       </c>
       <c r="E95" t="n">
-        <v>25305096.84528377</v>
+        <v>25124095.59603266</v>
       </c>
       <c r="F95" t="n">
-        <v>26681234.90985236</v>
+        <v>26198259.47654</v>
       </c>
       <c r="G95" t="n">
-        <v>29062919.93460179</v>
+        <v>27166038.08136556</v>
       </c>
       <c r="H95" t="n">
-        <v>28615836.75437141</v>
+        <v>28959251.31324121</v>
       </c>
       <c r="I95" t="n">
-        <v>30338384.64175601</v>
+        <v>29523935.98350362</v>
       </c>
       <c r="J95" t="n">
-        <v>31635481.95817678</v>
+        <v>29756341.3544076</v>
       </c>
       <c r="K95" t="n">
-        <v>32252351.21024814</v>
+        <v>29644583.61986156</v>
       </c>
       <c r="L95" t="n">
-        <v>32693741.49258035</v>
+        <v>30567324.85888555</v>
       </c>
       <c r="M95" t="n">
-        <v>32190804.34954641</v>
+        <v>30452521.26335361</v>
       </c>
       <c r="N95" t="n">
-        <v>32631352.33092374</v>
+        <v>33347891.6828538</v>
       </c>
       <c r="O95" t="n">
-        <v>34975038.44871965</v>
+        <v>34967535.14683951</v>
       </c>
       <c r="P95" t="n">
-        <v>36470372.79328816</v>
+        <v>38292184.88705096</v>
       </c>
       <c r="Q95" t="n">
-        <v>36757458.85528092</v>
+        <v>40151963.23717476</v>
       </c>
       <c r="R95" t="n">
-        <v>36833105.69010365</v>
+        <v>43969538.98521882</v>
       </c>
       <c r="S95" t="n">
-        <v>40120991.59694148</v>
+        <v>45082541.93408412</v>
       </c>
       <c r="T95" t="n">
-        <v>42069591.59920259</v>
+        <v>46747916.6729681</v>
       </c>
       <c r="U95" t="n">
-        <v>42889918.52006494</v>
+        <v>48474811.3018567</v>
       </c>
     </row>
     <row r="96">
@@ -6613,64 +6613,64 @@
         <v>22561132</v>
       </c>
       <c r="B96" t="n">
-        <v>23132222.96491052</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C96" t="n">
-        <v>23717769.9815033</v>
+        <v>23705568.98518381</v>
       </c>
       <c r="D96" t="n">
-        <v>23628691.68353492</v>
+        <v>25545995.85992354</v>
       </c>
       <c r="E96" t="n">
-        <v>24089434.25687446</v>
+        <v>26489679.47578875</v>
       </c>
       <c r="F96" t="n">
-        <v>24699211.20662622</v>
+        <v>27468223.30112615</v>
       </c>
       <c r="G96" t="n">
-        <v>24893637.49669537</v>
+        <v>27844140.29269717</v>
       </c>
       <c r="H96" t="n">
-        <v>25089594.26407222</v>
+        <v>30005873.01173597</v>
       </c>
       <c r="I96" t="n">
-        <v>27183337.48799044</v>
+        <v>30242072.07579323</v>
       </c>
       <c r="J96" t="n">
-        <v>29609842.40939308</v>
+        <v>31886692.00312942</v>
       </c>
       <c r="K96" t="n">
-        <v>29842924.01515893</v>
+        <v>33249986.16381684</v>
       </c>
       <c r="L96" t="n">
-        <v>31118838.2443211</v>
+        <v>35831411.99497321</v>
       </c>
       <c r="M96" t="n">
-        <v>31725633.31380928</v>
+        <v>36530098.87912503</v>
       </c>
       <c r="N96" t="n">
-        <v>31975369.92012014</v>
+        <v>37030032.3739816</v>
       </c>
       <c r="O96" t="n">
-        <v>34271941.32277562</v>
+        <v>38182659.0525015</v>
       </c>
       <c r="P96" t="n">
-        <v>35936464.11448409</v>
+        <v>41147042.31253499</v>
       </c>
       <c r="Q96" t="n">
-        <v>38099681.66677253</v>
+        <v>43384694.73160672</v>
       </c>
       <c r="R96" t="n">
-        <v>37956588.33216898</v>
+        <v>46500719.64335766</v>
       </c>
       <c r="S96" t="n">
-        <v>38917385.18648151</v>
+        <v>48488826.76815225</v>
       </c>
       <c r="T96" t="n">
-        <v>42617579.49547727</v>
+        <v>52535251.40989873</v>
       </c>
       <c r="U96" t="n">
-        <v>43200823.34406364</v>
+        <v>53254223.78189874</v>
       </c>
     </row>
     <row r="97">
@@ -6678,64 +6678,64 @@
         <v>22561132</v>
       </c>
       <c r="B97" t="n">
-        <v>22345232.71775694</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C97" t="n">
-        <v>22780948.76002196</v>
+        <v>24659166.57660446</v>
       </c>
       <c r="D97" t="n">
-        <v>24814476.99417777</v>
+        <v>24279827.5893414</v>
       </c>
       <c r="E97" t="n">
-        <v>25154076.08061294</v>
+        <v>24047481.20931384</v>
       </c>
       <c r="F97" t="n">
-        <v>25937042.15720771</v>
+        <v>25215421.48381132</v>
       </c>
       <c r="G97" t="n">
-        <v>25688837.02347377</v>
+        <v>26733279.28329768</v>
       </c>
       <c r="H97" t="n">
-        <v>26189750.95619662</v>
+        <v>27099138.18188153</v>
       </c>
       <c r="I97" t="n">
-        <v>26852693.31850098</v>
+        <v>27627551.97763579</v>
       </c>
       <c r="J97" t="n">
-        <v>29093568.32380448</v>
+        <v>28808749.4590648</v>
       </c>
       <c r="K97" t="n">
-        <v>29491729.01146359</v>
+        <v>31380345.84132508</v>
       </c>
       <c r="L97" t="n">
-        <v>31095543.89234522</v>
+        <v>30897613.03790964</v>
       </c>
       <c r="M97" t="n">
-        <v>32786577.1988111</v>
+        <v>30422306.25078706</v>
       </c>
       <c r="N97" t="n">
-        <v>34188345.34834759</v>
+        <v>32430463.71378147</v>
       </c>
       <c r="O97" t="n">
-        <v>37438911.13753839</v>
+        <v>32685748.57661956</v>
       </c>
       <c r="P97" t="n">
-        <v>39910230.31325957</v>
+        <v>32182934.39088981</v>
       </c>
       <c r="Q97" t="n">
-        <v>39296279.86601166</v>
+        <v>31687855.13908021</v>
       </c>
       <c r="R97" t="n">
-        <v>40976365.99325291</v>
+        <v>32858422.52978321</v>
       </c>
       <c r="S97" t="n">
-        <v>42013602.61744417</v>
+        <v>34263262.37832746</v>
       </c>
       <c r="T97" t="n">
-        <v>43565608.99257056</v>
+        <v>37321752.70612671</v>
       </c>
       <c r="U97" t="n">
-        <v>44668387.2430804</v>
+        <v>39134399.01701926</v>
       </c>
     </row>
     <row r="98">
@@ -6743,64 +6743,64 @@
         <v>22561132</v>
       </c>
       <c r="B98" t="n">
-        <v>23525718.08848731</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C98" t="n">
-        <v>24668317.32384408</v>
+        <v>25218459.23164993</v>
       </c>
       <c r="D98" t="n">
-        <v>26870320.42281877</v>
+        <v>27176342.21427166</v>
       </c>
       <c r="E98" t="n">
-        <v>27550490.07112021</v>
+        <v>28654242.06999861</v>
       </c>
       <c r="F98" t="n">
-        <v>28247876.88479931</v>
+        <v>28213445.69783182</v>
       </c>
       <c r="G98" t="n">
-        <v>29619822.36198407</v>
+        <v>28107482.71208122</v>
       </c>
       <c r="H98" t="n">
-        <v>32263818.69849645</v>
+        <v>29799429.91533741</v>
       </c>
       <c r="I98" t="n">
-        <v>35143829.84097415</v>
+        <v>29687510.35041388</v>
       </c>
       <c r="J98" t="n">
-        <v>37667969.97740414</v>
+        <v>31992356.60519749</v>
       </c>
       <c r="K98" t="n">
-        <v>40592394.37348729</v>
+        <v>34476143.97681733</v>
       </c>
       <c r="L98" t="n">
-        <v>42327895.00843133</v>
+        <v>34346659.78718387</v>
       </c>
       <c r="M98" t="n">
-        <v>42907174.37341491</v>
+        <v>34816711.77693823</v>
       </c>
       <c r="N98" t="n">
-        <v>45988902.27463716</v>
+        <v>35495612.73320682</v>
       </c>
       <c r="O98" t="n">
-        <v>47153021.45869219</v>
+        <v>38251382.04844145</v>
       </c>
       <c r="P98" t="n">
-        <v>49991426.57662266</v>
+        <v>39664409.85605744</v>
       </c>
       <c r="Q98" t="n">
-        <v>54453882.39793989</v>
+        <v>40899036.29456854</v>
       </c>
       <c r="R98" t="n">
-        <v>57415185.44252052</v>
+        <v>42409869.95583949</v>
       </c>
       <c r="S98" t="n">
-        <v>59536135.04656276</v>
+        <v>41757466.83957727</v>
       </c>
       <c r="T98" t="n">
-        <v>60350918.16999661</v>
+        <v>42328939.59694767</v>
       </c>
       <c r="U98" t="n">
-        <v>62580315.41063401</v>
+        <v>45861317.58297445</v>
       </c>
     </row>
     <row r="99">
@@ -6808,64 +6808,64 @@
         <v>22561132</v>
       </c>
       <c r="B99" t="n">
-        <v>22607562.80014147</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C99" t="n">
-        <v>24625613.83672586</v>
+        <v>23843104.46213528</v>
       </c>
       <c r="D99" t="n">
-        <v>26251135.24852745</v>
+        <v>24723882.30127907</v>
       </c>
       <c r="E99" t="n">
-        <v>28136574.15508641</v>
+        <v>24487286.52926249</v>
       </c>
       <c r="F99" t="n">
-        <v>29666693.20335978</v>
+        <v>24822407.84318601</v>
       </c>
       <c r="G99" t="n">
-        <v>30072697.4045274</v>
+        <v>26893854.18368851</v>
       </c>
       <c r="H99" t="n">
-        <v>31708106.42333683</v>
+        <v>26480138.360084</v>
       </c>
       <c r="I99" t="n">
-        <v>31773361.69298404</v>
+        <v>28843872.61745965</v>
       </c>
       <c r="J99" t="n">
-        <v>32947087.74441848</v>
+        <v>30244764.47008988</v>
       </c>
       <c r="K99" t="n">
-        <v>34930357.94814415</v>
+        <v>30834515.7266822</v>
       </c>
       <c r="L99" t="n">
-        <v>36829935.55005347</v>
+        <v>31077237.66823187</v>
       </c>
       <c r="M99" t="n">
-        <v>39046936.16474156</v>
+        <v>31502545.90759296</v>
       </c>
       <c r="N99" t="n">
-        <v>38446266.01741747</v>
+        <v>32483119.58054234</v>
       </c>
       <c r="O99" t="n">
-        <v>39195940.68317582</v>
+        <v>33116517.15947236</v>
       </c>
       <c r="P99" t="n">
-        <v>42238991.98724313</v>
+        <v>33954797.07109554</v>
       </c>
       <c r="Q99" t="n">
-        <v>42571487.2414291</v>
+        <v>36196132.05012979</v>
       </c>
       <c r="R99" t="n">
-        <v>45629105.03948493</v>
+        <v>38585416.15334005</v>
       </c>
       <c r="S99" t="n">
-        <v>47845223.60096861</v>
+        <v>41581068.22589766</v>
       </c>
       <c r="T99" t="n">
-        <v>48221849.77111001</v>
+        <v>42150126.8760488</v>
       </c>
       <c r="U99" t="n">
-        <v>50563892.99668629</v>
+        <v>43217074.96308377</v>
       </c>
     </row>
     <row r="100">
@@ -6873,64 +6873,64 @@
         <v>22561132</v>
       </c>
       <c r="B100" t="n">
-        <v>24443873.37683315</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C100" t="n">
-        <v>25204733.11079051</v>
+        <v>22785524.13364176</v>
       </c>
       <c r="D100" t="n">
-        <v>25256604.44090312</v>
+        <v>23759703.95751774</v>
       </c>
       <c r="E100" t="n">
-        <v>25161746.64702912</v>
+        <v>26018733.46183217</v>
       </c>
       <c r="F100" t="n">
-        <v>24920960.72187806</v>
+        <v>27131146.98511383</v>
       </c>
       <c r="G100" t="n">
-        <v>25696670.66164484</v>
+        <v>27186982.87416738</v>
       </c>
       <c r="H100" t="n">
-        <v>26048343.02947945</v>
+        <v>27084875.03843008</v>
       </c>
       <c r="I100" t="n">
-        <v>28524972.18055431</v>
+        <v>27455545.70867712</v>
       </c>
       <c r="J100" t="n">
-        <v>29910375.64749563</v>
+        <v>27512049.21016696</v>
       </c>
       <c r="K100" t="n">
-        <v>32580308.05523308</v>
+        <v>27088823.51628574</v>
       </c>
       <c r="L100" t="n">
-        <v>32079115.89109416</v>
+        <v>27617036.18344458</v>
       </c>
       <c r="M100" t="n">
-        <v>34196638.32518959</v>
+        <v>27192195.44503234</v>
       </c>
       <c r="N100" t="n">
-        <v>36056314.89419466</v>
+        <v>29619491.06685451</v>
       </c>
       <c r="O100" t="n">
-        <v>38017124.12157449</v>
+        <v>32091257.17293051</v>
       </c>
       <c r="P100" t="n">
-        <v>41189678.25635327</v>
+        <v>34396151.96172355</v>
       </c>
       <c r="Q100" t="n">
-        <v>43908583.23045249</v>
+        <v>36466649.47694213</v>
       </c>
       <c r="R100" t="n">
-        <v>45530591.26715761</v>
+        <v>35905672.61511321</v>
       </c>
       <c r="S100" t="n">
-        <v>46683109.20374463</v>
+        <v>38275783.67216066</v>
       </c>
       <c r="T100" t="n">
-        <v>48407609.8078621</v>
+        <v>38799607.77575573</v>
       </c>
       <c r="U100" t="n">
-        <v>47944372.04955194</v>
+        <v>38653885.68530623</v>
       </c>
     </row>
     <row r="101">
@@ -6938,64 +6938,64 @@
         <v>22561132</v>
       </c>
       <c r="B101" t="n">
-        <v>22214067.67656468</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C101" t="n">
-        <v>22647226.09442033</v>
+        <v>23049919.21576514</v>
       </c>
       <c r="D101" t="n">
-        <v>23352161.93480167</v>
+        <v>24839443.47530887</v>
       </c>
       <c r="E101" t="n">
-        <v>25029387.4813277</v>
+        <v>25757026.64424817</v>
       </c>
       <c r="F101" t="n">
-        <v>26099502.17982098</v>
+        <v>25660289.38370533</v>
       </c>
       <c r="G101" t="n">
-        <v>26760160.07072637</v>
+        <v>25563915.4452845</v>
       </c>
       <c r="H101" t="n">
-        <v>26504078.09079827</v>
+        <v>27994486.10138162</v>
       </c>
       <c r="I101" t="n">
-        <v>26096358.30391613</v>
+        <v>28703111.80685651</v>
       </c>
       <c r="J101" t="n">
-        <v>27515526.63305583</v>
+        <v>29930294.12843459</v>
       </c>
       <c r="K101" t="n">
-        <v>29811715.51654841</v>
+        <v>31731966.58562244</v>
       </c>
       <c r="L101" t="n">
-        <v>29353113.40047563</v>
+        <v>33273127.65117315</v>
       </c>
       <c r="M101" t="n">
-        <v>30949390.1075344</v>
+        <v>33148161.70447737</v>
       </c>
       <c r="N101" t="n">
-        <v>31372948.68621049</v>
+        <v>33987242.63591378</v>
       </c>
       <c r="O101" t="n">
-        <v>32167093.56942362</v>
+        <v>34452375.81411113</v>
       </c>
       <c r="P101" t="n">
-        <v>32794328.86736258</v>
+        <v>35524768.27384984</v>
       </c>
       <c r="Q101" t="n">
-        <v>33433794.80460788</v>
+        <v>36424008.35594038</v>
       </c>
       <c r="R101" t="n">
-        <v>35835114.85883495</v>
+        <v>39675376.42551417</v>
       </c>
       <c r="S101" t="n">
-        <v>36325537.13415492</v>
+        <v>39526365.15649537</v>
       </c>
       <c r="T101" t="n">
-        <v>36611483.08443968</v>
+        <v>42135475.87018444</v>
       </c>
       <c r="U101" t="n">
-        <v>39028184.25039449</v>
+        <v>41487293.83634364</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -503,64 +503,64 @@
         <v>22561132</v>
       </c>
       <c r="B2" t="n">
-        <v>23919213.21206409</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C2" t="n">
-        <v>25080923.75469847</v>
+        <v>24636289.70850542</v>
       </c>
       <c r="D2" t="n">
-        <v>26153241.85204362</v>
+        <v>25689597.77499638</v>
       </c>
       <c r="E2" t="n">
-        <v>26663211.34648155</v>
+        <v>27684058.49331567</v>
       </c>
       <c r="F2" t="n">
-        <v>28268219.74690006</v>
+        <v>29028620.38711452</v>
       </c>
       <c r="G2" t="n">
-        <v>27833361.66614512</v>
+        <v>30269719.61003426</v>
       </c>
       <c r="H2" t="n">
-        <v>29994257.56603852</v>
+        <v>30156033.74897124</v>
       </c>
       <c r="I2" t="n">
-        <v>32148539.26292367</v>
+        <v>31620654.76386936</v>
       </c>
       <c r="J2" t="n">
-        <v>32027797.00250272</v>
+        <v>31501895.11196245</v>
       </c>
       <c r="K2" t="n">
-        <v>31907508.22126887</v>
+        <v>33764460.06818715</v>
       </c>
       <c r="L2" t="n">
-        <v>33828200.29643096</v>
+        <v>36189529.53923364</v>
       </c>
       <c r="M2" t="n">
-        <v>36454516.88003805</v>
+        <v>36684802.16468232</v>
       </c>
       <c r="N2" t="n">
-        <v>38436981.06939871</v>
+        <v>37826682.92903583</v>
       </c>
       <c r="O2" t="n">
-        <v>37845694.03514231</v>
+        <v>39224022.10964143</v>
       </c>
       <c r="P2" t="n">
-        <v>39023709.65693411</v>
+        <v>39760823.35183051</v>
       </c>
       <c r="Q2" t="n">
-        <v>42280264.01992588</v>
+        <v>40073811.05454375</v>
       </c>
       <c r="R2" t="n">
-        <v>46300194.74136888</v>
+        <v>43185017.49232723</v>
       </c>
       <c r="S2" t="n">
-        <v>46933837.10423748</v>
+        <v>42771757.45376855</v>
       </c>
       <c r="T2" t="n">
-        <v>46484702.64840798</v>
+        <v>44351770.49973492</v>
       </c>
       <c r="U2" t="n">
-        <v>46580368.14685477</v>
+        <v>45216598.27547047</v>
       </c>
     </row>
     <row r="3">
@@ -568,64 +568,64 @@
         <v>22561132</v>
       </c>
       <c r="B3" t="n">
-        <v>22476397.75894921</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C3" t="n">
-        <v>24613412.84040638</v>
+        <v>23300588.1770291</v>
       </c>
       <c r="D3" t="n">
-        <v>25665742.8217234</v>
+        <v>23348540.77767105</v>
       </c>
       <c r="E3" t="n">
-        <v>27359922.49915682</v>
+        <v>23125106.36864751</v>
       </c>
       <c r="F3" t="n">
-        <v>27257165.14335682</v>
+        <v>25323799.48665057</v>
       </c>
       <c r="G3" t="n">
-        <v>27154793.71972353</v>
+        <v>27289860.76005352</v>
       </c>
       <c r="H3" t="n">
-        <v>29263007.70821832</v>
+        <v>27504680.02451073</v>
       </c>
       <c r="I3" t="n">
-        <v>30003743.55907325</v>
+        <v>27401378.99390544</v>
       </c>
       <c r="J3" t="n">
-        <v>31112098.91020434</v>
+        <v>28254296.43501472</v>
       </c>
       <c r="K3" t="n">
-        <v>33889302.45094431</v>
+        <v>30940663.62984456</v>
       </c>
       <c r="L3" t="n">
-        <v>35929289.84823383</v>
+        <v>31364102.78211275</v>
       </c>
       <c r="M3" t="n">
-        <v>35585463.6656763</v>
+        <v>32340367.16258637</v>
       </c>
       <c r="N3" t="n">
-        <v>35451813.13536816</v>
+        <v>34851172.99484354</v>
       </c>
       <c r="O3" t="n">
-        <v>37173640.0495615</v>
+        <v>36341211.55488966</v>
       </c>
       <c r="P3" t="n">
-        <v>37898499.41995007</v>
+        <v>37261118.30304836</v>
       </c>
       <c r="Q3" t="n">
-        <v>41501819.92057532</v>
+        <v>37554428.9247878</v>
       </c>
       <c r="R3" t="n">
-        <v>44482610.85515577</v>
+        <v>40470038.34559017</v>
       </c>
       <c r="S3" t="n">
-        <v>43798322.17491218</v>
+        <v>43847289.79357898</v>
       </c>
       <c r="T3" t="n">
-        <v>47962587.1089157</v>
+        <v>46231786.6750584</v>
       </c>
       <c r="U3" t="n">
-        <v>48061294.09295896</v>
+        <v>50358640.41190466</v>
       </c>
     </row>
     <row r="4">
@@ -633,64 +633,64 @@
         <v>22561132</v>
       </c>
       <c r="B4" t="n">
-        <v>23788048.17087183</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C4" t="n">
-        <v>23837003.96397553</v>
+        <v>24934237.53050739</v>
       </c>
       <c r="D4" t="n">
-        <v>24856139.10377559</v>
+        <v>24840590.47000848</v>
       </c>
       <c r="E4" t="n">
-        <v>27219415.67065413</v>
+        <v>26624719.62444872</v>
       </c>
       <c r="F4" t="n">
-        <v>26800691.64191122</v>
+        <v>28536990.53315066</v>
       </c>
       <c r="G4" t="n">
-        <v>27011660.2839311</v>
+        <v>30586606.73899932</v>
       </c>
       <c r="H4" t="n">
-        <v>28637643.78237722</v>
+        <v>33316902.52456938</v>
       </c>
       <c r="I4" t="n">
-        <v>30860981.65202513</v>
+        <v>36290916.58658352</v>
       </c>
       <c r="J4" t="n">
-        <v>33436350.96797772</v>
+        <v>39319417.56165699</v>
       </c>
       <c r="K4" t="n">
-        <v>33893944.9057873</v>
+        <v>42143461.51069511</v>
       </c>
       <c r="L4" t="n">
-        <v>33963698.63010958</v>
+        <v>42230192.73671129</v>
       </c>
       <c r="M4" t="n">
-        <v>34428509.59628271</v>
+        <v>42317102.45555402</v>
       </c>
       <c r="N4" t="n">
-        <v>37701909.76602542</v>
+        <v>44126341.82943471</v>
       </c>
       <c r="O4" t="n">
-        <v>40628969.14206374</v>
+        <v>43447533.73714978</v>
       </c>
       <c r="P4" t="n">
-        <v>43547069.19482725</v>
+        <v>42779167.94320747</v>
       </c>
       <c r="Q4" t="n">
-        <v>45155722.69745215</v>
+        <v>44856870.49822649</v>
       </c>
       <c r="R4" t="n">
-        <v>44461079.34590293</v>
+        <v>49121780.28447165</v>
       </c>
       <c r="S4" t="n">
-        <v>44811066.34092789</v>
+        <v>50936366.785259</v>
       </c>
       <c r="T4" t="n">
-        <v>48290058.59085591</v>
+        <v>55483172.14855945</v>
       </c>
       <c r="U4" t="n">
-        <v>52600642.78153162</v>
+        <v>54629658.69880058</v>
       </c>
     </row>
     <row r="5">
@@ -698,64 +698,64 @@
         <v>22561132</v>
       </c>
       <c r="B5" t="n">
-        <v>23132222.96491052</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C5" t="n">
-        <v>23179829.07001693</v>
+        <v>23714719.73242343</v>
       </c>
       <c r="D5" t="n">
-        <v>23092771.15005373</v>
+        <v>25417985.31763886</v>
       </c>
       <c r="E5" t="n">
-        <v>24348598.84319623</v>
+        <v>26209166.0461743</v>
       </c>
       <c r="F5" t="n">
-        <v>25531163.82657326</v>
+        <v>28548712.11644613</v>
       </c>
       <c r="G5" t="n">
-        <v>26771163.73460101</v>
+        <v>28275514.5457345</v>
       </c>
       <c r="H5" t="n">
-        <v>28227029.23368321</v>
+        <v>28333705.5427452</v>
       </c>
       <c r="I5" t="n">
-        <v>28941541.31408865</v>
+        <v>30698171.99701412</v>
       </c>
       <c r="J5" t="n">
-        <v>30683695.18769927</v>
+        <v>32724539.18587559</v>
       </c>
       <c r="K5" t="n">
-        <v>32887494.45794718</v>
+        <v>33933402.27486156</v>
       </c>
       <c r="L5" t="n">
-        <v>33337577.00756855</v>
+        <v>35976044.28816579</v>
       </c>
       <c r="M5" t="n">
-        <v>34569086.06234147</v>
+        <v>35840926.83001841</v>
       </c>
       <c r="N5" t="n">
-        <v>34841205.64939852</v>
+        <v>38415134.65961085</v>
       </c>
       <c r="O5" t="n">
-        <v>35925701.14045598</v>
+        <v>38047520.12678153</v>
       </c>
       <c r="P5" t="n">
-        <v>38088270.80890538</v>
+        <v>38789419.53311288</v>
       </c>
       <c r="Q5" t="n">
-        <v>39052400.9477668</v>
+        <v>41800909.79554506</v>
       </c>
       <c r="R5" t="n">
-        <v>42765432.31015499</v>
+        <v>43345059.1768655</v>
       </c>
       <c r="S5" t="n">
-        <v>46085607.87660793</v>
+        <v>47214230.85078596</v>
       </c>
       <c r="T5" t="n">
-        <v>46984244.24003305</v>
+        <v>49232843.66938462</v>
       </c>
       <c r="U5" t="n">
-        <v>46261472.22046918</v>
+        <v>49906620.86552103</v>
       </c>
     </row>
     <row r="6">
@@ -763,64 +763,64 @@
         <v>22561132</v>
       </c>
       <c r="B6" t="n">
-        <v>22607562.80014147</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C6" t="n">
-        <v>24099873.92155898</v>
+        <v>23829378.34127586</v>
       </c>
       <c r="D6" t="n">
-        <v>24429693.29147294</v>
+        <v>24432572.48375669</v>
       </c>
       <c r="E6" t="n">
-        <v>24621998.00090082</v>
+        <v>24340809.5577506</v>
       </c>
       <c r="F6" t="n">
-        <v>24243230.78843079</v>
+        <v>26372066.20302854</v>
       </c>
       <c r="G6" t="n">
-        <v>26266344.4209158</v>
+        <v>27346265.32717986</v>
       </c>
       <c r="H6" t="n">
-        <v>27847463.17274308</v>
+        <v>28992390.5819305</v>
       </c>
       <c r="I6" t="n">
-        <v>27904773.24020869</v>
+        <v>28883502.06462524</v>
       </c>
       <c r="J6" t="n">
-        <v>30395676.70737514</v>
+        <v>30790084.02295364</v>
       </c>
       <c r="K6" t="n">
-        <v>30104804.5656575</v>
+        <v>32106493.44389477</v>
       </c>
       <c r="L6" t="n">
-        <v>30691826.70430304</v>
+        <v>32732547.08276624</v>
       </c>
       <c r="M6" t="n">
-        <v>33609949.85054656</v>
+        <v>33941705.98801769</v>
       </c>
       <c r="N6" t="n">
-        <v>34851520.51304596</v>
+        <v>34406215.97338979</v>
       </c>
       <c r="O6" t="n">
-        <v>34315389.64037731</v>
+        <v>36077260.22865327</v>
       </c>
       <c r="P6" t="n">
-        <v>34585512.18980779</v>
+        <v>35732018.04006707</v>
       </c>
       <c r="Q6" t="n">
-        <v>37471696.04080953</v>
+        <v>38090666.26691395</v>
       </c>
       <c r="R6" t="n">
-        <v>37113109.76598782</v>
+        <v>39719207.19217771</v>
       </c>
       <c r="S6" t="n">
-        <v>38484089.14811925</v>
+        <v>39339113.30663799</v>
       </c>
       <c r="T6" t="n">
-        <v>40800662.55567081</v>
+        <v>38733948.51507019</v>
       </c>
       <c r="U6" t="n">
-        <v>43019478.20161612</v>
+        <v>40840372.42123131</v>
       </c>
     </row>
     <row r="7">
@@ -828,64 +828,64 @@
         <v>22561132</v>
       </c>
       <c r="B7" t="n">
-        <v>22345232.71775694</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C7" t="n">
-        <v>23950137.44828803</v>
+        <v>25358282.3954113</v>
       </c>
       <c r="D7" t="n">
-        <v>23720946.04580397</v>
+        <v>27179593.80839103</v>
       </c>
       <c r="E7" t="n">
-        <v>25010935.05397852</v>
+        <v>27393545.07774711</v>
       </c>
       <c r="F7" t="n">
-        <v>25644037.99550162</v>
+        <v>29042516.36615229</v>
       </c>
       <c r="G7" t="n">
-        <v>25398636.7719707</v>
+        <v>30453055.96660092</v>
       </c>
       <c r="H7" t="n">
-        <v>27370508.1801661</v>
+        <v>30338681.53782636</v>
       </c>
       <c r="I7" t="n">
-        <v>27745087.88923801</v>
+        <v>31283027.82892462</v>
       </c>
       <c r="J7" t="n">
-        <v>27640883.94392258</v>
+        <v>32984256.85932705</v>
       </c>
       <c r="K7" t="n">
-        <v>29786836.47025729</v>
+        <v>33627426.25645658</v>
       </c>
       <c r="L7" t="n">
-        <v>31406699.84167294</v>
+        <v>34283136.99642029</v>
       </c>
       <c r="M7" t="n">
-        <v>33662427.57487377</v>
+        <v>34951633.62642582</v>
       </c>
       <c r="N7" t="n">
-        <v>35297347.44693181</v>
+        <v>36242766.85066335</v>
       </c>
       <c r="O7" t="n">
-        <v>35164779.0125544</v>
+        <v>36949474.86003466</v>
       </c>
       <c r="P7" t="n">
-        <v>36668225.58785214</v>
+        <v>37240332.29904115</v>
       </c>
       <c r="Q7" t="n">
-        <v>37809590.37629453</v>
+        <v>37316972.8872075</v>
       </c>
       <c r="R7" t="n">
-        <v>40525193.79921779</v>
+        <v>36742915.25801793</v>
       </c>
       <c r="S7" t="n">
-        <v>40137387.00592338</v>
+        <v>37886604.89742382</v>
       </c>
       <c r="T7" t="n">
-        <v>42086783.30191272</v>
+        <v>41048267.11668255</v>
       </c>
       <c r="U7" t="n">
-        <v>46088318.22805081</v>
+        <v>44951061.80988939</v>
       </c>
     </row>
     <row r="8">
@@ -893,64 +893,64 @@
         <v>22561132</v>
       </c>
       <c r="B8" t="n">
-        <v>23656883.12967957</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C8" t="n">
-        <v>24118175.41603821</v>
+        <v>24802802.55171567</v>
       </c>
       <c r="D8" t="n">
-        <v>24728679.89206478</v>
+        <v>24421253.9713115</v>
       </c>
       <c r="E8" t="n">
-        <v>24492038.20939057</v>
+        <v>25891306.3691027</v>
       </c>
       <c r="F8" t="n">
-        <v>24115270.20543163</v>
+        <v>27901427.11725259</v>
       </c>
       <c r="G8" t="n">
-        <v>24445300.28153693</v>
+        <v>30229819.65120638</v>
       </c>
       <c r="H8" t="n">
-        <v>26627395.89303132</v>
+        <v>30819279.49452865</v>
       </c>
       <c r="I8" t="n">
-        <v>27146611.05184753</v>
+        <v>33391168.73787577</v>
       </c>
       <c r="J8" t="n">
-        <v>27202478.7659439</v>
+        <v>33071631.16486019</v>
       </c>
       <c r="K8" t="n">
-        <v>27258461.45577232</v>
+        <v>36216021.79745413</v>
       </c>
       <c r="L8" t="n">
-        <v>29691672.27477192</v>
+        <v>35869451.72677818</v>
       </c>
       <c r="M8" t="n">
-        <v>31824221.34656085</v>
+        <v>38654244.74235194</v>
       </c>
       <c r="N8" t="n">
-        <v>34109936.78437665</v>
+        <v>40981060.77051558</v>
       </c>
       <c r="O8" t="n">
-        <v>34775056.13423189</v>
+        <v>42733178.57695775</v>
       </c>
       <c r="P8" t="n">
-        <v>35048797.06848938</v>
+        <v>45802409.55409986</v>
       </c>
       <c r="Q8" t="n">
-        <v>34917162.13016529</v>
+        <v>49624650.90378752</v>
       </c>
       <c r="R8" t="n">
-        <v>34786021.58133347</v>
+        <v>52323331.38966591</v>
       </c>
       <c r="S8" t="n">
-        <v>36475512.27022284</v>
+        <v>56993943.34735131</v>
       </c>
       <c r="T8" t="n">
-        <v>37398818.57852364</v>
+        <v>61750125.58895791</v>
       </c>
       <c r="U8" t="n">
-        <v>37475785.33138632</v>
+        <v>62595208.33006051</v>
       </c>
     </row>
     <row r="9">
@@ -958,64 +958,64 @@
         <v>22561132</v>
       </c>
       <c r="B9" t="n">
-        <v>23788048.17087183</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C9" t="n">
-        <v>24390196.12086127</v>
+        <v>23437361.0917106</v>
       </c>
       <c r="D9" t="n">
-        <v>24440391.13419211</v>
+        <v>23076817.48643388</v>
       </c>
       <c r="E9" t="n">
-        <v>24206508.23755325</v>
+        <v>23392635.79435401</v>
       </c>
       <c r="F9" t="n">
-        <v>24115594.35504067</v>
+        <v>25480765.91835579</v>
       </c>
       <c r="G9" t="n">
-        <v>23744617.29417897</v>
+        <v>26422039.90308119</v>
       </c>
       <c r="H9" t="n">
-        <v>25726121.30101775</v>
+        <v>28626976.59623415</v>
       </c>
       <c r="I9" t="n">
-        <v>25629500.11358698</v>
+        <v>29684473.39274792</v>
       </c>
       <c r="J9" t="n">
-        <v>27023279.82910486</v>
+        <v>31298770.07029837</v>
       </c>
       <c r="K9" t="n">
-        <v>28335748.9640928</v>
+        <v>33910673.11910538</v>
       </c>
       <c r="L9" t="n">
-        <v>30041436.79473441</v>
+        <v>37134838.33699661</v>
       </c>
       <c r="M9" t="n">
-        <v>32373760.80127398</v>
+        <v>38722513.47927636</v>
       </c>
       <c r="N9" t="n">
-        <v>33193239.28727291</v>
+        <v>39027327.8547212</v>
       </c>
       <c r="O9" t="n">
-        <v>35577281.88940975</v>
+        <v>40922810.69597162</v>
       </c>
       <c r="P9" t="n">
-        <v>37098364.7489363</v>
+        <v>43862015.37117743</v>
       </c>
       <c r="Q9" t="n">
-        <v>39331523.62429022</v>
+        <v>47777332.8412203</v>
       </c>
       <c r="R9" t="n">
-        <v>43071093.46387143</v>
+        <v>49542254.68882501</v>
       </c>
       <c r="S9" t="n">
-        <v>43910948.95417435</v>
+        <v>48780132.06549931</v>
       </c>
       <c r="T9" t="n">
-        <v>46298907.73878694</v>
+        <v>49731309.72174516</v>
       </c>
       <c r="U9" t="n">
-        <v>47740044.91379934</v>
+        <v>51568412.58660367</v>
       </c>
     </row>
     <row r="10">
@@ -1023,64 +1023,64 @@
         <v>22561132</v>
       </c>
       <c r="B10" t="n">
-        <v>24706203.45921767</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C10" t="n">
-        <v>25475228.69107363</v>
+        <v>25355994.7086014</v>
       </c>
       <c r="D10" t="n">
-        <v>27453046.45838798</v>
+        <v>27471969.22568884</v>
       </c>
       <c r="E10" t="n">
-        <v>27349939.35116553</v>
+        <v>27049360.09363157</v>
       </c>
       <c r="F10" t="n">
-        <v>28360261.6655558</v>
+        <v>27262286.19429741</v>
       </c>
       <c r="G10" t="n">
-        <v>30891824.04394811</v>
+        <v>29061852.70408336</v>
       </c>
       <c r="H10" t="n">
-        <v>32571778.68750266</v>
+        <v>30473331.43356735</v>
       </c>
       <c r="I10" t="n">
-        <v>33774998.7167991</v>
+        <v>30004551.49128381</v>
       </c>
       <c r="J10" t="n">
-        <v>34237227.22603849</v>
+        <v>31985133.22313272</v>
       </c>
       <c r="K10" t="n">
-        <v>35900064.02031051</v>
+        <v>32608820.42457448</v>
       </c>
       <c r="L10" t="n">
-        <v>35765231.92596187</v>
+        <v>34950888.23015389</v>
       </c>
       <c r="M10" t="n">
-        <v>38749864.16866327</v>
+        <v>34616424.88484623</v>
       </c>
       <c r="N10" t="n">
-        <v>38153763.96451981</v>
+        <v>37505188.42068019</v>
       </c>
       <c r="O10" t="n">
-        <v>37566833.73970409</v>
+        <v>39544790.07563826</v>
       </c>
       <c r="P10" t="n">
-        <v>36988932.4298107</v>
+        <v>41465405.06952785</v>
       </c>
       <c r="Q10" t="n">
-        <v>37925234.96606423</v>
+        <v>43238230.69208781</v>
       </c>
       <c r="R10" t="n">
-        <v>39767191.25874618</v>
+        <v>46595112.85895969</v>
       </c>
       <c r="S10" t="n">
-        <v>40773819.98764765</v>
+        <v>50483505.82336297</v>
       </c>
       <c r="T10" t="n">
-        <v>43939372.94855604</v>
+        <v>52054896.17618664</v>
       </c>
       <c r="U10" t="n">
-        <v>44540706.23135563</v>
+        <v>54280468.39876841</v>
       </c>
     </row>
     <row r="11">
@@ -1088,64 +1088,64 @@
         <v>22561132</v>
       </c>
       <c r="B11" t="n">
-        <v>23132222.96491052</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C11" t="n">
-        <v>24524681.34873286</v>
+        <v>24246560.14575006</v>
       </c>
       <c r="D11" t="n">
-        <v>24717733.7814552</v>
+        <v>26269951.61530386</v>
       </c>
       <c r="E11" t="n">
-        <v>24768602.86715342</v>
+        <v>27851287.50441514</v>
       </c>
       <c r="F11" t="n">
-        <v>25107574.1421851</v>
+        <v>29365892.13590117</v>
       </c>
       <c r="G11" t="n">
-        <v>27494756.69590594</v>
+        <v>31133590.0681356</v>
       </c>
       <c r="H11" t="n">
-        <v>27391492.93496061</v>
+        <v>33912712.00467631</v>
       </c>
       <c r="I11" t="n">
-        <v>29677331.12436898</v>
+        <v>36151268.97472224</v>
       </c>
       <c r="J11" t="n">
-        <v>29910943.98517632</v>
+        <v>38747766.55096486</v>
       </c>
       <c r="K11" t="n">
-        <v>32407032.02991761</v>
+        <v>40404401.35878455</v>
       </c>
       <c r="L11" t="n">
-        <v>33604166.22398632</v>
+        <v>43306372.24868536</v>
       </c>
       <c r="M11" t="n">
-        <v>35822356.27947093</v>
+        <v>44150815.50686893</v>
       </c>
       <c r="N11" t="n">
-        <v>36520866.58365295</v>
+        <v>46295136.36665229</v>
       </c>
       <c r="O11" t="n">
-        <v>37657644.55678163</v>
+        <v>50427644.9771317</v>
       </c>
       <c r="P11" t="n">
-        <v>41238065.01441275</v>
+        <v>53169993.76891337</v>
       </c>
       <c r="Q11" t="n">
-        <v>42042177.76211615</v>
+        <v>52661182.26550227</v>
       </c>
       <c r="R11" t="n">
-        <v>42861970.13277938</v>
+        <v>52769558.95639627</v>
       </c>
       <c r="S11" t="n">
-        <v>46688019.14218272</v>
+        <v>54412106.8443535</v>
       </c>
       <c r="T11" t="n">
-        <v>45969804.03772266</v>
+        <v>58636494.11006929</v>
       </c>
       <c r="U11" t="n">
-        <v>50340529.5237997</v>
+        <v>62166153.92466512</v>
       </c>
     </row>
     <row r="12">
@@ -1153,64 +1153,64 @@
         <v>22561132</v>
       </c>
       <c r="B12" t="n">
-        <v>23919213.21206409</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C12" t="n">
-        <v>25359044.95768127</v>
+        <v>24531544.40916258</v>
       </c>
       <c r="D12" t="n">
-        <v>26738116.82058447</v>
+        <v>24296789.21911928</v>
       </c>
       <c r="E12" t="n">
-        <v>28813981.30657468</v>
+        <v>24346792.00108573</v>
       </c>
       <c r="F12" t="n">
-        <v>28873280.46795211</v>
+        <v>26520094.3278181</v>
       </c>
       <c r="G12" t="n">
-        <v>29604151.13537141</v>
+        <v>26574672.67076064</v>
       </c>
       <c r="H12" t="n">
-        <v>29492964.99105876</v>
+        <v>28637847.85973195</v>
       </c>
       <c r="I12" t="n">
-        <v>30068056.69598215</v>
+        <v>30361720.71913688</v>
       </c>
       <c r="J12" t="n">
-        <v>30479553.76631058</v>
+        <v>32542394.77273419</v>
       </c>
       <c r="K12" t="n">
-        <v>30365079.81810819</v>
+        <v>34501304.23421083</v>
       </c>
       <c r="L12" t="n">
-        <v>30604106.47233205</v>
+        <v>33970560.83837046</v>
       </c>
       <c r="M12" t="n">
-        <v>32624264.45457244</v>
+        <v>33447982.01944917</v>
       </c>
       <c r="N12" t="n">
-        <v>35346780.88581225</v>
+        <v>35850321.04396398</v>
       </c>
       <c r="O12" t="n">
-        <v>36447013.31978146</v>
+        <v>38216778.37831941</v>
       </c>
       <c r="P12" t="n">
-        <v>37793386.72036032</v>
+        <v>38295428.49210512</v>
       </c>
       <c r="Q12" t="n">
-        <v>40727548.08350059</v>
+        <v>39710083.40040062</v>
       </c>
       <c r="R12" t="n">
-        <v>41521706.11650238</v>
+        <v>42331321.24079552</v>
       </c>
       <c r="S12" t="n">
-        <v>44503925.34007489</v>
+        <v>45863897.97657551</v>
       </c>
       <c r="T12" t="n">
-        <v>48476542.53276276</v>
+        <v>45425002.32834245</v>
       </c>
       <c r="U12" t="n">
-        <v>48012645.12112363</v>
+        <v>48159388.27227867</v>
       </c>
     </row>
     <row r="13">
@@ -1218,64 +1218,64 @@
         <v>22561132</v>
       </c>
       <c r="B13" t="n">
-        <v>24443873.37683315</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C13" t="n">
-        <v>25062622.26021924</v>
+        <v>25069485.32064895</v>
       </c>
       <c r="D13" t="n">
-        <v>25842741.6713784</v>
+        <v>26141314.37540714</v>
       </c>
       <c r="E13" t="n">
-        <v>26947630.78352857</v>
+        <v>26347092.55710786</v>
       </c>
       <c r="F13" t="n">
-        <v>28883094.1849333</v>
+        <v>28852126.27073617</v>
       </c>
       <c r="G13" t="n">
-        <v>29110455.00229364</v>
+        <v>30924376.51411751</v>
       </c>
       <c r="H13" t="n">
-        <v>30524294.25265792</v>
+        <v>32965675.32208239</v>
       </c>
       <c r="I13" t="n">
-        <v>31296957.10742793</v>
+        <v>32841864.09314479</v>
       </c>
       <c r="J13" t="n">
-        <v>33362849.72800042</v>
+        <v>33291322.16737608</v>
       </c>
       <c r="K13" t="n">
-        <v>33237546.80654268</v>
+        <v>34908218.15794202</v>
       </c>
       <c r="L13" t="n">
-        <v>34851831.03044805</v>
+        <v>37415435.92397458</v>
       </c>
       <c r="M13" t="n">
-        <v>36747138.19303854</v>
+        <v>38145010.14082574</v>
       </c>
       <c r="N13" t="n">
-        <v>36181846.49335116</v>
+        <v>39775874.50202215</v>
       </c>
       <c r="O13" t="n">
-        <v>35835603.46405002</v>
+        <v>41245217.92789952</v>
       </c>
       <c r="P13" t="n">
-        <v>37576070.34215178</v>
+        <v>45166738.34657134</v>
       </c>
       <c r="Q13" t="n">
-        <v>38745693.43923382</v>
+        <v>47885577.93133568</v>
       </c>
       <c r="R13" t="n">
-        <v>40402239.6125499</v>
+        <v>47984126.43052395</v>
       </c>
       <c r="S13" t="n">
-        <v>42599388.28044812</v>
+        <v>49477719.08285322</v>
       </c>
       <c r="T13" t="n">
-        <v>45906672.70326922</v>
+        <v>51017802.50571515</v>
       </c>
       <c r="U13" t="n">
-        <v>50004505.32919002</v>
+        <v>51716007.79639833</v>
       </c>
     </row>
     <row r="14">
@@ -1283,64 +1283,64 @@
         <v>22561132</v>
       </c>
       <c r="B14" t="n">
-        <v>24575038.41802541</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C14" t="n">
-        <v>25197107.48809083</v>
+        <v>22780948.76002196</v>
       </c>
       <c r="D14" t="n">
-        <v>25395453.0987421</v>
+        <v>24946919.9975921</v>
       </c>
       <c r="E14" t="n">
-        <v>26924148.01197857</v>
+        <v>25723437.96672922</v>
       </c>
       <c r="F14" t="n">
-        <v>29484047.11031493</v>
+        <v>27421426.06470338</v>
       </c>
       <c r="G14" t="n">
-        <v>32115923.54740269</v>
+        <v>27477859.34798031</v>
       </c>
       <c r="H14" t="n">
-        <v>31621875.14249642</v>
+        <v>27694158.49240952</v>
       </c>
       <c r="I14" t="n">
-        <v>31135426.82500567</v>
+        <v>28556189.22452247</v>
       </c>
       <c r="J14" t="n">
-        <v>32647615.09271119</v>
+        <v>30607184.34062871</v>
       </c>
       <c r="K14" t="n">
-        <v>34423052.90751794</v>
+        <v>31381945.39598195</v>
       </c>
       <c r="L14" t="n">
-        <v>34694022.956467</v>
+        <v>31628976.57310944</v>
       </c>
       <c r="M14" t="n">
-        <v>36379045.44770005</v>
+        <v>34268435.57282095</v>
       </c>
       <c r="N14" t="n">
-        <v>36876911.69740263</v>
+        <v>35135874.04786095</v>
       </c>
       <c r="O14" t="n">
-        <v>39525527.21097065</v>
+        <v>38476529.14507564</v>
       </c>
       <c r="P14" t="n">
-        <v>42134582.61239821</v>
+        <v>39897874.01448943</v>
       </c>
       <c r="Q14" t="n">
-        <v>43691058.05734329</v>
+        <v>39516070.37259982</v>
       </c>
       <c r="R14" t="n">
-        <v>47337105.72916133</v>
+        <v>43273186.58187074</v>
       </c>
       <c r="S14" t="n">
-        <v>46608905.54074536</v>
+        <v>46381202.62840803</v>
       </c>
       <c r="T14" t="n">
-        <v>48059691.95757345</v>
+        <v>48633849.13461947</v>
       </c>
       <c r="U14" t="n">
-        <v>47320376.01927012</v>
+        <v>51844139.18589735</v>
       </c>
     </row>
     <row r="15">
@@ -1348,64 +1348,64 @@
         <v>22561132</v>
       </c>
       <c r="B15" t="n">
-        <v>22738727.84133373</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C15" t="n">
-        <v>23049919.21576514</v>
+        <v>24362743.87914242</v>
       </c>
       <c r="D15" t="n">
-        <v>22963349.20628911</v>
+        <v>24696160.76180942</v>
       </c>
       <c r="E15" t="n">
-        <v>23144111.20538256</v>
+        <v>25752028.57508615</v>
       </c>
       <c r="F15" t="n">
-        <v>23595404.80628281</v>
+        <v>28200484.68594864</v>
       </c>
       <c r="G15" t="n">
-        <v>23781142.19606368</v>
+        <v>28586423.05727213</v>
       </c>
       <c r="H15" t="n">
-        <v>25074404.78245132</v>
+        <v>29143837.84343052</v>
       </c>
       <c r="I15" t="n">
-        <v>26292220.77530194</v>
+        <v>31406475.05047794</v>
       </c>
       <c r="J15" t="n">
-        <v>26804900.25925598</v>
+        <v>33844776.39476833</v>
       </c>
       <c r="K15" t="n">
-        <v>27015902.03050617</v>
+        <v>34111194.38915712</v>
       </c>
       <c r="L15" t="n">
-        <v>26757372.72189102</v>
+        <v>35966224.35856688</v>
       </c>
       <c r="M15" t="n">
-        <v>26968000.36772123</v>
+        <v>36876639.03869561</v>
       </c>
       <c r="N15" t="n">
-        <v>29218497.82249257</v>
+        <v>36952531.14628554</v>
       </c>
       <c r="O15" t="n">
-        <v>31826670.15576819</v>
+        <v>37028579.43980089</v>
       </c>
       <c r="P15" t="n">
-        <v>33927528.80431046</v>
+        <v>38181160.89311866</v>
       </c>
       <c r="Q15" t="n">
-        <v>35575324.13721128</v>
+        <v>41811356.33329546</v>
       </c>
       <c r="R15" t="n">
-        <v>35234885.23783389</v>
+        <v>44085135.37999421</v>
       </c>
       <c r="S15" t="n">
-        <v>36946176.37798973</v>
+        <v>44944763.96176433</v>
       </c>
       <c r="T15" t="n">
-        <v>40029359.21573993</v>
+        <v>45821154.68551783</v>
       </c>
       <c r="U15" t="n">
-        <v>42671672.25359164</v>
+        <v>45649061.33637433</v>
       </c>
     </row>
     <row r="16">
@@ -1416,61 +1416,61 @@
         <v>23656883.12967957</v>
       </c>
       <c r="C16" t="n">
-        <v>25355994.7086014</v>
+        <v>23568033.50823235</v>
       </c>
       <c r="D16" t="n">
-        <v>24965936.21558915</v>
+        <v>23753555.43769387</v>
       </c>
       <c r="E16" t="n">
-        <v>24727024.10295794</v>
+        <v>23940537.75146361</v>
       </c>
       <c r="F16" t="n">
-        <v>25640454.43634622</v>
+        <v>23850622.79078176</v>
       </c>
       <c r="G16" t="n">
-        <v>26289492.43075169</v>
+        <v>25286325.6938182</v>
       </c>
       <c r="H16" t="n">
-        <v>26190755.35546973</v>
+        <v>27690503.62045291</v>
       </c>
       <c r="I16" t="n">
-        <v>25787855.50152152</v>
+        <v>29196364.52634712</v>
       </c>
       <c r="J16" t="n">
-        <v>25541078.01299097</v>
+        <v>31293339.04142606</v>
       </c>
       <c r="K16" t="n">
-        <v>25445151.80409995</v>
+        <v>32449332.78310817</v>
       </c>
       <c r="L16" t="n">
-        <v>26089246.09405393</v>
+        <v>32327460.81383015</v>
       </c>
       <c r="M16" t="n">
-        <v>28266410.92388862</v>
+        <v>35213152.93297725</v>
       </c>
       <c r="N16" t="n">
-        <v>29803590.73627689</v>
+        <v>35490342.46057478</v>
       </c>
       <c r="O16" t="n">
-        <v>31251094.26658659</v>
+        <v>37833037.83313835</v>
       </c>
       <c r="P16" t="n">
-        <v>31497095.41488332</v>
+        <v>39010659.50777043</v>
       </c>
       <c r="Q16" t="n">
-        <v>33576199.04031634</v>
+        <v>42266124.82718918</v>
       </c>
       <c r="R16" t="n">
-        <v>33254890.81547841</v>
+        <v>45056085.36811227</v>
       </c>
       <c r="S16" t="n">
-        <v>34870017.40480164</v>
+        <v>48554100.13560713</v>
       </c>
       <c r="T16" t="n">
-        <v>34536327.95475544</v>
+        <v>48371742.49393848</v>
       </c>
       <c r="U16" t="n">
-        <v>34005045.77904025</v>
+        <v>49877400.39674342</v>
       </c>
     </row>
     <row r="17">
@@ -1481,61 +1481,61 @@
         <v>23263388.00610278</v>
       </c>
       <c r="C17" t="n">
-        <v>23717007.41923334</v>
+        <v>23176016.25866709</v>
       </c>
       <c r="D17" t="n">
-        <v>25696207.36375958</v>
+        <v>25379549.79656011</v>
       </c>
       <c r="E17" t="n">
-        <v>26346656.63456347</v>
+        <v>26612186.10046276</v>
       </c>
       <c r="F17" t="n">
-        <v>27473090.29347082</v>
+        <v>26976387.77555268</v>
       </c>
       <c r="G17" t="n">
-        <v>28647683.86904308</v>
+        <v>27188739.45556343</v>
       </c>
       <c r="H17" t="n">
-        <v>28206988.38355067</v>
+        <v>27244693.86989688</v>
       </c>
       <c r="I17" t="n">
-        <v>27937060.94612213</v>
+        <v>27934340.05036562</v>
       </c>
       <c r="J17" t="n">
-        <v>28644233.04601875</v>
+        <v>29940672.00749352</v>
       </c>
       <c r="K17" t="n">
-        <v>29202775.08557469</v>
+        <v>30872629.53267514</v>
       </c>
       <c r="L17" t="n">
-        <v>31130432.05690398</v>
+        <v>31115651.49700033</v>
       </c>
       <c r="M17" t="n">
-        <v>31556468.28927499</v>
+        <v>33531374.20232356</v>
       </c>
       <c r="N17" t="n">
-        <v>31071026.14404818</v>
+        <v>35549815.88862132</v>
       </c>
       <c r="O17" t="n">
-        <v>32038167.98451231</v>
+        <v>38103115.21693034</v>
       </c>
       <c r="P17" t="n">
-        <v>34339249.74120546</v>
+        <v>40839800.51495488</v>
       </c>
       <c r="Q17" t="n">
-        <v>37404523.03706628</v>
+        <v>43298177.41660174</v>
       </c>
       <c r="R17" t="n">
-        <v>38568806.41425629</v>
+        <v>47414889.49525522</v>
       </c>
       <c r="S17" t="n">
-        <v>39320870.53003303</v>
+        <v>47236810.45755943</v>
       </c>
       <c r="T17" t="n">
-        <v>42830825.32852363</v>
+        <v>46510153.13989047</v>
       </c>
       <c r="U17" t="n">
-        <v>42669962.94458865</v>
+        <v>48498663.5875113</v>
       </c>
     </row>
     <row r="18">
@@ -1543,64 +1543,64 @@
         <v>22561132</v>
       </c>
       <c r="B18" t="n">
-        <v>22738727.84133373</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C18" t="n">
-        <v>23049919.21576514</v>
+        <v>24469776.86529517</v>
       </c>
       <c r="D18" t="n">
-        <v>22963349.20628911</v>
+        <v>24946919.9975921</v>
       </c>
       <c r="E18" t="n">
-        <v>24479145.56649317</v>
+        <v>26158544.29771088</v>
       </c>
       <c r="F18" t="n">
-        <v>26094998.69912042</v>
+        <v>26212378.57084393</v>
       </c>
       <c r="G18" t="n">
-        <v>25693571.89710731</v>
+        <v>26571108.67093993</v>
       </c>
       <c r="H18" t="n">
-        <v>26045201.85672972</v>
+        <v>27552660.53705752</v>
       </c>
       <c r="I18" t="n">
-        <v>27915849.98089472</v>
+        <v>27769548.49857742</v>
       </c>
       <c r="J18" t="n">
-        <v>29433965.63950582</v>
+        <v>30409826.73992007</v>
       </c>
       <c r="K18" t="n">
-        <v>29152296.61442604</v>
+        <v>32593955.91888114</v>
       </c>
       <c r="L18" t="n">
-        <v>30737652.53248421</v>
+        <v>34176982.16148457</v>
       </c>
       <c r="M18" t="n">
-        <v>32945327.18854645</v>
+        <v>35836892.96793193</v>
       </c>
       <c r="N18" t="n">
-        <v>35311563.96583341</v>
+        <v>37160728.17571912</v>
       </c>
       <c r="O18" t="n">
-        <v>35589528.16157155</v>
+        <v>37021161.32690743</v>
       </c>
       <c r="P18" t="n">
-        <v>37318043.63179728</v>
+        <v>37097350.86130556</v>
       </c>
       <c r="Q18" t="n">
-        <v>36960927.73731025</v>
+        <v>36742346.89146598</v>
       </c>
       <c r="R18" t="n">
-        <v>37251875.3306306</v>
+        <v>39594908.78113535</v>
       </c>
       <c r="S18" t="n">
-        <v>37111966.1548029</v>
+        <v>42208544.01674025</v>
       </c>
       <c r="T18" t="n">
-        <v>39561703.89611025</v>
+        <v>41804628.3640266</v>
       </c>
       <c r="U18" t="n">
-        <v>42173147.29796259</v>
+        <v>44807167.95119341</v>
       </c>
     </row>
     <row r="19">
@@ -1608,64 +1608,64 @@
         <v>22561132</v>
       </c>
       <c r="B19" t="n">
-        <v>24575038.41802541</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C19" t="n">
-        <v>24339867.01104338</v>
+        <v>24209957.1567916</v>
       </c>
       <c r="D19" t="n">
-        <v>25238995.5412681</v>
+        <v>25667290.41292056</v>
       </c>
       <c r="E19" t="n">
-        <v>26611538.89441828</v>
+        <v>26317007.70762693</v>
       </c>
       <c r="F19" t="n">
-        <v>26511592.28928285</v>
+        <v>26983171.32589335</v>
       </c>
       <c r="G19" t="n">
-        <v>27182681.43595337</v>
+        <v>29391808.53044035</v>
       </c>
       <c r="H19" t="n">
-        <v>28344858.77532192</v>
+        <v>30990189.55038057</v>
       </c>
       <c r="I19" t="n">
-        <v>27908821.73455079</v>
+        <v>33216002.20749991</v>
       </c>
       <c r="J19" t="n">
-        <v>30562341.82224758</v>
+        <v>34056800.3886883</v>
       </c>
       <c r="K19" t="n">
-        <v>30447556.94181502</v>
+        <v>34126889.26952571</v>
       </c>
       <c r="L19" t="n">
-        <v>32811410.85736153</v>
+        <v>33601905.60579465</v>
       </c>
       <c r="M19" t="n">
-        <v>34977271.62549056</v>
+        <v>34257118.71133929</v>
       </c>
       <c r="N19" t="n">
-        <v>36879400.48011944</v>
+        <v>36319247.03456879</v>
       </c>
       <c r="O19" t="n">
-        <v>36312074.1519754</v>
+        <v>37238597.79382127</v>
       </c>
       <c r="P19" t="n">
-        <v>35753475.16642412</v>
+        <v>40779176.0462251</v>
       </c>
       <c r="Q19" t="n">
-        <v>35203469.26826721</v>
+        <v>42759742.81122843</v>
       </c>
       <c r="R19" t="n">
-        <v>36913234.59472972</v>
+        <v>44836501.92465463</v>
       </c>
       <c r="S19" t="n">
-        <v>37418411.50209225</v>
+        <v>47796131.45478696</v>
       </c>
       <c r="T19" t="n">
-        <v>38365585.46172108</v>
+        <v>49561747.73386818</v>
       </c>
       <c r="U19" t="n">
-        <v>40228928.73769229</v>
+        <v>53697708.33933426</v>
       </c>
     </row>
     <row r="20">
@@ -1673,64 +1673,64 @@
         <v>22561132</v>
       </c>
       <c r="B20" t="n">
-        <v>22607562.80014147</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C20" t="n">
-        <v>22522654.17605833</v>
+        <v>25475228.69107363</v>
       </c>
       <c r="D20" t="n">
-        <v>23878419.19185282</v>
+        <v>25675763.60539267</v>
       </c>
       <c r="E20" t="n">
-        <v>26009912.49027302</v>
+        <v>26922786.44874976</v>
       </c>
       <c r="F20" t="n">
-        <v>26819518.02179077</v>
+        <v>28543420.13204459</v>
       </c>
       <c r="G20" t="n">
-        <v>28589857.68063826</v>
+        <v>28270273.20310191</v>
       </c>
       <c r="H20" t="n">
-        <v>31308129.42931791</v>
+        <v>27835383.53344498</v>
       </c>
       <c r="I20" t="n">
-        <v>31008525.54985997</v>
+        <v>27569012.17735208</v>
       </c>
       <c r="J20" t="n">
-        <v>30892064.9095618</v>
+        <v>29388825.47799233</v>
       </c>
       <c r="K20" t="n">
-        <v>33110829.94707383</v>
+        <v>29107588.42274772</v>
       </c>
       <c r="L20" t="n">
-        <v>35103956.71336243</v>
+        <v>30690513.0264844</v>
       </c>
       <c r="M20" t="n">
-        <v>34768028.57561179</v>
+        <v>30932101.41317981</v>
       </c>
       <c r="N20" t="n">
-        <v>36052379.32485036</v>
+        <v>30815927.80374603</v>
       </c>
       <c r="O20" t="n">
-        <v>39060974.20777465</v>
+        <v>33387537.34628209</v>
       </c>
       <c r="P20" t="n">
-        <v>40958091.1881883</v>
+        <v>35203213.50454137</v>
       </c>
       <c r="Q20" t="n">
-        <v>43899829.81905118</v>
+        <v>37322292.58553778</v>
       </c>
       <c r="R20" t="n">
-        <v>43479729.3671534</v>
+        <v>36748153.1219127</v>
       </c>
       <c r="S20" t="n">
-        <v>46855360.74236879</v>
+        <v>40242100.78556608</v>
       </c>
       <c r="T20" t="n">
-        <v>49131036.20337821</v>
+        <v>43366372.71626854</v>
       </c>
       <c r="U20" t="n">
-        <v>50089056.2391196</v>
+        <v>45724716.43579666</v>
       </c>
     </row>
     <row r="21">
@@ -1738,64 +1738,64 @@
         <v>22561132</v>
       </c>
       <c r="B21" t="n">
-        <v>23525718.08848731</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C21" t="n">
-        <v>25762500.64129606</v>
+        <v>23938699.01423851</v>
       </c>
       <c r="D21" t="n">
-        <v>26264850.96183468</v>
+        <v>24962182.05780296</v>
       </c>
       <c r="E21" t="n">
-        <v>28609367.71394268</v>
+        <v>27045292.64889686</v>
       </c>
       <c r="F21" t="n">
-        <v>30331526.19346129</v>
+        <v>27887126.25899653</v>
       </c>
       <c r="G21" t="n">
-        <v>33215392.62144491</v>
+        <v>29727938.07177692</v>
       </c>
       <c r="H21" t="n">
-        <v>35794132.71723194</v>
+        <v>31863091.8669046</v>
       </c>
       <c r="I21" t="n">
-        <v>36075895.57889722</v>
+        <v>34336843.52504044</v>
       </c>
       <c r="J21" t="n">
-        <v>38666979.60133874</v>
+        <v>34207882.51474299</v>
       </c>
       <c r="K21" t="n">
-        <v>38521755.63073983</v>
+        <v>37261429.39100345</v>
       </c>
       <c r="L21" t="n">
-        <v>39720814.89147687</v>
+        <v>39937662.17189768</v>
       </c>
       <c r="M21" t="n">
-        <v>42804615.80165651</v>
+        <v>43502674.52007752</v>
       </c>
       <c r="N21" t="n">
-        <v>42146140.19754627</v>
+        <v>43592203.00589379</v>
       </c>
       <c r="O21" t="n">
-        <v>43703042.58625987</v>
+        <v>47483435.83097704</v>
       </c>
       <c r="P21" t="n">
-        <v>43792983.42947184</v>
+        <v>49513558.32820547</v>
       </c>
       <c r="Q21" t="n">
-        <v>46683730.95451885</v>
+        <v>48751877.14917358</v>
       </c>
       <c r="R21" t="n">
-        <v>46508397.9742477</v>
+        <v>51403094.58075804</v>
       </c>
       <c r="S21" t="n">
-        <v>47685667.17667759</v>
+        <v>53600799.46266718</v>
       </c>
       <c r="T21" t="n">
-        <v>51665067.61967953</v>
+        <v>56515710.27620281</v>
       </c>
       <c r="U21" t="n">
-        <v>52071762.68938974</v>
+        <v>57946295.032067</v>
       </c>
     </row>
     <row r="22">
@@ -1803,64 +1803,64 @@
         <v>22561132</v>
       </c>
       <c r="B22" t="n">
-        <v>23788048.17087183</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C22" t="n">
-        <v>24390196.12086127</v>
+        <v>25762500.64129605</v>
       </c>
       <c r="D22" t="n">
-        <v>26141976.53986066</v>
+        <v>27463067.24205725</v>
       </c>
       <c r="E22" t="n">
-        <v>27107676.02099543</v>
+        <v>27838913.67026521</v>
       </c>
       <c r="F22" t="n">
-        <v>29054634.37355837</v>
+        <v>29190996.58451105</v>
       </c>
       <c r="G22" t="n">
-        <v>29621178.94521745</v>
+        <v>28741943.16467351</v>
       </c>
       <c r="H22" t="n">
-        <v>29682139.31899479</v>
+        <v>28299797.66157269</v>
       </c>
       <c r="I22" t="n">
-        <v>31123744.18572288</v>
+        <v>30496906.20592393</v>
       </c>
       <c r="J22" t="n">
-        <v>31549688.89108151</v>
+        <v>30027763.60619846</v>
       </c>
       <c r="K22" t="n">
-        <v>33265419.44424893</v>
+        <v>31660729.04177862</v>
       </c>
       <c r="L22" t="n">
-        <v>33527276.87912945</v>
+        <v>34486905.73435777</v>
       </c>
       <c r="M22" t="n">
-        <v>33791195.59318059</v>
+        <v>35760871.64595714</v>
       </c>
       <c r="N22" t="n">
-        <v>33664283.90662217</v>
+        <v>35210751.96564759</v>
       </c>
       <c r="O22" t="n">
-        <v>34320713.34437975</v>
+        <v>37944405.57412562</v>
       </c>
       <c r="P22" t="n">
-        <v>35189475.12903927</v>
+        <v>39346093.49619334</v>
       </c>
       <c r="Q22" t="n">
-        <v>37716893.65328771</v>
+        <v>38740821.32638027</v>
       </c>
       <c r="R22" t="n">
-        <v>38013792.0297012</v>
+        <v>38820549.92033209</v>
       </c>
       <c r="S22" t="n">
-        <v>37429015.03305053</v>
+        <v>40028909.69331538</v>
       </c>
       <c r="T22" t="n">
-        <v>38594060.76787762</v>
+        <v>43602067.19879548</v>
       </c>
       <c r="U22" t="n">
-        <v>38673487.32866194</v>
+        <v>45466244.3796766</v>
       </c>
     </row>
     <row r="23">
@@ -1868,64 +1868,64 @@
         <v>22561132</v>
       </c>
       <c r="B23" t="n">
-        <v>22214067.67656468</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C23" t="n">
-        <v>21872342.34252943</v>
+        <v>23717007.41923334</v>
       </c>
       <c r="D23" t="n">
-        <v>21917355.6138463</v>
+        <v>23490046.96003449</v>
       </c>
       <c r="E23" t="n">
-        <v>23364106.58933848</v>
+        <v>24767479.24799792</v>
       </c>
       <c r="F23" t="n">
-        <v>24363023.3186059</v>
+        <v>26978333.97886223</v>
       </c>
       <c r="G23" t="n">
-        <v>23988239.98748089</v>
+        <v>27033855.37881337</v>
       </c>
       <c r="H23" t="n">
-        <v>25432226.84228421</v>
+        <v>28504006.5363562</v>
       </c>
       <c r="I23" t="n">
-        <v>25780280.15824481</v>
+        <v>29391245.25239886</v>
       </c>
       <c r="J23" t="n">
-        <v>27032379.17113356</v>
+        <v>30476974.56773463</v>
       </c>
       <c r="K23" t="n">
-        <v>28502450.04976689</v>
+        <v>33197484.10085371</v>
       </c>
       <c r="L23" t="n">
-        <v>29058227.42239062</v>
+        <v>35967836.09043641</v>
       </c>
       <c r="M23" t="n">
-        <v>30638467.68344678</v>
+        <v>39387592.62780406</v>
       </c>
       <c r="N23" t="n">
-        <v>30701521.63701838</v>
+        <v>42445523.19461803</v>
       </c>
       <c r="O23" t="n">
-        <v>30229231.37980139</v>
+        <v>43273180.51248209</v>
       </c>
       <c r="P23" t="n">
-        <v>29764206.49821297</v>
+        <v>44368556.50751729</v>
       </c>
       <c r="Q23" t="n">
-        <v>31555881.2083835</v>
+        <v>45749608.01191498</v>
       </c>
       <c r="R23" t="n">
-        <v>33271948.51124208</v>
+        <v>50099397.65973739</v>
       </c>
       <c r="S23" t="n">
-        <v>35855079.43095628</v>
+        <v>51658831.95180582</v>
       </c>
       <c r="T23" t="n">
-        <v>36345774.9318798</v>
+        <v>54768467.10268937</v>
       </c>
       <c r="U23" t="n">
-        <v>37054491.52509698</v>
+        <v>59657342.6876343</v>
       </c>
     </row>
     <row r="24">
@@ -1933,64 +1933,64 @@
         <v>22561132</v>
       </c>
       <c r="B24" t="n">
-        <v>23788048.17087183</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C24" t="n">
-        <v>25358282.3954113</v>
+        <v>23960050.75779761</v>
       </c>
       <c r="D24" t="n">
-        <v>27769301.83455907</v>
+        <v>26098830.85080638</v>
       </c>
       <c r="E24" t="n">
-        <v>28956559.73618478</v>
+        <v>28125063.15626724</v>
       </c>
       <c r="F24" t="n">
-        <v>28511112.7251991</v>
+        <v>30799143.08564327</v>
       </c>
       <c r="G24" t="n">
-        <v>30724627.11588873</v>
+        <v>30683468.83603661</v>
       </c>
       <c r="H24" t="n">
-        <v>32038237.97060764</v>
+        <v>33422410.96075698</v>
       </c>
       <c r="I24" t="n">
-        <v>34711850.1044354</v>
+        <v>35239983.61080294</v>
       </c>
       <c r="J24" t="n">
-        <v>37204964.100685</v>
+        <v>35312507.48221248</v>
       </c>
       <c r="K24" t="n">
-        <v>40742344.52262471</v>
+        <v>35179882.11035145</v>
       </c>
       <c r="L24" t="n">
-        <v>41063058.5255127</v>
+        <v>36683974.40848031</v>
       </c>
       <c r="M24" t="n">
-        <v>42579951.26127926</v>
+        <v>36546198.13332579</v>
       </c>
       <c r="N24" t="n">
-        <v>42915130.46541654</v>
+        <v>38958589.880372</v>
       </c>
       <c r="O24" t="n">
-        <v>45997429.79813163</v>
+        <v>39265262.59284849</v>
       </c>
       <c r="P24" t="n">
-        <v>46092092.48925804</v>
+        <v>38889512.74080733</v>
       </c>
       <c r="Q24" t="n">
-        <v>48330697.46769617</v>
+        <v>40552207.81204014</v>
       </c>
       <c r="R24" t="n">
-        <v>49835077.76988252</v>
+        <v>42757512.0285638</v>
       </c>
       <c r="S24" t="n">
-        <v>49068450.56564689</v>
+        <v>45828490.71055581</v>
       </c>
       <c r="T24" t="n">
-        <v>50881067.03629059</v>
+        <v>48054293.05361205</v>
       </c>
       <c r="U24" t="n">
-        <v>52760642.59025103</v>
+        <v>48991317.36871459</v>
       </c>
     </row>
     <row r="25">
@@ -1998,64 +1998,64 @@
         <v>22561132</v>
       </c>
       <c r="B25" t="n">
-        <v>24575038.41802541</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C25" t="n">
-        <v>26340094.79082076</v>
+        <v>22388931.5104567</v>
       </c>
       <c r="D25" t="n">
-        <v>28844463.16953854</v>
+        <v>23736647.00817822</v>
       </c>
       <c r="E25" t="n">
-        <v>30245383.70415633</v>
+        <v>24061495.42794959</v>
       </c>
       <c r="F25" t="n">
-        <v>31186825.93157324</v>
+        <v>24530677.36448465</v>
       </c>
       <c r="G25" t="n">
-        <v>31432321.17489021</v>
+        <v>25579470.04594019</v>
       </c>
       <c r="H25" t="n">
-        <v>34420849.19064848</v>
+        <v>25632112.5845073</v>
       </c>
       <c r="I25" t="n">
-        <v>36292718.76204886</v>
+        <v>27473091.34091519</v>
       </c>
       <c r="J25" t="n">
-        <v>37844389.64590586</v>
+        <v>27369908.94988571</v>
       </c>
       <c r="K25" t="n">
-        <v>37482236.87088209</v>
+        <v>28380968.95261003</v>
       </c>
       <c r="L25" t="n">
-        <v>38213113.65837879</v>
+        <v>28934377.53080089</v>
       </c>
       <c r="M25" t="n">
-        <v>38069594.30021758</v>
+        <v>31348970.45947796</v>
       </c>
       <c r="N25" t="n">
-        <v>39697234.30765805</v>
+        <v>32507019.25738223</v>
       </c>
       <c r="O25" t="n">
-        <v>41394462.97351525</v>
+        <v>34085823.15223078</v>
       </c>
       <c r="P25" t="n">
-        <v>43886228.12287983</v>
+        <v>34552305.45631497</v>
       </c>
       <c r="Q25" t="n">
-        <v>47038274.73654545</v>
+        <v>37234839.31938162</v>
       </c>
       <c r="R25" t="n">
-        <v>47135079.48611617</v>
+        <v>40558585.74661974</v>
       </c>
       <c r="S25" t="n">
-        <v>47506115.57143623</v>
+        <v>40642055.29898182</v>
       </c>
       <c r="T25" t="n">
-        <v>51470532.3143089</v>
+        <v>42143395.93612275</v>
       </c>
       <c r="U25" t="n">
-        <v>54868070.05320404</v>
+        <v>46150313.48871217</v>
       </c>
     </row>
     <row r="26">
@@ -2063,64 +2063,64 @@
         <v>22561132</v>
       </c>
       <c r="B26" t="n">
-        <v>23132222.96491052</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C26" t="n">
-        <v>22910858.61427374</v>
+        <v>25475228.69107363</v>
       </c>
       <c r="D26" t="n">
-        <v>23357603.95662016</v>
+        <v>27008725.74513915</v>
       </c>
       <c r="E26" t="n">
-        <v>23269878.3565027</v>
+        <v>27378354.27250966</v>
       </c>
       <c r="F26" t="n">
-        <v>23047196.70936495</v>
+        <v>29185582.36375349</v>
       </c>
       <c r="G26" t="n">
-        <v>22692655.11397795</v>
+        <v>29245646.27994989</v>
       </c>
       <c r="H26" t="n">
-        <v>23794794.07032865</v>
+        <v>29815915.44704861</v>
       </c>
       <c r="I26" t="n">
-        <v>25088799.07093994</v>
+        <v>29530591.34432019</v>
       </c>
       <c r="J26" t="n">
-        <v>26599034.7564319</v>
+        <v>31479887.26244937</v>
       </c>
       <c r="K26" t="n">
-        <v>26653775.55874323</v>
+        <v>31361656.2997677</v>
       </c>
       <c r="L26" t="n">
-        <v>28723092.05067183</v>
+        <v>32520173.7198271</v>
       </c>
       <c r="M26" t="n">
-        <v>31120053.06638625</v>
+        <v>32587100.22362802</v>
       </c>
       <c r="N26" t="n">
-        <v>34078891.19747137</v>
+        <v>35117061.64572619</v>
       </c>
       <c r="O26" t="n">
-        <v>36130291.00592346</v>
+        <v>38455928.0939095</v>
       </c>
       <c r="P26" t="n">
-        <v>37885070.29560592</v>
+        <v>38311496.78253109</v>
       </c>
       <c r="Q26" t="n">
-        <v>41266859.21540235</v>
+        <v>39058543.54468309</v>
       </c>
       <c r="R26" t="n">
-        <v>42791280.4645612</v>
+        <v>41409696.58782922</v>
       </c>
       <c r="S26" t="n">
-        <v>45118349.60161878</v>
+        <v>41494917.72594357</v>
       </c>
       <c r="T26" t="n">
-        <v>45998125.12108897</v>
+        <v>45440179.14795498</v>
       </c>
       <c r="U26" t="n">
-        <v>49569276.93412512</v>
+        <v>47911300.30463891</v>
       </c>
     </row>
     <row r="27">
@@ -2128,64 +2128,64 @@
         <v>22561132</v>
       </c>
       <c r="B27" t="n">
-        <v>22738727.84133373</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C27" t="n">
-        <v>23182116.75682683</v>
+        <v>26057398.21421815</v>
       </c>
       <c r="D27" t="n">
-        <v>24712353.82660932</v>
+        <v>25656549.83118035</v>
       </c>
       <c r="E27" t="n">
-        <v>25194227.03600428</v>
+        <v>26604317.37361926</v>
       </c>
       <c r="F27" t="n">
-        <v>27296701.93389565</v>
+        <v>28051109.45837369</v>
       </c>
       <c r="G27" t="n">
-        <v>29574629.75161449</v>
+        <v>29739663.23896283</v>
       </c>
       <c r="H27" t="n">
-        <v>29635494.32717103</v>
+        <v>30665364.00295977</v>
       </c>
       <c r="I27" t="n">
-        <v>30385658.94882673</v>
+        <v>32154722.2163809</v>
       </c>
       <c r="J27" t="n">
-        <v>31508122.47166242</v>
+        <v>32407836.50802507</v>
       </c>
       <c r="K27" t="n">
-        <v>31206604.75409141</v>
+        <v>33793411.85298613</v>
       </c>
       <c r="L27" t="n">
-        <v>32359394.48187091</v>
+        <v>34648826.03090683</v>
       </c>
       <c r="M27" t="n">
-        <v>33554768.91782183</v>
+        <v>37137413.44043339</v>
       </c>
       <c r="N27" t="n">
-        <v>35769698.28793274</v>
+        <v>40452463.20285453</v>
       </c>
       <c r="O27" t="n">
-        <v>35843312.31192443</v>
+        <v>43357886.04520892</v>
       </c>
       <c r="P27" t="n">
-        <v>38417691.47431272</v>
+        <v>46219913.06326562</v>
       </c>
       <c r="Q27" t="n">
-        <v>38273403.77057517</v>
+        <v>46315033.62485785</v>
       </c>
       <c r="R27" t="n">
-        <v>39687245.07313122</v>
+        <v>46410349.94452573</v>
       </c>
       <c r="S27" t="n">
-        <v>39768921.40675472</v>
+        <v>46505862.42513928</v>
       </c>
       <c r="T27" t="n">
-        <v>41700422.03170517</v>
+        <v>47953441.43877404</v>
       </c>
       <c r="U27" t="n">
-        <v>41786241.48266042</v>
+        <v>47215759.9824826</v>
       </c>
     </row>
     <row r="28">
@@ -2193,64 +2193,64 @@
         <v>22561132</v>
       </c>
       <c r="B28" t="n">
-        <v>23263388.00610278</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C28" t="n">
-        <v>23176016.25866709</v>
+        <v>25358282.3954113</v>
       </c>
       <c r="D28" t="n">
-        <v>22954232.82707777</v>
+        <v>25557896.73642891</v>
       </c>
       <c r="E28" t="n">
-        <v>25136679.5990572</v>
+        <v>27096370.04431162</v>
       </c>
       <c r="F28" t="n">
-        <v>26211381.5001858</v>
+        <v>29515111.86708144</v>
       </c>
       <c r="G28" t="n">
-        <v>27636805.00391197</v>
+        <v>31806573.63815629</v>
       </c>
       <c r="H28" t="n">
-        <v>28657724.29866408</v>
+        <v>31687115.71921607</v>
       </c>
       <c r="I28" t="n">
-        <v>28383483.53331592</v>
+        <v>33962983.80065446</v>
       </c>
       <c r="J28" t="n">
-        <v>28606911.53498185</v>
+        <v>33835426.91848344</v>
       </c>
       <c r="K28" t="n">
-        <v>29164725.831789</v>
+        <v>33708349.10959657</v>
       </c>
       <c r="L28" t="n">
-        <v>29055190.06431017</v>
+        <v>36913277.72808704</v>
       </c>
       <c r="M28" t="n">
-        <v>31310944.93264717</v>
+        <v>38920690.18258946</v>
       </c>
       <c r="N28" t="n">
-        <v>33377760.880839</v>
+        <v>41942371.89123041</v>
       </c>
       <c r="O28" t="n">
-        <v>36551257.7708922</v>
+        <v>44954804.65074417</v>
       </c>
       <c r="P28" t="n">
-        <v>39176483.79759409</v>
+        <v>44785965.10609421</v>
       </c>
       <c r="Q28" t="n">
-        <v>42901312.7320076</v>
+        <v>46180009.20746573</v>
       </c>
       <c r="R28" t="n">
-        <v>44984947.62633976</v>
+        <v>46006568.08616413</v>
       </c>
       <c r="S28" t="n">
-        <v>46123653.66052171</v>
+        <v>49845846.600288</v>
       </c>
       <c r="T28" t="n">
-        <v>46218576.12030369</v>
+        <v>50528013.06190705</v>
       </c>
       <c r="U28" t="n">
-        <v>50075546.84499996</v>
+        <v>53569577.8744486</v>
       </c>
     </row>
     <row r="29">
@@ -2258,64 +2258,64 @@
         <v>22561132</v>
       </c>
       <c r="B29" t="n">
-        <v>24181543.29444862</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C29" t="n">
-        <v>25637166.16066407</v>
+        <v>22261309.34301482</v>
       </c>
       <c r="D29" t="n">
-        <v>25838975.80805746</v>
+        <v>22307123.10825465</v>
       </c>
       <c r="E29" t="n">
-        <v>27694812.13029347</v>
+        <v>22093654.57006341</v>
       </c>
       <c r="F29" t="n">
-        <v>27429785.9755426</v>
+        <v>22010676.06295513</v>
       </c>
       <c r="G29" t="n">
-        <v>29878289.97885275</v>
+        <v>22951727.7765184</v>
       </c>
       <c r="H29" t="n">
-        <v>29766074.23430351</v>
+        <v>23666141.78205217</v>
       </c>
       <c r="I29" t="n">
-        <v>31038702.80255485</v>
+        <v>25641096.95553679</v>
       </c>
       <c r="J29" t="n">
-        <v>30922128.82367934</v>
+        <v>27631792.22061443</v>
       </c>
       <c r="K29" t="n">
-        <v>31165540.43459812</v>
+        <v>30258972.84521576</v>
       </c>
       <c r="L29" t="n">
-        <v>32316813.22306099</v>
+        <v>32256348.77196994</v>
       </c>
       <c r="M29" t="n">
-        <v>34637908.15514305</v>
+        <v>34010508.79911803</v>
       </c>
       <c r="N29" t="n">
-        <v>35313322.56878237</v>
+        <v>35662334.31202273</v>
       </c>
       <c r="O29" t="n">
-        <v>34975390.89956392</v>
+        <v>38638379.68083231</v>
       </c>
       <c r="P29" t="n">
-        <v>35454047.40318444</v>
+        <v>40739606.37666915</v>
       </c>
       <c r="Q29" t="n">
-        <v>37382104.20821636</v>
+        <v>40823448.46941154</v>
       </c>
       <c r="R29" t="n">
-        <v>37459036.562912</v>
+        <v>40432787.52104989</v>
       </c>
       <c r="S29" t="n">
-        <v>37536127.24436116</v>
+        <v>43101730.60974038</v>
       </c>
       <c r="T29" t="n">
-        <v>40886767.96421677</v>
+        <v>45445682.60105234</v>
       </c>
       <c r="U29" t="n">
-        <v>40495501.0784633</v>
+        <v>48181313.40671925</v>
       </c>
     </row>
     <row r="30">
@@ -2323,64 +2323,64 @@
         <v>22561132</v>
       </c>
       <c r="B30" t="n">
-        <v>23263388.00610278</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C30" t="n">
-        <v>23176016.25866709</v>
+        <v>24099873.92155898</v>
       </c>
       <c r="D30" t="n">
-        <v>22954232.82707777</v>
+        <v>24429693.29147294</v>
       </c>
       <c r="E30" t="n">
-        <v>24602877.85643179</v>
+        <v>24479969.58996424</v>
       </c>
       <c r="F30" t="n">
-        <v>26942074.80383897</v>
+        <v>25526594.29448137</v>
       </c>
       <c r="G30" t="n">
-        <v>29347043.55107966</v>
+        <v>25282316.95120408</v>
       </c>
       <c r="H30" t="n">
-        <v>28895589.61628231</v>
+        <v>24893391.86413189</v>
       </c>
       <c r="I30" t="n">
-        <v>28619072.59319387</v>
+        <v>24655173.96637475</v>
       </c>
       <c r="J30" t="n">
-        <v>30009046.33761298</v>
+        <v>25279271.51123614</v>
       </c>
       <c r="K30" t="n">
-        <v>31989924.77146491</v>
+        <v>26947940.45848394</v>
       </c>
       <c r="L30" t="n">
-        <v>33729596.16769998</v>
+        <v>28883426.10171569</v>
       </c>
       <c r="M30" t="n">
-        <v>35956065.77554578</v>
+        <v>30286238.99159955</v>
       </c>
       <c r="N30" t="n">
-        <v>38329503.25368609</v>
+        <v>32109337.76867219</v>
       </c>
       <c r="O30" t="n">
-        <v>39745416.90305377</v>
+        <v>32175418.77225889</v>
       </c>
       <c r="P30" t="n">
-        <v>40520424.0810909</v>
+        <v>33738117.46431104</v>
       </c>
       <c r="Q30" t="n">
-        <v>43666304.16949124</v>
+        <v>36553585.66539755</v>
       </c>
       <c r="R30" t="n">
-        <v>46548689.6755894</v>
+        <v>37053840.58919915</v>
       </c>
       <c r="S30" t="n">
-        <v>50162585.61356155</v>
+        <v>36483830.79914204</v>
       </c>
       <c r="T30" t="n">
-        <v>50849086.81411429</v>
+        <v>38467889.13375128</v>
       </c>
       <c r="U30" t="n">
-        <v>53023105.46500371</v>
+        <v>38547056.03336577</v>
       </c>
     </row>
     <row r="31">
@@ -2388,64 +2388,64 @@
         <v>22561132</v>
       </c>
       <c r="B31" t="n">
-        <v>23132222.96491052</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C31" t="n">
-        <v>24659166.57660446</v>
+        <v>25358282.3954113</v>
       </c>
       <c r="D31" t="n">
-        <v>26286902.78384054</v>
+        <v>24968188.71026087</v>
       </c>
       <c r="E31" t="n">
-        <v>27716433.27493601</v>
+        <v>26035686.89628467</v>
       </c>
       <c r="F31" t="n">
-        <v>28901430.81670342</v>
+        <v>27905651.62613367</v>
       </c>
       <c r="G31" t="n">
-        <v>29464988.02867388</v>
+        <v>29585449.48307888</v>
       </c>
       <c r="H31" t="n">
-        <v>31067348.68535214</v>
+        <v>31710369.30065364</v>
       </c>
       <c r="I31" t="n">
-        <v>33118084.99717681</v>
+        <v>32697411.85229162</v>
       </c>
       <c r="J31" t="n">
-        <v>35304189.13402026</v>
+        <v>33905272.84214684</v>
       </c>
       <c r="K31" t="n">
-        <v>37224096.36864161</v>
+        <v>34960635.73315565</v>
       </c>
       <c r="L31" t="n">
-        <v>37517115.56255779</v>
+        <v>36455354.29926635</v>
       </c>
       <c r="M31" t="n">
-        <v>39557365.83759583</v>
+        <v>38861749.50148029</v>
       </c>
       <c r="N31" t="n">
-        <v>39178820.69669762</v>
+        <v>38263928.13337499</v>
       </c>
       <c r="O31" t="n">
-        <v>39259450.69316884</v>
+        <v>39232504.69411475</v>
       </c>
       <c r="P31" t="n">
-        <v>42307432.71749344</v>
+        <v>39769422.0249056</v>
       </c>
       <c r="Q31" t="n">
-        <v>43870293.34362595</v>
+        <v>40776107.22129277</v>
       </c>
       <c r="R31" t="n">
-        <v>47531298.31854708</v>
+        <v>42282399.81268334</v>
       </c>
       <c r="S31" t="n">
-        <v>50668809.67805274</v>
+        <v>45073434.65524913</v>
       </c>
       <c r="T31" t="n">
-        <v>54897155.33445658</v>
+        <v>48834842.56782296</v>
       </c>
       <c r="U31" t="n">
-        <v>60116677.16962788</v>
+        <v>53194056.58556814</v>
       </c>
     </row>
     <row r="32">
@@ -2453,64 +2453,64 @@
         <v>22561132</v>
       </c>
       <c r="B32" t="n">
-        <v>22476397.75894921</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C32" t="n">
-        <v>24352068.00736287</v>
+        <v>24121225.66511808</v>
       </c>
       <c r="D32" t="n">
-        <v>26667418.40979489</v>
+        <v>24731807.35223895</v>
       </c>
       <c r="E32" t="n">
-        <v>28427718.0681102</v>
+        <v>26651908.19185157</v>
       </c>
       <c r="F32" t="n">
-        <v>28486222.29990577</v>
+        <v>26241914.29239363</v>
       </c>
       <c r="G32" t="n">
-        <v>29704131.65587452</v>
+        <v>26295920.14094057</v>
       </c>
       <c r="H32" t="n">
-        <v>29247184.53299169</v>
+        <v>27114428.17745996</v>
       </c>
       <c r="I32" t="n">
-        <v>31687881.41274656</v>
+        <v>29534781.94905597</v>
       </c>
       <c r="J32" t="n">
-        <v>32489998.20245266</v>
+        <v>29423856.33889359</v>
       </c>
       <c r="K32" t="n">
-        <v>32556862.60505155</v>
+        <v>31537170.02979247</v>
       </c>
       <c r="L32" t="n">
-        <v>35463032.14260334</v>
+        <v>31602073.51241386</v>
       </c>
       <c r="M32" t="n">
-        <v>36979230.33072322</v>
+        <v>31115929.80904209</v>
       </c>
       <c r="N32" t="n">
-        <v>36625356.71807364</v>
+        <v>32265369.95278182</v>
       </c>
       <c r="O32" t="n">
-        <v>37339524.95598427</v>
+        <v>35333102.73351338</v>
       </c>
       <c r="P32" t="n">
-        <v>40455532.9925458</v>
+        <v>36022072.94377911</v>
       </c>
       <c r="Q32" t="n">
-        <v>42420381.03201346</v>
+        <v>39446986.22266767</v>
       </c>
       <c r="R32" t="n">
-        <v>44234036.01226051</v>
+        <v>41821521.81164239</v>
       </c>
       <c r="S32" t="n">
-        <v>47668229.41660574</v>
+        <v>44095853.6758934</v>
       </c>
       <c r="T32" t="n">
-        <v>48597725.76714852</v>
+        <v>45468416.81182671</v>
       </c>
       <c r="U32" t="n">
-        <v>51240560.16088858</v>
+        <v>44768963.19759885</v>
       </c>
     </row>
     <row r="33">
@@ -2518,64 +2518,64 @@
         <v>22561132</v>
       </c>
       <c r="B33" t="n">
-        <v>24050378.25325636</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C33" t="n">
-        <v>25637928.72293404</v>
+        <v>26625841.61650325</v>
       </c>
       <c r="D33" t="n">
-        <v>27926483.6234592</v>
+        <v>28692989.40376806</v>
       </c>
       <c r="E33" t="n">
-        <v>27821598.3989478</v>
+        <v>28752039.56386054</v>
       </c>
       <c r="F33" t="n">
-        <v>28040603.37506825</v>
+        <v>28476896.24636824</v>
       </c>
       <c r="G33" t="n">
-        <v>30054567.49761825</v>
+        <v>30356638.40820986</v>
       </c>
       <c r="H33" t="n">
-        <v>32912101.19576212</v>
+        <v>30948571.12651108</v>
       </c>
       <c r="I33" t="n">
-        <v>35658637.79329548</v>
+        <v>32091828.94533604</v>
       </c>
       <c r="J33" t="n">
-        <v>35939334.07128876</v>
+        <v>32717596.63698313</v>
       </c>
       <c r="K33" t="n">
-        <v>35595411.77030294</v>
+        <v>34116415.56879795</v>
       </c>
       <c r="L33" t="n">
-        <v>35875610.34814768</v>
+        <v>37161797.70095444</v>
       </c>
       <c r="M33" t="n">
-        <v>37200875.79797981</v>
+        <v>38534575.64309388</v>
       </c>
       <c r="N33" t="n">
-        <v>36628604.12340128</v>
+        <v>40182095.61643077</v>
       </c>
       <c r="O33" t="n">
-        <v>37981685.59154218</v>
+        <v>40965617.71678432</v>
       </c>
       <c r="P33" t="n">
-        <v>39605567.12101953</v>
+        <v>42002582.26936235</v>
       </c>
       <c r="Q33" t="n">
-        <v>42450163.22931512</v>
+        <v>45507725.52070127</v>
       </c>
       <c r="R33" t="n">
-        <v>42043935.3958753</v>
+        <v>47717948.91057622</v>
       </c>
       <c r="S33" t="n">
-        <v>43108195.4531218</v>
+        <v>48370993.98021013</v>
       </c>
       <c r="T33" t="n">
-        <v>43698153.63749876</v>
+        <v>47908106.61792216</v>
       </c>
       <c r="U33" t="n">
-        <v>47344793.44017049</v>
+        <v>51627543.47230132</v>
       </c>
     </row>
     <row r="34">
@@ -2583,64 +2583,64 @@
         <v>22561132</v>
       </c>
       <c r="B34" t="n">
-        <v>23656883.12967957</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C34" t="n">
-        <v>25906136.61640726</v>
+        <v>25911474.55229704</v>
       </c>
       <c r="D34" t="n">
-        <v>27164348.23730738</v>
+        <v>27621874.82801706</v>
       </c>
       <c r="E34" t="n">
-        <v>28009887.66775424</v>
+        <v>27357546.64849236</v>
       </c>
       <c r="F34" t="n">
-        <v>28393217.61927218</v>
+        <v>29163401.24145132</v>
       </c>
       <c r="G34" t="n">
-        <v>28286579.45297986</v>
+        <v>30410262.92952962</v>
       </c>
       <c r="H34" t="n">
-        <v>28180341.79425461</v>
+        <v>31003241.28760972</v>
       </c>
       <c r="I34" t="n">
-        <v>29712841.00786084</v>
+        <v>33229991.3614517</v>
       </c>
       <c r="J34" t="n">
-        <v>29946733.39398785</v>
+        <v>34650717.3865381</v>
       </c>
       <c r="K34" t="n">
-        <v>30704776.42435931</v>
+        <v>34722028.54830661</v>
       </c>
       <c r="L34" t="n">
-        <v>33624130.80646889</v>
+        <v>34187889.68743651</v>
       </c>
       <c r="M34" t="n">
-        <v>34084294.60950744</v>
+        <v>37040891.67781288</v>
       </c>
       <c r="N34" t="n">
-        <v>33559966.19157084</v>
+        <v>36686427.99545498</v>
       </c>
       <c r="O34" t="n">
-        <v>34604580.78904037</v>
+        <v>38894790.08466087</v>
       </c>
       <c r="P34" t="n">
-        <v>35480528.12329368</v>
+        <v>38522585.47798277</v>
       </c>
       <c r="Q34" t="n">
-        <v>35966097.69382039</v>
+        <v>38377903.81733776</v>
       </c>
       <c r="R34" t="n">
-        <v>37922000.74264367</v>
+        <v>38456885.52720902</v>
       </c>
       <c r="S34" t="n">
-        <v>37338635.79752215</v>
+        <v>41442558.8804747</v>
       </c>
       <c r="T34" t="n">
-        <v>37849634.54267198</v>
+        <v>43214407.72952279</v>
       </c>
       <c r="U34" t="n">
-        <v>39687919.06705186</v>
+        <v>47323155.13845576</v>
       </c>
     </row>
     <row r="35">
@@ -2648,64 +2648,64 @@
         <v>22561132</v>
       </c>
       <c r="B35" t="n">
-        <v>22214067.67656468</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C35" t="n">
-        <v>22776373.38640215</v>
+        <v>25493530.18555287</v>
       </c>
       <c r="D35" t="n">
-        <v>24412243.99262461</v>
+        <v>25545995.85992354</v>
       </c>
       <c r="E35" t="n">
-        <v>26733315.81845486</v>
+        <v>26489679.47578875</v>
       </c>
       <c r="F35" t="n">
-        <v>27099175.21704143</v>
+        <v>27468223.30112615</v>
       </c>
       <c r="G35" t="n">
-        <v>26997397.16596143</v>
+        <v>28482915.09189971</v>
       </c>
       <c r="H35" t="n">
-        <v>28465565.6583211</v>
+        <v>29535090.17451112</v>
       </c>
       <c r="I35" t="n">
-        <v>30675543.91596114</v>
+        <v>29939293.31944936</v>
       </c>
       <c r="J35" t="n">
-        <v>30917014.46939458</v>
+        <v>31741507.48847333</v>
       </c>
       <c r="K35" t="n">
-        <v>33317315.61178666</v>
+        <v>31806831.49749851</v>
       </c>
       <c r="L35" t="n">
-        <v>32804785.85035953</v>
+        <v>34646049.94140749</v>
       </c>
       <c r="M35" t="n">
-        <v>34398051.70042538</v>
+        <v>35120199.24189243</v>
       </c>
       <c r="N35" t="n">
-        <v>35668735.29347725</v>
+        <v>36213378.91271504</v>
       </c>
       <c r="O35" t="n">
-        <v>36156880.57749049</v>
+        <v>39445945.26668624</v>
       </c>
       <c r="P35" t="n">
-        <v>36861913.86601622</v>
+        <v>41591088.87574905</v>
       </c>
       <c r="Q35" t="n">
-        <v>39080839.435095</v>
+        <v>41193081.97450041</v>
       </c>
       <c r="R35" t="n">
-        <v>42796574.67721365</v>
+        <v>42714777.85042094</v>
       </c>
       <c r="S35" t="n">
-        <v>46119168.04048529</v>
+        <v>42306017.78115325</v>
       </c>
       <c r="T35" t="n">
-        <v>49699717.2504788</v>
+        <v>43868826.13873262</v>
       </c>
       <c r="U35" t="n">
-        <v>53847191.50329487</v>
+        <v>45744408.41943067</v>
       </c>
     </row>
     <row r="36">
@@ -2713,64 +2713,64 @@
         <v>22561132</v>
       </c>
       <c r="B36" t="n">
-        <v>24575038.41802541</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C36" t="n">
-        <v>24911360.66240835</v>
+        <v>22521129.05151839</v>
       </c>
       <c r="D36" t="n">
-        <v>24962628.23214591</v>
+        <v>24138667.20868246</v>
       </c>
       <c r="E36" t="n">
-        <v>25449381.61329107</v>
+        <v>24890026.84908585</v>
       </c>
       <c r="F36" t="n">
-        <v>25501756.42991865</v>
+        <v>26243592.63800892</v>
       </c>
       <c r="G36" t="n">
-        <v>25405977.90353303</v>
+        <v>27060471.88643301</v>
       </c>
       <c r="H36" t="n">
-        <v>25753671.98904837</v>
+        <v>26958839.19584934</v>
       </c>
       <c r="I36" t="n">
-        <v>25357495.91309374</v>
+        <v>28424910.83433454</v>
       </c>
       <c r="J36" t="n">
-        <v>26883905.97020279</v>
+        <v>30301221.47154808</v>
       </c>
       <c r="K36" t="n">
-        <v>26626639.80098501</v>
+        <v>32477550.27934397</v>
       </c>
       <c r="L36" t="n">
-        <v>29003451.42487226</v>
+        <v>33488472.7253974</v>
       </c>
       <c r="M36" t="n">
-        <v>31761046.91566144</v>
+        <v>35114943.94236017</v>
       </c>
       <c r="N36" t="n">
-        <v>33118969.20478416</v>
+        <v>35799660.21236637</v>
       </c>
       <c r="O36" t="n">
-        <v>35690223.28547121</v>
+        <v>36497727.95948673</v>
       </c>
       <c r="P36" t="n">
-        <v>35141190.40902566</v>
+        <v>39755676.56689508</v>
       </c>
       <c r="Q36" t="n">
-        <v>37869443.47392949</v>
+        <v>41917663.93809054</v>
       </c>
       <c r="R36" t="n">
-        <v>41029673.56105503</v>
+        <v>43709825.58567844</v>
       </c>
       <c r="S36" t="n">
-        <v>40875575.8743894</v>
+        <v>46849202.41559162</v>
       </c>
       <c r="T36" t="n">
-        <v>42147902.04404702</v>
+        <v>48035098.41641323</v>
       </c>
       <c r="U36" t="n">
-        <v>45665172.32663026</v>
+        <v>51205865.30618826</v>
       </c>
     </row>
     <row r="37">
@@ -2778,64 +2778,64 @@
         <v>22561132</v>
       </c>
       <c r="B37" t="n">
-        <v>22607562.80014147</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C37" t="n">
-        <v>24494178.85793414</v>
+        <v>25078636.06788857</v>
       </c>
       <c r="D37" t="n">
-        <v>24686991.18233585</v>
+        <v>24838645.47137541</v>
       </c>
       <c r="E37" t="n">
-        <v>25455418.39735333</v>
+        <v>24745357.43189465</v>
       </c>
       <c r="F37" t="n">
-        <v>26691739.49442266</v>
+        <v>25515601.40190945</v>
       </c>
       <c r="G37" t="n">
-        <v>27367388.71552601</v>
+        <v>25864795.7422925</v>
       </c>
       <c r="H37" t="n">
-        <v>27105495.84682825</v>
+        <v>26970627.76147404</v>
       </c>
       <c r="I37" t="n">
-        <v>28737127.83467615</v>
+        <v>27966938.09001484</v>
       </c>
       <c r="J37" t="n">
-        <v>31469401.76215699</v>
+        <v>28512273.36276716</v>
       </c>
       <c r="K37" t="n">
-        <v>32083032.56929369</v>
+        <v>31223168.53539786</v>
       </c>
       <c r="L37" t="n">
-        <v>33454721.13938964</v>
+        <v>32558094.19461299</v>
       </c>
       <c r="M37" t="n">
-        <v>34496059.79441059</v>
+        <v>33382238.72021787</v>
       </c>
       <c r="N37" t="n">
-        <v>36372019.45783191</v>
+        <v>34421321.22895146</v>
       </c>
       <c r="O37" t="n">
-        <v>36658331.3058642</v>
+        <v>34892394.99955667</v>
       </c>
       <c r="P37" t="n">
-        <v>37586265.32076538</v>
+        <v>34964203.53375085</v>
       </c>
       <c r="Q37" t="n">
-        <v>38319170.58856653</v>
+        <v>35239433.39115075</v>
       </c>
       <c r="R37" t="n">
-        <v>40848595.14168354</v>
+        <v>38385061.06063194</v>
       </c>
       <c r="S37" t="n">
-        <v>41882597.49647244</v>
+        <v>39579865.45583918</v>
       </c>
       <c r="T37" t="n">
-        <v>45621223.37312264</v>
+        <v>41502183.99401364</v>
       </c>
       <c r="U37" t="n">
-        <v>47041266.39753879</v>
+        <v>41828879.27169759</v>
       </c>
     </row>
     <row r="38">
@@ -2843,64 +2843,64 @@
         <v>22561132</v>
       </c>
       <c r="B38" t="n">
-        <v>23656883.12967957</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C38" t="n">
-        <v>24943388.277747</v>
+        <v>25777751.88669541</v>
       </c>
       <c r="D38" t="n">
-        <v>26009826.1378886</v>
+        <v>27479325.21265411</v>
       </c>
       <c r="E38" t="n">
-        <v>26516999.12856397</v>
+        <v>29133460.08902045</v>
       </c>
       <c r="F38" t="n">
-        <v>27650715.66671653</v>
+        <v>29532166.71633515</v>
       </c>
       <c r="G38" t="n">
-        <v>29958186.16441921</v>
+        <v>31824952.57302594</v>
       </c>
       <c r="H38" t="n">
-        <v>32806556.10043241</v>
+        <v>31335380.25754467</v>
       </c>
       <c r="I38" t="n">
-        <v>32683342.48541254</v>
+        <v>32675103.45378711</v>
       </c>
       <c r="J38" t="n">
-        <v>32750604.79046422</v>
+        <v>33122279.32151482</v>
       </c>
       <c r="K38" t="n">
-        <v>34912451.78803857</v>
+        <v>34153270.12416372</v>
       </c>
       <c r="L38" t="n">
-        <v>34984301.59909499</v>
+        <v>37003383.08910371</v>
       </c>
       <c r="M38" t="n">
-        <v>35666470.43692724</v>
+        <v>40521597.55453631</v>
       </c>
       <c r="N38" t="n">
-        <v>35739872.01804509</v>
+        <v>41547322.60446446</v>
       </c>
       <c r="O38" t="n">
-        <v>35813424.65958592</v>
+        <v>40908188.29993278</v>
       </c>
       <c r="P38" t="n">
-        <v>36928182.22433505</v>
+        <v>41705868.68784453</v>
       </c>
       <c r="Q38" t="n">
-        <v>39151096.8579868</v>
+        <v>41064295.42372688</v>
       </c>
       <c r="R38" t="n">
-        <v>41735436.3453243</v>
+        <v>41148805.72639118</v>
       </c>
       <c r="S38" t="n">
-        <v>43519806.97422924</v>
+        <v>44821930.10447912</v>
       </c>
       <c r="T38" t="n">
-        <v>42850329.3804832</v>
+        <v>48041181.77058721</v>
       </c>
       <c r="U38" t="n">
-        <v>45927974.49594011</v>
+        <v>49536550.37348668</v>
       </c>
     </row>
     <row r="39">
@@ -2908,64 +2908,64 @@
         <v>22561132</v>
       </c>
       <c r="B39" t="n">
-        <v>24706203.45921767</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C39" t="n">
-        <v>26337044.54174089</v>
+        <v>23449562.08803008</v>
       </c>
       <c r="D39" t="n">
-        <v>27463067.24205725</v>
+        <v>24179472.08619858</v>
       </c>
       <c r="E39" t="n">
-        <v>27998577.393968</v>
+        <v>25494396.59023948</v>
       </c>
       <c r="F39" t="n">
-        <v>30335077.18272367</v>
+        <v>26287955.75772548</v>
       </c>
       <c r="G39" t="n">
-        <v>30926589.47256242</v>
+        <v>27411879.69995816</v>
       </c>
       <c r="H39" t="n">
-        <v>31529635.8286217</v>
+        <v>27149561.07374056</v>
       </c>
       <c r="I39" t="n">
-        <v>33060970.07539609</v>
+        <v>27363275.93258419</v>
       </c>
       <c r="J39" t="n">
-        <v>33705635.32532416</v>
+        <v>28851341.59035861</v>
       </c>
       <c r="K39" t="n">
-        <v>34754784.13783583</v>
+        <v>31426739.93462017</v>
       </c>
       <c r="L39" t="n">
-        <v>35634533.5763185</v>
+        <v>33866614.58168225</v>
       </c>
       <c r="M39" t="n">
-        <v>37365234.87365835</v>
+        <v>35905236.26873229</v>
       </c>
       <c r="N39" t="n">
-        <v>38093830.20596454</v>
+        <v>35979129.2298313</v>
       </c>
       <c r="O39" t="n">
-        <v>40386911.73654909</v>
+        <v>36053174.26261309</v>
       </c>
       <c r="P39" t="n">
-        <v>43052826.59331474</v>
+        <v>38433021.81142381</v>
       </c>
       <c r="Q39" t="n">
-        <v>47146211.16125075</v>
+        <v>38512116.95410366</v>
       </c>
       <c r="R39" t="n">
-        <v>49984206.32913954</v>
+        <v>38367474.61074227</v>
       </c>
       <c r="S39" t="n">
-        <v>50087073.80468545</v>
+        <v>40007850.29135581</v>
       </c>
       <c r="T39" t="n">
-        <v>49898958.67884446</v>
+        <v>43346531.84074268</v>
       </c>
       <c r="U39" t="n">
-        <v>54063059.7605432</v>
+        <v>44443764.58130083</v>
       </c>
     </row>
     <row r="40">
@@ -2973,64 +2973,64 @@
         <v>22561132</v>
       </c>
       <c r="B40" t="n">
-        <v>22738727.84133373</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C40" t="n">
-        <v>23975302.00319697</v>
+        <v>24113600.0424184</v>
       </c>
       <c r="D40" t="n">
-        <v>23885256.47626133</v>
+        <v>25144560.86230385</v>
       </c>
       <c r="E40" t="n">
-        <v>26017360.10092545</v>
+        <v>27535260.04620516</v>
       </c>
       <c r="F40" t="n">
-        <v>28339784.72427024</v>
+        <v>29032678.51881771</v>
       </c>
       <c r="G40" t="n">
-        <v>29716193.98983789</v>
+        <v>29598794.96702634</v>
       </c>
       <c r="H40" t="n">
-        <v>32196030.01875117</v>
+        <v>29831789.60996507</v>
       </c>
       <c r="I40" t="n">
-        <v>33759729.7597147</v>
+        <v>31800967.43776965</v>
       </c>
       <c r="J40" t="n">
-        <v>35988188.46717682</v>
+        <v>31311764.09245975</v>
       </c>
       <c r="K40" t="n">
-        <v>36480705.63482769</v>
+        <v>32468438.46600595</v>
       </c>
       <c r="L40" t="n">
-        <v>39949224.87709755</v>
+        <v>35555478.6321995</v>
       </c>
       <c r="M40" t="n">
-        <v>42121737.76410633</v>
+        <v>38729317.89759416</v>
       </c>
       <c r="N40" t="n">
-        <v>41473767.06746666</v>
+        <v>40610326.96389491</v>
       </c>
       <c r="O40" t="n">
-        <v>44693661.74940269</v>
+        <v>44235384.34624161</v>
       </c>
       <c r="P40" t="n">
-        <v>44265964.70421409</v>
+        <v>45097942.67529852</v>
       </c>
       <c r="Q40" t="n">
-        <v>43585008.75345418</v>
+        <v>48074829.74633548</v>
       </c>
       <c r="R40" t="n">
-        <v>45701849.45890687</v>
+        <v>50968723.68089862</v>
       </c>
       <c r="S40" t="n">
-        <v>45795903.84581982</v>
+        <v>55814737.36853839</v>
       </c>
       <c r="T40" t="n">
-        <v>50150095.217456</v>
+        <v>58525552.65583622</v>
       </c>
       <c r="U40" t="n">
-        <v>51419546.86855628</v>
+        <v>62048534.28138405</v>
       </c>
     </row>
     <row r="41">
@@ -3038,64 +3038,64 @@
         <v>22561132</v>
       </c>
       <c r="B41" t="n">
-        <v>22607562.80014147</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C41" t="n">
-        <v>22259784.21847488</v>
+        <v>25634878.47385417</v>
       </c>
       <c r="D41" t="n">
-        <v>22693834.07617181</v>
+        <v>27028950.67457113</v>
       </c>
       <c r="E41" t="n">
-        <v>23004411.05596419</v>
+        <v>28184555.35819698</v>
       </c>
       <c r="F41" t="n">
-        <v>24255433.56343169</v>
+        <v>28897992.29545202</v>
       </c>
       <c r="G41" t="n">
-        <v>25433473.68695023</v>
+        <v>28621452.27986887</v>
       </c>
       <c r="H41" t="n">
-        <v>27408049.72520962</v>
+        <v>29845143.30306154</v>
       </c>
       <c r="I41" t="n">
-        <v>27305111.61500539</v>
+        <v>32162227.69153343</v>
       </c>
       <c r="J41" t="n">
-        <v>26885069.30112736</v>
+        <v>33163335.15218853</v>
       </c>
       <c r="K41" t="n">
-        <v>28190825.81450726</v>
+        <v>34002800.16979998</v>
       </c>
       <c r="L41" t="n">
-        <v>29068316.21460044</v>
+        <v>36840356.31759751</v>
       </c>
       <c r="M41" t="n">
-        <v>29804123.83078389</v>
+        <v>37558716.89379239</v>
       </c>
       <c r="N41" t="n">
-        <v>30385282.91034031</v>
+        <v>38509442.41021049</v>
       </c>
       <c r="O41" t="n">
-        <v>30624468.59847978</v>
+        <v>41499196.11691502</v>
       </c>
       <c r="P41" t="n">
-        <v>31043580.45649099</v>
+        <v>42549667.16390946</v>
       </c>
       <c r="Q41" t="n">
-        <v>30566028.21096793</v>
+        <v>44616223.30401552</v>
       </c>
       <c r="R41" t="n">
-        <v>33116783.46731937</v>
+        <v>43929879.22539183</v>
       </c>
       <c r="S41" t="n">
-        <v>32607338.54902186</v>
+        <v>43509491.21499474</v>
       </c>
       <c r="T41" t="n">
-        <v>35138871.21195285</v>
+        <v>44863802.7596551</v>
       </c>
       <c r="U41" t="n">
-        <v>38275522.25658661</v>
+        <v>47564406.95051028</v>
       </c>
     </row>
     <row r="42">
@@ -3103,64 +3103,64 @@
         <v>22561132</v>
       </c>
       <c r="B42" t="n">
-        <v>23263388.00610278</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C42" t="n">
-        <v>23176016.25866709</v>
+        <v>24118175.41603821</v>
       </c>
       <c r="D42" t="n">
-        <v>24571110.80673267</v>
+        <v>24868897.21236267</v>
       </c>
       <c r="E42" t="n">
-        <v>26621586.24345223</v>
+        <v>25498404.74351265</v>
       </c>
       <c r="F42" t="n">
-        <v>26521601.90286563</v>
+        <v>25699122.09417981</v>
       </c>
       <c r="G42" t="n">
-        <v>27347134.69207826</v>
+        <v>27843730.81837855</v>
       </c>
       <c r="H42" t="n">
-        <v>27403415.08374166</v>
+        <v>30167308.55805781</v>
       </c>
       <c r="I42" t="n">
-        <v>28734346.66266634</v>
+        <v>30054007.32852677</v>
       </c>
       <c r="J42" t="n">
-        <v>28960536.57506662</v>
+        <v>31338946.28338029</v>
       </c>
       <c r="K42" t="n">
-        <v>28683398.04053162</v>
+        <v>31403441.82161516</v>
       </c>
       <c r="L42" t="n">
-        <v>28575670.02565531</v>
+        <v>32563502.82261632</v>
       </c>
       <c r="M42" t="n">
-        <v>30129667.92114983</v>
+        <v>32062569.17816021</v>
       </c>
       <c r="N42" t="n">
-        <v>29841341.3567559</v>
+        <v>32314958.06310252</v>
       </c>
       <c r="O42" t="n">
-        <v>30943697.47817022</v>
+        <v>34823791.21165898</v>
       </c>
       <c r="P42" t="n">
-        <v>32446573.81736135</v>
+        <v>34895458.5592866</v>
       </c>
       <c r="Q42" t="n">
-        <v>34399715.27751544</v>
+        <v>35170147.27267043</v>
       </c>
       <c r="R42" t="n">
-        <v>35470468.5828842</v>
+        <v>34629114.87375047</v>
       </c>
       <c r="S42" t="n">
-        <v>35337249.94673213</v>
+        <v>37317611.98183224</v>
       </c>
       <c r="T42" t="n">
-        <v>37669839.77793184</v>
+        <v>37611367.30831494</v>
       </c>
       <c r="U42" t="n">
-        <v>40813412.8047014</v>
+        <v>38782089.08725768</v>
       </c>
     </row>
     <row r="43">
@@ -3168,64 +3168,64 @@
         <v>22561132</v>
       </c>
       <c r="B43" t="n">
-        <v>22214067.67656468</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C43" t="n">
-        <v>22905520.67838397</v>
+        <v>25762500.64129606</v>
       </c>
       <c r="D43" t="n">
-        <v>22686325.7605994</v>
+        <v>27313290.20702943</v>
       </c>
       <c r="E43" t="n">
-        <v>23128692.87302998</v>
+        <v>27528293.90249603</v>
       </c>
       <c r="F43" t="n">
-        <v>22907362.30369031</v>
+        <v>27104818.311883</v>
       </c>
       <c r="G43" t="n">
-        <v>23354039.47048317</v>
+        <v>27160600.01653815</v>
       </c>
       <c r="H43" t="n">
-        <v>23537876.89000191</v>
+        <v>27216496.51991795</v>
       </c>
       <c r="I43" t="n">
-        <v>23449474.22766114</v>
+        <v>29171270.70217958</v>
       </c>
       <c r="J43" t="n">
-        <v>23770392.53784625</v>
+        <v>29061710.35372559</v>
       </c>
       <c r="K43" t="n">
-        <v>25615852.11222338</v>
+        <v>29290477.19489593</v>
       </c>
       <c r="L43" t="n">
-        <v>25817493.98051929</v>
+        <v>29350756.98461058</v>
       </c>
       <c r="M43" t="n">
-        <v>26320916.63180605</v>
+        <v>30093714.03690722</v>
       </c>
       <c r="N43" t="n">
-        <v>26681132.13199148</v>
+        <v>31905223.65596149</v>
       </c>
       <c r="O43" t="n">
-        <v>28907690.24289002</v>
+        <v>34011267.57206228</v>
       </c>
       <c r="P43" t="n">
-        <v>29135244.6745427</v>
+        <v>36058596.73480565</v>
       </c>
       <c r="Q43" t="n">
-        <v>30380902.5474605</v>
+        <v>38858074.38234138</v>
       </c>
       <c r="R43" t="n">
-        <v>30973308.39910774</v>
+        <v>38938044.28303292</v>
       </c>
       <c r="S43" t="n">
-        <v>33918194.31371845</v>
+        <v>38339049.25055914</v>
       </c>
       <c r="T43" t="n">
-        <v>37143074.6331349</v>
+        <v>41984256.42903383</v>
       </c>
       <c r="U43" t="n">
-        <v>36571692.1303484</v>
+        <v>44267438.10337585</v>
       </c>
     </row>
     <row r="44">
@@ -3233,64 +3233,64 @@
         <v>22561132</v>
       </c>
       <c r="B44" t="n">
-        <v>23656883.12967957</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C44" t="n">
-        <v>23430498.03128088</v>
+        <v>26340094.79082076</v>
       </c>
       <c r="D44" t="n">
-        <v>24296033.95420685</v>
+        <v>27772517.96183696</v>
       </c>
       <c r="E44" t="n">
-        <v>24911040.57153468</v>
+        <v>27829673.79209013</v>
       </c>
       <c r="F44" t="n">
-        <v>25396788.03022671</v>
+        <v>29019512.85632635</v>
       </c>
       <c r="G44" t="n">
-        <v>27220865.03872508</v>
+        <v>30597647.74752994</v>
       </c>
       <c r="H44" t="n">
-        <v>28859441.74601197</v>
+        <v>32973154.24786197</v>
       </c>
       <c r="I44" t="n">
-        <v>30932217.40978273</v>
+        <v>33616107.15201569</v>
       </c>
       <c r="J44" t="n">
-        <v>32794201.25490663</v>
+        <v>33098980.99517021</v>
       </c>
       <c r="K44" t="n">
-        <v>35340241.35893772</v>
+        <v>33551957.84858252</v>
       </c>
       <c r="L44" t="n">
-        <v>38289407.85792997</v>
+        <v>33816070.84532899</v>
       </c>
       <c r="M44" t="n">
-        <v>40816867.79175895</v>
+        <v>34672058.59135793</v>
       </c>
       <c r="N44" t="n">
-        <v>43511163.77959046</v>
+        <v>35952864.15479706</v>
       </c>
       <c r="O44" t="n">
-        <v>46889235.6251222</v>
+        <v>36862940.64747748</v>
       </c>
       <c r="P44" t="n">
-        <v>46985733.65226447</v>
+        <v>37153116.90983542</v>
       </c>
       <c r="Q44" t="n">
-        <v>47355594.12285861</v>
+        <v>38957572.90189599</v>
       </c>
       <c r="R44" t="n">
-        <v>47728366.04671898</v>
+        <v>38811257.53203674</v>
       </c>
       <c r="S44" t="n">
-        <v>50601404.38586645</v>
+        <v>41147525.04161207</v>
       </c>
       <c r="T44" t="n">
-        <v>53941571.53222956</v>
+        <v>42428316.12056754</v>
       </c>
       <c r="U44" t="n">
-        <v>53425376.39730144</v>
+        <v>42762301.6891022</v>
       </c>
     </row>
     <row r="45">
@@ -3301,61 +3301,61 @@
         <v>22214067.67656468</v>
       </c>
       <c r="C45" t="n">
-        <v>22647226.09442033</v>
+        <v>24196993.59820214</v>
       </c>
       <c r="D45" t="n">
-        <v>24273820.93688348</v>
+        <v>26497599.80742853</v>
       </c>
       <c r="E45" t="n">
-        <v>25311631.89380487</v>
+        <v>28862892.7508167</v>
       </c>
       <c r="F45" t="n">
-        <v>25216567.42991721</v>
+        <v>30432510.35041749</v>
       </c>
       <c r="G45" t="n">
-        <v>25561669.33410967</v>
+        <v>31202849.87507739</v>
       </c>
       <c r="H45" t="n">
-        <v>26654541.3867263</v>
+        <v>33443936.46401983</v>
       </c>
       <c r="I45" t="n">
-        <v>27329249.01043033</v>
+        <v>36623725.20834605</v>
       </c>
       <c r="J45" t="n">
-        <v>28974349.95753204</v>
+        <v>39254156.07380027</v>
       </c>
       <c r="K45" t="n">
-        <v>30550028.80659847</v>
+        <v>41160655.52881364</v>
       </c>
       <c r="L45" t="n">
-        <v>30612900.75299882</v>
+        <v>44116942.96624358</v>
       </c>
       <c r="M45" t="n">
-        <v>32989591.44938213</v>
+        <v>44207735.61626301</v>
       </c>
       <c r="N45" t="n">
-        <v>34591832.95474312</v>
+        <v>43527675.42015823</v>
       </c>
       <c r="O45" t="n">
-        <v>36271892.27259324</v>
+        <v>47666207.75221816</v>
       </c>
       <c r="P45" t="n">
-        <v>36979168.20684289</v>
+        <v>47210064.85828215</v>
       </c>
       <c r="Q45" t="n">
-        <v>37700235.51551021</v>
+        <v>47307223.15185095</v>
       </c>
       <c r="R45" t="n">
-        <v>38435363.12052385</v>
+        <v>50154910.53550938</v>
       </c>
       <c r="S45" t="n">
-        <v>40302095.36423212</v>
+        <v>54048782.27963037</v>
       </c>
       <c r="T45" t="n">
-        <v>42728104.77373245</v>
+        <v>53845787.91985338</v>
       </c>
       <c r="U45" t="n">
-        <v>43064450.20692644</v>
+        <v>56147928.51949742</v>
       </c>
     </row>
     <row r="46">
@@ -3363,64 +3363,64 @@
         <v>22561132</v>
       </c>
       <c r="B46" t="n">
-        <v>22345232.71775694</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C46" t="n">
-        <v>23820227.59403624</v>
+        <v>27055224.41729694</v>
       </c>
       <c r="D46" t="n">
-        <v>24146219.85780672</v>
+        <v>29313000.77665477</v>
       </c>
       <c r="E46" t="n">
-        <v>25599716.40803551</v>
+        <v>30395839.69655649</v>
       </c>
       <c r="F46" t="n">
-        <v>26991876.43044714</v>
+        <v>30811822.64855674</v>
       </c>
       <c r="G46" t="n">
-        <v>29401290.69112458</v>
+        <v>30516968.18848693</v>
       </c>
       <c r="H46" t="n">
-        <v>29632730.62758645</v>
+        <v>32708792.60248147</v>
       </c>
       <c r="I46" t="n">
-        <v>32105601.58375602</v>
+        <v>32966268.40383967</v>
       </c>
       <c r="J46" t="n">
-        <v>32731637.83199322</v>
+        <v>34184061.10761613</v>
       </c>
       <c r="K46" t="n">
-        <v>35843702.51593098</v>
+        <v>34055673.91170823</v>
       </c>
       <c r="L46" t="n">
-        <v>35709082.10197578</v>
+        <v>35511701.44123529</v>
       </c>
       <c r="M46" t="n">
-        <v>37028195.90368456</v>
+        <v>36204154.19845254</v>
       </c>
       <c r="N46" t="n">
-        <v>36673853.71383518</v>
+        <v>36068180.01378433</v>
       </c>
       <c r="O46" t="n">
-        <v>39307884.96585104</v>
+        <v>36771483.70481367</v>
       </c>
       <c r="P46" t="n">
-        <v>40988467.26136348</v>
+        <v>38129843.225952</v>
       </c>
       <c r="Q46" t="n">
-        <v>42979198.90131281</v>
+        <v>39095025.68930516</v>
       </c>
       <c r="R46" t="n">
-        <v>45566358.20419879</v>
+        <v>40539218.17282094</v>
       </c>
       <c r="S46" t="n">
-        <v>47514517.3314447</v>
+        <v>41565389.25426465</v>
       </c>
       <c r="T46" t="n">
-        <v>48993492.55188495</v>
+        <v>42617535.85116854</v>
       </c>
       <c r="U46" t="n">
-        <v>48239811.69290795</v>
+        <v>43696315.482942</v>
       </c>
     </row>
     <row r="47">
@@ -3428,64 +3428,64 @@
         <v>22561132</v>
       </c>
       <c r="B47" t="n">
-        <v>24706203.45921767</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C47" t="n">
-        <v>24757048.81551758</v>
+        <v>24798989.74036583</v>
       </c>
       <c r="D47" t="n">
-        <v>25095861.96731415</v>
+        <v>26003429.35017432</v>
       </c>
       <c r="E47" t="n">
-        <v>25439311.95416669</v>
+        <v>25754588.922639</v>
       </c>
       <c r="F47" t="n">
-        <v>26674850.79202505</v>
+        <v>28203288.46669719</v>
       </c>
       <c r="G47" t="n">
-        <v>27194991.28740127</v>
+        <v>28917199.59598342</v>
       </c>
       <c r="H47" t="n">
-        <v>28832010.5083192</v>
+        <v>30489770.50247164</v>
       </c>
       <c r="I47" t="n">
-        <v>31405683.27470699</v>
+        <v>30729778.69197467</v>
       </c>
       <c r="J47" t="n">
-        <v>31835486.46384795</v>
+        <v>31686298.58878873</v>
       </c>
       <c r="K47" t="n">
-        <v>33196591.36599797</v>
+        <v>34330541.14859479</v>
       </c>
       <c r="L47" t="n">
-        <v>35773871.7906071</v>
+        <v>34999962.12563367</v>
       </c>
       <c r="M47" t="n">
-        <v>37095378.96026181</v>
+        <v>34461547.73333301</v>
       </c>
       <c r="N47" t="n">
-        <v>39112694.41725945</v>
+        <v>37738089.10914874</v>
       </c>
       <c r="O47" t="n">
-        <v>41239715.22751419</v>
+        <v>40887357.58771669</v>
       </c>
       <c r="P47" t="n">
-        <v>43961923.11087459</v>
+        <v>44061725.25586079</v>
       </c>
       <c r="Q47" t="n">
-        <v>44052396.73009705</v>
+        <v>48251034.07645709</v>
       </c>
       <c r="R47" t="n">
-        <v>46448047.70691051</v>
+        <v>47508774.66780684</v>
       </c>
       <c r="S47" t="n">
-        <v>46543637.76950315</v>
+        <v>50644799.25517382</v>
       </c>
       <c r="T47" t="n">
-        <v>50698328.71418857</v>
+        <v>51926773.37217897</v>
       </c>
       <c r="U47" t="n">
-        <v>49918421.87465182</v>
+        <v>52939308.28139649</v>
       </c>
     </row>
     <row r="48">
@@ -3493,64 +3493,64 @@
         <v>22561132</v>
       </c>
       <c r="B48" t="n">
-        <v>23132222.96491052</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C48" t="n">
-        <v>24390196.12086127</v>
+        <v>26480680.5168521</v>
       </c>
       <c r="D48" t="n">
-        <v>24156793.56658069</v>
+        <v>28998415.53109522</v>
       </c>
       <c r="E48" t="n">
-        <v>23925624.56352186</v>
+        <v>30575403.11065292</v>
       </c>
       <c r="F48" t="n">
-        <v>25226744.36882212</v>
+        <v>30638327.27736031</v>
       </c>
       <c r="G48" t="n">
-        <v>25425323.27391836</v>
+        <v>32126372.36861105</v>
       </c>
       <c r="H48" t="n">
-        <v>25773282.11093787</v>
+        <v>31632163.22651023</v>
       </c>
       <c r="I48" t="n">
-        <v>27624400.10570757</v>
+        <v>33904084.44748795</v>
       </c>
       <c r="J48" t="n">
-        <v>30250877.90144774</v>
+        <v>35156520.60928183</v>
       </c>
       <c r="K48" t="n">
-        <v>30840748.36557527</v>
+        <v>35842047.59453054</v>
       </c>
       <c r="L48" t="n">
-        <v>31621421.63776121</v>
+        <v>35707433.39606616</v>
       </c>
       <c r="M48" t="n">
-        <v>31502659.10565852</v>
+        <v>35365730.2740352</v>
       </c>
       <c r="N48" t="n">
-        <v>31018044.72243879</v>
+        <v>37905807.99586539</v>
       </c>
       <c r="O48" t="n">
-        <v>30540885.3003903</v>
+        <v>37983818.13273516</v>
       </c>
       <c r="P48" t="n">
-        <v>32911984.94032353</v>
+        <v>38945304.25623327</v>
       </c>
       <c r="Q48" t="n">
-        <v>32979717.791451</v>
+        <v>39931128.52189627</v>
       </c>
       <c r="R48" t="n">
-        <v>34389743.53767113</v>
+        <v>43727707.7062507</v>
       </c>
       <c r="S48" t="n">
-        <v>36859722.82956278</v>
+        <v>46868368.88617539</v>
       </c>
       <c r="T48" t="n">
-        <v>37578461.03887755</v>
+        <v>49689639.16748947</v>
       </c>
       <c r="U48" t="n">
-        <v>38529686.33974211</v>
+        <v>54125156.11002471</v>
       </c>
     </row>
     <row r="49">
@@ -3558,64 +3558,64 @@
         <v>22561132</v>
       </c>
       <c r="B49" t="n">
-        <v>24181543.29444862</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C49" t="n">
-        <v>24934237.53050739</v>
+        <v>25625727.72661456</v>
       </c>
       <c r="D49" t="n">
-        <v>26290207.57822214</v>
+        <v>26572356.68298132</v>
       </c>
       <c r="E49" t="n">
-        <v>27108537.80090314</v>
+        <v>27862925.34122175</v>
       </c>
       <c r="F49" t="n">
-        <v>29528365.77143774</v>
+        <v>30026116.47318324</v>
       </c>
       <c r="G49" t="n">
-        <v>29760806.01257407</v>
+        <v>30437039.56964349</v>
       </c>
       <c r="H49" t="n">
-        <v>29302987.05191005</v>
+        <v>31207493.74263655</v>
       </c>
       <c r="I49" t="n">
-        <v>31407619.531344</v>
+        <v>30908852.8987445</v>
       </c>
       <c r="J49" t="n">
-        <v>32750431.26935593</v>
+        <v>31870946.80386817</v>
       </c>
       <c r="K49" t="n">
-        <v>32817831.64309668</v>
+        <v>31565957.03033368</v>
       </c>
       <c r="L49" t="n">
-        <v>34030141.00851071</v>
+        <v>33833123.11455466</v>
       </c>
       <c r="M49" t="n">
-        <v>34891547.52235901</v>
+        <v>33312658.53930831</v>
       </c>
       <c r="N49" t="n">
-        <v>36991865.67793549</v>
+        <v>36286293.7644292</v>
       </c>
       <c r="O49" t="n">
-        <v>37928242.46363278</v>
+        <v>39736328.67911634</v>
       </c>
       <c r="P49" t="n">
-        <v>41093379.36531136</v>
+        <v>43283369.10934118</v>
       </c>
       <c r="Q49" t="n">
-        <v>42850299.27804937</v>
+        <v>44882281.38083381</v>
       </c>
       <c r="R49" t="n">
-        <v>43685849.43978326</v>
+        <v>48627737.42631787</v>
       </c>
       <c r="S49" t="n">
-        <v>44791671.34222598</v>
+        <v>49575943.49619068</v>
       </c>
       <c r="T49" t="n">
-        <v>45925484.96499929</v>
+        <v>52848420.60874651</v>
       </c>
       <c r="U49" t="n">
-        <v>49223997.40401676</v>
+        <v>53571678.86490411</v>
       </c>
     </row>
     <row r="50">
@@ -3623,64 +3623,64 @@
         <v>22561132</v>
       </c>
       <c r="B50" t="n">
-        <v>22214067.67656468</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C50" t="n">
-        <v>23163815.2623476</v>
+        <v>26483730.76593198</v>
       </c>
       <c r="D50" t="n">
-        <v>24154168.67007335</v>
+        <v>28077935.22245375</v>
       </c>
       <c r="E50" t="n">
-        <v>23923024.78602327</v>
+        <v>27809242.76227955</v>
       </c>
       <c r="F50" t="n">
-        <v>26197582.53811902</v>
+        <v>29483237.22838973</v>
       </c>
       <c r="G50" t="n">
-        <v>28079175.12097427</v>
+        <v>30572364.77963728</v>
       </c>
       <c r="H50" t="n">
-        <v>29606172.70339457</v>
+        <v>31346244.44585259</v>
       </c>
       <c r="I50" t="n">
-        <v>31388334.47212164</v>
+        <v>32868671.72311664</v>
       </c>
       <c r="J50" t="n">
-        <v>31817900.23383224</v>
+        <v>35229402.86434051</v>
       </c>
       <c r="K50" t="n">
-        <v>33918179.98529681</v>
+        <v>38169319.81770162</v>
       </c>
       <c r="L50" t="n">
-        <v>35762713.47370962</v>
+        <v>38247872.2617896</v>
       </c>
       <c r="M50" t="n">
-        <v>38331303.77462754</v>
+        <v>41439682.48137876</v>
       </c>
       <c r="N50" t="n">
-        <v>41752925.46821118</v>
+        <v>43934169.64682162</v>
       </c>
       <c r="O50" t="n">
-        <v>44751751.59116285</v>
+        <v>44790854.50486299</v>
       </c>
       <c r="P50" t="n">
-        <v>45884554.72345395</v>
+        <v>44362227.37131964</v>
       </c>
       <c r="Q50" t="n">
-        <v>45978985.11772428</v>
+        <v>46774727.51261419</v>
       </c>
       <c r="R50" t="n">
-        <v>47677474.97764696</v>
+        <v>50406172.3274021</v>
       </c>
       <c r="S50" t="n">
-        <v>46944038.79207695</v>
+        <v>49923809.27814969</v>
       </c>
       <c r="T50" t="n">
-        <v>51134471.30279484</v>
+        <v>52638758.55085831</v>
       </c>
       <c r="U50" t="n">
-        <v>55401676.72955529</v>
+        <v>52135030.71533588</v>
       </c>
     </row>
     <row r="51">
@@ -3688,64 +3688,64 @@
         <v>22561132</v>
       </c>
       <c r="B51" t="n">
-        <v>22738727.84133373</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C51" t="n">
-        <v>22653326.59258008</v>
+        <v>24793651.80447605</v>
       </c>
       <c r="D51" t="n">
-        <v>22699947.12915419</v>
+        <v>27006842.81347868</v>
       </c>
       <c r="E51" t="n">
-        <v>23142579.84852079</v>
+        <v>28946559.00867489</v>
       </c>
       <c r="F51" t="n">
-        <v>23190207.2680893</v>
+        <v>29174419.40596622</v>
       </c>
       <c r="G51" t="n">
-        <v>23912044.37877967</v>
+        <v>31948270.22191749</v>
       </c>
       <c r="H51" t="n">
-        <v>25490463.51567393</v>
+        <v>34057155.6149914</v>
       </c>
       <c r="I51" t="n">
-        <v>27469464.06753328</v>
+        <v>34325245.40786518</v>
       </c>
       <c r="J51" t="n">
-        <v>30081210.82612993</v>
+        <v>37588827.40610242</v>
       </c>
       <c r="K51" t="n">
-        <v>30143117.94532419</v>
+        <v>40070042.46121747</v>
       </c>
       <c r="L51" t="n">
-        <v>32658581.06049162</v>
+        <v>43413913.98828425</v>
       </c>
       <c r="M51" t="n">
-        <v>34054876.82085884</v>
+        <v>44260454.23340674</v>
       </c>
       <c r="N51" t="n">
-        <v>37292752.66483678</v>
+        <v>47439378.94060843</v>
       </c>
       <c r="O51" t="n">
-        <v>38019934.645957</v>
+        <v>48916015.34284339</v>
       </c>
       <c r="P51" t="n">
-        <v>38982334.98840411</v>
+        <v>53282475.20147024</v>
       </c>
       <c r="Q51" t="n">
-        <v>38609292.61871473</v>
+        <v>53082358.90865725</v>
       </c>
       <c r="R51" t="n">
-        <v>39137680.96654491</v>
+        <v>53500210.55680868</v>
       </c>
       <c r="S51" t="n">
-        <v>41948672.02305379</v>
+        <v>53610313.96757236</v>
       </c>
       <c r="T51" t="n">
-        <v>42522761.52328948</v>
+        <v>53408966.39039684</v>
       </c>
       <c r="U51" t="n">
-        <v>44835228.10267257</v>
+        <v>56313444.96593676</v>
       </c>
     </row>
     <row r="52">
@@ -3753,64 +3753,64 @@
         <v>22561132</v>
       </c>
       <c r="B52" t="n">
-        <v>24443873.37683315</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C52" t="n">
-        <v>24920511.40964796</v>
+        <v>26768715.02934449</v>
       </c>
       <c r="D52" t="n">
-        <v>27289908.3784678</v>
+        <v>26356924.25701567</v>
       </c>
       <c r="E52" t="n">
-        <v>28773984.17267675</v>
+        <v>26411166.79602131</v>
       </c>
       <c r="F52" t="n">
-        <v>28498630.85573529</v>
+        <v>27233262.09295447</v>
       </c>
       <c r="G52" t="n">
-        <v>28391596.78242073</v>
+        <v>27764291.20896267</v>
       </c>
       <c r="H52" t="n">
-        <v>29440398.51474443</v>
+        <v>28305675.0125983</v>
       </c>
       <c r="I52" t="n">
-        <v>32239538.14133643</v>
+        <v>30503239.8562599</v>
       </c>
       <c r="J52" t="n">
-        <v>34929948.90745776</v>
+        <v>31452708.3224101</v>
       </c>
       <c r="K52" t="n">
-        <v>37235653.05106489</v>
+        <v>32066013.61942166</v>
       </c>
       <c r="L52" t="n">
-        <v>38611159.25184123</v>
+        <v>33996247.02447989</v>
       </c>
       <c r="M52" t="n">
-        <v>39588525.28974428</v>
+        <v>34066211.28651929</v>
       </c>
       <c r="N52" t="n">
-        <v>39439840.21291628</v>
+        <v>33740213.87798944</v>
       </c>
       <c r="O52" t="n">
-        <v>42501827.12023998</v>
+        <v>36948172.14079182</v>
       </c>
       <c r="P52" t="n">
-        <v>45801537.19707976</v>
+        <v>36594595.74021981</v>
       </c>
       <c r="Q52" t="n">
-        <v>47493472.02989369</v>
+        <v>39861191.19413028</v>
       </c>
       <c r="R52" t="n">
-        <v>50076255.05888025</v>
+        <v>42260660.10602899</v>
       </c>
       <c r="S52" t="n">
-        <v>49305917.75567291</v>
+        <v>44313179.7248223</v>
       </c>
       <c r="T52" t="n">
-        <v>52560570.63749649</v>
+        <v>44662002.48936278</v>
       </c>
       <c r="U52" t="n">
-        <v>56946784.99629621</v>
+        <v>45273225.33509559</v>
       </c>
     </row>
     <row r="53">
@@ -3818,64 +3818,64 @@
         <v>22561132</v>
       </c>
       <c r="B53" t="n">
-        <v>23656883.12967957</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C53" t="n">
-        <v>23292962.55432942</v>
+        <v>25074823.25653873</v>
       </c>
       <c r="D53" t="n">
-        <v>23476319.19095524</v>
+        <v>26875775.74470281</v>
       </c>
       <c r="E53" t="n">
-        <v>25708404.98629575</v>
+        <v>28181080.88778131</v>
       </c>
       <c r="F53" t="n">
-        <v>26060237.94449591</v>
+        <v>29222106.04323011</v>
       </c>
       <c r="G53" t="n">
-        <v>26719901.93801892</v>
+        <v>30301587.25998447</v>
       </c>
       <c r="H53" t="n">
-        <v>27085577.76064124</v>
+        <v>32125609.93550916</v>
       </c>
       <c r="I53" t="n">
-        <v>28086134.40752691</v>
+        <v>33872660.14243127</v>
       </c>
       <c r="J53" t="n">
-        <v>28143935.66029305</v>
+        <v>33548514.92611792</v>
       </c>
       <c r="K53" t="n">
-        <v>29347210.78022943</v>
+        <v>33032428.55974708</v>
       </c>
       <c r="L53" t="n">
-        <v>28895754.27289841</v>
+        <v>35404921.23082765</v>
       </c>
       <c r="M53" t="n">
-        <v>29123214.74744676</v>
+        <v>38153649.53901482</v>
       </c>
       <c r="N53" t="n">
-        <v>29183150.3111151</v>
+        <v>38675802.17316694</v>
       </c>
       <c r="O53" t="n">
-        <v>31788167.36920221</v>
+        <v>40779063.97349232</v>
       </c>
       <c r="P53" t="n">
-        <v>34071293.29723093</v>
+        <v>42996705.04850995</v>
       </c>
       <c r="Q53" t="n">
-        <v>36914565.24178205</v>
+        <v>46834781.09235118</v>
       </c>
       <c r="R53" t="n">
-        <v>37205147.88061344</v>
+        <v>49654029.53576513</v>
       </c>
       <c r="S53" t="n">
-        <v>37930621.63115278</v>
+        <v>50333570.88060699</v>
       </c>
       <c r="T53" t="n">
-        <v>37567643.65712209</v>
+        <v>54241313.25996873</v>
       </c>
       <c r="U53" t="n">
-        <v>36989729.88803824</v>
+        <v>53722249.73954128</v>
       </c>
     </row>
     <row r="54">
@@ -3883,64 +3883,64 @@
         <v>22561132</v>
       </c>
       <c r="B54" t="n">
-        <v>23656883.12967957</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C54" t="n">
-        <v>25355994.7086014</v>
+        <v>26341619.9153607</v>
       </c>
       <c r="D54" t="n">
-        <v>24965936.21558915</v>
+        <v>27467838.23271185</v>
       </c>
       <c r="E54" t="n">
-        <v>26033338.09771185</v>
+        <v>30079430.40988621</v>
       </c>
       <c r="F54" t="n">
-        <v>28054485.74888868</v>
+        <v>29616709.95931099</v>
       </c>
       <c r="G54" t="n">
-        <v>27949119.77886544</v>
+        <v>32432612.95786824</v>
       </c>
       <c r="H54" t="n">
-        <v>27519170.50386165</v>
+        <v>33065025.69381104</v>
       </c>
       <c r="I54" t="n">
-        <v>28695734.20796724</v>
+        <v>35824323.94177968</v>
       </c>
       <c r="J54" t="n">
-        <v>28754790.0168656</v>
+        <v>35273228.15671971</v>
       </c>
       <c r="K54" t="n">
-        <v>29817008.31382895</v>
+        <v>38421872.49643159</v>
       </c>
       <c r="L54" t="n">
-        <v>29878371.70436431</v>
+        <v>40064573.92221514</v>
       </c>
       <c r="M54" t="n">
-        <v>31676918.65931164</v>
+        <v>41311656.19046411</v>
       </c>
       <c r="N54" t="n">
-        <v>33215406.15212488</v>
+        <v>42837732.26535917</v>
       </c>
       <c r="O54" t="n">
-        <v>35601040.84805243</v>
+        <v>46910666.05520757</v>
       </c>
       <c r="P54" t="n">
-        <v>38985923.15987968</v>
+        <v>46734480.76072078</v>
       </c>
       <c r="Q54" t="n">
-        <v>42239324.21471784</v>
+        <v>46015550.92394128</v>
       </c>
       <c r="R54" t="n">
-        <v>43062960.80008043</v>
+        <v>46110250.90833697</v>
       </c>
       <c r="S54" t="n">
-        <v>45404804.41729071</v>
+        <v>45400923.777281</v>
       </c>
       <c r="T54" t="n">
-        <v>49721810.76550457</v>
+        <v>49189660.87353729</v>
       </c>
       <c r="U54" t="n">
-        <v>49535067.48068684</v>
+        <v>51578708.8375638</v>
       </c>
     </row>
     <row r="55">
@@ -3948,64 +3948,64 @@
         <v>22561132</v>
       </c>
       <c r="B55" t="n">
-        <v>23656883.12967957</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C55" t="n">
-        <v>23705568.98518381</v>
+        <v>24121225.66511808</v>
       </c>
       <c r="D55" t="n">
-        <v>23616536.51125312</v>
+        <v>25292747.56711347</v>
       </c>
       <c r="E55" t="n">
-        <v>23253236.59943293</v>
+        <v>25638892.03629743</v>
       </c>
       <c r="F55" t="n">
-        <v>24923357.01795658</v>
+        <v>25244481.65306804</v>
       </c>
       <c r="G55" t="n">
-        <v>27003227.63381449</v>
+        <v>27057619.53963917</v>
       </c>
       <c r="H55" t="n">
-        <v>28000742.22018011</v>
+        <v>27585223.75159063</v>
       </c>
       <c r="I55" t="n">
-        <v>27895578.0980569</v>
+        <v>29245733.25561816</v>
       </c>
       <c r="J55" t="n">
-        <v>28277343.66337201</v>
+        <v>28795837.80596913</v>
       </c>
       <c r="K55" t="n">
-        <v>28499936.15733816</v>
+        <v>30864045.23518425</v>
       </c>
       <c r="L55" t="n">
-        <v>28889972.67854969</v>
+        <v>32542489.21563556</v>
       </c>
       <c r="M55" t="n">
-        <v>30629022.34643796</v>
+        <v>32041878.82948446</v>
       </c>
       <c r="N55" t="n">
-        <v>31226266.35654985</v>
+        <v>34156943.26836563</v>
       </c>
       <c r="O55" t="n">
-        <v>30927445.86768831</v>
+        <v>36213041.46921417</v>
       </c>
       <c r="P55" t="n">
-        <v>33867971.25609869</v>
+        <v>36708635.86771265</v>
       </c>
       <c r="Q55" t="n">
-        <v>34922173.06783011</v>
+        <v>38278089.00886451</v>
       </c>
       <c r="R55" t="n">
-        <v>37024334.74694581</v>
+        <v>38134325.61875444</v>
       </c>
       <c r="S55" t="n">
-        <v>39898789.29938567</v>
+        <v>37769398.29463293</v>
       </c>
       <c r="T55" t="n">
-        <v>40212863.03707851</v>
+        <v>38725456.79897445</v>
       </c>
       <c r="U55" t="n">
-        <v>42867289.04773615</v>
+        <v>41957121.76384384</v>
       </c>
     </row>
     <row r="56">
@@ -4013,64 +4013,64 @@
         <v>22561132</v>
       </c>
       <c r="B56" t="n">
-        <v>23656883.12967957</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C56" t="n">
-        <v>25080923.75469847</v>
+        <v>23182116.75682683</v>
       </c>
       <c r="D56" t="n">
-        <v>26299056.36159151</v>
+        <v>25116679.7220475</v>
       </c>
       <c r="E56" t="n">
-        <v>26506076.2505235</v>
+        <v>26190526.54182934</v>
       </c>
       <c r="F56" t="n">
-        <v>28872125.83870906</v>
+        <v>26853488.53656825</v>
       </c>
       <c r="G56" t="n">
-        <v>31281523.82253678</v>
+        <v>29094429.90334504</v>
       </c>
       <c r="H56" t="n">
-        <v>30800311.22640044</v>
+        <v>30507490.84523277</v>
       </c>
       <c r="I56" t="n">
-        <v>33370617.55523548</v>
+        <v>32166544.73715364</v>
       </c>
       <c r="J56" t="n">
-        <v>33633303.08451425</v>
+        <v>34102829.67465357</v>
       </c>
       <c r="K56" t="n">
-        <v>33702520.40807826</v>
+        <v>37146999.06981567</v>
       </c>
       <c r="L56" t="n">
-        <v>36123141.17837627</v>
+        <v>40246940.6939294</v>
       </c>
       <c r="M56" t="n">
-        <v>36197482.58768743</v>
+        <v>42201657.80349287</v>
       </c>
       <c r="N56" t="n">
-        <v>35851089.92841452</v>
+        <v>42533859.17190335</v>
       </c>
       <c r="O56" t="n">
-        <v>39259746.45270985</v>
+        <v>44846929.26198542</v>
       </c>
       <c r="P56" t="n">
-        <v>42307751.43888818</v>
+        <v>48850164.50166418</v>
       </c>
       <c r="Q56" t="n">
-        <v>43132722.30613878</v>
+        <v>49234701.32649922</v>
       </c>
       <c r="R56" t="n">
-        <v>43973779.5147492</v>
+        <v>51339698.00708992</v>
       </c>
       <c r="S56" t="n">
-        <v>43808624.46697424</v>
+        <v>52042308.60594139</v>
       </c>
       <c r="T56" t="n">
-        <v>46700404.44715237</v>
+        <v>55780150.5127326</v>
       </c>
       <c r="U56" t="n">
-        <v>45981998.81601618</v>
+        <v>56543531.02483386</v>
       </c>
     </row>
     <row r="57">
@@ -4078,64 +4078,64 @@
         <v>22561132</v>
       </c>
       <c r="B57" t="n">
-        <v>23394553.04729505</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C57" t="n">
-        <v>23986740.43724649</v>
+        <v>24805852.80079554</v>
       </c>
       <c r="D57" t="n">
-        <v>24036105.1389506</v>
+        <v>26875917.61206875</v>
       </c>
       <c r="E57" t="n">
-        <v>25902193.81581141</v>
+        <v>26931228.23918021</v>
       </c>
       <c r="F57" t="n">
-        <v>26859035.58674794</v>
+        <v>26830080.95696881</v>
       </c>
       <c r="G57" t="n">
-        <v>29412743.91393847</v>
+        <v>26417346.17508618</v>
       </c>
       <c r="H57" t="n">
-        <v>30670266.08098332</v>
+        <v>28621891.17353571</v>
       </c>
       <c r="I57" t="n">
-        <v>32338171.99189685</v>
+        <v>28847195.86319076</v>
       </c>
       <c r="J57" t="n">
-        <v>34284788.13751811</v>
+        <v>28403431.22783184</v>
       </c>
       <c r="K57" t="n">
-        <v>33757375.47049984</v>
+        <v>28296754.70165714</v>
       </c>
       <c r="L57" t="n">
-        <v>33238076.14284992</v>
+        <v>29013031.74601846</v>
       </c>
       <c r="M57" t="n">
-        <v>33692956.58605342</v>
+        <v>29747439.9439233</v>
       </c>
       <c r="N57" t="n">
-        <v>34545827.93521345</v>
+        <v>29981604.68460944</v>
       </c>
       <c r="O57" t="n">
-        <v>37629541.31425524</v>
+        <v>31612059.91248692</v>
       </c>
       <c r="P57" t="n">
-        <v>38800828.79197703</v>
+        <v>33331182.31739105</v>
       </c>
       <c r="Q57" t="n">
-        <v>42264362.36506493</v>
+        <v>36112691.51150956</v>
       </c>
       <c r="R57" t="n">
-        <v>42597057.32880422</v>
+        <v>35557159.68594024</v>
       </c>
       <c r="S57" t="n">
-        <v>44418265.98579274</v>
+        <v>36457219.69332466</v>
       </c>
       <c r="T57" t="n">
-        <v>43993204.34682827</v>
+        <v>38863738.02903706</v>
       </c>
       <c r="U57" t="n">
-        <v>43827976.34400815</v>
+        <v>38943719.58551111</v>
       </c>
     </row>
     <row r="58">
@@ -4143,64 +4143,64 @@
         <v>22561132</v>
       </c>
       <c r="B58" t="n">
-        <v>24312708.33564088</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C58" t="n">
-        <v>25210833.60895025</v>
+        <v>22261309.34301482</v>
       </c>
       <c r="D58" t="n">
-        <v>25702426.81726643</v>
+        <v>24248452.264724</v>
       </c>
       <c r="E58" t="n">
-        <v>26203605.74124005</v>
+        <v>24862254.44457242</v>
       </c>
       <c r="F58" t="n">
-        <v>27933289.414557</v>
+        <v>27226112.44694836</v>
       </c>
       <c r="G58" t="n">
-        <v>27990776.11239206</v>
+        <v>29339863.4002947</v>
       </c>
       <c r="H58" t="n">
-        <v>29024771.30120577</v>
+        <v>31276569.48578466</v>
       </c>
       <c r="I58" t="n">
-        <v>29759476.66300732</v>
+        <v>31340936.65259637</v>
       </c>
       <c r="J58" t="n">
-        <v>32588953.66048561</v>
+        <v>31769853.75037528</v>
       </c>
       <c r="K58" t="n">
-        <v>35308523.38262076</v>
+        <v>31465831.38918911</v>
       </c>
       <c r="L58" t="n">
-        <v>36818115.65218883</v>
+        <v>30981783.53722765</v>
       </c>
       <c r="M58" t="n">
-        <v>36679835.57445565</v>
+        <v>33927475.25257984</v>
       </c>
       <c r="N58" t="n">
-        <v>36328827.02695376</v>
+        <v>34194544.23262087</v>
       </c>
       <c r="O58" t="n">
-        <v>38938077.37966417</v>
+        <v>36650503.69791108</v>
       </c>
       <c r="P58" t="n">
-        <v>42640239.06481041</v>
+        <v>36299775.84249029</v>
       </c>
       <c r="Q58" t="n">
-        <v>42232192.29620124</v>
+        <v>37640710.2069195</v>
       </c>
       <c r="R58" t="n">
-        <v>46002024.55074427</v>
+        <v>38374677.11102654</v>
       </c>
       <c r="S58" t="n">
-        <v>45829251.89744356</v>
+        <v>39569158.28703638</v>
       </c>
       <c r="T58" t="n">
-        <v>49920173.59984595</v>
+        <v>41490956.79845371</v>
       </c>
       <c r="U58" t="n">
-        <v>54086045.08072393</v>
+        <v>41817563.69833634</v>
       </c>
     </row>
     <row r="59">
@@ -4208,64 +4208,64 @@
         <v>22561132</v>
       </c>
       <c r="B59" t="n">
-        <v>24050378.25325636</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C59" t="n">
-        <v>25777751.88669541</v>
+        <v>22780948.76002196</v>
       </c>
       <c r="D59" t="n">
-        <v>28078788.02118026</v>
+        <v>22695388.93954852</v>
       </c>
       <c r="E59" t="n">
-        <v>29116034.41995971</v>
+        <v>23797660.67259044</v>
       </c>
       <c r="F59" t="n">
-        <v>29853049.92925519</v>
+        <v>24815113.71631725</v>
       </c>
       <c r="G59" t="n">
-        <v>32691423.70295792</v>
+        <v>27174489.66385894</v>
       </c>
       <c r="H59" t="n">
-        <v>32758702.63915191</v>
+        <v>27862358.7620533</v>
       </c>
       <c r="I59" t="n">
-        <v>35111535.45569523</v>
+        <v>27757714.37525624</v>
       </c>
       <c r="J59" t="n">
-        <v>34775534.79299194</v>
+        <v>27330709.54412635</v>
       </c>
       <c r="K59" t="n">
-        <v>36262339.4923761</v>
+        <v>27863638.81567509</v>
       </c>
       <c r="L59" t="n">
-        <v>38234352.71923194</v>
+        <v>27758989.62130135</v>
       </c>
       <c r="M59" t="n">
-        <v>40535893.08890048</v>
+        <v>27816117.6102354</v>
       </c>
       <c r="N59" t="n">
-        <v>43918640.15874422</v>
+        <v>30460823.55814431</v>
       </c>
       <c r="O59" t="n">
-        <v>46562349.70572059</v>
+        <v>33002799.41668422</v>
       </c>
       <c r="P59" t="n">
-        <v>45846067.81001718</v>
+        <v>34413812.00233243</v>
       </c>
       <c r="Q59" t="n">
-        <v>49938490.57514358</v>
+        <v>34884783.00524682</v>
       </c>
       <c r="R59" t="n">
-        <v>53525229.66942656</v>
+        <v>36984693.96655668</v>
       </c>
       <c r="S59" t="n">
-        <v>53013018.72772717</v>
+        <v>36845788.26032916</v>
       </c>
       <c r="T59" t="n">
-        <v>56204169.98418578</v>
+        <v>37350042.129356</v>
       </c>
       <c r="U59" t="n">
-        <v>60894445.11664767</v>
+        <v>40032639.35517517</v>
       </c>
     </row>
     <row r="60">
@@ -4273,64 +4273,64 @@
         <v>22561132</v>
       </c>
       <c r="B60" t="n">
-        <v>22345232.71775694</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C60" t="n">
-        <v>24209957.1567916</v>
+        <v>25773176.51307561</v>
       </c>
       <c r="D60" t="n">
-        <v>25667290.41292056</v>
+        <v>25526539.49546954</v>
       </c>
       <c r="E60" t="n">
-        <v>27212348.7404185</v>
+        <v>27508340.87454338</v>
       </c>
       <c r="F60" t="n">
-        <v>28217588.37939573</v>
+        <v>29004295.43271147</v>
       </c>
       <c r="G60" t="n">
-        <v>29259962.14234771</v>
+        <v>31424723.05651414</v>
       </c>
       <c r="H60" t="n">
-        <v>31361504.43776974</v>
+        <v>34412528.65697551</v>
       </c>
       <c r="I60" t="n">
-        <v>33431657.78736369</v>
+        <v>36884144.44763264</v>
       </c>
       <c r="J60" t="n">
-        <v>33889187.49654377</v>
+        <v>38246665.72068435</v>
       </c>
       <c r="K60" t="n">
-        <v>36914286.24606378</v>
+        <v>38547734.33625182</v>
       </c>
       <c r="L60" t="n">
-        <v>37848699.26005827</v>
+        <v>41092246.23981164</v>
       </c>
       <c r="M60" t="n">
-        <v>39246851.7364532</v>
+        <v>40699013.02487676</v>
       </c>
       <c r="N60" t="n">
-        <v>41609340.10698098</v>
+        <v>43858758.2051414</v>
       </c>
       <c r="O60" t="n">
-        <v>42420692.4532139</v>
+        <v>45733910.03808169</v>
       </c>
       <c r="P60" t="n">
-        <v>44727608.32740092</v>
+        <v>47689232.7317685</v>
       </c>
       <c r="Q60" t="n">
-        <v>48980228.10118596</v>
+        <v>47232869.49975022</v>
       </c>
       <c r="R60" t="n">
-        <v>48226751.29303441</v>
+        <v>50625282.39847414</v>
       </c>
       <c r="S60" t="n">
-        <v>52531684.39433257</v>
+        <v>53084055.76048786</v>
       </c>
       <c r="T60" t="n">
-        <v>56304674.80585035</v>
+        <v>57205337.25779534</v>
       </c>
       <c r="U60" t="n">
-        <v>56093207.85076647</v>
+        <v>58320800.38414689</v>
       </c>
     </row>
     <row r="61">
@@ -4338,64 +4338,64 @@
         <v>22561132</v>
       </c>
       <c r="B61" t="n">
-        <v>24706203.45921767</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C61" t="n">
-        <v>25762500.64129605</v>
+        <v>25346843.96136178</v>
       </c>
       <c r="D61" t="n">
-        <v>27912398.34714071</v>
+        <v>25399007.75554494</v>
       </c>
       <c r="E61" t="n">
-        <v>28943498.21673017</v>
+        <v>26041933.99908998</v>
       </c>
       <c r="F61" t="n">
-        <v>29171334.52019852</v>
+        <v>25641323.50648077</v>
       </c>
       <c r="G61" t="n">
-        <v>31775296.84853355</v>
+        <v>28079253.98046226</v>
       </c>
       <c r="H61" t="n">
-        <v>31471222.39949179</v>
+        <v>28953271.50558756</v>
       </c>
       <c r="I61" t="n">
-        <v>33365651.98136918</v>
+        <v>30359476.65345722</v>
       </c>
       <c r="J61" t="n">
-        <v>36150037.69172886</v>
+        <v>31127967.47280978</v>
       </c>
       <c r="K61" t="n">
-        <v>39166782.22991496</v>
+        <v>33906587.511626</v>
       </c>
       <c r="L61" t="n">
-        <v>40613625.44085104</v>
+        <v>34764866.51016372</v>
       </c>
       <c r="M61" t="n">
-        <v>40933326.19787781</v>
+        <v>34836412.59078052</v>
       </c>
       <c r="N61" t="n">
-        <v>42207449.95072071</v>
+        <v>37743534.24607218</v>
       </c>
       <c r="O61" t="n">
-        <v>42785080.96214142</v>
+        <v>38040642.33086773</v>
       </c>
       <c r="P61" t="n">
-        <v>46106781.98901215</v>
+        <v>37455452.28838193</v>
       </c>
       <c r="Q61" t="n">
-        <v>49954423.41956353</v>
+        <v>37097021.45853037</v>
       </c>
       <c r="R61" t="n">
-        <v>52380614.44111681</v>
+        <v>39330099.4736924</v>
       </c>
       <c r="S61" t="n">
-        <v>56751811.33638938</v>
+        <v>38953729.16359811</v>
       </c>
       <c r="T61" t="n">
-        <v>59178197.02091698</v>
+        <v>39713298.99744184</v>
       </c>
       <c r="U61" t="n">
-        <v>60676177.42537276</v>
+        <v>39564145.30027046</v>
       </c>
     </row>
     <row r="62">
@@ -4403,64 +4403,64 @@
         <v>22561132</v>
       </c>
       <c r="B62" t="n">
-        <v>23132222.96491052</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C62" t="n">
-        <v>23852255.2093749</v>
+        <v>25339980.90093207</v>
       </c>
       <c r="D62" t="n">
-        <v>24594699.75869449</v>
+        <v>24950168.75288711</v>
       </c>
       <c r="E62" t="n">
-        <v>25789217.39392305</v>
+        <v>26452059.50114942</v>
       </c>
       <c r="F62" t="n">
-        <v>25842291.59244386</v>
+        <v>26967855.72583767</v>
       </c>
       <c r="G62" t="n">
-        <v>27397884.22353967</v>
+        <v>29061556.4281054</v>
       </c>
       <c r="H62" t="n">
-        <v>26976414.76218453</v>
+        <v>29121365.09897853</v>
       </c>
       <c r="I62" t="n">
-        <v>28757111.07701806</v>
+        <v>28842687.51210888</v>
       </c>
       <c r="J62" t="n">
-        <v>31156911.00296543</v>
+        <v>28398992.22999953</v>
       </c>
       <c r="K62" t="n">
-        <v>33032420.41707995</v>
+        <v>28292332.37564397</v>
       </c>
       <c r="L62" t="n">
-        <v>34828784.65858842</v>
+        <v>30159891.59148081</v>
       </c>
       <c r="M62" t="n">
-        <v>37330297.26144432</v>
+        <v>29871275.80096422</v>
       </c>
       <c r="N62" t="n">
-        <v>37407122.99746535</v>
+        <v>29759086.39999738</v>
       </c>
       <c r="O62" t="n">
-        <v>39441391.67296363</v>
+        <v>30685391.74498317</v>
       </c>
       <c r="P62" t="n">
-        <v>40439773.42206763</v>
+        <v>33067710.41721923</v>
       </c>
       <c r="Q62" t="n">
-        <v>43579392.0433661</v>
+        <v>34481498.2292216</v>
       </c>
       <c r="R62" t="n">
-        <v>44682519.18487034</v>
+        <v>36156198.79999587</v>
       </c>
       <c r="S62" t="n">
-        <v>45813569.83409842</v>
+        <v>36651015.27685846</v>
       </c>
       <c r="T62" t="n">
-        <v>45375155.80220614</v>
+        <v>39922646.98812245</v>
       </c>
       <c r="U62" t="n">
-        <v>48897942.20889719</v>
+        <v>40236908.52784152</v>
       </c>
     </row>
     <row r="63">
@@ -4468,64 +4468,64 @@
         <v>22561132</v>
       </c>
       <c r="B63" t="n">
-        <v>24575038.41802541</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C63" t="n">
-        <v>26911588.44218573</v>
+        <v>24379520.24908172</v>
       </c>
       <c r="D63" t="n">
-        <v>29000920.72701254</v>
+        <v>26272270.61030336</v>
       </c>
       <c r="E63" t="n">
-        <v>31083857.85514336</v>
+        <v>25868116.78395836</v>
       </c>
       <c r="F63" t="n">
-        <v>34039254.61127453</v>
+        <v>26673308.66786308</v>
       </c>
       <c r="G63" t="n">
-        <v>33911411.2740953</v>
+        <v>26262985.55878356</v>
       </c>
       <c r="H63" t="n">
-        <v>33981200.94419619</v>
+        <v>25858974.56703231</v>
       </c>
       <c r="I63" t="n">
-        <v>34446251.43868481</v>
+        <v>27866585.17431714</v>
       </c>
       <c r="J63" t="n">
-        <v>35117928.68354978</v>
+        <v>28571973.31778273</v>
       </c>
       <c r="K63" t="n">
-        <v>36823539.46704265</v>
+        <v>28132442.50927771</v>
       </c>
       <c r="L63" t="n">
-        <v>37541572.12668998</v>
+        <v>29825892.18287225</v>
       </c>
       <c r="M63" t="n">
-        <v>40237925.63791654</v>
+        <v>31794680.72519232</v>
       </c>
       <c r="N63" t="n">
-        <v>39618934.16009689</v>
+        <v>32969194.31380132</v>
       </c>
       <c r="O63" t="n">
-        <v>41543150.19068555</v>
+        <v>33420394.9686488</v>
       </c>
       <c r="P63" t="n">
-        <v>41145602.03980887</v>
+        <v>33683472.33383431</v>
       </c>
       <c r="Q63" t="n">
-        <v>43861597.57034176</v>
+        <v>33948620.58119037</v>
       </c>
       <c r="R63" t="n">
-        <v>44716867.32484215</v>
+        <v>37176393.7748635</v>
       </c>
       <c r="S63" t="n">
-        <v>46108760.63289831</v>
+        <v>40062653.71875808</v>
       </c>
       <c r="T63" t="n">
-        <v>47007848.45849729</v>
+        <v>40843846.78760894</v>
       </c>
       <c r="U63" t="n">
-        <v>47651175.43232528</v>
+        <v>43539923.64213128</v>
       </c>
     </row>
     <row r="64">
@@ -4533,64 +4533,64 @@
         <v>22561132</v>
       </c>
       <c r="B64" t="n">
-        <v>23394553.04729505</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C64" t="n">
-        <v>23034667.97036579</v>
+        <v>25475228.69107363</v>
       </c>
       <c r="D64" t="n">
-        <v>23215991.37373226</v>
+        <v>25675763.60539267</v>
       </c>
       <c r="E64" t="n">
-        <v>23533714.3490364</v>
+        <v>26325695.38240714</v>
       </c>
       <c r="F64" t="n">
-        <v>25223979.55964312</v>
+        <v>27145130.22712715</v>
       </c>
       <c r="G64" t="n">
-        <v>24982598.09517403</v>
+        <v>26727548.95253323</v>
       </c>
       <c r="H64" t="n">
-        <v>26341198.08002235</v>
+        <v>28957980.57778447</v>
       </c>
       <c r="I64" t="n">
-        <v>27620539.80601809</v>
+        <v>31542897.98967034</v>
       </c>
       <c r="J64" t="n">
-        <v>28640858.25510947</v>
+        <v>33625025.01450066</v>
       </c>
       <c r="K64" t="n">
-        <v>28366778.88976099</v>
+        <v>35649104.06901701</v>
       </c>
       <c r="L64" t="n">
-        <v>29579581.52272546</v>
+        <v>37795023.80669018</v>
       </c>
       <c r="M64" t="n">
-        <v>29468487.65602904</v>
+        <v>41168774.77865899</v>
       </c>
       <c r="N64" t="n">
-        <v>30728393.10943295</v>
+        <v>41492845.53864988</v>
       </c>
       <c r="O64" t="n">
-        <v>31863517.42708499</v>
+        <v>45437909.94085652</v>
       </c>
       <c r="P64" t="n">
-        <v>32484833.20756192</v>
+        <v>48965568.38429748</v>
       </c>
       <c r="Q64" t="n">
-        <v>33307123.27445501</v>
+        <v>53621125.70409543</v>
       </c>
       <c r="R64" t="n">
-        <v>34731147.02282327</v>
+        <v>53107997.08304136</v>
       </c>
       <c r="S64" t="n">
-        <v>35408379.52763774</v>
+        <v>55687351.15972341</v>
       </c>
       <c r="T64" t="n">
-        <v>36922241.079808</v>
+        <v>54830696.76604518</v>
       </c>
       <c r="U64" t="n">
-        <v>38500826.76874229</v>
+        <v>58450036.86486062</v>
       </c>
     </row>
     <row r="65">
@@ -4598,64 +4598,64 @@
         <v>22561132</v>
       </c>
       <c r="B65" t="n">
-        <v>22214067.67656468</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C65" t="n">
-        <v>22259784.21847488</v>
+        <v>23581759.62909177</v>
       </c>
       <c r="D65" t="n">
-        <v>23987964.84671433</v>
+        <v>23356093.42679531</v>
       </c>
       <c r="E65" t="n">
-        <v>25431935.13925003</v>
+        <v>25169388.10276246</v>
       </c>
       <c r="F65" t="n">
-        <v>27849957.34752754</v>
+        <v>25367515.51303449</v>
       </c>
       <c r="G65" t="n">
-        <v>27583446.52697868</v>
+        <v>26452086.64906432</v>
       </c>
       <c r="H65" t="n">
-        <v>29724939.7903518</v>
+        <v>26352738.90860438</v>
       </c>
       <c r="I65" t="n">
-        <v>29786113.70390467</v>
+        <v>27326224.07150764</v>
       </c>
       <c r="J65" t="n">
-        <v>31925445.85548013</v>
+        <v>27382461.42912273</v>
       </c>
       <c r="K65" t="n">
-        <v>31805541.48078952</v>
+        <v>29030765.53048437</v>
       </c>
       <c r="L65" t="n">
-        <v>32240816.93845829</v>
+        <v>31115846.20605005</v>
       </c>
       <c r="M65" t="n">
-        <v>33244370.63145085</v>
+        <v>33169783.80897091</v>
       </c>
       <c r="N65" t="n">
-        <v>34665711.43259565</v>
+        <v>34202253.27464226</v>
       </c>
       <c r="O65" t="n">
-        <v>34132438.9139668</v>
+        <v>34073797.75328571</v>
       </c>
       <c r="P65" t="n">
-        <v>33805807.73860155</v>
+        <v>37313472.56515811</v>
       </c>
       <c r="Q65" t="n">
-        <v>35644230.21597876</v>
+        <v>40861169.77484699</v>
       </c>
       <c r="R65" t="n">
-        <v>37997083.62330573</v>
+        <v>42370604.62534356</v>
       </c>
       <c r="S65" t="n">
-        <v>40505247.41671275</v>
+        <v>44674796.63062286</v>
       </c>
       <c r="T65" t="n">
-        <v>44356412.7829781</v>
+        <v>45026465.95705687</v>
       </c>
       <c r="U65" t="n">
-        <v>47542229.53431677</v>
+        <v>47213315.48827381</v>
       </c>
     </row>
     <row r="66">
@@ -4666,61 +4666,61 @@
         <v>23525718.08848731</v>
       </c>
       <c r="C66" t="n">
-        <v>23710906.92107359</v>
+        <v>25078636.06788857</v>
       </c>
       <c r="D66" t="n">
-        <v>24724650.86625706</v>
+        <v>26296657.56619865</v>
       </c>
       <c r="E66" t="n">
-        <v>25925479.97880488</v>
+        <v>26809423.56439913</v>
       </c>
       <c r="F66" t="n">
-        <v>25526660.93157888</v>
+        <v>28267369.70393298</v>
       </c>
       <c r="G66" t="n">
-        <v>25282382.95061632</v>
+        <v>29475922.16373603</v>
       </c>
       <c r="H66" t="n">
-        <v>25775371.31987672</v>
+        <v>29193851.6347128</v>
       </c>
       <c r="I66" t="n">
-        <v>27476787.50610434</v>
+        <v>28914480.386238</v>
       </c>
       <c r="J66" t="n">
-        <v>29769743.58384878</v>
+        <v>31327412.88505059</v>
       </c>
       <c r="K66" t="n">
-        <v>32254048.36177505</v>
+        <v>31391884.68755656</v>
       </c>
       <c r="L66" t="n">
-        <v>32507944.52510711</v>
+        <v>34011558.21271645</v>
       </c>
       <c r="M66" t="n">
-        <v>34653773.66989831</v>
+        <v>34477024.16229037</v>
       </c>
       <c r="N66" t="n">
-        <v>37142716.43438236</v>
+        <v>36953272.22251862</v>
       </c>
       <c r="O66" t="n">
-        <v>37651033.92065444</v>
+        <v>40466722.23775836</v>
       </c>
       <c r="P66" t="n">
-        <v>39260778.65939481</v>
+        <v>43373169.20874275</v>
       </c>
       <c r="Q66" t="n">
-        <v>42993622.19618765</v>
+        <v>46236205.05889309</v>
       </c>
       <c r="R66" t="n">
-        <v>45831604.38474059</v>
+        <v>48750615.57989452</v>
       </c>
       <c r="S66" t="n">
-        <v>50189190.09878466</v>
+        <v>53102311.12420671</v>
       </c>
       <c r="T66" t="n">
-        <v>50584267.41323201</v>
+        <v>53211595.65810589</v>
       </c>
       <c r="U66" t="n">
-        <v>53923303.35871886</v>
+        <v>55486621.79234511</v>
       </c>
     </row>
     <row r="67">
@@ -4728,64 +4728,64 @@
         <v>22561132</v>
       </c>
       <c r="B67" t="n">
-        <v>23919213.21206409</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C67" t="n">
-        <v>25637166.16066407</v>
+        <v>23843104.46213528</v>
       </c>
       <c r="D67" t="n">
-        <v>26137072.54855049</v>
+        <v>25278354.79475633</v>
       </c>
       <c r="E67" t="n">
-        <v>26646726.75314501</v>
+        <v>25477339.964796</v>
       </c>
       <c r="F67" t="n">
-        <v>27631071.9942256</v>
+        <v>27010964.10828131</v>
       </c>
       <c r="G67" t="n">
-        <v>28651779.50833936</v>
+        <v>28479870.39610805</v>
       </c>
       <c r="H67" t="n">
-        <v>29876767.15187381</v>
+        <v>30194233.7049604</v>
       </c>
       <c r="I67" t="n">
-        <v>31675217.51979744</v>
+        <v>29905289.27678277</v>
       </c>
       <c r="J67" t="n">
-        <v>31556252.94316809</v>
+        <v>31010007.67073204</v>
       </c>
       <c r="K67" t="n">
-        <v>31437735.1691687</v>
+        <v>31614680.6219411</v>
       </c>
       <c r="L67" t="n">
-        <v>31136891.02454108</v>
+        <v>34620547.04275756</v>
       </c>
       <c r="M67" t="n">
-        <v>33011195.32374541</v>
+        <v>36704552.15784444</v>
       </c>
       <c r="N67" t="n">
-        <v>34614486.08805932</v>
+        <v>38914005.24214868</v>
       </c>
       <c r="O67" t="n">
-        <v>36698126.36025167</v>
+        <v>39446563.74148227</v>
       </c>
       <c r="P67" t="n">
-        <v>39973963.41516621</v>
+        <v>41821073.89894226</v>
       </c>
       <c r="Q67" t="n">
-        <v>39823830.72449376</v>
+        <v>43122830.40332336</v>
       </c>
       <c r="R67" t="n">
-        <v>39674261.89646796</v>
+        <v>42960871.31784007</v>
       </c>
       <c r="S67" t="n">
-        <v>42985105.27382132</v>
+        <v>46795748.68440846</v>
       </c>
       <c r="T67" t="n">
-        <v>46072430.41684886</v>
+        <v>46347935.66895381</v>
       </c>
       <c r="U67" t="n">
-        <v>48310080.44594959</v>
+        <v>48329510.61724885</v>
       </c>
     </row>
     <row r="68">
@@ -4793,64 +4793,64 @@
         <v>22561132</v>
       </c>
       <c r="B68" t="n">
-        <v>23525718.08848731</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C68" t="n">
-        <v>23710906.92107359</v>
+        <v>24663741.95022427</v>
       </c>
       <c r="D68" t="n">
-        <v>25276049.09982239</v>
+        <v>26291780.1750196</v>
       </c>
       <c r="E68" t="n">
-        <v>24887220.43289433</v>
+        <v>28332992.46775546</v>
       </c>
       <c r="F68" t="n">
-        <v>26674698.69758843</v>
+        <v>29050186.80034538</v>
       </c>
       <c r="G68" t="n">
-        <v>27039755.89024093</v>
+        <v>30629989.79747297</v>
       </c>
       <c r="H68" t="n">
-        <v>28038619.85117369</v>
+        <v>30336875.39113969</v>
       </c>
       <c r="I68" t="n">
-        <v>30215451.36013107</v>
+        <v>33044879.0521729</v>
       </c>
       <c r="J68" t="n">
-        <v>33088281.60375524</v>
+        <v>32728655.30643297</v>
       </c>
       <c r="K68" t="n">
-        <v>33348744.65187296</v>
+        <v>33747393.85025295</v>
       </c>
       <c r="L68" t="n">
-        <v>33611258.00288181</v>
+        <v>35975038.27202469</v>
       </c>
       <c r="M68" t="n">
-        <v>34462061.31207401</v>
+        <v>38140577.81944295</v>
       </c>
       <c r="N68" t="n">
-        <v>34733338.42586477</v>
+        <v>41766914.69467411</v>
       </c>
       <c r="O68" t="n">
-        <v>35612545.00806068</v>
+        <v>45738037.09452198</v>
       </c>
       <c r="P68" t="n">
-        <v>38998521.1145298</v>
+        <v>50086726.60053162</v>
       </c>
       <c r="Q68" t="n">
-        <v>42026245.37540473</v>
+        <v>49607420.49466074</v>
       </c>
       <c r="R68" t="n">
-        <v>42112735.37066391</v>
+        <v>51151541.10836229</v>
       </c>
       <c r="S68" t="n">
-        <v>45382237.57048091</v>
+        <v>53933256.71336229</v>
       </c>
       <c r="T68" t="n">
-        <v>45739475.70298848</v>
+        <v>53103586.05446598</v>
       </c>
       <c r="U68" t="n">
-        <v>46365444.33276872</v>
+        <v>54756531.13950624</v>
       </c>
     </row>
     <row r="69">
@@ -4858,64 +4858,64 @@
         <v>22561132</v>
       </c>
       <c r="B69" t="n">
-        <v>24443873.37683315</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C69" t="n">
-        <v>25915287.36364688</v>
+        <v>25355994.7086014</v>
       </c>
       <c r="D69" t="n">
-        <v>25667290.41292056</v>
+        <v>25850418.45444787</v>
       </c>
       <c r="E69" t="n">
-        <v>25720113.68576588</v>
+        <v>27105923.95054403</v>
       </c>
       <c r="F69" t="n">
-        <v>25773045.66888444</v>
+        <v>27792057.44170517</v>
       </c>
       <c r="G69" t="n">
-        <v>26425439.95121593</v>
+        <v>27687677.08993191</v>
       </c>
       <c r="H69" t="n">
-        <v>28630660.38063295</v>
+        <v>27744658.31770647</v>
       </c>
       <c r="I69" t="n">
-        <v>28356678.60408364</v>
+        <v>29253464.25640262</v>
       </c>
       <c r="J69" t="n">
-        <v>30228485.27433079</v>
+        <v>29313667.87350546</v>
       </c>
       <c r="K69" t="n">
-        <v>32223848.73554417</v>
+        <v>29544418.0640798</v>
       </c>
       <c r="L69" t="n">
-        <v>33976241.35047888</v>
+        <v>32353447.68052159</v>
       </c>
       <c r="M69" t="n">
-        <v>35033813.26456419</v>
+        <v>35241459.50231545</v>
       </c>
       <c r="N69" t="n">
-        <v>34902234.6018407</v>
+        <v>35313986.4111091</v>
       </c>
       <c r="O69" t="n">
-        <v>38220675.68482041</v>
+        <v>36207890.96227955</v>
       </c>
       <c r="P69" t="n">
-        <v>38965951.50058091</v>
+        <v>37124422.96018741</v>
       </c>
       <c r="Q69" t="n">
-        <v>40178837.16051999</v>
+        <v>37200825.00698328</v>
       </c>
       <c r="R69" t="n">
-        <v>39560754.65758824</v>
+        <v>39656428.26570697</v>
       </c>
       <c r="S69" t="n">
-        <v>41712141.81410539</v>
+        <v>41582465.31345817</v>
       </c>
       <c r="T69" t="n">
-        <v>41312976.49392172</v>
+        <v>41909792.54650988</v>
       </c>
       <c r="U69" t="n">
-        <v>43559652.7213043</v>
+        <v>44676231.815809</v>
       </c>
     </row>
     <row r="70">
@@ -4923,64 +4923,64 @@
         <v>22561132</v>
       </c>
       <c r="B70" t="n">
-        <v>22345232.71775694</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C70" t="n">
-        <v>23690317.73978446</v>
+        <v>23040768.46852553</v>
       </c>
       <c r="D70" t="n">
-        <v>23463612.68809957</v>
+        <v>23757954.02651285</v>
       </c>
       <c r="E70" t="n">
-        <v>24876019.28005856</v>
+        <v>24221217.12300861</v>
       </c>
       <c r="F70" t="n">
-        <v>27096562.77419856</v>
+        <v>23989431.61721436</v>
       </c>
       <c r="G70" t="n">
-        <v>27782459.30547525</v>
+        <v>24038801.85736571</v>
       </c>
       <c r="H70" t="n">
-        <v>30423965.08289153</v>
+        <v>23669006.11738146</v>
       </c>
       <c r="I70" t="n">
-        <v>29955944.55724975</v>
+        <v>24956170.53598774</v>
       </c>
       <c r="J70" t="n">
-        <v>31933317.77569639</v>
+        <v>25297708.77259576</v>
       </c>
       <c r="K70" t="n">
-        <v>31999036.53021178</v>
+        <v>26967594.75196766</v>
       </c>
       <c r="L70" t="n">
-        <v>32250925.30132715</v>
+        <v>28904492.0282303</v>
       </c>
       <c r="M70" t="n">
-        <v>33629792.01273611</v>
+        <v>28627889.81330176</v>
       </c>
       <c r="N70" t="n">
-        <v>34481064.47416639</v>
+        <v>30684034.69068224</v>
       </c>
       <c r="O70" t="n">
-        <v>37759461.46625787</v>
+        <v>31282351.40212657</v>
       </c>
       <c r="P70" t="n">
-        <v>37837170.42203142</v>
+        <v>33529148.04020822</v>
       </c>
       <c r="Q70" t="n">
-        <v>39234897.01659283</v>
+        <v>35547455.72130873</v>
       </c>
       <c r="R70" t="n">
-        <v>40912358.76121795</v>
+        <v>37067263.38299401</v>
       </c>
       <c r="S70" t="n">
-        <v>41472265.77285787</v>
+        <v>37574548.25482388</v>
       </c>
       <c r="T70" t="n">
-        <v>40834286.08895784</v>
+        <v>37651876.65928628</v>
       </c>
       <c r="U70" t="n">
-        <v>40918323.03250819</v>
+        <v>38604960.33310387</v>
       </c>
     </row>
     <row r="71">
@@ -4988,64 +4988,64 @@
         <v>22561132</v>
       </c>
       <c r="B71" t="n">
-        <v>22738727.84133373</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C71" t="n">
-        <v>24636289.70850541</v>
+        <v>25054234.07524959</v>
       </c>
       <c r="D71" t="n">
-        <v>25546368.26175915</v>
+        <v>25834092.3889924</v>
       </c>
       <c r="E71" t="n">
-        <v>27975270.56351262</v>
+        <v>25436679.18310578</v>
       </c>
       <c r="F71" t="n">
-        <v>29333976.07186479</v>
+        <v>26524207.36552759</v>
       </c>
       <c r="G71" t="n">
-        <v>32122997.24585249</v>
+        <v>27812437.50329869</v>
       </c>
       <c r="H71" t="n">
-        <v>33496394.47892862</v>
+        <v>28031370.36703709</v>
       </c>
       <c r="I71" t="n">
-        <v>35123250.44034397</v>
+        <v>27763123.5103398</v>
       </c>
       <c r="J71" t="n">
-        <v>36012326.8831736</v>
+        <v>27820260.00681575</v>
       </c>
       <c r="K71" t="n">
-        <v>38598845.20241708</v>
+        <v>28847956.23371167</v>
       </c>
       <c r="L71" t="n">
-        <v>38005068.16607149</v>
+        <v>30752191.83390933</v>
       </c>
       <c r="M71" t="n">
-        <v>38304234.9834058</v>
+        <v>31530623.47056393</v>
       </c>
       <c r="N71" t="n">
-        <v>41500748.7093659</v>
+        <v>31228890.42915577</v>
       </c>
       <c r="O71" t="n">
-        <v>42309983.60107998</v>
+        <v>32200946.0807871</v>
       </c>
       <c r="P71" t="n">
-        <v>42151077.37468544</v>
+        <v>32641632.85705682</v>
       </c>
       <c r="Q71" t="n">
-        <v>42482880.58604382</v>
+        <v>32898579.99294325</v>
       </c>
       <c r="R71" t="n">
-        <v>46028105.0493556</v>
+        <v>34687665.74413972</v>
       </c>
       <c r="S71" t="n">
-        <v>49066391.558616</v>
+        <v>37179042.74374517</v>
       </c>
       <c r="T71" t="n">
-        <v>53731534.96273181</v>
+        <v>37255557.19803257</v>
       </c>
       <c r="U71" t="n">
-        <v>56965937.74572387</v>
+        <v>37332229.11903462</v>
       </c>
     </row>
     <row r="72">
@@ -5053,64 +5053,64 @@
         <v>22561132</v>
       </c>
       <c r="B72" t="n">
-        <v>23525718.08848731</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C72" t="n">
-        <v>23163815.2623476</v>
+        <v>23314314.29788852</v>
       </c>
       <c r="D72" t="n">
-        <v>24962182.05780295</v>
+        <v>23633382.87379617</v>
       </c>
       <c r="E72" t="n">
-        <v>25158678.39158981</v>
+        <v>24094216.92198763</v>
       </c>
       <c r="F72" t="n">
-        <v>26673120.50575238</v>
+        <v>23723568.71627112</v>
       </c>
       <c r="G72" t="n">
-        <v>27038156.10002479</v>
+        <v>25565393.03432266</v>
       </c>
       <c r="H72" t="n">
-        <v>29137314.70537171</v>
+        <v>26955686.48806003</v>
       </c>
       <c r="I72" t="n">
-        <v>30044266.28269301</v>
+        <v>29205156.34143497</v>
       </c>
       <c r="J72" t="n">
-        <v>31678129.16440548</v>
+        <v>28755885.09802117</v>
       </c>
       <c r="K72" t="n">
-        <v>32295830.0064695</v>
+        <v>29818143.84790521</v>
       </c>
       <c r="L72" t="n">
-        <v>32737815.31885129</v>
+        <v>29359442.84297911</v>
       </c>
       <c r="M72" t="n">
-        <v>35660137.49589299</v>
+        <v>31126752.55606087</v>
       </c>
       <c r="N72" t="n">
-        <v>38221360.46821263</v>
+        <v>30828884.36684896</v>
       </c>
       <c r="O72" t="n">
-        <v>40966538.51122412</v>
+        <v>32326184.45231168</v>
       </c>
       <c r="P72" t="n">
-        <v>42956205.11362401</v>
+        <v>33520332.09088311</v>
       </c>
       <c r="Q72" t="n">
-        <v>43294346.09820131</v>
+        <v>35732988.30752404</v>
       </c>
       <c r="R72" t="n">
-        <v>44390257.85867467</v>
+        <v>38091700.58112066</v>
       </c>
       <c r="S72" t="n">
-        <v>46546207.97657701</v>
+        <v>41713390.29729391</v>
       </c>
       <c r="T72" t="n">
-        <v>49077477.03077278</v>
+        <v>44709376.88021353</v>
       </c>
       <c r="U72" t="n">
-        <v>50890426.94417185</v>
+        <v>48960263.24110857</v>
       </c>
     </row>
     <row r="73">
@@ -5118,64 +5118,64 @@
         <v>22561132</v>
       </c>
       <c r="B73" t="n">
-        <v>23132222.96491052</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C73" t="n">
-        <v>25331592.71596242</v>
+        <v>26911588.44218573</v>
       </c>
       <c r="D73" t="n">
-        <v>27003715.35330452</v>
+        <v>28688005.61206453</v>
       </c>
       <c r="E73" t="n">
-        <v>27530268.47220952</v>
+        <v>28246689.8457076</v>
       </c>
       <c r="F73" t="n">
-        <v>29347524.3250355</v>
+        <v>29782797.18931518</v>
       </c>
       <c r="G73" t="n">
-        <v>31284736.10338993</v>
+        <v>29324639.9321119</v>
       </c>
       <c r="H73" t="n">
-        <v>31712884.06728091</v>
+        <v>29725962.95549547</v>
       </c>
       <c r="I73" t="n">
-        <v>32884376.04082637</v>
+        <v>32379433.87078722</v>
       </c>
       <c r="J73" t="n">
-        <v>33525597.83349435</v>
+        <v>31881331.81147639</v>
       </c>
       <c r="K73" t="n">
-        <v>33399683.66889501</v>
+        <v>32688345.41996237</v>
       </c>
       <c r="L73" t="n">
-        <v>33274242.40792369</v>
+        <v>34275955.98051756</v>
       </c>
       <c r="M73" t="n">
-        <v>36050999.9289636</v>
+        <v>35342857.05410877</v>
       </c>
       <c r="N73" t="n">
-        <v>39478663.53307168</v>
+        <v>35004642.75393974</v>
       </c>
       <c r="O73" t="n">
-        <v>40477988.74647319</v>
+        <v>36704751.45600572</v>
       </c>
       <c r="P73" t="n">
-        <v>42914586.16626255</v>
+        <v>38060645.84992038</v>
       </c>
       <c r="Q73" t="n">
-        <v>45747351.23577031</v>
+        <v>41236831.90169464</v>
       </c>
       <c r="R73" t="n">
-        <v>49033069.55139163</v>
+        <v>41081956.17761619</v>
       </c>
       <c r="S73" t="n">
-        <v>51984645.32017739</v>
+        <v>42838387.6996149</v>
       </c>
       <c r="T73" t="n">
-        <v>51184950.70569295</v>
+        <v>44918966.44519843</v>
       </c>
       <c r="U73" t="n">
-        <v>53373328.99232414</v>
+        <v>47100594.93025693</v>
       </c>
     </row>
     <row r="74">
@@ -5183,64 +5183,64 @@
         <v>22561132</v>
       </c>
       <c r="B74" t="n">
-        <v>24706203.45921767</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C74" t="n">
-        <v>26767952.46707452</v>
+        <v>26625841.61650325</v>
       </c>
       <c r="D74" t="n">
-        <v>28534888.31581362</v>
+        <v>27299822.76161261</v>
       </c>
       <c r="E74" t="n">
-        <v>30418458.49799305</v>
+        <v>28943152.37757451</v>
       </c>
       <c r="F74" t="n">
-        <v>33133744.62794201</v>
+        <v>30180597.47298802</v>
       </c>
       <c r="G74" t="n">
-        <v>35320882.44724628</v>
+        <v>31821874.29749233</v>
       </c>
       <c r="H74" t="n">
-        <v>35598919.99584395</v>
+        <v>32257373.27829369</v>
       </c>
       <c r="I74" t="n">
-        <v>36707000.71528009</v>
+        <v>35324345.74973699</v>
       </c>
       <c r="J74" t="n">
-        <v>36355732.21032545</v>
+        <v>37039981.8162458</v>
       </c>
       <c r="K74" t="n">
-        <v>39178278.53488501</v>
+        <v>39700309.5374442</v>
       </c>
       <c r="L74" t="n">
-        <v>39714453.75234663</v>
+        <v>40705245.28627919</v>
       </c>
       <c r="M74" t="n">
-        <v>43490431.89309679</v>
+        <v>40789016.66391204</v>
       </c>
       <c r="N74" t="n">
-        <v>45855522.18058062</v>
+        <v>43481474.21616351</v>
       </c>
       <c r="O74" t="n">
-        <v>49682195.81405208</v>
+        <v>44582122.75923487</v>
       </c>
       <c r="P74" t="n">
-        <v>52672846.13732281</v>
+        <v>44155493.08903079</v>
       </c>
       <c r="Q74" t="n">
-        <v>52475019.46615084</v>
+        <v>43732946.06146985</v>
       </c>
       <c r="R74" t="n">
-        <v>52277935.78486259</v>
+        <v>46365477.63808997</v>
       </c>
       <c r="S74" t="n">
-        <v>56032701.17501461</v>
+        <v>46191339.94151423</v>
       </c>
       <c r="T74" t="n">
-        <v>56799537.97491954</v>
+        <v>48434765.17932265</v>
       </c>
       <c r="U74" t="n">
-        <v>60548840.05408122</v>
+        <v>53039854.6943379</v>
       </c>
     </row>
     <row r="75">
@@ -5248,64 +5248,64 @@
         <v>22561132</v>
       </c>
       <c r="B75" t="n">
-        <v>23394553.04729505</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C75" t="n">
-        <v>24530781.84689261</v>
+        <v>24099873.92155898</v>
       </c>
       <c r="D75" t="n">
-        <v>25864811.22680501</v>
+        <v>24709915.13101979</v>
       </c>
       <c r="E75" t="n">
-        <v>25466925.46428151</v>
+        <v>25622713.44925427</v>
       </c>
       <c r="F75" t="n">
-        <v>25667395.01758284</v>
+        <v>25377516.29146922</v>
       </c>
       <c r="G75" t="n">
-        <v>27660131.98265821</v>
+        <v>27052670.31539065</v>
       </c>
       <c r="H75" t="n">
-        <v>28681912.98927198</v>
+        <v>28209289.11637366</v>
       </c>
       <c r="I75" t="n">
-        <v>28574190.55189469</v>
+        <v>28759350.06065412</v>
       </c>
       <c r="J75" t="n">
-        <v>29795860.93156106</v>
+        <v>29654536.80534879</v>
       </c>
       <c r="K75" t="n">
-        <v>32109119.18951412</v>
+        <v>30232779.0449904</v>
       </c>
       <c r="L75" t="n">
-        <v>33108573.55206589</v>
+        <v>31876893.60008869</v>
       </c>
       <c r="M75" t="n">
-        <v>33754167.03571229</v>
+        <v>32683794.86392708</v>
       </c>
       <c r="N75" t="n">
-        <v>35786019.87359623</v>
+        <v>34081168.6235734</v>
       </c>
       <c r="O75" t="n">
-        <v>37524078.57132596</v>
+        <v>33755028.08045552</v>
       </c>
       <c r="P75" t="n">
-        <v>38692083.33058123</v>
+        <v>36375663.80009137</v>
       </c>
       <c r="Q75" t="n">
-        <v>42370856.34826942</v>
+        <v>37296442.63950665</v>
       </c>
       <c r="R75" t="n">
-        <v>45906732.31489823</v>
+        <v>40192022.8050297</v>
       </c>
       <c r="S75" t="n">
-        <v>50271461.05610828</v>
+        <v>43546073.67240864</v>
       </c>
       <c r="T75" t="n">
-        <v>52128517.41845898</v>
+        <v>43635691.47366211</v>
       </c>
       <c r="U75" t="n">
-        <v>57084802.18846376</v>
+        <v>43218118.69986054</v>
       </c>
     </row>
     <row r="76">
@@ -5313,64 +5313,64 @@
         <v>22561132</v>
       </c>
       <c r="B76" t="n">
-        <v>22869892.88252599</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C76" t="n">
-        <v>22518078.80243851</v>
+        <v>24196993.59820214</v>
       </c>
       <c r="D76" t="n">
-        <v>23349909.44012995</v>
+        <v>26216248.70660282</v>
       </c>
       <c r="E76" t="n">
-        <v>23397963.54391056</v>
+        <v>27184691.84381793</v>
       </c>
       <c r="F76" t="n">
-        <v>23718176.90346755</v>
+        <v>27556728.55921387</v>
       </c>
       <c r="G76" t="n">
-        <v>24456448.02320872</v>
+        <v>27293023.79843764</v>
       </c>
       <c r="H76" t="n">
-        <v>25359883.12232606</v>
+        <v>29887994.93666675</v>
       </c>
       <c r="I76" t="n">
-        <v>27771054.75568194</v>
+        <v>29949504.41764197</v>
       </c>
       <c r="J76" t="n">
-        <v>30411476.20921471</v>
+        <v>32448810.35595844</v>
       </c>
       <c r="K76" t="n">
-        <v>30297257.94411071</v>
+        <v>32515589.99398662</v>
       </c>
       <c r="L76" t="n">
-        <v>30711891.75330704</v>
+        <v>35039999.5835794</v>
       </c>
       <c r="M76" t="n">
-        <v>30596545.19893421</v>
+        <v>37556682.30511603</v>
       </c>
       <c r="N76" t="n">
-        <v>31548917.96249709</v>
+        <v>40909157.86059855</v>
       </c>
       <c r="O76" t="n">
-        <v>32714352.93487922</v>
+        <v>43133873.68230098</v>
       </c>
       <c r="P76" t="n">
-        <v>33732646.29153726</v>
+        <v>45479573.67346977</v>
       </c>
       <c r="Q76" t="n">
-        <v>35959317.23615538</v>
+        <v>46895207.59499411</v>
       </c>
       <c r="R76" t="n">
-        <v>38542028.2362119</v>
+        <v>50263368.55617465</v>
       </c>
       <c r="S76" t="n">
-        <v>40862089.32279404</v>
+        <v>51243468.2622207</v>
       </c>
       <c r="T76" t="n">
-        <v>42609120.58466924</v>
+        <v>51646844.6025075</v>
       </c>
       <c r="U76" t="n">
-        <v>46164879.8593027</v>
+        <v>51452871.34885774</v>
       </c>
     </row>
     <row r="77">
@@ -5378,64 +5378,64 @@
         <v>22561132</v>
       </c>
       <c r="B77" t="n">
-        <v>22607562.80014147</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C77" t="n">
-        <v>23311264.04880865</v>
+        <v>25777751.88669541</v>
       </c>
       <c r="D77" t="n">
-        <v>24443447.66068331</v>
+        <v>26280399.59560179</v>
       </c>
       <c r="E77" t="n">
-        <v>24351643.89010154</v>
+        <v>27709576.43126843</v>
       </c>
       <c r="F77" t="n">
-        <v>24826483.51394714</v>
+        <v>27444408.98919283</v>
       </c>
       <c r="G77" t="n">
-        <v>26465264.20787139</v>
+        <v>27022223.82410819</v>
       </c>
       <c r="H77" t="n">
-        <v>26981317.9148882</v>
+        <v>27234936.3145431</v>
       </c>
       <c r="I77" t="n">
-        <v>27036845.45577842</v>
+        <v>29191034.90071664</v>
       </c>
       <c r="J77" t="n">
-        <v>28821530.76300897</v>
+        <v>29760239.18501361</v>
       </c>
       <c r="K77" t="n">
-        <v>30053776.00774702</v>
+        <v>29648466.81114371</v>
       </c>
       <c r="L77" t="n">
-        <v>31163979.58598712</v>
+        <v>29364745.11206704</v>
       </c>
       <c r="M77" t="n">
-        <v>34126994.1707847</v>
+        <v>30278775.87181022</v>
       </c>
       <c r="N77" t="n">
-        <v>35189258.53884336</v>
+        <v>32805559.73060393</v>
       </c>
       <c r="O77" t="n">
-        <v>35057096.06067387</v>
+        <v>33445244.66164287</v>
       </c>
       <c r="P77" t="n">
-        <v>35740684.33839732</v>
+        <v>36625157.78702338</v>
       </c>
       <c r="Q77" t="n">
-        <v>38099904.62219232</v>
+        <v>37765182.01233261</v>
       </c>
       <c r="R77" t="n">
-        <v>40171848.04638053</v>
+        <v>37403787.21661752</v>
       </c>
       <c r="S77" t="n">
-        <v>41655818.96018893</v>
+        <v>39655331.18519727</v>
       </c>
       <c r="T77" t="n">
-        <v>45132024.58418947</v>
+        <v>42734048.14345954</v>
       </c>
       <c r="U77" t="n">
-        <v>49160708.69315083</v>
+        <v>43318885.92636346</v>
       </c>
     </row>
     <row r="78">
@@ -5443,64 +5443,64 @@
         <v>22561132</v>
       </c>
       <c r="B78" t="n">
-        <v>23919213.21206409</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C78" t="n">
-        <v>25498105.55917267</v>
+        <v>24938812.9041272</v>
       </c>
       <c r="D78" t="n">
-        <v>25105860.93444477</v>
+        <v>25425101.90342408</v>
       </c>
       <c r="E78" t="n">
-        <v>25741366.73911633</v>
+        <v>25181795.79396531</v>
       </c>
       <c r="F78" t="n">
-        <v>27739846.63929552</v>
+        <v>25819223.74120462</v>
       </c>
       <c r="G78" t="n">
-        <v>27958208.08509418</v>
+        <v>27973855.02722691</v>
       </c>
       <c r="H78" t="n">
-        <v>30616423.73731431</v>
+        <v>29495125.10775873</v>
       </c>
       <c r="I78" t="n">
-        <v>30679432.32445407</v>
+        <v>31613557.54527062</v>
       </c>
       <c r="J78" t="n">
-        <v>32169473.80940476</v>
+        <v>32965174.02514233</v>
       </c>
       <c r="K78" t="n">
-        <v>34105935.06420973</v>
+        <v>35332836.26451068</v>
       </c>
       <c r="L78" t="n">
-        <v>33581273.74499095</v>
+        <v>35405551.22664239</v>
       </c>
       <c r="M78" t="n">
-        <v>34040851.02674483</v>
+        <v>34860897.5416088</v>
       </c>
       <c r="N78" t="n">
-        <v>33715096.30381616</v>
+        <v>35946005.97839861</v>
       </c>
       <c r="O78" t="n">
-        <v>35940608.78468971</v>
+        <v>39363686.9483575</v>
       </c>
       <c r="P78" t="n">
-        <v>37686175.57084189</v>
+        <v>42419761.55234098</v>
       </c>
       <c r="Q78" t="n">
-        <v>39735619.64245058</v>
+        <v>43493534.91425387</v>
       </c>
       <c r="R78" t="n">
-        <v>39124355.28091542</v>
+        <v>47375960.18912164</v>
       </c>
       <c r="S78" t="n">
-        <v>40342171.5447856</v>
+        <v>51880380.44847377</v>
       </c>
       <c r="T78" t="n">
-        <v>43943292.18851597</v>
+        <v>51987150.24955761</v>
       </c>
       <c r="U78" t="n">
-        <v>44289203.28673539</v>
+        <v>52698621.57072469</v>
       </c>
     </row>
     <row r="79">
@@ -5508,64 +5508,64 @@
         <v>22561132</v>
       </c>
       <c r="B79" t="n">
-        <v>23001057.92371826</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C79" t="n">
-        <v>24251898.08163984</v>
+        <v>24255710.89298968</v>
       </c>
       <c r="D79" t="n">
-        <v>24583797.98163677</v>
+        <v>25997832.16092432</v>
       </c>
       <c r="E79" t="n">
-        <v>26635332.17148747</v>
+        <v>26353626.08127236</v>
       </c>
       <c r="F79" t="n">
-        <v>27619256.49024118</v>
+        <v>26254648.13526624</v>
       </c>
       <c r="G79" t="n">
-        <v>28800099.30366248</v>
+        <v>27071871.50602201</v>
       </c>
       <c r="H79" t="n">
-        <v>28859369.89588378</v>
+        <v>27442364.21613202</v>
       </c>
       <c r="I79" t="n">
-        <v>31267703.38785188</v>
+        <v>29413360.92508231</v>
       </c>
       <c r="J79" t="n">
-        <v>33877013.9014757</v>
+        <v>29986900.40770336</v>
       </c>
       <c r="K79" t="n">
-        <v>36310167.34200981</v>
+        <v>32838000.44182254</v>
       </c>
       <c r="L79" t="n">
-        <v>38284781.53596843</v>
+        <v>33478317.9435077</v>
       </c>
       <c r="M79" t="n">
-        <v>39699043.13964899</v>
+        <v>34520391.0917011</v>
       </c>
       <c r="N79" t="n">
-        <v>40703946.83209875</v>
+        <v>34591434.0420098</v>
       </c>
       <c r="O79" t="n">
-        <v>41024358.57753998</v>
+        <v>35869261.28874233</v>
       </c>
       <c r="P79" t="n">
-        <v>44924880.0902634</v>
+        <v>35734544.8821208</v>
       </c>
       <c r="Q79" t="n">
-        <v>44233787.85633027</v>
+        <v>37054599.29340959</v>
       </c>
       <c r="R79" t="n">
-        <v>46124973.83083345</v>
+        <v>39069697.07654655</v>
       </c>
       <c r="S79" t="n">
-        <v>49437814.186168</v>
+        <v>42102947.21842492</v>
       </c>
       <c r="T79" t="n">
-        <v>50114396.51095016</v>
+        <v>44147807.02321789</v>
       </c>
       <c r="U79" t="n">
-        <v>49343472.46691539</v>
+        <v>44238663.19145356</v>
       </c>
     </row>
     <row r="80">
@@ -5573,64 +5573,64 @@
         <v>22561132</v>
       </c>
       <c r="B80" t="n">
-        <v>24181543.29444862</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C80" t="n">
-        <v>23950137.44828802</v>
+        <v>22001489.63451125</v>
       </c>
       <c r="D80" t="n">
-        <v>25531071.0849441</v>
+        <v>23453794.24423803</v>
       </c>
       <c r="E80" t="n">
-        <v>27810087.40012863</v>
+        <v>25138319.34213815</v>
       </c>
       <c r="F80" t="n">
-        <v>30454220.00661154</v>
+        <v>25336202.18654875</v>
       </c>
       <c r="G80" t="n">
-        <v>31756269.78647672</v>
+        <v>26566733.17974983</v>
       </c>
       <c r="H80" t="n">
-        <v>34037104.73002319</v>
+        <v>26466954.85421257</v>
       </c>
       <c r="I80" t="n">
-        <v>37075407.22596164</v>
+        <v>28829512.29355061</v>
       </c>
       <c r="J80" t="n">
-        <v>39091636.58303427</v>
+        <v>29726882.96454176</v>
       </c>
       <c r="K80" t="n">
-        <v>38944817.70190291</v>
+        <v>29615235.8686954</v>
       </c>
       <c r="L80" t="n">
-        <v>41968372.5963338</v>
+        <v>31225767.28136946</v>
       </c>
       <c r="M80" t="n">
-        <v>45958649.24762101</v>
+        <v>30926951.56841958</v>
       </c>
       <c r="N80" t="n">
-        <v>48457965.76920924</v>
+        <v>32788618.43298501</v>
       </c>
       <c r="O80" t="n">
-        <v>48275969.18533573</v>
+        <v>32284221.77093708</v>
       </c>
       <c r="P80" t="n">
-        <v>48375321.1095601</v>
+        <v>32350662.68572669</v>
       </c>
       <c r="Q80" t="n">
-        <v>52693516.20972543</v>
+        <v>33921872.64025236</v>
       </c>
       <c r="R80" t="n">
-        <v>55865434.81567229</v>
+        <v>35766606.94208528</v>
       </c>
       <c r="S80" t="n">
-        <v>59228289.01230373</v>
+        <v>36879907.22076797</v>
       </c>
       <c r="T80" t="n">
-        <v>64859607.17216329</v>
+        <v>36741395.06861286</v>
       </c>
       <c r="U80" t="n">
-        <v>67632636.23750541</v>
+        <v>39807488.7707485</v>
       </c>
     </row>
     <row r="81">
@@ -5638,64 +5638,64 @@
         <v>22561132</v>
       </c>
       <c r="B81" t="n">
-        <v>22607562.80014147</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C81" t="n">
-        <v>22391219.1972666</v>
+        <v>24362743.87914242</v>
       </c>
       <c r="D81" t="n">
-        <v>22697654.7342858</v>
+        <v>24837799.94482844</v>
       </c>
       <c r="E81" t="n">
-        <v>24855706.52715211</v>
+        <v>25033317.17233638</v>
       </c>
       <c r="F81" t="n">
-        <v>27074436.81513534</v>
+        <v>25084835.72851994</v>
       </c>
       <c r="G81" t="n">
-        <v>29176412.14271178</v>
+        <v>26011483.82685504</v>
       </c>
       <c r="H81" t="n">
-        <v>31441578.31735582</v>
+        <v>28484608.47188123</v>
       </c>
       <c r="I81" t="n">
-        <v>31689078.91059428</v>
+        <v>29205640.66730941</v>
       </c>
       <c r="J81" t="n">
-        <v>31754295.02162829</v>
+        <v>31982459.94409093</v>
       </c>
       <c r="K81" t="n">
-        <v>33850376.23270214</v>
+        <v>32977971.80872961</v>
       </c>
       <c r="L81" t="n">
-        <v>36281616.47227902</v>
+        <v>32662388.3334263</v>
       </c>
       <c r="M81" t="n">
-        <v>39520274.01259478</v>
+        <v>34248738.20782022</v>
       </c>
       <c r="N81" t="n">
-        <v>39601606.71984612</v>
+        <v>35314792.07904812</v>
       </c>
       <c r="O81" t="n">
-        <v>40834278.29724447</v>
+        <v>36208717.02412791</v>
       </c>
       <c r="P81" t="n">
-        <v>40206112.956507</v>
+        <v>37335778.77809796</v>
       </c>
       <c r="Q81" t="n">
-        <v>42860093.39855575</v>
+        <v>39149106.30854135</v>
       </c>
       <c r="R81" t="n">
-        <v>46935153.24434034</v>
+        <v>38546864.44877689</v>
       </c>
       <c r="S81" t="n">
-        <v>48668964.49866266</v>
+        <v>41763625.76398443</v>
       </c>
       <c r="T81" t="n">
-        <v>50466823.72679184</v>
+        <v>41121164.00630387</v>
       </c>
       <c r="U81" t="n">
-        <v>51744292.74111713</v>
+        <v>43118340.47394061</v>
       </c>
     </row>
     <row r="82">
@@ -5703,64 +5703,64 @@
         <v>22561132</v>
       </c>
       <c r="B82" t="n">
-        <v>22738727.84133373</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C82" t="n">
-        <v>22917721.67470345</v>
+        <v>25044320.76574</v>
       </c>
       <c r="D82" t="n">
-        <v>23897553.51590907</v>
+        <v>26551879.05230374</v>
       </c>
       <c r="E82" t="n">
-        <v>25752885.47434883</v>
+        <v>27069621.68678414</v>
       </c>
       <c r="F82" t="n">
-        <v>26404769.44075513</v>
+        <v>29013846.85765395</v>
       </c>
       <c r="G82" t="n">
-        <v>27533687.67377052</v>
+        <v>30254314.44821608</v>
       </c>
       <c r="H82" t="n">
-        <v>28390723.46164959</v>
+        <v>32603165.61572547</v>
       </c>
       <c r="I82" t="n">
-        <v>28449151.55856066</v>
+        <v>33997092.12586585</v>
       </c>
       <c r="J82" t="n">
-        <v>31154045.22467752</v>
+        <v>37031822.91980307</v>
       </c>
       <c r="K82" t="n">
-        <v>32486015.56303768</v>
+        <v>36677446.02113781</v>
       </c>
       <c r="L82" t="n">
-        <v>34063799.34853154</v>
+        <v>39311735.28393639</v>
       </c>
       <c r="M82" t="n">
-        <v>37302523.53023717</v>
+        <v>42135227.46768253</v>
       </c>
       <c r="N82" t="n">
-        <v>37596160.08403348</v>
+        <v>44916547.55553763</v>
       </c>
       <c r="O82" t="n">
-        <v>37236382.74762864</v>
+        <v>45792388.07956828</v>
       </c>
       <c r="P82" t="n">
-        <v>37313015.20761985</v>
+        <v>47483984.93877795</v>
       </c>
       <c r="Q82" t="n">
-        <v>39776024.07152107</v>
+        <v>47305646.39504465</v>
       </c>
       <c r="R82" t="n">
-        <v>41245373.02258079</v>
+        <v>51253333.85265043</v>
       </c>
       <c r="S82" t="n">
-        <v>41570046.7456488</v>
+        <v>54636534.45654553</v>
       </c>
       <c r="T82" t="n">
-        <v>41897276.22270146</v>
+        <v>59831276.93193634</v>
       </c>
       <c r="U82" t="n">
-        <v>41252758.48192433</v>
+        <v>59606564.89878447</v>
       </c>
     </row>
     <row r="83">
@@ -5771,61 +5771,61 @@
         <v>22345232.71775694</v>
       </c>
       <c r="C83" t="n">
-        <v>23690317.73978446</v>
+        <v>22910858.61427374</v>
       </c>
       <c r="D83" t="n">
-        <v>24565451.55051007</v>
+        <v>22824810.88331314</v>
       </c>
       <c r="E83" t="n">
-        <v>25472913.30191961</v>
+        <v>23800670.38585927</v>
       </c>
       <c r="F83" t="n">
-        <v>26265803.76323194</v>
+        <v>25510109.21670761</v>
       </c>
       <c r="G83" t="n">
-        <v>28763108.68596015</v>
+        <v>25265989.62776903</v>
       </c>
       <c r="H83" t="n">
-        <v>29491190.57002923</v>
+        <v>27374453.16137354</v>
       </c>
       <c r="I83" t="n">
-        <v>29894792.92593692</v>
+        <v>28067383.94471485</v>
       </c>
       <c r="J83" t="n">
-        <v>30651521.18486796</v>
+        <v>29593740.30111749</v>
       </c>
       <c r="K83" t="n">
-        <v>33031210.25183544</v>
+        <v>29654644.20617685</v>
       </c>
       <c r="L83" t="n">
-        <v>33675295.2065075</v>
+        <v>30922508.65820519</v>
       </c>
       <c r="M83" t="n">
-        <v>36877081.11991863</v>
+        <v>33503012.44348884</v>
       </c>
       <c r="N83" t="n">
-        <v>36738579.58192555</v>
+        <v>33766740.15369929</v>
       </c>
       <c r="O83" t="n">
-        <v>39590848.98936309</v>
+        <v>35603038.06340528</v>
       </c>
       <c r="P83" t="n">
-        <v>41283529.22218746</v>
+        <v>36504259.39225421</v>
       </c>
       <c r="Q83" t="n">
-        <v>44728667.02149259</v>
+        <v>39975018.08300622</v>
       </c>
       <c r="R83" t="n">
-        <v>48461303.84716058</v>
+        <v>43543364.98501664</v>
       </c>
       <c r="S83" t="n">
-        <v>49688007.04516043</v>
+        <v>47177087.57233355</v>
       </c>
       <c r="T83" t="n">
-        <v>50945761.83724716</v>
+        <v>50291217.70138226</v>
       </c>
       <c r="U83" t="n">
-        <v>53420100.27405742</v>
+        <v>54780434.20430981</v>
       </c>
     </row>
     <row r="84">
@@ -5833,64 +5833,64 @@
         <v>22561132</v>
       </c>
       <c r="B84" t="n">
-        <v>23394553.04729505</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C84" t="n">
-        <v>23714719.73242343</v>
+        <v>22910858.61427374</v>
       </c>
       <c r="D84" t="n">
-        <v>23763524.61563173</v>
+        <v>23357603.95662016</v>
       </c>
       <c r="E84" t="n">
-        <v>23536119.00903007</v>
+        <v>24763629.28781009</v>
       </c>
       <c r="F84" t="n">
-        <v>25773890.4624758</v>
+        <v>26974140.35420175</v>
       </c>
       <c r="G84" t="n">
-        <v>27025679.14003397</v>
+        <v>28284222.87866248</v>
       </c>
       <c r="H84" t="n">
-        <v>27552660.53705752</v>
+        <v>29329058.15791448</v>
       </c>
       <c r="I84" t="n">
-        <v>28089917.69408583</v>
+        <v>31606075.29588602</v>
       </c>
       <c r="J84" t="n">
-        <v>29290883.31205521</v>
+        <v>32222371.13909333</v>
       </c>
       <c r="K84" t="n">
-        <v>31735226.88380497</v>
+        <v>31726685.22054672</v>
       </c>
       <c r="L84" t="n">
-        <v>32723043.1726413</v>
+        <v>32898687.01654296</v>
       </c>
       <c r="M84" t="n">
-        <v>35263558.7837974</v>
+        <v>33731452.98380767</v>
       </c>
       <c r="N84" t="n">
-        <v>35541145.09421081</v>
+        <v>36742471.65314627</v>
       </c>
       <c r="O84" t="n">
-        <v>36234171.98158398</v>
+        <v>37886147.48454884</v>
       </c>
       <c r="P84" t="n">
-        <v>38836623.91191941</v>
+        <v>40827510.50580753</v>
       </c>
       <c r="Q84" t="n">
-        <v>38916549.66755188</v>
+        <v>43285147.60279747</v>
       </c>
       <c r="R84" t="n">
-        <v>40580400.68447983</v>
+        <v>43122578.89255302</v>
       </c>
       <c r="S84" t="n">
-        <v>40192065.58760105</v>
+        <v>45467664.65212261</v>
       </c>
       <c r="T84" t="n">
-        <v>42845118.77158883</v>
+        <v>45825575.24620865</v>
       </c>
       <c r="U84" t="n">
-        <v>45424207.03862923</v>
+        <v>48584073.9232212</v>
       </c>
     </row>
     <row r="85">
@@ -5898,64 +5898,64 @@
         <v>22561132</v>
       </c>
       <c r="B85" t="n">
-        <v>22738727.84133373</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C85" t="n">
-        <v>23049919.21576514</v>
+        <v>25044320.76574</v>
       </c>
       <c r="D85" t="n">
-        <v>23365369.40679334</v>
+        <v>27425489.30329749</v>
       </c>
       <c r="E85" t="n">
-        <v>23005933.2701232</v>
+        <v>29076383.49400003</v>
       </c>
       <c r="F85" t="n">
-        <v>24658291.58752673</v>
+        <v>30488567.95622236</v>
       </c>
       <c r="G85" t="n">
-        <v>25855897.75653459</v>
+        <v>32855605.83976907</v>
       </c>
       <c r="H85" t="n">
-        <v>28163909.53695828</v>
+        <v>33496266.63411145</v>
       </c>
       <c r="I85" t="n">
-        <v>29368038.6266141</v>
+        <v>36291552.22357022</v>
       </c>
       <c r="J85" t="n">
-        <v>31818820.86035842</v>
+        <v>38898125.38293763</v>
       </c>
       <c r="K85" t="n">
-        <v>34104148.41830907</v>
+        <v>42596488.50478853</v>
       </c>
       <c r="L85" t="n">
-        <v>33777787.96950607</v>
+        <v>44912964.49406429</v>
       </c>
       <c r="M85" t="n">
-        <v>33847302.64290246</v>
+        <v>49183207.59556621</v>
       </c>
       <c r="N85" t="n">
-        <v>36671882.4193067</v>
+        <v>49570366.05607369</v>
       </c>
       <c r="O85" t="n">
-        <v>40158578.40306501</v>
+        <v>54283426.44018279</v>
       </c>
       <c r="P85" t="n">
-        <v>42575948.72084896</v>
+        <v>56919868.87776563</v>
       </c>
       <c r="Q85" t="n">
-        <v>41920990.76761246</v>
+        <v>57367928.48762706</v>
       </c>
       <c r="R85" t="n">
-        <v>43713294.65156845</v>
+        <v>58820085.48200645</v>
       </c>
       <c r="S85" t="n">
-        <v>47361197.98187152</v>
+        <v>60650966.94261836</v>
       </c>
       <c r="T85" t="n">
-        <v>48835400.86047673</v>
+        <v>63596668.67174845</v>
       </c>
       <c r="U85" t="n">
-        <v>49503738.84405803</v>
+        <v>69643324.4365873</v>
       </c>
     </row>
     <row r="86">
@@ -5963,64 +5963,64 @@
         <v>22561132</v>
       </c>
       <c r="B86" t="n">
-        <v>23132222.96491052</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C86" t="n">
-        <v>23717769.9815033</v>
+        <v>23446511.83895021</v>
       </c>
       <c r="D86" t="n">
-        <v>25007586.26941496</v>
+        <v>23085827.46512077</v>
       </c>
       <c r="E86" t="n">
-        <v>26076768.87169413</v>
+        <v>24743924.03430771</v>
       </c>
       <c r="F86" t="n">
-        <v>27040059.54448121</v>
+        <v>25945689.20785034</v>
       </c>
       <c r="G86" t="n">
-        <v>28510548.09605129</v>
+        <v>25848243.37563026</v>
       </c>
       <c r="H86" t="n">
-        <v>30889772.17827497</v>
+        <v>25751163.52675875</v>
       </c>
       <c r="I86" t="n">
-        <v>33287958.31365171</v>
+        <v>27750404.01915467</v>
       </c>
       <c r="J86" t="n">
-        <v>35098219.17956601</v>
+        <v>29259522.41974412</v>
       </c>
       <c r="K86" t="n">
-        <v>37619083.41517272</v>
+        <v>30680601.59012083</v>
       </c>
       <c r="L86" t="n">
-        <v>37477795.0931944</v>
+        <v>33419287.77179047</v>
       </c>
       <c r="M86" t="n">
-        <v>38426472.23237745</v>
+        <v>33293772.88247549</v>
       </c>
       <c r="N86" t="n">
-        <v>40516175.00843768</v>
+        <v>36265722.29034641</v>
       </c>
       <c r="O86" t="n">
-        <v>42483968.31489902</v>
+        <v>38448759.74096961</v>
       </c>
       <c r="P86" t="n">
-        <v>43065383.62465008</v>
+        <v>39869078.7928024</v>
       </c>
       <c r="Q86" t="n">
-        <v>43905127.77717555</v>
+        <v>40182918.65648515</v>
       </c>
       <c r="R86" t="n">
-        <v>47569039.70859967</v>
+        <v>41667298.52492701</v>
       </c>
       <c r="S86" t="n">
-        <v>48773156.98370142</v>
+        <v>43448755.96695572</v>
       </c>
       <c r="T86" t="n">
-        <v>50574865.14148544</v>
+        <v>47074583.36918508</v>
       </c>
       <c r="U86" t="n">
-        <v>53031189.83353434</v>
+        <v>50729308.06294684</v>
       </c>
     </row>
     <row r="87">
@@ -6031,61 +6031,61 @@
         <v>24050378.25325636</v>
       </c>
       <c r="C87" t="n">
-        <v>23680404.43027487</v>
+        <v>24099873.92155898</v>
       </c>
       <c r="D87" t="n">
-        <v>24555172.03770919</v>
+        <v>24429693.29147294</v>
       </c>
       <c r="E87" t="n">
-        <v>24891222.40029475</v>
+        <v>25474168.4665203</v>
       </c>
       <c r="F87" t="n">
-        <v>25666006.68105899</v>
+        <v>27896206.14285833</v>
       </c>
       <c r="G87" t="n">
-        <v>28106283.98645438</v>
+        <v>29899799.20308929</v>
       </c>
       <c r="H87" t="n">
-        <v>30124965.49661225</v>
+        <v>32742617.81285081</v>
       </c>
       <c r="I87" t="n">
-        <v>29836683.93218032</v>
+        <v>33571433.1932332</v>
       </c>
       <c r="J87" t="n">
-        <v>31979648.19623403</v>
+        <v>34226052.10854644</v>
       </c>
       <c r="K87" t="n">
-        <v>34648370.9746663</v>
+        <v>34495471.41426875</v>
       </c>
       <c r="L87" t="n">
-        <v>37539800.43281002</v>
+        <v>34566463.0798918</v>
       </c>
       <c r="M87" t="n">
-        <v>36962314.98398103</v>
+        <v>34034717.32695819</v>
       </c>
       <c r="N87" t="n">
-        <v>39617064.42957668</v>
+        <v>33709021.3006136</v>
       </c>
       <c r="O87" t="n">
-        <v>39007623.83666917</v>
+        <v>35150227.92992166</v>
       </c>
       <c r="P87" t="n">
-        <v>41582492.75934526</v>
+        <v>37879182.6399262</v>
       </c>
       <c r="Q87" t="n">
-        <v>41184568.11883432</v>
+        <v>39498681.7243579</v>
       </c>
       <c r="R87" t="n">
-        <v>41748200.45779777</v>
+        <v>40268877.74303469</v>
       </c>
       <c r="S87" t="n">
-        <v>43290402.72620439</v>
+        <v>39649410.12016071</v>
       </c>
       <c r="T87" t="n">
-        <v>47406375.60141384</v>
+        <v>39269984.15933998</v>
       </c>
       <c r="U87" t="n">
-        <v>47228328.53987656</v>
+        <v>39807414.4162003</v>
       </c>
     </row>
     <row r="88">
@@ -6093,64 +6093,64 @@
         <v>22561132</v>
       </c>
       <c r="B88" t="n">
-        <v>23001057.92371826</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C88" t="n">
-        <v>24920511.40964796</v>
+        <v>26341619.9153607</v>
       </c>
       <c r="D88" t="n">
-        <v>25406443.54290354</v>
+        <v>28539845.50738603</v>
       </c>
       <c r="E88" t="n">
-        <v>25163315.98506373</v>
+        <v>28266732.78589793</v>
       </c>
       <c r="F88" t="n">
-        <v>26824330.78034359</v>
+        <v>28817913.84061332</v>
       </c>
       <c r="G88" t="n">
-        <v>28750938.3886185</v>
+        <v>29379842.53133526</v>
       </c>
       <c r="H88" t="n">
-        <v>30648769.90136594</v>
+        <v>32173224.60499525</v>
       </c>
       <c r="I88" t="n">
-        <v>31780952.89242779</v>
+        <v>32800579.45373899</v>
       </c>
       <c r="J88" t="n">
-        <v>32585425.60475057</v>
+        <v>33249472.52610346</v>
       </c>
       <c r="K88" t="n">
-        <v>32084154.71588893</v>
+        <v>34864335.95945103</v>
       </c>
       <c r="L88" t="n">
-        <v>34388539.38393056</v>
+        <v>35746858.48819859</v>
       </c>
       <c r="M88" t="n">
-        <v>37458212.49128251</v>
+        <v>38314310.034306</v>
       </c>
       <c r="N88" t="n">
-        <v>37970847.70598071</v>
+        <v>41957165.05302612</v>
       </c>
       <c r="O88" t="n">
-        <v>37607484.78758275</v>
+        <v>44726731.35193691</v>
       </c>
       <c r="P88" t="n">
-        <v>38778085.71605118</v>
+        <v>48199176.09480797</v>
       </c>
       <c r="Q88" t="n">
-        <v>40210570.25670138</v>
+        <v>51100555.13426962</v>
       </c>
       <c r="R88" t="n">
-        <v>39825774.26078212</v>
+        <v>51502806.49655461</v>
       </c>
       <c r="S88" t="n">
-        <v>41528498.56624632</v>
+        <v>50710524.1460171</v>
       </c>
       <c r="T88" t="n">
-        <v>42579711.34747923</v>
+        <v>52288980.85440215</v>
       </c>
       <c r="U88" t="n">
-        <v>44400178.38865357</v>
+        <v>56652530.86629956</v>
       </c>
     </row>
     <row r="89">
@@ -6158,64 +6158,64 @@
         <v>22561132</v>
       </c>
       <c r="B89" t="n">
-        <v>23263388.00610278</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C89" t="n">
-        <v>25069485.32064895</v>
+        <v>24118175.41603821</v>
       </c>
       <c r="D89" t="n">
-        <v>27161550.4399478</v>
+        <v>24868897.21236267</v>
       </c>
       <c r="E89" t="n">
-        <v>28638645.89157331</v>
+        <v>25064659.23013162</v>
       </c>
       <c r="F89" t="n">
-        <v>28531085.95511511</v>
+        <v>27010601.65750634</v>
       </c>
       <c r="G89" t="n">
-        <v>28258057.05836807</v>
+        <v>27851355.44780523</v>
       </c>
       <c r="H89" t="n">
-        <v>30123353.78188704</v>
+        <v>29527884.91291288</v>
       </c>
       <c r="I89" t="n">
-        <v>30010217.63603174</v>
+        <v>31305334.09995801</v>
       </c>
       <c r="J89" t="n">
-        <v>30246450.89993354</v>
+        <v>31369760.46433357</v>
       </c>
       <c r="K89" t="n">
-        <v>31539617.65079472</v>
+        <v>33622835.09554241</v>
       </c>
       <c r="L89" t="n">
-        <v>31421162.35499341</v>
+        <v>34669406.60126509</v>
       </c>
       <c r="M89" t="n">
-        <v>33129903.3969292</v>
+        <v>34539196.56322091</v>
       </c>
       <c r="N89" t="n">
-        <v>34353740.87041467</v>
+        <v>36015896.77987722</v>
       </c>
       <c r="O89" t="n">
-        <v>34424440.85463825</v>
+        <v>35461853.9752509</v>
       </c>
       <c r="P89" t="n">
-        <v>37297183.19626246</v>
+        <v>38215002.36518994</v>
       </c>
       <c r="Q89" t="n">
-        <v>39542310.07029328</v>
+        <v>38515821.73438721</v>
       </c>
       <c r="R89" t="n">
-        <v>40543246.37139886</v>
+        <v>38371165.47675302</v>
       </c>
       <c r="S89" t="n">
-        <v>40155266.82359122</v>
+        <v>42019426.20769069</v>
       </c>
       <c r="T89" t="n">
-        <v>42338984.65350939</v>
+        <v>41617320.32228984</v>
       </c>
       <c r="U89" t="n">
-        <v>42918415.78608163</v>
+        <v>45332266.38519479</v>
       </c>
     </row>
     <row r="90">
@@ -6223,64 +6223,64 @@
         <v>22561132</v>
       </c>
       <c r="B90" t="n">
-        <v>23656883.12967957</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C90" t="n">
-        <v>24393246.36994114</v>
+        <v>24625613.83672586</v>
       </c>
       <c r="D90" t="n">
-        <v>24017998.10900394</v>
+        <v>24676293.33961667</v>
       </c>
       <c r="E90" t="n">
-        <v>23927792.22565881</v>
+        <v>25157463.39532902</v>
       </c>
       <c r="F90" t="n">
-        <v>24533477.52329059</v>
+        <v>24916718.45885564</v>
       </c>
       <c r="G90" t="n">
-        <v>26866076.01305471</v>
+        <v>26416595.64610238</v>
       </c>
       <c r="H90" t="n">
-        <v>28170910.05867627</v>
+        <v>26163801.41400008</v>
       </c>
       <c r="I90" t="n">
-        <v>28228885.77969672</v>
+        <v>28651408.13860107</v>
       </c>
       <c r="J90" t="n">
-        <v>29764024.90519822</v>
+        <v>28543800.27018113</v>
       </c>
       <c r="K90" t="n">
-        <v>31036565.85575619</v>
+        <v>30427958.72491049</v>
       </c>
       <c r="L90" t="n">
-        <v>31280878.2876529</v>
+        <v>31375083.92979896</v>
       </c>
       <c r="M90" t="n">
-        <v>31163394.75530592</v>
+        <v>32898911.88576626</v>
       </c>
       <c r="N90" t="n">
-        <v>31952235.19029362</v>
+        <v>32775351.40440223</v>
       </c>
       <c r="O90" t="n">
-        <v>32761043.57924647</v>
+        <v>35510476.14146394</v>
       </c>
       <c r="P90" t="n">
-        <v>34161720.05597945</v>
+        <v>38473848.84557207</v>
       </c>
       <c r="Q90" t="n">
-        <v>35622281.5173811</v>
+        <v>39224061.3567344</v>
       </c>
       <c r="R90" t="n">
-        <v>37559487.20533256</v>
+        <v>38620666.44210155</v>
       </c>
       <c r="S90" t="n">
-        <v>39820403.63046247</v>
+        <v>39149210.44664907</v>
       </c>
       <c r="T90" t="n">
-        <v>43374948.96266259</v>
+        <v>39684987.85213134</v>
       </c>
       <c r="U90" t="n">
-        <v>44977244.24602121</v>
+        <v>42304569.15103561</v>
       </c>
     </row>
     <row r="91">
@@ -6288,64 +6288,64 @@
         <v>22561132</v>
       </c>
       <c r="B91" t="n">
-        <v>23788048.17087183</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C91" t="n">
-        <v>24943388.277747</v>
+        <v>22653326.59258008</v>
       </c>
       <c r="D91" t="n">
-        <v>24994721.76030342</v>
+        <v>22831648.16772165</v>
       </c>
       <c r="E91" t="n">
-        <v>27225861.16278706</v>
+        <v>24471488.78218432</v>
       </c>
       <c r="F91" t="n">
-        <v>27440176.63770385</v>
+        <v>25090936.69558753</v>
       </c>
       <c r="G91" t="n">
-        <v>27496648.50965211</v>
+        <v>25726064.72231916</v>
       </c>
       <c r="H91" t="n">
-        <v>27233518.68632039</v>
+        <v>27872921.82664344</v>
       </c>
       <c r="I91" t="n">
-        <v>29664503.00341032</v>
+        <v>30360982.09577346</v>
       </c>
       <c r="J91" t="n">
-        <v>30760326.61547859</v>
+        <v>32541603.0991231</v>
       </c>
       <c r="K91" t="n">
-        <v>32254296.98178039</v>
+        <v>32608573.70457757</v>
       </c>
       <c r="L91" t="n">
-        <v>31758119.93889692</v>
+        <v>33244417.54912053</v>
       </c>
       <c r="M91" t="n">
-        <v>33485185.35873135</v>
+        <v>36405236.39734737</v>
       </c>
       <c r="N91" t="n">
-        <v>35111496.91456816</v>
+        <v>36268506.9958083</v>
       </c>
       <c r="O91" t="n">
-        <v>38041574.53849265</v>
+        <v>35710578.21623689</v>
       </c>
       <c r="P91" t="n">
-        <v>39004522.65252803</v>
+        <v>36822134.49957212</v>
       </c>
       <c r="Q91" t="n">
-        <v>42259475.84732075</v>
+        <v>40109041.06942345</v>
       </c>
       <c r="R91" t="n">
-        <v>45540370.52276322</v>
+        <v>39725216.659445</v>
       </c>
       <c r="S91" t="n">
-        <v>49340744.54209518</v>
+        <v>39114112.32996225</v>
       </c>
       <c r="T91" t="n">
-        <v>49729143.09581075</v>
+        <v>39876809.52074055</v>
       </c>
       <c r="U91" t="n">
-        <v>53300846.19722</v>
+        <v>42509052.84836171</v>
       </c>
     </row>
     <row r="92">
@@ -6356,61 +6356,61 @@
         <v>23525718.08848731</v>
       </c>
       <c r="C92" t="n">
-        <v>24121225.66511808</v>
+        <v>23437361.0917106</v>
       </c>
       <c r="D92" t="n">
-        <v>25292747.56711347</v>
+        <v>23349335.94278015</v>
       </c>
       <c r="E92" t="n">
-        <v>27403444.06844153</v>
+        <v>23533136.33725246</v>
       </c>
       <c r="F92" t="n">
-        <v>28893694.14388777</v>
+        <v>23171119.39407782</v>
       </c>
       <c r="G92" t="n">
-        <v>31640854.11172177</v>
+        <v>25104764.62210854</v>
       </c>
       <c r="H92" t="n">
-        <v>32073875.73667442</v>
+        <v>26178102.01977255</v>
       </c>
       <c r="I92" t="n">
-        <v>33631642.6772545</v>
+        <v>27906102.20834062</v>
       </c>
       <c r="J92" t="n">
-        <v>34482961.98464027</v>
+        <v>27639054.10822834</v>
       </c>
       <c r="K92" t="n">
-        <v>35756782.21188215</v>
+        <v>28017309.00867573</v>
       </c>
       <c r="L92" t="n">
-        <v>37285539.48747683</v>
+        <v>27586310.75931597</v>
       </c>
       <c r="M92" t="n">
-        <v>39096426.99144228</v>
+        <v>28926125.23219845</v>
       </c>
       <c r="N92" t="n">
-        <v>38494995.51262626</v>
+        <v>31340029.50110293</v>
       </c>
       <c r="O92" t="n">
-        <v>41036026.1593287</v>
+        <v>30857916.8954392</v>
       </c>
       <c r="P92" t="n">
-        <v>43267641.31424202</v>
+        <v>32536027.60541748</v>
       </c>
       <c r="Q92" t="n">
-        <v>44614424.84366897</v>
+        <v>33737926.96940894</v>
       </c>
       <c r="R92" t="n">
-        <v>47040639.95090931</v>
+        <v>33218926.82359409</v>
       </c>
       <c r="S92" t="n">
-        <v>51513178.57095861</v>
+        <v>36377322.0599294</v>
       </c>
       <c r="T92" t="n">
-        <v>52517648.67762225</v>
+        <v>36029208.42260556</v>
       </c>
       <c r="U92" t="n">
-        <v>53236380.14703135</v>
+        <v>37150682.64694428</v>
       </c>
     </row>
     <row r="93">
@@ -6418,64 +6418,64 @@
         <v>22561132</v>
       </c>
       <c r="B93" t="n">
-        <v>24050378.25325636</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C93" t="n">
-        <v>25777751.88669541</v>
+        <v>23179829.07001693</v>
       </c>
       <c r="D93" t="n">
-        <v>26729996.70199641</v>
+        <v>22958009.1516399</v>
       </c>
       <c r="E93" t="n">
-        <v>27095810.67673958</v>
+        <v>24740397.79878045</v>
       </c>
       <c r="F93" t="n">
-        <v>26994045.26207202</v>
+        <v>25222817.8455576</v>
       </c>
       <c r="G93" t="n">
-        <v>27834283.70464221</v>
+        <v>27474318.11335686</v>
       </c>
       <c r="H93" t="n">
-        <v>27729744.76107743</v>
+        <v>28968422.45071699</v>
       </c>
       <c r="I93" t="n">
-        <v>29076525.54972211</v>
+        <v>29701701.4514921</v>
       </c>
       <c r="J93" t="n">
-        <v>31164892.85345907</v>
+        <v>30626220.58624926</v>
       </c>
       <c r="K93" t="n">
-        <v>33222067.99498786</v>
+        <v>32113677.67861494</v>
       </c>
       <c r="L93" t="n">
-        <v>35415035.98466869</v>
+        <v>34233481.51475046</v>
       </c>
       <c r="M93" t="n">
-        <v>35899709.26105021</v>
+        <v>36294186.98239836</v>
       </c>
       <c r="N93" t="n">
-        <v>39312988.42319913</v>
+        <v>39322960.87416409</v>
       </c>
       <c r="O93" t="n">
-        <v>40308119.89497638</v>
+        <v>42147259.31502498</v>
       </c>
       <c r="P93" t="n">
-        <v>42968833.7514177</v>
+        <v>45909510.0760555</v>
       </c>
       <c r="Q93" t="n">
-        <v>46554611.32756321</v>
+        <v>49740689.03508682</v>
       </c>
       <c r="R93" t="n">
-        <v>50710281.82057118</v>
+        <v>49843055.35214427</v>
       </c>
       <c r="S93" t="n">
-        <v>55236905.84007187</v>
+        <v>52263837.43917756</v>
       </c>
       <c r="T93" t="n">
-        <v>60488730.53632524</v>
+        <v>56625289.21645633</v>
       </c>
       <c r="U93" t="n">
-        <v>59909882.2096284</v>
+        <v>61021501.09936921</v>
       </c>
     </row>
     <row r="94">
@@ -6483,64 +6483,64 @@
         <v>22561132</v>
       </c>
       <c r="B94" t="n">
-        <v>22214067.67656468</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C94" t="n">
-        <v>23422109.84631123</v>
+        <v>26054347.96513828</v>
       </c>
       <c r="D94" t="n">
-        <v>23606483.09956673</v>
+        <v>25956494.03649235</v>
       </c>
       <c r="E94" t="n">
-        <v>25576459.71656745</v>
+        <v>28122580.61938309</v>
       </c>
       <c r="F94" t="n">
-        <v>25629096.05987798</v>
+        <v>29488440.69604918</v>
       </c>
       <c r="G94" t="n">
-        <v>26277846.53918106</v>
+        <v>31434954.27617289</v>
       </c>
       <c r="H94" t="n">
-        <v>26331926.33627674</v>
+        <v>31316892.07109125</v>
       </c>
       <c r="I94" t="n">
-        <v>26539204.96979694</v>
+        <v>32837893.75952388</v>
       </c>
       <c r="J94" t="n">
-        <v>28753919.16520578</v>
+        <v>35769149.38077292</v>
       </c>
       <c r="K94" t="n">
-        <v>30986284.29505412</v>
+        <v>38546155.23319937</v>
       </c>
       <c r="L94" t="n">
-        <v>32311082.12722503</v>
+        <v>40866464.74690259</v>
       </c>
       <c r="M94" t="n">
-        <v>33880369.72955262</v>
+        <v>44751974.00094648</v>
       </c>
       <c r="N94" t="n">
-        <v>35722847.02618404</v>
+        <v>44063541.63066322</v>
       </c>
       <c r="O94" t="n">
-        <v>37457837.53926253</v>
+        <v>47484498.37985456</v>
       </c>
       <c r="P94" t="n">
-        <v>40801489.77380794</v>
+        <v>49790729.85538483</v>
       </c>
       <c r="Q94" t="n">
-        <v>44680821.32540549</v>
+        <v>53366856.31111878</v>
       </c>
       <c r="R94" t="n">
-        <v>48409465.39611213</v>
+        <v>54717733.98272488</v>
       </c>
       <c r="S94" t="n">
-        <v>53012149.45368449</v>
+        <v>54194111.34300818</v>
       </c>
       <c r="T94" t="n">
-        <v>57744248.35803457</v>
+        <v>53675499.52243304</v>
       </c>
       <c r="U94" t="n">
-        <v>62563044.04868525</v>
+        <v>57530642.32560986</v>
       </c>
     </row>
     <row r="95">
@@ -6551,61 +6551,61 @@
         <v>22214067.67656468</v>
       </c>
       <c r="C95" t="n">
-        <v>23551257.13829305</v>
+        <v>24326140.89018396</v>
       </c>
       <c r="D95" t="n">
-        <v>25516625.11232474</v>
+        <v>24659056.84181727</v>
       </c>
       <c r="E95" t="n">
-        <v>25124095.59603266</v>
+        <v>26143423.92960757</v>
       </c>
       <c r="F95" t="n">
-        <v>26198259.47654</v>
+        <v>25741252.18847277</v>
       </c>
       <c r="G95" t="n">
-        <v>27166038.08136556</v>
+        <v>25345267.16985003</v>
       </c>
       <c r="H95" t="n">
-        <v>28959251.31324121</v>
+        <v>25397427.71899691</v>
       </c>
       <c r="I95" t="n">
-        <v>29523935.98350362</v>
+        <v>27073896.08383186</v>
       </c>
       <c r="J95" t="n">
-        <v>29756341.3544076</v>
+        <v>27444416.5013473</v>
       </c>
       <c r="K95" t="n">
-        <v>29644583.61986156</v>
+        <v>29894226.49009369</v>
       </c>
       <c r="L95" t="n">
-        <v>30567324.85888555</v>
+        <v>30129546.69940452</v>
       </c>
       <c r="M95" t="n">
-        <v>30452521.26335361</v>
+        <v>32643877.28513024</v>
       </c>
       <c r="N95" t="n">
-        <v>33347891.6828538</v>
+        <v>34229328.11323154</v>
       </c>
       <c r="O95" t="n">
-        <v>34967535.14683951</v>
+        <v>37284789.3184554</v>
       </c>
       <c r="P95" t="n">
-        <v>38292184.88705096</v>
+        <v>37361521.39914895</v>
       </c>
       <c r="Q95" t="n">
-        <v>40151963.23717476</v>
+        <v>37872833.34571772</v>
       </c>
       <c r="R95" t="n">
-        <v>43969538.98521882</v>
+        <v>41033346.31988448</v>
       </c>
       <c r="S95" t="n">
-        <v>45082541.93408412</v>
+        <v>40879234.83921099</v>
       </c>
       <c r="T95" t="n">
-        <v>46747916.6729681</v>
+        <v>41676350.65536487</v>
       </c>
       <c r="U95" t="n">
-        <v>48474811.3018567</v>
+        <v>41519824.20347632</v>
       </c>
     </row>
     <row r="96">
@@ -6613,64 +6613,64 @@
         <v>22561132</v>
       </c>
       <c r="B96" t="n">
-        <v>23656883.12967957</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C96" t="n">
-        <v>23705568.98518381</v>
+        <v>24239697.08532035</v>
       </c>
       <c r="D96" t="n">
-        <v>25545995.85992354</v>
+        <v>24289582.37169952</v>
       </c>
       <c r="E96" t="n">
-        <v>26489679.47578875</v>
+        <v>24763211.84036273</v>
       </c>
       <c r="F96" t="n">
-        <v>27468223.30112615</v>
+        <v>26973685.64354908</v>
       </c>
       <c r="G96" t="n">
-        <v>27844140.29269717</v>
+        <v>29381476.11413998</v>
       </c>
       <c r="H96" t="n">
-        <v>30005873.01173597</v>
+        <v>30808478.34273924</v>
       </c>
       <c r="I96" t="n">
-        <v>30242072.07579323</v>
+        <v>30871882.17817598</v>
       </c>
       <c r="J96" t="n">
-        <v>31886692.00312942</v>
+        <v>32550752.34611144</v>
       </c>
       <c r="K96" t="n">
-        <v>33249986.16381684</v>
+        <v>32617741.78071235</v>
       </c>
       <c r="L96" t="n">
-        <v>35831411.99497321</v>
+        <v>34201923.25723632</v>
       </c>
       <c r="M96" t="n">
-        <v>36530098.87912503</v>
+        <v>33675785.32428776</v>
       </c>
       <c r="N96" t="n">
-        <v>37030032.3739816</v>
+        <v>33549307.09122556</v>
       </c>
       <c r="O96" t="n">
-        <v>38182659.0525015</v>
+        <v>33033208.5387531</v>
       </c>
       <c r="P96" t="n">
-        <v>41147042.31253499</v>
+        <v>35597804.42723823</v>
       </c>
       <c r="Q96" t="n">
-        <v>43384694.73160672</v>
+        <v>35464107.54796743</v>
       </c>
       <c r="R96" t="n">
-        <v>46500719.64335766</v>
+        <v>36980351.7143234</v>
       </c>
       <c r="S96" t="n">
-        <v>48488826.76815225</v>
+        <v>38991411.77650607</v>
       </c>
       <c r="T96" t="n">
-        <v>52535251.40989873</v>
+        <v>40885150.24237329</v>
       </c>
       <c r="U96" t="n">
-        <v>53254223.78189874</v>
+        <v>40493898.83744697</v>
       </c>
     </row>
     <row r="97">
@@ -6678,64 +6678,64 @@
         <v>22561132</v>
       </c>
       <c r="B97" t="n">
-        <v>24050378.25325636</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C97" t="n">
-        <v>24659166.57660446</v>
+        <v>24798989.74036583</v>
       </c>
       <c r="D97" t="n">
-        <v>24279827.5893414</v>
+        <v>24417499.8135253</v>
       </c>
       <c r="E97" t="n">
-        <v>24047481.20931384</v>
+        <v>24325793.4968805</v>
       </c>
       <c r="F97" t="n">
-        <v>25215421.48381132</v>
+        <v>24800129.05656318</v>
       </c>
       <c r="G97" t="n">
-        <v>26733279.28329768</v>
+        <v>25716259.92851469</v>
       </c>
       <c r="H97" t="n">
-        <v>27099138.18188153</v>
+        <v>28161315.22141754</v>
       </c>
       <c r="I97" t="n">
-        <v>27627551.97763579</v>
+        <v>28710440.70908824</v>
       </c>
       <c r="J97" t="n">
-        <v>28808749.4590648</v>
+        <v>31273261.61755909</v>
       </c>
       <c r="K97" t="n">
-        <v>31380345.84132508</v>
+        <v>32792144.25812008</v>
       </c>
       <c r="L97" t="n">
-        <v>30897613.03790964</v>
+        <v>33812859.0102989</v>
       </c>
       <c r="M97" t="n">
-        <v>30422306.25078706</v>
+        <v>35651664.94889919</v>
       </c>
       <c r="N97" t="n">
-        <v>32430463.71378147</v>
+        <v>36761387.45032015</v>
       </c>
       <c r="O97" t="n">
-        <v>32685748.57661956</v>
+        <v>38760539.83001824</v>
       </c>
       <c r="P97" t="n">
-        <v>32182934.39088981</v>
+        <v>39967031.68048994</v>
       </c>
       <c r="Q97" t="n">
-        <v>31687855.13908021</v>
+        <v>40746360.18804516</v>
       </c>
       <c r="R97" t="n">
-        <v>32858422.52978321</v>
+        <v>42488443.52827301</v>
       </c>
       <c r="S97" t="n">
-        <v>34263262.37832746</v>
+        <v>45540096.86626846</v>
       </c>
       <c r="T97" t="n">
-        <v>37321752.70612671</v>
+        <v>45104299.84036095</v>
       </c>
       <c r="U97" t="n">
-        <v>39134399.01701926</v>
+        <v>47819380.90085472</v>
       </c>
     </row>
     <row r="98">
@@ -6743,64 +6743,64 @@
         <v>22561132</v>
       </c>
       <c r="B98" t="n">
-        <v>23656883.12967957</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C98" t="n">
-        <v>25218459.23164993</v>
+        <v>25219984.35618987</v>
       </c>
       <c r="D98" t="n">
-        <v>27176342.21427166</v>
+        <v>26151624.92169431</v>
       </c>
       <c r="E98" t="n">
-        <v>28654242.06999861</v>
+        <v>27269720.13033918</v>
       </c>
       <c r="F98" t="n">
-        <v>28213445.69783182</v>
+        <v>27008761.9034599</v>
       </c>
       <c r="G98" t="n">
-        <v>28107482.71208122</v>
+        <v>28163503.42969818</v>
       </c>
       <c r="H98" t="n">
-        <v>29799429.91533741</v>
+        <v>29203879.26384855</v>
       </c>
       <c r="I98" t="n">
-        <v>29687510.35041388</v>
+        <v>28924412.05574136</v>
       </c>
       <c r="J98" t="n">
-        <v>31992356.60519749</v>
+        <v>30833694.45707016</v>
       </c>
       <c r="K98" t="n">
-        <v>34476143.97681733</v>
+        <v>30359370.9476933</v>
       </c>
       <c r="L98" t="n">
-        <v>34346659.78718387</v>
+        <v>32186871.94782693</v>
       </c>
       <c r="M98" t="n">
-        <v>34816711.77693823</v>
+        <v>32440239.31447659</v>
       </c>
       <c r="N98" t="n">
-        <v>35495612.73320682</v>
+        <v>33261400.57411695</v>
       </c>
       <c r="O98" t="n">
-        <v>38251382.04844145</v>
+        <v>33716600.22435236</v>
       </c>
       <c r="P98" t="n">
-        <v>39664409.85605744</v>
+        <v>35746191.70492918</v>
       </c>
       <c r="Q98" t="n">
-        <v>40899036.29456854</v>
+        <v>35611937.51836738</v>
       </c>
       <c r="R98" t="n">
-        <v>42409869.95583949</v>
+        <v>36513384.11952629</v>
       </c>
       <c r="S98" t="n">
-        <v>41757466.83957727</v>
+        <v>39772730.26501851</v>
       </c>
       <c r="T98" t="n">
-        <v>42328939.59694767</v>
+        <v>43323020.06178554</v>
       </c>
       <c r="U98" t="n">
-        <v>45861317.58297445</v>
+        <v>46938354.71962523</v>
       </c>
     </row>
     <row r="99">
@@ -6808,64 +6808,64 @@
         <v>22561132</v>
       </c>
       <c r="B99" t="n">
-        <v>22738727.84133373</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C99" t="n">
-        <v>23843104.46213528</v>
+        <v>23040768.46852553</v>
       </c>
       <c r="D99" t="n">
-        <v>24723882.30127907</v>
+        <v>24963535.82566548</v>
       </c>
       <c r="E99" t="n">
-        <v>24487286.52926249</v>
+        <v>24724646.68362198</v>
       </c>
       <c r="F99" t="n">
-        <v>24822407.84318601</v>
+        <v>25925475.59302719</v>
       </c>
       <c r="G99" t="n">
-        <v>26893854.18368851</v>
+        <v>27787524.60124599</v>
       </c>
       <c r="H99" t="n">
-        <v>26480138.360084</v>
+        <v>29621761.77071401</v>
       </c>
       <c r="I99" t="n">
-        <v>28843872.61745965</v>
+        <v>32093717.36852788</v>
       </c>
       <c r="J99" t="n">
-        <v>30244764.47008988</v>
+        <v>31786595.78684587</v>
       </c>
       <c r="K99" t="n">
-        <v>30834515.7266822</v>
+        <v>34808807.58934105</v>
       </c>
       <c r="L99" t="n">
-        <v>31077237.66823187</v>
+        <v>35487554.41960967</v>
       </c>
       <c r="M99" t="n">
-        <v>31502545.90759296</v>
+        <v>36385852.5057079</v>
       </c>
       <c r="N99" t="n">
-        <v>32483119.58054234</v>
+        <v>39422275.94597873</v>
       </c>
       <c r="O99" t="n">
-        <v>33116517.15947236</v>
+        <v>42941282.64035805</v>
       </c>
       <c r="P99" t="n">
-        <v>33954797.07109554</v>
+        <v>45276509.17373559</v>
       </c>
       <c r="Q99" t="n">
-        <v>36196132.05012979</v>
+        <v>45369688.21052102</v>
       </c>
       <c r="R99" t="n">
-        <v>38585416.15334005</v>
+        <v>49683355.77356675</v>
       </c>
       <c r="S99" t="n">
-        <v>41581068.22589766</v>
+        <v>52674075.92131365</v>
       </c>
       <c r="T99" t="n">
-        <v>42150126.8760488</v>
+        <v>55844824.30714703</v>
       </c>
       <c r="U99" t="n">
-        <v>43217074.96308377</v>
+        <v>59531106.33249835</v>
       </c>
     </row>
     <row r="100">
@@ -6873,64 +6873,64 @@
         <v>22561132</v>
       </c>
       <c r="B100" t="n">
-        <v>22738727.84133373</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C100" t="n">
-        <v>22785524.13364176</v>
+        <v>25906136.61640726</v>
       </c>
       <c r="D100" t="n">
-        <v>23759703.95751774</v>
+        <v>26863124.03664019</v>
       </c>
       <c r="E100" t="n">
-        <v>26018733.46183217</v>
+        <v>28323990.50737799</v>
       </c>
       <c r="F100" t="n">
-        <v>27131146.98511383</v>
+        <v>29040956.97293366</v>
       </c>
       <c r="G100" t="n">
-        <v>27186982.87416738</v>
+        <v>30789095.23325247</v>
       </c>
       <c r="H100" t="n">
-        <v>27084875.03843008</v>
+        <v>30494458.26371688</v>
       </c>
       <c r="I100" t="n">
-        <v>27455545.70867712</v>
+        <v>32507378.43608779</v>
       </c>
       <c r="J100" t="n">
-        <v>27512049.21016696</v>
+        <v>33708219.48347054</v>
       </c>
       <c r="K100" t="n">
-        <v>27088823.51628574</v>
+        <v>36129249.57924627</v>
       </c>
       <c r="L100" t="n">
-        <v>27617036.18344458</v>
+        <v>36413650.40079115</v>
       </c>
       <c r="M100" t="n">
-        <v>27192195.44503234</v>
+        <v>36488589.67795953</v>
       </c>
       <c r="N100" t="n">
-        <v>29619491.06685451</v>
+        <v>36987955.09770423</v>
       </c>
       <c r="O100" t="n">
-        <v>32091257.17293051</v>
+        <v>36633997.99319224</v>
       </c>
       <c r="P100" t="n">
-        <v>34396151.96172355</v>
+        <v>36922372.0736692</v>
       </c>
       <c r="Q100" t="n">
-        <v>36466649.47694213</v>
+        <v>37427674.03220652</v>
       </c>
       <c r="R100" t="n">
-        <v>35905672.61511321</v>
+        <v>40551038.16743957</v>
       </c>
       <c r="S100" t="n">
-        <v>38275783.67216066</v>
+        <v>41106000.31791694</v>
       </c>
       <c r="T100" t="n">
-        <v>38799607.77575573</v>
+        <v>43819381.76348504</v>
       </c>
       <c r="U100" t="n">
-        <v>38653885.68530623</v>
+        <v>47730893.56915987</v>
       </c>
     </row>
     <row r="101">
@@ -6938,64 +6938,64 @@
         <v>22561132</v>
       </c>
       <c r="B101" t="n">
-        <v>22738727.84133373</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C101" t="n">
-        <v>23049919.21576514</v>
+        <v>24067846.30622032</v>
       </c>
       <c r="D101" t="n">
-        <v>24839443.47530887</v>
+        <v>24257302.64262419</v>
       </c>
       <c r="E101" t="n">
-        <v>25757026.64424817</v>
+        <v>24730302.67967773</v>
       </c>
       <c r="F101" t="n">
-        <v>25660289.38370533</v>
+        <v>24924973.7143951</v>
       </c>
       <c r="G101" t="n">
-        <v>25563915.4452845</v>
+        <v>24541545.74017689</v>
       </c>
       <c r="H101" t="n">
-        <v>27994486.10138162</v>
+        <v>24449373.53656107</v>
       </c>
       <c r="I101" t="n">
-        <v>28703111.80685651</v>
+        <v>25352547.30011817</v>
       </c>
       <c r="J101" t="n">
-        <v>29930294.12843459</v>
+        <v>26289084.81616398</v>
       </c>
       <c r="K101" t="n">
-        <v>31731966.58562244</v>
+        <v>26343187.74162895</v>
       </c>
       <c r="L101" t="n">
-        <v>33273127.65117315</v>
+        <v>27622626.10169222</v>
       </c>
       <c r="M101" t="n">
-        <v>33148161.70447737</v>
+        <v>28321838.89800838</v>
       </c>
       <c r="N101" t="n">
-        <v>33987242.63591378</v>
+        <v>29368063.73440842</v>
       </c>
       <c r="O101" t="n">
-        <v>34452375.81411113</v>
+        <v>29257764.27817251</v>
       </c>
       <c r="P101" t="n">
-        <v>35524768.27384984</v>
+        <v>32039539.37321766</v>
       </c>
       <c r="Q101" t="n">
-        <v>36424008.35594038</v>
+        <v>33968179.14474839</v>
       </c>
       <c r="R101" t="n">
-        <v>39675376.42551417</v>
+        <v>35617948.78711456</v>
       </c>
       <c r="S101" t="n">
-        <v>39526365.15649537</v>
+        <v>38797364.41480871</v>
       </c>
       <c r="T101" t="n">
-        <v>42135475.87018444</v>
+        <v>38651650.74988888</v>
       </c>
       <c r="U101" t="n">
-        <v>41487293.83634364</v>
+        <v>38955907.31085683</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -503,64 +503,64 @@
         <v>22561132</v>
       </c>
       <c r="B2" t="n">
-        <v>24443873.37683315</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C2" t="n">
-        <v>24636289.70850542</v>
+        <v>26193408.56662968</v>
       </c>
       <c r="D2" t="n">
-        <v>25689597.77499638</v>
+        <v>28379265.82364539</v>
       </c>
       <c r="E2" t="n">
-        <v>27684058.49331567</v>
+        <v>29097631.47580672</v>
       </c>
       <c r="F2" t="n">
-        <v>29028620.38711452</v>
+        <v>30510847.91195961</v>
       </c>
       <c r="G2" t="n">
-        <v>30269719.61003426</v>
+        <v>30218873.63669633</v>
       </c>
       <c r="H2" t="n">
-        <v>30156033.74897124</v>
+        <v>30456749.39078823</v>
       </c>
       <c r="I2" t="n">
-        <v>31620654.76386936</v>
+        <v>31404770.7571828</v>
       </c>
       <c r="J2" t="n">
-        <v>31501895.11196245</v>
+        <v>31469401.76215699</v>
       </c>
       <c r="K2" t="n">
-        <v>33764460.06818715</v>
+        <v>34461455.3328137</v>
       </c>
       <c r="L2" t="n">
-        <v>36189529.53923364</v>
+        <v>35333779.72585556</v>
       </c>
       <c r="M2" t="n">
-        <v>36684802.16468232</v>
+        <v>36639029.64434435</v>
       </c>
       <c r="N2" t="n">
-        <v>37826682.92903583</v>
+        <v>37140453.91365334</v>
       </c>
       <c r="O2" t="n">
-        <v>39224022.10964143</v>
+        <v>40455775.08216047</v>
       </c>
       <c r="P2" t="n">
-        <v>39760823.35183051</v>
+        <v>40774233.27887349</v>
       </c>
       <c r="Q2" t="n">
-        <v>40073811.05454375</v>
+        <v>43228663.32043154</v>
       </c>
       <c r="R2" t="n">
-        <v>43185017.49232723</v>
+        <v>45579518.14779621</v>
       </c>
       <c r="S2" t="n">
-        <v>42771757.45376855</v>
+        <v>46468286.12379148</v>
       </c>
       <c r="T2" t="n">
-        <v>44351770.49973492</v>
+        <v>45753451.23497683</v>
       </c>
       <c r="U2" t="n">
-        <v>45216598.27547047</v>
+        <v>48773608.01723566</v>
       </c>
     </row>
     <row r="3">
@@ -568,64 +568,64 @@
         <v>22561132</v>
       </c>
       <c r="B3" t="n">
-        <v>22345232.71775694</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C3" t="n">
-        <v>23300588.1770291</v>
+        <v>25776226.76215548</v>
       </c>
       <c r="D3" t="n">
-        <v>23348540.77767105</v>
+        <v>27927269.92185793</v>
       </c>
       <c r="E3" t="n">
-        <v>23125106.36864751</v>
+        <v>30420181.54231907</v>
       </c>
       <c r="F3" t="n">
-        <v>25323799.48665057</v>
+        <v>32428198.75463257</v>
       </c>
       <c r="G3" t="n">
-        <v>27289860.76005352</v>
+        <v>32871995.60251275</v>
       </c>
       <c r="H3" t="n">
-        <v>27504680.02451073</v>
+        <v>33321866.04219735</v>
       </c>
       <c r="I3" t="n">
-        <v>27401378.99390544</v>
+        <v>36490048.55249834</v>
       </c>
       <c r="J3" t="n">
-        <v>28254296.43501472</v>
+        <v>39959456.10241345</v>
       </c>
       <c r="K3" t="n">
-        <v>30940663.62984456</v>
+        <v>43758728.62168015</v>
       </c>
       <c r="L3" t="n">
-        <v>31364102.78211275</v>
+        <v>45884006.56963718</v>
       </c>
       <c r="M3" t="n">
-        <v>32340367.16258637</v>
+        <v>47045470.52391991</v>
       </c>
       <c r="N3" t="n">
-        <v>34851172.99484354</v>
+        <v>48783356.96129076</v>
       </c>
       <c r="O3" t="n">
-        <v>36341211.55488966</v>
+        <v>48316523.4817761</v>
       </c>
       <c r="P3" t="n">
-        <v>37261118.30304836</v>
+        <v>51786767.8098693</v>
       </c>
       <c r="Q3" t="n">
-        <v>37554428.9247878</v>
+        <v>56108407.81127046</v>
       </c>
       <c r="R3" t="n">
-        <v>40470038.34559017</v>
+        <v>57854883.4038218</v>
       </c>
       <c r="S3" t="n">
-        <v>43847289.79357898</v>
+        <v>61001139.18620246</v>
       </c>
       <c r="T3" t="n">
-        <v>46231786.6750584</v>
+        <v>60772033.42891259</v>
       </c>
       <c r="U3" t="n">
-        <v>50358640.41190466</v>
+        <v>64783557.45557837</v>
       </c>
     </row>
     <row r="4">
@@ -633,64 +633,64 @@
         <v>22561132</v>
       </c>
       <c r="B4" t="n">
-        <v>23263388.00610278</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C4" t="n">
-        <v>24934237.53050739</v>
+        <v>24530781.84689261</v>
       </c>
       <c r="D4" t="n">
-        <v>24840590.47000848</v>
+        <v>24723882.30127908</v>
       </c>
       <c r="E4" t="n">
-        <v>26624719.62444872</v>
+        <v>24487286.5292625</v>
       </c>
       <c r="F4" t="n">
-        <v>28536990.53315066</v>
+        <v>26815493.26319794</v>
       </c>
       <c r="G4" t="n">
-        <v>30586606.73899932</v>
+        <v>27650173.95212301</v>
       </c>
       <c r="H4" t="n">
-        <v>33316902.52456938</v>
+        <v>27224823.44597099</v>
       </c>
       <c r="I4" t="n">
-        <v>36290916.58658352</v>
+        <v>28230523.90766608</v>
       </c>
       <c r="J4" t="n">
-        <v>39319417.56165699</v>
+        <v>29765752.1176025</v>
       </c>
       <c r="K4" t="n">
-        <v>42143461.51069511</v>
+        <v>29827010.02290764</v>
       </c>
       <c r="L4" t="n">
-        <v>42230192.73671129</v>
+        <v>30928836.73669893</v>
       </c>
       <c r="M4" t="n">
-        <v>42317102.45555402</v>
+        <v>31711739.79384701</v>
       </c>
       <c r="N4" t="n">
-        <v>44126341.82943471</v>
+        <v>34726834.42446743</v>
       </c>
       <c r="O4" t="n">
-        <v>43447533.73714978</v>
+        <v>35000195.76894564</v>
       </c>
       <c r="P4" t="n">
-        <v>42779167.94320747</v>
+        <v>36903571.28098109</v>
       </c>
       <c r="Q4" t="n">
-        <v>44856870.49822649</v>
+        <v>40412295.82095707</v>
       </c>
       <c r="R4" t="n">
-        <v>49121780.28447165</v>
+        <v>40730411.75931294</v>
       </c>
       <c r="S4" t="n">
-        <v>50936366.785259</v>
+        <v>44602985.342371</v>
       </c>
       <c r="T4" t="n">
-        <v>55483172.14855945</v>
+        <v>43916844.90708409</v>
       </c>
       <c r="U4" t="n">
-        <v>54629658.69880058</v>
+        <v>45794480.19806275</v>
       </c>
     </row>
     <row r="5">
@@ -698,64 +698,64 @@
         <v>22561132</v>
       </c>
       <c r="B5" t="n">
-        <v>23394553.04729505</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C5" t="n">
-        <v>23714719.73242343</v>
+        <v>24196993.59820214</v>
       </c>
       <c r="D5" t="n">
-        <v>25417985.31763886</v>
+        <v>24528142.10164854</v>
       </c>
       <c r="E5" t="n">
-        <v>26209166.0461743</v>
+        <v>25434225.62079809</v>
       </c>
       <c r="F5" t="n">
-        <v>28548712.11644613</v>
+        <v>26225911.85811893</v>
       </c>
       <c r="G5" t="n">
-        <v>28275514.5457345</v>
+        <v>26127413.57633224</v>
       </c>
       <c r="H5" t="n">
-        <v>28333705.5427452</v>
+        <v>27548270.74874089</v>
       </c>
       <c r="I5" t="n">
-        <v>30698171.99701412</v>
+        <v>29206555.84404195</v>
       </c>
       <c r="J5" t="n">
-        <v>32724539.18587559</v>
+        <v>30285462.62759442</v>
       </c>
       <c r="K5" t="n">
-        <v>33933402.27486156</v>
+        <v>29819572.72469541</v>
       </c>
       <c r="L5" t="n">
-        <v>35976044.28816579</v>
+        <v>31961308.00813457</v>
       </c>
       <c r="M5" t="n">
-        <v>35840926.83001841</v>
+        <v>34814315.70854913</v>
       </c>
       <c r="N5" t="n">
-        <v>38415134.65961085</v>
+        <v>34683561.42639402</v>
       </c>
       <c r="O5" t="n">
-        <v>38047520.12678153</v>
+        <v>37981211.4609659</v>
       </c>
       <c r="P5" t="n">
-        <v>38789419.53311288</v>
+        <v>38721817.8957806</v>
       </c>
       <c r="Q5" t="n">
-        <v>41800909.79554506</v>
+        <v>40377343.28622682</v>
       </c>
       <c r="R5" t="n">
-        <v>43345059.1768655</v>
+        <v>40460439.84168185</v>
       </c>
       <c r="S5" t="n">
-        <v>47214230.85078596</v>
+        <v>40778934.75826743</v>
       </c>
       <c r="T5" t="n">
-        <v>49232843.66938462</v>
+        <v>43707805.81216136</v>
       </c>
       <c r="U5" t="n">
-        <v>49906620.86552103</v>
+        <v>45576503.77663918</v>
       </c>
     </row>
     <row r="6">
@@ -763,64 +763,64 @@
         <v>22561132</v>
       </c>
       <c r="B6" t="n">
-        <v>22476397.75894921</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C6" t="n">
-        <v>23829378.34127586</v>
+        <v>24394771.49448108</v>
       </c>
       <c r="D6" t="n">
-        <v>24432572.48375669</v>
+        <v>25012277.45967621</v>
       </c>
       <c r="E6" t="n">
-        <v>24340809.5577506</v>
+        <v>27099568.54516623</v>
       </c>
       <c r="F6" t="n">
-        <v>26372066.20302854</v>
+        <v>29676146.30923184</v>
       </c>
       <c r="G6" t="n">
-        <v>27346265.32717986</v>
+        <v>31980110.29509332</v>
       </c>
       <c r="H6" t="n">
-        <v>28992390.5819305</v>
+        <v>32417774.8182206</v>
       </c>
       <c r="I6" t="n">
-        <v>28883502.06462524</v>
+        <v>34746121.12887277</v>
       </c>
       <c r="J6" t="n">
-        <v>30790084.02295364</v>
+        <v>36837685.25328042</v>
       </c>
       <c r="K6" t="n">
-        <v>32106493.44389477</v>
+        <v>40340145.46939261</v>
       </c>
       <c r="L6" t="n">
-        <v>32732547.08276624</v>
+        <v>40188637.48609516</v>
       </c>
       <c r="M6" t="n">
-        <v>33941705.98801769</v>
+        <v>42841464.38324045</v>
       </c>
       <c r="N6" t="n">
-        <v>34406215.97338979</v>
+        <v>43925912.32817532</v>
       </c>
       <c r="O6" t="n">
-        <v>36077260.22865327</v>
+        <v>45037810.95347801</v>
       </c>
       <c r="P6" t="n">
-        <v>35732018.04006707</v>
+        <v>48796246.0445941</v>
       </c>
       <c r="Q6" t="n">
-        <v>38090666.26691395</v>
+        <v>48896668.69837541</v>
       </c>
       <c r="R6" t="n">
-        <v>39719207.19217771</v>
+        <v>48144477.30833156</v>
       </c>
       <c r="S6" t="n">
-        <v>39339113.30663799</v>
+        <v>50202862.19119602</v>
       </c>
       <c r="T6" t="n">
-        <v>38733948.51507019</v>
+        <v>49430577.25438947</v>
       </c>
       <c r="U6" t="n">
-        <v>40840372.42123131</v>
+        <v>49532305.36153303</v>
       </c>
     </row>
     <row r="7">
@@ -828,64 +828,64 @@
         <v>22561132</v>
       </c>
       <c r="B7" t="n">
-        <v>23788048.17087183</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C7" t="n">
-        <v>25358282.3954113</v>
+        <v>26341619.9153607</v>
       </c>
       <c r="D7" t="n">
-        <v>27179593.80839103</v>
+        <v>27467838.23271185</v>
       </c>
       <c r="E7" t="n">
-        <v>27393545.07774711</v>
+        <v>27204984.11000156</v>
       </c>
       <c r="F7" t="n">
-        <v>29042516.36615229</v>
+        <v>28684441.56510054</v>
       </c>
       <c r="G7" t="n">
-        <v>30453055.96660092</v>
+        <v>30077590.1557469</v>
       </c>
       <c r="H7" t="n">
-        <v>30338681.53782636</v>
+        <v>29614898.01432558</v>
       </c>
       <c r="I7" t="n">
-        <v>31283027.82892462</v>
+        <v>29331497.55263801</v>
       </c>
       <c r="J7" t="n">
-        <v>32984256.85932705</v>
+        <v>31608704.07765232</v>
       </c>
       <c r="K7" t="n">
-        <v>33627426.25645658</v>
+        <v>32592582.11549443</v>
       </c>
       <c r="L7" t="n">
-        <v>34283136.99642029</v>
+        <v>33228114.13549777</v>
       </c>
       <c r="M7" t="n">
-        <v>34951633.62642582</v>
+        <v>34262399.23799715</v>
       </c>
       <c r="N7" t="n">
-        <v>36242766.85066335</v>
+        <v>35528071.75193717</v>
       </c>
       <c r="O7" t="n">
-        <v>36949474.86003466</v>
+        <v>35394636.77199473</v>
       </c>
       <c r="P7" t="n">
-        <v>37240332.29904115</v>
+        <v>37731014.6717412</v>
       </c>
       <c r="Q7" t="n">
-        <v>37316972.8872075</v>
+        <v>40440974.54100202</v>
       </c>
       <c r="R7" t="n">
-        <v>36742915.25801793</v>
+        <v>41229544.59506743</v>
       </c>
       <c r="S7" t="n">
-        <v>37886604.89742382</v>
+        <v>44670177.34155909</v>
       </c>
       <c r="T7" t="n">
-        <v>41048267.11668255</v>
+        <v>46060617.33950716</v>
       </c>
       <c r="U7" t="n">
-        <v>44951061.80988939</v>
+        <v>48297693.62998334</v>
       </c>
     </row>
     <row r="8">
@@ -893,64 +893,64 @@
         <v>22561132</v>
       </c>
       <c r="B8" t="n">
-        <v>23394553.04729505</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C8" t="n">
-        <v>24802802.55171567</v>
+        <v>23048394.09122521</v>
       </c>
       <c r="D8" t="n">
-        <v>24421253.9713115</v>
+        <v>23899814.87729117</v>
       </c>
       <c r="E8" t="n">
-        <v>25891306.3691027</v>
+        <v>25755322.40081708</v>
       </c>
       <c r="F8" t="n">
-        <v>27901427.11725259</v>
+        <v>27754885.77529992</v>
       </c>
       <c r="G8" t="n">
-        <v>30229819.65120638</v>
+        <v>29748328.76328595</v>
       </c>
       <c r="H8" t="n">
-        <v>30819279.49452865</v>
+        <v>29463651.43291423</v>
       </c>
       <c r="I8" t="n">
-        <v>33391168.73787577</v>
+        <v>32265001.90473818</v>
       </c>
       <c r="J8" t="n">
-        <v>33071631.16486019</v>
+        <v>32894146.34512854</v>
       </c>
       <c r="K8" t="n">
-        <v>36216021.79745413</v>
+        <v>33153081.20686854</v>
       </c>
       <c r="L8" t="n">
-        <v>35869451.72677818</v>
+        <v>35148751.31371795</v>
       </c>
       <c r="M8" t="n">
-        <v>38654244.74235194</v>
+        <v>34608048.05493236</v>
       </c>
       <c r="N8" t="n">
-        <v>40981060.77051558</v>
+        <v>37697315.47702625</v>
       </c>
       <c r="O8" t="n">
-        <v>42733178.57695775</v>
+        <v>40843181.36904488</v>
       </c>
       <c r="P8" t="n">
-        <v>45802409.55409986</v>
+        <v>43776666.81612323</v>
       </c>
       <c r="Q8" t="n">
-        <v>49624650.90378752</v>
+        <v>47938872.79793954</v>
       </c>
       <c r="R8" t="n">
-        <v>52323331.38966591</v>
+        <v>51381993.06889567</v>
       </c>
       <c r="S8" t="n">
-        <v>56993943.34735131</v>
+        <v>56267299.65944301</v>
       </c>
       <c r="T8" t="n">
-        <v>61750125.58895791</v>
+        <v>56055973.07651177</v>
       </c>
       <c r="U8" t="n">
-        <v>62595208.33006051</v>
+        <v>60407985.01953575</v>
       </c>
     </row>
     <row r="9">
@@ -958,64 +958,64 @@
         <v>22561132</v>
       </c>
       <c r="B9" t="n">
-        <v>22476397.75894921</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C9" t="n">
-        <v>23437361.0917106</v>
+        <v>24099873.92155898</v>
       </c>
       <c r="D9" t="n">
-        <v>23076817.48643388</v>
+        <v>24289582.37169952</v>
       </c>
       <c r="E9" t="n">
-        <v>23392635.79435401</v>
+        <v>26598991.75336748</v>
       </c>
       <c r="F9" t="n">
-        <v>25480765.91835579</v>
+        <v>28818695.19538043</v>
       </c>
       <c r="G9" t="n">
-        <v>26422039.90308119</v>
+        <v>29548184.14330166</v>
       </c>
       <c r="H9" t="n">
-        <v>28626976.59623415</v>
+        <v>29780780.38992677</v>
       </c>
       <c r="I9" t="n">
-        <v>29684473.39274792</v>
+        <v>32612282.90707269</v>
       </c>
       <c r="J9" t="n">
-        <v>31298770.07029837</v>
+        <v>33437799.11403141</v>
       </c>
       <c r="K9" t="n">
-        <v>33910673.11910538</v>
+        <v>32923415.92055169</v>
       </c>
       <c r="L9" t="n">
-        <v>37134838.33699661</v>
+        <v>36053714.5168778</v>
       </c>
       <c r="M9" t="n">
-        <v>38722513.47927636</v>
+        <v>39481636.21907503</v>
       </c>
       <c r="N9" t="n">
-        <v>39027327.8547212</v>
+        <v>39562889.4097636</v>
       </c>
       <c r="O9" t="n">
-        <v>40922810.69597162</v>
+        <v>42174411.06663286</v>
       </c>
       <c r="P9" t="n">
-        <v>43862015.37117743</v>
+        <v>45939085.51308944</v>
       </c>
       <c r="Q9" t="n">
-        <v>47777332.8412203</v>
+        <v>47101943.68318379</v>
       </c>
       <c r="R9" t="n">
-        <v>49542254.68882501</v>
+        <v>50211113.61097258</v>
       </c>
       <c r="S9" t="n">
-        <v>48780132.06549931</v>
+        <v>54109348.7876098</v>
       </c>
       <c r="T9" t="n">
-        <v>49731309.72174516</v>
+        <v>53591548.10429815</v>
       </c>
       <c r="U9" t="n">
-        <v>51568412.58660367</v>
+        <v>57129092.7727365</v>
       </c>
     </row>
     <row r="10">
@@ -1026,61 +1026,61 @@
         <v>23656883.12967957</v>
       </c>
       <c r="C10" t="n">
-        <v>25355994.7086014</v>
+        <v>23843104.46213528</v>
       </c>
       <c r="D10" t="n">
-        <v>27471969.22568884</v>
+        <v>25555591.04149496</v>
       </c>
       <c r="E10" t="n">
-        <v>27049360.09363157</v>
+        <v>26351054.99686725</v>
       </c>
       <c r="F10" t="n">
-        <v>27262286.19429741</v>
+        <v>28703266.70237615</v>
       </c>
       <c r="G10" t="n">
-        <v>29061852.70408336</v>
+        <v>30431077.48923569</v>
       </c>
       <c r="H10" t="n">
-        <v>30473331.43356735</v>
+        <v>32085975.88124001</v>
       </c>
       <c r="I10" t="n">
-        <v>30004551.49128381</v>
+        <v>34950111.98734664</v>
       </c>
       <c r="J10" t="n">
-        <v>31985133.22313272</v>
+        <v>36444380.61775348</v>
       </c>
       <c r="K10" t="n">
-        <v>32608820.42457448</v>
+        <v>39909446.14336668</v>
       </c>
       <c r="L10" t="n">
-        <v>34950888.23015389</v>
+        <v>40223603.76918946</v>
       </c>
       <c r="M10" t="n">
-        <v>34616424.88484623</v>
+        <v>40774084.80880001</v>
       </c>
       <c r="N10" t="n">
-        <v>37505188.42068019</v>
+        <v>40383896.24714728</v>
       </c>
       <c r="O10" t="n">
-        <v>39544790.07563826</v>
+        <v>39762659.26184449</v>
       </c>
       <c r="P10" t="n">
-        <v>41465405.06952785</v>
+        <v>41462685.12779998</v>
       </c>
       <c r="Q10" t="n">
-        <v>43238230.69208781</v>
+        <v>40824852.82569335</v>
       </c>
       <c r="R10" t="n">
-        <v>46595112.85895969</v>
+        <v>42570292.06607391</v>
       </c>
       <c r="S10" t="n">
-        <v>50483505.82336297</v>
+        <v>45875317.54902644</v>
       </c>
       <c r="T10" t="n">
-        <v>52054896.17618664</v>
+        <v>48903518.65067477</v>
       </c>
       <c r="U10" t="n">
-        <v>54280468.39876841</v>
+        <v>50425729.04738694</v>
       </c>
     </row>
     <row r="11">
@@ -1088,64 +1088,64 @@
         <v>22561132</v>
       </c>
       <c r="B11" t="n">
-        <v>23919213.21206409</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C11" t="n">
-        <v>24246560.14575006</v>
+        <v>23717007.41923333</v>
       </c>
       <c r="D11" t="n">
-        <v>26269951.61530386</v>
+        <v>24041587.06096576</v>
       </c>
       <c r="E11" t="n">
-        <v>27851287.50441514</v>
+        <v>24650152.85246183</v>
       </c>
       <c r="F11" t="n">
-        <v>29365892.13590117</v>
+        <v>26563914.28988894</v>
       </c>
       <c r="G11" t="n">
-        <v>31133590.0681356</v>
+        <v>29089563.02011866</v>
       </c>
       <c r="H11" t="n">
-        <v>33912712.00467631</v>
+        <v>28811189.76398915</v>
       </c>
       <c r="I11" t="n">
-        <v>36151268.97472224</v>
+        <v>28367979.02071591</v>
       </c>
       <c r="J11" t="n">
-        <v>38747766.55096486</v>
+        <v>30900230.28435951</v>
       </c>
       <c r="K11" t="n">
-        <v>40404401.35878455</v>
+        <v>32041702.36498245</v>
       </c>
       <c r="L11" t="n">
-        <v>43306372.24868536</v>
+        <v>35088169.23764963</v>
       </c>
       <c r="M11" t="n">
-        <v>44150815.50686893</v>
+        <v>36180351.91670537</v>
       </c>
       <c r="N11" t="n">
-        <v>46295136.36665229</v>
+        <v>38358250.44519874</v>
       </c>
       <c r="O11" t="n">
-        <v>50427644.9771317</v>
+        <v>38883203.1496824</v>
       </c>
       <c r="P11" t="n">
-        <v>53169993.76891337</v>
+        <v>41675916.81086241</v>
       </c>
       <c r="Q11" t="n">
-        <v>52661182.26550227</v>
+        <v>42246273.51346943</v>
       </c>
       <c r="R11" t="n">
-        <v>52769558.95639627</v>
+        <v>45526143.20064671</v>
       </c>
       <c r="S11" t="n">
-        <v>54412106.8443535</v>
+        <v>47207904.8226073</v>
       </c>
       <c r="T11" t="n">
-        <v>58636494.11006929</v>
+        <v>49775158.17761783</v>
       </c>
       <c r="U11" t="n">
-        <v>62166153.92466512</v>
+        <v>49298833.63308334</v>
       </c>
     </row>
     <row r="12">
@@ -1153,64 +1153,64 @@
         <v>22561132</v>
       </c>
       <c r="B12" t="n">
-        <v>23525718.08848731</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C12" t="n">
-        <v>24531544.40916258</v>
+        <v>25218459.23164993</v>
       </c>
       <c r="D12" t="n">
-        <v>24296789.21911928</v>
+        <v>26443271.67421082</v>
       </c>
       <c r="E12" t="n">
-        <v>24346792.00108573</v>
+        <v>26651426.79163125</v>
       </c>
       <c r="F12" t="n">
-        <v>26520094.3278181</v>
+        <v>27326055.57544736</v>
       </c>
       <c r="G12" t="n">
-        <v>26574672.67076064</v>
+        <v>29129831.46231376</v>
       </c>
       <c r="H12" t="n">
-        <v>28637847.85973195</v>
+        <v>29697842.32337408</v>
       </c>
       <c r="I12" t="n">
-        <v>30361720.71913688</v>
+        <v>29758960.47035134</v>
       </c>
       <c r="J12" t="n">
-        <v>32542394.77273419</v>
+        <v>31031284.89438931</v>
       </c>
       <c r="K12" t="n">
-        <v>34501304.23421083</v>
+        <v>33440457.63827214</v>
       </c>
       <c r="L12" t="n">
-        <v>33970560.83837046</v>
+        <v>34092522.62402189</v>
       </c>
       <c r="M12" t="n">
-        <v>33447982.01944917</v>
+        <v>33568067.63219304</v>
       </c>
       <c r="N12" t="n">
-        <v>35850321.04396398</v>
+        <v>35979031.58222981</v>
       </c>
       <c r="O12" t="n">
-        <v>38216778.37831941</v>
+        <v>36262249.92358869</v>
       </c>
       <c r="P12" t="n">
-        <v>38295428.49210512</v>
+        <v>38234258.27952787</v>
       </c>
       <c r="Q12" t="n">
-        <v>39710083.40040062</v>
+        <v>41424932.40329935</v>
       </c>
       <c r="R12" t="n">
-        <v>42331321.24079552</v>
+        <v>45363539.7479281</v>
       </c>
       <c r="S12" t="n">
-        <v>45863897.97657551</v>
+        <v>48621691.51813678</v>
       </c>
       <c r="T12" t="n">
-        <v>45425002.32834245</v>
+        <v>50983154.29438089</v>
       </c>
       <c r="U12" t="n">
-        <v>48159388.27227867</v>
+        <v>52866501.00971537</v>
       </c>
     </row>
     <row r="13">
@@ -1218,64 +1218,64 @@
         <v>22561132</v>
       </c>
       <c r="B13" t="n">
-        <v>24312708.33564088</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C13" t="n">
-        <v>25069485.32064895</v>
+        <v>22647226.09442033</v>
       </c>
       <c r="D13" t="n">
-        <v>26141314.37540714</v>
+        <v>24800483.22378737</v>
       </c>
       <c r="E13" t="n">
-        <v>26347092.55710786</v>
+        <v>25572443.08369847</v>
       </c>
       <c r="F13" t="n">
-        <v>28852126.27073617</v>
+        <v>27111792.01789864</v>
       </c>
       <c r="G13" t="n">
-        <v>30924376.51411751</v>
+        <v>29216667.48759443</v>
       </c>
       <c r="H13" t="n">
-        <v>32965675.32208239</v>
+        <v>29276795.37696258</v>
       </c>
       <c r="I13" t="n">
-        <v>32841864.09314479</v>
+        <v>30017880.23570625</v>
       </c>
       <c r="J13" t="n">
-        <v>33291322.16737608</v>
+        <v>32522892.18123212</v>
       </c>
       <c r="K13" t="n">
-        <v>34908218.15794202</v>
+        <v>35426029.36852095</v>
       </c>
       <c r="L13" t="n">
-        <v>37415435.92397458</v>
+        <v>35910853.09510595</v>
       </c>
       <c r="M13" t="n">
-        <v>38145010.14082574</v>
+        <v>36819866.15991334</v>
       </c>
       <c r="N13" t="n">
-        <v>39775874.50202215</v>
+        <v>38822198.72021812</v>
       </c>
       <c r="O13" t="n">
-        <v>41245217.92789952</v>
+        <v>41384827.84659611</v>
       </c>
       <c r="P13" t="n">
-        <v>45166738.34657134</v>
+        <v>45319622.12280398</v>
       </c>
       <c r="Q13" t="n">
-        <v>47885577.93133568</v>
+        <v>47784187.16503099</v>
       </c>
       <c r="R13" t="n">
-        <v>47984126.43052395</v>
+        <v>50104973.95298572</v>
       </c>
       <c r="S13" t="n">
-        <v>49477719.08285322</v>
+        <v>50499388.33805227</v>
       </c>
       <c r="T13" t="n">
-        <v>51017802.50571515</v>
+        <v>50603316.05795526</v>
       </c>
       <c r="U13" t="n">
-        <v>51716007.79639833</v>
+        <v>50119066.43714584</v>
       </c>
     </row>
     <row r="14">
@@ -1283,64 +1283,64 @@
         <v>22561132</v>
       </c>
       <c r="B14" t="n">
-        <v>23001057.92371826</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C14" t="n">
-        <v>22780948.76002196</v>
+        <v>25911474.55229704</v>
       </c>
       <c r="D14" t="n">
-        <v>24946919.9975921</v>
+        <v>26416729.7574579</v>
       </c>
       <c r="E14" t="n">
-        <v>25723437.96672922</v>
+        <v>26778256.51034261</v>
       </c>
       <c r="F14" t="n">
-        <v>27421426.06470338</v>
+        <v>26989048.54836645</v>
       </c>
       <c r="G14" t="n">
-        <v>27477859.34798031</v>
+        <v>26573868.32271989</v>
       </c>
       <c r="H14" t="n">
-        <v>27694158.49240952</v>
+        <v>28791475.19784036</v>
       </c>
       <c r="I14" t="n">
-        <v>28556189.22452247</v>
+        <v>29855048.66625291</v>
       </c>
       <c r="J14" t="n">
-        <v>30607184.34062871</v>
+        <v>32346472.20968688</v>
       </c>
       <c r="K14" t="n">
-        <v>31381945.39598195</v>
+        <v>32224986.56023638</v>
       </c>
       <c r="L14" t="n">
-        <v>31628976.57310944</v>
+        <v>31729260.40792094</v>
       </c>
       <c r="M14" t="n">
-        <v>34268435.57282095</v>
+        <v>34561554.51331918</v>
       </c>
       <c r="N14" t="n">
-        <v>35135874.04786095</v>
+        <v>36240143.26504722</v>
       </c>
       <c r="O14" t="n">
-        <v>38476529.14507564</v>
+        <v>35682650.81282972</v>
       </c>
       <c r="P14" t="n">
-        <v>39897874.01448943</v>
+        <v>38867842.02948132</v>
       </c>
       <c r="Q14" t="n">
-        <v>39516070.37259982</v>
+        <v>38495895.3028498</v>
       </c>
       <c r="R14" t="n">
-        <v>43273186.58187074</v>
+        <v>39694149.61414633</v>
       </c>
       <c r="S14" t="n">
-        <v>46381202.62840803</v>
+        <v>43468197.27430902</v>
       </c>
       <c r="T14" t="n">
-        <v>48633849.13461947</v>
+        <v>47348360.79938062</v>
       </c>
       <c r="U14" t="n">
-        <v>51844139.18589735</v>
+        <v>47445803.70593788</v>
       </c>
     </row>
     <row r="15">
@@ -1348,64 +1348,64 @@
         <v>22561132</v>
       </c>
       <c r="B15" t="n">
-        <v>22607562.80014147</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C15" t="n">
-        <v>24362743.87914242</v>
+        <v>24121225.66511808</v>
       </c>
       <c r="D15" t="n">
-        <v>24696160.76180942</v>
+        <v>23890397.02992718</v>
       </c>
       <c r="E15" t="n">
-        <v>25752028.57508615</v>
+        <v>23939563.45693966</v>
       </c>
       <c r="F15" t="n">
-        <v>28200484.68594864</v>
+        <v>25798156.93694539</v>
       </c>
       <c r="G15" t="n">
-        <v>28586423.05727213</v>
+        <v>27801045.85200087</v>
       </c>
       <c r="H15" t="n">
-        <v>29143837.84343052</v>
+        <v>27858260.39263996</v>
       </c>
       <c r="I15" t="n">
-        <v>31406475.05047794</v>
+        <v>27429708.83346923</v>
       </c>
       <c r="J15" t="n">
-        <v>33844776.39476833</v>
+        <v>27964568.52029198</v>
       </c>
       <c r="K15" t="n">
-        <v>34111194.38915712</v>
+        <v>27859540.2579743</v>
       </c>
       <c r="L15" t="n">
-        <v>35966224.35856688</v>
+        <v>30346406.02910545</v>
       </c>
       <c r="M15" t="n">
-        <v>36876639.03869561</v>
+        <v>32173126.59799343</v>
       </c>
       <c r="N15" t="n">
-        <v>36952531.14628554</v>
+        <v>32052291.99339504</v>
       </c>
       <c r="O15" t="n">
-        <v>37028579.43980089</v>
+        <v>33236321.88876296</v>
       </c>
       <c r="P15" t="n">
-        <v>38181160.89311866</v>
+        <v>33691178.32408245</v>
       </c>
       <c r="Q15" t="n">
-        <v>41811356.33329546</v>
+        <v>35719239.5177423</v>
       </c>
       <c r="R15" t="n">
-        <v>44085135.37999421</v>
+        <v>38492370.52315311</v>
       </c>
       <c r="S15" t="n">
-        <v>44944763.96176433</v>
+        <v>41033227.89593747</v>
       </c>
       <c r="T15" t="n">
-        <v>45821154.68551783</v>
+        <v>44457477.88413423</v>
       </c>
       <c r="U15" t="n">
-        <v>45649061.33637433</v>
+        <v>45582832.05263687</v>
       </c>
     </row>
     <row r="16">
@@ -1413,64 +1413,64 @@
         <v>22561132</v>
       </c>
       <c r="B16" t="n">
-        <v>23656883.12967957</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C16" t="n">
-        <v>23568033.50823235</v>
+        <v>23820227.59403624</v>
       </c>
       <c r="D16" t="n">
-        <v>23753555.43769387</v>
+        <v>24700160.34866167</v>
       </c>
       <c r="E16" t="n">
-        <v>23940537.75146361</v>
+        <v>24463791.58442748</v>
       </c>
       <c r="F16" t="n">
-        <v>23850622.79078176</v>
+        <v>24656364.70747155</v>
       </c>
       <c r="G16" t="n">
-        <v>25286325.6938182</v>
+        <v>25280492.39361671</v>
       </c>
       <c r="H16" t="n">
-        <v>27690503.62045291</v>
+        <v>27684115.70066161</v>
       </c>
       <c r="I16" t="n">
-        <v>29196364.52634712</v>
+        <v>27902038.44582526</v>
       </c>
       <c r="J16" t="n">
-        <v>31293339.04142606</v>
+        <v>28770539.81717008</v>
       </c>
       <c r="K16" t="n">
-        <v>32449332.78310817</v>
+        <v>28327954.40361392</v>
       </c>
       <c r="L16" t="n">
-        <v>32327460.81383015</v>
+        <v>29868481.06448864</v>
       </c>
       <c r="M16" t="n">
-        <v>35213152.93297725</v>
+        <v>29756302.15988671</v>
       </c>
       <c r="N16" t="n">
-        <v>35490342.46057478</v>
+        <v>32239485.24209945</v>
       </c>
       <c r="O16" t="n">
-        <v>37833037.83313835</v>
+        <v>34742458.91484357</v>
       </c>
       <c r="P16" t="n">
-        <v>39010659.50777043</v>
+        <v>37035786.96096482</v>
       </c>
       <c r="Q16" t="n">
-        <v>42266124.82718918</v>
+        <v>39049861.6945984</v>
       </c>
       <c r="R16" t="n">
-        <v>45056085.36811227</v>
+        <v>40946438.96145217</v>
       </c>
       <c r="S16" t="n">
-        <v>48554100.13560713</v>
+        <v>40554601.05269002</v>
       </c>
       <c r="T16" t="n">
-        <v>48371742.49393848</v>
+        <v>42760035.41807564</v>
       </c>
       <c r="U16" t="n">
-        <v>49877400.39674342</v>
+        <v>42350842.25545196</v>
       </c>
     </row>
     <row r="17">
@@ -1478,64 +1478,64 @@
         <v>22561132</v>
       </c>
       <c r="B17" t="n">
-        <v>23263388.00610278</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C17" t="n">
-        <v>23176016.25866709</v>
+        <v>25637166.16066407</v>
       </c>
       <c r="D17" t="n">
-        <v>25379549.79656011</v>
+        <v>27180411.14027606</v>
       </c>
       <c r="E17" t="n">
-        <v>26612186.10046276</v>
+        <v>27552389.27200681</v>
       </c>
       <c r="F17" t="n">
-        <v>26976387.77555268</v>
+        <v>28730373.22229639</v>
       </c>
       <c r="G17" t="n">
-        <v>27188739.45556343</v>
+        <v>29624658.01053008</v>
       </c>
       <c r="H17" t="n">
-        <v>27244693.86989688</v>
+        <v>32269085.99841714</v>
       </c>
       <c r="I17" t="n">
-        <v>27934340.05036562</v>
+        <v>34399148.24082368</v>
       </c>
       <c r="J17" t="n">
-        <v>29940672.00749352</v>
+        <v>35669872.3407015</v>
       </c>
       <c r="K17" t="n">
-        <v>30872629.53267514</v>
+        <v>38439170.63155428</v>
       </c>
       <c r="L17" t="n">
-        <v>31115651.49700033</v>
+        <v>38518278.42850336</v>
       </c>
       <c r="M17" t="n">
-        <v>33531374.20232356</v>
+        <v>38597549.02926521</v>
       </c>
       <c r="N17" t="n">
-        <v>35549815.88862132</v>
+        <v>41818540.00621369</v>
       </c>
       <c r="O17" t="n">
-        <v>38103115.21693034</v>
+        <v>43363340.65754309</v>
       </c>
       <c r="P17" t="n">
-        <v>40839800.51495488</v>
+        <v>44208894.75891881</v>
       </c>
       <c r="Q17" t="n">
-        <v>43298177.41660174</v>
+        <v>44042856.67425659</v>
       </c>
       <c r="R17" t="n">
-        <v>47414889.49525522</v>
+        <v>44389551.52032217</v>
       </c>
       <c r="S17" t="n">
-        <v>47236810.45755943</v>
+        <v>47319678.13300145</v>
       </c>
       <c r="T17" t="n">
-        <v>46510153.13989047</v>
+        <v>51268536.54841378</v>
       </c>
       <c r="U17" t="n">
-        <v>48498663.5875113</v>
+        <v>50777921.08450645</v>
       </c>
     </row>
     <row r="18">
@@ -1543,64 +1543,64 @@
         <v>22561132</v>
       </c>
       <c r="B18" t="n">
-        <v>22345232.71775694</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C18" t="n">
-        <v>24469776.86529517</v>
+        <v>23950137.44828802</v>
       </c>
       <c r="D18" t="n">
-        <v>24946919.9975921</v>
+        <v>24556388.37156095</v>
       </c>
       <c r="E18" t="n">
-        <v>26158544.29771088</v>
+        <v>24178630.45071767</v>
       </c>
       <c r="F18" t="n">
-        <v>26212378.57084393</v>
+        <v>23806683.687631</v>
       </c>
       <c r="G18" t="n">
-        <v>26571108.67093993</v>
+        <v>23994084.21429211</v>
       </c>
       <c r="H18" t="n">
-        <v>27552660.53705752</v>
+        <v>23624976.3785557</v>
       </c>
       <c r="I18" t="n">
-        <v>27769548.49857742</v>
+        <v>25184446.33578276</v>
       </c>
       <c r="J18" t="n">
-        <v>30409826.73992007</v>
+        <v>26993272.29748263</v>
       </c>
       <c r="K18" t="n">
-        <v>32593955.91888114</v>
+        <v>26734959.54462883</v>
       </c>
       <c r="L18" t="n">
-        <v>34176982.16148457</v>
+        <v>28188856.19276286</v>
       </c>
       <c r="M18" t="n">
-        <v>35836892.96793193</v>
+        <v>29885701.72271977</v>
       </c>
       <c r="N18" t="n">
-        <v>37160728.17571912</v>
+        <v>30294703.16993507</v>
       </c>
       <c r="O18" t="n">
-        <v>37021161.32690743</v>
+        <v>31061554.37514038</v>
       </c>
       <c r="P18" t="n">
-        <v>37097350.86130556</v>
+        <v>30944894.57119812</v>
       </c>
       <c r="Q18" t="n">
-        <v>36742346.89146598</v>
+        <v>31908110.33851162</v>
       </c>
       <c r="R18" t="n">
-        <v>39594908.78113535</v>
+        <v>33272320.22578351</v>
       </c>
       <c r="S18" t="n">
-        <v>42208544.01674025</v>
+        <v>35275167.99868856</v>
       </c>
       <c r="T18" t="n">
-        <v>41804628.3640266</v>
+        <v>35757927.10858285</v>
       </c>
       <c r="U18" t="n">
-        <v>44807167.95119341</v>
+        <v>38949837.82029979</v>
       </c>
     </row>
     <row r="19">
@@ -1608,64 +1608,64 @@
         <v>22561132</v>
       </c>
       <c r="B19" t="n">
-        <v>22345232.71775694</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C19" t="n">
-        <v>24209957.1567916</v>
+        <v>23809551.72225669</v>
       </c>
       <c r="D19" t="n">
-        <v>25667290.41292056</v>
+        <v>25104359.27133029</v>
       </c>
       <c r="E19" t="n">
-        <v>26317007.70762693</v>
+        <v>24718171.7579652</v>
       </c>
       <c r="F19" t="n">
-        <v>26983171.32589335</v>
+        <v>26637213.9723168</v>
       </c>
       <c r="G19" t="n">
-        <v>29391808.53044035</v>
+        <v>26382308.5279633</v>
       </c>
       <c r="H19" t="n">
-        <v>30990189.55038057</v>
+        <v>25976461.95697035</v>
       </c>
       <c r="I19" t="n">
-        <v>33216002.20749991</v>
+        <v>26482984.37000141</v>
       </c>
       <c r="J19" t="n">
-        <v>34056800.3886883</v>
+        <v>26537486.3406664</v>
       </c>
       <c r="K19" t="n">
-        <v>34126889.26952571</v>
+        <v>27826361.41292082</v>
       </c>
       <c r="L19" t="n">
-        <v>33601905.60579465</v>
+        <v>29016058.8586041</v>
       </c>
       <c r="M19" t="n">
-        <v>34257118.71133929</v>
+        <v>30087928.57517296</v>
       </c>
       <c r="N19" t="n">
-        <v>36319247.03456879</v>
+        <v>29800001.43643009</v>
       </c>
       <c r="O19" t="n">
-        <v>37238597.79382127</v>
+        <v>30727580.33586672</v>
       </c>
       <c r="P19" t="n">
-        <v>40779176.0462251</v>
+        <v>31862674.62920096</v>
       </c>
       <c r="Q19" t="n">
-        <v>42759742.81122843</v>
+        <v>33410183.93500882</v>
       </c>
       <c r="R19" t="n">
-        <v>44836501.92465463</v>
+        <v>33090464.39561794</v>
       </c>
       <c r="S19" t="n">
-        <v>47796131.45478696</v>
+        <v>32966184.48862652</v>
       </c>
       <c r="T19" t="n">
-        <v>49561747.73386818</v>
+        <v>33034028.88240154</v>
       </c>
       <c r="U19" t="n">
-        <v>53697708.33933426</v>
+        <v>32525857.00146873</v>
       </c>
     </row>
     <row r="20">
@@ -1673,64 +1673,64 @@
         <v>22561132</v>
       </c>
       <c r="B20" t="n">
-        <v>23263388.00610278</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C20" t="n">
-        <v>25475228.69107363</v>
+        <v>25187956.74085121</v>
       </c>
       <c r="D20" t="n">
-        <v>25675763.60539267</v>
+        <v>27436345.15227253</v>
       </c>
       <c r="E20" t="n">
-        <v>26922786.44874976</v>
+        <v>29406909.55316931</v>
       </c>
       <c r="F20" t="n">
-        <v>28543420.13204459</v>
+        <v>32202865.11011117</v>
       </c>
       <c r="G20" t="n">
-        <v>28270273.20310191</v>
+        <v>33392457.26204619</v>
       </c>
       <c r="H20" t="n">
-        <v>27835383.53344498</v>
+        <v>35790808.32425408</v>
       </c>
       <c r="I20" t="n">
-        <v>27569012.17735208</v>
+        <v>37529099.58789486</v>
       </c>
       <c r="J20" t="n">
-        <v>29388825.47799233</v>
+        <v>40442742.51751677</v>
       </c>
       <c r="K20" t="n">
-        <v>29107588.42274772</v>
+        <v>41936720.42715502</v>
       </c>
       <c r="L20" t="n">
-        <v>30690513.0264844</v>
+        <v>43485886.73044685</v>
       </c>
       <c r="M20" t="n">
-        <v>30932101.41317981</v>
+        <v>46609179.5690832</v>
       </c>
       <c r="N20" t="n">
-        <v>30815927.80374603</v>
+        <v>49685822.44500849</v>
       </c>
       <c r="O20" t="n">
-        <v>33387537.34628209</v>
+        <v>51521244.98399432</v>
       </c>
       <c r="P20" t="n">
-        <v>35203213.50454137</v>
+        <v>52226340.14810647</v>
       </c>
       <c r="Q20" t="n">
-        <v>37322292.58553778</v>
+        <v>52941084.90804281</v>
       </c>
       <c r="R20" t="n">
-        <v>36748153.1219127</v>
+        <v>57359053.43421468</v>
       </c>
       <c r="S20" t="n">
-        <v>40242100.78556608</v>
+        <v>62145704.35388394</v>
       </c>
       <c r="T20" t="n">
-        <v>43366372.71626854</v>
+        <v>64802702.32184944</v>
       </c>
       <c r="U20" t="n">
-        <v>45724716.43579666</v>
+        <v>69833783.2034529</v>
       </c>
     </row>
     <row r="21">
@@ -1738,64 +1738,64 @@
         <v>22561132</v>
       </c>
       <c r="B21" t="n">
-        <v>24312708.33564088</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C21" t="n">
-        <v>23938699.01423851</v>
+        <v>23560407.88553267</v>
       </c>
       <c r="D21" t="n">
-        <v>24962182.05780296</v>
+        <v>25800488.68124731</v>
       </c>
       <c r="E21" t="n">
-        <v>27045292.64889686</v>
+        <v>27953556.51413352</v>
       </c>
       <c r="F21" t="n">
-        <v>27887126.25899653</v>
+        <v>28823661.47845817</v>
       </c>
       <c r="G21" t="n">
-        <v>29727938.07177692</v>
+        <v>30055997.82050822</v>
       </c>
       <c r="H21" t="n">
-        <v>31863091.8669046</v>
+        <v>31865237.08872719</v>
       </c>
       <c r="I21" t="n">
-        <v>34336843.52504044</v>
+        <v>33968641.51646213</v>
       </c>
       <c r="J21" t="n">
-        <v>34207882.51474299</v>
+        <v>34828491.29085891</v>
       </c>
       <c r="K21" t="n">
-        <v>37261429.39100345</v>
+        <v>35912591.02452937</v>
       </c>
       <c r="L21" t="n">
-        <v>39937662.17189768</v>
+        <v>38491946.00144549</v>
       </c>
       <c r="M21" t="n">
-        <v>43502674.52007752</v>
+        <v>38794945.40478656</v>
       </c>
       <c r="N21" t="n">
-        <v>43592203.00589379</v>
+        <v>41806864.67876201</v>
       </c>
       <c r="O21" t="n">
-        <v>47483435.83097704</v>
+        <v>41892903.18864001</v>
       </c>
       <c r="P21" t="n">
-        <v>49513558.32820547</v>
+        <v>45632448.9969496</v>
       </c>
       <c r="Q21" t="n">
-        <v>48751877.14917358</v>
+        <v>49440507.02581026</v>
       </c>
       <c r="R21" t="n">
-        <v>51403094.58075804</v>
+        <v>52991479.37896565</v>
       </c>
       <c r="S21" t="n">
-        <v>53600799.46266718</v>
+        <v>53408615.64517013</v>
       </c>
       <c r="T21" t="n">
-        <v>56515710.27620281</v>
+        <v>53518530.55364428</v>
       </c>
       <c r="U21" t="n">
-        <v>57946295.032067</v>
+        <v>54250959.61461683</v>
       </c>
     </row>
     <row r="22">
@@ -1803,64 +1803,64 @@
         <v>22561132</v>
       </c>
       <c r="B22" t="n">
-        <v>24706203.45921767</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C22" t="n">
-        <v>25762500.64129605</v>
+        <v>24911360.66240834</v>
       </c>
       <c r="D22" t="n">
-        <v>27463067.24205725</v>
+        <v>26700572.75413537</v>
       </c>
       <c r="E22" t="n">
-        <v>27838913.67026521</v>
+        <v>28307830.14745862</v>
       </c>
       <c r="F22" t="n">
-        <v>29190996.58451105</v>
+        <v>30011837.38776753</v>
       </c>
       <c r="G22" t="n">
-        <v>28741943.16467351</v>
+        <v>31992900.05709955</v>
       </c>
       <c r="H22" t="n">
-        <v>28299797.66157269</v>
+        <v>33546734.16344192</v>
       </c>
       <c r="I22" t="n">
-        <v>30496906.20592393</v>
+        <v>36346231.30157906</v>
       </c>
       <c r="J22" t="n">
-        <v>30027763.60619846</v>
+        <v>36209723.50913336</v>
       </c>
       <c r="K22" t="n">
-        <v>31660729.04177862</v>
+        <v>38599904.77607624</v>
       </c>
       <c r="L22" t="n">
-        <v>34486905.73435777</v>
+        <v>38006111.44000708</v>
       </c>
       <c r="M22" t="n">
-        <v>35760871.64595714</v>
+        <v>39851995.74869848</v>
       </c>
       <c r="N22" t="n">
-        <v>35210751.96564759</v>
+        <v>41555841.13631688</v>
       </c>
       <c r="O22" t="n">
-        <v>37944405.57412562</v>
+        <v>43090937.54198729</v>
       </c>
       <c r="P22" t="n">
-        <v>39346093.49619334</v>
+        <v>46185863.89060386</v>
       </c>
       <c r="Q22" t="n">
-        <v>38740821.32638027</v>
+        <v>46817941.5760271</v>
       </c>
       <c r="R22" t="n">
-        <v>38820549.92033209</v>
+        <v>48819611.31209563</v>
       </c>
       <c r="S22" t="n">
-        <v>40028909.69331538</v>
+        <v>49203907.62952142</v>
       </c>
       <c r="T22" t="n">
-        <v>43602067.19879548</v>
+        <v>51307587.74622172</v>
       </c>
       <c r="U22" t="n">
-        <v>45466244.3796766</v>
+        <v>55290949.77500203</v>
       </c>
     </row>
     <row r="23">
@@ -1868,64 +1868,64 @@
         <v>22561132</v>
       </c>
       <c r="B23" t="n">
-        <v>23263388.00610278</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C23" t="n">
-        <v>23717007.41923334</v>
+        <v>23422109.84631123</v>
       </c>
       <c r="D23" t="n">
-        <v>23490046.96003449</v>
+        <v>24287335.9049138</v>
       </c>
       <c r="E23" t="n">
-        <v>24767479.24799792</v>
+        <v>24196118.45292386</v>
       </c>
       <c r="F23" t="n">
-        <v>26978333.97886223</v>
+        <v>24527254.97954975</v>
       </c>
       <c r="G23" t="n">
-        <v>27033855.37881337</v>
+        <v>25718496.9505546</v>
       </c>
       <c r="H23" t="n">
-        <v>28504006.5363562</v>
+        <v>26369510.43868722</v>
       </c>
       <c r="I23" t="n">
-        <v>29391245.25239886</v>
+        <v>28416757.4680845</v>
       </c>
       <c r="J23" t="n">
-        <v>30476974.56773463</v>
+        <v>29301280.3992002</v>
       </c>
       <c r="K23" t="n">
-        <v>33197484.10085371</v>
+        <v>29020881.108642</v>
       </c>
       <c r="L23" t="n">
-        <v>35967836.09043641</v>
+        <v>28574444.62365234</v>
       </c>
       <c r="M23" t="n">
-        <v>39387592.62780406</v>
+        <v>29131625.83892985</v>
       </c>
       <c r="N23" t="n">
-        <v>42445523.19461803</v>
+        <v>31393314.94381227</v>
       </c>
       <c r="O23" t="n">
-        <v>43273180.51248209</v>
+        <v>31457922.37272738</v>
       </c>
       <c r="P23" t="n">
-        <v>44368556.50751729</v>
+        <v>32254218.19874892</v>
       </c>
       <c r="Q23" t="n">
-        <v>45749608.01191498</v>
+        <v>33070670.69738941</v>
       </c>
       <c r="R23" t="n">
-        <v>50099397.65973739</v>
+        <v>35830440.02463765</v>
       </c>
       <c r="S23" t="n">
-        <v>51658831.95180582</v>
+        <v>35487559.78778729</v>
       </c>
       <c r="T23" t="n">
-        <v>54768467.10268937</v>
+        <v>36179541.80004399</v>
       </c>
       <c r="U23" t="n">
-        <v>59657342.6876343</v>
+        <v>38357391.56306685</v>
       </c>
     </row>
     <row r="24">
@@ -1933,64 +1933,64 @@
         <v>22561132</v>
       </c>
       <c r="B24" t="n">
-        <v>22476397.75894921</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C24" t="n">
-        <v>23960050.75779761</v>
+        <v>23809551.72225669</v>
       </c>
       <c r="D24" t="n">
-        <v>26098830.85080638</v>
+        <v>25519628.43855369</v>
       </c>
       <c r="E24" t="n">
-        <v>28125063.15626724</v>
+        <v>26313972.99291762</v>
       </c>
       <c r="F24" t="n">
-        <v>30799143.08564327</v>
+        <v>28509891.43099227</v>
       </c>
       <c r="G24" t="n">
-        <v>30683468.83603661</v>
+        <v>28237065.35574131</v>
       </c>
       <c r="H24" t="n">
-        <v>33422410.96075698</v>
+        <v>30921794.25084572</v>
       </c>
       <c r="I24" t="n">
-        <v>35239983.61080294</v>
+        <v>32423606.79208184</v>
       </c>
       <c r="J24" t="n">
-        <v>35312507.48221248</v>
+        <v>35129378.20876522</v>
       </c>
       <c r="K24" t="n">
-        <v>35179882.11035145</v>
+        <v>38060948.03850882</v>
       </c>
       <c r="L24" t="n">
-        <v>36683974.40848031</v>
+        <v>39466941.10549217</v>
       </c>
       <c r="M24" t="n">
-        <v>36546198.13332579</v>
+        <v>42531032.04208669</v>
       </c>
       <c r="N24" t="n">
-        <v>38958589.880372</v>
+        <v>43360356.72126528</v>
       </c>
       <c r="O24" t="n">
-        <v>39265262.59284849</v>
+        <v>43953765.86438362</v>
       </c>
       <c r="P24" t="n">
-        <v>38889512.74080733</v>
+        <v>43277612.55735289</v>
       </c>
       <c r="Q24" t="n">
-        <v>40552207.81204014</v>
+        <v>43869889.30334357</v>
       </c>
       <c r="R24" t="n">
-        <v>42757512.0285638</v>
+        <v>45745517.03893252</v>
       </c>
       <c r="S24" t="n">
-        <v>45828490.71055581</v>
+        <v>49828964.19755013</v>
       </c>
       <c r="T24" t="n">
-        <v>48054293.05361205</v>
+        <v>53697530.4786182</v>
       </c>
       <c r="U24" t="n">
-        <v>48991317.36871459</v>
+        <v>57242070.97749038</v>
       </c>
     </row>
     <row r="25">
@@ -1998,64 +1998,64 @@
         <v>22561132</v>
       </c>
       <c r="B25" t="n">
-        <v>22214067.67656468</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C25" t="n">
-        <v>22388931.5104567</v>
+        <v>26911588.44218573</v>
       </c>
       <c r="D25" t="n">
-        <v>23736647.00817822</v>
+        <v>27905717.82469453</v>
       </c>
       <c r="E25" t="n">
-        <v>24061495.42794959</v>
+        <v>27963147.78020929</v>
       </c>
       <c r="F25" t="n">
-        <v>24530677.36448465</v>
+        <v>28020695.92654828</v>
       </c>
       <c r="G25" t="n">
-        <v>25579470.04594019</v>
+        <v>28241268.15084234</v>
       </c>
       <c r="H25" t="n">
-        <v>25632112.5845073</v>
+        <v>27806824.67417071</v>
       </c>
       <c r="I25" t="n">
-        <v>27473091.34091519</v>
+        <v>29642335.82941616</v>
       </c>
       <c r="J25" t="n">
-        <v>27369908.94988571</v>
+        <v>30737340.57346993</v>
       </c>
       <c r="K25" t="n">
-        <v>28380968.95261003</v>
+        <v>30443198.87136595</v>
       </c>
       <c r="L25" t="n">
-        <v>28934377.53080089</v>
+        <v>29974882.46687448</v>
       </c>
       <c r="M25" t="n">
-        <v>31348970.45947796</v>
+        <v>31082171.67284554</v>
       </c>
       <c r="N25" t="n">
-        <v>32507019.25738223</v>
+        <v>30604025.76764289</v>
       </c>
       <c r="O25" t="n">
-        <v>34085823.15223078</v>
+        <v>32446253.91508519</v>
       </c>
       <c r="P25" t="n">
-        <v>34552305.45631497</v>
+        <v>32513028.29195913</v>
       </c>
       <c r="Q25" t="n">
-        <v>37234839.31938162</v>
+        <v>34848216.00598953</v>
       </c>
       <c r="R25" t="n">
-        <v>40558585.74661974</v>
+        <v>36135528.92451134</v>
       </c>
       <c r="S25" t="n">
-        <v>40642055.29898182</v>
+        <v>38310729.30543094</v>
       </c>
       <c r="T25" t="n">
-        <v>42143395.93612275</v>
+        <v>40839596.65471251</v>
       </c>
       <c r="U25" t="n">
-        <v>46150313.48871217</v>
+        <v>43535392.96061292</v>
       </c>
     </row>
     <row r="26">
@@ -2063,64 +2063,64 @@
         <v>22561132</v>
       </c>
       <c r="B26" t="n">
-        <v>24706203.45921767</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C26" t="n">
-        <v>25475228.69107363</v>
+        <v>25358282.39541131</v>
       </c>
       <c r="D26" t="n">
-        <v>27008725.74513915</v>
+        <v>25557896.73642892</v>
       </c>
       <c r="E26" t="n">
-        <v>27378354.27250966</v>
+        <v>25759082.3938519</v>
       </c>
       <c r="F26" t="n">
-        <v>29185582.36375349</v>
+        <v>27309666.19607873</v>
       </c>
       <c r="G26" t="n">
-        <v>29245646.27994989</v>
+        <v>29906219.66325272</v>
       </c>
       <c r="H26" t="n">
-        <v>29815915.44704861</v>
+        <v>29620031.39220765</v>
       </c>
       <c r="I26" t="n">
-        <v>29530591.34432019</v>
+        <v>31575231.19211933</v>
       </c>
       <c r="J26" t="n">
-        <v>31479887.26244937</v>
+        <v>32558067.32590684</v>
       </c>
       <c r="K26" t="n">
-        <v>31361656.2997677</v>
+        <v>33192926.33222047</v>
       </c>
       <c r="L26" t="n">
-        <v>32520173.7198271</v>
+        <v>35769922.21497089</v>
       </c>
       <c r="M26" t="n">
-        <v>32587100.22362802</v>
+        <v>38962903.6629319</v>
       </c>
       <c r="N26" t="n">
-        <v>35117061.64572619</v>
+        <v>39496131.36270965</v>
       </c>
       <c r="O26" t="n">
-        <v>38455928.0939095</v>
+        <v>42562488.54036749</v>
       </c>
       <c r="P26" t="n">
-        <v>38311496.78253109</v>
+        <v>43144978.44044105</v>
       </c>
       <c r="Q26" t="n">
-        <v>39058543.54468309</v>
+        <v>42481266.94085569</v>
       </c>
       <c r="R26" t="n">
-        <v>41409696.58782922</v>
+        <v>43803573.14677086</v>
       </c>
       <c r="S26" t="n">
-        <v>41494917.72594357</v>
+        <v>46440356.16421453</v>
       </c>
       <c r="T26" t="n">
-        <v>45440179.14795498</v>
+        <v>48695875.64478225</v>
       </c>
       <c r="U26" t="n">
-        <v>47911300.30463891</v>
+        <v>49645410.36113868</v>
       </c>
     </row>
     <row r="27">
@@ -2128,64 +2128,64 @@
         <v>22561132</v>
       </c>
       <c r="B27" t="n">
-        <v>24050378.25325636</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C27" t="n">
-        <v>26057398.21421815</v>
+        <v>23300588.1770291</v>
       </c>
       <c r="D27" t="n">
-        <v>25656549.83118035</v>
+        <v>24838645.47137541</v>
       </c>
       <c r="E27" t="n">
-        <v>26604317.37361926</v>
+        <v>26911446.85268233</v>
       </c>
       <c r="F27" t="n">
-        <v>28051109.45837369</v>
+        <v>29000768.14493911</v>
       </c>
       <c r="G27" t="n">
-        <v>29739663.23896283</v>
+        <v>30409280.11394812</v>
       </c>
       <c r="H27" t="n">
-        <v>30665364.00295977</v>
+        <v>32593370.03251663</v>
       </c>
       <c r="I27" t="n">
-        <v>32154722.2163809</v>
+        <v>33039427.33565798</v>
       </c>
       <c r="J27" t="n">
-        <v>32407836.50802507</v>
+        <v>34836172.62638469</v>
       </c>
       <c r="K27" t="n">
-        <v>33793411.85298613</v>
+        <v>38148332.65670754</v>
       </c>
       <c r="L27" t="n">
-        <v>34648826.03090683</v>
+        <v>41775406.84778292</v>
       </c>
       <c r="M27" t="n">
-        <v>37137413.44043339</v>
+        <v>43318614.13570871</v>
       </c>
       <c r="N27" t="n">
-        <v>40452463.20285453</v>
+        <v>43407763.82533158</v>
       </c>
       <c r="O27" t="n">
-        <v>43357886.04520892</v>
+        <v>43244734.59774443</v>
       </c>
       <c r="P27" t="n">
-        <v>46219913.06326562</v>
+        <v>47356365.43023389</v>
       </c>
       <c r="Q27" t="n">
-        <v>46315033.62485785</v>
+        <v>48555099.27161239</v>
       </c>
       <c r="R27" t="n">
-        <v>46410349.94452573</v>
+        <v>52042478.86155472</v>
       </c>
       <c r="S27" t="n">
-        <v>46505862.42513928</v>
+        <v>53662395.06757683</v>
       </c>
       <c r="T27" t="n">
-        <v>47953441.43877404</v>
+        <v>55644714.46084044</v>
       </c>
       <c r="U27" t="n">
-        <v>47215759.9824826</v>
+        <v>59964797.5600884</v>
       </c>
     </row>
     <row r="28">
@@ -2193,64 +2193,64 @@
         <v>22561132</v>
       </c>
       <c r="B28" t="n">
-        <v>23788048.17087183</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C28" t="n">
-        <v>25358282.3954113</v>
+        <v>24519343.41284309</v>
       </c>
       <c r="D28" t="n">
-        <v>25557896.73642891</v>
+        <v>24427254.59588341</v>
       </c>
       <c r="E28" t="n">
-        <v>27096370.04431162</v>
+        <v>25045582.80730817</v>
       </c>
       <c r="F28" t="n">
-        <v>29515111.86708144</v>
+        <v>26116389.92611703</v>
       </c>
       <c r="G28" t="n">
-        <v>31806573.63815629</v>
+        <v>27688482.07493295</v>
       </c>
       <c r="H28" t="n">
-        <v>31687115.71921607</v>
+        <v>29355207.27722067</v>
       </c>
       <c r="I28" t="n">
-        <v>33962983.80065446</v>
+        <v>29074291.93213744</v>
       </c>
       <c r="J28" t="n">
-        <v>33835426.91848344</v>
+        <v>30148312.81156157</v>
       </c>
       <c r="K28" t="n">
-        <v>33708349.10959657</v>
+        <v>32138384.13850646</v>
       </c>
       <c r="L28" t="n">
-        <v>36913277.72808704</v>
+        <v>32951904.52428873</v>
       </c>
       <c r="M28" t="n">
-        <v>38920690.18258946</v>
+        <v>34935464.67704021</v>
       </c>
       <c r="N28" t="n">
-        <v>41942371.89123041</v>
+        <v>36226000.61109165</v>
       </c>
       <c r="O28" t="n">
-        <v>44954804.65074417</v>
+        <v>36511163.03364576</v>
       </c>
       <c r="P28" t="n">
-        <v>44785965.10609421</v>
+        <v>39770310.91518961</v>
       </c>
       <c r="Q28" t="n">
-        <v>46180009.20746573</v>
+        <v>40314588.4051891</v>
       </c>
       <c r="R28" t="n">
-        <v>46006568.08616413</v>
+        <v>42506970.43798641</v>
       </c>
       <c r="S28" t="n">
-        <v>49845846.600288</v>
+        <v>46054205.21536462</v>
       </c>
       <c r="T28" t="n">
-        <v>50528013.06190705</v>
+        <v>47219977.41574134</v>
       </c>
       <c r="U28" t="n">
-        <v>53569577.8744486</v>
+        <v>47591681.79728161</v>
       </c>
     </row>
     <row r="29">
@@ -2258,64 +2258,64 @@
         <v>22561132</v>
       </c>
       <c r="B29" t="n">
-        <v>22476397.75894921</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C29" t="n">
-        <v>22261309.34301482</v>
+        <v>25475228.69107363</v>
       </c>
       <c r="D29" t="n">
-        <v>22307123.10825465</v>
+        <v>26564405.03189033</v>
       </c>
       <c r="E29" t="n">
-        <v>22093654.57006341</v>
+        <v>26619074.56624315</v>
       </c>
       <c r="F29" t="n">
-        <v>22010676.06295513</v>
+        <v>26364342.70736185</v>
       </c>
       <c r="G29" t="n">
-        <v>22951727.7765184</v>
+        <v>27031704.51863883</v>
       </c>
       <c r="H29" t="n">
-        <v>23666141.78205217</v>
+        <v>27244491.63883618</v>
       </c>
       <c r="I29" t="n">
-        <v>25641096.95553679</v>
+        <v>29042883.54111356</v>
       </c>
       <c r="J29" t="n">
-        <v>27631792.22061443</v>
+        <v>30453440.97454941</v>
       </c>
       <c r="K29" t="n">
-        <v>30258972.84521576</v>
+        <v>31224310.31705407</v>
       </c>
       <c r="L29" t="n">
-        <v>32256348.77196994</v>
+        <v>31833162.01645885</v>
       </c>
       <c r="M29" t="n">
-        <v>34010508.79911803</v>
+        <v>34859801.25150069</v>
       </c>
       <c r="N29" t="n">
-        <v>35662334.31202273</v>
+        <v>36552875.27818238</v>
       </c>
       <c r="O29" t="n">
-        <v>38638379.68083231</v>
+        <v>35990571.9802788</v>
       </c>
       <c r="P29" t="n">
-        <v>40739606.37666915</v>
+        <v>37529324.78084209</v>
       </c>
       <c r="Q29" t="n">
-        <v>40823448.46941154</v>
+        <v>40879358.28272036</v>
       </c>
       <c r="R29" t="n">
-        <v>40432787.52104989</v>
+        <v>42151802.18667287</v>
       </c>
       <c r="S29" t="n">
-        <v>43101730.60974038</v>
+        <v>42483611.10357806</v>
       </c>
       <c r="T29" t="n">
-        <v>45445682.60105234</v>
+        <v>41830073.60622409</v>
       </c>
       <c r="U29" t="n">
-        <v>48181313.40671925</v>
+        <v>42888920.17021993</v>
       </c>
     </row>
     <row r="30">
@@ -2323,64 +2323,64 @@
         <v>22561132</v>
       </c>
       <c r="B30" t="n">
-        <v>24050378.25325636</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C30" t="n">
-        <v>24099873.92155898</v>
+        <v>24362743.87914242</v>
       </c>
       <c r="D30" t="n">
-        <v>24429693.29147294</v>
+        <v>26679109.3240757</v>
       </c>
       <c r="E30" t="n">
-        <v>24479969.58996424</v>
+        <v>28440180.69235175</v>
       </c>
       <c r="F30" t="n">
-        <v>25526594.29448137</v>
+        <v>28664055.00050887</v>
       </c>
       <c r="G30" t="n">
-        <v>25282316.95120408</v>
+        <v>30722797.37511672</v>
       </c>
       <c r="H30" t="n">
-        <v>24893391.86413189</v>
+        <v>32036330.00049438</v>
       </c>
       <c r="I30" t="n">
-        <v>24655173.96637475</v>
+        <v>33219770.25076647</v>
       </c>
       <c r="J30" t="n">
-        <v>25279271.51123614</v>
+        <v>34833191.10127934</v>
       </c>
       <c r="K30" t="n">
-        <v>26947940.45848394</v>
+        <v>37132508.32244284</v>
       </c>
       <c r="L30" t="n">
-        <v>28883426.10171569</v>
+        <v>37208927.00891083</v>
       </c>
       <c r="M30" t="n">
-        <v>30286238.99159955</v>
+        <v>39665065.07572901</v>
       </c>
       <c r="N30" t="n">
-        <v>32109337.76867219</v>
+        <v>43205744.20155506</v>
       </c>
       <c r="O30" t="n">
-        <v>32175418.77225889</v>
+        <v>44048225.2848537</v>
       </c>
       <c r="P30" t="n">
-        <v>33738117.46431104</v>
+        <v>45675391.77846718</v>
       </c>
       <c r="Q30" t="n">
-        <v>36553585.66539755</v>
+        <v>48424850.06930131</v>
       </c>
       <c r="R30" t="n">
-        <v>37053840.58919915</v>
+        <v>53028996.87366171</v>
       </c>
       <c r="S30" t="n">
-        <v>36483830.79914204</v>
+        <v>56529407.88619618</v>
       </c>
       <c r="T30" t="n">
-        <v>38467889.13375128</v>
+        <v>61904121.32979262</v>
       </c>
       <c r="U30" t="n">
-        <v>38547056.03336577</v>
+        <v>66710165.37048645</v>
       </c>
     </row>
     <row r="31">
@@ -2388,64 +2388,64 @@
         <v>22561132</v>
       </c>
       <c r="B31" t="n">
-        <v>23788048.17087183</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C31" t="n">
-        <v>25358282.3954113</v>
+        <v>26482968.203662</v>
       </c>
       <c r="D31" t="n">
-        <v>24968188.71026087</v>
+        <v>26691435.80267892</v>
       </c>
       <c r="E31" t="n">
-        <v>26035686.89628467</v>
+        <v>26591189.12377575</v>
       </c>
       <c r="F31" t="n">
-        <v>27905651.62613367</v>
+        <v>27109698.27650993</v>
       </c>
       <c r="G31" t="n">
-        <v>29585449.48307888</v>
+        <v>26850271.38251701</v>
       </c>
       <c r="H31" t="n">
-        <v>31710369.30065364</v>
+        <v>27217731.37912216</v>
       </c>
       <c r="I31" t="n">
-        <v>32697411.85229162</v>
+        <v>27115508.05932001</v>
       </c>
       <c r="J31" t="n">
-        <v>33905272.84214684</v>
+        <v>28117170.34846117</v>
       </c>
       <c r="K31" t="n">
-        <v>34960635.73315565</v>
+        <v>27684635.9036512</v>
       </c>
       <c r="L31" t="n">
-        <v>36455354.29926635</v>
+        <v>27419707.13054005</v>
       </c>
       <c r="M31" t="n">
-        <v>38861749.50148029</v>
+        <v>29229664.8981531</v>
       </c>
       <c r="N31" t="n">
-        <v>38263928.13337499</v>
+        <v>30649293.9456808</v>
       </c>
       <c r="O31" t="n">
-        <v>39232504.69411475</v>
+        <v>32316059.35300876</v>
       </c>
       <c r="P31" t="n">
-        <v>39769422.0249056</v>
+        <v>35388611.58986121</v>
       </c>
       <c r="Q31" t="n">
-        <v>40776107.22129277</v>
+        <v>37930332.71959293</v>
       </c>
       <c r="R31" t="n">
-        <v>42282399.81268334</v>
+        <v>41536679.87253849</v>
       </c>
       <c r="S31" t="n">
-        <v>45073434.65524913</v>
+        <v>45485911.96360748</v>
       </c>
       <c r="T31" t="n">
-        <v>48834842.56782296</v>
+        <v>46637298.93094279</v>
       </c>
       <c r="U31" t="n">
-        <v>53194056.58556814</v>
+        <v>47546692.87500195</v>
       </c>
     </row>
     <row r="32">
@@ -2453,64 +2453,64 @@
         <v>22561132</v>
       </c>
       <c r="B32" t="n">
-        <v>23525718.08848731</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C32" t="n">
-        <v>24121225.66511808</v>
+        <v>25625727.72661456</v>
       </c>
       <c r="D32" t="n">
-        <v>24731807.35223895</v>
+        <v>28062175.38216854</v>
       </c>
       <c r="E32" t="n">
-        <v>26651908.19185157</v>
+        <v>29751395.2828442</v>
       </c>
       <c r="F32" t="n">
-        <v>26241914.29239363</v>
+        <v>31715266.33125279</v>
       </c>
       <c r="G32" t="n">
-        <v>26295920.14094057</v>
+        <v>34546311.26347939</v>
       </c>
       <c r="H32" t="n">
-        <v>27114428.17745996</v>
+        <v>36224159.67965016</v>
       </c>
       <c r="I32" t="n">
-        <v>29534781.94905597</v>
+        <v>38194096.61753103</v>
       </c>
       <c r="J32" t="n">
-        <v>29423856.33889359</v>
+        <v>38938854.1605059</v>
       </c>
       <c r="K32" t="n">
-        <v>31537170.02979247</v>
+        <v>38792609.09378327</v>
       </c>
       <c r="L32" t="n">
-        <v>31602073.51241386</v>
+        <v>40000099.15804541</v>
       </c>
       <c r="M32" t="n">
-        <v>31115929.80904209</v>
+        <v>43570684.90773388</v>
       </c>
       <c r="N32" t="n">
-        <v>32265369.95278182</v>
+        <v>43407043.78734505</v>
       </c>
       <c r="O32" t="n">
-        <v>35333102.73351338</v>
+        <v>46019957.47619882</v>
       </c>
       <c r="P32" t="n">
-        <v>36022072.94377911</v>
+        <v>47452411.8201677</v>
       </c>
       <c r="Q32" t="n">
-        <v>39446986.22266767</v>
+        <v>47825945.86981189</v>
       </c>
       <c r="R32" t="n">
-        <v>41821521.81164239</v>
+        <v>49314614.86632421</v>
       </c>
       <c r="S32" t="n">
-        <v>44095853.6758934</v>
+        <v>49416104.32292203</v>
       </c>
       <c r="T32" t="n">
-        <v>45468416.81182671</v>
+        <v>54114497.78158461</v>
       </c>
       <c r="U32" t="n">
-        <v>44768963.19759885</v>
+        <v>56742735.67657206</v>
       </c>
     </row>
     <row r="33">
@@ -2518,64 +2518,64 @@
         <v>22561132</v>
       </c>
       <c r="B33" t="n">
-        <v>24575038.41802541</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C33" t="n">
-        <v>26625841.61650325</v>
+        <v>24239697.08532035</v>
       </c>
       <c r="D33" t="n">
-        <v>28692989.40376806</v>
+        <v>26403439.64624852</v>
       </c>
       <c r="E33" t="n">
-        <v>28752039.56386054</v>
+        <v>28606824.13567524</v>
       </c>
       <c r="F33" t="n">
-        <v>28476896.24636824</v>
+        <v>28499383.71415694</v>
       </c>
       <c r="G33" t="n">
-        <v>30356638.40820986</v>
+        <v>28226658.19274888</v>
       </c>
       <c r="H33" t="n">
-        <v>30948571.12651108</v>
+        <v>30418088.41551619</v>
       </c>
       <c r="I33" t="n">
-        <v>32091828.94533604</v>
+        <v>32072280.4376189</v>
       </c>
       <c r="J33" t="n">
-        <v>32717596.63698313</v>
+        <v>33816430.48760978</v>
       </c>
       <c r="K33" t="n">
-        <v>34116415.56879795</v>
+        <v>34279226.01228617</v>
       </c>
       <c r="L33" t="n">
-        <v>37161797.70095444</v>
+        <v>33751898.90902555</v>
       </c>
       <c r="M33" t="n">
-        <v>38534575.64309388</v>
+        <v>34017585.79403466</v>
       </c>
       <c r="N33" t="n">
-        <v>40182095.61643077</v>
+        <v>37251916.07490321</v>
       </c>
       <c r="O33" t="n">
-        <v>40965617.71678432</v>
+        <v>37545154.25890106</v>
       </c>
       <c r="P33" t="n">
-        <v>42002582.26936235</v>
+        <v>40460043.62340093</v>
       </c>
       <c r="Q33" t="n">
-        <v>45507725.52070127</v>
+        <v>42895560.8254737</v>
       </c>
       <c r="R33" t="n">
-        <v>47717948.91057622</v>
+        <v>43731993.5549821</v>
       </c>
       <c r="S33" t="n">
-        <v>48370993.98021013</v>
+        <v>47635704.70269509</v>
       </c>
       <c r="T33" t="n">
-        <v>47908106.61792216</v>
+        <v>47733738.9628842</v>
       </c>
       <c r="U33" t="n">
-        <v>51627543.47230132</v>
+        <v>51439638.45316896</v>
       </c>
     </row>
     <row r="34">
@@ -2583,64 +2583,64 @@
         <v>22561132</v>
       </c>
       <c r="B34" t="n">
-        <v>24575038.41802541</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C34" t="n">
-        <v>25911474.55229704</v>
+        <v>22518078.80243851</v>
       </c>
       <c r="D34" t="n">
-        <v>27621874.82801706</v>
+        <v>23088079.95979248</v>
       </c>
       <c r="E34" t="n">
-        <v>27357546.64849236</v>
+        <v>24746338.31021482</v>
       </c>
       <c r="F34" t="n">
-        <v>29163401.24145132</v>
+        <v>26092090.05009506</v>
       </c>
       <c r="G34" t="n">
-        <v>30410262.92952962</v>
+        <v>26449173.93891833</v>
       </c>
       <c r="H34" t="n">
-        <v>31003241.28760972</v>
+        <v>27118683.08703478</v>
       </c>
       <c r="I34" t="n">
-        <v>33229991.3614517</v>
+        <v>28278124.21985781</v>
       </c>
       <c r="J34" t="n">
-        <v>34650717.3865381</v>
+        <v>28665125.12877953</v>
       </c>
       <c r="K34" t="n">
-        <v>34722028.54830661</v>
+        <v>29557378.95218578</v>
       </c>
       <c r="L34" t="n">
-        <v>34187889.68743651</v>
+        <v>29961887.13069527</v>
       </c>
       <c r="M34" t="n">
-        <v>37040891.67781288</v>
+        <v>32113843.8813394</v>
       </c>
       <c r="N34" t="n">
-        <v>36686427.99545498</v>
+        <v>32553338.61848754</v>
       </c>
       <c r="O34" t="n">
-        <v>38894790.08466087</v>
+        <v>33377362.76597672</v>
       </c>
       <c r="P34" t="n">
-        <v>38522585.47798277</v>
+        <v>35774629.69411213</v>
       </c>
       <c r="Q34" t="n">
-        <v>38377903.81733776</v>
+        <v>35640268.7012327</v>
       </c>
       <c r="R34" t="n">
-        <v>38456885.52720902</v>
+        <v>36956840.49678171</v>
       </c>
       <c r="S34" t="n">
-        <v>41442558.8804747</v>
+        <v>38107188.94585099</v>
       </c>
       <c r="T34" t="n">
-        <v>43214407.72952279</v>
+        <v>38407159.63356745</v>
       </c>
       <c r="U34" t="n">
-        <v>47323155.13845576</v>
+        <v>38932781.6858553</v>
       </c>
     </row>
     <row r="35">
@@ -2651,61 +2651,61 @@
         <v>23656883.12967957</v>
       </c>
       <c r="C35" t="n">
-        <v>25493530.18555287</v>
+        <v>24255710.89298968</v>
       </c>
       <c r="D35" t="n">
-        <v>25545995.85992354</v>
+        <v>24305629.13577827</v>
       </c>
       <c r="E35" t="n">
-        <v>26489679.47578875</v>
+        <v>25627414.2939831</v>
       </c>
       <c r="F35" t="n">
-        <v>27468223.30112615</v>
+        <v>28064022.30529965</v>
       </c>
       <c r="G35" t="n">
-        <v>28482915.09189971</v>
+        <v>28284935.58449673</v>
       </c>
       <c r="H35" t="n">
-        <v>29535090.17451112</v>
+        <v>27849820.35924806</v>
       </c>
       <c r="I35" t="n">
-        <v>29939293.31944936</v>
+        <v>30497730.70332841</v>
       </c>
       <c r="J35" t="n">
-        <v>31741507.48847333</v>
+        <v>30560495.02025429</v>
       </c>
       <c r="K35" t="n">
-        <v>31806831.49749851</v>
+        <v>30801059.93626548</v>
       </c>
       <c r="L35" t="n">
-        <v>34646049.94140749</v>
+        <v>31759798.59062795</v>
       </c>
       <c r="M35" t="n">
-        <v>35120199.24189243</v>
+        <v>32748379.71824527</v>
       </c>
       <c r="N35" t="n">
-        <v>36213378.91271504</v>
+        <v>34338906.03010953</v>
       </c>
       <c r="O35" t="n">
-        <v>39445945.26668624</v>
+        <v>37603786.85550188</v>
       </c>
       <c r="P35" t="n">
-        <v>41591088.87574905</v>
+        <v>40741847.72223799</v>
       </c>
       <c r="Q35" t="n">
-        <v>41193081.97450041</v>
+        <v>41299421.20119542</v>
       </c>
       <c r="R35" t="n">
-        <v>42714777.85042094</v>
+        <v>45226095.16865829</v>
       </c>
       <c r="S35" t="n">
-        <v>42306017.78115325</v>
+        <v>48474375.23789871</v>
       </c>
       <c r="T35" t="n">
-        <v>43868826.13873262</v>
+        <v>48292317.02396712</v>
       </c>
       <c r="U35" t="n">
-        <v>45744408.41943067</v>
+        <v>48391702.59203649</v>
       </c>
     </row>
     <row r="36">
@@ -2713,64 +2713,64 @@
         <v>22561132</v>
       </c>
       <c r="B36" t="n">
-        <v>22345232.71775694</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C36" t="n">
-        <v>22521129.05151839</v>
+        <v>23843104.46213528</v>
       </c>
       <c r="D36" t="n">
-        <v>24138667.20868246</v>
+        <v>24585264.17790976</v>
       </c>
       <c r="E36" t="n">
-        <v>24890026.84908585</v>
+        <v>25779323.54498475</v>
       </c>
       <c r="F36" t="n">
-        <v>26243592.63800892</v>
+        <v>27930625.13326107</v>
       </c>
       <c r="G36" t="n">
-        <v>27060471.88643301</v>
+        <v>30099072.26716714</v>
       </c>
       <c r="H36" t="n">
-        <v>26958839.19584934</v>
+        <v>31035960.28669293</v>
       </c>
       <c r="I36" t="n">
-        <v>28424910.83433454</v>
+        <v>33084624.66989722</v>
       </c>
       <c r="J36" t="n">
-        <v>30301221.47154808</v>
+        <v>34114443.40346482</v>
       </c>
       <c r="K36" t="n">
-        <v>32477550.27934397</v>
+        <v>34382984.15212364</v>
       </c>
       <c r="L36" t="n">
-        <v>33488472.7253974</v>
+        <v>36852477.96373509</v>
       </c>
       <c r="M36" t="n">
-        <v>35114943.94236017</v>
+        <v>36285565.79233346</v>
       </c>
       <c r="N36" t="n">
-        <v>35799660.21236637</v>
+        <v>38258842.10842645</v>
       </c>
       <c r="O36" t="n">
-        <v>36497727.95948673</v>
+        <v>40561856.63193443</v>
       </c>
       <c r="P36" t="n">
-        <v>39755676.56689508</v>
+        <v>41824417.72321549</v>
       </c>
       <c r="Q36" t="n">
-        <v>41917663.93809054</v>
+        <v>41181020.78550048</v>
       </c>
       <c r="R36" t="n">
-        <v>43709825.58567844</v>
+        <v>43181104.38268302</v>
       </c>
       <c r="S36" t="n">
-        <v>46849202.41559162</v>
+        <v>43018926.43400554</v>
       </c>
       <c r="T36" t="n">
-        <v>48035098.41641323</v>
+        <v>44357968.26330622</v>
       </c>
       <c r="U36" t="n">
-        <v>51205865.30618826</v>
+        <v>43675596.99557595</v>
       </c>
     </row>
     <row r="37">
@@ -2778,64 +2778,64 @@
         <v>22561132</v>
       </c>
       <c r="B37" t="n">
-        <v>23525718.08848731</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C37" t="n">
-        <v>25078636.06788857</v>
+        <v>23852255.2093749</v>
       </c>
       <c r="D37" t="n">
-        <v>24838645.47137541</v>
+        <v>26120084.31864149</v>
       </c>
       <c r="E37" t="n">
-        <v>24745357.43189465</v>
+        <v>26325695.38240714</v>
       </c>
       <c r="F37" t="n">
-        <v>25515601.40190945</v>
+        <v>26532924.96734703</v>
       </c>
       <c r="G37" t="n">
-        <v>25864795.7422925</v>
+        <v>26124761.42074164</v>
       </c>
       <c r="H37" t="n">
-        <v>26970627.76147404</v>
+        <v>27241708.09839492</v>
       </c>
       <c r="I37" t="n">
-        <v>27966938.09001484</v>
+        <v>26822641.13888279</v>
       </c>
       <c r="J37" t="n">
-        <v>28512273.36276716</v>
+        <v>27033782.56209917</v>
       </c>
       <c r="K37" t="n">
-        <v>31223168.53539786</v>
+        <v>28189593.82984015</v>
       </c>
       <c r="L37" t="n">
-        <v>32558094.19461299</v>
+        <v>27755945.27397557</v>
       </c>
       <c r="M37" t="n">
-        <v>33382238.72021787</v>
+        <v>27974433.44438053</v>
       </c>
       <c r="N37" t="n">
-        <v>34421321.22895146</v>
+        <v>29658371.66516443</v>
       </c>
       <c r="O37" t="n">
-        <v>34892394.99955667</v>
+        <v>30409115.38192179</v>
       </c>
       <c r="P37" t="n">
-        <v>34964203.53375085</v>
+        <v>32416402.12388879</v>
       </c>
       <c r="Q37" t="n">
-        <v>35239433.39115075</v>
+        <v>32671576.2972505</v>
       </c>
       <c r="R37" t="n">
-        <v>38385061.06063194</v>
+        <v>33308648.64725047</v>
       </c>
       <c r="S37" t="n">
-        <v>39579865.45583918</v>
+        <v>34732737.61191098</v>
       </c>
       <c r="T37" t="n">
-        <v>41502183.99401364</v>
+        <v>37833135.37529538</v>
       </c>
       <c r="U37" t="n">
-        <v>41828879.27169759</v>
+        <v>40550429.87392835</v>
       </c>
     </row>
     <row r="38">
@@ -2843,64 +2843,64 @@
         <v>22561132</v>
       </c>
       <c r="B38" t="n">
-        <v>24181543.29444862</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C38" t="n">
-        <v>25777751.88669541</v>
+        <v>23578709.3800119</v>
       </c>
       <c r="D38" t="n">
-        <v>27479325.21265411</v>
+        <v>23353072.3671456</v>
       </c>
       <c r="E38" t="n">
-        <v>29133460.08902045</v>
+        <v>24758824.91652095</v>
       </c>
       <c r="F38" t="n">
-        <v>29532166.71633515</v>
+        <v>26105255.70119363</v>
       </c>
       <c r="G38" t="n">
-        <v>31824952.57302594</v>
+        <v>26614289.50004064</v>
       </c>
       <c r="H38" t="n">
-        <v>31335380.25754467</v>
+        <v>29144727.81376948</v>
       </c>
       <c r="I38" t="n">
-        <v>32675103.45378711</v>
+        <v>28865826.65685226</v>
       </c>
       <c r="J38" t="n">
-        <v>33122279.32151482</v>
+        <v>29764327.67802869</v>
       </c>
       <c r="K38" t="n">
-        <v>34153270.12416372</v>
+        <v>31382966.97960724</v>
       </c>
       <c r="L38" t="n">
-        <v>37003383.08910371</v>
+        <v>32907177.80026115</v>
       </c>
       <c r="M38" t="n">
-        <v>40521597.55453631</v>
+        <v>35844618.02139232</v>
       </c>
       <c r="N38" t="n">
-        <v>41547322.60446446</v>
+        <v>37377130.65819514</v>
       </c>
       <c r="O38" t="n">
-        <v>40908188.29993278</v>
+        <v>37019449.32902206</v>
       </c>
       <c r="P38" t="n">
-        <v>41705868.68784453</v>
+        <v>40323969.09316704</v>
       </c>
       <c r="Q38" t="n">
-        <v>41064295.42372688</v>
+        <v>40172521.86448786</v>
       </c>
       <c r="R38" t="n">
-        <v>41148805.72639118</v>
+        <v>43992052.28948208</v>
       </c>
       <c r="S38" t="n">
-        <v>44821930.10447912</v>
+        <v>47663218.12890961</v>
       </c>
       <c r="T38" t="n">
-        <v>48041181.77058721</v>
+        <v>46930001.2605069</v>
       </c>
       <c r="U38" t="n">
-        <v>49536550.37348668</v>
+        <v>46480903.51187401</v>
       </c>
     </row>
     <row r="39">
@@ -2908,64 +2908,64 @@
         <v>22561132</v>
       </c>
       <c r="B39" t="n">
-        <v>23001057.92371826</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C39" t="n">
-        <v>23449562.08803008</v>
+        <v>25218459.23164993</v>
       </c>
       <c r="D39" t="n">
-        <v>24179472.08619858</v>
+        <v>25123744.70210131</v>
       </c>
       <c r="E39" t="n">
-        <v>25494396.59023948</v>
+        <v>24883322.43745424</v>
       </c>
       <c r="F39" t="n">
-        <v>26287955.75772548</v>
+        <v>26091857.92543514</v>
       </c>
       <c r="G39" t="n">
-        <v>27411879.69995816</v>
+        <v>26145554.95804216</v>
       </c>
       <c r="H39" t="n">
-        <v>27149561.07374056</v>
+        <v>25743350.43468961</v>
       </c>
       <c r="I39" t="n">
-        <v>27363275.93258419</v>
+        <v>26095661.63961456</v>
       </c>
       <c r="J39" t="n">
-        <v>28851341.59035861</v>
+        <v>27818219.99010165</v>
       </c>
       <c r="K39" t="n">
-        <v>31426739.93462017</v>
+        <v>29816211.84013015</v>
       </c>
       <c r="L39" t="n">
-        <v>33866614.58168225</v>
+        <v>30917639.66290838</v>
       </c>
       <c r="M39" t="n">
-        <v>35905236.26873229</v>
+        <v>33317989.34338639</v>
       </c>
       <c r="N39" t="n">
-        <v>35979129.2298313</v>
+        <v>34936180.50780436</v>
       </c>
       <c r="O39" t="n">
-        <v>36053174.26261309</v>
+        <v>36023632.26296879</v>
       </c>
       <c r="P39" t="n">
-        <v>38433021.81142381</v>
+        <v>35888336.0757165</v>
       </c>
       <c r="Q39" t="n">
-        <v>38512116.95410366</v>
+        <v>36170840.48371494</v>
       </c>
       <c r="R39" t="n">
-        <v>38367474.61074227</v>
+        <v>35614414.13593383</v>
       </c>
       <c r="S39" t="n">
-        <v>40007850.29135581</v>
+        <v>38172353.11306662</v>
       </c>
       <c r="T39" t="n">
-        <v>43346531.84074268</v>
+        <v>41135936.25191689</v>
       </c>
       <c r="U39" t="n">
-        <v>44443764.58130083</v>
+        <v>45047066.36729339</v>
       </c>
     </row>
     <row r="40">
@@ -2973,64 +2973,64 @@
         <v>22561132</v>
       </c>
       <c r="B40" t="n">
-        <v>23788048.17087183</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C40" t="n">
-        <v>24113600.0424184</v>
+        <v>24339867.01104338</v>
       </c>
       <c r="D40" t="n">
-        <v>25144560.86230385</v>
+        <v>23965439.89999712</v>
       </c>
       <c r="E40" t="n">
-        <v>27535260.04620516</v>
+        <v>26244030.40410304</v>
       </c>
       <c r="F40" t="n">
-        <v>29032678.51881771</v>
+        <v>27976382.48420506</v>
       </c>
       <c r="G40" t="n">
-        <v>29598794.96702634</v>
+        <v>29497790.01253151</v>
       </c>
       <c r="H40" t="n">
-        <v>29831789.60996507</v>
+        <v>29729989.56859817</v>
       </c>
       <c r="I40" t="n">
-        <v>31800967.43776965</v>
+        <v>32383819.917183</v>
       </c>
       <c r="J40" t="n">
-        <v>31311764.09245975</v>
+        <v>33768368.44888756</v>
       </c>
       <c r="K40" t="n">
-        <v>32468438.46600595</v>
+        <v>35408433.66703817</v>
       </c>
       <c r="L40" t="n">
-        <v>35555478.6321995</v>
+        <v>38363290.85921206</v>
       </c>
       <c r="M40" t="n">
-        <v>38729317.89759416</v>
+        <v>41564732.83704027</v>
       </c>
       <c r="N40" t="n">
-        <v>40610326.96389491</v>
+        <v>41166978.1505227</v>
       </c>
       <c r="O40" t="n">
-        <v>44235384.34624161</v>
+        <v>41491034.76788611</v>
       </c>
       <c r="P40" t="n">
-        <v>45097942.67529852</v>
+        <v>41576423.29994072</v>
       </c>
       <c r="Q40" t="n">
-        <v>48074829.74633548</v>
+        <v>44804287.89347106</v>
       </c>
       <c r="R40" t="n">
-        <v>50968723.68089862</v>
+        <v>46198902.32471273</v>
       </c>
       <c r="S40" t="n">
-        <v>55814737.36853839</v>
+        <v>47636926.65048172</v>
       </c>
       <c r="T40" t="n">
-        <v>58525552.65583622</v>
+        <v>49396661.81354719</v>
       </c>
       <c r="U40" t="n">
-        <v>62048534.28138405</v>
+        <v>53231665.47791408</v>
       </c>
     </row>
     <row r="41">
@@ -3038,64 +3038,64 @@
         <v>22561132</v>
       </c>
       <c r="B41" t="n">
-        <v>23788048.17087183</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C41" t="n">
-        <v>25634878.47385417</v>
+        <v>24768487.2495671</v>
       </c>
       <c r="D41" t="n">
-        <v>27028950.67457113</v>
+        <v>24387466.55123568</v>
       </c>
       <c r="E41" t="n">
-        <v>28184555.35819698</v>
+        <v>25004787.60606875</v>
       </c>
       <c r="F41" t="n">
-        <v>28897992.29545202</v>
+        <v>26655338.04191607</v>
       </c>
       <c r="G41" t="n">
-        <v>28621452.27986887</v>
+        <v>27794969.1676574</v>
       </c>
       <c r="H41" t="n">
-        <v>29845143.30306154</v>
+        <v>28821731.13657113</v>
       </c>
       <c r="I41" t="n">
-        <v>32162227.69153343</v>
+        <v>31059360.97761909</v>
       </c>
       <c r="J41" t="n">
-        <v>33163335.15218853</v>
+        <v>32206711.4365536</v>
       </c>
       <c r="K41" t="n">
-        <v>34002800.16979998</v>
+        <v>33396445.67397492</v>
       </c>
       <c r="L41" t="n">
-        <v>36840356.31759751</v>
+        <v>35406765.25455025</v>
       </c>
       <c r="M41" t="n">
-        <v>37558716.89379239</v>
+        <v>38155636.72702167</v>
       </c>
       <c r="N41" t="n">
-        <v>38509442.41021049</v>
+        <v>39786955.42079379</v>
       </c>
       <c r="O41" t="n">
-        <v>41499196.11691502</v>
+        <v>40331460.69955137</v>
       </c>
       <c r="P41" t="n">
-        <v>42549667.16390946</v>
+        <v>41586850.3010642</v>
       </c>
       <c r="Q41" t="n">
-        <v>44616223.30401552</v>
+        <v>41188883.9609555</v>
       </c>
       <c r="R41" t="n">
-        <v>43929879.22539183</v>
+        <v>43189349.45756523</v>
       </c>
       <c r="S41" t="n">
-        <v>43509491.21499474</v>
+        <v>46793529.21513522</v>
       </c>
       <c r="T41" t="n">
-        <v>44863802.7596551</v>
+        <v>50698480.15560158</v>
       </c>
       <c r="U41" t="n">
-        <v>47564406.95051028</v>
+        <v>51687064.22636385</v>
       </c>
     </row>
     <row r="42">
@@ -3103,64 +3103,64 @@
         <v>22561132</v>
       </c>
       <c r="B42" t="n">
-        <v>23001057.92371826</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C42" t="n">
-        <v>24118175.41603821</v>
+        <v>24258761.14206955</v>
       </c>
       <c r="D42" t="n">
-        <v>24868897.21236267</v>
+        <v>24167651.01008655</v>
       </c>
       <c r="E42" t="n">
-        <v>25498404.74351265</v>
+        <v>26324962.41971846</v>
       </c>
       <c r="F42" t="n">
-        <v>25699122.09417981</v>
+        <v>27756562.66434918</v>
       </c>
       <c r="G42" t="n">
-        <v>27843730.81837855</v>
+        <v>29266015.98347817</v>
       </c>
       <c r="H42" t="n">
-        <v>30167308.55805781</v>
+        <v>30687410.5338543</v>
       </c>
       <c r="I42" t="n">
-        <v>30054007.32852677</v>
+        <v>33069885.93859889</v>
       </c>
       <c r="J42" t="n">
-        <v>31338946.28338029</v>
+        <v>32945683.31939327</v>
       </c>
       <c r="K42" t="n">
-        <v>31403441.82161516</v>
+        <v>32821947.17565861</v>
       </c>
       <c r="L42" t="n">
-        <v>32563502.82261632</v>
+        <v>32698675.75542408</v>
       </c>
       <c r="M42" t="n">
-        <v>32062569.17816021</v>
+        <v>35807606.46498126</v>
       </c>
       <c r="N42" t="n">
-        <v>32314958.06310252</v>
+        <v>38587598.00618596</v>
       </c>
       <c r="O42" t="n">
-        <v>34823791.21165898</v>
+        <v>39788706.72984946</v>
       </c>
       <c r="P42" t="n">
-        <v>34895458.5592866</v>
+        <v>39407947.76685265</v>
       </c>
       <c r="Q42" t="n">
-        <v>35170147.27267043</v>
+        <v>38801724.07516567</v>
       </c>
       <c r="R42" t="n">
-        <v>34629114.87375047</v>
+        <v>41588585.65354203</v>
       </c>
       <c r="S42" t="n">
-        <v>37317611.98183224</v>
+        <v>41915961.06444875</v>
       </c>
       <c r="T42" t="n">
-        <v>37611367.30831494</v>
+        <v>43708049.90681459</v>
       </c>
       <c r="U42" t="n">
-        <v>38782089.08725768</v>
+        <v>47609623.73860233</v>
       </c>
     </row>
     <row r="43">
@@ -3171,61 +3171,61 @@
         <v>23525718.08848731</v>
       </c>
       <c r="C43" t="n">
-        <v>25762500.64129606</v>
+        <v>25215408.98257006</v>
       </c>
       <c r="D43" t="n">
-        <v>27313290.20702943</v>
+        <v>26440073.28035368</v>
       </c>
       <c r="E43" t="n">
-        <v>27528293.90249603</v>
+        <v>28031649.74768902</v>
       </c>
       <c r="F43" t="n">
-        <v>27104818.311883</v>
+        <v>27600430.89065393</v>
       </c>
       <c r="G43" t="n">
-        <v>27160600.01653815</v>
+        <v>27175845.59619317</v>
       </c>
       <c r="H43" t="n">
-        <v>27216496.51991795</v>
+        <v>28969706.21600622</v>
       </c>
       <c r="I43" t="n">
-        <v>29171270.70217958</v>
+        <v>31218824.38341134</v>
       </c>
       <c r="J43" t="n">
-        <v>29061710.35372559</v>
+        <v>33642557.11173862</v>
       </c>
       <c r="K43" t="n">
-        <v>29290477.19489593</v>
+        <v>33320613.87177861</v>
       </c>
       <c r="L43" t="n">
-        <v>29350756.98461058</v>
+        <v>33195469.57814247</v>
       </c>
       <c r="M43" t="n">
-        <v>30093714.03690722</v>
+        <v>34035748.01594599</v>
       </c>
       <c r="N43" t="n">
-        <v>31905223.65596149</v>
+        <v>33907917.84870406</v>
       </c>
       <c r="O43" t="n">
-        <v>34011267.57206228</v>
+        <v>35357628.16671605</v>
       </c>
       <c r="P43" t="n">
-        <v>36058596.73480565</v>
+        <v>37280441.51497434</v>
       </c>
       <c r="Q43" t="n">
-        <v>38858074.38234138</v>
+        <v>38440862.63054843</v>
       </c>
       <c r="R43" t="n">
-        <v>38938044.28303292</v>
+        <v>38743459.91779742</v>
       </c>
       <c r="S43" t="n">
-        <v>38339049.25055914</v>
+        <v>41075646.30829941</v>
       </c>
       <c r="T43" t="n">
-        <v>41984256.42903383</v>
+        <v>44981044.16532418</v>
       </c>
       <c r="U43" t="n">
-        <v>44267438.10337585</v>
+        <v>46904178.5828483</v>
       </c>
     </row>
     <row r="44">
@@ -3233,64 +3233,64 @@
         <v>22561132</v>
       </c>
       <c r="B44" t="n">
-        <v>24575038.41802541</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C44" t="n">
-        <v>26340094.79082076</v>
+        <v>25331592.71596242</v>
       </c>
       <c r="D44" t="n">
-        <v>27772517.96183696</v>
+        <v>25972812.47953099</v>
       </c>
       <c r="E44" t="n">
-        <v>27829673.79209013</v>
+        <v>26630263.46826575</v>
       </c>
       <c r="F44" t="n">
-        <v>29019512.85632635</v>
+        <v>27768822.54740419</v>
       </c>
       <c r="G44" t="n">
-        <v>30597647.74752994</v>
+        <v>29601825.2059615</v>
       </c>
       <c r="H44" t="n">
-        <v>32973154.24786197</v>
+        <v>30006941.65468281</v>
       </c>
       <c r="I44" t="n">
-        <v>33616107.15201569</v>
+        <v>31115415.14528457</v>
       </c>
       <c r="J44" t="n">
-        <v>33098980.99517021</v>
+        <v>30636757.84627106</v>
       </c>
       <c r="K44" t="n">
-        <v>33551957.84858252</v>
+        <v>33549645.14549873</v>
       </c>
       <c r="L44" t="n">
-        <v>33816070.84532899</v>
+        <v>34398888.84561752</v>
       </c>
       <c r="M44" t="n">
-        <v>34672058.59135793</v>
+        <v>33869720.93488808</v>
       </c>
       <c r="N44" t="n">
-        <v>35952864.15479706</v>
+        <v>34333245.76718662</v>
       </c>
       <c r="O44" t="n">
-        <v>36862940.64747748</v>
+        <v>34004692.96592602</v>
       </c>
       <c r="P44" t="n">
-        <v>37153116.90983542</v>
+        <v>34470064.96100964</v>
       </c>
       <c r="Q44" t="n">
-        <v>38957572.90189599</v>
+        <v>37146213.92701491</v>
       </c>
       <c r="R44" t="n">
-        <v>38811257.53203674</v>
+        <v>39382253.11306252</v>
       </c>
       <c r="S44" t="n">
-        <v>41147525.04161207</v>
+        <v>39921219.82922956</v>
       </c>
       <c r="T44" t="n">
-        <v>42428316.12056754</v>
+        <v>40003377.68280244</v>
       </c>
       <c r="U44" t="n">
-        <v>42762301.6891022</v>
+        <v>40318274.71526376</v>
       </c>
     </row>
     <row r="45">
@@ -3298,64 +3298,64 @@
         <v>22561132</v>
       </c>
       <c r="B45" t="n">
-        <v>22214067.67656468</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C45" t="n">
-        <v>24196993.59820214</v>
+        <v>24636289.70850542</v>
       </c>
       <c r="D45" t="n">
-        <v>26497599.80742853</v>
+        <v>26405745.34118247</v>
       </c>
       <c r="E45" t="n">
-        <v>28862892.7508167</v>
+        <v>27227671.88553609</v>
       </c>
       <c r="F45" t="n">
-        <v>30432510.35041749</v>
+        <v>27283706.42279401</v>
       </c>
       <c r="G45" t="n">
-        <v>31202849.87507739</v>
+        <v>28450203.0178141</v>
       </c>
       <c r="H45" t="n">
-        <v>33443936.46401983</v>
+        <v>29004961.61071555</v>
       </c>
       <c r="I45" t="n">
-        <v>36623725.20834605</v>
+        <v>31594072.75737258</v>
       </c>
       <c r="J45" t="n">
-        <v>39254156.07380027</v>
+        <v>32761175.77355835</v>
       </c>
       <c r="K45" t="n">
-        <v>41160655.52881364</v>
+        <v>34161857.90217059</v>
       </c>
       <c r="L45" t="n">
-        <v>44116942.96624358</v>
+        <v>36416860.83753233</v>
       </c>
       <c r="M45" t="n">
-        <v>44207735.61626301</v>
+        <v>38608996.16592833</v>
       </c>
       <c r="N45" t="n">
-        <v>43527675.42015823</v>
+        <v>40933088.42821384</v>
       </c>
       <c r="O45" t="n">
-        <v>47666207.75221816</v>
+        <v>43873031.28239961</v>
       </c>
       <c r="P45" t="n">
-        <v>47210064.85828215</v>
+        <v>46769062.71629719</v>
       </c>
       <c r="Q45" t="n">
-        <v>47307223.15185095</v>
+        <v>46321505.07284078</v>
       </c>
       <c r="R45" t="n">
-        <v>50154910.53550938</v>
+        <v>49379158.73467492</v>
       </c>
       <c r="S45" t="n">
-        <v>54048782.27963037</v>
+        <v>53499882.16747893</v>
       </c>
       <c r="T45" t="n">
-        <v>53845787.91985338</v>
+        <v>57342411.5811561</v>
       </c>
       <c r="U45" t="n">
-        <v>56147928.51949742</v>
+        <v>60460798.19605241</v>
       </c>
     </row>
     <row r="46">
@@ -3363,64 +3363,64 @@
         <v>22561132</v>
       </c>
       <c r="B46" t="n">
-        <v>24706203.45921767</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C46" t="n">
-        <v>27055224.41729694</v>
+        <v>25044320.76574</v>
       </c>
       <c r="D46" t="n">
-        <v>29313000.77665477</v>
+        <v>24950260.25881519</v>
       </c>
       <c r="E46" t="n">
-        <v>30395839.69655649</v>
+        <v>27032375.96790404</v>
       </c>
       <c r="F46" t="n">
-        <v>30811822.64855674</v>
+        <v>29288245.6090587</v>
       </c>
       <c r="G46" t="n">
-        <v>30516968.18848693</v>
+        <v>31051269.56087022</v>
       </c>
       <c r="H46" t="n">
-        <v>32708792.60248147</v>
+        <v>30754123.70795257</v>
       </c>
       <c r="I46" t="n">
-        <v>32966268.40383967</v>
+        <v>31353807.10506077</v>
       </c>
       <c r="J46" t="n">
-        <v>34184061.10761613</v>
+        <v>32329751.01397975</v>
       </c>
       <c r="K46" t="n">
-        <v>34055673.91170823</v>
+        <v>35027690.10394798</v>
       </c>
       <c r="L46" t="n">
-        <v>35511701.44123529</v>
+        <v>37747131.35708358</v>
       </c>
       <c r="M46" t="n">
-        <v>36204154.19845254</v>
+        <v>38922079.03739779</v>
       </c>
       <c r="N46" t="n">
-        <v>36068180.01378433</v>
+        <v>38323329.60284767</v>
       </c>
       <c r="O46" t="n">
-        <v>36771483.70481367</v>
+        <v>40630225.99073136</v>
       </c>
       <c r="P46" t="n">
-        <v>38129843.225952</v>
+        <v>41658700.75722709</v>
       </c>
       <c r="Q46" t="n">
-        <v>39095025.68930516</v>
+        <v>43197596.85579337</v>
       </c>
       <c r="R46" t="n">
-        <v>40539218.17282094</v>
+        <v>43788778.54508967</v>
       </c>
       <c r="S46" t="n">
-        <v>41565389.25426465</v>
+        <v>45915515.96048489</v>
       </c>
       <c r="T46" t="n">
-        <v>42617535.85116854</v>
+        <v>48946370.53420419</v>
       </c>
       <c r="U46" t="n">
-        <v>43696315.482942</v>
+        <v>52177289.92816726</v>
       </c>
     </row>
     <row r="47">
@@ -3428,64 +3428,64 @@
         <v>22561132</v>
       </c>
       <c r="B47" t="n">
-        <v>24050378.25325636</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C47" t="n">
-        <v>24798989.74036583</v>
+        <v>24504092.16744373</v>
       </c>
       <c r="D47" t="n">
-        <v>26003429.35017432</v>
+        <v>24839443.47530887</v>
       </c>
       <c r="E47" t="n">
-        <v>25754588.922639</v>
+        <v>26912311.45057147</v>
       </c>
       <c r="F47" t="n">
-        <v>28203288.46669719</v>
+        <v>28375852.82403825</v>
       </c>
       <c r="G47" t="n">
-        <v>28917199.59598342</v>
+        <v>29424072.96558522</v>
       </c>
       <c r="H47" t="n">
-        <v>30489770.50247164</v>
+        <v>29142498.60868074</v>
       </c>
       <c r="I47" t="n">
-        <v>30729778.69197467</v>
+        <v>28863618.78419394</v>
       </c>
       <c r="J47" t="n">
-        <v>31686298.58878873</v>
+        <v>30601082.06320822</v>
       </c>
       <c r="K47" t="n">
-        <v>34330541.14859479</v>
+        <v>30486151.68365284</v>
       </c>
       <c r="L47" t="n">
-        <v>34999962.12563367</v>
+        <v>32144045.11241897</v>
       </c>
       <c r="M47" t="n">
-        <v>34461547.73333301</v>
+        <v>33705220.04568048</v>
       </c>
       <c r="N47" t="n">
-        <v>37738089.10914874</v>
+        <v>35342218.26638824</v>
       </c>
       <c r="O47" t="n">
-        <v>40887357.58771669</v>
+        <v>38497020.96839513</v>
       </c>
       <c r="P47" t="n">
-        <v>44061725.25586079</v>
+        <v>40142935.31676728</v>
       </c>
       <c r="Q47" t="n">
-        <v>48251034.07645709</v>
+        <v>40692312.36644675</v>
       </c>
       <c r="R47" t="n">
-        <v>47508774.66780684</v>
+        <v>42432084.92826034</v>
       </c>
       <c r="S47" t="n">
-        <v>50644799.25517382</v>
+        <v>42272720.11834747</v>
       </c>
       <c r="T47" t="n">
-        <v>51926773.37217897</v>
+        <v>45554643.03792738</v>
       </c>
       <c r="U47" t="n">
-        <v>52939308.28139649</v>
+        <v>48826520.44608371</v>
       </c>
     </row>
     <row r="48">
@@ -3493,64 +3493,64 @@
         <v>22561132</v>
       </c>
       <c r="B48" t="n">
-        <v>24181543.29444862</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C48" t="n">
-        <v>26480680.5168521</v>
+        <v>25219984.35618987</v>
       </c>
       <c r="D48" t="n">
-        <v>28998415.53109522</v>
+        <v>24832018.14919146</v>
       </c>
       <c r="E48" t="n">
-        <v>30575403.11065292</v>
+        <v>26615531.61265167</v>
       </c>
       <c r="F48" t="n">
-        <v>30638327.27736031</v>
+        <v>28217669.90217723</v>
       </c>
       <c r="G48" t="n">
-        <v>32126372.36861105</v>
+        <v>27947640.24770547</v>
       </c>
       <c r="H48" t="n">
-        <v>31632163.22651023</v>
+        <v>30442370.21353871</v>
       </c>
       <c r="I48" t="n">
-        <v>33904084.44748795</v>
+        <v>31743913.36343739</v>
       </c>
       <c r="J48" t="n">
-        <v>35156520.60928183</v>
+        <v>34392963.91426747</v>
       </c>
       <c r="K48" t="n">
-        <v>35842047.59453054</v>
+        <v>36263317.03265826</v>
       </c>
       <c r="L48" t="n">
-        <v>35707433.39606616</v>
+        <v>36759599.47851795</v>
       </c>
       <c r="M48" t="n">
-        <v>35365730.2740352</v>
+        <v>39399789.26041356</v>
       </c>
       <c r="N48" t="n">
-        <v>37905807.99586539</v>
+        <v>39709934.98900887</v>
       </c>
       <c r="O48" t="n">
-        <v>37983818.13273516</v>
+        <v>40945978.47955634</v>
       </c>
       <c r="P48" t="n">
-        <v>38945304.25623327</v>
+        <v>44362947.44628994</v>
       </c>
       <c r="Q48" t="n">
-        <v>39931128.52189627</v>
+        <v>48322980.32870946</v>
       </c>
       <c r="R48" t="n">
-        <v>43727707.7062507</v>
+        <v>50950873.55631945</v>
       </c>
       <c r="S48" t="n">
-        <v>46868368.88617539</v>
+        <v>53425460.25957078</v>
       </c>
       <c r="T48" t="n">
-        <v>49689639.16748947</v>
+        <v>53846012.71959097</v>
       </c>
       <c r="U48" t="n">
-        <v>54125156.11002471</v>
+        <v>58026450.19268645</v>
       </c>
     </row>
     <row r="49">
@@ -3558,64 +3558,64 @@
         <v>22561132</v>
       </c>
       <c r="B49" t="n">
-        <v>23525718.08848731</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C49" t="n">
-        <v>25625727.72661456</v>
+        <v>25773176.51307561</v>
       </c>
       <c r="D49" t="n">
-        <v>26572356.68298132</v>
+        <v>27923965.12747632</v>
       </c>
       <c r="E49" t="n">
-        <v>27862925.34122175</v>
+        <v>27494402.81364388</v>
       </c>
       <c r="F49" t="n">
-        <v>30026116.47318324</v>
+        <v>27550986.28303936</v>
       </c>
       <c r="G49" t="n">
-        <v>30437039.56964349</v>
+        <v>29529784.56967835</v>
       </c>
       <c r="H49" t="n">
-        <v>31207493.74263655</v>
+        <v>29418877.72848327</v>
       </c>
       <c r="I49" t="n">
-        <v>30908852.8987445</v>
+        <v>31873902.5188799</v>
       </c>
       <c r="J49" t="n">
-        <v>31870946.80386817</v>
+        <v>34348493.48251569</v>
       </c>
       <c r="K49" t="n">
-        <v>31565957.03033368</v>
+        <v>36615816.11614227</v>
       </c>
       <c r="L49" t="n">
-        <v>33833123.11455466</v>
+        <v>39458554.54873568</v>
       </c>
       <c r="M49" t="n">
-        <v>33312658.53930831</v>
+        <v>40686773.36878353</v>
       </c>
       <c r="N49" t="n">
-        <v>36286293.7644292</v>
+        <v>40533963.53361171</v>
       </c>
       <c r="O49" t="n">
-        <v>39736328.67911634</v>
+        <v>42738275.59246219</v>
       </c>
       <c r="P49" t="n">
-        <v>43283369.10934118</v>
+        <v>45062462.2263407</v>
       </c>
       <c r="Q49" t="n">
-        <v>44882281.38083381</v>
+        <v>46727095.2094007</v>
       </c>
       <c r="R49" t="n">
-        <v>48627737.42631787</v>
+        <v>47638240.11660954</v>
       </c>
       <c r="S49" t="n">
-        <v>49575943.49619068</v>
+        <v>47736279.59467942</v>
       </c>
       <c r="T49" t="n">
-        <v>52848420.60874651</v>
+        <v>48389575.52930542</v>
       </c>
       <c r="U49" t="n">
-        <v>53571678.86490411</v>
+        <v>49333137.61267358</v>
       </c>
     </row>
     <row r="50">
@@ -3623,64 +3623,64 @@
         <v>22561132</v>
       </c>
       <c r="B50" t="n">
-        <v>24443873.37683315</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C50" t="n">
-        <v>26483730.76593198</v>
+        <v>23437361.0917106</v>
       </c>
       <c r="D50" t="n">
-        <v>28077935.22245375</v>
+        <v>23894372.85547268</v>
       </c>
       <c r="E50" t="n">
-        <v>27809242.76227955</v>
+        <v>25888374.06288005</v>
       </c>
       <c r="F50" t="n">
-        <v>29483237.22838973</v>
+        <v>26543687.65811697</v>
       </c>
       <c r="G50" t="n">
-        <v>30572364.77963728</v>
+        <v>27369907.9063753</v>
       </c>
       <c r="H50" t="n">
-        <v>31346244.44585259</v>
+        <v>29653944.81088193</v>
       </c>
       <c r="I50" t="n">
-        <v>32868671.72311664</v>
+        <v>29887373.5802164</v>
       </c>
       <c r="J50" t="n">
-        <v>35229402.86434051</v>
+        <v>31338946.2833803</v>
       </c>
       <c r="K50" t="n">
-        <v>38169319.81770162</v>
+        <v>33954202.06372286</v>
       </c>
       <c r="L50" t="n">
-        <v>38247872.2617896</v>
+        <v>35998096.13310599</v>
       </c>
       <c r="M50" t="n">
-        <v>41439682.48137876</v>
+        <v>36909317.58491953</v>
       </c>
       <c r="N50" t="n">
-        <v>43934169.64682162</v>
+        <v>40204006.50253269</v>
       </c>
       <c r="O50" t="n">
-        <v>44790854.50486299</v>
+        <v>43559057.4173887</v>
       </c>
       <c r="P50" t="n">
-        <v>44362227.37131964</v>
+        <v>46940847.57646053</v>
       </c>
       <c r="Q50" t="n">
-        <v>46774727.51261419</v>
+        <v>49766480.75709861</v>
       </c>
       <c r="R50" t="n">
-        <v>50406172.3274021</v>
+        <v>51315552.40892313</v>
       </c>
       <c r="S50" t="n">
-        <v>49923809.27814969</v>
+        <v>53211178.09965391</v>
       </c>
       <c r="T50" t="n">
-        <v>52638758.55085831</v>
+        <v>55795543.48142096</v>
       </c>
       <c r="U50" t="n">
-        <v>52135030.71533588</v>
+        <v>55261606.71840746</v>
       </c>
     </row>
     <row r="51">
@@ -3688,64 +3688,64 @@
         <v>22561132</v>
       </c>
       <c r="B51" t="n">
-        <v>23132222.96491052</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C51" t="n">
-        <v>24793651.80447605</v>
+        <v>22905520.67838397</v>
       </c>
       <c r="D51" t="n">
-        <v>27006842.81347868</v>
+        <v>23085827.46512076</v>
       </c>
       <c r="E51" t="n">
-        <v>28946559.00867489</v>
+        <v>24207062.05230786</v>
       </c>
       <c r="F51" t="n">
-        <v>29174419.40596622</v>
+        <v>23975412.00379494</v>
       </c>
       <c r="G51" t="n">
-        <v>31948270.22191749</v>
+        <v>24442915.37518141</v>
       </c>
       <c r="H51" t="n">
-        <v>34057155.6149914</v>
+        <v>24635324.16569354</v>
       </c>
       <c r="I51" t="n">
-        <v>34325245.40786518</v>
+        <v>24256351.95303257</v>
       </c>
       <c r="J51" t="n">
-        <v>37588827.40610242</v>
+        <v>24729333.45231961</v>
       </c>
       <c r="K51" t="n">
-        <v>40070042.46121747</v>
+        <v>25930389.98913709</v>
       </c>
       <c r="L51" t="n">
-        <v>43413913.98828425</v>
+        <v>26737520.23909348</v>
       </c>
       <c r="M51" t="n">
-        <v>44260454.23340674</v>
+        <v>28347001.70899031</v>
       </c>
       <c r="N51" t="n">
-        <v>47439378.94060843</v>
+        <v>29229353.36604121</v>
       </c>
       <c r="O51" t="n">
-        <v>48916015.34284339</v>
+        <v>31498629.73311548</v>
       </c>
       <c r="P51" t="n">
-        <v>53282475.20147024</v>
+        <v>32845332.55135066</v>
       </c>
       <c r="Q51" t="n">
-        <v>53082358.90865725</v>
+        <v>32531018.37053423</v>
       </c>
       <c r="R51" t="n">
-        <v>53500210.55680868</v>
+        <v>32219712.02664891</v>
       </c>
       <c r="S51" t="n">
-        <v>53610313.96757236</v>
+        <v>33409926.51326219</v>
       </c>
       <c r="T51" t="n">
-        <v>53408966.39039684</v>
+        <v>33867158.8185988</v>
       </c>
       <c r="U51" t="n">
-        <v>56313444.96593676</v>
+        <v>36102708.85124061</v>
       </c>
     </row>
     <row r="52">
@@ -3753,64 +3753,64 @@
         <v>22561132</v>
       </c>
       <c r="B52" t="n">
-        <v>24575038.41802541</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C52" t="n">
-        <v>26768715.02934449</v>
+        <v>23315839.42242846</v>
       </c>
       <c r="D52" t="n">
-        <v>26356924.25701567</v>
+        <v>23228270.67995926</v>
       </c>
       <c r="E52" t="n">
-        <v>26411166.79602131</v>
+        <v>23141030.82484078</v>
       </c>
       <c r="F52" t="n">
-        <v>27233262.09295447</v>
+        <v>24264946.53386943</v>
       </c>
       <c r="G52" t="n">
-        <v>27764291.20896267</v>
+        <v>24314883.78360307</v>
       </c>
       <c r="H52" t="n">
-        <v>28305675.0125983</v>
+        <v>26626698.77756709</v>
       </c>
       <c r="I52" t="n">
-        <v>30503239.8562599</v>
+        <v>26836297.78932509</v>
       </c>
       <c r="J52" t="n">
-        <v>31452708.3224101</v>
+        <v>27203566.5500044</v>
       </c>
       <c r="K52" t="n">
-        <v>32066013.61942166</v>
+        <v>29631877.20694463</v>
       </c>
       <c r="L52" t="n">
-        <v>33996247.02447989</v>
+        <v>31243313.6064342</v>
       </c>
       <c r="M52" t="n">
-        <v>34066211.28651929</v>
+        <v>31489253.50723298</v>
       </c>
       <c r="N52" t="n">
-        <v>33740213.87798944</v>
+        <v>33750910.50373813</v>
       </c>
       <c r="O52" t="n">
-        <v>36948172.14079182</v>
+        <v>33820369.86332131</v>
       </c>
       <c r="P52" t="n">
-        <v>36594595.74021981</v>
+        <v>34676466.43058907</v>
       </c>
       <c r="Q52" t="n">
-        <v>39861191.19413028</v>
+        <v>35554233.40937065</v>
       </c>
       <c r="R52" t="n">
-        <v>42260660.10602899</v>
+        <v>37487738.51509444</v>
       </c>
       <c r="S52" t="n">
-        <v>44313179.7248223</v>
+        <v>39308446.43999142</v>
       </c>
       <c r="T52" t="n">
-        <v>44662002.48936278</v>
+        <v>39846403.07326397</v>
       </c>
       <c r="U52" t="n">
-        <v>45273225.33509559</v>
+        <v>40160064.43909965</v>
       </c>
     </row>
     <row r="53">
@@ -3818,64 +3818,64 @@
         <v>22561132</v>
       </c>
       <c r="B53" t="n">
-        <v>23394553.04729505</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C53" t="n">
-        <v>25074823.25653873</v>
+        <v>23698705.9247541</v>
       </c>
       <c r="D53" t="n">
-        <v>26875775.74470281</v>
+        <v>23609699.22684462</v>
       </c>
       <c r="E53" t="n">
-        <v>28181080.88778131</v>
+        <v>25168160.7488147</v>
       </c>
       <c r="F53" t="n">
-        <v>29222106.04323011</v>
+        <v>26390530.29004475</v>
       </c>
       <c r="G53" t="n">
-        <v>30301587.25998447</v>
+        <v>26291413.74061563</v>
       </c>
       <c r="H53" t="n">
-        <v>32125609.93550916</v>
+        <v>26039817.43969624</v>
       </c>
       <c r="I53" t="n">
-        <v>33872660.14243127</v>
+        <v>26244796.66176628</v>
       </c>
       <c r="J53" t="n">
-        <v>33548514.92611792</v>
+        <v>26909132.39853022</v>
       </c>
       <c r="K53" t="n">
-        <v>33032428.55974708</v>
+        <v>29467603.83960848</v>
       </c>
       <c r="L53" t="n">
-        <v>35404921.23082765</v>
+        <v>31584059.61328327</v>
       </c>
       <c r="M53" t="n">
-        <v>38153649.53901482</v>
+        <v>32016303.97584234</v>
       </c>
       <c r="N53" t="n">
-        <v>38675802.17316694</v>
+        <v>34315815.39082609</v>
       </c>
       <c r="O53" t="n">
-        <v>40779063.97349232</v>
+        <v>37578500.8001683</v>
       </c>
       <c r="P53" t="n">
-        <v>42996705.04850995</v>
+        <v>39403616.87605709</v>
       </c>
       <c r="Q53" t="n">
-        <v>46834781.09235118</v>
+        <v>40859208.89351686</v>
       </c>
       <c r="R53" t="n">
-        <v>49654029.53576513</v>
+        <v>42843662.70119303</v>
       </c>
       <c r="S53" t="n">
-        <v>50333570.88060699</v>
+        <v>46418994.6704674</v>
       </c>
       <c r="T53" t="n">
-        <v>54241313.25996873</v>
+        <v>48403607.69878084</v>
       </c>
       <c r="U53" t="n">
-        <v>53722249.73954128</v>
+        <v>52161513.72073176</v>
       </c>
     </row>
     <row r="54">
@@ -3883,64 +3883,64 @@
         <v>22561132</v>
       </c>
       <c r="B54" t="n">
-        <v>24312708.33564088</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C54" t="n">
-        <v>26341619.9153607</v>
+        <v>23690317.73978445</v>
       </c>
       <c r="D54" t="n">
-        <v>27467838.23271185</v>
+        <v>25391830.69731794</v>
       </c>
       <c r="E54" t="n">
-        <v>30079430.40988621</v>
+        <v>27658417.7997179</v>
       </c>
       <c r="F54" t="n">
-        <v>29616709.95931099</v>
+        <v>27715338.81188555</v>
       </c>
       <c r="G54" t="n">
-        <v>32432612.95786824</v>
+        <v>28578028.81971939</v>
       </c>
       <c r="H54" t="n">
-        <v>33065025.69381104</v>
+        <v>29301425.76867984</v>
       </c>
       <c r="I54" t="n">
-        <v>35824323.94177968</v>
+        <v>28850673.58523013</v>
       </c>
       <c r="J54" t="n">
-        <v>35273228.15671971</v>
+        <v>29413241.06752119</v>
       </c>
       <c r="K54" t="n">
-        <v>38421872.49643159</v>
+        <v>29302771.9359767</v>
       </c>
       <c r="L54" t="n">
-        <v>40064573.92221514</v>
+        <v>31066670.30896832</v>
       </c>
       <c r="M54" t="n">
-        <v>41311656.19046411</v>
+        <v>32394904.99132612</v>
       </c>
       <c r="N54" t="n">
-        <v>42837732.26535917</v>
+        <v>31896564.9353588</v>
       </c>
       <c r="O54" t="n">
-        <v>46910666.05520757</v>
+        <v>31405890.98649839</v>
       </c>
       <c r="P54" t="n">
-        <v>46734480.76072078</v>
+        <v>34209319.70725209</v>
       </c>
       <c r="Q54" t="n">
-        <v>46015550.92394128</v>
+        <v>34876376.9529606</v>
       </c>
       <c r="R54" t="n">
-        <v>46110250.90833697</v>
+        <v>34948152.52202164</v>
       </c>
       <c r="S54" t="n">
-        <v>45400923.777281</v>
+        <v>36645517.60131904</v>
       </c>
       <c r="T54" t="n">
-        <v>49189660.87353729</v>
+        <v>37147030.66171003</v>
       </c>
       <c r="U54" t="n">
-        <v>51578708.8375638</v>
+        <v>38951191.05631303</v>
       </c>
     </row>
     <row r="55">
@@ -3948,64 +3948,64 @@
         <v>22561132</v>
       </c>
       <c r="B55" t="n">
-        <v>23132222.96491052</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C55" t="n">
-        <v>24121225.66511808</v>
+        <v>23581759.62909177</v>
       </c>
       <c r="D55" t="n">
-        <v>25292747.56711347</v>
+        <v>24864179.42197031</v>
       </c>
       <c r="E55" t="n">
-        <v>25638892.03629743</v>
+        <v>25059904.30242035</v>
       </c>
       <c r="F55" t="n">
-        <v>25244481.65306804</v>
+        <v>26131323.727161</v>
       </c>
       <c r="G55" t="n">
-        <v>27057619.53963917</v>
+        <v>28160078.67879492</v>
       </c>
       <c r="H55" t="n">
-        <v>27585223.75159063</v>
+        <v>30673771.83848768</v>
       </c>
       <c r="I55" t="n">
-        <v>29245733.25561816</v>
+        <v>32520198.39354666</v>
       </c>
       <c r="J55" t="n">
-        <v>28795837.80596913</v>
+        <v>32398060.26990559</v>
       </c>
       <c r="K55" t="n">
-        <v>30864045.23518425</v>
+        <v>34348281.42724287</v>
       </c>
       <c r="L55" t="n">
-        <v>32542489.21563556</v>
+        <v>35217741.04404322</v>
       </c>
       <c r="M55" t="n">
-        <v>32041878.82948446</v>
+        <v>37337694.61921195</v>
       </c>
       <c r="N55" t="n">
-        <v>34156943.26836563</v>
+        <v>37197463.12656587</v>
       </c>
       <c r="O55" t="n">
-        <v>36213041.46921417</v>
+        <v>38571558.56981141</v>
       </c>
       <c r="P55" t="n">
-        <v>36708635.86771265</v>
+        <v>39547922.19384128</v>
       </c>
       <c r="Q55" t="n">
-        <v>38278089.00886451</v>
+        <v>42158455.87412169</v>
       </c>
       <c r="R55" t="n">
-        <v>38134325.61875444</v>
+        <v>44941309.25459964</v>
       </c>
       <c r="S55" t="n">
-        <v>37769398.29463293</v>
+        <v>46862744.83262794</v>
       </c>
       <c r="T55" t="n">
-        <v>38725456.79897445</v>
+        <v>46141841.87307528</v>
       </c>
       <c r="U55" t="n">
-        <v>41957121.76384384</v>
+        <v>48651120.74914795</v>
       </c>
     </row>
     <row r="56">
@@ -4013,64 +4013,64 @@
         <v>22561132</v>
       </c>
       <c r="B56" t="n">
-        <v>23001057.92371826</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C56" t="n">
-        <v>23182116.75682683</v>
+        <v>25358282.3954113</v>
       </c>
       <c r="D56" t="n">
-        <v>25116679.7220475</v>
+        <v>25410469.7298869</v>
       </c>
       <c r="E56" t="n">
-        <v>26190526.54182934</v>
+        <v>27678720.63476436</v>
       </c>
       <c r="F56" t="n">
-        <v>26853488.53656825</v>
+        <v>28057518.39235827</v>
       </c>
       <c r="G56" t="n">
-        <v>29094429.90334504</v>
+        <v>30235817.12545658</v>
       </c>
       <c r="H56" t="n">
-        <v>30507490.84523277</v>
+        <v>30649610.08493886</v>
       </c>
       <c r="I56" t="n">
-        <v>32166544.73715364</v>
+        <v>30712686.96956804</v>
       </c>
       <c r="J56" t="n">
-        <v>34102829.67465357</v>
+        <v>30597337.42855223</v>
       </c>
       <c r="K56" t="n">
-        <v>37146999.06981567</v>
+        <v>31727620.4748171</v>
       </c>
       <c r="L56" t="n">
-        <v>40246940.6939294</v>
+        <v>33453027.27726999</v>
       </c>
       <c r="M56" t="n">
-        <v>42201657.80349287</v>
+        <v>33521873.59329872</v>
       </c>
       <c r="N56" t="n">
-        <v>42533859.17190335</v>
+        <v>36709072.45834182</v>
       </c>
       <c r="O56" t="n">
-        <v>44846929.26198542</v>
+        <v>36571201.92088669</v>
       </c>
       <c r="P56" t="n">
-        <v>48850164.50166418</v>
+        <v>36433849.19234976</v>
       </c>
       <c r="Q56" t="n">
-        <v>49234701.32649922</v>
+        <v>39474277.98784353</v>
       </c>
       <c r="R56" t="n">
-        <v>51339698.00708992</v>
+        <v>39096527.95807382</v>
       </c>
       <c r="S56" t="n">
-        <v>52042308.60594139</v>
+        <v>38495094.92605934</v>
       </c>
       <c r="T56" t="n">
-        <v>55780150.5127326</v>
+        <v>39917125.6259816</v>
       </c>
       <c r="U56" t="n">
-        <v>56543531.02483386</v>
+        <v>40695481.00119893</v>
       </c>
     </row>
     <row r="57">
@@ -4078,64 +4078,64 @@
         <v>22561132</v>
       </c>
       <c r="B57" t="n">
-        <v>23656883.12967957</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C57" t="n">
-        <v>24805852.80079554</v>
+        <v>24482740.42388462</v>
       </c>
       <c r="D57" t="n">
-        <v>26875917.61206875</v>
+        <v>24248452.264724</v>
       </c>
       <c r="E57" t="n">
-        <v>26931228.23918021</v>
+        <v>24721279.72574399</v>
       </c>
       <c r="F57" t="n">
-        <v>26830080.95696881</v>
+        <v>24340985.23420559</v>
       </c>
       <c r="G57" t="n">
-        <v>26417346.17508618</v>
+        <v>25806205.80601485</v>
       </c>
       <c r="H57" t="n">
-        <v>28621891.17353571</v>
+        <v>28259812.9896074</v>
       </c>
       <c r="I57" t="n">
-        <v>28847195.86319076</v>
+        <v>29139450.74019958</v>
       </c>
       <c r="J57" t="n">
-        <v>28403431.22783184</v>
+        <v>31740566.98132716</v>
       </c>
       <c r="K57" t="n">
-        <v>28296754.70165714</v>
+        <v>33282145.75168582</v>
       </c>
       <c r="L57" t="n">
-        <v>29013031.74601846</v>
+        <v>34318112.68588529</v>
       </c>
       <c r="M57" t="n">
-        <v>29747439.9439233</v>
+        <v>34388739.34732012</v>
       </c>
       <c r="N57" t="n">
-        <v>29981604.68460944</v>
+        <v>35659078.93675207</v>
       </c>
       <c r="O57" t="n">
-        <v>31612059.91248692</v>
+        <v>36769032.21194354</v>
       </c>
       <c r="P57" t="n">
-        <v>33331182.31739105</v>
+        <v>36844702.8647294</v>
       </c>
       <c r="Q57" t="n">
-        <v>36112691.51150956</v>
+        <v>38419973.45920873</v>
       </c>
       <c r="R57" t="n">
-        <v>35557159.68594024</v>
+        <v>40062593.69292769</v>
       </c>
       <c r="S57" t="n">
-        <v>36457219.69332466</v>
+        <v>41775443.05460499</v>
       </c>
       <c r="T57" t="n">
-        <v>38863738.02903706</v>
+        <v>42832906.75295217</v>
       </c>
       <c r="U57" t="n">
-        <v>38943719.58551111</v>
+        <v>42672036.55168252</v>
       </c>
     </row>
     <row r="58">
@@ -4143,64 +4143,64 @@
         <v>22561132</v>
       </c>
       <c r="B58" t="n">
-        <v>22345232.71775694</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C58" t="n">
-        <v>22261309.34301482</v>
+        <v>23176016.25866709</v>
       </c>
       <c r="D58" t="n">
-        <v>24248452.264724</v>
+        <v>22819492.99543986</v>
       </c>
       <c r="E58" t="n">
-        <v>24862254.44457242</v>
+        <v>24989128.94891664</v>
       </c>
       <c r="F58" t="n">
-        <v>27226112.44694836</v>
+        <v>24604714.05644167</v>
       </c>
       <c r="G58" t="n">
-        <v>29339863.4002947</v>
+        <v>24226212.72781514</v>
       </c>
       <c r="H58" t="n">
-        <v>31276569.48578466</v>
+        <v>26107060.76842955</v>
       </c>
       <c r="I58" t="n">
-        <v>31340936.65259637</v>
+        <v>26767909.99023366</v>
       </c>
       <c r="J58" t="n">
-        <v>31769853.75037528</v>
+        <v>28846087.52553901</v>
       </c>
       <c r="K58" t="n">
-        <v>31465831.38918911</v>
+        <v>28402339.94005406</v>
       </c>
       <c r="L58" t="n">
-        <v>30981783.53722765</v>
+        <v>29616662.96190702</v>
       </c>
       <c r="M58" t="n">
-        <v>33927475.25257984</v>
+        <v>32432561.49203644</v>
       </c>
       <c r="N58" t="n">
-        <v>34194544.23262087</v>
+        <v>32687862.8680838</v>
       </c>
       <c r="O58" t="n">
-        <v>36650503.69791108</v>
+        <v>34655528.87099855</v>
       </c>
       <c r="P58" t="n">
-        <v>36299775.84249029</v>
+        <v>37144597.69953324</v>
       </c>
       <c r="Q58" t="n">
-        <v>37640710.2069195</v>
+        <v>39596489.42875785</v>
       </c>
       <c r="R58" t="n">
-        <v>38374677.11102654</v>
+        <v>40138388.08087133</v>
       </c>
       <c r="S58" t="n">
-        <v>39569158.28703638</v>
+        <v>41854477.98084236</v>
       </c>
       <c r="T58" t="n">
-        <v>41490956.79845371</v>
+        <v>44373934.01640531</v>
       </c>
       <c r="U58" t="n">
-        <v>41817563.69833634</v>
+        <v>47045050.25707319</v>
       </c>
     </row>
     <row r="59">
@@ -4211,61 +4211,61 @@
         <v>23001057.92371826</v>
       </c>
       <c r="C59" t="n">
-        <v>22780948.76002196</v>
+        <v>24251898.08163984</v>
       </c>
       <c r="D59" t="n">
-        <v>22695388.93954852</v>
+        <v>25852750.74951294</v>
       </c>
       <c r="E59" t="n">
-        <v>23797660.67259044</v>
+        <v>26206559.15492204</v>
       </c>
       <c r="F59" t="n">
-        <v>24815113.71631725</v>
+        <v>27174644.35458732</v>
       </c>
       <c r="G59" t="n">
-        <v>27174489.66385894</v>
+        <v>29758360.19027393</v>
       </c>
       <c r="H59" t="n">
-        <v>27862358.7620533</v>
+        <v>31376674.96880878</v>
       </c>
       <c r="I59" t="n">
-        <v>27757714.37525624</v>
+        <v>31806081.16412295</v>
       </c>
       <c r="J59" t="n">
-        <v>27330709.54412635</v>
+        <v>33720667.77521946</v>
       </c>
       <c r="K59" t="n">
-        <v>27863638.81567509</v>
+        <v>35750504.10452159</v>
       </c>
       <c r="L59" t="n">
-        <v>27758989.62130135</v>
+        <v>38110372.58495443</v>
       </c>
       <c r="M59" t="n">
-        <v>27816117.6102354</v>
+        <v>40847579.12992325</v>
       </c>
       <c r="N59" t="n">
-        <v>30460823.55814431</v>
+        <v>44731292.7738013</v>
       </c>
       <c r="O59" t="n">
-        <v>33002799.41668422</v>
+        <v>45863578.03111397</v>
       </c>
       <c r="P59" t="n">
-        <v>34413812.00233243</v>
+        <v>49424284.02525994</v>
       </c>
       <c r="Q59" t="n">
-        <v>34884783.00524682</v>
+        <v>50675363.18449704</v>
       </c>
       <c r="R59" t="n">
-        <v>36984693.96655668</v>
+        <v>49895809.63024867</v>
       </c>
       <c r="S59" t="n">
-        <v>36845788.26032916</v>
+        <v>54059647.92176078</v>
       </c>
       <c r="T59" t="n">
-        <v>37350042.129356</v>
+        <v>56685221.86372207</v>
       </c>
       <c r="U59" t="n">
-        <v>40032639.35517517</v>
+        <v>57131434.38834526</v>
       </c>
     </row>
     <row r="60">
@@ -4273,64 +4273,64 @@
         <v>22561132</v>
       </c>
       <c r="B60" t="n">
-        <v>23788048.17087183</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C60" t="n">
-        <v>25773176.51307561</v>
+        <v>24209957.1567916</v>
       </c>
       <c r="D60" t="n">
-        <v>25526539.49546954</v>
+        <v>24963535.82566548</v>
       </c>
       <c r="E60" t="n">
-        <v>27508340.87454338</v>
+        <v>27191891.43370478</v>
       </c>
       <c r="F60" t="n">
-        <v>29004295.43271147</v>
+        <v>28038288.19591573</v>
       </c>
       <c r="G60" t="n">
-        <v>31424723.05651414</v>
+        <v>29726070.19272829</v>
       </c>
       <c r="H60" t="n">
-        <v>34412528.65697551</v>
+        <v>31861089.8309215</v>
       </c>
       <c r="I60" t="n">
-        <v>36884144.44763264</v>
+        <v>32297125.49679302</v>
       </c>
       <c r="J60" t="n">
-        <v>38246665.72068435</v>
+        <v>33677967.46661685</v>
       </c>
       <c r="K60" t="n">
-        <v>38547734.33625182</v>
+        <v>34726255.06702474</v>
       </c>
       <c r="L60" t="n">
-        <v>41092246.23981164</v>
+        <v>34393941.35404438</v>
       </c>
       <c r="M60" t="n">
-        <v>40699013.02487676</v>
+        <v>36064389.45446891</v>
       </c>
       <c r="N60" t="n">
-        <v>43858758.2051414</v>
+        <v>38444977.31109977</v>
       </c>
       <c r="O60" t="n">
-        <v>45733910.03808169</v>
+        <v>38524097.05819291</v>
       </c>
       <c r="P60" t="n">
-        <v>47689232.7317685</v>
+        <v>39275289.37353139</v>
       </c>
       <c r="Q60" t="n">
-        <v>47232869.49975022</v>
+        <v>39812792.23502059</v>
       </c>
       <c r="R60" t="n">
-        <v>50625282.39847414</v>
+        <v>41746423.58238479</v>
       </c>
       <c r="S60" t="n">
-        <v>53084055.76048786</v>
+        <v>42317745.207009</v>
       </c>
       <c r="T60" t="n">
-        <v>57205337.25779534</v>
+        <v>46341239.57165349</v>
       </c>
       <c r="U60" t="n">
-        <v>58320800.38414689</v>
+        <v>46706026.73881228</v>
       </c>
     </row>
     <row r="61">
@@ -4338,64 +4338,64 @@
         <v>22561132</v>
       </c>
       <c r="B61" t="n">
-        <v>24443873.37683315</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C61" t="n">
-        <v>25346843.96136178</v>
+        <v>23710906.92107359</v>
       </c>
       <c r="D61" t="n">
-        <v>25399007.75554494</v>
+        <v>24724650.86625706</v>
       </c>
       <c r="E61" t="n">
-        <v>26041933.99908998</v>
+        <v>26212966.42667788</v>
       </c>
       <c r="F61" t="n">
-        <v>25641323.50648077</v>
+        <v>27790872.05732345</v>
       </c>
       <c r="G61" t="n">
-        <v>28079253.98046226</v>
+        <v>28655913.17392564</v>
       </c>
       <c r="H61" t="n">
-        <v>28953271.50558756</v>
+        <v>31047268.06797474</v>
       </c>
       <c r="I61" t="n">
-        <v>30359476.65345722</v>
+        <v>33277180.28333345</v>
       </c>
       <c r="J61" t="n">
-        <v>31127967.47280978</v>
+        <v>32765267.93510242</v>
       </c>
       <c r="K61" t="n">
-        <v>33906587.511626</v>
+        <v>33975635.56724852</v>
       </c>
       <c r="L61" t="n">
-        <v>34764866.51016372</v>
+        <v>35428241.11096337</v>
       </c>
       <c r="M61" t="n">
-        <v>34836412.59078052</v>
+        <v>36531009.14165579</v>
       </c>
       <c r="N61" t="n">
-        <v>37743534.24607218</v>
+        <v>37030955.09393083</v>
       </c>
       <c r="O61" t="n">
-        <v>38040642.33086773</v>
+        <v>36891875.64192149</v>
       </c>
       <c r="P61" t="n">
-        <v>37455452.28838193</v>
+        <v>38040201.9424784</v>
       </c>
       <c r="Q61" t="n">
-        <v>37097021.45853037</v>
+        <v>39887741.96182272</v>
       </c>
       <c r="R61" t="n">
-        <v>39330099.4736924</v>
+        <v>40665524.37662311</v>
       </c>
       <c r="S61" t="n">
-        <v>38953729.16359811</v>
+        <v>44295508.92413828</v>
       </c>
       <c r="T61" t="n">
-        <v>39713298.99744184</v>
+        <v>44901716.11389077</v>
       </c>
       <c r="U61" t="n">
-        <v>39564145.30027046</v>
+        <v>47604602.52241454</v>
       </c>
     </row>
     <row r="62">
@@ -4403,64 +4403,64 @@
         <v>22561132</v>
       </c>
       <c r="B62" t="n">
-        <v>23263388.00610278</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C62" t="n">
-        <v>25339980.90093207</v>
+        <v>27055224.41729694</v>
       </c>
       <c r="D62" t="n">
-        <v>24950168.75288711</v>
+        <v>26639026.18939862</v>
       </c>
       <c r="E62" t="n">
-        <v>26452059.50114942</v>
+        <v>27932832.85834578</v>
       </c>
       <c r="F62" t="n">
-        <v>26967855.72583767</v>
+        <v>27665528.95865085</v>
       </c>
       <c r="G62" t="n">
-        <v>29061556.4281054</v>
+        <v>29170031.69615053</v>
       </c>
       <c r="H62" t="n">
-        <v>29121365.09897853</v>
+        <v>31943465.33662067</v>
       </c>
       <c r="I62" t="n">
-        <v>28842687.51210888</v>
+        <v>32752051.73386689</v>
       </c>
       <c r="J62" t="n">
-        <v>28398992.22999953</v>
+        <v>33390693.29727291</v>
       </c>
       <c r="K62" t="n">
-        <v>28292332.37564397</v>
+        <v>33265285.80199721</v>
       </c>
       <c r="L62" t="n">
-        <v>30159891.59148081</v>
+        <v>33527142.18487785</v>
       </c>
       <c r="M62" t="n">
-        <v>29871275.80096422</v>
+        <v>34375816.26652651</v>
       </c>
       <c r="N62" t="n">
-        <v>29759086.39999738</v>
+        <v>36245236.86405328</v>
       </c>
       <c r="O62" t="n">
-        <v>30685391.74498317</v>
+        <v>39480646.99965145</v>
       </c>
       <c r="P62" t="n">
-        <v>33067710.41721923</v>
+        <v>40709553.48715965</v>
       </c>
       <c r="Q62" t="n">
-        <v>34481498.2292216</v>
+        <v>44580143.90358032</v>
       </c>
       <c r="R62" t="n">
-        <v>36156198.79999587</v>
+        <v>45967781.44806238</v>
       </c>
       <c r="S62" t="n">
-        <v>36651015.27685846</v>
+        <v>45260645.96531734</v>
       </c>
       <c r="T62" t="n">
-        <v>39922646.98812245</v>
+        <v>47195734.57053867</v>
       </c>
       <c r="U62" t="n">
-        <v>40236908.52784152</v>
+        <v>48939171.84725144</v>
       </c>
     </row>
     <row r="63">
@@ -4468,64 +4468,64 @@
         <v>22561132</v>
       </c>
       <c r="B63" t="n">
-        <v>24050378.25325636</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C63" t="n">
-        <v>24379520.24908172</v>
+        <v>23714719.73242343</v>
       </c>
       <c r="D63" t="n">
-        <v>26272270.61030336</v>
+        <v>25555857.04280612</v>
       </c>
       <c r="E63" t="n">
-        <v>25868116.78395836</v>
+        <v>26797056.25322625</v>
       </c>
       <c r="F63" t="n">
-        <v>26673308.66786308</v>
+        <v>26540621.19441367</v>
       </c>
       <c r="G63" t="n">
-        <v>26262985.55878356</v>
+        <v>27058144.30872411</v>
       </c>
       <c r="H63" t="n">
-        <v>25858974.56703231</v>
+        <v>26799210.76163602</v>
       </c>
       <c r="I63" t="n">
-        <v>27866585.17431714</v>
+        <v>28412405.73046665</v>
       </c>
       <c r="J63" t="n">
-        <v>28571973.31778273</v>
+        <v>28966427.30332183</v>
       </c>
       <c r="K63" t="n">
-        <v>28132442.50927771</v>
+        <v>28520828.49673864</v>
       </c>
       <c r="L63" t="n">
-        <v>29825892.18287225</v>
+        <v>29906030.71286409</v>
       </c>
       <c r="M63" t="n">
-        <v>31794680.72519232</v>
+        <v>31706242.61883372</v>
       </c>
       <c r="N63" t="n">
-        <v>32969194.31380132</v>
+        <v>34720814.58803683</v>
       </c>
       <c r="O63" t="n">
-        <v>33420394.9686488</v>
+        <v>36810855.36965957</v>
       </c>
       <c r="P63" t="n">
-        <v>33683472.33383431</v>
+        <v>37528640.69848777</v>
       </c>
       <c r="Q63" t="n">
-        <v>33948620.58119037</v>
+        <v>37169509.49042777</v>
       </c>
       <c r="R63" t="n">
-        <v>37176393.7748635</v>
+        <v>38974761.63884708</v>
       </c>
       <c r="S63" t="n">
-        <v>40062653.71875808</v>
+        <v>39054971.6818633</v>
       </c>
       <c r="T63" t="n">
-        <v>40843846.78760894</v>
+        <v>39362403.08885589</v>
       </c>
       <c r="U63" t="n">
-        <v>43539923.64213128</v>
+        <v>39901098.14706746</v>
       </c>
     </row>
     <row r="64">
@@ -4533,64 +4533,64 @@
         <v>22561132</v>
       </c>
       <c r="B64" t="n">
-        <v>23263388.00610278</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C64" t="n">
-        <v>25475228.69107363</v>
+        <v>25493530.18555287</v>
       </c>
       <c r="D64" t="n">
-        <v>25675763.60539267</v>
+        <v>25101355.94510133</v>
       </c>
       <c r="E64" t="n">
-        <v>26325695.38240714</v>
+        <v>25007081.22762022</v>
       </c>
       <c r="F64" t="n">
-        <v>27145130.22712715</v>
+        <v>24767775.37683059</v>
       </c>
       <c r="G64" t="n">
-        <v>26727548.95253323</v>
+        <v>25538717.14589537</v>
       </c>
       <c r="H64" t="n">
-        <v>28957980.57778447</v>
+        <v>25591275.81501137</v>
       </c>
       <c r="I64" t="n">
-        <v>31542897.98967034</v>
+        <v>26685413.6728902</v>
       </c>
       <c r="J64" t="n">
-        <v>33625025.01450066</v>
+        <v>28136615.92469536</v>
       </c>
       <c r="K64" t="n">
-        <v>35649104.06901701</v>
+        <v>29339578.09423861</v>
       </c>
       <c r="L64" t="n">
-        <v>37795023.80669018</v>
+        <v>30423398.79536721</v>
       </c>
       <c r="M64" t="n">
-        <v>41168774.77865899</v>
+        <v>31547256.44959794</v>
       </c>
       <c r="N64" t="n">
-        <v>41492845.53864988</v>
+        <v>31245364.2385065</v>
       </c>
       <c r="O64" t="n">
-        <v>45437909.94085652</v>
+        <v>32217932.66722542</v>
       </c>
       <c r="P64" t="n">
-        <v>48965568.38429748</v>
+        <v>35281155.19699308</v>
       </c>
       <c r="Q64" t="n">
-        <v>53621125.70409543</v>
+        <v>34943531.35419402</v>
       </c>
       <c r="R64" t="n">
-        <v>53107997.08304136</v>
+        <v>38265898.85739197</v>
       </c>
       <c r="S64" t="n">
-        <v>55687351.15972341</v>
+        <v>40791806.97675662</v>
       </c>
       <c r="T64" t="n">
-        <v>54830696.76604518</v>
+        <v>40875756.49831197</v>
       </c>
       <c r="U64" t="n">
-        <v>58450036.86486062</v>
+        <v>40722236.88749362</v>
       </c>
     </row>
     <row r="65">
@@ -4598,64 +4598,64 @@
         <v>22561132</v>
       </c>
       <c r="B65" t="n">
-        <v>23263388.00610278</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C65" t="n">
-        <v>23581759.62909177</v>
+        <v>24666792.19930413</v>
       </c>
       <c r="D65" t="n">
-        <v>23356093.42679531</v>
+        <v>27012066.00636224</v>
       </c>
       <c r="E65" t="n">
-        <v>25169388.10276246</v>
+        <v>27538781.95702408</v>
       </c>
       <c r="F65" t="n">
-        <v>25367515.51303449</v>
+        <v>27435352.84767834</v>
       </c>
       <c r="G65" t="n">
-        <v>26452086.64906432</v>
+        <v>28448830.38520709</v>
       </c>
       <c r="H65" t="n">
-        <v>26352738.90860438</v>
+        <v>28507378.06614234</v>
       </c>
       <c r="I65" t="n">
-        <v>27326224.07150764</v>
+        <v>30886337.60727493</v>
       </c>
       <c r="J65" t="n">
-        <v>27382461.42912273</v>
+        <v>33284257.09320844</v>
       </c>
       <c r="K65" t="n">
-        <v>29030765.53048437</v>
+        <v>34513796.4800202</v>
       </c>
       <c r="L65" t="n">
-        <v>31115846.20605005</v>
+        <v>34183515.89447515</v>
       </c>
       <c r="M65" t="n">
-        <v>33169783.80897091</v>
+        <v>37234887.6984501</v>
       </c>
       <c r="N65" t="n">
-        <v>34202253.27464226</v>
+        <v>38610365.62666557</v>
       </c>
       <c r="O65" t="n">
-        <v>34073797.75328571</v>
+        <v>38016411.36835047</v>
       </c>
       <c r="P65" t="n">
-        <v>37313472.56515811</v>
+        <v>39862795.924907</v>
       </c>
       <c r="Q65" t="n">
-        <v>40861169.77484699</v>
+        <v>41335350.27758064</v>
       </c>
       <c r="R65" t="n">
-        <v>42370604.62534356</v>
+        <v>43102615.49461427</v>
       </c>
       <c r="S65" t="n">
-        <v>44674796.63062286</v>
+        <v>42690144.0039069</v>
       </c>
       <c r="T65" t="n">
-        <v>45026465.95705687</v>
+        <v>42033429.35208569</v>
       </c>
       <c r="U65" t="n">
-        <v>47213315.48827381</v>
+        <v>43586168.13806582</v>
       </c>
     </row>
     <row r="66">
@@ -4663,64 +4663,64 @@
         <v>22561132</v>
       </c>
       <c r="B66" t="n">
-        <v>23525718.08848731</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C66" t="n">
-        <v>25078636.06788857</v>
+        <v>25776226.76215548</v>
       </c>
       <c r="D66" t="n">
-        <v>26296657.56619865</v>
+        <v>25979131.06138275</v>
       </c>
       <c r="E66" t="n">
-        <v>26809423.56439913</v>
+        <v>25579486.684263</v>
       </c>
       <c r="F66" t="n">
-        <v>28267369.70393298</v>
+        <v>25334703.18602017</v>
       </c>
       <c r="G66" t="n">
-        <v>29475922.16373603</v>
+        <v>26565161.37562601</v>
       </c>
       <c r="H66" t="n">
-        <v>29193851.6347128</v>
+        <v>27700937.05839534</v>
       </c>
       <c r="I66" t="n">
-        <v>28914480.386238</v>
+        <v>30012598.56442668</v>
       </c>
       <c r="J66" t="n">
-        <v>31327412.88505059</v>
+        <v>30074364.47961528</v>
       </c>
       <c r="K66" t="n">
-        <v>31391884.68755656</v>
+        <v>29611721.9596892</v>
       </c>
       <c r="L66" t="n">
-        <v>34011558.21271645</v>
+        <v>29156196.40149937</v>
       </c>
       <c r="M66" t="n">
-        <v>34477024.16229037</v>
+        <v>31928314.60727917</v>
       </c>
       <c r="N66" t="n">
-        <v>36953272.22251862</v>
+        <v>31994023.06527607</v>
       </c>
       <c r="O66" t="n">
-        <v>40466722.23775836</v>
+        <v>34105928.57500669</v>
       </c>
       <c r="P66" t="n">
-        <v>43373169.20874275</v>
+        <v>34572686.03230926</v>
       </c>
       <c r="Q66" t="n">
-        <v>46236205.05889309</v>
+        <v>37457799.53199048</v>
       </c>
       <c r="R66" t="n">
-        <v>48750615.57989452</v>
+        <v>37099346.24013611</v>
       </c>
       <c r="S66" t="n">
-        <v>53102311.12420671</v>
+        <v>40410997.95590804</v>
       </c>
       <c r="T66" t="n">
-        <v>53211595.65810589</v>
+        <v>39789344.05729544</v>
       </c>
       <c r="U66" t="n">
-        <v>55486621.79234511</v>
+        <v>40333882.02579192</v>
       </c>
     </row>
     <row r="67">
@@ -4728,64 +4728,64 @@
         <v>22561132</v>
       </c>
       <c r="B67" t="n">
-        <v>23656883.12967957</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C67" t="n">
-        <v>23843104.46213528</v>
+        <v>24118175.41603821</v>
       </c>
       <c r="D67" t="n">
-        <v>25278354.79475633</v>
+        <v>24027593.29057536</v>
       </c>
       <c r="E67" t="n">
-        <v>25477339.964796</v>
+        <v>26032711.83134205</v>
       </c>
       <c r="F67" t="n">
-        <v>27010964.10828131</v>
+        <v>25783591.18441587</v>
       </c>
       <c r="G67" t="n">
-        <v>28479870.39610805</v>
+        <v>27185750.65794354</v>
       </c>
       <c r="H67" t="n">
-        <v>30194233.7049604</v>
+        <v>29138316.57592122</v>
       </c>
       <c r="I67" t="n">
-        <v>29905289.27678277</v>
+        <v>30214702.56209952</v>
       </c>
       <c r="J67" t="n">
-        <v>31010007.67073204</v>
+        <v>32736139.46084961</v>
       </c>
       <c r="K67" t="n">
-        <v>31614680.6219411</v>
+        <v>33184150.63823317</v>
       </c>
       <c r="L67" t="n">
-        <v>34620547.04275756</v>
+        <v>33445368.34448755</v>
       </c>
       <c r="M67" t="n">
-        <v>36704552.15784444</v>
+        <v>35264189.45960786</v>
       </c>
       <c r="N67" t="n">
-        <v>38914005.24214868</v>
+        <v>38001991.78942916</v>
       </c>
       <c r="O67" t="n">
-        <v>39446563.74148227</v>
+        <v>37417396.31923764</v>
       </c>
       <c r="P67" t="n">
-        <v>41821073.89894226</v>
+        <v>39017152.03880671</v>
       </c>
       <c r="Q67" t="n">
-        <v>43122830.40332336</v>
+        <v>41592649.91216371</v>
       </c>
       <c r="R67" t="n">
-        <v>42960871.31784007</v>
+        <v>42403676.8115453</v>
       </c>
       <c r="S67" t="n">
-        <v>46795748.68440846</v>
+        <v>46435341.39709606</v>
       </c>
       <c r="T67" t="n">
-        <v>46347935.66895381</v>
+        <v>48690617.3199941</v>
       </c>
       <c r="U67" t="n">
-        <v>48329510.61724885</v>
+        <v>48507746.9522792</v>
       </c>
     </row>
     <row r="68">
@@ -4793,64 +4793,64 @@
         <v>22561132</v>
       </c>
       <c r="B68" t="n">
-        <v>23919213.21206409</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C68" t="n">
-        <v>24663741.95022427</v>
+        <v>25187956.74085121</v>
       </c>
       <c r="D68" t="n">
-        <v>26291780.1750196</v>
+        <v>26557724.50944414</v>
       </c>
       <c r="E68" t="n">
-        <v>28332992.46775546</v>
+        <v>26921180.84919776</v>
       </c>
       <c r="F68" t="n">
-        <v>29050186.80034538</v>
+        <v>28072177.90611791</v>
       </c>
       <c r="G68" t="n">
-        <v>30629989.79747297</v>
+        <v>28782770.22779506</v>
       </c>
       <c r="H68" t="n">
-        <v>30336875.39113969</v>
+        <v>30180694.45395596</v>
       </c>
       <c r="I68" t="n">
-        <v>33044879.0521729</v>
+        <v>32699293.35360432</v>
       </c>
       <c r="J68" t="n">
-        <v>32728655.30643297</v>
+        <v>33527012.05997074</v>
       </c>
       <c r="K68" t="n">
-        <v>33747393.85025295</v>
+        <v>35155355.05887228</v>
       </c>
       <c r="L68" t="n">
-        <v>35975038.27202469</v>
+        <v>38089092.67392632</v>
       </c>
       <c r="M68" t="n">
-        <v>38140577.81944295</v>
+        <v>38610361.8136404</v>
       </c>
       <c r="N68" t="n">
-        <v>41766914.69467411</v>
+        <v>41607950.58991745</v>
       </c>
       <c r="O68" t="n">
-        <v>45738037.09452198</v>
+        <v>43870668.05531795</v>
       </c>
       <c r="P68" t="n">
-        <v>50086726.60053162</v>
+        <v>48041811.50424927</v>
       </c>
       <c r="Q68" t="n">
-        <v>49607420.49466074</v>
+        <v>51213021.5207658</v>
       </c>
       <c r="R68" t="n">
-        <v>51151541.10836229</v>
+        <v>55486782.01513249</v>
       </c>
       <c r="S68" t="n">
-        <v>53933256.71336229</v>
+        <v>56246147.62602115</v>
       </c>
       <c r="T68" t="n">
-        <v>53103586.05446598</v>
+        <v>56361902.17411524</v>
       </c>
       <c r="U68" t="n">
-        <v>54756531.13950624</v>
+        <v>61065340.16207741</v>
       </c>
     </row>
     <row r="69">
@@ -4858,64 +4858,64 @@
         <v>22561132</v>
       </c>
       <c r="B69" t="n">
-        <v>24181543.29444862</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C69" t="n">
-        <v>25355994.7086014</v>
+        <v>25906136.61640726</v>
       </c>
       <c r="D69" t="n">
-        <v>25850418.45444787</v>
+        <v>25808839.33430504</v>
       </c>
       <c r="E69" t="n">
-        <v>27105923.95054403</v>
+        <v>27362418.28615464</v>
       </c>
       <c r="F69" t="n">
-        <v>27792057.44170517</v>
+        <v>26941494.40742202</v>
       </c>
       <c r="G69" t="n">
-        <v>27687677.08993191</v>
+        <v>29346411.34591176</v>
       </c>
       <c r="H69" t="n">
-        <v>27744658.31770647</v>
+        <v>31795388.76878726</v>
       </c>
       <c r="I69" t="n">
-        <v>29253464.25640262</v>
+        <v>34448734.97621567</v>
       </c>
       <c r="J69" t="n">
-        <v>29313667.87350546</v>
+        <v>35921567.56830563</v>
       </c>
       <c r="K69" t="n">
-        <v>29544418.0640798</v>
+        <v>38919246.12368825</v>
       </c>
       <c r="L69" t="n">
-        <v>32353447.68052159</v>
+        <v>40130677.99436533</v>
       </c>
       <c r="M69" t="n">
-        <v>35241459.50231545</v>
+        <v>43246299.40503544</v>
       </c>
       <c r="N69" t="n">
-        <v>35313986.4111091</v>
+        <v>42581029.25617545</v>
       </c>
       <c r="O69" t="n">
-        <v>36207890.96227955</v>
+        <v>44896664.5428609</v>
       </c>
       <c r="P69" t="n">
-        <v>37124422.96018741</v>
+        <v>48382302.371782</v>
       </c>
       <c r="Q69" t="n">
-        <v>37200825.00698328</v>
+        <v>49325722.63378491</v>
       </c>
       <c r="R69" t="n">
-        <v>39656428.26570697</v>
+        <v>52008146.8463346</v>
       </c>
       <c r="S69" t="n">
-        <v>41582465.31345817</v>
+        <v>56348261.07464586</v>
       </c>
       <c r="T69" t="n">
-        <v>41909792.54650988</v>
+        <v>60395369.99931754</v>
       </c>
       <c r="U69" t="n">
-        <v>44676231.815809</v>
+        <v>63679782.15106375</v>
       </c>
     </row>
     <row r="70">
@@ -4923,64 +4923,64 @@
         <v>22561132</v>
       </c>
       <c r="B70" t="n">
-        <v>23263388.00610278</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C70" t="n">
-        <v>23040768.46852553</v>
+        <v>22653326.59258008</v>
       </c>
       <c r="D70" t="n">
-        <v>23757954.02651285</v>
+        <v>23358452.32199149</v>
       </c>
       <c r="E70" t="n">
-        <v>24221217.12300861</v>
+        <v>24492927.77824912</v>
       </c>
       <c r="F70" t="n">
-        <v>23989431.61721436</v>
+        <v>26821670.87189362</v>
       </c>
       <c r="G70" t="n">
-        <v>24038801.85736571</v>
+        <v>29371826.62985067</v>
       </c>
       <c r="H70" t="n">
-        <v>23669006.11738146</v>
+        <v>30115317.01903973</v>
       </c>
       <c r="I70" t="n">
-        <v>24956170.53598774</v>
+        <v>30702544.14300094</v>
       </c>
       <c r="J70" t="n">
-        <v>25297708.77259576</v>
+        <v>30230238.156283</v>
       </c>
       <c r="K70" t="n">
-        <v>26967594.75196766</v>
+        <v>32577220.11513743</v>
       </c>
       <c r="L70" t="n">
-        <v>28904492.0282303</v>
+        <v>34159433.5316886</v>
       </c>
       <c r="M70" t="n">
-        <v>28627889.81330176</v>
+        <v>37208655.63745794</v>
       </c>
       <c r="N70" t="n">
-        <v>30684034.69068224</v>
+        <v>38150520.03730362</v>
       </c>
       <c r="O70" t="n">
-        <v>31282351.40212657</v>
+        <v>39116225.89372703</v>
       </c>
       <c r="P70" t="n">
-        <v>33529148.04020822</v>
+        <v>39424139.47924201</v>
       </c>
       <c r="Q70" t="n">
-        <v>35547455.72130873</v>
+        <v>41338894.70389228</v>
       </c>
       <c r="R70" t="n">
-        <v>37067263.38299401</v>
+        <v>43586980.41156747</v>
       </c>
       <c r="S70" t="n">
-        <v>37574548.25482388</v>
+        <v>46717534.11560213</v>
       </c>
       <c r="T70" t="n">
-        <v>37651876.65928628</v>
+        <v>49801329.40756871</v>
       </c>
       <c r="U70" t="n">
-        <v>38604960.33310387</v>
+        <v>53957283.26205292</v>
       </c>
     </row>
     <row r="71">
@@ -4988,64 +4988,64 @@
         <v>22561132</v>
       </c>
       <c r="B71" t="n">
-        <v>23001057.92371826</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C71" t="n">
-        <v>25054234.07524959</v>
+        <v>24512480.35241337</v>
       </c>
       <c r="D71" t="n">
-        <v>25834092.3889924</v>
+        <v>24990456.17214002</v>
       </c>
       <c r="E71" t="n">
-        <v>25436679.18310578</v>
+        <v>25187175.07300036</v>
       </c>
       <c r="F71" t="n">
-        <v>26524207.36552759</v>
+        <v>26556900.33304689</v>
       </c>
       <c r="G71" t="n">
-        <v>27812437.50329869</v>
+        <v>27846718.30586509</v>
       </c>
       <c r="H71" t="n">
-        <v>28031370.36703709</v>
+        <v>30170545.35334964</v>
       </c>
       <c r="I71" t="n">
-        <v>27763123.5103398</v>
+        <v>31285062.45762665</v>
       </c>
       <c r="J71" t="n">
-        <v>27820260.00681575</v>
+        <v>33713937.70465884</v>
       </c>
       <c r="K71" t="n">
-        <v>28847956.23371167</v>
+        <v>34175330.56203482</v>
       </c>
       <c r="L71" t="n">
-        <v>30752191.83390933</v>
+        <v>34444350.59986018</v>
       </c>
       <c r="M71" t="n">
-        <v>31530623.47056393</v>
+        <v>33914483.33800872</v>
       </c>
       <c r="N71" t="n">
-        <v>31228890.42915577</v>
+        <v>35955986.51427711</v>
       </c>
       <c r="O71" t="n">
-        <v>32200946.0807871</v>
+        <v>36029983.91936005</v>
       </c>
       <c r="P71" t="n">
-        <v>32641632.85705682</v>
+        <v>35894663.87679838</v>
       </c>
       <c r="Q71" t="n">
-        <v>32898579.99294325</v>
+        <v>38055365.23807918</v>
       </c>
       <c r="R71" t="n">
-        <v>34687665.74413972</v>
+        <v>38133683.16369034</v>
       </c>
       <c r="S71" t="n">
-        <v>37179042.74374517</v>
+        <v>39764063.24756549</v>
       </c>
       <c r="T71" t="n">
-        <v>37255557.19803257</v>
+        <v>43082400.60702077</v>
       </c>
       <c r="U71" t="n">
-        <v>37332229.11903462</v>
+        <v>46427184.60925337</v>
       </c>
     </row>
     <row r="72">
@@ -5053,64 +5053,64 @@
         <v>22561132</v>
       </c>
       <c r="B72" t="n">
-        <v>23132222.96491052</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C72" t="n">
-        <v>23314314.29788852</v>
+        <v>23714719.73242343</v>
       </c>
       <c r="D72" t="n">
-        <v>23633382.87379617</v>
+        <v>25004370.14213707</v>
       </c>
       <c r="E72" t="n">
-        <v>24094216.92198763</v>
+        <v>25201198.57044523</v>
       </c>
       <c r="F72" t="n">
-        <v>23723568.71627112</v>
+        <v>26132145.17834021</v>
       </c>
       <c r="G72" t="n">
-        <v>25565393.03432266</v>
+        <v>27401333.60381978</v>
       </c>
       <c r="H72" t="n">
-        <v>26955686.48806003</v>
+        <v>29369383.36544451</v>
       </c>
       <c r="I72" t="n">
-        <v>29205156.34143497</v>
+        <v>29429825.54402487</v>
       </c>
       <c r="J72" t="n">
-        <v>28755885.09802117</v>
+        <v>29832588.08748054</v>
       </c>
       <c r="K72" t="n">
-        <v>29818143.84790521</v>
+        <v>30587741.75249422</v>
       </c>
       <c r="L72" t="n">
-        <v>29359442.84297911</v>
+        <v>30472861.47597018</v>
       </c>
       <c r="M72" t="n">
-        <v>31126752.55606087</v>
+        <v>31775708.25937279</v>
       </c>
       <c r="N72" t="n">
-        <v>30828884.36684896</v>
+        <v>31656366.26344769</v>
       </c>
       <c r="O72" t="n">
-        <v>32326184.45231168</v>
+        <v>32457685.30873998</v>
       </c>
       <c r="P72" t="n">
-        <v>33520332.09088311</v>
+        <v>34034093.1478429</v>
       </c>
       <c r="Q72" t="n">
-        <v>35732988.30752404</v>
+        <v>35687064.10756108</v>
       </c>
       <c r="R72" t="n">
-        <v>38091700.58112066</v>
+        <v>35967984.15070932</v>
       </c>
       <c r="S72" t="n">
-        <v>41713390.29729391</v>
+        <v>37505771.22374741</v>
       </c>
       <c r="T72" t="n">
-        <v>44709376.88021353</v>
+        <v>37582958.08510886</v>
       </c>
       <c r="U72" t="n">
-        <v>48960263.24110857</v>
+        <v>39626788.99854966</v>
       </c>
     </row>
     <row r="73">
@@ -5118,64 +5118,64 @@
         <v>22561132</v>
       </c>
       <c r="B73" t="n">
-        <v>24706203.45921767</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C73" t="n">
-        <v>26911588.44218573</v>
+        <v>23837003.96397554</v>
       </c>
       <c r="D73" t="n">
-        <v>28688005.61206453</v>
+        <v>23470312.53849732</v>
       </c>
       <c r="E73" t="n">
-        <v>28246689.8457076</v>
+        <v>25701827.23223029</v>
       </c>
       <c r="F73" t="n">
-        <v>29782797.18931518</v>
+        <v>25306448.69894546</v>
       </c>
       <c r="G73" t="n">
-        <v>29324639.9321119</v>
+        <v>25358529.35969559</v>
       </c>
       <c r="H73" t="n">
-        <v>29725962.95549547</v>
+        <v>27474715.39509209</v>
       </c>
       <c r="I73" t="n">
-        <v>32379433.87078722</v>
+        <v>28329915.56422226</v>
       </c>
       <c r="J73" t="n">
-        <v>31881331.81147639</v>
+        <v>29047032.01101248</v>
       </c>
       <c r="K73" t="n">
-        <v>32688345.41996237</v>
+        <v>31133280.99625202</v>
       </c>
       <c r="L73" t="n">
-        <v>34275955.98051756</v>
+        <v>31197353.2754127</v>
       </c>
       <c r="M73" t="n">
-        <v>35342857.05410877</v>
+        <v>34163540.96999376</v>
       </c>
       <c r="N73" t="n">
-        <v>35004642.75393974</v>
+        <v>36021417.64348371</v>
       </c>
       <c r="O73" t="n">
-        <v>36704751.45600572</v>
+        <v>38399168.95767045</v>
       </c>
       <c r="P73" t="n">
-        <v>38060645.84992038</v>
+        <v>38031707.20900062</v>
       </c>
       <c r="Q73" t="n">
-        <v>41236831.90169464</v>
+        <v>40542156.48370665</v>
       </c>
       <c r="R73" t="n">
-        <v>41081956.17761619</v>
+        <v>41804104.3722719</v>
       </c>
       <c r="S73" t="n">
-        <v>42838387.6996149</v>
+        <v>41647098.10783478</v>
       </c>
       <c r="T73" t="n">
-        <v>44918966.44519843</v>
+        <v>45122575.97094245</v>
       </c>
       <c r="U73" t="n">
-        <v>47100594.93025693</v>
+        <v>44953106.31715226</v>
       </c>
     </row>
     <row r="74">
@@ -5183,64 +5183,64 @@
         <v>22561132</v>
       </c>
       <c r="B74" t="n">
-        <v>24575038.41802541</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C74" t="n">
-        <v>26625841.61650325</v>
+        <v>25634878.47385417</v>
       </c>
       <c r="D74" t="n">
-        <v>27299822.76161261</v>
+        <v>25687635.04294256</v>
       </c>
       <c r="E74" t="n">
-        <v>28943152.37757451</v>
+        <v>26935234.45936816</v>
       </c>
       <c r="F74" t="n">
-        <v>30180597.47298802</v>
+        <v>27460452.24986313</v>
       </c>
       <c r="G74" t="n">
-        <v>31821874.29749233</v>
+        <v>28474856.9735834</v>
       </c>
       <c r="H74" t="n">
-        <v>32257373.27829369</v>
+        <v>28202366.16139496</v>
       </c>
       <c r="I74" t="n">
-        <v>35324345.74973699</v>
+        <v>27932482.95642985</v>
       </c>
       <c r="J74" t="n">
-        <v>37039981.8162458</v>
+        <v>30263467.12068886</v>
       </c>
       <c r="K74" t="n">
-        <v>39700309.5374442</v>
+        <v>31029527.64635272</v>
       </c>
       <c r="L74" t="n">
-        <v>40705245.28627919</v>
+        <v>32536572.5930298</v>
       </c>
       <c r="M74" t="n">
-        <v>40789016.66391204</v>
+        <v>34495131.58481945</v>
       </c>
       <c r="N74" t="n">
-        <v>43481474.21616351</v>
+        <v>37574319.58342249</v>
       </c>
       <c r="O74" t="n">
-        <v>44582122.75923487</v>
+        <v>40709921.38682763</v>
       </c>
       <c r="P74" t="n">
-        <v>44155493.08903079</v>
+        <v>44107191.23315471</v>
       </c>
       <c r="Q74" t="n">
-        <v>43732946.06146985</v>
+        <v>47275108.11075683</v>
       </c>
       <c r="R74" t="n">
-        <v>46365477.63808997</v>
+        <v>50670554.7190631</v>
       </c>
       <c r="S74" t="n">
-        <v>46191339.94151423</v>
+        <v>52836940.34979932</v>
       </c>
       <c r="T74" t="n">
-        <v>48434765.17932265</v>
+        <v>53867222.86354162</v>
       </c>
       <c r="U74" t="n">
-        <v>53039854.6943379</v>
+        <v>55543937.52431303</v>
       </c>
     </row>
     <row r="75">
@@ -5248,64 +5248,64 @@
         <v>22561132</v>
       </c>
       <c r="B75" t="n">
-        <v>22607562.80014147</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C75" t="n">
-        <v>24099873.92155898</v>
+        <v>23829378.34127586</v>
       </c>
       <c r="D75" t="n">
-        <v>24709915.13101979</v>
+        <v>24709649.12970863</v>
       </c>
       <c r="E75" t="n">
-        <v>25622713.44925427</v>
+        <v>26053405.64395662</v>
       </c>
       <c r="F75" t="n">
-        <v>25377516.29146922</v>
+        <v>25804086.96710487</v>
       </c>
       <c r="G75" t="n">
-        <v>27052670.31539065</v>
+        <v>27057342.23127136</v>
       </c>
       <c r="H75" t="n">
-        <v>28209289.11637366</v>
+        <v>27584941.03590816</v>
       </c>
       <c r="I75" t="n">
-        <v>28759350.06065412</v>
+        <v>29405805.7905678</v>
       </c>
       <c r="J75" t="n">
-        <v>29654536.80534879</v>
+        <v>29979197.95347413</v>
       </c>
       <c r="K75" t="n">
-        <v>30232779.0449904</v>
+        <v>31260938.48360038</v>
       </c>
       <c r="L75" t="n">
-        <v>31876893.60008869</v>
+        <v>30961786.19900518</v>
       </c>
       <c r="M75" t="n">
-        <v>32683794.86392708</v>
+        <v>33365563.27966541</v>
       </c>
       <c r="N75" t="n">
-        <v>34081168.6235734</v>
+        <v>34016167.8790351</v>
       </c>
       <c r="O75" t="n">
-        <v>33755028.08045552</v>
+        <v>35866030.13071109</v>
       </c>
       <c r="P75" t="n">
-        <v>36375663.80009137</v>
+        <v>37399458.2279072</v>
       </c>
       <c r="Q75" t="n">
-        <v>37296442.63950665</v>
+        <v>40955330.79825905</v>
       </c>
       <c r="R75" t="n">
-        <v>40192022.8050297</v>
+        <v>44134975.69571255</v>
       </c>
       <c r="S75" t="n">
-        <v>43546073.67240864</v>
+        <v>45765346.79884081</v>
       </c>
       <c r="T75" t="n">
-        <v>43635691.47366211</v>
+        <v>49584495.23710605</v>
       </c>
       <c r="U75" t="n">
-        <v>43218118.69986054</v>
+        <v>53145809.27541497</v>
       </c>
     </row>
     <row r="76">
@@ -5313,64 +5313,64 @@
         <v>22561132</v>
       </c>
       <c r="B76" t="n">
-        <v>24575038.41802541</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C76" t="n">
-        <v>24196993.59820214</v>
+        <v>22653326.59258008</v>
       </c>
       <c r="D76" t="n">
-        <v>26216248.70660282</v>
+        <v>24280359.59196371</v>
       </c>
       <c r="E76" t="n">
-        <v>27184691.84381793</v>
+        <v>24330328.5617644</v>
       </c>
       <c r="F76" t="n">
-        <v>27556728.55921387</v>
+        <v>24238949.63958986</v>
       </c>
       <c r="G76" t="n">
-        <v>27293023.79843764</v>
+        <v>25979867.06171047</v>
       </c>
       <c r="H76" t="n">
-        <v>29887994.93666675</v>
+        <v>26033333.61716717</v>
       </c>
       <c r="I76" t="n">
-        <v>29949504.41764197</v>
+        <v>27449074.54703735</v>
       </c>
       <c r="J76" t="n">
-        <v>32448810.35595844</v>
+        <v>27026817.6103467</v>
       </c>
       <c r="K76" t="n">
-        <v>32515589.99398662</v>
+        <v>28653713.51337564</v>
       </c>
       <c r="L76" t="n">
-        <v>35039999.5835794</v>
+        <v>30878298.9871126</v>
       </c>
       <c r="M76" t="n">
-        <v>37556682.30511603</v>
+        <v>31300884.64665142</v>
       </c>
       <c r="N76" t="n">
-        <v>40909157.86059855</v>
+        <v>32639133.00615332</v>
       </c>
       <c r="O76" t="n">
-        <v>43133873.68230098</v>
+        <v>32896060.46381065</v>
       </c>
       <c r="P76" t="n">
-        <v>45479573.67346977</v>
+        <v>33346260.24369911</v>
       </c>
       <c r="Q76" t="n">
-        <v>46895207.59499411</v>
+        <v>34965824.47179823</v>
       </c>
       <c r="R76" t="n">
-        <v>50263368.55617465</v>
+        <v>36867330.80899422</v>
       </c>
       <c r="S76" t="n">
-        <v>51243468.2622207</v>
+        <v>36300190.15204094</v>
       </c>
       <c r="T76" t="n">
-        <v>51646844.6025075</v>
+        <v>38485302.41679081</v>
       </c>
       <c r="U76" t="n">
-        <v>51452871.34885774</v>
+        <v>39011993.89390677</v>
       </c>
     </row>
     <row r="77">
@@ -5378,64 +5378,64 @@
         <v>22561132</v>
       </c>
       <c r="B77" t="n">
-        <v>24181543.29444862</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C77" t="n">
-        <v>25777751.88669541</v>
+        <v>22651038.90577017</v>
       </c>
       <c r="D77" t="n">
-        <v>26280399.59560179</v>
+        <v>23619468.90379911</v>
       </c>
       <c r="E77" t="n">
-        <v>27709576.43126843</v>
+        <v>25041257.35648764</v>
       </c>
       <c r="F77" t="n">
-        <v>27444408.98919283</v>
+        <v>26694215.13781606</v>
       </c>
       <c r="G77" t="n">
-        <v>27022223.82410819</v>
+        <v>27525120.82591411</v>
       </c>
       <c r="H77" t="n">
-        <v>27234936.3145431</v>
+        <v>27101694.04764247</v>
       </c>
       <c r="I77" t="n">
-        <v>29191034.90071664</v>
+        <v>28890659.96997968</v>
       </c>
       <c r="J77" t="n">
-        <v>29760239.18501361</v>
+        <v>29957897.38028452</v>
       </c>
       <c r="K77" t="n">
-        <v>29648466.81114371</v>
+        <v>31761231.43218885</v>
       </c>
       <c r="L77" t="n">
-        <v>29364745.11206704</v>
+        <v>34227074.9620009</v>
       </c>
       <c r="M77" t="n">
-        <v>30278775.87181022</v>
+        <v>35690430.62863848</v>
       </c>
       <c r="N77" t="n">
-        <v>32805559.73060393</v>
+        <v>37216351.08673012</v>
       </c>
       <c r="O77" t="n">
-        <v>33445244.66164287</v>
+        <v>37509309.31163742</v>
       </c>
       <c r="P77" t="n">
-        <v>36625157.78702338</v>
+        <v>37586503.45438226</v>
       </c>
       <c r="Q77" t="n">
-        <v>37765182.01233261</v>
+        <v>39412008.20391541</v>
       </c>
       <c r="R77" t="n">
-        <v>37403787.21661752</v>
+        <v>40409646.16792516</v>
       </c>
       <c r="S77" t="n">
-        <v>39655331.18519727</v>
+        <v>40022945.11040061</v>
       </c>
       <c r="T77" t="n">
-        <v>42734048.14345954</v>
+        <v>39639944.59772293</v>
       </c>
       <c r="U77" t="n">
-        <v>43318885.92636346</v>
+        <v>40412895.14130796</v>
       </c>
     </row>
     <row r="78">
@@ -5443,64 +5443,64 @@
         <v>22561132</v>
       </c>
       <c r="B78" t="n">
-        <v>23394553.04729505</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C78" t="n">
-        <v>24938812.9041272</v>
+        <v>23574134.0063921</v>
       </c>
       <c r="D78" t="n">
-        <v>25425101.90342408</v>
+        <v>24856139.1037756</v>
       </c>
       <c r="E78" t="n">
-        <v>25181795.79396531</v>
+        <v>25051800.69276161</v>
       </c>
       <c r="F78" t="n">
-        <v>25819223.74120462</v>
+        <v>27142390.01817488</v>
       </c>
       <c r="G78" t="n">
-        <v>27973855.02722691</v>
+        <v>28776242.87335074</v>
       </c>
       <c r="H78" t="n">
-        <v>29495125.10775873</v>
+        <v>31344937.5740111</v>
       </c>
       <c r="I78" t="n">
-        <v>31613557.54527062</v>
+        <v>33596229.34734564</v>
       </c>
       <c r="J78" t="n">
-        <v>32965174.02514233</v>
+        <v>35032613.6322334</v>
       </c>
       <c r="K78" t="n">
-        <v>35332836.26451068</v>
+        <v>37752437.13283923</v>
       </c>
       <c r="L78" t="n">
-        <v>35405551.22664239</v>
+        <v>38708066.29851748</v>
       </c>
       <c r="M78" t="n">
-        <v>34860897.5416088</v>
+        <v>40588043.21520376</v>
       </c>
       <c r="N78" t="n">
-        <v>35946005.97839861</v>
+        <v>40435604.1869858</v>
       </c>
       <c r="O78" t="n">
-        <v>39363686.9483575</v>
+        <v>44280148.00144182</v>
       </c>
       <c r="P78" t="n">
-        <v>42419761.55234098</v>
+        <v>45915881.8521077</v>
       </c>
       <c r="Q78" t="n">
-        <v>43493534.91425387</v>
+        <v>48679816.59078581</v>
       </c>
       <c r="R78" t="n">
-        <v>47375960.18912164</v>
+        <v>52176153.76993962</v>
       </c>
       <c r="S78" t="n">
-        <v>51880380.44847377</v>
+        <v>52890211.70306188</v>
       </c>
       <c r="T78" t="n">
-        <v>51987150.24955761</v>
+        <v>56073970.51516496</v>
       </c>
       <c r="U78" t="n">
-        <v>52698621.57072469</v>
+        <v>61405381.80060461</v>
       </c>
     </row>
     <row r="79">
@@ -5508,64 +5508,64 @@
         <v>22561132</v>
       </c>
       <c r="B79" t="n">
-        <v>23656883.12967957</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C79" t="n">
-        <v>24255710.89298968</v>
+        <v>23975302.00319697</v>
       </c>
       <c r="D79" t="n">
-        <v>25997832.16092432</v>
+        <v>24164029.85295593</v>
       </c>
       <c r="E79" t="n">
-        <v>26353626.08127236</v>
+        <v>25337630.67267487</v>
       </c>
       <c r="F79" t="n">
-        <v>26254648.13526624</v>
+        <v>24947854.678861</v>
       </c>
       <c r="G79" t="n">
-        <v>27071871.50602201</v>
+        <v>25434319.98629268</v>
       </c>
       <c r="H79" t="n">
-        <v>27442364.21613202</v>
+        <v>26078140.08994771</v>
       </c>
       <c r="I79" t="n">
-        <v>29413360.92508231</v>
+        <v>26889869.32880662</v>
       </c>
       <c r="J79" t="n">
-        <v>29986900.40770336</v>
+        <v>27101539.95627352</v>
       </c>
       <c r="K79" t="n">
-        <v>32838000.44182254</v>
+        <v>26684629.24323929</v>
       </c>
       <c r="L79" t="n">
-        <v>33478317.9435077</v>
+        <v>28290926.90712155</v>
       </c>
       <c r="M79" t="n">
-        <v>34520391.0917011</v>
+        <v>28513626.32513752</v>
       </c>
       <c r="N79" t="n">
-        <v>34591434.0420098</v>
+        <v>30893107.28761295</v>
       </c>
       <c r="O79" t="n">
-        <v>35869261.28874233</v>
+        <v>31495500.76503378</v>
       </c>
       <c r="P79" t="n">
-        <v>35734544.8821208</v>
+        <v>31377211.16175324</v>
       </c>
       <c r="Q79" t="n">
-        <v>37054599.29340959</v>
+        <v>32718722.81028913</v>
       </c>
       <c r="R79" t="n">
-        <v>39069697.07654655</v>
+        <v>34878465.29823505</v>
       </c>
       <c r="S79" t="n">
-        <v>42102947.21842492</v>
+        <v>37586321.20014016</v>
       </c>
       <c r="T79" t="n">
-        <v>44147807.02321789</v>
+        <v>40504406.638316</v>
       </c>
       <c r="U79" t="n">
-        <v>44238663.19145356</v>
+        <v>43178077.26027256</v>
       </c>
     </row>
     <row r="80">
@@ -5573,64 +5573,64 @@
         <v>22561132</v>
       </c>
       <c r="B80" t="n">
-        <v>22345232.71775694</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C80" t="n">
-        <v>22001489.63451125</v>
+        <v>23574134.0063921</v>
       </c>
       <c r="D80" t="n">
-        <v>23453794.24423803</v>
+        <v>24444975.9239289</v>
       </c>
       <c r="E80" t="n">
-        <v>25138319.34213815</v>
+        <v>25916456.27924294</v>
       </c>
       <c r="F80" t="n">
-        <v>25336202.18654875</v>
+        <v>27024497.01008248</v>
       </c>
       <c r="G80" t="n">
-        <v>26566733.17974983</v>
+        <v>28965481.18507559</v>
       </c>
       <c r="H80" t="n">
-        <v>26466954.85421257</v>
+        <v>29361888.93329912</v>
       </c>
       <c r="I80" t="n">
-        <v>28829512.29355061</v>
+        <v>29251612.66814626</v>
       </c>
       <c r="J80" t="n">
-        <v>29726882.96454176</v>
+        <v>29651936.27525628</v>
       </c>
       <c r="K80" t="n">
-        <v>29615235.8686954</v>
+        <v>30747295.66523946</v>
       </c>
       <c r="L80" t="n">
-        <v>31225767.28136946</v>
+        <v>31883118.25405345</v>
       </c>
       <c r="M80" t="n">
-        <v>30926951.56841958</v>
+        <v>33987703.00636014</v>
       </c>
       <c r="N80" t="n">
-        <v>32788618.43298501</v>
+        <v>33860053.28473697</v>
       </c>
       <c r="O80" t="n">
-        <v>32284221.77093708</v>
+        <v>35504571.46041011</v>
       </c>
       <c r="P80" t="n">
-        <v>32350662.68572669</v>
+        <v>35371224.74196834</v>
       </c>
       <c r="Q80" t="n">
-        <v>33921872.64025236</v>
+        <v>37294777.49718749</v>
       </c>
       <c r="R80" t="n">
-        <v>35766606.94208528</v>
+        <v>40190228.38622381</v>
       </c>
       <c r="S80" t="n">
-        <v>36879907.22076797</v>
+        <v>40039283.45580255</v>
       </c>
       <c r="T80" t="n">
-        <v>36741395.06861286</v>
+        <v>43380588.12353777</v>
       </c>
       <c r="U80" t="n">
-        <v>39807488.7707485</v>
+        <v>44730887.32652215</v>
       </c>
     </row>
     <row r="81">
@@ -5638,64 +5638,64 @@
         <v>22561132</v>
       </c>
       <c r="B81" t="n">
-        <v>24312708.33564088</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C81" t="n">
-        <v>24362743.87914242</v>
+        <v>24326140.89018396</v>
       </c>
       <c r="D81" t="n">
-        <v>24837799.94482844</v>
+        <v>26356173.42545843</v>
       </c>
       <c r="E81" t="n">
-        <v>25033317.17233638</v>
+        <v>28249156.50348215</v>
       </c>
       <c r="F81" t="n">
-        <v>25084835.72851994</v>
+        <v>29128462.55168522</v>
       </c>
       <c r="G81" t="n">
-        <v>26011483.82685504</v>
+        <v>29696446.71996821</v>
       </c>
       <c r="H81" t="n">
-        <v>28484608.47188123</v>
+        <v>31829338.70739279</v>
       </c>
       <c r="I81" t="n">
-        <v>29205640.66730941</v>
+        <v>33560277.13584828</v>
       </c>
       <c r="J81" t="n">
-        <v>31982459.94409093</v>
+        <v>36165792.99598783</v>
       </c>
       <c r="K81" t="n">
-        <v>32977971.80872961</v>
+        <v>36029962.88686408</v>
       </c>
       <c r="L81" t="n">
-        <v>32662388.3334263</v>
+        <v>38827217.49122748</v>
       </c>
       <c r="M81" t="n">
-        <v>34248738.20782022</v>
+        <v>40938713.53716811</v>
       </c>
       <c r="N81" t="n">
-        <v>35314792.07904812</v>
+        <v>43879060.40432991</v>
       </c>
       <c r="O81" t="n">
-        <v>36208717.02412791</v>
+        <v>44224465.88528895</v>
       </c>
       <c r="P81" t="n">
-        <v>37335778.77809796</v>
+        <v>45601032.3086684</v>
       </c>
       <c r="Q81" t="n">
-        <v>39149106.30854135</v>
+        <v>45164652.15961453</v>
       </c>
       <c r="R81" t="n">
-        <v>38546864.44877689</v>
+        <v>44732447.96064002</v>
       </c>
       <c r="S81" t="n">
-        <v>41763625.76398443</v>
+        <v>47945272.73839303</v>
       </c>
       <c r="T81" t="n">
-        <v>41121164.00630387</v>
+        <v>48880171.23539049</v>
       </c>
       <c r="U81" t="n">
-        <v>43118340.47394061</v>
+        <v>48412411.28940734</v>
       </c>
     </row>
     <row r="82">
@@ -5703,64 +5703,64 @@
         <v>22561132</v>
       </c>
       <c r="B82" t="n">
-        <v>24706203.45921767</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C82" t="n">
-        <v>25044320.76574</v>
+        <v>23315839.42242846</v>
       </c>
       <c r="D82" t="n">
-        <v>26551879.05230374</v>
+        <v>24583797.98163677</v>
       </c>
       <c r="E82" t="n">
-        <v>27069621.68678414</v>
+        <v>24205618.41095001</v>
       </c>
       <c r="F82" t="n">
-        <v>29013846.85765395</v>
+        <v>25521964.80058806</v>
       </c>
       <c r="G82" t="n">
-        <v>30254314.44821608</v>
+        <v>25574488.99338448</v>
       </c>
       <c r="H82" t="n">
-        <v>32603165.61572547</v>
+        <v>26221857.20151896</v>
       </c>
       <c r="I82" t="n">
-        <v>33997092.12586585</v>
+        <v>25818478.89900902</v>
       </c>
       <c r="J82" t="n">
-        <v>37031822.91980307</v>
+        <v>26171818.2762325</v>
       </c>
       <c r="K82" t="n">
-        <v>36677446.02113781</v>
+        <v>27138620.12808077</v>
       </c>
       <c r="L82" t="n">
-        <v>39311735.28393639</v>
+        <v>27510026.32796843</v>
       </c>
       <c r="M82" t="n">
-        <v>42135227.46768253</v>
+        <v>28686199.07895796</v>
       </c>
       <c r="N82" t="n">
-        <v>44916547.55553763</v>
+        <v>29245559.42611502</v>
       </c>
       <c r="O82" t="n">
-        <v>45792388.07956828</v>
+        <v>29815826.89962614</v>
       </c>
       <c r="P82" t="n">
-        <v>47483984.93877795</v>
+        <v>31437266.82431904</v>
       </c>
       <c r="Q82" t="n">
-        <v>47305646.39504465</v>
+        <v>32598577.34015742</v>
       </c>
       <c r="R82" t="n">
-        <v>51253333.85265043</v>
+        <v>35129429.8099971</v>
       </c>
       <c r="S82" t="n">
-        <v>54636534.45654553</v>
+        <v>38061003.94589761</v>
       </c>
       <c r="T82" t="n">
-        <v>59831276.93193634</v>
+        <v>37918055.87560632</v>
       </c>
       <c r="U82" t="n">
-        <v>59606564.89878447</v>
+        <v>39318770.42482486</v>
       </c>
     </row>
     <row r="83">
@@ -5768,64 +5768,64 @@
         <v>22561132</v>
       </c>
       <c r="B83" t="n">
-        <v>22345232.71775694</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C83" t="n">
-        <v>22910858.61427374</v>
+        <v>24530781.84689261</v>
       </c>
       <c r="D83" t="n">
-        <v>22824810.88331314</v>
+        <v>24581266.18558834</v>
       </c>
       <c r="E83" t="n">
-        <v>23800670.38585927</v>
+        <v>25060583.27982187</v>
       </c>
       <c r="F83" t="n">
-        <v>25510109.21670761</v>
+        <v>25549246.71427605</v>
       </c>
       <c r="G83" t="n">
-        <v>25265989.62776903</v>
+        <v>27829885.46651575</v>
       </c>
       <c r="H83" t="n">
-        <v>27374453.16137354</v>
+        <v>29828715.16766521</v>
       </c>
       <c r="I83" t="n">
-        <v>28067383.94471485</v>
+        <v>32491358.19983279</v>
       </c>
       <c r="J83" t="n">
-        <v>29593740.30111749</v>
+        <v>33124916.42594139</v>
       </c>
       <c r="K83" t="n">
-        <v>29654644.20617685</v>
+        <v>33385667.85462744</v>
       </c>
       <c r="L83" t="n">
-        <v>30922508.65820519</v>
+        <v>34424857.10136668</v>
       </c>
       <c r="M83" t="n">
-        <v>33503012.44348884</v>
+        <v>36096806.72064467</v>
       </c>
       <c r="N83" t="n">
-        <v>33766740.15369929</v>
+        <v>37010526.83806969</v>
       </c>
       <c r="O83" t="n">
-        <v>35603038.06340528</v>
+        <v>39453568.63334128</v>
       </c>
       <c r="P83" t="n">
-        <v>36504259.39225421</v>
+        <v>39764137.70031257</v>
       </c>
       <c r="Q83" t="n">
-        <v>39975018.08300622</v>
+        <v>39614793.0650755</v>
       </c>
       <c r="R83" t="n">
-        <v>43543364.98501664</v>
+        <v>40156942.21201801</v>
       </c>
       <c r="S83" t="n">
-        <v>47177087.57233355</v>
+        <v>40006122.2965432</v>
       </c>
       <c r="T83" t="n">
-        <v>50291217.70138226</v>
+        <v>42414315.42526004</v>
       </c>
       <c r="U83" t="n">
-        <v>54780434.20430981</v>
+        <v>46200404.79573514</v>
       </c>
     </row>
     <row r="84">
@@ -5833,64 +5833,64 @@
         <v>22561132</v>
       </c>
       <c r="B84" t="n">
-        <v>23132222.96491052</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C84" t="n">
-        <v>22910858.61427374</v>
+        <v>24231308.9003507</v>
       </c>
       <c r="D84" t="n">
-        <v>23357603.95662016</v>
+        <v>25549052.38641474</v>
       </c>
       <c r="E84" t="n">
-        <v>24763629.28781009</v>
+        <v>27681137.69431421</v>
       </c>
       <c r="F84" t="n">
-        <v>26974140.35420175</v>
+        <v>27738105.46401536</v>
       </c>
       <c r="G84" t="n">
-        <v>28284222.87866248</v>
+        <v>27633927.74302687</v>
       </c>
       <c r="H84" t="n">
-        <v>29329058.15791448</v>
+        <v>27690798.35466818</v>
       </c>
       <c r="I84" t="n">
-        <v>31606075.29588602</v>
+        <v>27908773.7040877</v>
       </c>
       <c r="J84" t="n">
-        <v>32222371.13909333</v>
+        <v>29588759.49643492</v>
       </c>
       <c r="K84" t="n">
-        <v>31726685.22054672</v>
+        <v>32402005.01574035</v>
       </c>
       <c r="L84" t="n">
-        <v>32898687.01654296</v>
+        <v>34164086.09937046</v>
       </c>
       <c r="M84" t="n">
-        <v>33731452.98380767</v>
+        <v>35227505.0207391</v>
       </c>
       <c r="N84" t="n">
-        <v>36742471.65314627</v>
+        <v>35300003.21121556</v>
       </c>
       <c r="O84" t="n">
-        <v>37886147.48454884</v>
+        <v>37014457.00707925</v>
       </c>
       <c r="P84" t="n">
-        <v>40827510.50580753</v>
+        <v>39027371.77828957</v>
       </c>
       <c r="Q84" t="n">
-        <v>43285147.60279747</v>
+        <v>40469065.08785556</v>
       </c>
       <c r="R84" t="n">
-        <v>43122578.89255302</v>
+        <v>40081795.41958202</v>
       </c>
       <c r="S84" t="n">
-        <v>45467664.65212261</v>
+        <v>40164283.73765213</v>
       </c>
       <c r="T84" t="n">
-        <v>45825575.24620865</v>
+        <v>41414469.65410271</v>
       </c>
       <c r="U84" t="n">
-        <v>48584073.9232212</v>
+        <v>45352082.21953835</v>
       </c>
     </row>
     <row r="85">
@@ -5898,64 +5898,64 @@
         <v>22561132</v>
       </c>
       <c r="B85" t="n">
-        <v>22869892.88252599</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C85" t="n">
-        <v>25044320.76574</v>
+        <v>26341619.9153607</v>
       </c>
       <c r="D85" t="n">
-        <v>27425489.30329749</v>
+        <v>26242687.06165564</v>
       </c>
       <c r="E85" t="n">
-        <v>29076383.49400003</v>
+        <v>27364675.57110627</v>
       </c>
       <c r="F85" t="n">
-        <v>30488567.95622236</v>
+        <v>27739175.4578749</v>
       </c>
       <c r="G85" t="n">
-        <v>32855605.83976907</v>
+        <v>28763876.37541765</v>
       </c>
       <c r="H85" t="n">
-        <v>33496266.63411145</v>
+        <v>28321393.46748504</v>
       </c>
       <c r="I85" t="n">
-        <v>36291552.22357022</v>
+        <v>30684832.47093602</v>
       </c>
       <c r="J85" t="n">
-        <v>38898125.38293763</v>
+        <v>32175136.23069668</v>
       </c>
       <c r="K85" t="n">
-        <v>42596488.50478853</v>
+        <v>34298996.90752698</v>
       </c>
       <c r="L85" t="n">
-        <v>44912964.49406429</v>
+        <v>34369584.22869802</v>
       </c>
       <c r="M85" t="n">
-        <v>49183207.59556621</v>
+        <v>36838115.61576165</v>
       </c>
       <c r="N85" t="n">
-        <v>49570366.05607369</v>
+        <v>39483944.67300861</v>
       </c>
       <c r="O85" t="n">
-        <v>54283426.44018279</v>
+        <v>42090255.2370379</v>
       </c>
       <c r="P85" t="n">
-        <v>56919868.87776563</v>
+        <v>44623904.02950114</v>
       </c>
       <c r="Q85" t="n">
-        <v>57367928.48762706</v>
+        <v>47828932.84152152</v>
       </c>
       <c r="R85" t="n">
-        <v>58820085.48200645</v>
+        <v>49873826.83204138</v>
       </c>
       <c r="S85" t="n">
-        <v>60650966.94261836</v>
+        <v>50266421.68219204</v>
       </c>
       <c r="T85" t="n">
-        <v>63596668.67174845</v>
+        <v>53876713.81759291</v>
       </c>
       <c r="U85" t="n">
-        <v>69643324.4365873</v>
+        <v>57119855.73101406</v>
       </c>
     </row>
     <row r="86">
@@ -5963,64 +5963,64 @@
         <v>22561132</v>
       </c>
       <c r="B86" t="n">
-        <v>23263388.00610278</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C86" t="n">
-        <v>23446511.83895021</v>
+        <v>24231308.9003507</v>
       </c>
       <c r="D86" t="n">
-        <v>23085827.46512077</v>
+        <v>25267302.28362229</v>
       </c>
       <c r="E86" t="n">
-        <v>24743924.03430771</v>
+        <v>26347588.87014577</v>
       </c>
       <c r="F86" t="n">
-        <v>25945689.20785034</v>
+        <v>27780419.58308449</v>
       </c>
       <c r="G86" t="n">
-        <v>25848243.37563026</v>
+        <v>30098713.95833388</v>
       </c>
       <c r="H86" t="n">
-        <v>25751163.52675875</v>
+        <v>29635696.86343711</v>
       </c>
       <c r="I86" t="n">
-        <v>27750404.01915467</v>
+        <v>29524392.2408794</v>
       </c>
       <c r="J86" t="n">
-        <v>29259522.41974412</v>
+        <v>29756801.20333244</v>
       </c>
       <c r="K86" t="n">
-        <v>30680601.59012083</v>
+        <v>29991039.63361627</v>
       </c>
       <c r="L86" t="n">
-        <v>33419287.77179047</v>
+        <v>31098925.69451586</v>
       </c>
       <c r="M86" t="n">
-        <v>33293772.88247549</v>
+        <v>31162927.27048006</v>
       </c>
       <c r="N86" t="n">
-        <v>36265722.29034641</v>
+        <v>33582320.32027343</v>
       </c>
       <c r="O86" t="n">
-        <v>38448759.74096961</v>
+        <v>36384787.14671828</v>
       </c>
       <c r="P86" t="n">
-        <v>39869078.7928024</v>
+        <v>39844186.63332806</v>
       </c>
       <c r="Q86" t="n">
-        <v>40182918.65648515</v>
+        <v>39926185.95261627</v>
       </c>
       <c r="R86" t="n">
-        <v>41667298.52492701</v>
+        <v>40008354.02646898</v>
       </c>
       <c r="S86" t="n">
-        <v>43448755.96695572</v>
+        <v>40788488.29019038</v>
       </c>
       <c r="T86" t="n">
-        <v>47074583.36918508</v>
+        <v>42295238.24530753</v>
       </c>
       <c r="U86" t="n">
-        <v>50729308.06294684</v>
+        <v>46316592.68890642</v>
       </c>
     </row>
     <row r="87">
@@ -6028,64 +6028,64 @@
         <v>22561132</v>
       </c>
       <c r="B87" t="n">
-        <v>24050378.25325636</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C87" t="n">
-        <v>24099873.92155898</v>
+        <v>25219984.35618987</v>
       </c>
       <c r="D87" t="n">
-        <v>24429693.29147294</v>
+        <v>26884739.79530701</v>
       </c>
       <c r="E87" t="n">
-        <v>25474168.4665203</v>
+        <v>28815686.16859305</v>
       </c>
       <c r="F87" t="n">
-        <v>27896206.14285833</v>
+        <v>30885319.16949368</v>
       </c>
       <c r="G87" t="n">
-        <v>29899799.20308929</v>
+        <v>32385360.18563093</v>
       </c>
       <c r="H87" t="n">
-        <v>32742617.81285081</v>
+        <v>35087939.89772747</v>
       </c>
       <c r="I87" t="n">
-        <v>33571433.1932332</v>
+        <v>35772129.60819406</v>
       </c>
       <c r="J87" t="n">
-        <v>34226052.10854644</v>
+        <v>37093572.4206396</v>
       </c>
       <c r="K87" t="n">
-        <v>34495471.41426875</v>
+        <v>40404708.73974879</v>
       </c>
       <c r="L87" t="n">
-        <v>34566463.0798918</v>
+        <v>43306701.70671498</v>
       </c>
       <c r="M87" t="n">
-        <v>34034717.32695819</v>
+        <v>46417124.91468515</v>
       </c>
       <c r="N87" t="n">
-        <v>33709021.3006136</v>
+        <v>48401658.00284237</v>
       </c>
       <c r="O87" t="n">
-        <v>35150227.92992166</v>
+        <v>51878016.95938078</v>
       </c>
       <c r="P87" t="n">
-        <v>37879182.6399262</v>
+        <v>55000846.08655745</v>
       </c>
       <c r="Q87" t="n">
-        <v>39498681.7243579</v>
+        <v>59590703.04444383</v>
       </c>
       <c r="R87" t="n">
-        <v>40268877.74303469</v>
+        <v>65256478.87233013</v>
       </c>
       <c r="S87" t="n">
-        <v>39649410.12016071</v>
+        <v>64632005.46602032</v>
       </c>
       <c r="T87" t="n">
-        <v>39269984.15933998</v>
+        <v>63637752.90593901</v>
       </c>
       <c r="U87" t="n">
-        <v>39807414.4162003</v>
+        <v>63768719.37458196</v>
       </c>
     </row>
     <row r="88">
@@ -6093,64 +6093,64 @@
         <v>22561132</v>
       </c>
       <c r="B88" t="n">
-        <v>24443873.37683315</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C88" t="n">
-        <v>26341619.9153607</v>
+        <v>22259784.21847488</v>
       </c>
       <c r="D88" t="n">
-        <v>28539845.50738603</v>
+        <v>21917355.6138463</v>
       </c>
       <c r="E88" t="n">
-        <v>28266732.78589793</v>
+        <v>21580194.68603421</v>
       </c>
       <c r="F88" t="n">
-        <v>28817913.84061332</v>
+        <v>23004689.87894915</v>
       </c>
       <c r="G88" t="n">
-        <v>29379842.53133526</v>
+        <v>23720752.42563448</v>
       </c>
       <c r="H88" t="n">
-        <v>32173224.60499525</v>
+        <v>24872824.10657843</v>
       </c>
       <c r="I88" t="n">
-        <v>32800579.45373899</v>
+        <v>26948477.71758289</v>
       </c>
       <c r="J88" t="n">
-        <v>33249472.52610346</v>
+        <v>28257313.85675295</v>
       </c>
       <c r="K88" t="n">
-        <v>34864335.95945103</v>
+        <v>30943967.94256198</v>
       </c>
       <c r="L88" t="n">
-        <v>35746858.48819859</v>
+        <v>30647848.91499938</v>
       </c>
       <c r="M88" t="n">
-        <v>38314310.034306</v>
+        <v>33027252.87832046</v>
       </c>
       <c r="N88" t="n">
-        <v>41957165.05302612</v>
+        <v>34055285.81119262</v>
       </c>
       <c r="O88" t="n">
-        <v>44726731.35193691</v>
+        <v>35511296.74774206</v>
       </c>
       <c r="P88" t="n">
-        <v>48199176.09480797</v>
+        <v>35377924.77072205</v>
       </c>
       <c r="Q88" t="n">
-        <v>51100555.13426962</v>
+        <v>36273447.79651009</v>
       </c>
       <c r="R88" t="n">
-        <v>51502806.49655461</v>
+        <v>39300490.98950619</v>
       </c>
       <c r="S88" t="n">
-        <v>50710524.1460171</v>
+        <v>40295306.11317349</v>
       </c>
       <c r="T88" t="n">
-        <v>52288980.85440215</v>
+        <v>43423708.74054344</v>
       </c>
       <c r="U88" t="n">
-        <v>56652530.86629956</v>
+        <v>43260619.62765049</v>
       </c>
     </row>
     <row r="89">
@@ -6158,64 +6158,64 @@
         <v>22561132</v>
       </c>
       <c r="B89" t="n">
-        <v>23656883.12967957</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C89" t="n">
-        <v>24118175.41603821</v>
+        <v>24504092.16744373</v>
       </c>
       <c r="D89" t="n">
-        <v>24868897.21236267</v>
+        <v>26264052.95790122</v>
       </c>
       <c r="E89" t="n">
-        <v>25064659.23013162</v>
+        <v>28608498.47664897</v>
       </c>
       <c r="F89" t="n">
-        <v>27010601.65750634</v>
+        <v>28334728.77896004</v>
       </c>
       <c r="G89" t="n">
-        <v>27851355.44780523</v>
+        <v>30205086.5549396</v>
       </c>
       <c r="H89" t="n">
-        <v>29527884.91291288</v>
+        <v>31847695.14110623</v>
       </c>
       <c r="I89" t="n">
-        <v>31305334.09995801</v>
+        <v>33579631.82644718</v>
       </c>
       <c r="J89" t="n">
-        <v>31369760.46433357</v>
+        <v>33063066.77993032</v>
       </c>
       <c r="K89" t="n">
-        <v>33622835.09554241</v>
+        <v>32746668.98630271</v>
       </c>
       <c r="L89" t="n">
-        <v>34669406.60126509</v>
+        <v>32623680.29302721</v>
       </c>
       <c r="M89" t="n">
-        <v>34539196.56322091</v>
+        <v>34587482.78637489</v>
       </c>
       <c r="N89" t="n">
-        <v>36015896.77987722</v>
+        <v>36267330.82484844</v>
       </c>
       <c r="O89" t="n">
-        <v>35461853.9752509</v>
+        <v>39083013.93993609</v>
       </c>
       <c r="P89" t="n">
-        <v>38215002.36518994</v>
+        <v>40072324.05711325</v>
       </c>
       <c r="Q89" t="n">
-        <v>38515821.73438721</v>
+        <v>41319647.56231701</v>
       </c>
       <c r="R89" t="n">
-        <v>38371165.47675302</v>
+        <v>44767799.46097782</v>
       </c>
       <c r="S89" t="n">
-        <v>42019426.20769069</v>
+        <v>44339392.9532181</v>
       </c>
       <c r="T89" t="n">
-        <v>41617320.32228984</v>
+        <v>43915086.0915902</v>
       </c>
       <c r="U89" t="n">
-        <v>45332266.38519479</v>
+        <v>46558581.69930908</v>
       </c>
     </row>
     <row r="90">
@@ -6223,64 +6223,64 @@
         <v>22561132</v>
       </c>
       <c r="B90" t="n">
-        <v>24575038.41802541</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C90" t="n">
-        <v>24625613.83672586</v>
+        <v>23568033.50823235</v>
       </c>
       <c r="D90" t="n">
-        <v>24676293.33961667</v>
+        <v>24849706.84921983</v>
       </c>
       <c r="E90" t="n">
-        <v>25157463.39532902</v>
+        <v>26778961.04021994</v>
       </c>
       <c r="F90" t="n">
-        <v>24916718.45885564</v>
+        <v>27145445.11752189</v>
       </c>
       <c r="G90" t="n">
-        <v>26416595.64610238</v>
+        <v>28306030.44303469</v>
       </c>
       <c r="H90" t="n">
-        <v>26163801.41400008</v>
+        <v>29022542.28466121</v>
       </c>
       <c r="I90" t="n">
-        <v>28651408.13860107</v>
+        <v>30432111.78208673</v>
       </c>
       <c r="J90" t="n">
-        <v>28543800.27018113</v>
+        <v>31556291.29900222</v>
       </c>
       <c r="K90" t="n">
-        <v>30427958.72491049</v>
+        <v>33455841.65558878</v>
       </c>
       <c r="L90" t="n">
-        <v>31375083.92979896</v>
+        <v>36636762.32390938</v>
       </c>
       <c r="M90" t="n">
-        <v>32898911.88576626</v>
+        <v>36073168.56767373</v>
       </c>
       <c r="N90" t="n">
-        <v>32775351.40440223</v>
+        <v>36986290.3314528</v>
       </c>
       <c r="O90" t="n">
-        <v>35510476.14146394</v>
+        <v>40072820.70513219</v>
       </c>
       <c r="P90" t="n">
-        <v>38473848.84557207</v>
+        <v>43416924.07848989</v>
       </c>
       <c r="Q90" t="n">
-        <v>39224061.3567344</v>
+        <v>43001444.80441148</v>
       </c>
       <c r="R90" t="n">
-        <v>38620666.44210155</v>
+        <v>44339942.48639815</v>
       </c>
       <c r="S90" t="n">
-        <v>39149210.44664907</v>
+        <v>43915630.36599958</v>
       </c>
       <c r="T90" t="n">
-        <v>39684987.85213134</v>
+        <v>47325103.74321474</v>
       </c>
       <c r="U90" t="n">
-        <v>42304569.15103561</v>
+        <v>50999278.06205498</v>
       </c>
     </row>
     <row r="91">
@@ -6288,64 +6288,64 @@
         <v>22561132</v>
       </c>
       <c r="B91" t="n">
-        <v>22738727.84133373</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C91" t="n">
-        <v>22653326.59258008</v>
+        <v>24221395.59084112</v>
       </c>
       <c r="D91" t="n">
-        <v>22831648.16772165</v>
+        <v>26242687.06165564</v>
       </c>
       <c r="E91" t="n">
-        <v>24471488.78218432</v>
+        <v>28585225.36601469</v>
       </c>
       <c r="F91" t="n">
-        <v>25090936.69558753</v>
+        <v>28976429.11462159</v>
       </c>
       <c r="G91" t="n">
-        <v>25726064.72231916</v>
+        <v>30383758.98337226</v>
       </c>
       <c r="H91" t="n">
-        <v>27872921.82664344</v>
+        <v>30799576.60449886</v>
       </c>
       <c r="I91" t="n">
-        <v>30360982.09577346</v>
+        <v>32474514.6613333</v>
       </c>
       <c r="J91" t="n">
-        <v>32541603.0991231</v>
+        <v>34995735.28945667</v>
       </c>
       <c r="K91" t="n">
-        <v>32608573.70457757</v>
+        <v>34864299.63854311</v>
       </c>
       <c r="L91" t="n">
-        <v>33244417.54912053</v>
+        <v>37368363.03870124</v>
       </c>
       <c r="M91" t="n">
-        <v>36405236.39734737</v>
+        <v>40269526.88102203</v>
       </c>
       <c r="N91" t="n">
-        <v>36268506.9958083</v>
+        <v>44098280.36682581</v>
       </c>
       <c r="O91" t="n">
-        <v>35710578.21623689</v>
+        <v>48034687.89525277</v>
       </c>
       <c r="P91" t="n">
-        <v>36822134.49957212</v>
+        <v>47575018.82193879</v>
       </c>
       <c r="Q91" t="n">
-        <v>40109041.06942345</v>
+        <v>47949518.00461058</v>
       </c>
       <c r="R91" t="n">
-        <v>39725216.659445</v>
+        <v>50835868.72183482</v>
       </c>
       <c r="S91" t="n">
-        <v>39114112.32996225</v>
+        <v>51531584.15360168</v>
       </c>
       <c r="T91" t="n">
-        <v>39876809.52074055</v>
+        <v>52836005.49724916</v>
       </c>
       <c r="U91" t="n">
-        <v>42509052.84836171</v>
+        <v>54173445.71795446</v>
       </c>
     </row>
     <row r="92">
@@ -6353,64 +6353,64 @@
         <v>22561132</v>
       </c>
       <c r="B92" t="n">
-        <v>23525718.08848731</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C92" t="n">
-        <v>23437361.0917106</v>
+        <v>24943388.277747</v>
       </c>
       <c r="D92" t="n">
-        <v>23349335.94278015</v>
+        <v>25719796.3157214</v>
       </c>
       <c r="E92" t="n">
-        <v>23533136.33725246</v>
+        <v>26221313.93248102</v>
       </c>
       <c r="F92" t="n">
-        <v>23171119.39407782</v>
+        <v>28714388.84289561</v>
       </c>
       <c r="G92" t="n">
-        <v>25104764.62210854</v>
+        <v>30943684.96108714</v>
       </c>
       <c r="H92" t="n">
-        <v>26178102.01977255</v>
+        <v>32626459.89742993</v>
       </c>
       <c r="I92" t="n">
-        <v>27906102.20834062</v>
+        <v>33072970.05266635</v>
       </c>
       <c r="J92" t="n">
-        <v>27639054.10822834</v>
+        <v>33525590.93273642</v>
       </c>
       <c r="K92" t="n">
-        <v>28017309.00867573</v>
+        <v>33009857.21268906</v>
       </c>
       <c r="L92" t="n">
-        <v>27586310.75931597</v>
+        <v>33653525.79838325</v>
       </c>
       <c r="M92" t="n">
-        <v>28926125.23219845</v>
+        <v>34896706.18117873</v>
       </c>
       <c r="N92" t="n">
-        <v>31340029.50110293</v>
+        <v>36185810.3543499</v>
       </c>
       <c r="O92" t="n">
-        <v>30857916.8954392</v>
+        <v>38784788.80086421</v>
       </c>
       <c r="P92" t="n">
-        <v>32536027.60541748</v>
+        <v>40893977.49598949</v>
       </c>
       <c r="Q92" t="n">
-        <v>33737926.96940894</v>
+        <v>43355615.61431951</v>
       </c>
       <c r="R92" t="n">
-        <v>33218926.82359409</v>
+        <v>44705137.50282402</v>
       </c>
       <c r="S92" t="n">
-        <v>36377322.0599294</v>
+        <v>45316950.67375967</v>
       </c>
       <c r="T92" t="n">
-        <v>36029208.42260556</v>
+        <v>48044832.38191458</v>
       </c>
       <c r="U92" t="n">
-        <v>37150682.64694428</v>
+        <v>47585066.23069737</v>
       </c>
     </row>
     <row r="93">
@@ -6418,64 +6418,64 @@
         <v>22561132</v>
       </c>
       <c r="B93" t="n">
-        <v>22607562.80014147</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C93" t="n">
-        <v>23179829.07001693</v>
+        <v>22518078.80243852</v>
       </c>
       <c r="D93" t="n">
-        <v>22958009.1516399</v>
+        <v>24135397.88114234</v>
       </c>
       <c r="E93" t="n">
-        <v>24740397.79878045</v>
+        <v>23764116.17699466</v>
       </c>
       <c r="F93" t="n">
-        <v>25222817.8455576</v>
+        <v>24780135.04827847</v>
       </c>
       <c r="G93" t="n">
-        <v>27474318.11335686</v>
+        <v>26703987.90036718</v>
       </c>
       <c r="H93" t="n">
-        <v>28968422.45071699</v>
+        <v>26758944.69620447</v>
       </c>
       <c r="I93" t="n">
-        <v>29701701.4514921</v>
+        <v>29303136.56328864</v>
       </c>
       <c r="J93" t="n">
-        <v>30626220.58624926</v>
+        <v>30896695.43731874</v>
       </c>
       <c r="K93" t="n">
-        <v>32113677.67861494</v>
+        <v>30421402.76590756</v>
       </c>
       <c r="L93" t="n">
-        <v>34233481.51475046</v>
+        <v>30130284.43806894</v>
       </c>
       <c r="M93" t="n">
-        <v>36294186.98239836</v>
+        <v>32119165.72332282</v>
       </c>
       <c r="N93" t="n">
-        <v>39322960.87416409</v>
+        <v>31811800.61301226</v>
       </c>
       <c r="O93" t="n">
-        <v>42147259.31502498</v>
+        <v>33171892.84247325</v>
       </c>
       <c r="P93" t="n">
-        <v>45909510.0760555</v>
+        <v>34590134.90429184</v>
       </c>
       <c r="Q93" t="n">
-        <v>49740689.03508682</v>
+        <v>37074506.93293898</v>
       </c>
       <c r="R93" t="n">
-        <v>49843055.35214427</v>
+        <v>39952856.69833594</v>
       </c>
       <c r="S93" t="n">
-        <v>52263837.43917756</v>
+        <v>40499632.42278153</v>
       </c>
       <c r="T93" t="n">
-        <v>56625289.21645633</v>
+        <v>41995711.87787532</v>
       </c>
       <c r="U93" t="n">
-        <v>61021501.09936921</v>
+        <v>45744434.84445337</v>
       </c>
     </row>
     <row r="94">
@@ -6483,64 +6483,64 @@
         <v>22561132</v>
       </c>
       <c r="B94" t="n">
-        <v>23919213.21206409</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C94" t="n">
-        <v>26054347.96513828</v>
+        <v>26480680.5168521</v>
       </c>
       <c r="D94" t="n">
-        <v>25956494.03649235</v>
+        <v>26381225.3846316</v>
       </c>
       <c r="E94" t="n">
-        <v>28122580.61938309</v>
+        <v>28276007.77297328</v>
       </c>
       <c r="F94" t="n">
-        <v>29488440.69604918</v>
+        <v>28498589.75112935</v>
       </c>
       <c r="G94" t="n">
-        <v>31434954.27617289</v>
+        <v>29219975.8553178</v>
       </c>
       <c r="H94" t="n">
-        <v>31316892.07109125</v>
+        <v>30469256.35312148</v>
       </c>
       <c r="I94" t="n">
-        <v>32837893.75952388</v>
+        <v>32126230.98250107</v>
       </c>
       <c r="J94" t="n">
-        <v>35769149.38077292</v>
+        <v>31632024.01538309</v>
       </c>
       <c r="K94" t="n">
-        <v>38546155.23319937</v>
+        <v>33903935.23778082</v>
       </c>
       <c r="L94" t="n">
-        <v>40866464.74690259</v>
+        <v>36339022.25316439</v>
       </c>
       <c r="M94" t="n">
-        <v>44751974.00094648</v>
+        <v>35991275.12674038</v>
       </c>
       <c r="N94" t="n">
-        <v>44063541.63066322</v>
+        <v>35437611.0840214</v>
       </c>
       <c r="O94" t="n">
-        <v>47484498.37985456</v>
+        <v>37570799.87142993</v>
       </c>
       <c r="P94" t="n">
-        <v>49790729.85538483</v>
+        <v>40269252.61099698</v>
       </c>
       <c r="Q94" t="n">
-        <v>53366856.31111878</v>
+        <v>42225053.36779641</v>
       </c>
       <c r="R94" t="n">
-        <v>54717733.98272488</v>
+        <v>45503275.58865862</v>
       </c>
       <c r="S94" t="n">
-        <v>54194111.34300818</v>
+        <v>49829644.39702107</v>
       </c>
       <c r="T94" t="n">
-        <v>53675499.52243304</v>
+        <v>49063100.77590867</v>
       </c>
       <c r="U94" t="n">
-        <v>57530642.32560986</v>
+        <v>48593590.2813937</v>
       </c>
     </row>
     <row r="95">
@@ -6548,64 +6548,64 @@
         <v>22561132</v>
       </c>
       <c r="B95" t="n">
-        <v>22214067.67656468</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C95" t="n">
-        <v>24326140.89018396</v>
+        <v>24625613.83672586</v>
       </c>
       <c r="D95" t="n">
-        <v>24659056.84181727</v>
+        <v>26823805.03358591</v>
       </c>
       <c r="E95" t="n">
-        <v>26143423.92960757</v>
+        <v>29062269.29241998</v>
       </c>
       <c r="F95" t="n">
-        <v>25741252.18847277</v>
+        <v>31318573.77007764</v>
       </c>
       <c r="G95" t="n">
-        <v>25345267.16985003</v>
+        <v>32475499.69698792</v>
       </c>
       <c r="H95" t="n">
-        <v>25397427.71899691</v>
+        <v>35374406.42154174</v>
       </c>
       <c r="I95" t="n">
-        <v>27073896.08383186</v>
+        <v>37915107.29151058</v>
       </c>
       <c r="J95" t="n">
-        <v>27444416.5013473</v>
+        <v>40417859.87837967</v>
       </c>
       <c r="K95" t="n">
-        <v>29894226.49009369</v>
+        <v>40031080.21956013</v>
       </c>
       <c r="L95" t="n">
-        <v>30129546.69940452</v>
+        <v>43837162.62981471</v>
       </c>
       <c r="M95" t="n">
-        <v>32643877.28513024</v>
+        <v>46475967.58684211</v>
       </c>
       <c r="N95" t="n">
-        <v>34229328.11323154</v>
+        <v>46571615.10853588</v>
       </c>
       <c r="O95" t="n">
-        <v>37284789.3184554</v>
+        <v>49916534.6419434</v>
       </c>
       <c r="P95" t="n">
-        <v>37361521.39914895</v>
+        <v>53211493.96362352</v>
       </c>
       <c r="Q95" t="n">
-        <v>37872833.34571772</v>
+        <v>53321003.19576018</v>
       </c>
       <c r="R95" t="n">
-        <v>41033346.31988448</v>
+        <v>58390667.34789933</v>
       </c>
       <c r="S95" t="n">
-        <v>40879234.83921099</v>
+        <v>62244998.88467671</v>
       </c>
       <c r="T95" t="n">
-        <v>41676350.65536487</v>
+        <v>64182486.96446921</v>
       </c>
       <c r="U95" t="n">
-        <v>41519824.20347632</v>
+        <v>66553424.53550635</v>
       </c>
     </row>
     <row r="96">
@@ -6613,64 +6613,64 @@
         <v>22561132</v>
       </c>
       <c r="B96" t="n">
-        <v>24050378.25325636</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C96" t="n">
-        <v>24239697.08532035</v>
+        <v>23852255.2093749</v>
       </c>
       <c r="D96" t="n">
-        <v>24289582.37169952</v>
+        <v>24733371.08232604</v>
       </c>
       <c r="E96" t="n">
-        <v>24763211.84036273</v>
+        <v>25934623.71912825</v>
       </c>
       <c r="F96" t="n">
-        <v>26973685.64354908</v>
+        <v>26741885.75158183</v>
       </c>
       <c r="G96" t="n">
-        <v>29381476.11413998</v>
+        <v>27418804.32718334</v>
       </c>
       <c r="H96" t="n">
-        <v>30808478.34273924</v>
+        <v>28431670.55295335</v>
       </c>
       <c r="I96" t="n">
-        <v>30871882.17817598</v>
+        <v>28159593.01423084</v>
       </c>
       <c r="J96" t="n">
-        <v>32550752.34611144</v>
+        <v>29690963.87072551</v>
       </c>
       <c r="K96" t="n">
-        <v>32617741.78071235</v>
+        <v>30097300.22866058</v>
       </c>
       <c r="L96" t="n">
-        <v>34201923.25723632</v>
+        <v>30859154.56419602</v>
       </c>
       <c r="M96" t="n">
-        <v>33675785.32428776</v>
+        <v>31102070.45678847</v>
       </c>
       <c r="N96" t="n">
-        <v>33549307.09122556</v>
+        <v>33878378.81342611</v>
       </c>
       <c r="O96" t="n">
-        <v>33033208.5387531</v>
+        <v>34538982.94860751</v>
       </c>
       <c r="P96" t="n">
-        <v>35597804.42723823</v>
+        <v>34610064.16094989</v>
       </c>
       <c r="Q96" t="n">
-        <v>35464107.54796743</v>
+        <v>36291008.93369636</v>
       </c>
       <c r="R96" t="n">
-        <v>36980351.7143234</v>
+        <v>39741492.1581146</v>
       </c>
       <c r="S96" t="n">
-        <v>38991411.77650607</v>
+        <v>39130137.45799733</v>
       </c>
       <c r="T96" t="n">
-        <v>40885150.24237329</v>
+        <v>38528187.40146688</v>
       </c>
       <c r="U96" t="n">
-        <v>40493898.83744697</v>
+        <v>39055465.78201107</v>
       </c>
     </row>
     <row r="97">
@@ -6678,64 +6678,64 @@
         <v>22561132</v>
       </c>
       <c r="B97" t="n">
-        <v>23263388.00610278</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C97" t="n">
-        <v>24798989.74036583</v>
+        <v>24379520.24908172</v>
       </c>
       <c r="D97" t="n">
-        <v>24417499.8135253</v>
+        <v>24854903.44197227</v>
       </c>
       <c r="E97" t="n">
-        <v>24325793.4968805</v>
+        <v>26784561.08032117</v>
       </c>
       <c r="F97" t="n">
-        <v>24800129.05656318</v>
+        <v>27929717.05052321</v>
       </c>
       <c r="G97" t="n">
-        <v>25716259.92851469</v>
+        <v>30585223.82691646</v>
       </c>
       <c r="H97" t="n">
-        <v>28161315.22141754</v>
+        <v>32781950.57504126</v>
       </c>
       <c r="I97" t="n">
-        <v>28710440.70908824</v>
+        <v>35708212.46023689</v>
       </c>
       <c r="J97" t="n">
-        <v>31273261.61755909</v>
+        <v>37442492.20037328</v>
       </c>
       <c r="K97" t="n">
-        <v>32792144.25812008</v>
+        <v>38390275.7158177</v>
       </c>
       <c r="L97" t="n">
-        <v>33812859.0102989</v>
+        <v>38469282.88705082</v>
       </c>
       <c r="M97" t="n">
-        <v>35651664.94889919</v>
+        <v>38548452.65500902</v>
       </c>
       <c r="N97" t="n">
-        <v>36761387.45032015</v>
+        <v>37955450.82158199</v>
       </c>
       <c r="O97" t="n">
-        <v>38760539.83001824</v>
+        <v>40460866.45971118</v>
       </c>
       <c r="P97" t="n">
-        <v>39967031.68048994</v>
+        <v>43837352.50776137</v>
       </c>
       <c r="Q97" t="n">
-        <v>40746360.18804516</v>
+        <v>43417849.93396048</v>
       </c>
       <c r="R97" t="n">
-        <v>42488443.52827301</v>
+        <v>42749940.77442246</v>
       </c>
       <c r="S97" t="n">
-        <v>45540096.86626846</v>
+        <v>44080609.93895624</v>
       </c>
       <c r="T97" t="n">
-        <v>45104299.84036095</v>
+        <v>47246617.66460001</v>
       </c>
       <c r="U97" t="n">
-        <v>47819380.90085472</v>
+        <v>47343851.1838288</v>
       </c>
     </row>
     <row r="98">
@@ -6743,64 +6743,64 @@
         <v>22561132</v>
       </c>
       <c r="B98" t="n">
-        <v>23788048.17087183</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C98" t="n">
-        <v>25219984.35618987</v>
+        <v>22391219.1972666</v>
       </c>
       <c r="D98" t="n">
-        <v>26151624.92169431</v>
+        <v>23739072.4037022</v>
       </c>
       <c r="E98" t="n">
-        <v>27269720.13033918</v>
+        <v>23649914.09890714</v>
       </c>
       <c r="F98" t="n">
-        <v>27008761.9034599</v>
+        <v>23836080.57281749</v>
       </c>
       <c r="G98" t="n">
-        <v>28163503.42969818</v>
+        <v>25686639.96255806</v>
       </c>
       <c r="H98" t="n">
-        <v>29203879.26384855</v>
+        <v>25739503.05676838</v>
       </c>
       <c r="I98" t="n">
-        <v>28924412.05574136</v>
+        <v>27438551.60131716</v>
       </c>
       <c r="J98" t="n">
-        <v>30833694.45707016</v>
+        <v>27335498.93332733</v>
       </c>
       <c r="K98" t="n">
-        <v>30359370.9476933</v>
+        <v>29457742.31431339</v>
       </c>
       <c r="L98" t="n">
-        <v>32186871.94782693</v>
+        <v>29860886.91336058</v>
       </c>
       <c r="M98" t="n">
-        <v>32440239.31447659</v>
+        <v>30616756.90784645</v>
       </c>
       <c r="N98" t="n">
-        <v>33261400.57411695</v>
+        <v>31213761.75068597</v>
       </c>
       <c r="O98" t="n">
-        <v>33716600.22435236</v>
+        <v>30915060.92494376</v>
       </c>
       <c r="P98" t="n">
-        <v>35746191.70492918</v>
+        <v>31517882.48257713</v>
       </c>
       <c r="Q98" t="n">
-        <v>35611937.51836738</v>
+        <v>31399508.81889353</v>
       </c>
       <c r="R98" t="n">
-        <v>36513384.11952629</v>
+        <v>32559424.53253734</v>
       </c>
       <c r="S98" t="n">
-        <v>39772730.26501851</v>
+        <v>34897944.57015207</v>
       </c>
       <c r="T98" t="n">
-        <v>43323020.06178554</v>
+        <v>38013089.43725024</v>
       </c>
       <c r="U98" t="n">
-        <v>46938354.71962523</v>
+        <v>40080311.69078609</v>
       </c>
     </row>
     <row r="99">
@@ -6808,64 +6808,64 @@
         <v>22561132</v>
       </c>
       <c r="B99" t="n">
-        <v>22345232.71775694</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C99" t="n">
-        <v>23040768.46852553</v>
+        <v>24118175.41603821</v>
       </c>
       <c r="D99" t="n">
-        <v>24963535.82566548</v>
+        <v>25149331.85295844</v>
       </c>
       <c r="E99" t="n">
-        <v>24724646.68362198</v>
+        <v>27101848.00023428</v>
       </c>
       <c r="F99" t="n">
-        <v>25925475.59302719</v>
+        <v>27945441.99785147</v>
       </c>
       <c r="G99" t="n">
-        <v>27787524.60124599</v>
+        <v>29952571.33168443</v>
       </c>
       <c r="H99" t="n">
-        <v>29621761.77071401</v>
+        <v>31755584.77881866</v>
       </c>
       <c r="I99" t="n">
-        <v>32093717.36852788</v>
+        <v>32005557.15590678</v>
       </c>
       <c r="J99" t="n">
-        <v>31786595.78684587</v>
+        <v>31885351.90224248</v>
       </c>
       <c r="K99" t="n">
-        <v>34808807.58934105</v>
+        <v>31580224.27878097</v>
       </c>
       <c r="L99" t="n">
-        <v>35487554.41960967</v>
+        <v>34215614.86730869</v>
       </c>
       <c r="M99" t="n">
-        <v>36385852.5057079</v>
+        <v>35081716.28941721</v>
       </c>
       <c r="N99" t="n">
-        <v>39422275.94597873</v>
+        <v>35765784.64397688</v>
       </c>
       <c r="O99" t="n">
-        <v>42941282.64035805</v>
+        <v>38958396.75405273</v>
       </c>
       <c r="P99" t="n">
-        <v>45276509.17373559</v>
+        <v>42662490.36841556</v>
       </c>
       <c r="Q99" t="n">
-        <v>45369688.21052102</v>
+        <v>44734526.1162732</v>
       </c>
       <c r="R99" t="n">
-        <v>49683355.77356675</v>
+        <v>45866893.21933156</v>
       </c>
       <c r="S99" t="n">
-        <v>52674075.92131365</v>
+        <v>45427968.90805265</v>
       </c>
       <c r="T99" t="n">
-        <v>55844824.30714703</v>
+        <v>48162533.42707847</v>
       </c>
       <c r="U99" t="n">
-        <v>59531106.33249835</v>
+        <v>51621717.7062404</v>
       </c>
     </row>
     <row r="100">
@@ -6873,64 +6873,64 @@
         <v>22561132</v>
       </c>
       <c r="B100" t="n">
-        <v>24706203.45921767</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C100" t="n">
-        <v>25906136.61640726</v>
+        <v>23170678.32277732</v>
       </c>
       <c r="D100" t="n">
-        <v>26863124.03664019</v>
+        <v>25373704.33941971</v>
       </c>
       <c r="E100" t="n">
-        <v>28323990.50737799</v>
+        <v>26311023.40852998</v>
       </c>
       <c r="F100" t="n">
-        <v>29040956.97293366</v>
+        <v>26824069.53037219</v>
       </c>
       <c r="G100" t="n">
-        <v>30789095.23325247</v>
+        <v>28594709.63146263</v>
       </c>
       <c r="H100" t="n">
-        <v>30494458.26371688</v>
+        <v>30648471.40406787</v>
       </c>
       <c r="I100" t="n">
-        <v>32507378.43608779</v>
+        <v>33027923.69551015</v>
       </c>
       <c r="J100" t="n">
-        <v>33708219.48347054</v>
+        <v>35592109.28515203</v>
       </c>
       <c r="K100" t="n">
-        <v>36129249.57924627</v>
+        <v>35665357.83105089</v>
       </c>
       <c r="L100" t="n">
-        <v>36413650.40079115</v>
+        <v>36153456.89272565</v>
       </c>
       <c r="M100" t="n">
-        <v>36488589.67795953</v>
+        <v>38329736.45871463</v>
       </c>
       <c r="N100" t="n">
-        <v>36987955.09770423</v>
+        <v>38408619.04018216</v>
       </c>
       <c r="O100" t="n">
-        <v>36633997.99319224</v>
+        <v>40497350.92656336</v>
       </c>
       <c r="P100" t="n">
-        <v>36922372.0736692</v>
+        <v>41287020.27979044</v>
       </c>
       <c r="Q100" t="n">
-        <v>37427674.03220652</v>
+        <v>43532284.96014372</v>
       </c>
       <c r="R100" t="n">
-        <v>40551038.16743957</v>
+        <v>45140392.32473116</v>
       </c>
       <c r="S100" t="n">
-        <v>41106000.31791694</v>
+        <v>49432258.85136064</v>
       </c>
       <c r="T100" t="n">
-        <v>43819381.76348504</v>
+        <v>53557413.52399778</v>
       </c>
       <c r="U100" t="n">
-        <v>47730893.56915987</v>
+        <v>53044894.59814664</v>
       </c>
     </row>
     <row r="101">
@@ -6938,64 +6938,64 @@
         <v>22561132</v>
       </c>
       <c r="B101" t="n">
-        <v>22214067.67656468</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C101" t="n">
-        <v>24067846.30622032</v>
+        <v>26054347.96513828</v>
       </c>
       <c r="D101" t="n">
-        <v>24257302.64262419</v>
+        <v>26562389.09957428</v>
       </c>
       <c r="E101" t="n">
-        <v>24730302.67967773</v>
+        <v>26462627.08936804</v>
       </c>
       <c r="F101" t="n">
-        <v>24924973.7143951</v>
+        <v>28209408.60033839</v>
       </c>
       <c r="G101" t="n">
-        <v>24541545.74017689</v>
+        <v>28267463.55134135</v>
       </c>
       <c r="H101" t="n">
-        <v>24449373.53656107</v>
+        <v>29476020.02352749</v>
       </c>
       <c r="I101" t="n">
-        <v>25352547.30011817</v>
+        <v>30907614.06939531</v>
       </c>
       <c r="J101" t="n">
-        <v>26289084.81616398</v>
+        <v>30791532.4285955</v>
       </c>
       <c r="K101" t="n">
-        <v>26343187.74162895</v>
+        <v>31570959.89552048</v>
       </c>
       <c r="L101" t="n">
-        <v>27622626.10169222</v>
+        <v>31635932.91767128</v>
       </c>
       <c r="M101" t="n">
-        <v>28321838.89800838</v>
+        <v>31149268.34541858</v>
       </c>
       <c r="N101" t="n">
-        <v>29368063.73440842</v>
+        <v>33748695.37647352</v>
       </c>
       <c r="O101" t="n">
-        <v>29257764.27817251</v>
+        <v>34995391.37760954</v>
       </c>
       <c r="P101" t="n">
-        <v>32039539.37321766</v>
+        <v>34660502.1583877</v>
       </c>
       <c r="Q101" t="n">
-        <v>33968179.14474839</v>
+        <v>36343896.60842303</v>
       </c>
       <c r="R101" t="n">
-        <v>35617948.78711456</v>
+        <v>36418692.33231613</v>
       </c>
       <c r="S101" t="n">
-        <v>38797364.41480871</v>
+        <v>38187478.72408886</v>
       </c>
       <c r="T101" t="n">
-        <v>38651650.74988888</v>
+        <v>39376133.0119993</v>
       </c>
       <c r="U101" t="n">
-        <v>38955907.31085683</v>
+        <v>43119944.2311526</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -503,64 +503,64 @@
         <v>22561132</v>
       </c>
       <c r="B2" t="n">
-        <v>24706203.45921767</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C2" t="n">
-        <v>26193408.56662968</v>
+        <v>24768487.24956711</v>
       </c>
       <c r="D2" t="n">
-        <v>28379265.82364539</v>
+        <v>25827447.33338771</v>
       </c>
       <c r="E2" t="n">
-        <v>29097631.47580672</v>
+        <v>26030754.82871532</v>
       </c>
       <c r="F2" t="n">
-        <v>30510847.91195961</v>
+        <v>26538335.91388011</v>
       </c>
       <c r="G2" t="n">
-        <v>30218873.63669633</v>
+        <v>26747239.35428473</v>
       </c>
       <c r="H2" t="n">
-        <v>30456749.39078823</v>
+        <v>27268791.37480599</v>
       </c>
       <c r="I2" t="n">
-        <v>31404770.7571828</v>
+        <v>27800513.28637683</v>
       </c>
       <c r="J2" t="n">
-        <v>31469401.76215699</v>
+        <v>28180977.84006045</v>
       </c>
       <c r="K2" t="n">
-        <v>34461455.3328137</v>
+        <v>29877349.12773257</v>
       </c>
       <c r="L2" t="n">
-        <v>35333779.72585556</v>
+        <v>32718033.22509884</v>
       </c>
       <c r="M2" t="n">
-        <v>36639029.64434435</v>
+        <v>35828804.40771924</v>
       </c>
       <c r="N2" t="n">
-        <v>37140453.91365334</v>
+        <v>37777241.19319768</v>
       </c>
       <c r="O2" t="n">
-        <v>40455775.08216047</v>
+        <v>37635358.868255</v>
       </c>
       <c r="P2" t="n">
-        <v>40774233.27887349</v>
+        <v>39244433.4306283</v>
       </c>
       <c r="Q2" t="n">
-        <v>43228663.32043154</v>
+        <v>39325198.45807828</v>
       </c>
       <c r="R2" t="n">
-        <v>45579518.14779621</v>
+        <v>41235148.30613168</v>
       </c>
       <c r="S2" t="n">
-        <v>46468286.12379148</v>
+        <v>41320010.22395591</v>
       </c>
       <c r="T2" t="n">
-        <v>45753451.23497683</v>
+        <v>44768192.38697018</v>
       </c>
       <c r="U2" t="n">
-        <v>48773608.01723566</v>
+        <v>49024670.81943783</v>
       </c>
     </row>
     <row r="3">
@@ -568,64 +568,64 @@
         <v>22561132</v>
       </c>
       <c r="B3" t="n">
-        <v>23919213.21206409</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C3" t="n">
-        <v>25776226.76215548</v>
+        <v>25493530.18555287</v>
       </c>
       <c r="D3" t="n">
-        <v>27927269.92185793</v>
+        <v>26731702.29944944</v>
       </c>
       <c r="E3" t="n">
-        <v>30420181.54231907</v>
+        <v>27563774.84320035</v>
       </c>
       <c r="F3" t="n">
-        <v>32428198.75463257</v>
+        <v>29703740.85803875</v>
       </c>
       <c r="G3" t="n">
-        <v>32871995.60251275</v>
+        <v>29764871.14419787</v>
       </c>
       <c r="H3" t="n">
-        <v>33321866.04219735</v>
+        <v>30172218.96179651</v>
       </c>
       <c r="I3" t="n">
-        <v>36490048.55249834</v>
+        <v>30760555.63290849</v>
       </c>
       <c r="J3" t="n">
-        <v>39959456.10241345</v>
+        <v>30466191.77374829</v>
       </c>
       <c r="K3" t="n">
-        <v>43758728.62168015</v>
+        <v>29997521.66288653</v>
       </c>
       <c r="L3" t="n">
-        <v>45884006.56963718</v>
+        <v>30756850.29902864</v>
       </c>
       <c r="M3" t="n">
-        <v>47045470.52391991</v>
+        <v>33681155.77057488</v>
       </c>
       <c r="N3" t="n">
-        <v>48783356.96129076</v>
+        <v>33946285.78249838</v>
       </c>
       <c r="O3" t="n">
-        <v>48316523.4817761</v>
+        <v>34608214.0549658</v>
       </c>
       <c r="P3" t="n">
-        <v>51786767.8098693</v>
+        <v>36691476.77826983</v>
       </c>
       <c r="Q3" t="n">
-        <v>56108407.81127046</v>
+        <v>36766987.82200589</v>
       </c>
       <c r="R3" t="n">
-        <v>57854883.4038218</v>
+        <v>36201390.76981901</v>
       </c>
       <c r="S3" t="n">
-        <v>61001139.18620246</v>
+        <v>39011954.5034873</v>
       </c>
       <c r="T3" t="n">
-        <v>60772033.42891259</v>
+        <v>38638628.68915309</v>
       </c>
       <c r="U3" t="n">
-        <v>64783557.45557837</v>
+        <v>41638412.01800093</v>
       </c>
     </row>
     <row r="4">
@@ -633,64 +633,64 @@
         <v>22561132</v>
       </c>
       <c r="B4" t="n">
-        <v>23394553.04729505</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C4" t="n">
-        <v>24530781.84689261</v>
+        <v>25069485.32064895</v>
       </c>
       <c r="D4" t="n">
-        <v>24723882.30127908</v>
+        <v>25412574.32930667</v>
       </c>
       <c r="E4" t="n">
-        <v>24487286.5292625</v>
+        <v>25908101.33725463</v>
       </c>
       <c r="F4" t="n">
-        <v>26815493.26319794</v>
+        <v>27015784.85814513</v>
       </c>
       <c r="G4" t="n">
-        <v>27650173.95212301</v>
+        <v>29113206.62963657</v>
       </c>
       <c r="H4" t="n">
-        <v>27224823.44597099</v>
+        <v>30696436.76187614</v>
       </c>
       <c r="I4" t="n">
-        <v>28230523.90766608</v>
+        <v>31651918.83086016</v>
       </c>
       <c r="J4" t="n">
-        <v>29765752.1176025</v>
+        <v>32637142.00599381</v>
       </c>
       <c r="K4" t="n">
-        <v>29827010.02290764</v>
+        <v>33083798.35146871</v>
       </c>
       <c r="L4" t="n">
-        <v>30928836.73669893</v>
+        <v>35459980.56218316</v>
       </c>
       <c r="M4" t="n">
-        <v>31711739.79384701</v>
+        <v>37800671.76476886</v>
       </c>
       <c r="N4" t="n">
-        <v>34726834.42446743</v>
+        <v>39856342.35159993</v>
       </c>
       <c r="O4" t="n">
-        <v>35000195.76894564</v>
+        <v>43414095.73298634</v>
       </c>
       <c r="P4" t="n">
-        <v>36903571.28098109</v>
+        <v>47541829.11465233</v>
       </c>
       <c r="Q4" t="n">
-        <v>40412295.82095707</v>
+        <v>51509226.1763107</v>
       </c>
       <c r="R4" t="n">
-        <v>40730411.75931294</v>
+        <v>54609855.71555579</v>
       </c>
       <c r="S4" t="n">
-        <v>44602985.342371</v>
+        <v>54087265.41944896</v>
       </c>
       <c r="T4" t="n">
-        <v>43916844.90708409</v>
+        <v>55141928.37701002</v>
       </c>
       <c r="U4" t="n">
-        <v>45794480.19806275</v>
+        <v>56537738.52890547</v>
       </c>
     </row>
     <row r="5">
@@ -698,64 +698,64 @@
         <v>22561132</v>
       </c>
       <c r="B5" t="n">
-        <v>22214067.67656468</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C5" t="n">
-        <v>24196993.59820214</v>
+        <v>23442699.02760037</v>
       </c>
       <c r="D5" t="n">
-        <v>24528142.10164854</v>
+        <v>24308685.66226947</v>
       </c>
       <c r="E5" t="n">
-        <v>25434225.62079809</v>
+        <v>24924012.53286142</v>
       </c>
       <c r="F5" t="n">
-        <v>26225911.85811893</v>
+        <v>25410012.9355134</v>
       </c>
       <c r="G5" t="n">
-        <v>26127413.57633224</v>
+        <v>26053217.7536817</v>
       </c>
       <c r="H5" t="n">
-        <v>27548270.74874089</v>
+        <v>26561236.84980336</v>
       </c>
       <c r="I5" t="n">
-        <v>29206555.84404195</v>
+        <v>29086631.01389202</v>
       </c>
       <c r="J5" t="n">
-        <v>30285462.62759442</v>
+        <v>31175724.12377543</v>
       </c>
       <c r="K5" t="n">
-        <v>29819572.72469541</v>
+        <v>31602380.20175254</v>
       </c>
       <c r="L5" t="n">
-        <v>31961308.00813457</v>
+        <v>31851146.58901</v>
       </c>
       <c r="M5" t="n">
-        <v>34814315.70854913</v>
+        <v>33212921.02932305</v>
       </c>
       <c r="N5" t="n">
-        <v>34683561.42639402</v>
+        <v>33281273.20679477</v>
       </c>
       <c r="O5" t="n">
-        <v>37981211.4609659</v>
+        <v>36445596.22402287</v>
       </c>
       <c r="P5" t="n">
-        <v>38721817.8957806</v>
+        <v>37368145.26607963</v>
       </c>
       <c r="Q5" t="n">
-        <v>40377343.28622682</v>
+        <v>38965795.28985651</v>
       </c>
       <c r="R5" t="n">
-        <v>40460439.84168185</v>
+        <v>41311365.29477868</v>
       </c>
       <c r="S5" t="n">
-        <v>40778934.75826743</v>
+        <v>41876732.91936284</v>
       </c>
       <c r="T5" t="n">
-        <v>43707805.81216136</v>
+        <v>44640989.94329135</v>
       </c>
       <c r="U5" t="n">
-        <v>45576503.77663918</v>
+        <v>46290053.50051115</v>
       </c>
     </row>
     <row r="6">
@@ -763,64 +763,64 @@
         <v>22561132</v>
       </c>
       <c r="B6" t="n">
-        <v>23525718.08848731</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C6" t="n">
-        <v>24394771.49448108</v>
+        <v>24221395.59084112</v>
       </c>
       <c r="D6" t="n">
-        <v>25012277.45967621</v>
+        <v>25397782.55498281</v>
       </c>
       <c r="E6" t="n">
-        <v>27099568.54516623</v>
+        <v>25745364.4828701</v>
       </c>
       <c r="F6" t="n">
-        <v>29676146.30923184</v>
+        <v>25648671.02262918</v>
       </c>
       <c r="G6" t="n">
-        <v>31980110.29509332</v>
+        <v>25552340.72000678</v>
       </c>
       <c r="H6" t="n">
-        <v>32417774.8182206</v>
+        <v>25307816.99570609</v>
       </c>
       <c r="I6" t="n">
-        <v>34746121.12887277</v>
+        <v>27419771.0508101</v>
       </c>
       <c r="J6" t="n">
-        <v>36837685.25328042</v>
+        <v>26997964.89815336</v>
       </c>
       <c r="K6" t="n">
-        <v>40340145.46939261</v>
+        <v>29564882.37197468</v>
       </c>
       <c r="L6" t="n">
-        <v>40188637.48609516</v>
+        <v>29969493.23870549</v>
       </c>
       <c r="M6" t="n">
-        <v>42841464.38324045</v>
+        <v>30553876.90333745</v>
       </c>
       <c r="N6" t="n">
-        <v>43925912.32817532</v>
+        <v>32037820.40107163</v>
       </c>
       <c r="O6" t="n">
-        <v>45037810.95347801</v>
+        <v>32848795.21237445</v>
       </c>
       <c r="P6" t="n">
-        <v>48796246.0445941</v>
+        <v>35781023.94551617</v>
       </c>
       <c r="Q6" t="n">
-        <v>48896668.69837541</v>
+        <v>36686750.63912938</v>
       </c>
       <c r="R6" t="n">
-        <v>48144477.30833156</v>
+        <v>37828692.05327135</v>
       </c>
       <c r="S6" t="n">
-        <v>50202862.19119602</v>
+        <v>37906543.48556378</v>
       </c>
       <c r="T6" t="n">
-        <v>49430577.25438947</v>
+        <v>40408730.78094307</v>
       </c>
       <c r="U6" t="n">
-        <v>49532305.36153303</v>
+        <v>39787111.7589291</v>
       </c>
     </row>
     <row r="7">
@@ -828,64 +828,64 @@
         <v>22561132</v>
       </c>
       <c r="B7" t="n">
-        <v>24312708.33564088</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C7" t="n">
-        <v>26341619.9153607</v>
+        <v>26337044.54174089</v>
       </c>
       <c r="D7" t="n">
-        <v>27467838.23271185</v>
+        <v>28534888.31581362</v>
       </c>
       <c r="E7" t="n">
-        <v>27204984.11000156</v>
+        <v>28759508.13975734</v>
       </c>
       <c r="F7" t="n">
-        <v>28684441.56510054</v>
+        <v>29320297.96112204</v>
       </c>
       <c r="G7" t="n">
-        <v>30077590.1557469</v>
+        <v>30744328.88357048</v>
       </c>
       <c r="H7" t="n">
-        <v>29614898.01432558</v>
+        <v>30271380.11027979</v>
       </c>
       <c r="I7" t="n">
-        <v>29331497.55263801</v>
+        <v>31037640.93781064</v>
       </c>
       <c r="J7" t="n">
-        <v>31608704.07765232</v>
+        <v>32184189.04612176</v>
       </c>
       <c r="K7" t="n">
-        <v>32592582.11549443</v>
+        <v>34869980.8936653</v>
       </c>
       <c r="L7" t="n">
-        <v>33228114.13549777</v>
+        <v>37374452.33939341</v>
       </c>
       <c r="M7" t="n">
-        <v>34262399.23799715</v>
+        <v>38320513.55872879</v>
       </c>
       <c r="N7" t="n">
-        <v>35528071.75193717</v>
+        <v>39958881.45101536</v>
       </c>
       <c r="O7" t="n">
-        <v>35394636.77199473</v>
+        <v>41667296.66525031</v>
       </c>
       <c r="P7" t="n">
-        <v>37731014.6717412</v>
+        <v>41026316.76554918</v>
       </c>
       <c r="Q7" t="n">
-        <v>40440974.54100202</v>
+        <v>43972955.57146206</v>
       </c>
       <c r="R7" t="n">
-        <v>41229544.59506743</v>
+        <v>47386879.49988732</v>
       </c>
       <c r="S7" t="n">
-        <v>44670177.34155909</v>
+        <v>48861881.76215255</v>
       </c>
       <c r="T7" t="n">
-        <v>46060617.33950716</v>
+        <v>52939438.08971331</v>
       </c>
       <c r="U7" t="n">
-        <v>48297693.62998334</v>
+        <v>55510605.57773674</v>
       </c>
     </row>
     <row r="8">
@@ -893,64 +893,64 @@
         <v>22561132</v>
       </c>
       <c r="B8" t="n">
-        <v>22607562.80014147</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C8" t="n">
-        <v>23048394.09122521</v>
+        <v>24943388.277747</v>
       </c>
       <c r="D8" t="n">
-        <v>23899814.87729117</v>
+        <v>25284751.58247061</v>
       </c>
       <c r="E8" t="n">
-        <v>25755322.40081708</v>
+        <v>26071785.1702182</v>
       </c>
       <c r="F8" t="n">
-        <v>27754885.77529992</v>
+        <v>28095917.73289578</v>
       </c>
       <c r="G8" t="n">
-        <v>29748328.76328595</v>
+        <v>28480425.05081699</v>
       </c>
       <c r="H8" t="n">
-        <v>29463651.43291423</v>
+        <v>28042302.5553938</v>
       </c>
       <c r="I8" t="n">
-        <v>32265001.90473818</v>
+        <v>28426076.12159004</v>
       </c>
       <c r="J8" t="n">
-        <v>32894146.34512854</v>
+        <v>30632988.53403918</v>
       </c>
       <c r="K8" t="n">
-        <v>33153081.20686854</v>
+        <v>30161752.54107712</v>
       </c>
       <c r="L8" t="n">
-        <v>35148751.31371795</v>
+        <v>30574531.88801386</v>
       </c>
       <c r="M8" t="n">
-        <v>34608048.05493236</v>
+        <v>30992960.33604396</v>
       </c>
       <c r="N8" t="n">
-        <v>37697315.47702625</v>
+        <v>33218971.99968405</v>
       </c>
       <c r="O8" t="n">
-        <v>40843181.36904488</v>
+        <v>33866718.1740308</v>
       </c>
       <c r="P8" t="n">
-        <v>43776666.81612323</v>
+        <v>33739522.84263706</v>
       </c>
       <c r="Q8" t="n">
-        <v>47938872.79793954</v>
+        <v>33612805.22662884</v>
       </c>
       <c r="R8" t="n">
-        <v>51381993.06889567</v>
+        <v>33291146.69803174</v>
       </c>
       <c r="S8" t="n">
-        <v>56267299.65944301</v>
+        <v>35682221.31763135</v>
       </c>
       <c r="T8" t="n">
-        <v>56055973.07651177</v>
+        <v>35963103.23949418</v>
       </c>
       <c r="U8" t="n">
-        <v>60407985.01953575</v>
+        <v>36246196.19674428</v>
       </c>
     </row>
     <row r="9">
@@ -958,64 +958,64 @@
         <v>22561132</v>
       </c>
       <c r="B9" t="n">
-        <v>24050378.25325636</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C9" t="n">
-        <v>24099873.92155898</v>
+        <v>25488954.81193306</v>
       </c>
       <c r="D9" t="n">
-        <v>24289582.37169952</v>
+        <v>27764211.64233109</v>
       </c>
       <c r="E9" t="n">
-        <v>26598991.75336748</v>
+        <v>28144179.38904365</v>
       </c>
       <c r="F9" t="n">
-        <v>28818695.19538043</v>
+        <v>29674712.02403446</v>
       </c>
       <c r="G9" t="n">
-        <v>29548184.14330166</v>
+        <v>30943434.462175</v>
       </c>
       <c r="H9" t="n">
-        <v>29780780.38992677</v>
+        <v>31906604.78095645</v>
       </c>
       <c r="I9" t="n">
-        <v>32612282.90707269</v>
+        <v>34383734.64682353</v>
       </c>
       <c r="J9" t="n">
-        <v>33437799.11403141</v>
+        <v>34254597.52463523</v>
       </c>
       <c r="K9" t="n">
-        <v>32923415.92055169</v>
+        <v>33926797.34957781</v>
       </c>
       <c r="L9" t="n">
-        <v>36053714.5168778</v>
+        <v>35771799.46623085</v>
       </c>
       <c r="M9" t="n">
-        <v>39481636.21907503</v>
+        <v>38964948.4859414</v>
       </c>
       <c r="N9" t="n">
-        <v>39562889.4097636</v>
+        <v>41990066.27202771</v>
       </c>
       <c r="O9" t="n">
-        <v>42174411.06663286</v>
+        <v>45982405.51860387</v>
       </c>
       <c r="P9" t="n">
-        <v>45939085.51308944</v>
+        <v>46077037.28976935</v>
       </c>
       <c r="Q9" t="n">
-        <v>47101943.68318379</v>
+        <v>46171863.81307998</v>
       </c>
       <c r="R9" t="n">
-        <v>50211113.61097258</v>
+        <v>49488071.95407479</v>
       </c>
       <c r="S9" t="n">
-        <v>54109348.7876098</v>
+        <v>50740765.78006782</v>
       </c>
       <c r="T9" t="n">
-        <v>53591548.10429815</v>
+        <v>54090132.08515058</v>
       </c>
       <c r="U9" t="n">
-        <v>57129092.7727365</v>
+        <v>54830383.81181742</v>
       </c>
     </row>
     <row r="10">
@@ -1023,64 +1023,64 @@
         <v>22561132</v>
       </c>
       <c r="B10" t="n">
-        <v>23656883.12967957</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C10" t="n">
-        <v>23843104.46213528</v>
+        <v>24943388.277747</v>
       </c>
       <c r="D10" t="n">
-        <v>25555591.04149496</v>
+        <v>27169945.42655737</v>
       </c>
       <c r="E10" t="n">
-        <v>26351054.99686725</v>
+        <v>28015659.07963492</v>
       </c>
       <c r="F10" t="n">
-        <v>28703266.70237615</v>
+        <v>29213449.82027768</v>
       </c>
       <c r="G10" t="n">
-        <v>30431077.48923569</v>
+        <v>28933891.02650609</v>
       </c>
       <c r="H10" t="n">
-        <v>32085975.88124001</v>
+        <v>28825222.21960502</v>
       </c>
       <c r="I10" t="n">
-        <v>34950111.98734664</v>
+        <v>29219710.45058267</v>
       </c>
       <c r="J10" t="n">
-        <v>36444380.61775348</v>
+        <v>30638856.02958712</v>
       </c>
       <c r="K10" t="n">
-        <v>39909446.14336668</v>
+        <v>32305053.80369324</v>
       </c>
       <c r="L10" t="n">
-        <v>40223603.76918946</v>
+        <v>35188745.77402142</v>
       </c>
       <c r="M10" t="n">
-        <v>40774084.80880001</v>
+        <v>37716111.91370384</v>
       </c>
       <c r="N10" t="n">
-        <v>40383896.24714728</v>
+        <v>41302091.34145355</v>
       </c>
       <c r="O10" t="n">
-        <v>39762659.26184449</v>
+        <v>45229019.18100315</v>
       </c>
       <c r="P10" t="n">
-        <v>41462685.12779998</v>
+        <v>49003410.72508235</v>
       </c>
       <c r="Q10" t="n">
-        <v>40824852.82569335</v>
+        <v>49389153.86757819</v>
       </c>
       <c r="R10" t="n">
-        <v>42570292.06607391</v>
+        <v>53797848.1633591</v>
       </c>
       <c r="S10" t="n">
-        <v>45875317.54902644</v>
+        <v>55785171.27101728</v>
       </c>
       <c r="T10" t="n">
-        <v>48903518.65067477</v>
+        <v>60440480.68393451</v>
       </c>
       <c r="U10" t="n">
-        <v>50425729.04738694</v>
+        <v>61619026.79123335</v>
       </c>
     </row>
     <row r="11">
@@ -1088,64 +1088,64 @@
         <v>22561132</v>
       </c>
       <c r="B11" t="n">
-        <v>23001057.92371826</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C11" t="n">
-        <v>23717007.41923333</v>
+        <v>24379520.24908172</v>
       </c>
       <c r="D11" t="n">
-        <v>24041587.06096576</v>
+        <v>25705323.74297092</v>
       </c>
       <c r="E11" t="n">
-        <v>24650152.85246183</v>
+        <v>25309891.42186487</v>
       </c>
       <c r="F11" t="n">
-        <v>26563914.28988894</v>
+        <v>27716309.93512655</v>
       </c>
       <c r="G11" t="n">
-        <v>29089563.02011866</v>
+        <v>27612214.07295609</v>
       </c>
       <c r="H11" t="n">
-        <v>28811189.76398915</v>
+        <v>28953286.6203529</v>
       </c>
       <c r="I11" t="n">
-        <v>28367979.02071591</v>
+        <v>28507889.96064089</v>
       </c>
       <c r="J11" t="n">
-        <v>30900230.28435951</v>
+        <v>28069344.96468242</v>
       </c>
       <c r="K11" t="n">
-        <v>32041702.36498245</v>
+        <v>29269431.00938461</v>
       </c>
       <c r="L11" t="n">
-        <v>35088169.23764963</v>
+        <v>29329667.48605835</v>
       </c>
       <c r="M11" t="n">
-        <v>36180351.91670537</v>
+        <v>29901575.00653</v>
       </c>
       <c r="N11" t="n">
-        <v>38358250.44519874</v>
+        <v>30136953.06160668</v>
       </c>
       <c r="O11" t="n">
-        <v>38883203.1496824</v>
+        <v>29848556.78189015</v>
       </c>
       <c r="P11" t="n">
-        <v>41675916.81086241</v>
+        <v>30951179.44521256</v>
       </c>
       <c r="Q11" t="n">
-        <v>42246273.51346943</v>
+        <v>30834934.18323204</v>
       </c>
       <c r="R11" t="n">
-        <v>45526143.20064671</v>
+        <v>32511795.05072646</v>
       </c>
       <c r="S11" t="n">
-        <v>47207904.8226073</v>
+        <v>34090830.89674447</v>
       </c>
       <c r="T11" t="n">
-        <v>49775158.17761783</v>
+        <v>35151969.61754417</v>
       </c>
       <c r="U11" t="n">
-        <v>49298833.63308334</v>
+        <v>35224312.3561927</v>
       </c>
     </row>
     <row r="12">
@@ -1153,64 +1153,64 @@
         <v>22561132</v>
       </c>
       <c r="B12" t="n">
-        <v>23656883.12967957</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C12" t="n">
-        <v>25218459.23164993</v>
+        <v>23578709.3800119</v>
       </c>
       <c r="D12" t="n">
-        <v>26443271.67421082</v>
+        <v>24723882.30127908</v>
       </c>
       <c r="E12" t="n">
-        <v>26651426.79163125</v>
+        <v>24631025.2849455</v>
       </c>
       <c r="F12" t="n">
-        <v>27326055.57544736</v>
+        <v>25827307.18166704</v>
       </c>
       <c r="G12" t="n">
-        <v>29129831.46231376</v>
+        <v>26931536.40254675</v>
       </c>
       <c r="H12" t="n">
-        <v>29697842.32337408</v>
+        <v>28552696.79469015</v>
       </c>
       <c r="I12" t="n">
-        <v>29758960.47035134</v>
+        <v>30603441.07352699</v>
       </c>
       <c r="J12" t="n">
-        <v>31031284.89438931</v>
+        <v>32445634.0249475</v>
       </c>
       <c r="K12" t="n">
-        <v>33440457.63827214</v>
+        <v>32323775.94732463</v>
       </c>
       <c r="L12" t="n">
-        <v>34092522.62402189</v>
+        <v>33893680.06427188</v>
       </c>
       <c r="M12" t="n">
-        <v>33568067.63219304</v>
+        <v>34357532.78977778</v>
       </c>
       <c r="N12" t="n">
-        <v>35979031.58222981</v>
+        <v>34228494.07552711</v>
       </c>
       <c r="O12" t="n">
-        <v>36262249.92358869</v>
+        <v>34298936.30189963</v>
       </c>
       <c r="P12" t="n">
-        <v>38234258.27952787</v>
+        <v>37360611.04188344</v>
       </c>
       <c r="Q12" t="n">
-        <v>41424932.40329935</v>
+        <v>40912790.09233519</v>
       </c>
       <c r="R12" t="n">
-        <v>45363539.7479281</v>
+        <v>43851275.05634434</v>
       </c>
       <c r="S12" t="n">
-        <v>48621691.51813678</v>
+        <v>43686580.10615261</v>
       </c>
       <c r="T12" t="n">
-        <v>50983154.29438089</v>
+        <v>43522503.7109877</v>
       </c>
       <c r="U12" t="n">
-        <v>52866501.00971537</v>
+        <v>45130249.75066841</v>
       </c>
     </row>
     <row r="13">
@@ -1218,64 +1218,64 @@
         <v>22561132</v>
       </c>
       <c r="B13" t="n">
-        <v>23001057.92371826</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C13" t="n">
-        <v>22647226.09442033</v>
+        <v>23292962.55432942</v>
       </c>
       <c r="D13" t="n">
-        <v>24800483.22378737</v>
+        <v>25236775.6746135</v>
       </c>
       <c r="E13" t="n">
-        <v>25572443.08369847</v>
+        <v>25288712.94830894</v>
       </c>
       <c r="F13" t="n">
-        <v>27111792.01789864</v>
+        <v>27546095.30439824</v>
       </c>
       <c r="G13" t="n">
-        <v>29216667.48759443</v>
+        <v>29684688.73466107</v>
       </c>
       <c r="H13" t="n">
-        <v>29276795.37696258</v>
+        <v>30090939.21407954</v>
       </c>
       <c r="I13" t="n">
-        <v>30017880.23570625</v>
+        <v>32602047.97963787</v>
       </c>
       <c r="J13" t="n">
-        <v>32522892.18123212</v>
+        <v>35322710.43136076</v>
       </c>
       <c r="K13" t="n">
-        <v>35426029.36852095</v>
+        <v>36627551.44381546</v>
       </c>
       <c r="L13" t="n">
-        <v>35910853.09510595</v>
+        <v>37341762.47730698</v>
       </c>
       <c r="M13" t="n">
-        <v>36819866.15991334</v>
+        <v>40240861.13451858</v>
       </c>
       <c r="N13" t="n">
-        <v>38822198.72021812</v>
+        <v>44066889.13320222</v>
       </c>
       <c r="O13" t="n">
-        <v>41384827.84659611</v>
+        <v>44413773.15704337</v>
       </c>
       <c r="P13" t="n">
-        <v>45319622.12280398</v>
+        <v>48120131.88159881</v>
       </c>
       <c r="Q13" t="n">
-        <v>47784187.16503099</v>
+        <v>52135788.69137918</v>
       </c>
       <c r="R13" t="n">
-        <v>50104973.95298572</v>
+        <v>52546189.16491229</v>
       </c>
       <c r="S13" t="n">
-        <v>50499388.33805227</v>
+        <v>55098257.30306285</v>
       </c>
       <c r="T13" t="n">
-        <v>50603316.05795526</v>
+        <v>56172633.87864053</v>
       </c>
       <c r="U13" t="n">
-        <v>50119066.43714584</v>
+        <v>55961662.83784653</v>
       </c>
     </row>
     <row r="14">
@@ -1283,64 +1283,64 @@
         <v>22561132</v>
       </c>
       <c r="B14" t="n">
-        <v>23788048.17087183</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C14" t="n">
-        <v>25911474.55229704</v>
+        <v>22905520.67838397</v>
       </c>
       <c r="D14" t="n">
-        <v>26416729.7574579</v>
+        <v>23884830.87416348</v>
       </c>
       <c r="E14" t="n">
-        <v>26778256.51034261</v>
+        <v>26155757.2184803</v>
       </c>
       <c r="F14" t="n">
-        <v>26989048.54836645</v>
+        <v>26665775.76076312</v>
       </c>
       <c r="G14" t="n">
-        <v>26573868.32271989</v>
+        <v>26565625.45486894</v>
       </c>
       <c r="H14" t="n">
-        <v>28791475.19784036</v>
+        <v>28782544.45721925</v>
       </c>
       <c r="I14" t="n">
-        <v>29855048.66625291</v>
+        <v>29678453.16942405</v>
       </c>
       <c r="J14" t="n">
-        <v>32346472.20968688</v>
+        <v>31119879.00690147</v>
       </c>
       <c r="K14" t="n">
-        <v>32224986.56023638</v>
+        <v>33355006.36773858</v>
       </c>
       <c r="L14" t="n">
-        <v>31729260.40792094</v>
+        <v>35556749.53649876</v>
       </c>
       <c r="M14" t="n">
-        <v>34561554.51331918</v>
+        <v>36870236.08660256</v>
       </c>
       <c r="N14" t="n">
-        <v>36240143.26504722</v>
+        <v>38660953.09687701</v>
       </c>
       <c r="O14" t="n">
-        <v>35682650.81282972</v>
+        <v>40538641.81526188</v>
       </c>
       <c r="P14" t="n">
-        <v>38867842.02948132</v>
+        <v>41093434.315181</v>
       </c>
       <c r="Q14" t="n">
-        <v>38495895.3028498</v>
+        <v>42372541.72252324</v>
       </c>
       <c r="R14" t="n">
-        <v>39694149.61414633</v>
+        <v>41967056.68991464</v>
       </c>
       <c r="S14" t="n">
-        <v>43468197.27430902</v>
+        <v>43517343.63200599</v>
       </c>
       <c r="T14" t="n">
-        <v>47348360.79938062</v>
+        <v>46136896.88782509</v>
       </c>
       <c r="U14" t="n">
-        <v>47445803.70593788</v>
+        <v>48109449.01437483</v>
       </c>
     </row>
     <row r="15">
@@ -1348,64 +1348,64 @@
         <v>22561132</v>
       </c>
       <c r="B15" t="n">
-        <v>23132222.96491052</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C15" t="n">
-        <v>24121225.66511808</v>
+        <v>22916959.11243349</v>
       </c>
       <c r="D15" t="n">
-        <v>23890397.02992718</v>
+        <v>22564420.99911756</v>
       </c>
       <c r="E15" t="n">
-        <v>23939563.45693966</v>
+        <v>24316252.68245209</v>
       </c>
       <c r="F15" t="n">
-        <v>25798156.93694539</v>
+        <v>24083557.73164101</v>
       </c>
       <c r="G15" t="n">
-        <v>27801045.85200087</v>
+        <v>25813314.41933099</v>
       </c>
       <c r="H15" t="n">
-        <v>27858260.39263996</v>
+        <v>27817380.11432173</v>
       </c>
       <c r="I15" t="n">
-        <v>27429708.83346923</v>
+        <v>28198075.49936087</v>
       </c>
       <c r="J15" t="n">
-        <v>27964568.52029198</v>
+        <v>29239728.44542679</v>
       </c>
       <c r="K15" t="n">
-        <v>27859540.2579743</v>
+        <v>29639889.41073786</v>
       </c>
       <c r="L15" t="n">
-        <v>30346406.02910545</v>
+        <v>32285677.02076773</v>
       </c>
       <c r="M15" t="n">
-        <v>32173126.59799343</v>
+        <v>32915224.61112048</v>
       </c>
       <c r="N15" t="n">
-        <v>32052291.99339504</v>
+        <v>34131131.72816371</v>
       </c>
       <c r="O15" t="n">
-        <v>33236321.88876296</v>
+        <v>35987245.92701866</v>
       </c>
       <c r="P15" t="n">
-        <v>33691178.32408245</v>
+        <v>37316635.2586249</v>
       </c>
       <c r="Q15" t="n">
-        <v>35719239.5177423</v>
+        <v>40647683.15313914</v>
       </c>
       <c r="R15" t="n">
-        <v>38492370.52315311</v>
+        <v>43567127.30490048</v>
       </c>
       <c r="S15" t="n">
-        <v>41033227.89593747</v>
+        <v>43656788.43452074</v>
       </c>
       <c r="T15" t="n">
-        <v>44457477.88413423</v>
+        <v>44761874.71440974</v>
       </c>
       <c r="U15" t="n">
-        <v>45582832.05263687</v>
+        <v>47976813.01395622</v>
       </c>
     </row>
     <row r="16">
@@ -1413,64 +1413,64 @@
         <v>22561132</v>
       </c>
       <c r="B16" t="n">
-        <v>22345232.71775694</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C16" t="n">
-        <v>23820227.59403624</v>
+        <v>23560407.88553267</v>
       </c>
       <c r="D16" t="n">
-        <v>24700160.34866167</v>
+        <v>24156793.56658069</v>
       </c>
       <c r="E16" t="n">
-        <v>24463791.58442748</v>
+        <v>24768275.58561603</v>
       </c>
       <c r="F16" t="n">
-        <v>24656364.70747155</v>
+        <v>24963245.53397736</v>
       </c>
       <c r="G16" t="n">
-        <v>25280492.39361671</v>
+        <v>27046444.8728609</v>
       </c>
       <c r="H16" t="n">
-        <v>27684115.70066161</v>
+        <v>29303488.57343284</v>
       </c>
       <c r="I16" t="n">
-        <v>27902038.44582526</v>
+        <v>31237793.57928651</v>
       </c>
       <c r="J16" t="n">
-        <v>28770539.81717008</v>
+        <v>33299780.85226323</v>
       </c>
       <c r="K16" t="n">
-        <v>28327954.40361392</v>
+        <v>34723490.68028823</v>
       </c>
       <c r="L16" t="n">
-        <v>29868481.06448864</v>
+        <v>37419314.83336882</v>
       </c>
       <c r="M16" t="n">
-        <v>29756302.15988671</v>
+        <v>38148964.68617647</v>
       </c>
       <c r="N16" t="n">
-        <v>32239485.24209945</v>
+        <v>38671053.20566905</v>
       </c>
       <c r="O16" t="n">
-        <v>34742458.91484357</v>
+        <v>41448529.59216817</v>
       </c>
       <c r="P16" t="n">
-        <v>37035786.96096482</v>
+        <v>43220633.71499588</v>
       </c>
       <c r="Q16" t="n">
-        <v>39049861.6945984</v>
+        <v>44565954.0479439</v>
       </c>
       <c r="R16" t="n">
-        <v>40946438.96145217</v>
+        <v>44657670.76258011</v>
       </c>
       <c r="S16" t="n">
-        <v>40554601.05269002</v>
+        <v>46307350.51875134</v>
       </c>
       <c r="T16" t="n">
-        <v>42760035.41807564</v>
+        <v>46671870.91938166</v>
       </c>
       <c r="U16" t="n">
-        <v>42350842.25545196</v>
+        <v>46767921.61005118</v>
       </c>
     </row>
     <row r="17">
@@ -1478,64 +1478,64 @@
         <v>22561132</v>
       </c>
       <c r="B17" t="n">
-        <v>23919213.21206409</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C17" t="n">
-        <v>25637166.16066407</v>
+        <v>24934237.53050739</v>
       </c>
       <c r="D17" t="n">
-        <v>27180411.14027606</v>
+        <v>24550667.04836575</v>
       </c>
       <c r="E17" t="n">
-        <v>27552389.27200681</v>
+        <v>25457582.65185767</v>
       </c>
       <c r="F17" t="n">
-        <v>28730373.22229639</v>
+        <v>26990017.49174322</v>
       </c>
       <c r="G17" t="n">
-        <v>29624658.01053008</v>
+        <v>29242352.29006607</v>
       </c>
       <c r="H17" t="n">
-        <v>32269085.99841714</v>
+        <v>29302533.03874688</v>
       </c>
       <c r="I17" t="n">
-        <v>34399148.24082368</v>
+        <v>29533195.57856207</v>
       </c>
       <c r="J17" t="n">
-        <v>35669872.3407015</v>
+        <v>31139265.4882128</v>
       </c>
       <c r="K17" t="n">
-        <v>38439170.63155428</v>
+        <v>31022313.81982919</v>
       </c>
       <c r="L17" t="n">
-        <v>38518278.42850336</v>
+        <v>33250433.74278256</v>
       </c>
       <c r="M17" t="n">
-        <v>38597549.02926521</v>
+        <v>32932242.93660593</v>
       </c>
       <c r="N17" t="n">
-        <v>41818540.00621369</v>
+        <v>35297539.96186168</v>
       </c>
       <c r="O17" t="n">
-        <v>43363340.65754309</v>
+        <v>35780605.24376424</v>
       </c>
       <c r="P17" t="n">
-        <v>44208894.75891881</v>
+        <v>38350480.58774977</v>
       </c>
       <c r="Q17" t="n">
-        <v>44042856.67425659</v>
+        <v>37983484.76357874</v>
       </c>
       <c r="R17" t="n">
-        <v>44389551.52032217</v>
+        <v>39386616.29313041</v>
       </c>
       <c r="S17" t="n">
-        <v>47319678.13300145</v>
+        <v>40383611.51054256</v>
       </c>
       <c r="T17" t="n">
-        <v>51268536.54841378</v>
+        <v>40231940.27914175</v>
       </c>
       <c r="U17" t="n">
-        <v>50777921.08450645</v>
+        <v>41952029.94069386</v>
       </c>
     </row>
     <row r="18">
@@ -1543,64 +1543,64 @@
         <v>22561132</v>
       </c>
       <c r="B18" t="n">
-        <v>24181543.29444862</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C18" t="n">
-        <v>23950137.44828802</v>
+        <v>25625727.72661456</v>
       </c>
       <c r="D18" t="n">
-        <v>24556388.37156095</v>
+        <v>26870320.42281876</v>
       </c>
       <c r="E18" t="n">
-        <v>24178630.45071767</v>
+        <v>28644013.51647561</v>
       </c>
       <c r="F18" t="n">
-        <v>23806683.687631</v>
+        <v>29535610.20279589</v>
       </c>
       <c r="G18" t="n">
-        <v>23994084.21429211</v>
+        <v>32172089.38955422</v>
       </c>
       <c r="H18" t="n">
-        <v>23624976.3785557</v>
+        <v>35230953.22373295</v>
       </c>
       <c r="I18" t="n">
-        <v>25184446.33578276</v>
+        <v>37146877.75382422</v>
       </c>
       <c r="J18" t="n">
-        <v>26993272.29748263</v>
+        <v>40462772.34271417</v>
       </c>
       <c r="K18" t="n">
-        <v>26734959.54462883</v>
+        <v>42898453.80172371</v>
       </c>
       <c r="L18" t="n">
-        <v>28188856.19276286</v>
+        <v>42238534.66091479</v>
       </c>
       <c r="M18" t="n">
-        <v>29885701.72271977</v>
+        <v>45272238.75987162</v>
       </c>
       <c r="N18" t="n">
-        <v>30294703.16993507</v>
+        <v>49313439.00624596</v>
       </c>
       <c r="O18" t="n">
-        <v>31061554.37514038</v>
+        <v>50848408.91483563</v>
       </c>
       <c r="P18" t="n">
-        <v>30944894.57119812</v>
+        <v>54500501.19949323</v>
       </c>
       <c r="Q18" t="n">
-        <v>31908110.33851162</v>
+        <v>55880074.87594375</v>
       </c>
       <c r="R18" t="n">
-        <v>33272320.22578351</v>
+        <v>58594063.48129805</v>
       </c>
       <c r="S18" t="n">
-        <v>35275167.99868856</v>
+        <v>58373998.12734462</v>
       </c>
       <c r="T18" t="n">
-        <v>35757927.10858285</v>
+        <v>58833504.29527269</v>
       </c>
       <c r="U18" t="n">
-        <v>38949837.82029979</v>
+        <v>61348891.36805691</v>
       </c>
     </row>
     <row r="19">
@@ -1608,64 +1608,64 @@
         <v>22561132</v>
       </c>
       <c r="B19" t="n">
-        <v>22214067.67656468</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C19" t="n">
-        <v>23809551.72225669</v>
+        <v>24339867.01104338</v>
       </c>
       <c r="D19" t="n">
-        <v>25104359.27133029</v>
+        <v>25238995.5412681</v>
       </c>
       <c r="E19" t="n">
-        <v>24718171.7579652</v>
+        <v>26318071.89198048</v>
       </c>
       <c r="F19" t="n">
-        <v>26637213.9723168</v>
+        <v>28667339.37968073</v>
       </c>
       <c r="G19" t="n">
-        <v>26382308.5279633</v>
+        <v>28893001.82675714</v>
       </c>
       <c r="H19" t="n">
-        <v>25976461.95697035</v>
+        <v>30968187.88083466</v>
       </c>
       <c r="I19" t="n">
-        <v>26482984.37000141</v>
+        <v>33372461.96822313</v>
       </c>
       <c r="J19" t="n">
-        <v>26537486.3406664</v>
+        <v>32859083.87467834</v>
       </c>
       <c r="K19" t="n">
-        <v>27826361.41292082</v>
+        <v>34454986.87617288</v>
       </c>
       <c r="L19" t="n">
-        <v>29016058.8586041</v>
+        <v>34325582.14757293</v>
       </c>
       <c r="M19" t="n">
-        <v>30087928.57517296</v>
+        <v>35394027.92529842</v>
       </c>
       <c r="N19" t="n">
-        <v>29800001.43643009</v>
+        <v>38347682.94880288</v>
       </c>
       <c r="O19" t="n">
-        <v>30727580.33586672</v>
+        <v>37980713.89670341</v>
       </c>
       <c r="P19" t="n">
-        <v>31862674.62920096</v>
+        <v>38721310.62937117</v>
       </c>
       <c r="Q19" t="n">
-        <v>33410183.93500882</v>
+        <v>41052163.72983824</v>
       </c>
       <c r="R19" t="n">
-        <v>33090464.39561794</v>
+        <v>43761991.45580199</v>
       </c>
       <c r="S19" t="n">
-        <v>32966184.48862652</v>
+        <v>46141849.65558907</v>
       </c>
       <c r="T19" t="n">
-        <v>33034028.88240154</v>
+        <v>48919386.66513015</v>
       </c>
       <c r="U19" t="n">
-        <v>32525857.00146873</v>
+        <v>53286147.46289386</v>
       </c>
     </row>
     <row r="20">
@@ -1673,64 +1673,64 @@
         <v>22561132</v>
       </c>
       <c r="B20" t="n">
-        <v>24706203.45921767</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C20" t="n">
-        <v>25187956.74085121</v>
+        <v>24786788.74404634</v>
       </c>
       <c r="D20" t="n">
-        <v>27436345.15227253</v>
+        <v>24405486.50860945</v>
       </c>
       <c r="E20" t="n">
-        <v>29406909.55316931</v>
+        <v>24881376.02497297</v>
       </c>
       <c r="F20" t="n">
-        <v>32202865.11011117</v>
+        <v>24498618.72643639</v>
       </c>
       <c r="G20" t="n">
-        <v>33392457.26204619</v>
+        <v>25830899.01625023</v>
       </c>
       <c r="H20" t="n">
-        <v>35790808.32425408</v>
+        <v>26034233.68240074</v>
       </c>
       <c r="I20" t="n">
-        <v>37529099.58789486</v>
+        <v>27147309.90723163</v>
       </c>
       <c r="J20" t="n">
-        <v>40442742.51751677</v>
+        <v>27361007.0454303</v>
       </c>
       <c r="K20" t="n">
-        <v>41936720.42715502</v>
+        <v>28689878.94685798</v>
       </c>
       <c r="L20" t="n">
-        <v>43485886.73044685</v>
+        <v>29582903.27758716</v>
       </c>
       <c r="M20" t="n">
-        <v>46609179.5690832</v>
+        <v>32395591.99823953</v>
       </c>
       <c r="N20" t="n">
-        <v>49685822.44500849</v>
+        <v>35099025.56186082</v>
       </c>
       <c r="O20" t="n">
-        <v>51521244.98399432</v>
+        <v>35171259.34166509</v>
       </c>
       <c r="P20" t="n">
-        <v>52226340.14810647</v>
+        <v>37492892.23654299</v>
       </c>
       <c r="Q20" t="n">
-        <v>52941084.90804281</v>
+        <v>36916128.38986592</v>
       </c>
       <c r="R20" t="n">
-        <v>57359053.43421468</v>
+        <v>37635966.46722895</v>
       </c>
       <c r="S20" t="n">
-        <v>62145704.35388394</v>
+        <v>39682680.07473026</v>
       </c>
       <c r="T20" t="n">
-        <v>64802702.32184944</v>
+        <v>39533641.37494367</v>
       </c>
       <c r="U20" t="n">
-        <v>69833783.2034529</v>
+        <v>41453714.89771467</v>
       </c>
     </row>
     <row r="21">
@@ -1738,64 +1738,64 @@
         <v>22561132</v>
       </c>
       <c r="B21" t="n">
-        <v>23788048.17087183</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C21" t="n">
-        <v>23560407.88553267</v>
+        <v>24326140.89018396</v>
       </c>
       <c r="D21" t="n">
-        <v>25800488.68124731</v>
+        <v>24376204.07787708</v>
       </c>
       <c r="E21" t="n">
-        <v>27953556.51413352</v>
+        <v>24709805.17039846</v>
       </c>
       <c r="F21" t="n">
-        <v>28823661.47845817</v>
+        <v>25909913.25582724</v>
       </c>
       <c r="G21" t="n">
-        <v>30055997.82050822</v>
+        <v>27168308.30089734</v>
       </c>
       <c r="H21" t="n">
-        <v>31865237.08872719</v>
+        <v>28487821.19201428</v>
       </c>
       <c r="I21" t="n">
-        <v>33968641.51646213</v>
+        <v>29043313.31238384</v>
       </c>
       <c r="J21" t="n">
-        <v>34828491.29085891</v>
+        <v>29103084.43893251</v>
       </c>
       <c r="K21" t="n">
-        <v>35912591.02452937</v>
+        <v>30178168.92993284</v>
       </c>
       <c r="L21" t="n">
-        <v>38491946.00144549</v>
+        <v>32696557.07293227</v>
       </c>
       <c r="M21" t="n">
-        <v>38794945.40478656</v>
+        <v>35235016.38542952</v>
       </c>
       <c r="N21" t="n">
-        <v>41806864.67876201</v>
+        <v>34897834.06907073</v>
       </c>
       <c r="O21" t="n">
-        <v>41892903.18864001</v>
+        <v>38215856.75738609</v>
       </c>
       <c r="P21" t="n">
-        <v>45632448.9969496</v>
+        <v>40960639.506616</v>
       </c>
       <c r="Q21" t="n">
-        <v>49440507.02581026</v>
+        <v>41759342.65551113</v>
       </c>
       <c r="R21" t="n">
-        <v>52991479.37896565</v>
+        <v>43301956.52303819</v>
       </c>
       <c r="S21" t="n">
-        <v>53408615.64517013</v>
+        <v>42635830.18486979</v>
       </c>
       <c r="T21" t="n">
-        <v>53518530.55364428</v>
+        <v>44458696.54935153</v>
       </c>
       <c r="U21" t="n">
-        <v>54250959.61461683</v>
+        <v>45584081.56598248</v>
       </c>
     </row>
     <row r="22">
@@ -1803,64 +1803,64 @@
         <v>22561132</v>
       </c>
       <c r="B22" t="n">
-        <v>22869892.88252599</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C22" t="n">
-        <v>24911360.66240834</v>
+        <v>23292962.55432942</v>
       </c>
       <c r="D22" t="n">
-        <v>26700572.75413537</v>
+        <v>24017998.10900394</v>
       </c>
       <c r="E22" t="n">
-        <v>28307830.14745862</v>
+        <v>25463776.2722286</v>
       </c>
       <c r="F22" t="n">
-        <v>30011837.38776753</v>
+        <v>25664221.03584242</v>
       </c>
       <c r="G22" t="n">
-        <v>31992900.05709955</v>
+        <v>26463066.2961055</v>
       </c>
       <c r="H22" t="n">
-        <v>33546734.16344192</v>
+        <v>27286777.05877185</v>
       </c>
       <c r="I22" t="n">
-        <v>36346231.30157906</v>
+        <v>27660210.86368715</v>
       </c>
       <c r="J22" t="n">
-        <v>36209723.50913336</v>
+        <v>28521184.91450578</v>
       </c>
       <c r="K22" t="n">
-        <v>38599904.77607624</v>
+        <v>29243142.97109693</v>
       </c>
       <c r="L22" t="n">
-        <v>38006111.44000708</v>
+        <v>30493413.96341972</v>
       </c>
       <c r="M22" t="n">
-        <v>39851995.74869848</v>
+        <v>31974420.89153857</v>
       </c>
       <c r="N22" t="n">
-        <v>41555841.13631688</v>
+        <v>31668440.9202933</v>
       </c>
       <c r="O22" t="n">
-        <v>43090937.54198729</v>
+        <v>33758854.95568023</v>
       </c>
       <c r="P22" t="n">
-        <v>46185863.89060386</v>
+        <v>34809660.32536554</v>
       </c>
       <c r="Q22" t="n">
-        <v>46817941.5760271</v>
+        <v>37309799.35859943</v>
       </c>
       <c r="R22" t="n">
-        <v>48819611.31209563</v>
+        <v>40423326.77441252</v>
       </c>
       <c r="S22" t="n">
-        <v>49203907.62952142</v>
+        <v>41916587.45545816</v>
       </c>
       <c r="T22" t="n">
-        <v>51307587.74622172</v>
+        <v>45658247.42616666</v>
       </c>
       <c r="U22" t="n">
-        <v>55290949.77500203</v>
+        <v>46548550.56673217</v>
       </c>
     </row>
     <row r="23">
@@ -1868,64 +1868,64 @@
         <v>22561132</v>
       </c>
       <c r="B23" t="n">
-        <v>22214067.67656468</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C23" t="n">
-        <v>23422109.84631123</v>
+        <v>23820227.59403624</v>
       </c>
       <c r="D23" t="n">
-        <v>24287335.9049138</v>
+        <v>25392585.96223036</v>
       </c>
       <c r="E23" t="n">
-        <v>24196118.45292386</v>
+        <v>26182976.08992685</v>
       </c>
       <c r="F23" t="n">
-        <v>24527254.97954975</v>
+        <v>28520184.32888</v>
       </c>
       <c r="G23" t="n">
-        <v>25718496.9505546</v>
+        <v>30900212.56110216</v>
       </c>
       <c r="H23" t="n">
-        <v>26369510.43868722</v>
+        <v>30604512.2516895</v>
       </c>
       <c r="I23" t="n">
-        <v>28416757.4680845</v>
+        <v>32624697.01917221</v>
       </c>
       <c r="J23" t="n">
-        <v>29301280.3992002</v>
+        <v>35536921.7565234</v>
       </c>
       <c r="K23" t="n">
-        <v>29020881.108642</v>
+        <v>38709104.55312817</v>
       </c>
       <c r="L23" t="n">
-        <v>28574444.62365234</v>
+        <v>41039222.90133109</v>
       </c>
       <c r="M23" t="n">
-        <v>29131625.83892985</v>
+        <v>41123681.60475487</v>
       </c>
       <c r="N23" t="n">
-        <v>31393314.94381227</v>
+        <v>41208314.12415469</v>
       </c>
       <c r="O23" t="n">
-        <v>31457922.37272738</v>
+        <v>42970147.99553023</v>
       </c>
       <c r="P23" t="n">
-        <v>32254218.19874892</v>
+        <v>44807307.89409956</v>
       </c>
       <c r="Q23" t="n">
-        <v>33070670.69738941</v>
+        <v>45420519.32023704</v>
       </c>
       <c r="R23" t="n">
-        <v>35830440.02463765</v>
+        <v>49210891.67750438</v>
       </c>
       <c r="S23" t="n">
-        <v>35487559.78778729</v>
+        <v>50456569.22649497</v>
       </c>
       <c r="T23" t="n">
-        <v>36179541.80004399</v>
+        <v>52907148.51168719</v>
       </c>
       <c r="U23" t="n">
-        <v>38357391.56306685</v>
+        <v>54553979.12320545</v>
       </c>
     </row>
     <row r="24">
@@ -1933,64 +1933,64 @@
         <v>22561132</v>
       </c>
       <c r="B24" t="n">
-        <v>22214067.67656468</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C24" t="n">
-        <v>23809551.72225669</v>
+        <v>23311264.04880865</v>
       </c>
       <c r="D24" t="n">
-        <v>25519628.43855369</v>
+        <v>25527656.70097639</v>
       </c>
       <c r="E24" t="n">
-        <v>26313972.99291762</v>
+        <v>26767486.27460626</v>
       </c>
       <c r="F24" t="n">
-        <v>28509891.43099227</v>
+        <v>29001250.69578046</v>
       </c>
       <c r="G24" t="n">
-        <v>28237065.35574131</v>
+        <v>28892328.90199676</v>
       </c>
       <c r="H24" t="n">
-        <v>30921794.25084572</v>
+        <v>29455708.633146</v>
       </c>
       <c r="I24" t="n">
-        <v>32423606.79208184</v>
+        <v>30886316.19354155</v>
       </c>
       <c r="J24" t="n">
-        <v>35129378.20876522</v>
+        <v>31488577.24948936</v>
       </c>
       <c r="K24" t="n">
-        <v>38060948.03850882</v>
+        <v>33750185.67504134</v>
       </c>
       <c r="L24" t="n">
-        <v>39466941.10549217</v>
+        <v>36566660.9762896</v>
       </c>
       <c r="M24" t="n">
-        <v>42531032.04208669</v>
+        <v>36216735.45576137</v>
       </c>
       <c r="N24" t="n">
-        <v>43360356.72126528</v>
+        <v>36080714.01888571</v>
       </c>
       <c r="O24" t="n">
-        <v>43953765.86438362</v>
+        <v>39511202.78470237</v>
       </c>
       <c r="P24" t="n">
-        <v>43277612.55735289</v>
+        <v>41430186.50796307</v>
       </c>
       <c r="Q24" t="n">
-        <v>43869889.30334357</v>
+        <v>42478910.71157375</v>
       </c>
       <c r="R24" t="n">
-        <v>45745517.03893252</v>
+        <v>46023803.88623718</v>
       </c>
       <c r="S24" t="n">
-        <v>49828964.19755013</v>
+        <v>45315806.59435941</v>
       </c>
       <c r="T24" t="n">
-        <v>53697530.4786182</v>
+        <v>49360895.89831715</v>
       </c>
       <c r="U24" t="n">
-        <v>57242070.97749038</v>
+        <v>48888535.64638826</v>
       </c>
     </row>
     <row r="25">
@@ -1998,64 +1998,64 @@
         <v>22561132</v>
       </c>
       <c r="B25" t="n">
-        <v>24575038.41802541</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C25" t="n">
-        <v>26911588.44218573</v>
+        <v>23852255.2093749</v>
       </c>
       <c r="D25" t="n">
-        <v>27905717.82469453</v>
+        <v>23762671.81690522</v>
       </c>
       <c r="E25" t="n">
-        <v>27963147.78020929</v>
+        <v>25745682.48559836</v>
       </c>
       <c r="F25" t="n">
-        <v>28020695.92654828</v>
+        <v>27744497.44695305</v>
       </c>
       <c r="G25" t="n">
-        <v>28241268.15084234</v>
+        <v>29737194.31259985</v>
       </c>
       <c r="H25" t="n">
-        <v>27806824.67417071</v>
+        <v>31700127.96381893</v>
       </c>
       <c r="I25" t="n">
-        <v>29642335.82941616</v>
+        <v>31765366.81379982</v>
       </c>
       <c r="J25" t="n">
-        <v>30737340.57346993</v>
+        <v>34785560.20408991</v>
       </c>
       <c r="K25" t="n">
-        <v>30443198.87136595</v>
+        <v>37081733.33943456</v>
       </c>
       <c r="L25" t="n">
-        <v>29974882.46687448</v>
+        <v>37373631.88559482</v>
       </c>
       <c r="M25" t="n">
-        <v>31082171.67284554</v>
+        <v>38319672.33674572</v>
       </c>
       <c r="N25" t="n">
-        <v>30604025.76764289</v>
+        <v>37730189.89615648</v>
       </c>
       <c r="O25" t="n">
-        <v>32446253.91508519</v>
+        <v>38904610.24288263</v>
       </c>
       <c r="P25" t="n">
-        <v>32513028.29195913</v>
+        <v>42151225.68105488</v>
       </c>
       <c r="Q25" t="n">
-        <v>34848216.00598953</v>
+        <v>45913830.49745832</v>
       </c>
       <c r="R25" t="n">
-        <v>36135528.92451134</v>
+        <v>47876845.56988521</v>
       </c>
       <c r="S25" t="n">
-        <v>38310729.30543094</v>
+        <v>48532065.22334579</v>
       </c>
       <c r="T25" t="n">
-        <v>40839596.65471251</v>
+        <v>48914098.04665463</v>
       </c>
       <c r="U25" t="n">
-        <v>43535392.96061292</v>
+        <v>52142887.15384103</v>
       </c>
     </row>
     <row r="26">
@@ -2063,64 +2063,64 @@
         <v>22561132</v>
       </c>
       <c r="B26" t="n">
-        <v>24050378.25325636</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C26" t="n">
-        <v>25358282.39541131</v>
+        <v>23717007.41923333</v>
       </c>
       <c r="D26" t="n">
-        <v>25557896.73642892</v>
+        <v>23627931.9852673</v>
       </c>
       <c r="E26" t="n">
-        <v>25759082.3938519</v>
+        <v>25187597.04025016</v>
       </c>
       <c r="F26" t="n">
-        <v>27309666.19607873</v>
+        <v>26118041.19988412</v>
       </c>
       <c r="G26" t="n">
-        <v>29906219.66325272</v>
+        <v>27690232.7481397</v>
       </c>
       <c r="H26" t="n">
-        <v>29620031.39220765</v>
+        <v>28552141.28436763</v>
       </c>
       <c r="I26" t="n">
-        <v>31575231.19211933</v>
+        <v>29938864.30283658</v>
       </c>
       <c r="J26" t="n">
-        <v>32558067.32590684</v>
+        <v>32089167.48174095</v>
       </c>
       <c r="K26" t="n">
-        <v>33192926.33222047</v>
+        <v>33647677.11319891</v>
       </c>
       <c r="L26" t="n">
-        <v>35769922.21497089</v>
+        <v>35086261.01285893</v>
       </c>
       <c r="M26" t="n">
-        <v>38962903.6629319</v>
+        <v>37606266.3754094</v>
       </c>
       <c r="N26" t="n">
-        <v>39496131.36270965</v>
+        <v>40963168.02428988</v>
       </c>
       <c r="O26" t="n">
-        <v>42562488.54036749</v>
+        <v>43428971.10901155</v>
       </c>
       <c r="P26" t="n">
-        <v>43144978.44044105</v>
+        <v>42760890.86926821</v>
       </c>
       <c r="Q26" t="n">
-        <v>42481266.94085569</v>
+        <v>44340502.49742298</v>
       </c>
       <c r="R26" t="n">
-        <v>43803573.14677086</v>
+        <v>46494036.0923734</v>
       </c>
       <c r="S26" t="n">
-        <v>46440356.16421453</v>
+        <v>46860026.03724079</v>
       </c>
       <c r="T26" t="n">
-        <v>48695875.64478225</v>
+        <v>49135928.08271974</v>
       </c>
       <c r="U26" t="n">
-        <v>49645410.36113868</v>
+        <v>49522714.370197</v>
       </c>
     </row>
     <row r="27">
@@ -2128,64 +2128,64 @@
         <v>22561132</v>
       </c>
       <c r="B27" t="n">
-        <v>22345232.71775694</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C27" t="n">
-        <v>23300588.1770291</v>
+        <v>23847679.83575509</v>
       </c>
       <c r="D27" t="n">
-        <v>24838645.47137541</v>
+        <v>25421850.30930471</v>
       </c>
       <c r="E27" t="n">
-        <v>26911446.85268233</v>
+        <v>25030778.74081813</v>
       </c>
       <c r="F27" t="n">
-        <v>29000768.14493911</v>
+        <v>25227815.05130618</v>
       </c>
       <c r="G27" t="n">
-        <v>30409280.11394812</v>
+        <v>26453081.88817483</v>
       </c>
       <c r="H27" t="n">
-        <v>32593370.03251663</v>
+        <v>27737857.59723383</v>
       </c>
       <c r="I27" t="n">
-        <v>33039427.33565798</v>
+        <v>28762509.83225499</v>
       </c>
       <c r="J27" t="n">
-        <v>34836172.62638469</v>
+        <v>28821703.06535998</v>
       </c>
       <c r="K27" t="n">
-        <v>38148332.65670754</v>
+        <v>28378330.59297549</v>
       </c>
       <c r="L27" t="n">
-        <v>41775406.84778292</v>
+        <v>30416551.34406432</v>
       </c>
       <c r="M27" t="n">
-        <v>43318614.13570871</v>
+        <v>30302314.01796198</v>
       </c>
       <c r="N27" t="n">
-        <v>43407763.82533158</v>
+        <v>32302550.86849978</v>
       </c>
       <c r="O27" t="n">
-        <v>43244734.59774443</v>
+        <v>33683624.79645731</v>
       </c>
       <c r="P27" t="n">
-        <v>47356365.43023389</v>
+        <v>34536259.92960101</v>
       </c>
       <c r="Q27" t="n">
-        <v>48555099.27161239</v>
+        <v>35812049.01324194</v>
       </c>
       <c r="R27" t="n">
-        <v>52042478.86155472</v>
+        <v>38592385.46011908</v>
       </c>
       <c r="S27" t="n">
-        <v>53662395.06757683</v>
+        <v>41812945.53380954</v>
       </c>
       <c r="T27" t="n">
-        <v>55644714.46084044</v>
+        <v>43600630.01615688</v>
       </c>
       <c r="U27" t="n">
-        <v>59964797.5600884</v>
+        <v>45718229.41653027</v>
       </c>
     </row>
     <row r="28">
@@ -2193,64 +2193,64 @@
         <v>22561132</v>
       </c>
       <c r="B28" t="n">
-        <v>24050378.25325636</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C28" t="n">
-        <v>24519343.41284309</v>
+        <v>25496580.43463274</v>
       </c>
       <c r="D28" t="n">
-        <v>24427254.59588341</v>
+        <v>27327824.84675251</v>
       </c>
       <c r="E28" t="n">
-        <v>25045582.80730817</v>
+        <v>28337330.23877256</v>
       </c>
       <c r="F28" t="n">
-        <v>26116389.92611703</v>
+        <v>30372606.21576819</v>
       </c>
       <c r="G28" t="n">
-        <v>27688482.07493295</v>
+        <v>32024324.8315561</v>
       </c>
       <c r="H28" t="n">
-        <v>29355207.27722067</v>
+        <v>34510594.11715004</v>
       </c>
       <c r="I28" t="n">
-        <v>29074291.93213744</v>
+        <v>34982889.63388686</v>
       </c>
       <c r="J28" t="n">
-        <v>30148312.81156157</v>
+        <v>36071795.29501361</v>
       </c>
       <c r="K28" t="n">
-        <v>32138384.13850646</v>
+        <v>36984882.29707911</v>
       </c>
       <c r="L28" t="n">
-        <v>32951904.52428873</v>
+        <v>36630954.59780483</v>
       </c>
       <c r="M28" t="n">
-        <v>34935464.67704021</v>
+        <v>39687831.96965761</v>
       </c>
       <c r="N28" t="n">
-        <v>36226000.61109165</v>
+        <v>42076865.41645224</v>
       </c>
       <c r="O28" t="n">
-        <v>36511163.03364576</v>
+        <v>42897334.17154403</v>
       </c>
       <c r="P28" t="n">
-        <v>39770310.91518961</v>
+        <v>46726539.93144354</v>
       </c>
       <c r="Q28" t="n">
-        <v>40314588.4051891</v>
+        <v>46551046.17084587</v>
       </c>
       <c r="R28" t="n">
-        <v>42506970.43798641</v>
+        <v>48000031.61022206</v>
       </c>
       <c r="S28" t="n">
-        <v>46054205.21536462</v>
+        <v>50052240.81400542</v>
       </c>
       <c r="T28" t="n">
-        <v>47219977.41574134</v>
+        <v>49282272.928771</v>
       </c>
       <c r="U28" t="n">
-        <v>47591681.79728161</v>
+        <v>52535365.03031668</v>
       </c>
     </row>
     <row r="29">
@@ -2258,64 +2258,64 @@
         <v>22561132</v>
       </c>
       <c r="B29" t="n">
-        <v>23263388.00610278</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C29" t="n">
-        <v>25475228.69107363</v>
+        <v>22521129.05151839</v>
       </c>
       <c r="D29" t="n">
-        <v>26564405.03189033</v>
+        <v>24531464.62945089</v>
       </c>
       <c r="E29" t="n">
-        <v>26619074.56624315</v>
+        <v>25437670.88466708</v>
       </c>
       <c r="F29" t="n">
-        <v>26364342.70736185</v>
+        <v>26673130.01891137</v>
       </c>
       <c r="G29" t="n">
-        <v>27031704.51863883</v>
+        <v>27658450.61164572</v>
       </c>
       <c r="H29" t="n">
-        <v>27244491.63883618</v>
+        <v>29644967.32357579</v>
       </c>
       <c r="I29" t="n">
-        <v>29042883.54111356</v>
+        <v>29188930.34247843</v>
       </c>
       <c r="J29" t="n">
-        <v>30453440.97454941</v>
+        <v>29758093.5893963</v>
       </c>
       <c r="K29" t="n">
-        <v>31224310.31705407</v>
+        <v>29473322.81429191</v>
       </c>
       <c r="L29" t="n">
-        <v>31833162.01645885</v>
+        <v>30904785.86185402</v>
       </c>
       <c r="M29" t="n">
-        <v>34859801.25150069</v>
+        <v>33843156.77806056</v>
       </c>
       <c r="N29" t="n">
-        <v>36552875.27818238</v>
+        <v>34503074.10876587</v>
       </c>
       <c r="O29" t="n">
-        <v>35990571.9802788</v>
+        <v>35376451.99978456</v>
       </c>
       <c r="P29" t="n">
-        <v>37529324.78084209</v>
+        <v>37917299.78960159</v>
       </c>
       <c r="Q29" t="n">
-        <v>40879358.28272036</v>
+        <v>40861081.37923403</v>
       </c>
       <c r="R29" t="n">
-        <v>42151802.18667287</v>
+        <v>42608069.54715738</v>
       </c>
       <c r="S29" t="n">
-        <v>42483611.10357806</v>
+        <v>43191183.24713083</v>
       </c>
       <c r="T29" t="n">
-        <v>41830073.60622409</v>
+        <v>43280070.68403874</v>
       </c>
       <c r="U29" t="n">
-        <v>42888920.17021993</v>
+        <v>44375621.09030129</v>
       </c>
     </row>
     <row r="30">
@@ -2323,64 +2323,64 @@
         <v>22561132</v>
       </c>
       <c r="B30" t="n">
-        <v>22607562.80014147</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C30" t="n">
-        <v>24362743.87914242</v>
+        <v>26482968.203662</v>
       </c>
       <c r="D30" t="n">
-        <v>26679109.3240757</v>
+        <v>26229538.8178122</v>
       </c>
       <c r="E30" t="n">
-        <v>28440180.69235175</v>
+        <v>27045980.61568452</v>
       </c>
       <c r="F30" t="n">
-        <v>28664055.00050887</v>
+        <v>28988507.81064502</v>
       </c>
       <c r="G30" t="n">
-        <v>30722797.37511672</v>
+        <v>29048166.14749423</v>
       </c>
       <c r="H30" t="n">
-        <v>32036330.00049438</v>
+        <v>31810013.03290772</v>
       </c>
       <c r="I30" t="n">
-        <v>33219770.25076647</v>
+        <v>32245349.6861042</v>
       </c>
       <c r="J30" t="n">
-        <v>34833191.10127934</v>
+        <v>31749310.28202008</v>
       </c>
       <c r="K30" t="n">
-        <v>37132508.32244284</v>
+        <v>32368399.10492291</v>
       </c>
       <c r="L30" t="n">
-        <v>37208927.00891083</v>
+        <v>34505016.94355409</v>
       </c>
       <c r="M30" t="n">
-        <v>39665065.07572901</v>
+        <v>36582067.65328772</v>
       </c>
       <c r="N30" t="n">
-        <v>43205744.20155506</v>
+        <v>39634865.37730946</v>
       </c>
       <c r="O30" t="n">
-        <v>44048225.2848537</v>
+        <v>41790282.812115</v>
       </c>
       <c r="P30" t="n">
-        <v>45675391.77846718</v>
+        <v>41390369.7198167</v>
       </c>
       <c r="Q30" t="n">
-        <v>48424850.06930131</v>
+        <v>45325690.90726626</v>
       </c>
       <c r="R30" t="n">
-        <v>53028996.87366171</v>
+        <v>49635175.28661827</v>
       </c>
       <c r="S30" t="n">
-        <v>56529407.88619618</v>
+        <v>50025891.52881632</v>
       </c>
       <c r="T30" t="n">
-        <v>61904121.32979262</v>
+        <v>49547167.58559217</v>
       </c>
       <c r="U30" t="n">
-        <v>66710165.37048645</v>
+        <v>52241634.38502669</v>
       </c>
     </row>
     <row r="31">
@@ -2388,64 +2388,64 @@
         <v>22561132</v>
       </c>
       <c r="B31" t="n">
-        <v>24575038.41802541</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C31" t="n">
-        <v>26482968.203662</v>
+        <v>25069485.32064895</v>
       </c>
       <c r="D31" t="n">
-        <v>26691435.80267892</v>
+        <v>27307298.44916789</v>
       </c>
       <c r="E31" t="n">
-        <v>26591189.12377575</v>
+        <v>29586110.5530898</v>
       </c>
       <c r="F31" t="n">
-        <v>27109698.27650993</v>
+        <v>29302985.57368824</v>
       </c>
       <c r="G31" t="n">
-        <v>26850271.38251701</v>
+        <v>31577978.51706088</v>
       </c>
       <c r="H31" t="n">
-        <v>27217731.37912216</v>
+        <v>32010139.65663998</v>
       </c>
       <c r="I31" t="n">
-        <v>27115508.05932001</v>
+        <v>34123109.01251555</v>
       </c>
       <c r="J31" t="n">
-        <v>28117170.34846117</v>
+        <v>36970705.01275398</v>
       </c>
       <c r="K31" t="n">
-        <v>27684635.9036512</v>
+        <v>39411118.19417103</v>
       </c>
       <c r="L31" t="n">
-        <v>27419707.13054005</v>
+        <v>42012621.52774989</v>
       </c>
       <c r="M31" t="n">
-        <v>29229664.8981531</v>
+        <v>45030099.83659367</v>
       </c>
       <c r="N31" t="n">
-        <v>30649293.9456808</v>
+        <v>46955331.59648819</v>
       </c>
       <c r="O31" t="n">
-        <v>32316059.35300876</v>
+        <v>47051965.64911165</v>
       </c>
       <c r="P31" t="n">
-        <v>35388611.58986121</v>
+        <v>48242994.2049256</v>
       </c>
       <c r="Q31" t="n">
-        <v>37930332.71959293</v>
+        <v>51988430.69321032</v>
       </c>
       <c r="R31" t="n">
-        <v>41536679.87253849</v>
+        <v>55117906.24298084</v>
       </c>
       <c r="S31" t="n">
-        <v>45485911.96360748</v>
+        <v>54270011.78274757</v>
       </c>
       <c r="T31" t="n">
-        <v>46637298.93094279</v>
+        <v>53750673.63113277</v>
       </c>
       <c r="U31" t="n">
-        <v>47546692.87500195</v>
+        <v>55736254.08474089</v>
       </c>
     </row>
     <row r="32">
@@ -2453,64 +2453,64 @@
         <v>22561132</v>
       </c>
       <c r="B32" t="n">
-        <v>24575038.41802541</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C32" t="n">
-        <v>25625727.72661456</v>
+        <v>25346843.96136178</v>
       </c>
       <c r="D32" t="n">
-        <v>28062175.38216854</v>
+        <v>25841089.2741876</v>
       </c>
       <c r="E32" t="n">
-        <v>29751395.2828442</v>
+        <v>26645439.87800644</v>
       </c>
       <c r="F32" t="n">
-        <v>31715266.33125279</v>
+        <v>29178839.91310273</v>
       </c>
       <c r="G32" t="n">
-        <v>34546311.26347939</v>
+        <v>30935278.12177997</v>
       </c>
       <c r="H32" t="n">
-        <v>36224159.67965016</v>
+        <v>30459391.92193773</v>
       </c>
       <c r="I32" t="n">
-        <v>38194096.61753103</v>
+        <v>32824164.66864553</v>
       </c>
       <c r="J32" t="n">
-        <v>38938854.1605059</v>
+        <v>32891716.78569092</v>
       </c>
       <c r="K32" t="n">
-        <v>38792609.09378327</v>
+        <v>34106755.51029315</v>
       </c>
       <c r="L32" t="n">
-        <v>40000099.15804541</v>
+        <v>36754698.25701874</v>
       </c>
       <c r="M32" t="n">
-        <v>43570684.90773388</v>
+        <v>38112437.71416911</v>
       </c>
       <c r="N32" t="n">
-        <v>43407043.78734505</v>
+        <v>40628215.9591744</v>
       </c>
       <c r="O32" t="n">
-        <v>46019957.47619882</v>
+        <v>42837653.63960569</v>
       </c>
       <c r="P32" t="n">
-        <v>47452411.8201677</v>
+        <v>45167244.63586593</v>
       </c>
       <c r="Q32" t="n">
-        <v>47825945.86981189</v>
+        <v>45785381.98442794</v>
       </c>
       <c r="R32" t="n">
-        <v>49314614.86632421</v>
+        <v>48275275.91112623</v>
       </c>
       <c r="S32" t="n">
-        <v>49416104.32292203</v>
+        <v>48374626.40859256</v>
       </c>
       <c r="T32" t="n">
-        <v>54114497.78158461</v>
+        <v>50724089.70392022</v>
       </c>
       <c r="U32" t="n">
-        <v>56742735.67657206</v>
+        <v>51713173.14254222</v>
       </c>
     </row>
     <row r="33">
@@ -2518,64 +2518,64 @@
         <v>22561132</v>
       </c>
       <c r="B33" t="n">
-        <v>22738727.84133373</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C33" t="n">
-        <v>24239697.08532035</v>
+        <v>24663741.95022427</v>
       </c>
       <c r="D33" t="n">
-        <v>26403439.64624852</v>
+        <v>24571110.80673267</v>
       </c>
       <c r="E33" t="n">
-        <v>28606824.13567524</v>
+        <v>24193126.40647327</v>
       </c>
       <c r="F33" t="n">
-        <v>28499383.71415694</v>
+        <v>26212058.79516821</v>
       </c>
       <c r="G33" t="n">
-        <v>28226658.19274888</v>
+        <v>28551863.08500831</v>
       </c>
       <c r="H33" t="n">
-        <v>30418088.41551619</v>
+        <v>30768541.20728334</v>
       </c>
       <c r="I33" t="n">
-        <v>32072280.4376189</v>
+        <v>33157315.34595993</v>
       </c>
       <c r="J33" t="n">
-        <v>33816430.48760978</v>
+        <v>34574934.15667827</v>
       </c>
       <c r="K33" t="n">
-        <v>34279226.01228617</v>
+        <v>37862256.10771428</v>
       </c>
       <c r="L33" t="n">
-        <v>33751898.90902555</v>
+        <v>39481031.5095977</v>
       </c>
       <c r="M33" t="n">
-        <v>34017585.79403466</v>
+        <v>39791816.75777011</v>
       </c>
       <c r="N33" t="n">
-        <v>37251916.07490321</v>
+        <v>42187109.63281843</v>
       </c>
       <c r="O33" t="n">
-        <v>37545154.25890106</v>
+        <v>44481322.84033159</v>
       </c>
       <c r="P33" t="n">
-        <v>40460043.62340093</v>
+        <v>48710526.23726409</v>
       </c>
       <c r="Q33" t="n">
-        <v>42895560.8254737</v>
+        <v>48244389.71307253</v>
       </c>
       <c r="R33" t="n">
-        <v>43731993.5549821</v>
+        <v>47782713.89329067</v>
       </c>
       <c r="S33" t="n">
-        <v>47635704.70269509</v>
+        <v>52325807.55616457</v>
       </c>
       <c r="T33" t="n">
-        <v>47733738.9628842</v>
+        <v>51825074.51253164</v>
       </c>
       <c r="U33" t="n">
-        <v>51439638.45316896</v>
+        <v>51630431.86976796</v>
       </c>
     </row>
     <row r="34">
@@ -2583,64 +2583,64 @@
         <v>22561132</v>
       </c>
       <c r="B34" t="n">
-        <v>22869892.88252599</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C34" t="n">
-        <v>22518078.80243851</v>
+        <v>24938812.9041272</v>
       </c>
       <c r="D34" t="n">
-        <v>23088079.95979248</v>
+        <v>25570090.21437656</v>
       </c>
       <c r="E34" t="n">
-        <v>24746338.31021482</v>
+        <v>26811980.70277987</v>
       </c>
       <c r="F34" t="n">
-        <v>26092090.05009506</v>
+        <v>28737701.28973105</v>
       </c>
       <c r="G34" t="n">
-        <v>26449173.93891833</v>
+        <v>29799288.31939516</v>
       </c>
       <c r="H34" t="n">
-        <v>27118683.08703478</v>
+        <v>31246582.88952686</v>
       </c>
       <c r="I34" t="n">
-        <v>28278124.21985781</v>
+        <v>31310888.34393612</v>
       </c>
       <c r="J34" t="n">
-        <v>28665125.12877953</v>
+        <v>30829224.02499826</v>
       </c>
       <c r="K34" t="n">
-        <v>29557378.95218578</v>
+        <v>33760410.65897796</v>
       </c>
       <c r="L34" t="n">
-        <v>29961887.13069527</v>
+        <v>33241064.64015865</v>
       </c>
       <c r="M34" t="n">
-        <v>32113843.8813394</v>
+        <v>34275752.85051983</v>
       </c>
       <c r="N34" t="n">
-        <v>32553338.61848754</v>
+        <v>37335358.13310559</v>
       </c>
       <c r="O34" t="n">
-        <v>33377362.76597672</v>
+        <v>40668077.31419715</v>
       </c>
       <c r="P34" t="n">
-        <v>35774629.69411213</v>
+        <v>42406813.72258307</v>
       </c>
       <c r="Q34" t="n">
-        <v>35640268.7012327</v>
+        <v>44466431.74363944</v>
       </c>
       <c r="R34" t="n">
-        <v>36956840.49678171</v>
+        <v>48177184.86205021</v>
       </c>
       <c r="S34" t="n">
-        <v>38107188.94585099</v>
+        <v>47996242.82442329</v>
       </c>
       <c r="T34" t="n">
-        <v>38407159.63356745</v>
+        <v>48932135.20161164</v>
       </c>
       <c r="U34" t="n">
-        <v>38932781.6858553</v>
+        <v>48179398.22024062</v>
       </c>
     </row>
     <row r="35">
@@ -2648,64 +2648,64 @@
         <v>22561132</v>
       </c>
       <c r="B35" t="n">
-        <v>23656883.12967957</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C35" t="n">
-        <v>24255710.89298968</v>
+        <v>23449562.08803008</v>
       </c>
       <c r="D35" t="n">
-        <v>24305629.13577827</v>
+        <v>24861122.89547912</v>
       </c>
       <c r="E35" t="n">
-        <v>25627414.2939831</v>
+        <v>25201360.35545211</v>
       </c>
       <c r="F35" t="n">
-        <v>28064022.30529965</v>
+        <v>25839283.54133005</v>
       </c>
       <c r="G35" t="n">
-        <v>28284935.58449673</v>
+        <v>25892460.7759611</v>
       </c>
       <c r="H35" t="n">
-        <v>27849820.35924806</v>
+        <v>27902671.14868014</v>
       </c>
       <c r="I35" t="n">
-        <v>30497730.70332841</v>
+        <v>30555606.44984189</v>
       </c>
       <c r="J35" t="n">
-        <v>30560495.02025429</v>
+        <v>30263203.85669975</v>
       </c>
       <c r="K35" t="n">
-        <v>30801059.93626548</v>
+        <v>31381143.81878827</v>
       </c>
       <c r="L35" t="n">
-        <v>31759798.59062795</v>
+        <v>32905266.0920002</v>
       </c>
       <c r="M35" t="n">
-        <v>32748379.71824527</v>
+        <v>34312108.70567386</v>
       </c>
       <c r="N35" t="n">
-        <v>34338906.03010953</v>
+        <v>35180652.68072076</v>
       </c>
       <c r="O35" t="n">
-        <v>37603786.85550188</v>
+        <v>35253054.44910122</v>
       </c>
       <c r="P35" t="n">
-        <v>40741847.72223799</v>
+        <v>35325605.22029047</v>
       </c>
       <c r="Q35" t="n">
-        <v>41299421.20119542</v>
+        <v>37246677.10137378</v>
       </c>
       <c r="R35" t="n">
-        <v>45226095.16865829</v>
+        <v>40354936.9231017</v>
       </c>
       <c r="S35" t="n">
-        <v>48474375.23789871</v>
+        <v>39968759.40697966</v>
       </c>
       <c r="T35" t="n">
-        <v>48292317.02396712</v>
+        <v>42607072.28924768</v>
       </c>
       <c r="U35" t="n">
-        <v>48391702.59203649</v>
+        <v>46658075.34744925</v>
       </c>
     </row>
     <row r="36">
@@ -2713,64 +2713,64 @@
         <v>22561132</v>
       </c>
       <c r="B36" t="n">
-        <v>22738727.84133373</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C36" t="n">
-        <v>23843104.46213528</v>
+        <v>25215408.98257006</v>
       </c>
       <c r="D36" t="n">
-        <v>24585264.17790976</v>
+        <v>27466247.90249365</v>
       </c>
       <c r="E36" t="n">
-        <v>25779323.54498475</v>
+        <v>29598642.22804673</v>
       </c>
       <c r="F36" t="n">
-        <v>27930625.13326107</v>
+        <v>30347874.01083389</v>
       </c>
       <c r="G36" t="n">
-        <v>30099072.26716714</v>
+        <v>29881024.01583938</v>
       </c>
       <c r="H36" t="n">
-        <v>31035960.28669293</v>
+        <v>32200894.07159993</v>
       </c>
       <c r="I36" t="n">
-        <v>33084624.66989722</v>
+        <v>33952038.36936729</v>
       </c>
       <c r="J36" t="n">
-        <v>34114443.40346482</v>
+        <v>36390580.30260343</v>
       </c>
       <c r="K36" t="n">
-        <v>34382984.15212364</v>
+        <v>36677038.25717165</v>
       </c>
       <c r="L36" t="n">
-        <v>36852477.96373509</v>
+        <v>38671603.57142134</v>
       </c>
       <c r="M36" t="n">
-        <v>36285565.79233346</v>
+        <v>41898774.44885796</v>
       </c>
       <c r="N36" t="n">
-        <v>38258842.10842645</v>
+        <v>42715770.55756725</v>
       </c>
       <c r="O36" t="n">
-        <v>40561856.63193443</v>
+        <v>46280429.84292771</v>
       </c>
       <c r="P36" t="n">
-        <v>41824417.72321549</v>
+        <v>49335372.15445152</v>
       </c>
       <c r="Q36" t="n">
-        <v>41181020.78550048</v>
+        <v>50010552.50649045</v>
       </c>
       <c r="R36" t="n">
-        <v>43181104.38268302</v>
+        <v>54474715.59289134</v>
       </c>
       <c r="S36" t="n">
-        <v>43018926.43400554</v>
+        <v>59337369.61896736</v>
       </c>
       <c r="T36" t="n">
-        <v>44357968.26330622</v>
+        <v>63599165.69876722</v>
       </c>
       <c r="U36" t="n">
-        <v>43675596.99557595</v>
+        <v>69646058.87640038</v>
       </c>
     </row>
     <row r="37">
@@ -2778,64 +2778,64 @@
         <v>22561132</v>
       </c>
       <c r="B37" t="n">
-        <v>23263388.00610278</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C37" t="n">
-        <v>23852255.2093749</v>
+        <v>23829378.34127586</v>
       </c>
       <c r="D37" t="n">
-        <v>26120084.31864149</v>
+        <v>24848187.4526846</v>
       </c>
       <c r="E37" t="n">
-        <v>26325695.38240714</v>
+        <v>25621632.19293148</v>
       </c>
       <c r="F37" t="n">
-        <v>26532924.96734703</v>
+        <v>25376445.38225418</v>
       </c>
       <c r="G37" t="n">
-        <v>26124761.42074164</v>
+        <v>26313865.70704568</v>
       </c>
       <c r="H37" t="n">
-        <v>27241708.09839492</v>
+        <v>27744862.49187563</v>
       </c>
       <c r="I37" t="n">
-        <v>26822641.13888279</v>
+        <v>29737585.57619423</v>
       </c>
       <c r="J37" t="n">
-        <v>27033782.56209917</v>
+        <v>31008996.13094821</v>
       </c>
       <c r="K37" t="n">
-        <v>28189593.82984015</v>
+        <v>33055880.62704777</v>
       </c>
       <c r="L37" t="n">
-        <v>27755945.27397557</v>
+        <v>33123909.61543783</v>
       </c>
       <c r="M37" t="n">
-        <v>27974433.44438053</v>
+        <v>35502972.74299502</v>
       </c>
       <c r="N37" t="n">
-        <v>29658371.66516443</v>
+        <v>38465719.28354166</v>
       </c>
       <c r="O37" t="n">
-        <v>30409115.38192179</v>
+        <v>38097620.67996629</v>
       </c>
       <c r="P37" t="n">
-        <v>32416402.12388879</v>
+        <v>41055401.82442535</v>
       </c>
       <c r="Q37" t="n">
-        <v>32671576.2972505</v>
+        <v>40662521.19298834</v>
       </c>
       <c r="R37" t="n">
-        <v>33308648.64725047</v>
+        <v>43346628.85809198</v>
       </c>
       <c r="S37" t="n">
-        <v>34732737.61191098</v>
+        <v>45199884.9437945</v>
       </c>
       <c r="T37" t="n">
-        <v>37833135.37529538</v>
+        <v>45030124.9359059</v>
       </c>
       <c r="U37" t="n">
-        <v>40550429.87392835</v>
+        <v>46693563.36106601</v>
       </c>
     </row>
     <row r="38">
@@ -2843,64 +2843,64 @@
         <v>22561132</v>
       </c>
       <c r="B38" t="n">
-        <v>22738727.84133373</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C38" t="n">
-        <v>23578709.3800119</v>
+        <v>25475228.69107363</v>
       </c>
       <c r="D38" t="n">
-        <v>23353072.3671456</v>
+        <v>26416298.12747405</v>
       </c>
       <c r="E38" t="n">
-        <v>24758824.91652095</v>
+        <v>27699287.31946725</v>
       </c>
       <c r="F38" t="n">
-        <v>26105255.70119363</v>
+        <v>30332885.25549543</v>
       </c>
       <c r="G38" t="n">
-        <v>26614289.50004064</v>
+        <v>30395310.32055918</v>
       </c>
       <c r="H38" t="n">
-        <v>29144727.81376948</v>
+        <v>30457863.85638051</v>
       </c>
       <c r="I38" t="n">
-        <v>28865826.65685226</v>
+        <v>32999592.72585206</v>
       </c>
       <c r="J38" t="n">
-        <v>29764327.67802869</v>
+        <v>36137134.07448795</v>
       </c>
       <c r="K38" t="n">
-        <v>31382966.97960724</v>
+        <v>36211504.28117342</v>
       </c>
       <c r="L38" t="n">
-        <v>32907177.80026115</v>
+        <v>37970227.94466212</v>
       </c>
       <c r="M38" t="n">
-        <v>35844618.02139232</v>
+        <v>38710620.2087714</v>
       </c>
       <c r="N38" t="n">
-        <v>37377130.65819514</v>
+        <v>40365666.84960912</v>
       </c>
       <c r="O38" t="n">
-        <v>37019449.32902206</v>
+        <v>39979386.6532035</v>
       </c>
       <c r="P38" t="n">
-        <v>40323969.09316704</v>
+        <v>42618401.03336716</v>
       </c>
       <c r="Q38" t="n">
-        <v>40172521.86448786</v>
+        <v>43449429.34533303</v>
       </c>
       <c r="R38" t="n">
-        <v>43992052.28948208</v>
+        <v>43538848.25260213</v>
       </c>
       <c r="S38" t="n">
-        <v>47663218.12890961</v>
+        <v>45906571.51144625</v>
       </c>
       <c r="T38" t="n">
-        <v>46930001.2605069</v>
+        <v>47068606.65313177</v>
       </c>
       <c r="U38" t="n">
-        <v>46480903.51187401</v>
+        <v>46344536.86252408</v>
       </c>
     </row>
     <row r="39">
@@ -2908,64 +2908,64 @@
         <v>22561132</v>
       </c>
       <c r="B39" t="n">
-        <v>23656883.12967957</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C39" t="n">
-        <v>25218459.23164993</v>
+        <v>24352068.00736287</v>
       </c>
       <c r="D39" t="n">
-        <v>25123744.70210131</v>
+        <v>25534801.48142355</v>
       </c>
       <c r="E39" t="n">
-        <v>24883322.43745424</v>
+        <v>26626524.81699316</v>
       </c>
       <c r="F39" t="n">
-        <v>26091857.92543514</v>
+        <v>26371721.66276243</v>
       </c>
       <c r="G39" t="n">
-        <v>26145554.95804216</v>
+        <v>28419140.3647408</v>
       </c>
       <c r="H39" t="n">
-        <v>25743350.43468961</v>
+        <v>30460292.20169414</v>
       </c>
       <c r="I39" t="n">
-        <v>26095661.63961456</v>
+        <v>32470957.09361831</v>
       </c>
       <c r="J39" t="n">
-        <v>27818219.99010165</v>
+        <v>33859231.11694181</v>
       </c>
       <c r="K39" t="n">
-        <v>29816211.84013015</v>
+        <v>33732063.90515219</v>
       </c>
       <c r="L39" t="n">
-        <v>30917639.66290838</v>
+        <v>36154806.58211411</v>
       </c>
       <c r="M39" t="n">
-        <v>33317989.34338639</v>
+        <v>37490385.69961651</v>
       </c>
       <c r="N39" t="n">
-        <v>34936180.50780436</v>
+        <v>38003461.22148543</v>
       </c>
       <c r="O39" t="n">
-        <v>36023632.26296879</v>
+        <v>40512045.99617096</v>
       </c>
       <c r="P39" t="n">
-        <v>35888336.0757165</v>
+        <v>43186220.8873753</v>
       </c>
       <c r="Q39" t="n">
-        <v>36170840.48371494</v>
+        <v>42521874.94347474</v>
       </c>
       <c r="R39" t="n">
-        <v>35614414.13593383</v>
+        <v>42114960.863103</v>
       </c>
       <c r="S39" t="n">
-        <v>38172353.11306662</v>
+        <v>41467094.41746287</v>
       </c>
       <c r="T39" t="n">
-        <v>41135936.25191689</v>
+        <v>42034593.27647954</v>
       </c>
       <c r="U39" t="n">
-        <v>45047066.36729339</v>
+        <v>41632342.2494579</v>
       </c>
     </row>
     <row r="40">
@@ -2973,64 +2973,64 @@
         <v>22561132</v>
       </c>
       <c r="B40" t="n">
-        <v>24575038.41802541</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C40" t="n">
-        <v>24339867.01104338</v>
+        <v>25346843.96136178</v>
       </c>
       <c r="D40" t="n">
-        <v>23965439.89999712</v>
+        <v>27756775.85497249</v>
       </c>
       <c r="E40" t="n">
-        <v>26244030.40410304</v>
+        <v>27652528.01244011</v>
       </c>
       <c r="F40" t="n">
-        <v>27976382.48420506</v>
+        <v>29638619.3447108</v>
       </c>
       <c r="G40" t="n">
-        <v>29497790.01253151</v>
+        <v>30216551.20526441</v>
       </c>
       <c r="H40" t="n">
-        <v>29729989.56859817</v>
+        <v>32386798.72885035</v>
       </c>
       <c r="I40" t="n">
-        <v>32383819.917183</v>
+        <v>33771474.61765271</v>
       </c>
       <c r="J40" t="n">
-        <v>33768368.44888756</v>
+        <v>33251958.39880391</v>
       </c>
       <c r="K40" t="n">
-        <v>35408433.66703817</v>
+        <v>33320390.91516555</v>
       </c>
       <c r="L40" t="n">
-        <v>38363290.85921206</v>
+        <v>35326132.33277339</v>
       </c>
       <c r="M40" t="n">
-        <v>41564732.83704027</v>
+        <v>35398833.49821641</v>
       </c>
       <c r="N40" t="n">
-        <v>41166978.1505227</v>
+        <v>38764490.30243273</v>
       </c>
       <c r="O40" t="n">
-        <v>41491034.76788611</v>
+        <v>42450147.64351246</v>
       </c>
       <c r="P40" t="n">
-        <v>41576423.29994072</v>
+        <v>42537510.02946063</v>
       </c>
       <c r="Q40" t="n">
-        <v>44804287.89347106</v>
+        <v>43366961.02475577</v>
       </c>
       <c r="R40" t="n">
-        <v>46198902.32471273</v>
+        <v>45725336.73758974</v>
       </c>
       <c r="S40" t="n">
-        <v>47636926.65048172</v>
+        <v>49806982.51326292</v>
       </c>
       <c r="T40" t="n">
-        <v>49396661.81354719</v>
+        <v>53673842.20451913</v>
       </c>
       <c r="U40" t="n">
-        <v>53231665.47791408</v>
+        <v>52848162.192945</v>
       </c>
     </row>
     <row r="41">
@@ -3038,64 +3038,64 @@
         <v>22561132</v>
       </c>
       <c r="B41" t="n">
-        <v>22738727.84133373</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C41" t="n">
-        <v>24768487.2495671</v>
+        <v>25081686.31696844</v>
       </c>
       <c r="D41" t="n">
-        <v>24387466.55123568</v>
+        <v>27320588.56037727</v>
       </c>
       <c r="E41" t="n">
-        <v>25004787.60606875</v>
+        <v>28012155.86661302</v>
       </c>
       <c r="F41" t="n">
-        <v>26655338.04191607</v>
+        <v>27906948.87755086</v>
       </c>
       <c r="G41" t="n">
-        <v>27794969.1676574</v>
+        <v>28775603.09495729</v>
       </c>
       <c r="H41" t="n">
-        <v>28821731.13657113</v>
+        <v>31176946.1920237</v>
       </c>
       <c r="I41" t="n">
-        <v>31059360.97761909</v>
+        <v>32328640.31565268</v>
       </c>
       <c r="J41" t="n">
-        <v>32206711.4365536</v>
+        <v>32771074.65426327</v>
       </c>
       <c r="K41" t="n">
-        <v>33396445.67397492</v>
+        <v>32266947.87316335</v>
       </c>
       <c r="L41" t="n">
-        <v>35406765.25455025</v>
+        <v>31958168.55810105</v>
       </c>
       <c r="M41" t="n">
-        <v>38155636.72702167</v>
+        <v>32023938.45551615</v>
       </c>
       <c r="N41" t="n">
-        <v>39786955.42079379</v>
+        <v>33206920.95506929</v>
       </c>
       <c r="O41" t="n">
-        <v>40331460.69955137</v>
+        <v>34626660.62038207</v>
       </c>
       <c r="P41" t="n">
-        <v>41586850.3010642</v>
+        <v>37717589.48238134</v>
       </c>
       <c r="Q41" t="n">
-        <v>41188883.9609555</v>
+        <v>37356650.12449874</v>
       </c>
       <c r="R41" t="n">
-        <v>43189349.45756523</v>
+        <v>39388173.99162335</v>
       </c>
       <c r="S41" t="n">
-        <v>46793529.21513522</v>
+        <v>39240241.3865769</v>
       </c>
       <c r="T41" t="n">
-        <v>50698480.15560158</v>
+        <v>40689798.22053856</v>
       </c>
       <c r="U41" t="n">
-        <v>51687064.22636385</v>
+        <v>42192902.50835468</v>
       </c>
     </row>
     <row r="42">
@@ -3103,64 +3103,64 @@
         <v>22561132</v>
       </c>
       <c r="B42" t="n">
-        <v>23394553.04729505</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C42" t="n">
-        <v>24258761.14206955</v>
+        <v>25634878.47385417</v>
       </c>
       <c r="D42" t="n">
-        <v>24167651.01008655</v>
+        <v>26581845.46402828</v>
       </c>
       <c r="E42" t="n">
-        <v>26324962.41971846</v>
+        <v>29109199.0577319</v>
       </c>
       <c r="F42" t="n">
-        <v>27756562.66434918</v>
+        <v>31369147.01685838</v>
       </c>
       <c r="G42" t="n">
-        <v>29266015.98347817</v>
+        <v>33986923.06837039</v>
       </c>
       <c r="H42" t="n">
-        <v>30687410.5338543</v>
+        <v>35835194.93304281</v>
       </c>
       <c r="I42" t="n">
-        <v>33069885.93859889</v>
+        <v>36325618.30422016</v>
       </c>
       <c r="J42" t="n">
-        <v>32945683.31939327</v>
+        <v>37033941.857627</v>
       </c>
       <c r="K42" t="n">
-        <v>32821947.17565861</v>
+        <v>36464238.17542877</v>
       </c>
       <c r="L42" t="n">
-        <v>32698675.75542408</v>
+        <v>38659225.41180858</v>
       </c>
       <c r="M42" t="n">
-        <v>35807606.46498126</v>
+        <v>38289275.04679666</v>
       </c>
       <c r="N42" t="n">
-        <v>38587598.00618596</v>
+        <v>39035888.50100917</v>
       </c>
       <c r="O42" t="n">
-        <v>39788706.72984946</v>
+        <v>38435388.30304484</v>
       </c>
       <c r="P42" t="n">
-        <v>39407947.76685265</v>
+        <v>39631759.22462386</v>
       </c>
       <c r="Q42" t="n">
-        <v>38801724.07516567</v>
+        <v>40404550.15929292</v>
       </c>
       <c r="R42" t="n">
-        <v>41588585.65354203</v>
+        <v>41897117.22149721</v>
       </c>
       <c r="S42" t="n">
-        <v>41915961.06444875</v>
+        <v>43688400.40797819</v>
       </c>
       <c r="T42" t="n">
-        <v>43708049.90681459</v>
+        <v>44286299.0003944</v>
       </c>
       <c r="U42" t="n">
-        <v>47609623.73860233</v>
+        <v>45407320.10999347</v>
       </c>
     </row>
     <row r="43">
@@ -3168,64 +3168,64 @@
         <v>22561132</v>
       </c>
       <c r="B43" t="n">
-        <v>23525718.08848731</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C43" t="n">
-        <v>25215408.98257006</v>
+        <v>23182879.3190968</v>
       </c>
       <c r="D43" t="n">
-        <v>26440073.28035368</v>
+        <v>25117505.9206429</v>
       </c>
       <c r="E43" t="n">
-        <v>28031649.74768902</v>
+        <v>27067551.20121295</v>
       </c>
       <c r="F43" t="n">
-        <v>27600430.89065393</v>
+        <v>28224806.22450291</v>
       </c>
       <c r="G43" t="n">
-        <v>27175845.59619317</v>
+        <v>28446985.15630129</v>
       </c>
       <c r="H43" t="n">
-        <v>28969706.21600622</v>
+        <v>28174761.06412256</v>
       </c>
       <c r="I43" t="n">
-        <v>31218824.38341134</v>
+        <v>30362162.15473509</v>
       </c>
       <c r="J43" t="n">
-        <v>33642557.11173862</v>
+        <v>30954202.58213941</v>
       </c>
       <c r="K43" t="n">
-        <v>33320613.87177861</v>
+        <v>31737747.72609184</v>
       </c>
       <c r="L43" t="n">
-        <v>33195469.57814247</v>
+        <v>33094673.87396899</v>
       </c>
       <c r="M43" t="n">
-        <v>34035748.01594599</v>
+        <v>32777973.61551308</v>
       </c>
       <c r="N43" t="n">
-        <v>33907917.84870406</v>
+        <v>35322753.85593691</v>
       </c>
       <c r="O43" t="n">
-        <v>35357628.16671605</v>
+        <v>37243670.67454222</v>
       </c>
       <c r="P43" t="n">
-        <v>37280441.51497434</v>
+        <v>36670740.67418107</v>
       </c>
       <c r="Q43" t="n">
-        <v>38440862.63054843</v>
+        <v>39517743.27916202</v>
       </c>
       <c r="R43" t="n">
-        <v>38743459.91779742</v>
+        <v>39599070.77816502</v>
       </c>
       <c r="S43" t="n">
-        <v>41075646.30829941</v>
+        <v>39680565.64912667</v>
       </c>
       <c r="T43" t="n">
-        <v>44981044.16532418</v>
+        <v>40915694.96589389</v>
       </c>
       <c r="U43" t="n">
-        <v>46904178.5828483</v>
+        <v>42427144.00795791</v>
       </c>
     </row>
     <row r="44">
@@ -3233,64 +3233,64 @@
         <v>22561132</v>
       </c>
       <c r="B44" t="n">
-        <v>24706203.45921767</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C44" t="n">
-        <v>25331592.71596242</v>
+        <v>24663741.95022427</v>
       </c>
       <c r="D44" t="n">
-        <v>25972812.47953099</v>
+        <v>25001278.1488044</v>
       </c>
       <c r="E44" t="n">
-        <v>26630263.46826575</v>
+        <v>26942299.86554367</v>
       </c>
       <c r="F44" t="n">
-        <v>27768822.54740419</v>
+        <v>29190652.59642195</v>
       </c>
       <c r="G44" t="n">
-        <v>29601825.2059615</v>
+        <v>29759849.42605885</v>
       </c>
       <c r="H44" t="n">
-        <v>30006941.65468281</v>
+        <v>32416345.19757465</v>
       </c>
       <c r="I44" t="n">
-        <v>31115415.14528457</v>
+        <v>32294597.1218151</v>
       </c>
       <c r="J44" t="n">
-        <v>30636757.84627106</v>
+        <v>34989602.59624776</v>
       </c>
       <c r="K44" t="n">
-        <v>33549645.14549873</v>
+        <v>34858189.97826999</v>
       </c>
       <c r="L44" t="n">
-        <v>34398888.84561752</v>
+        <v>34727270.91480221</v>
       </c>
       <c r="M44" t="n">
-        <v>33869720.93488808</v>
+        <v>37423388.55356952</v>
       </c>
       <c r="N44" t="n">
-        <v>34333245.76718662</v>
+        <v>39893683.09320345</v>
       </c>
       <c r="O44" t="n">
-        <v>34004692.96592602</v>
+        <v>39279987.19655758</v>
       </c>
       <c r="P44" t="n">
-        <v>34470064.96100964</v>
+        <v>41644470.17647912</v>
       </c>
       <c r="Q44" t="n">
-        <v>37146213.92701491</v>
+        <v>41245952.44162014</v>
       </c>
       <c r="R44" t="n">
-        <v>39382253.11306252</v>
+        <v>43009395.5140509</v>
       </c>
       <c r="S44" t="n">
-        <v>39921219.82922956</v>
+        <v>45848418.8894791</v>
       </c>
       <c r="T44" t="n">
-        <v>40003377.68280244</v>
+        <v>45676223.14247585</v>
       </c>
       <c r="U44" t="n">
-        <v>40318274.71526376</v>
+        <v>49222383.48397881</v>
       </c>
     </row>
     <row r="45">
@@ -3298,64 +3298,64 @@
         <v>22561132</v>
       </c>
       <c r="B45" t="n">
-        <v>24443873.37683315</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C45" t="n">
-        <v>24636289.70850542</v>
+        <v>24118175.41603821</v>
       </c>
       <c r="D45" t="n">
-        <v>26405745.34118247</v>
+        <v>24868897.21236267</v>
       </c>
       <c r="E45" t="n">
-        <v>27227671.88553609</v>
+        <v>25353822.90571897</v>
       </c>
       <c r="F45" t="n">
-        <v>27283706.42279401</v>
+        <v>26143006.46322873</v>
       </c>
       <c r="G45" t="n">
-        <v>28450203.0178141</v>
+        <v>27108743.99031847</v>
       </c>
       <c r="H45" t="n">
-        <v>29004961.61071555</v>
+        <v>29370986.59341789</v>
       </c>
       <c r="I45" t="n">
-        <v>31594072.75737258</v>
+        <v>28919164.33597653</v>
       </c>
       <c r="J45" t="n">
-        <v>32761175.77355835</v>
+        <v>30155583.83873735</v>
       </c>
       <c r="K45" t="n">
-        <v>34161857.90217059</v>
+        <v>30743596.13685784</v>
       </c>
       <c r="L45" t="n">
-        <v>36416860.83753233</v>
+        <v>31521810.19024033</v>
       </c>
       <c r="M45" t="n">
-        <v>38608996.16592833</v>
+        <v>33419284.93528486</v>
       </c>
       <c r="N45" t="n">
-        <v>40933088.42821384</v>
+        <v>36013854.59813178</v>
       </c>
       <c r="O45" t="n">
-        <v>43873031.28239961</v>
+        <v>35878595.13346102</v>
       </c>
       <c r="P45" t="n">
-        <v>46769062.71629719</v>
+        <v>38455508.41880546</v>
       </c>
       <c r="Q45" t="n">
-        <v>46321505.07284078</v>
+        <v>39428934.46006173</v>
       </c>
       <c r="R45" t="n">
-        <v>49379158.73467492</v>
+        <v>41114692.14562704</v>
       </c>
       <c r="S45" t="n">
-        <v>53499882.16747893</v>
+        <v>41438337.18005084</v>
       </c>
       <c r="T45" t="n">
-        <v>57342411.5811561</v>
+        <v>45137306.41613373</v>
       </c>
       <c r="U45" t="n">
-        <v>60460798.19605241</v>
+        <v>46017451.57991681</v>
       </c>
     </row>
     <row r="46">
@@ -3363,64 +3363,64 @@
         <v>22561132</v>
       </c>
       <c r="B46" t="n">
-        <v>22869892.88252599</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C46" t="n">
-        <v>25044320.76574</v>
+        <v>22259784.21847488</v>
       </c>
       <c r="D46" t="n">
-        <v>24950260.25881519</v>
+        <v>23082073.30733456</v>
       </c>
       <c r="E46" t="n">
-        <v>27032375.96790404</v>
+        <v>24605706.57140733</v>
       </c>
       <c r="F46" t="n">
-        <v>29288245.6090587</v>
+        <v>25943810.49669738</v>
       </c>
       <c r="G46" t="n">
-        <v>31051269.56087022</v>
+        <v>26751358.48420519</v>
       </c>
       <c r="H46" t="n">
-        <v>30754123.70795257</v>
+        <v>28050620.91835659</v>
       </c>
       <c r="I46" t="n">
-        <v>31353807.10506077</v>
+        <v>27782189.84305659</v>
       </c>
       <c r="J46" t="n">
-        <v>32329751.01397975</v>
+        <v>28808479.73645156</v>
       </c>
       <c r="K46" t="n">
-        <v>35027690.10394798</v>
+        <v>30877595.14878283</v>
       </c>
       <c r="L46" t="n">
-        <v>37747131.35708358</v>
+        <v>32915805.94799679</v>
       </c>
       <c r="M46" t="n">
-        <v>38922079.03739779</v>
+        <v>32600817.37035697</v>
       </c>
       <c r="N46" t="n">
-        <v>38323329.60284767</v>
+        <v>34563243.61601763</v>
       </c>
       <c r="O46" t="n">
-        <v>40630225.99073136</v>
+        <v>36844741.77202953</v>
       </c>
       <c r="P46" t="n">
-        <v>41658700.75722709</v>
+        <v>39062633.65635282</v>
       </c>
       <c r="Q46" t="n">
-        <v>43197596.85579337</v>
+        <v>40732730.39638315</v>
       </c>
       <c r="R46" t="n">
-        <v>43788778.54508967</v>
+        <v>43184662.14641237</v>
       </c>
       <c r="S46" t="n">
-        <v>45915515.96048489</v>
+        <v>46035254.76293916</v>
       </c>
       <c r="T46" t="n">
-        <v>48946370.53420419</v>
+        <v>48806375.22737914</v>
       </c>
       <c r="U46" t="n">
-        <v>52177289.92816726</v>
+        <v>50041813.23298936</v>
       </c>
     </row>
     <row r="47">
@@ -3428,64 +3428,64 @@
         <v>22561132</v>
       </c>
       <c r="B47" t="n">
-        <v>22738727.84133373</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C47" t="n">
-        <v>24504092.16744373</v>
+        <v>24941863.15320707</v>
       </c>
       <c r="D47" t="n">
-        <v>24839443.47530887</v>
+        <v>25573217.67455073</v>
       </c>
       <c r="E47" t="n">
-        <v>26912311.45057147</v>
+        <v>26666583.46872849</v>
       </c>
       <c r="F47" t="n">
-        <v>28375852.82403825</v>
+        <v>26411396.9722897</v>
       </c>
       <c r="G47" t="n">
-        <v>29424072.96558522</v>
+        <v>28922544.63293575</v>
       </c>
       <c r="H47" t="n">
-        <v>29142498.60868074</v>
+        <v>31336150.09846521</v>
       </c>
       <c r="I47" t="n">
-        <v>28863618.78419394</v>
+        <v>33404629.82393369</v>
       </c>
       <c r="J47" t="n">
-        <v>30601082.06320822</v>
+        <v>33861789.64130864</v>
       </c>
       <c r="K47" t="n">
-        <v>30486151.68365284</v>
+        <v>36490713.9975052</v>
       </c>
       <c r="L47" t="n">
-        <v>32144045.11241897</v>
+        <v>39111591.58042311</v>
       </c>
       <c r="M47" t="n">
-        <v>33705220.04568048</v>
+        <v>41920708.81535526</v>
       </c>
       <c r="N47" t="n">
-        <v>35342218.26638824</v>
+        <v>44687868.66075303</v>
       </c>
       <c r="O47" t="n">
-        <v>38497020.96839513</v>
+        <v>44000422.44118786</v>
       </c>
       <c r="P47" t="n">
-        <v>40142935.31676728</v>
+        <v>46393246.95984611</v>
       </c>
       <c r="Q47" t="n">
-        <v>40692312.36644675</v>
+        <v>49455636.25890024</v>
       </c>
       <c r="R47" t="n">
-        <v>42432084.92826034</v>
+        <v>48694846.11156816</v>
       </c>
       <c r="S47" t="n">
-        <v>42272720.11834747</v>
+        <v>53041563.42649929</v>
       </c>
       <c r="T47" t="n">
-        <v>45554643.03792738</v>
+        <v>54075835.94375876</v>
       </c>
       <c r="U47" t="n">
-        <v>48826520.44608371</v>
+        <v>53558355.96239299</v>
       </c>
     </row>
     <row r="48">
@@ -3493,64 +3493,64 @@
         <v>22561132</v>
       </c>
       <c r="B48" t="n">
-        <v>23919213.21206409</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C48" t="n">
-        <v>25219984.35618987</v>
+        <v>24121225.66511808</v>
       </c>
       <c r="D48" t="n">
-        <v>24832018.14919146</v>
+        <v>25853687.78198799</v>
       </c>
       <c r="E48" t="n">
-        <v>26615531.61265167</v>
+        <v>25455973.13458627</v>
       </c>
       <c r="F48" t="n">
-        <v>28217669.90217723</v>
+        <v>25508361.51656189</v>
       </c>
       <c r="G48" t="n">
-        <v>27947640.24770547</v>
+        <v>27192152.55219115</v>
       </c>
       <c r="H48" t="n">
-        <v>30442370.21353871</v>
+        <v>26773847.91976951</v>
       </c>
       <c r="I48" t="n">
-        <v>31743913.36343739</v>
+        <v>26517634.9536487</v>
       </c>
       <c r="J48" t="n">
-        <v>34392963.91426747</v>
+        <v>29038883.52863265</v>
       </c>
       <c r="K48" t="n">
-        <v>36263317.03265826</v>
+        <v>30955722.12049781</v>
       </c>
       <c r="L48" t="n">
-        <v>36759599.47851795</v>
+        <v>32099244.10110763</v>
       </c>
       <c r="M48" t="n">
-        <v>39399789.26041356</v>
+        <v>33658243.13473985</v>
       </c>
       <c r="N48" t="n">
-        <v>39709934.98900887</v>
+        <v>36271364.77128085</v>
       </c>
       <c r="O48" t="n">
-        <v>40945978.47955634</v>
+        <v>39509107.19942778</v>
       </c>
       <c r="P48" t="n">
-        <v>44362947.44628994</v>
+        <v>43035864.8354977</v>
       </c>
       <c r="Q48" t="n">
-        <v>48322980.32870946</v>
+        <v>44125233.64796079</v>
       </c>
       <c r="R48" t="n">
-        <v>50950873.55631945</v>
+        <v>46268312.04567274</v>
       </c>
       <c r="S48" t="n">
-        <v>53425460.25957078</v>
+        <v>46632525.14476914</v>
       </c>
       <c r="T48" t="n">
-        <v>53846012.71959097</v>
+        <v>48084046.76445796</v>
       </c>
       <c r="U48" t="n">
-        <v>58026450.19268645</v>
+        <v>48742102.07455566</v>
       </c>
     </row>
     <row r="49">
@@ -3558,64 +3558,64 @@
         <v>22561132</v>
       </c>
       <c r="B49" t="n">
-        <v>23788048.17087183</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C49" t="n">
-        <v>25773176.51307561</v>
+        <v>25215408.98257006</v>
       </c>
       <c r="D49" t="n">
-        <v>27923965.12747632</v>
+        <v>26879862.40412795</v>
       </c>
       <c r="E49" t="n">
-        <v>27494402.81364388</v>
+        <v>28185366.02845649</v>
       </c>
       <c r="F49" t="n">
-        <v>27550986.28303936</v>
+        <v>28734960.48964779</v>
       </c>
       <c r="G49" t="n">
-        <v>29529784.56967835</v>
+        <v>31467028.34989926</v>
       </c>
       <c r="H49" t="n">
-        <v>29418877.72848327</v>
+        <v>30982962.08475007</v>
       </c>
       <c r="I49" t="n">
-        <v>31873902.5188799</v>
+        <v>33208255.64260889</v>
       </c>
       <c r="J49" t="n">
-        <v>34348493.48251569</v>
+        <v>34241922.61362872</v>
       </c>
       <c r="K49" t="n">
-        <v>36615816.11614227</v>
+        <v>35705913.08166753</v>
       </c>
       <c r="L49" t="n">
-        <v>39458554.54873568</v>
+        <v>38685595.12760668</v>
       </c>
       <c r="M49" t="n">
-        <v>40686773.36878353</v>
+        <v>39215027.71514897</v>
       </c>
       <c r="N49" t="n">
-        <v>40533963.53361171</v>
+        <v>41347613.59979799</v>
       </c>
       <c r="O49" t="n">
-        <v>42738275.59246219</v>
+        <v>42875017.96184395</v>
       </c>
       <c r="P49" t="n">
-        <v>45062462.2263407</v>
+        <v>42963254.73072807</v>
       </c>
       <c r="Q49" t="n">
-        <v>46727095.2094007</v>
+        <v>45049898.02973923</v>
       </c>
       <c r="R49" t="n">
-        <v>47638240.11660954</v>
+        <v>47761704.33979461</v>
       </c>
       <c r="S49" t="n">
-        <v>47736279.59467942</v>
+        <v>52302800.45247576</v>
       </c>
       <c r="T49" t="n">
-        <v>48389575.52930542</v>
+        <v>53626743.62952586</v>
       </c>
       <c r="U49" t="n">
-        <v>49333137.61267358</v>
+        <v>57790157.73033241</v>
       </c>
     </row>
     <row r="50">
@@ -3623,64 +3623,64 @@
         <v>22561132</v>
       </c>
       <c r="B50" t="n">
-        <v>22476397.75894921</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C50" t="n">
-        <v>23437361.0917106</v>
+        <v>26054347.96513828</v>
       </c>
       <c r="D50" t="n">
-        <v>23894372.85547268</v>
+        <v>26713862.86534476</v>
       </c>
       <c r="E50" t="n">
-        <v>25888374.06288005</v>
+        <v>27700688.15259239</v>
       </c>
       <c r="F50" t="n">
-        <v>26543687.65811697</v>
+        <v>29207102.91221941</v>
       </c>
       <c r="G50" t="n">
-        <v>27369907.9063753</v>
+        <v>30965242.4295055</v>
       </c>
       <c r="H50" t="n">
-        <v>29653944.81088193</v>
+        <v>33189263.30612244</v>
       </c>
       <c r="I50" t="n">
-        <v>29887373.5802164</v>
+        <v>35958929.2649514</v>
       </c>
       <c r="J50" t="n">
-        <v>31338946.2833803</v>
+        <v>39377838.95752686</v>
       </c>
       <c r="K50" t="n">
-        <v>33954202.06372286</v>
+        <v>43121812.3748829</v>
       </c>
       <c r="L50" t="n">
-        <v>35998096.13310599</v>
+        <v>44714756.64872232</v>
       </c>
       <c r="M50" t="n">
-        <v>36909317.58491953</v>
+        <v>46626506.12181848</v>
       </c>
       <c r="N50" t="n">
-        <v>40204006.50253269</v>
+        <v>48077840.38854033</v>
       </c>
       <c r="O50" t="n">
-        <v>43559057.4173887</v>
+        <v>50133376.25452876</v>
       </c>
       <c r="P50" t="n">
-        <v>46940847.57646053</v>
+        <v>52568258.67379526</v>
       </c>
       <c r="Q50" t="n">
-        <v>49766480.75709861</v>
+        <v>55427018.00561659</v>
       </c>
       <c r="R50" t="n">
-        <v>51315552.40892313</v>
+        <v>54574368.39104243</v>
       </c>
       <c r="S50" t="n">
-        <v>53211178.09965391</v>
+        <v>57224941.32399783</v>
       </c>
       <c r="T50" t="n">
-        <v>55795543.48142096</v>
+        <v>56677325.90477807</v>
       </c>
       <c r="U50" t="n">
-        <v>55261606.71840746</v>
+        <v>56793967.81758801</v>
       </c>
     </row>
     <row r="51">
@@ -3691,61 +3691,61 @@
         <v>22214067.67656468</v>
       </c>
       <c r="C51" t="n">
-        <v>22905520.67838397</v>
+        <v>23034667.97036579</v>
       </c>
       <c r="D51" t="n">
-        <v>23085827.46512076</v>
+        <v>25090844.30329997</v>
       </c>
       <c r="E51" t="n">
-        <v>24207062.05230786</v>
+        <v>27330564.02906958</v>
       </c>
       <c r="F51" t="n">
-        <v>23975412.00379494</v>
+        <v>28340170.60804228</v>
       </c>
       <c r="G51" t="n">
-        <v>24442915.37518141</v>
+        <v>28563257.66070776</v>
       </c>
       <c r="H51" t="n">
-        <v>24635324.16569354</v>
+        <v>28289920.89606889</v>
       </c>
       <c r="I51" t="n">
-        <v>24256351.95303257</v>
+        <v>30157320.93164288</v>
       </c>
       <c r="J51" t="n">
-        <v>24729333.45231961</v>
+        <v>32849296.76754897</v>
       </c>
       <c r="K51" t="n">
-        <v>25930389.98913709</v>
+        <v>33298856.56181402</v>
       </c>
       <c r="L51" t="n">
-        <v>26737520.23909348</v>
+        <v>33173793.98345472</v>
       </c>
       <c r="M51" t="n">
-        <v>28347001.70899031</v>
+        <v>32856336.58325392</v>
       </c>
       <c r="N51" t="n">
-        <v>29229353.36604121</v>
+        <v>32350898.19360086</v>
       </c>
       <c r="O51" t="n">
-        <v>31498629.73311548</v>
+        <v>31853235.1067448</v>
       </c>
       <c r="P51" t="n">
-        <v>32845332.55135066</v>
+        <v>33770660.17840922</v>
       </c>
       <c r="Q51" t="n">
-        <v>32531018.37053423</v>
+        <v>35999840.3959927</v>
       </c>
       <c r="R51" t="n">
-        <v>32219712.02664891</v>
+        <v>38585461.89654569</v>
       </c>
       <c r="S51" t="n">
-        <v>33409926.51326219</v>
+        <v>38440544.08704047</v>
       </c>
       <c r="T51" t="n">
-        <v>33867158.8185988</v>
+        <v>40754496.27286746</v>
       </c>
       <c r="U51" t="n">
-        <v>36102708.85124061</v>
+        <v>41786116.69869157</v>
       </c>
     </row>
     <row r="52">
@@ -3753,64 +3753,64 @@
         <v>22561132</v>
       </c>
       <c r="B52" t="n">
-        <v>22869892.88252599</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C52" t="n">
-        <v>23315839.42242846</v>
+        <v>24768487.24956711</v>
       </c>
       <c r="D52" t="n">
-        <v>23228270.67995926</v>
+        <v>24675462.70766609</v>
       </c>
       <c r="E52" t="n">
-        <v>23141030.82484078</v>
+        <v>26017360.10092545</v>
       </c>
       <c r="F52" t="n">
-        <v>24264946.53386943</v>
+        <v>26524679.99848689</v>
       </c>
       <c r="G52" t="n">
-        <v>24314883.78360307</v>
+        <v>28121349.41923924</v>
       </c>
       <c r="H52" t="n">
-        <v>26626698.77756709</v>
+        <v>28342713.96378202</v>
       </c>
       <c r="I52" t="n">
-        <v>26836297.78932509</v>
+        <v>29389709.93698403</v>
       </c>
       <c r="J52" t="n">
-        <v>27203566.5500044</v>
+        <v>29621058.71251591</v>
       </c>
       <c r="K52" t="n">
-        <v>29631877.20694463</v>
+        <v>31576326.32520045</v>
       </c>
       <c r="L52" t="n">
-        <v>31243313.6064342</v>
+        <v>34211391.62692559</v>
       </c>
       <c r="M52" t="n">
-        <v>31489253.50723298</v>
+        <v>35077386.14595737</v>
       </c>
       <c r="N52" t="n">
-        <v>33750910.50373813</v>
+        <v>36781027.85576339</v>
       </c>
       <c r="O52" t="n">
-        <v>33820369.86332131</v>
+        <v>40064265.06479587</v>
       </c>
       <c r="P52" t="n">
-        <v>34676466.43058907</v>
+        <v>40146717.30540322</v>
       </c>
       <c r="Q52" t="n">
-        <v>35554233.40937065</v>
+        <v>43730390.83933774</v>
       </c>
       <c r="R52" t="n">
-        <v>37487738.51509444</v>
+        <v>43566149.90148826</v>
       </c>
       <c r="S52" t="n">
-        <v>39308446.43999142</v>
+        <v>44922225.05015962</v>
       </c>
       <c r="T52" t="n">
-        <v>39846403.07326397</v>
+        <v>47887513.11034601</v>
       </c>
       <c r="U52" t="n">
-        <v>40160064.43909965</v>
+        <v>51605351.14864899</v>
       </c>
     </row>
     <row r="53">
@@ -3818,64 +3818,64 @@
         <v>22561132</v>
       </c>
       <c r="B53" t="n">
-        <v>23788048.17087183</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C53" t="n">
-        <v>23698705.9247541</v>
+        <v>24625613.83672586</v>
       </c>
       <c r="D53" t="n">
-        <v>23609699.22684462</v>
+        <v>25392130.57093975</v>
       </c>
       <c r="E53" t="n">
-        <v>25168160.7488147</v>
+        <v>25149139.98142111</v>
       </c>
       <c r="F53" t="n">
-        <v>26390530.29004475</v>
+        <v>26809219.02754127</v>
       </c>
       <c r="G53" t="n">
-        <v>26291413.74061563</v>
+        <v>27331979.60732318</v>
       </c>
       <c r="H53" t="n">
-        <v>26039817.43969624</v>
+        <v>27864933.64419509</v>
       </c>
       <c r="I53" t="n">
-        <v>26244796.66176628</v>
+        <v>27436279.42849383</v>
       </c>
       <c r="J53" t="n">
-        <v>26909132.39853022</v>
+        <v>27014219.32275833</v>
       </c>
       <c r="K53" t="n">
-        <v>29467603.83960848</v>
+        <v>28483302.63518124</v>
       </c>
       <c r="L53" t="n">
-        <v>31584059.61328327</v>
+        <v>30363467.67875311</v>
       </c>
       <c r="M53" t="n">
-        <v>32016303.97584234</v>
+        <v>32544267.20447182</v>
       </c>
       <c r="N53" t="n">
-        <v>34315815.39082609</v>
+        <v>34692493.98667555</v>
       </c>
       <c r="O53" t="n">
-        <v>37578500.8001683</v>
+        <v>34360503.35114605</v>
       </c>
       <c r="P53" t="n">
-        <v>39403616.87605709</v>
+        <v>37427673.83822341</v>
       </c>
       <c r="Q53" t="n">
-        <v>40859208.89351686</v>
+        <v>39245464.53638128</v>
       </c>
       <c r="R53" t="n">
-        <v>42843662.70119303</v>
+        <v>41836033.17531798</v>
       </c>
       <c r="S53" t="n">
-        <v>46418994.6704674</v>
+        <v>43138255.31421076</v>
       </c>
       <c r="T53" t="n">
-        <v>48403607.69878084</v>
+        <v>42976238.29643412</v>
       </c>
       <c r="U53" t="n">
-        <v>52161513.72073176</v>
+        <v>45313365.78317265</v>
       </c>
     </row>
     <row r="54">
@@ -3883,64 +3883,64 @@
         <v>22561132</v>
       </c>
       <c r="B54" t="n">
-        <v>23919213.21206409</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C54" t="n">
-        <v>23690317.73978445</v>
+        <v>25493530.18555287</v>
       </c>
       <c r="D54" t="n">
-        <v>25391830.69731794</v>
+        <v>27472768.82415313</v>
       </c>
       <c r="E54" t="n">
-        <v>27658417.7997179</v>
+        <v>29445949.28745762</v>
       </c>
       <c r="F54" t="n">
-        <v>27715338.81188555</v>
+        <v>30704891.12800819</v>
       </c>
       <c r="G54" t="n">
-        <v>28578028.81971939</v>
+        <v>32196169.09846655</v>
       </c>
       <c r="H54" t="n">
-        <v>29301425.76867984</v>
+        <v>34882960.68929628</v>
       </c>
       <c r="I54" t="n">
-        <v>28850673.58523013</v>
+        <v>35765954.66668119</v>
       </c>
       <c r="J54" t="n">
-        <v>29413241.06752119</v>
+        <v>36255430.44862641</v>
       </c>
       <c r="K54" t="n">
-        <v>29302771.9359767</v>
+        <v>39280970.08203334</v>
       </c>
       <c r="L54" t="n">
-        <v>31066670.30896832</v>
+        <v>38676699.72426033</v>
       </c>
       <c r="M54" t="n">
-        <v>32394904.99132612</v>
+        <v>41904295.87901959</v>
       </c>
       <c r="N54" t="n">
-        <v>31896564.9353588</v>
+        <v>42965021.23479718</v>
       </c>
       <c r="O54" t="n">
-        <v>31405890.98649839</v>
+        <v>44052596.7799596</v>
       </c>
       <c r="P54" t="n">
-        <v>34209319.70725209</v>
+        <v>45679924.75908849</v>
       </c>
       <c r="Q54" t="n">
-        <v>34876376.9529606</v>
+        <v>47632939.34832824</v>
       </c>
       <c r="R54" t="n">
-        <v>34948152.52202164</v>
+        <v>47730967.91741922</v>
       </c>
       <c r="S54" t="n">
-        <v>36645517.60131904</v>
+        <v>48106694.69411498</v>
       </c>
       <c r="T54" t="n">
-        <v>37147030.66171003</v>
+        <v>50163464.20661326</v>
       </c>
       <c r="U54" t="n">
-        <v>38951191.05631303</v>
+        <v>52308169.52211028</v>
       </c>
     </row>
     <row r="55">
@@ -3948,64 +3948,64 @@
         <v>22561132</v>
       </c>
       <c r="B55" t="n">
-        <v>23263388.00610278</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C55" t="n">
-        <v>23581759.62909177</v>
+        <v>24504092.16744373</v>
       </c>
       <c r="D55" t="n">
-        <v>24864179.42197031</v>
+        <v>24127138.7340127</v>
       </c>
       <c r="E55" t="n">
-        <v>25059904.30242035</v>
+        <v>24176792.37535235</v>
       </c>
       <c r="F55" t="n">
-        <v>26131323.727161</v>
+        <v>24788780.62514767</v>
       </c>
       <c r="G55" t="n">
-        <v>28160078.67879492</v>
+        <v>24983911.98428161</v>
       </c>
       <c r="H55" t="n">
-        <v>30673771.83848768</v>
+        <v>26197332.91460513</v>
       </c>
       <c r="I55" t="n">
-        <v>32520198.39354666</v>
+        <v>27469687.38404267</v>
       </c>
       <c r="J55" t="n">
-        <v>32398060.26990559</v>
+        <v>28324731.04724227</v>
       </c>
       <c r="K55" t="n">
-        <v>34348281.42724287</v>
+        <v>28053676.86862981</v>
       </c>
       <c r="L55" t="n">
-        <v>35217741.04404322</v>
+        <v>28437606.09824724</v>
       </c>
       <c r="M55" t="n">
-        <v>37337694.61921195</v>
+        <v>30314754.74191437</v>
       </c>
       <c r="N55" t="n">
-        <v>37197463.12656587</v>
+        <v>32315812.79688171</v>
       </c>
       <c r="O55" t="n">
-        <v>38571558.56981141</v>
+        <v>34261083.01701187</v>
       </c>
       <c r="P55" t="n">
-        <v>39547922.19384128</v>
+        <v>36323449.9740587</v>
       </c>
       <c r="Q55" t="n">
-        <v>42158455.87412169</v>
+        <v>37665258.87437227</v>
       </c>
       <c r="R55" t="n">
-        <v>44941309.25459964</v>
+        <v>39932542.29015191</v>
       </c>
       <c r="S55" t="n">
-        <v>46862744.83262794</v>
+        <v>39782565.16736459</v>
       </c>
       <c r="T55" t="n">
-        <v>46141841.87307528</v>
+        <v>39401864.97619414</v>
       </c>
       <c r="U55" t="n">
-        <v>48651120.74914795</v>
+        <v>41315538.37073599</v>
       </c>
     </row>
     <row r="56">
@@ -4013,64 +4013,64 @@
         <v>22561132</v>
       </c>
       <c r="B56" t="n">
-        <v>23788048.17087183</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C56" t="n">
-        <v>25358282.3954113</v>
+        <v>24625613.83672586</v>
       </c>
       <c r="D56" t="n">
-        <v>25410469.7298869</v>
+        <v>26537470.14105668</v>
       </c>
       <c r="E56" t="n">
-        <v>27678720.63476436</v>
+        <v>26283519.19763768</v>
       </c>
       <c r="F56" t="n">
-        <v>28057518.39235827</v>
+        <v>26643222.89439152</v>
       </c>
       <c r="G56" t="n">
-        <v>30235817.12545658</v>
+        <v>28247028.07764691</v>
       </c>
       <c r="H56" t="n">
-        <v>30649610.08493886</v>
+        <v>28797824.90465694</v>
       </c>
       <c r="I56" t="n">
-        <v>30712686.96956804</v>
+        <v>30698751.36708768</v>
       </c>
       <c r="J56" t="n">
-        <v>30597337.42855223</v>
+        <v>32368206.36065155</v>
       </c>
       <c r="K56" t="n">
-        <v>31727620.4748171</v>
+        <v>32434820.11569138</v>
       </c>
       <c r="L56" t="n">
-        <v>33453027.27726999</v>
+        <v>33821549.12672611</v>
       </c>
       <c r="M56" t="n">
-        <v>33521873.59329872</v>
+        <v>34481045.12369813</v>
       </c>
       <c r="N56" t="n">
-        <v>36709072.45834182</v>
+        <v>34952936.24701639</v>
       </c>
       <c r="O56" t="n">
-        <v>36571201.92088669</v>
+        <v>36853741.69866291</v>
       </c>
       <c r="P56" t="n">
-        <v>36433849.19234976</v>
+        <v>37143845.54909337</v>
       </c>
       <c r="Q56" t="n">
-        <v>39474277.98784353</v>
+        <v>39379742.16917583</v>
       </c>
       <c r="R56" t="n">
-        <v>39096527.95807382</v>
+        <v>41750229.96100675</v>
       </c>
       <c r="S56" t="n">
-        <v>38495094.92605934</v>
+        <v>44748862.48417281</v>
       </c>
       <c r="T56" t="n">
-        <v>39917125.6259816</v>
+        <v>47442547.77447629</v>
       </c>
       <c r="U56" t="n">
-        <v>40695481.00119893</v>
+        <v>47540184.51778858</v>
       </c>
     </row>
     <row r="57">
@@ -4078,64 +4078,64 @@
         <v>22561132</v>
       </c>
       <c r="B57" t="n">
-        <v>22476397.75894921</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C57" t="n">
-        <v>24482740.42388462</v>
+        <v>23568033.50823235</v>
       </c>
       <c r="D57" t="n">
-        <v>24248452.264724</v>
+        <v>24986725.77566057</v>
       </c>
       <c r="E57" t="n">
-        <v>24721279.72574399</v>
+        <v>26345550.23142361</v>
       </c>
       <c r="F57" t="n">
-        <v>24340985.23420559</v>
+        <v>26706102.85529404</v>
       </c>
       <c r="G57" t="n">
-        <v>25806205.80601485</v>
+        <v>28624218.96300641</v>
       </c>
       <c r="H57" t="n">
-        <v>28259812.9896074</v>
+        <v>28350298.82775428</v>
       </c>
       <c r="I57" t="n">
-        <v>29139450.74019958</v>
+        <v>28903109.36046551</v>
       </c>
       <c r="J57" t="n">
-        <v>31740566.98132716</v>
+        <v>30306878.22866691</v>
       </c>
       <c r="K57" t="n">
-        <v>33282145.75168582</v>
+        <v>32131219.39730449</v>
       </c>
       <c r="L57" t="n">
-        <v>34318112.68588529</v>
+        <v>33504968.16295923</v>
       </c>
       <c r="M57" t="n">
-        <v>34388739.34732012</v>
+        <v>33379131.47849147</v>
       </c>
       <c r="N57" t="n">
-        <v>35659078.93675207</v>
+        <v>33447825.71699748</v>
       </c>
       <c r="O57" t="n">
-        <v>36769032.21194354</v>
+        <v>33127745.9636903</v>
       </c>
       <c r="P57" t="n">
-        <v>36844702.8647294</v>
+        <v>36277471.88945171</v>
       </c>
       <c r="Q57" t="n">
-        <v>38419973.45920873</v>
+        <v>36984856.62223596</v>
       </c>
       <c r="R57" t="n">
-        <v>40062593.69292769</v>
+        <v>37060971.44156718</v>
       </c>
       <c r="S57" t="n">
-        <v>41775443.05460499</v>
+        <v>40153734.00324494</v>
       </c>
       <c r="T57" t="n">
-        <v>42832906.75295217</v>
+        <v>40469814.60474123</v>
       </c>
       <c r="U57" t="n">
-        <v>42672036.55168252</v>
+        <v>40317819.61503951</v>
       </c>
     </row>
     <row r="58">
@@ -4143,64 +4143,64 @@
         <v>22561132</v>
       </c>
       <c r="B58" t="n">
-        <v>22476397.75894921</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C58" t="n">
-        <v>23176016.25866709</v>
+        <v>26197221.37797952</v>
       </c>
       <c r="D58" t="n">
-        <v>22819492.99543986</v>
+        <v>27012657.23713279</v>
       </c>
       <c r="E58" t="n">
-        <v>24989128.94891664</v>
+        <v>28952791.04248082</v>
       </c>
       <c r="F58" t="n">
-        <v>24604714.05644167</v>
+        <v>30527297.47779146</v>
       </c>
       <c r="G58" t="n">
-        <v>24226212.72781514</v>
+        <v>33252299.05641328</v>
       </c>
       <c r="H58" t="n">
-        <v>26107060.76842955</v>
+        <v>35640583.51649246</v>
       </c>
       <c r="I58" t="n">
-        <v>26767909.99023366</v>
+        <v>36335549.3819176</v>
       </c>
       <c r="J58" t="n">
-        <v>28846087.52553901</v>
+        <v>37677805.24123877</v>
       </c>
       <c r="K58" t="n">
-        <v>28402339.94005406</v>
+        <v>39507744.34433582</v>
       </c>
       <c r="L58" t="n">
-        <v>29616662.96190702</v>
+        <v>40507805.68164127</v>
       </c>
       <c r="M58" t="n">
-        <v>32432561.49203644</v>
+        <v>40591170.72865105</v>
       </c>
       <c r="N58" t="n">
-        <v>32687862.8680838</v>
+        <v>40674707.3408924</v>
       </c>
       <c r="O58" t="n">
-        <v>34655528.87099855</v>
+        <v>42177254.16303173</v>
       </c>
       <c r="P58" t="n">
-        <v>37144597.69953324</v>
+        <v>44470931.41183268</v>
       </c>
       <c r="Q58" t="n">
-        <v>39596489.42875785</v>
+        <v>44820995.95996702</v>
       </c>
       <c r="R58" t="n">
-        <v>40138388.08087133</v>
+        <v>47779601.95104048</v>
       </c>
       <c r="S58" t="n">
-        <v>41854477.98084236</v>
+        <v>49544607.62085246</v>
       </c>
       <c r="T58" t="n">
-        <v>44373934.01640531</v>
+        <v>53103056.80539934</v>
       </c>
       <c r="U58" t="n">
-        <v>47045050.25707319</v>
+        <v>52903614.36537094</v>
       </c>
     </row>
     <row r="59">
@@ -4208,64 +4208,64 @@
         <v>22561132</v>
       </c>
       <c r="B59" t="n">
-        <v>23001057.92371826</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C59" t="n">
-        <v>24251898.08163984</v>
+        <v>24121225.66511808</v>
       </c>
       <c r="D59" t="n">
-        <v>25852750.74951294</v>
+        <v>23750161.97620855</v>
       </c>
       <c r="E59" t="n">
-        <v>26206559.15492204</v>
+        <v>24627506.46706294</v>
       </c>
       <c r="F59" t="n">
-        <v>27174644.35458732</v>
+        <v>24391832.96585408</v>
       </c>
       <c r="G59" t="n">
-        <v>29758360.19027393</v>
+        <v>25860114.34813278</v>
       </c>
       <c r="H59" t="n">
-        <v>31376674.96880878</v>
+        <v>28318847.05801121</v>
       </c>
       <c r="I59" t="n">
-        <v>31806081.16412295</v>
+        <v>30846712.58537964</v>
       </c>
       <c r="J59" t="n">
-        <v>33720667.77521946</v>
+        <v>32344878.55339626</v>
       </c>
       <c r="K59" t="n">
-        <v>35750504.10452159</v>
+        <v>34667989.22556876</v>
       </c>
       <c r="L59" t="n">
-        <v>38110372.58495443</v>
+        <v>36553298.73009454</v>
       </c>
       <c r="M59" t="n">
-        <v>40847579.12992325</v>
+        <v>38541134.8595344</v>
       </c>
       <c r="N59" t="n">
-        <v>44731292.7738013</v>
+        <v>40861142.16875817</v>
       </c>
       <c r="O59" t="n">
-        <v>45863578.03111397</v>
+        <v>44508588.42551119</v>
       </c>
       <c r="P59" t="n">
-        <v>49424284.02525994</v>
+        <v>44082662.44383972</v>
       </c>
       <c r="Q59" t="n">
-        <v>50675363.18449704</v>
+        <v>44429670.63141402</v>
       </c>
       <c r="R59" t="n">
-        <v>49895809.63024867</v>
+        <v>47362445.48159651</v>
       </c>
       <c r="S59" t="n">
-        <v>54059647.92176078</v>
+        <v>49112041.15417741</v>
       </c>
       <c r="T59" t="n">
-        <v>56685221.86372207</v>
+        <v>48642062.32356384</v>
       </c>
       <c r="U59" t="n">
-        <v>57131434.38834526</v>
+        <v>51570101.17186643</v>
       </c>
     </row>
     <row r="60">
@@ -4273,64 +4273,64 @@
         <v>22561132</v>
       </c>
       <c r="B60" t="n">
-        <v>24443873.37683315</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C60" t="n">
-        <v>24209957.1567916</v>
+        <v>22910858.61427374</v>
       </c>
       <c r="D60" t="n">
-        <v>24963535.82566548</v>
+        <v>23357603.95662016</v>
       </c>
       <c r="E60" t="n">
-        <v>27191891.43370478</v>
+        <v>25171015.90543938</v>
       </c>
       <c r="F60" t="n">
-        <v>28038288.19591573</v>
+        <v>26393524.11617844</v>
       </c>
       <c r="G60" t="n">
-        <v>29726070.19272829</v>
+        <v>28902972.45812279</v>
       </c>
       <c r="H60" t="n">
-        <v>31861089.8309215</v>
+        <v>30642804.65573515</v>
       </c>
       <c r="I60" t="n">
-        <v>32297125.49679302</v>
+        <v>32309217.16344922</v>
       </c>
       <c r="J60" t="n">
-        <v>33677967.46661685</v>
+        <v>33690576.10438262</v>
       </c>
       <c r="K60" t="n">
-        <v>34726255.06702474</v>
+        <v>35718601.04705738</v>
       </c>
       <c r="L60" t="n">
-        <v>34393941.35404438</v>
+        <v>36415088.19848003</v>
       </c>
       <c r="M60" t="n">
-        <v>36064389.45446891</v>
+        <v>39877368.65406417</v>
       </c>
       <c r="N60" t="n">
-        <v>38444977.31109977</v>
+        <v>41350461.33164084</v>
       </c>
       <c r="O60" t="n">
-        <v>38524097.05819291</v>
+        <v>45041586.38086723</v>
       </c>
       <c r="P60" t="n">
-        <v>39275289.37353139</v>
+        <v>46443587.15637624</v>
       </c>
       <c r="Q60" t="n">
-        <v>39812792.23502059</v>
+        <v>49509299.38040908</v>
       </c>
       <c r="R60" t="n">
-        <v>41746423.58238479</v>
+        <v>49323354.23776484</v>
       </c>
       <c r="S60" t="n">
-        <v>42317745.207009</v>
+        <v>52579158.09089719</v>
       </c>
       <c r="T60" t="n">
-        <v>46341239.57165349</v>
+        <v>54215779.40782225</v>
       </c>
       <c r="U60" t="n">
-        <v>46706026.73881228</v>
+        <v>54327355.45897955</v>
       </c>
     </row>
     <row r="61">
@@ -4338,64 +4338,64 @@
         <v>22561132</v>
       </c>
       <c r="B61" t="n">
-        <v>23525718.08848731</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C61" t="n">
-        <v>23710906.92107359</v>
+        <v>24625613.83672586</v>
       </c>
       <c r="D61" t="n">
-        <v>24724650.86625706</v>
+        <v>26823805.03358591</v>
       </c>
       <c r="E61" t="n">
-        <v>26212966.42667788</v>
+        <v>26411166.79602131</v>
       </c>
       <c r="F61" t="n">
-        <v>27790872.05732345</v>
+        <v>26772617.41687139</v>
       </c>
       <c r="G61" t="n">
-        <v>28655913.17392564</v>
+        <v>27917262.74374183</v>
       </c>
       <c r="H61" t="n">
-        <v>31047268.06797474</v>
+        <v>28461629.38280169</v>
       </c>
       <c r="I61" t="n">
-        <v>33277180.28333345</v>
+        <v>31002240.29193005</v>
       </c>
       <c r="J61" t="n">
-        <v>32765267.93510242</v>
+        <v>31426522.15300064</v>
       </c>
       <c r="K61" t="n">
-        <v>33975635.56724852</v>
+        <v>32039316.83845397</v>
       </c>
       <c r="L61" t="n">
-        <v>35428241.11096337</v>
+        <v>35085556.89959096</v>
       </c>
       <c r="M61" t="n">
-        <v>36531009.14165579</v>
+        <v>36585616.38650746</v>
       </c>
       <c r="N61" t="n">
-        <v>37030955.09393083</v>
+        <v>38787910.05893046</v>
       </c>
       <c r="O61" t="n">
-        <v>36891875.64192149</v>
+        <v>39093239.22062735</v>
       </c>
       <c r="P61" t="n">
-        <v>38040201.9424784</v>
+        <v>40082808.17080174</v>
       </c>
       <c r="Q61" t="n">
-        <v>39887741.96182272</v>
+        <v>39466202.90918689</v>
       </c>
       <c r="R61" t="n">
-        <v>40665524.37662311</v>
+        <v>42071342.35045082</v>
       </c>
       <c r="S61" t="n">
-        <v>44295508.92413828</v>
+        <v>42157925.15526562</v>
       </c>
       <c r="T61" t="n">
-        <v>44901716.11389077</v>
+        <v>42979974.51723803</v>
       </c>
       <c r="U61" t="n">
-        <v>47604602.52241454</v>
+        <v>43318302.60888215</v>
       </c>
     </row>
     <row r="62">
@@ -4403,64 +4403,64 @@
         <v>22561132</v>
       </c>
       <c r="B62" t="n">
-        <v>24706203.45921767</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C62" t="n">
-        <v>27055224.41729694</v>
+        <v>24393246.36994114</v>
       </c>
       <c r="D62" t="n">
-        <v>26639026.18939862</v>
+        <v>24585264.17790976</v>
       </c>
       <c r="E62" t="n">
-        <v>27932832.85834578</v>
+        <v>24349994.91527849</v>
       </c>
       <c r="F62" t="n">
-        <v>27665528.95865085</v>
+        <v>24824802.38529545</v>
       </c>
       <c r="G62" t="n">
-        <v>29170031.69615053</v>
+        <v>25597519.22305822</v>
       </c>
       <c r="H62" t="n">
-        <v>31943465.33662067</v>
+        <v>27733649.120509</v>
       </c>
       <c r="I62" t="n">
-        <v>32752051.73386689</v>
+        <v>29886803.64752702</v>
       </c>
       <c r="J62" t="n">
-        <v>33390693.29727291</v>
+        <v>32380877.16513629</v>
       </c>
       <c r="K62" t="n">
-        <v>33265285.80199721</v>
+        <v>32071007.60104023</v>
       </c>
       <c r="L62" t="n">
-        <v>33527142.18487785</v>
+        <v>32137009.72115811</v>
       </c>
       <c r="M62" t="n">
-        <v>34375816.26652651</v>
+        <v>31642636.94163144</v>
       </c>
       <c r="N62" t="n">
-        <v>36245236.86405328</v>
+        <v>31523794.72989778</v>
       </c>
       <c r="O62" t="n">
-        <v>39480646.99965145</v>
+        <v>32138486.16096848</v>
       </c>
       <c r="P62" t="n">
-        <v>40709553.48715965</v>
+        <v>34820464.07253936</v>
       </c>
       <c r="Q62" t="n">
-        <v>44580143.90358032</v>
+        <v>35094562.44723942</v>
       </c>
       <c r="R62" t="n">
-        <v>45967781.44806238</v>
+        <v>36595006.96031421</v>
       </c>
       <c r="S62" t="n">
-        <v>45260645.96531734</v>
+        <v>38797865.90410115</v>
       </c>
       <c r="T62" t="n">
-        <v>47195734.57053867</v>
+        <v>38201027.27558104</v>
       </c>
       <c r="U62" t="n">
-        <v>48939171.84725144</v>
+        <v>39612194.94924925</v>
       </c>
     </row>
     <row r="63">
@@ -4468,64 +4468,64 @@
         <v>22561132</v>
       </c>
       <c r="B63" t="n">
-        <v>23394553.04729505</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C63" t="n">
-        <v>23714719.73242343</v>
+        <v>24352068.00736287</v>
       </c>
       <c r="D63" t="n">
-        <v>25555857.04280612</v>
+        <v>25534801.48142355</v>
       </c>
       <c r="E63" t="n">
-        <v>26797056.25322625</v>
+        <v>27368791.04905704</v>
       </c>
       <c r="F63" t="n">
-        <v>26540621.19441367</v>
+        <v>28379809.75588897</v>
       </c>
       <c r="G63" t="n">
-        <v>27058144.30872411</v>
+        <v>29758162.96086586</v>
       </c>
       <c r="H63" t="n">
-        <v>26799210.76163602</v>
+        <v>31895487.60237009</v>
       </c>
       <c r="I63" t="n">
-        <v>28412405.73046665</v>
+        <v>33073725.05435403</v>
       </c>
       <c r="J63" t="n">
-        <v>28966427.30332183</v>
+        <v>33910921.7674656</v>
       </c>
       <c r="K63" t="n">
-        <v>28520828.49673864</v>
+        <v>35360760.51601238</v>
       </c>
       <c r="L63" t="n">
-        <v>29906030.71286409</v>
+        <v>38311639.35222434</v>
       </c>
       <c r="M63" t="n">
-        <v>31706242.61883372</v>
+        <v>41508770.97765616</v>
       </c>
       <c r="N63" t="n">
-        <v>34720814.58803683</v>
+        <v>42318162.29785919</v>
       </c>
       <c r="O63" t="n">
-        <v>36810855.36965957</v>
+        <v>43143336.16940716</v>
       </c>
       <c r="P63" t="n">
-        <v>37528640.69848777</v>
+        <v>46242025.95186581</v>
       </c>
       <c r="Q63" t="n">
-        <v>37169509.49042777</v>
+        <v>46874872.24444935</v>
       </c>
       <c r="R63" t="n">
-        <v>38974761.63884708</v>
+        <v>48061418.02682144</v>
       </c>
       <c r="S63" t="n">
-        <v>39054971.6818633</v>
+        <v>51233922.25766551</v>
       </c>
       <c r="T63" t="n">
-        <v>39362403.08885589</v>
+        <v>54615841.51428153</v>
       </c>
       <c r="U63" t="n">
-        <v>39901098.14706746</v>
+        <v>58538522.62999672</v>
       </c>
     </row>
     <row r="64">
@@ -4533,64 +4533,64 @@
         <v>22561132</v>
       </c>
       <c r="B64" t="n">
-        <v>23656883.12967957</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C64" t="n">
-        <v>25493530.18555287</v>
+        <v>25352181.89725156</v>
       </c>
       <c r="D64" t="n">
-        <v>25101355.94510133</v>
+        <v>26583488.99450871</v>
       </c>
       <c r="E64" t="n">
-        <v>25007081.22762022</v>
+        <v>27410948.13129143</v>
       </c>
       <c r="F64" t="n">
-        <v>24767775.37683059</v>
+        <v>27467359.85098582</v>
       </c>
       <c r="G64" t="n">
-        <v>25538717.14589537</v>
+        <v>28162642.38560526</v>
       </c>
       <c r="H64" t="n">
-        <v>25591275.81501137</v>
+        <v>29857909.95932322</v>
       </c>
       <c r="I64" t="n">
-        <v>26685413.6728902</v>
+        <v>30960878.13433945</v>
       </c>
       <c r="J64" t="n">
-        <v>28136615.92469536</v>
+        <v>33184585.55358291</v>
       </c>
       <c r="K64" t="n">
-        <v>29339578.09423861</v>
+        <v>36146788.41760027</v>
       </c>
       <c r="L64" t="n">
-        <v>30423398.79536721</v>
+        <v>37061773.7240035</v>
       </c>
       <c r="M64" t="n">
-        <v>31547256.44959794</v>
+        <v>37353515.15283938</v>
       </c>
       <c r="N64" t="n">
-        <v>31245364.2385065</v>
+        <v>37213224.24203511</v>
       </c>
       <c r="O64" t="n">
-        <v>32217932.66722542</v>
+        <v>37938855.47584075</v>
       </c>
       <c r="P64" t="n">
-        <v>35281155.19699308</v>
+        <v>41325445.49868775</v>
       </c>
       <c r="Q64" t="n">
-        <v>34943531.35419402</v>
+        <v>40689724.39290878</v>
       </c>
       <c r="R64" t="n">
-        <v>38265898.85739197</v>
+        <v>41246584.53686317</v>
       </c>
       <c r="S64" t="n">
-        <v>40791806.97675662</v>
+        <v>41811065.60291894</v>
       </c>
       <c r="T64" t="n">
-        <v>40875756.49831197</v>
+        <v>44084828.839161</v>
       </c>
       <c r="U64" t="n">
-        <v>40722236.88749362</v>
+        <v>44431854.08008172</v>
       </c>
     </row>
     <row r="65">
@@ -4598,64 +4598,64 @@
         <v>22561132</v>
       </c>
       <c r="B65" t="n">
-        <v>23788048.17087183</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C65" t="n">
-        <v>24666792.19930413</v>
+        <v>23311264.04880865</v>
       </c>
       <c r="D65" t="n">
-        <v>27012066.00636224</v>
+        <v>23223712.49035358</v>
       </c>
       <c r="E65" t="n">
-        <v>27538781.95702408</v>
+        <v>24621678.14241074</v>
       </c>
       <c r="F65" t="n">
-        <v>27435352.84767834</v>
+        <v>25101783.2408736</v>
       </c>
       <c r="G65" t="n">
-        <v>28448830.38520709</v>
+        <v>26612800.51645781</v>
       </c>
       <c r="H65" t="n">
-        <v>28507378.06614234</v>
+        <v>28524215.35742307</v>
       </c>
       <c r="I65" t="n">
-        <v>30886337.60727493</v>
+        <v>29246250.12375422</v>
       </c>
       <c r="J65" t="n">
-        <v>33284257.09320844</v>
+        <v>29986561.78910812</v>
       </c>
       <c r="K65" t="n">
-        <v>34513796.4800202</v>
+        <v>29699604.68220384</v>
       </c>
       <c r="L65" t="n">
-        <v>34183515.89447515</v>
+        <v>32178056.32243061</v>
       </c>
       <c r="M65" t="n">
-        <v>37234887.6984501</v>
+        <v>31683052.11133837</v>
       </c>
       <c r="N65" t="n">
-        <v>38610365.62666557</v>
+        <v>34142826.04108166</v>
       </c>
       <c r="O65" t="n">
-        <v>38016411.36835047</v>
+        <v>34610088.45949116</v>
       </c>
       <c r="P65" t="n">
-        <v>39862795.924907</v>
+        <v>36894678.81440634</v>
       </c>
       <c r="Q65" t="n">
-        <v>41335350.27758064</v>
+        <v>38686582.96132816</v>
       </c>
       <c r="R65" t="n">
-        <v>43102615.49461427</v>
+        <v>41240260.17603748</v>
       </c>
       <c r="S65" t="n">
-        <v>42690144.0039069</v>
+        <v>44442026.10693228</v>
       </c>
       <c r="T65" t="n">
-        <v>42033429.35208569</v>
+        <v>43758361.75343719</v>
       </c>
       <c r="U65" t="n">
-        <v>43586168.13806582</v>
+        <v>45883621.88330373</v>
       </c>
     </row>
     <row r="66">
@@ -4663,64 +4663,64 @@
         <v>22561132</v>
       </c>
       <c r="B66" t="n">
-        <v>23919213.21206409</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C66" t="n">
-        <v>25776226.76215548</v>
+        <v>26767952.46707452</v>
       </c>
       <c r="D66" t="n">
-        <v>25979131.06138275</v>
+        <v>28534888.31581363</v>
       </c>
       <c r="E66" t="n">
-        <v>25579486.684263</v>
+        <v>30750248.5696402</v>
       </c>
       <c r="F66" t="n">
-        <v>25334703.18602017</v>
+        <v>30277208.73213159</v>
       </c>
       <c r="G66" t="n">
-        <v>26565161.37562601</v>
+        <v>32275788.39840843</v>
       </c>
       <c r="H66" t="n">
-        <v>27700937.05839534</v>
+        <v>32529855.69411526</v>
       </c>
       <c r="I66" t="n">
-        <v>30012598.56442668</v>
+        <v>33731527.06419306</v>
       </c>
       <c r="J66" t="n">
-        <v>30074364.47961528</v>
+        <v>34585374.74962814</v>
       </c>
       <c r="K66" t="n">
-        <v>29611721.9596892</v>
+        <v>36265120.4047795</v>
       </c>
       <c r="L66" t="n">
-        <v>29156196.40149937</v>
+        <v>36128917.24555351</v>
       </c>
       <c r="M66" t="n">
-        <v>31928314.60727917</v>
+        <v>38723809.45047011</v>
       </c>
       <c r="N66" t="n">
-        <v>31994023.06527607</v>
+        <v>41505074.95601381</v>
       </c>
       <c r="O66" t="n">
-        <v>34105928.57500669</v>
+        <v>43520897.24589214</v>
       </c>
       <c r="P66" t="n">
-        <v>34572686.03230926</v>
+        <v>44875563.82387722</v>
       </c>
       <c r="Q66" t="n">
-        <v>37457799.53199048</v>
+        <v>45228813.54169399</v>
       </c>
       <c r="R66" t="n">
-        <v>37099346.24013611</v>
+        <v>44795995.34886764</v>
       </c>
       <c r="S66" t="n">
-        <v>40410997.95590804</v>
+        <v>48794684.00220831</v>
       </c>
       <c r="T66" t="n">
-        <v>39789344.05729544</v>
+        <v>49746145.41080305</v>
       </c>
       <c r="U66" t="n">
-        <v>40333882.02579192</v>
+        <v>49559310.73085051</v>
       </c>
     </row>
     <row r="67">
@@ -4728,64 +4728,64 @@
         <v>22561132</v>
       </c>
       <c r="B67" t="n">
-        <v>23001057.92371826</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C67" t="n">
-        <v>24118175.41603821</v>
+        <v>23968438.94276726</v>
       </c>
       <c r="D67" t="n">
-        <v>24027593.29057536</v>
+        <v>25550580.64966033</v>
       </c>
       <c r="E67" t="n">
-        <v>26032711.83134205</v>
+        <v>26642978.6129999</v>
       </c>
       <c r="F67" t="n">
-        <v>25783591.18441587</v>
+        <v>28866352.78752162</v>
       </c>
       <c r="G67" t="n">
-        <v>27185750.65794354</v>
+        <v>30603980.64154717</v>
       </c>
       <c r="H67" t="n">
-        <v>29138316.57592122</v>
+        <v>30311115.13044203</v>
       </c>
       <c r="I67" t="n">
-        <v>30214702.56209952</v>
+        <v>30725938.58247548</v>
       </c>
       <c r="J67" t="n">
-        <v>32736139.46084961</v>
+        <v>33111405.18545529</v>
       </c>
       <c r="K67" t="n">
-        <v>33184150.63823317</v>
+        <v>35682072.01913457</v>
       </c>
       <c r="L67" t="n">
-        <v>33445368.34448755</v>
+        <v>38867211.57010125</v>
       </c>
       <c r="M67" t="n">
-        <v>35264189.45960786</v>
+        <v>38947200.27512135</v>
       </c>
       <c r="N67" t="n">
-        <v>38001991.78942916</v>
+        <v>40385932.00376429</v>
       </c>
       <c r="O67" t="n">
-        <v>37417396.31923764</v>
+        <v>43521370.54428589</v>
       </c>
       <c r="P67" t="n">
-        <v>39017152.03880671</v>
+        <v>42851868.89769606</v>
       </c>
       <c r="Q67" t="n">
-        <v>41592649.91216371</v>
+        <v>43936580.21258063</v>
       </c>
       <c r="R67" t="n">
-        <v>42403676.8115453</v>
+        <v>44282438.47572896</v>
       </c>
       <c r="S67" t="n">
-        <v>46435341.39709606</v>
+        <v>46690599.54900794</v>
       </c>
       <c r="T67" t="n">
-        <v>48690617.3199941</v>
+        <v>47329584.80570603</v>
       </c>
       <c r="U67" t="n">
-        <v>48507746.9522792</v>
+        <v>50453781.18202601</v>
       </c>
     </row>
     <row r="68">
@@ -4793,64 +4793,64 @@
         <v>22561132</v>
       </c>
       <c r="B68" t="n">
-        <v>23001057.92371826</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C68" t="n">
-        <v>25187956.74085121</v>
+        <v>23568033.50823235</v>
       </c>
       <c r="D68" t="n">
-        <v>26557724.50944414</v>
+        <v>24986725.77566057</v>
       </c>
       <c r="E68" t="n">
-        <v>26921180.84919776</v>
+        <v>26055016.50150046</v>
       </c>
       <c r="F68" t="n">
-        <v>28072177.90611791</v>
+        <v>27017503.62936134</v>
       </c>
       <c r="G68" t="n">
-        <v>28782770.22779506</v>
+        <v>29115058.8409208</v>
       </c>
       <c r="H68" t="n">
-        <v>30180694.45395596</v>
+        <v>29344245.62863758</v>
       </c>
       <c r="I68" t="n">
-        <v>32699293.35360432</v>
+        <v>29745836.96622461</v>
       </c>
       <c r="J68" t="n">
-        <v>33527012.05997074</v>
+        <v>32055211.51861281</v>
       </c>
       <c r="K68" t="n">
-        <v>35155355.05887228</v>
+        <v>33425710.61831986</v>
       </c>
       <c r="L68" t="n">
-        <v>38089092.67392632</v>
+        <v>35437791.82021308</v>
       </c>
       <c r="M68" t="n">
-        <v>38610361.8136404</v>
+        <v>38395098.96967324</v>
       </c>
       <c r="N68" t="n">
-        <v>41607950.58991745</v>
+        <v>40706315.55871916</v>
       </c>
       <c r="O68" t="n">
-        <v>43870668.05531795</v>
+        <v>40316775.51649579</v>
       </c>
       <c r="P68" t="n">
-        <v>48041811.50424927</v>
+        <v>41102923.77849063</v>
       </c>
       <c r="Q68" t="n">
-        <v>51213021.5207658</v>
+        <v>43816102.14360984</v>
       </c>
       <c r="R68" t="n">
-        <v>55486782.01513249</v>
+        <v>45434693.87637015</v>
       </c>
       <c r="S68" t="n">
-        <v>56246147.62602115</v>
+        <v>49754542.06007358</v>
       </c>
       <c r="T68" t="n">
-        <v>56361902.17411524</v>
+        <v>52460286.26775904</v>
       </c>
       <c r="U68" t="n">
-        <v>61065340.16207741</v>
+        <v>54093207.48436311</v>
       </c>
     </row>
     <row r="69">
@@ -4858,64 +4858,64 @@
         <v>22561132</v>
       </c>
       <c r="B69" t="n">
-        <v>23656883.12967957</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C69" t="n">
-        <v>25906136.61640726</v>
+        <v>24778400.55907669</v>
       </c>
       <c r="D69" t="n">
-        <v>25808839.33430504</v>
+        <v>26990230.17446695</v>
       </c>
       <c r="E69" t="n">
-        <v>27362418.28615464</v>
+        <v>28458008.91254651</v>
       </c>
       <c r="F69" t="n">
-        <v>26941494.40742202</v>
+        <v>29840160.10134121</v>
       </c>
       <c r="G69" t="n">
-        <v>29346411.34591176</v>
+        <v>31809890.46006135</v>
       </c>
       <c r="H69" t="n">
-        <v>31795388.76878726</v>
+        <v>32984965.90492665</v>
       </c>
       <c r="I69" t="n">
-        <v>34448734.97621567</v>
+        <v>35354049.65920573</v>
       </c>
       <c r="J69" t="n">
-        <v>35921567.56830563</v>
+        <v>35221268.26481715</v>
       </c>
       <c r="K69" t="n">
-        <v>38919246.12368825</v>
+        <v>38365274.43478725</v>
       </c>
       <c r="L69" t="n">
-        <v>40130677.99436533</v>
+        <v>38890323.26623936</v>
       </c>
       <c r="M69" t="n">
-        <v>43246299.40503544</v>
+        <v>41005251.12117954</v>
       </c>
       <c r="N69" t="n">
-        <v>42581029.25617545</v>
+        <v>40851245.15938425</v>
       </c>
       <c r="O69" t="n">
-        <v>44896664.5428609</v>
+        <v>43310310.97843908</v>
       </c>
       <c r="P69" t="n">
-        <v>48382302.371782</v>
+        <v>45917401.77638625</v>
       </c>
       <c r="Q69" t="n">
-        <v>49325722.63378491</v>
+        <v>49749239.30302606</v>
       </c>
       <c r="R69" t="n">
-        <v>52008146.8463346</v>
+        <v>51297774.28343371</v>
       </c>
       <c r="S69" t="n">
-        <v>56348261.07464586</v>
+        <v>51999811.13421638</v>
       </c>
       <c r="T69" t="n">
-        <v>60395369.99931754</v>
+        <v>54827657.23532741</v>
       </c>
       <c r="U69" t="n">
-        <v>63679782.15106375</v>
+        <v>59084306.54494668</v>
       </c>
     </row>
     <row r="70">
@@ -4923,64 +4923,64 @@
         <v>22561132</v>
       </c>
       <c r="B70" t="n">
-        <v>22476397.75894921</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C70" t="n">
-        <v>22653326.59258008</v>
+        <v>23163815.2623476</v>
       </c>
       <c r="D70" t="n">
-        <v>23358452.32199149</v>
+        <v>24692844.26189309</v>
       </c>
       <c r="E70" t="n">
-        <v>24492927.77824912</v>
+        <v>24887220.43289433</v>
       </c>
       <c r="F70" t="n">
-        <v>26821670.87189362</v>
+        <v>24793749.9574215</v>
       </c>
       <c r="G70" t="n">
-        <v>29371826.62985067</v>
+        <v>25277210.33310027</v>
       </c>
       <c r="H70" t="n">
-        <v>30115317.01903973</v>
+        <v>26945743.22326475</v>
       </c>
       <c r="I70" t="n">
-        <v>30702544.14300094</v>
+        <v>27784478.17758535</v>
       </c>
       <c r="J70" t="n">
-        <v>30230238.156283</v>
+        <v>29133917.26382653</v>
       </c>
       <c r="K70" t="n">
-        <v>32577220.11513743</v>
+        <v>31565161.91510731</v>
       </c>
       <c r="L70" t="n">
-        <v>34159433.5316886</v>
+        <v>32914709.27222405</v>
       </c>
       <c r="M70" t="n">
-        <v>37208655.63745794</v>
+        <v>34896030.43390863</v>
       </c>
       <c r="N70" t="n">
-        <v>38150520.03730362</v>
+        <v>37808127.23761284</v>
       </c>
       <c r="O70" t="n">
-        <v>39116225.89372703</v>
+        <v>38325551.21849023</v>
       </c>
       <c r="P70" t="n">
-        <v>39424139.47924201</v>
+        <v>40186950.10766178</v>
       </c>
       <c r="Q70" t="n">
-        <v>41338894.70389228</v>
+        <v>42839665.622009</v>
       </c>
       <c r="R70" t="n">
-        <v>43586980.41156747</v>
+        <v>46663723.63214016</v>
       </c>
       <c r="S70" t="n">
-        <v>46717534.11560213</v>
+        <v>50829133.97199948</v>
       </c>
       <c r="T70" t="n">
-        <v>49801329.40756871</v>
+        <v>55661875.72361405</v>
       </c>
       <c r="U70" t="n">
-        <v>53957283.26205292</v>
+        <v>58688871.68402776</v>
       </c>
     </row>
     <row r="71">
@@ -4988,64 +4988,64 @@
         <v>22561132</v>
       </c>
       <c r="B71" t="n">
-        <v>24181543.29444862</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C71" t="n">
-        <v>24512480.35241337</v>
+        <v>23574134.0063921</v>
       </c>
       <c r="D71" t="n">
-        <v>24990456.17214002</v>
+        <v>23759703.95751774</v>
       </c>
       <c r="E71" t="n">
-        <v>25187175.07300036</v>
+        <v>23394201.66006922</v>
       </c>
       <c r="F71" t="n">
-        <v>26556900.33304689</v>
+        <v>23850371.84580977</v>
       </c>
       <c r="G71" t="n">
-        <v>27846718.30586509</v>
+        <v>25979361.5140839</v>
       </c>
       <c r="H71" t="n">
-        <v>30170545.35334964</v>
+        <v>25579713.59184458</v>
       </c>
       <c r="I71" t="n">
-        <v>31285062.45762665</v>
+        <v>26375928.4051909</v>
       </c>
       <c r="J71" t="n">
-        <v>33713937.70465884</v>
+        <v>28116986.99008764</v>
       </c>
       <c r="K71" t="n">
-        <v>34175330.56203482</v>
+        <v>30299902.68072587</v>
       </c>
       <c r="L71" t="n">
-        <v>34444350.59986018</v>
+        <v>32476136.76882669</v>
       </c>
       <c r="M71" t="n">
-        <v>33914483.33800872</v>
+        <v>33487015.21681076</v>
       </c>
       <c r="N71" t="n">
-        <v>35955986.51427711</v>
+        <v>33750617.00067449</v>
       </c>
       <c r="O71" t="n">
-        <v>36029983.91936005</v>
+        <v>35978474.18059546</v>
       </c>
       <c r="P71" t="n">
-        <v>35894663.87679838</v>
+        <v>35425007.05847926</v>
       </c>
       <c r="Q71" t="n">
-        <v>38055365.23807918</v>
+        <v>37763389.6818964</v>
       </c>
       <c r="R71" t="n">
-        <v>38133683.16369034</v>
+        <v>41353864.19398876</v>
       </c>
       <c r="S71" t="n">
-        <v>39764063.24756549</v>
+        <v>44324028.4840179</v>
       </c>
       <c r="T71" t="n">
-        <v>43082400.60702077</v>
+        <v>44415247.31594558</v>
       </c>
       <c r="U71" t="n">
-        <v>46427184.60925337</v>
+        <v>47347070.09206899</v>
       </c>
     </row>
     <row r="72">
@@ -5053,64 +5053,64 @@
         <v>22561132</v>
       </c>
       <c r="B72" t="n">
-        <v>22869892.88252599</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C72" t="n">
-        <v>23714719.73242343</v>
+        <v>26482968.203662</v>
       </c>
       <c r="D72" t="n">
-        <v>25004370.14213707</v>
+        <v>27307298.44916789</v>
       </c>
       <c r="E72" t="n">
-        <v>25201198.57044523</v>
+        <v>26887222.49459669</v>
       </c>
       <c r="F72" t="n">
-        <v>26132145.17834021</v>
+        <v>26942556.38715163</v>
       </c>
       <c r="G72" t="n">
-        <v>27401333.60381978</v>
+        <v>27781192.14543894</v>
       </c>
       <c r="H72" t="n">
-        <v>29369383.36544451</v>
+        <v>27353826.1490792</v>
       </c>
       <c r="I72" t="n">
-        <v>29429825.54402487</v>
+        <v>29159435.15419216</v>
       </c>
       <c r="J72" t="n">
-        <v>29832588.08748054</v>
+        <v>30067075.2704592</v>
       </c>
       <c r="K72" t="n">
-        <v>30587741.75249422</v>
+        <v>30303756.10407614</v>
       </c>
       <c r="L72" t="n">
-        <v>30472861.47597018</v>
+        <v>30542300.03267314</v>
       </c>
       <c r="M72" t="n">
-        <v>31775708.25937279</v>
+        <v>31315418.66857518</v>
       </c>
       <c r="N72" t="n">
-        <v>31656366.26344769</v>
+        <v>31561926.16319751</v>
       </c>
       <c r="O72" t="n">
-        <v>32457685.30873998</v>
+        <v>32544348.1539149</v>
       </c>
       <c r="P72" t="n">
-        <v>34034093.1478429</v>
+        <v>34692580.27954088</v>
       </c>
       <c r="Q72" t="n">
-        <v>35687064.10756108</v>
+        <v>35570755.14891706</v>
       </c>
       <c r="R72" t="n">
-        <v>35967984.15070932</v>
+        <v>36264359.41116078</v>
       </c>
       <c r="S72" t="n">
-        <v>37505771.22374741</v>
+        <v>37393153.13498446</v>
       </c>
       <c r="T72" t="n">
-        <v>37582958.08510886</v>
+        <v>40731031.35353982</v>
       </c>
       <c r="U72" t="n">
-        <v>39626788.99854966</v>
+        <v>42235658.81673955</v>
       </c>
     </row>
     <row r="73">
@@ -5118,64 +5118,64 @@
         <v>22561132</v>
       </c>
       <c r="B73" t="n">
-        <v>22607562.80014147</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C73" t="n">
-        <v>23837003.96397554</v>
+        <v>25906136.61640726</v>
       </c>
       <c r="D73" t="n">
-        <v>23470312.53849732</v>
+        <v>26561899.83597301</v>
       </c>
       <c r="E73" t="n">
-        <v>25701827.23223029</v>
+        <v>28778507.93296406</v>
       </c>
       <c r="F73" t="n">
-        <v>25306448.69894546</v>
+        <v>30678159.29414022</v>
       </c>
       <c r="G73" t="n">
-        <v>25358529.35969559</v>
+        <v>33238271.9634937</v>
       </c>
       <c r="H73" t="n">
-        <v>27474715.39509209</v>
+        <v>33886394.47331894</v>
       </c>
       <c r="I73" t="n">
-        <v>28329915.56422226</v>
+        <v>36517229.07238328</v>
       </c>
       <c r="J73" t="n">
-        <v>29047032.01101248</v>
+        <v>38715406.12838581</v>
       </c>
       <c r="K73" t="n">
-        <v>31133280.99625202</v>
+        <v>38570000.27927939</v>
       </c>
       <c r="L73" t="n">
-        <v>31197353.2754127</v>
+        <v>38200903.75626756</v>
       </c>
       <c r="M73" t="n">
-        <v>34163540.96999376</v>
+        <v>39834157.81155778</v>
       </c>
       <c r="N73" t="n">
-        <v>36021417.64348371</v>
+        <v>42000413.13828788</v>
       </c>
       <c r="O73" t="n">
-        <v>38399168.95767045</v>
+        <v>42819391.12868347</v>
       </c>
       <c r="P73" t="n">
-        <v>38031707.20900062</v>
+        <v>44650105.5183792</v>
       </c>
       <c r="Q73" t="n">
-        <v>40542156.48370665</v>
+        <v>48635771.40025852</v>
       </c>
       <c r="R73" t="n">
-        <v>41804104.3722719</v>
+        <v>50432404.45645472</v>
       </c>
       <c r="S73" t="n">
-        <v>41647098.10783478</v>
+        <v>52295406.15954771</v>
       </c>
       <c r="T73" t="n">
-        <v>45122575.97094245</v>
+        <v>53011096.12394653</v>
       </c>
       <c r="U73" t="n">
-        <v>44953106.31715226</v>
+        <v>53428386.80848113</v>
       </c>
     </row>
     <row r="74">
@@ -5183,64 +5183,64 @@
         <v>22561132</v>
       </c>
       <c r="B74" t="n">
-        <v>24312708.33564088</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C74" t="n">
-        <v>25634878.47385417</v>
+        <v>26624316.49196331</v>
       </c>
       <c r="D74" t="n">
-        <v>25687635.04294256</v>
+        <v>26833896.75093815</v>
       </c>
       <c r="E74" t="n">
-        <v>26935234.45936816</v>
+        <v>27825156.1581866</v>
       </c>
       <c r="F74" t="n">
-        <v>27460452.24986313</v>
+        <v>29338339.7186353</v>
       </c>
       <c r="G74" t="n">
-        <v>28474856.9735834</v>
+        <v>28887019.67737302</v>
       </c>
       <c r="H74" t="n">
-        <v>28202366.16139496</v>
+        <v>31465602.80546641</v>
       </c>
       <c r="I74" t="n">
-        <v>27932482.95642985</v>
+        <v>32079159.53566711</v>
       </c>
       <c r="J74" t="n">
-        <v>30263467.12068886</v>
+        <v>34010184.26723627</v>
       </c>
       <c r="K74" t="n">
-        <v>31029527.64635272</v>
+        <v>37046083.72361168</v>
       </c>
       <c r="L74" t="n">
-        <v>32536572.5930298</v>
+        <v>37337701.64451275</v>
       </c>
       <c r="M74" t="n">
-        <v>34495131.58481945</v>
+        <v>40887702.5110663</v>
       </c>
       <c r="N74" t="n">
-        <v>37574319.58342249</v>
+        <v>41447272.08903681</v>
       </c>
       <c r="O74" t="n">
-        <v>40709921.38682763</v>
+        <v>45388003.4504163</v>
       </c>
       <c r="P74" t="n">
-        <v>44107191.23315471</v>
+        <v>47592412.16779333</v>
       </c>
       <c r="Q74" t="n">
-        <v>47275108.11075683</v>
+        <v>51287339.4839038</v>
       </c>
       <c r="R74" t="n">
-        <v>50670554.7190631</v>
+        <v>54672784.7783106</v>
       </c>
       <c r="S74" t="n">
-        <v>52836940.34979932</v>
+        <v>59553119.33583021</v>
       </c>
       <c r="T74" t="n">
-        <v>53867222.86354162</v>
+        <v>64869094.13903874</v>
       </c>
       <c r="U74" t="n">
-        <v>55543937.52431303</v>
+        <v>68773929.14438535</v>
       </c>
     </row>
     <row r="75">
@@ -5251,61 +5251,61 @@
         <v>23919213.21206409</v>
       </c>
       <c r="C75" t="n">
-        <v>23829378.34127586</v>
+        <v>25637166.16066407</v>
       </c>
       <c r="D75" t="n">
-        <v>24709649.12970863</v>
+        <v>25540879.06756445</v>
       </c>
       <c r="E75" t="n">
-        <v>26053405.64395662</v>
+        <v>26187396.50611134</v>
       </c>
       <c r="F75" t="n">
-        <v>25804086.96710487</v>
+        <v>26545784.71359512</v>
       </c>
       <c r="G75" t="n">
-        <v>27057342.23127136</v>
+        <v>28915378.85480355</v>
       </c>
       <c r="H75" t="n">
-        <v>27584941.03590816</v>
+        <v>31664600.56557166</v>
       </c>
       <c r="I75" t="n">
-        <v>29405805.7905678</v>
+        <v>31729766.30018194</v>
       </c>
       <c r="J75" t="n">
-        <v>29979197.95347413</v>
+        <v>31979535.44037417</v>
       </c>
       <c r="K75" t="n">
-        <v>31260938.48360038</v>
+        <v>33718641.84552991</v>
       </c>
       <c r="L75" t="n">
-        <v>30961786.19900518</v>
+        <v>35160259.79479256</v>
       </c>
       <c r="M75" t="n">
-        <v>33365563.27966541</v>
+        <v>35437032.96024227</v>
       </c>
       <c r="N75" t="n">
-        <v>34016167.8790351</v>
+        <v>38188254.32353585</v>
       </c>
       <c r="O75" t="n">
-        <v>35866030.13071109</v>
+        <v>38932897.94595999</v>
       </c>
       <c r="P75" t="n">
-        <v>37399458.2279072</v>
+        <v>41502834.25919255</v>
       </c>
       <c r="Q75" t="n">
-        <v>40955330.79825905</v>
+        <v>41346959.49358196</v>
       </c>
       <c r="R75" t="n">
-        <v>44134975.69571255</v>
+        <v>44076246.50406349</v>
       </c>
       <c r="S75" t="n">
-        <v>45765346.79884081</v>
+        <v>48266935.97856811</v>
       </c>
       <c r="T75" t="n">
-        <v>49584495.23710605</v>
+        <v>48927494.22314415</v>
       </c>
       <c r="U75" t="n">
-        <v>53145809.27541497</v>
+        <v>49312639.7690729</v>
       </c>
     </row>
     <row r="76">
@@ -5313,64 +5313,64 @@
         <v>22561132</v>
       </c>
       <c r="B76" t="n">
-        <v>22476397.75894921</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C76" t="n">
-        <v>22653326.59258008</v>
+        <v>26482968.203662</v>
       </c>
       <c r="D76" t="n">
-        <v>24280359.59196371</v>
+        <v>28539023.74214581</v>
       </c>
       <c r="E76" t="n">
-        <v>24330328.5617644</v>
+        <v>29759190.58841411</v>
       </c>
       <c r="F76" t="n">
-        <v>24238949.63958986</v>
+        <v>32069601.87462498</v>
       </c>
       <c r="G76" t="n">
-        <v>25979867.06171047</v>
+        <v>34932276.36448777</v>
       </c>
       <c r="H76" t="n">
-        <v>26033333.61716717</v>
+        <v>37238134.14208195</v>
       </c>
       <c r="I76" t="n">
-        <v>27449074.54703735</v>
+        <v>36665289.31177754</v>
       </c>
       <c r="J76" t="n">
-        <v>27026817.6103467</v>
+        <v>36527583.2133982</v>
       </c>
       <c r="K76" t="n">
-        <v>28653713.51337564</v>
+        <v>38514020.88538136</v>
       </c>
       <c r="L76" t="n">
-        <v>30878298.9871126</v>
+        <v>39936750.72100475</v>
       </c>
       <c r="M76" t="n">
-        <v>31300884.64665142</v>
+        <v>39554575.0475596</v>
       </c>
       <c r="N76" t="n">
-        <v>32639133.00615332</v>
+        <v>40555821.81259499</v>
       </c>
       <c r="O76" t="n">
-        <v>32896060.46381065</v>
+        <v>44411795.70057698</v>
       </c>
       <c r="P76" t="n">
-        <v>33346260.24369911</v>
+        <v>44244995.56827904</v>
       </c>
       <c r="Q76" t="n">
-        <v>34965824.47179823</v>
+        <v>45622201.01514291</v>
       </c>
       <c r="R76" t="n">
-        <v>36867330.80899422</v>
+        <v>46511801.27649711</v>
       </c>
       <c r="S76" t="n">
-        <v>36300190.15204094</v>
+        <v>49041199.23057634</v>
       </c>
       <c r="T76" t="n">
-        <v>38485302.41679081</v>
+        <v>48286784.48616473</v>
       </c>
       <c r="U76" t="n">
-        <v>39011993.89390677</v>
+        <v>49509070.06760763</v>
       </c>
     </row>
     <row r="77">
@@ -5378,64 +5378,64 @@
         <v>22561132</v>
       </c>
       <c r="B77" t="n">
-        <v>22869892.88252599</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C77" t="n">
-        <v>22651038.90577017</v>
+        <v>23843104.46213528</v>
       </c>
       <c r="D77" t="n">
-        <v>23619468.90379911</v>
+        <v>25694209.16486428</v>
       </c>
       <c r="E77" t="n">
-        <v>25041257.35648764</v>
+        <v>27689027.89719488</v>
       </c>
       <c r="F77" t="n">
-        <v>26694215.13781606</v>
+        <v>27424057.09479842</v>
       </c>
       <c r="G77" t="n">
-        <v>27525120.82591411</v>
+        <v>29553175.85685848</v>
       </c>
       <c r="H77" t="n">
-        <v>27101694.04764247</v>
+        <v>31675777.68132721</v>
       </c>
       <c r="I77" t="n">
-        <v>28890659.96997968</v>
+        <v>31740966.41843699</v>
       </c>
       <c r="J77" t="n">
-        <v>29957897.38028452</v>
+        <v>32175358.13262866</v>
       </c>
       <c r="K77" t="n">
-        <v>31761231.43218885</v>
+        <v>33176874.30199226</v>
       </c>
       <c r="L77" t="n">
-        <v>34227074.9620009</v>
+        <v>33438034.73066603</v>
       </c>
       <c r="M77" t="n">
-        <v>35690430.62863848</v>
+        <v>33312449.43223628</v>
       </c>
       <c r="N77" t="n">
-        <v>37216351.08673012</v>
+        <v>34155688.98643013</v>
       </c>
       <c r="O77" t="n">
-        <v>37509309.31163742</v>
+        <v>35417419.56298783</v>
       </c>
       <c r="P77" t="n">
-        <v>37586503.45438226</v>
+        <v>37549392.90937334</v>
       </c>
       <c r="Q77" t="n">
-        <v>39412008.20391541</v>
+        <v>39809701.70215168</v>
       </c>
       <c r="R77" t="n">
-        <v>40409646.16792516</v>
+        <v>43363291.73290192</v>
       </c>
       <c r="S77" t="n">
-        <v>40022945.11040061</v>
+        <v>44965156.39156336</v>
       </c>
       <c r="T77" t="n">
-        <v>39639944.59772293</v>
+        <v>46364778.1455306</v>
       </c>
       <c r="U77" t="n">
-        <v>40412895.14130796</v>
+        <v>49694841.99922474</v>
       </c>
     </row>
     <row r="78">
@@ -5443,64 +5443,64 @@
         <v>22561132</v>
       </c>
       <c r="B78" t="n">
-        <v>22607562.80014147</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C78" t="n">
-        <v>23574134.0063921</v>
+        <v>24251898.08163983</v>
       </c>
       <c r="D78" t="n">
-        <v>24856139.1037756</v>
+        <v>24301808.47766428</v>
       </c>
       <c r="E78" t="n">
-        <v>25051800.69276161</v>
+        <v>24493106.50838907</v>
       </c>
       <c r="F78" t="n">
-        <v>27142390.01817488</v>
+        <v>26537072.43485611</v>
       </c>
       <c r="G78" t="n">
-        <v>28776242.87335074</v>
+        <v>27671647.19377522</v>
       </c>
       <c r="H78" t="n">
-        <v>31344937.5740111</v>
+        <v>29337359.01004101</v>
       </c>
       <c r="I78" t="n">
-        <v>33596229.34734564</v>
+        <v>31785581.00950509</v>
       </c>
       <c r="J78" t="n">
-        <v>35032613.6322334</v>
+        <v>31296614.35800629</v>
       </c>
       <c r="K78" t="n">
-        <v>37752437.13283923</v>
+        <v>30815169.61986205</v>
       </c>
       <c r="L78" t="n">
-        <v>38708066.29851748</v>
+        <v>32849259.74884311</v>
       </c>
       <c r="M78" t="n">
-        <v>40588043.21520376</v>
+        <v>32725885.74908553</v>
       </c>
       <c r="N78" t="n">
-        <v>40435604.1869858</v>
+        <v>32602975.11270151</v>
       </c>
       <c r="O78" t="n">
-        <v>44280148.00144182</v>
+        <v>32290980.17708301</v>
       </c>
       <c r="P78" t="n">
-        <v>45915881.8521077</v>
+        <v>32920631.17518767</v>
       </c>
       <c r="Q78" t="n">
-        <v>48679816.59078581</v>
+        <v>33371167.2181027</v>
       </c>
       <c r="R78" t="n">
-        <v>52176153.76993962</v>
+        <v>35962001.17058095</v>
       </c>
       <c r="S78" t="n">
-        <v>52890211.70306188</v>
+        <v>39172128.43558124</v>
       </c>
       <c r="T78" t="n">
-        <v>56073970.51516496</v>
+        <v>39480482.07255078</v>
       </c>
       <c r="U78" t="n">
-        <v>61405381.80060461</v>
+        <v>40938913.53408465</v>
       </c>
     </row>
     <row r="79">
@@ -5511,61 +5511,61 @@
         <v>22738727.84133373</v>
       </c>
       <c r="C79" t="n">
-        <v>23975302.00319697</v>
+        <v>23314314.29788852</v>
       </c>
       <c r="D79" t="n">
-        <v>24164029.85295593</v>
+        <v>25124365.37182734</v>
       </c>
       <c r="E79" t="n">
-        <v>25337630.67267487</v>
+        <v>25322138.37391721</v>
       </c>
       <c r="F79" t="n">
-        <v>24947854.678861</v>
+        <v>26551986.3145756</v>
       </c>
       <c r="G79" t="n">
-        <v>25434319.98629268</v>
+        <v>27224097.95705355</v>
       </c>
       <c r="H79" t="n">
-        <v>26078140.08994771</v>
+        <v>29337692.51165056</v>
       </c>
       <c r="I79" t="n">
-        <v>26889869.32880662</v>
+        <v>30762568.25422558</v>
       </c>
       <c r="J79" t="n">
-        <v>27101539.95627352</v>
+        <v>30647031.37097898</v>
       </c>
       <c r="K79" t="n">
-        <v>26684629.24323929</v>
+        <v>32491848.26715535</v>
       </c>
       <c r="L79" t="n">
-        <v>28290926.90712155</v>
+        <v>33503215.76391882</v>
       </c>
       <c r="M79" t="n">
-        <v>28513626.32513752</v>
+        <v>33572165.36783191</v>
       </c>
       <c r="N79" t="n">
-        <v>30893107.28761295</v>
+        <v>36568965.32012539</v>
       </c>
       <c r="O79" t="n">
-        <v>31495500.76503378</v>
+        <v>39408066.40218119</v>
       </c>
       <c r="P79" t="n">
-        <v>31377211.16175324</v>
+        <v>41780259.18863254</v>
       </c>
       <c r="Q79" t="n">
-        <v>32718722.81028913</v>
+        <v>45266849.43194355</v>
       </c>
       <c r="R79" t="n">
-        <v>34878465.29823505</v>
+        <v>44833667.25377265</v>
       </c>
       <c r="S79" t="n">
-        <v>37586321.20014016</v>
+        <v>44925934.92207355</v>
       </c>
       <c r="T79" t="n">
-        <v>40504406.638316</v>
+        <v>49197411.2283161</v>
       </c>
       <c r="U79" t="n">
-        <v>43178077.26027256</v>
+        <v>51872857.62883592</v>
       </c>
     </row>
     <row r="80">
@@ -5573,64 +5573,64 @@
         <v>22561132</v>
       </c>
       <c r="B80" t="n">
-        <v>22607562.80014147</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C80" t="n">
-        <v>23574134.0063921</v>
+        <v>25488954.81193306</v>
       </c>
       <c r="D80" t="n">
-        <v>24444975.9239289</v>
+        <v>25985971.18461562</v>
       </c>
       <c r="E80" t="n">
-        <v>25916456.27924294</v>
+        <v>26492679.02077863</v>
       </c>
       <c r="F80" t="n">
-        <v>27024497.01008248</v>
+        <v>28241444.24099976</v>
       </c>
       <c r="G80" t="n">
-        <v>28965481.18507559</v>
+        <v>30598211.42865933</v>
       </c>
       <c r="H80" t="n">
-        <v>29361888.93329912</v>
+        <v>31906417.46533684</v>
       </c>
       <c r="I80" t="n">
-        <v>29251612.66814626</v>
+        <v>31415591.95219982</v>
       </c>
       <c r="J80" t="n">
-        <v>29651936.27525628</v>
+        <v>31114959.70760674</v>
       </c>
       <c r="K80" t="n">
-        <v>30747295.66523946</v>
+        <v>32083469.05963362</v>
       </c>
       <c r="L80" t="n">
-        <v>31883118.25405345</v>
+        <v>33455176.29158172</v>
       </c>
       <c r="M80" t="n">
-        <v>33987703.00636014</v>
+        <v>35274530.78104216</v>
       </c>
       <c r="N80" t="n">
-        <v>33860053.28473697</v>
+        <v>37192825.13946251</v>
       </c>
       <c r="O80" t="n">
-        <v>35504571.46041011</v>
+        <v>38350519.03700799</v>
       </c>
       <c r="P80" t="n">
-        <v>35371224.74196834</v>
+        <v>37983522.84489587</v>
       </c>
       <c r="Q80" t="n">
-        <v>37294777.49718749</v>
+        <v>39607482.92490987</v>
       </c>
       <c r="R80" t="n">
-        <v>40190228.38622381</v>
+        <v>40149532.02876371</v>
       </c>
       <c r="S80" t="n">
-        <v>40039283.45580255</v>
+        <v>42332937.98991082</v>
       </c>
       <c r="T80" t="n">
-        <v>43380588.12353777</v>
+        <v>42666172.76458643</v>
       </c>
       <c r="U80" t="n">
-        <v>44730887.32652215</v>
+        <v>42009826.86917145</v>
       </c>
     </row>
     <row r="81">
@@ -5638,64 +5638,64 @@
         <v>22561132</v>
       </c>
       <c r="B81" t="n">
-        <v>24706203.45921767</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C81" t="n">
-        <v>24326140.89018396</v>
+        <v>23968438.94276726</v>
       </c>
       <c r="D81" t="n">
-        <v>26356173.42545843</v>
+        <v>25550580.64966033</v>
       </c>
       <c r="E81" t="n">
-        <v>28249156.50348215</v>
+        <v>26345888.64753195</v>
       </c>
       <c r="F81" t="n">
-        <v>29128462.55168522</v>
+        <v>25940602.33393927</v>
       </c>
       <c r="G81" t="n">
-        <v>29696446.71996821</v>
+        <v>27049675.41317568</v>
       </c>
       <c r="H81" t="n">
-        <v>31829338.70739279</v>
+        <v>29306988.70447206</v>
       </c>
       <c r="I81" t="n">
-        <v>33560277.13584828</v>
+        <v>31923060.12522056</v>
       </c>
       <c r="J81" t="n">
-        <v>36165792.99598783</v>
+        <v>33473502.2393414</v>
       </c>
       <c r="K81" t="n">
-        <v>36029962.88686408</v>
+        <v>36461495.08445208</v>
       </c>
       <c r="L81" t="n">
-        <v>38827217.49122748</v>
+        <v>37172468.13780668</v>
       </c>
       <c r="M81" t="n">
-        <v>40938713.53716811</v>
+        <v>37032857.19649212</v>
       </c>
       <c r="N81" t="n">
-        <v>43879060.40432991</v>
+        <v>38616172.2034108</v>
       </c>
       <c r="O81" t="n">
-        <v>44224465.88528895</v>
+        <v>40491685.99925173</v>
       </c>
       <c r="P81" t="n">
-        <v>45601032.3086684</v>
+        <v>42222880.91510411</v>
       </c>
       <c r="Q81" t="n">
-        <v>45164652.15961453</v>
+        <v>44764513.19180116</v>
       </c>
       <c r="R81" t="n">
-        <v>44732447.96064002</v>
+        <v>47198890.38157277</v>
       </c>
       <c r="S81" t="n">
-        <v>47945272.73839303</v>
+        <v>51412072.07224002</v>
       </c>
       <c r="T81" t="n">
-        <v>48880171.23539049</v>
+        <v>56001340.99324404</v>
       </c>
       <c r="U81" t="n">
-        <v>48412411.28940734</v>
+        <v>59697954.58743428</v>
       </c>
     </row>
     <row r="82">
@@ -5703,64 +5703,64 @@
         <v>22561132</v>
       </c>
       <c r="B82" t="n">
-        <v>22869892.88252599</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C82" t="n">
-        <v>23315839.42242846</v>
+        <v>24122750.78965802</v>
       </c>
       <c r="D82" t="n">
-        <v>24583797.98163677</v>
+        <v>25574834.60490004</v>
       </c>
       <c r="E82" t="n">
-        <v>24205618.41095001</v>
+        <v>26370897.55096039</v>
       </c>
       <c r="F82" t="n">
-        <v>25521964.80058806</v>
+        <v>26271854.73742564</v>
       </c>
       <c r="G82" t="n">
-        <v>25574488.99338448</v>
+        <v>27395090.29131895</v>
       </c>
       <c r="H82" t="n">
-        <v>26221857.20151896</v>
+        <v>28566349.0290392</v>
       </c>
       <c r="I82" t="n">
-        <v>25818478.89900902</v>
+        <v>28292982.68147853</v>
       </c>
       <c r="J82" t="n">
-        <v>26171818.2762325</v>
+        <v>29502630.20698241</v>
       </c>
       <c r="K82" t="n">
-        <v>27138620.12808077</v>
+        <v>32307686.70985874</v>
       </c>
       <c r="L82" t="n">
-        <v>27510026.32796843</v>
+        <v>33125492.6593634</v>
       </c>
       <c r="M82" t="n">
-        <v>28686199.07895796</v>
+        <v>34541750.91242935</v>
       </c>
       <c r="N82" t="n">
-        <v>29245559.42611502</v>
+        <v>36420195.34352822</v>
       </c>
       <c r="O82" t="n">
-        <v>29815826.89962614</v>
+        <v>37977316.40324976</v>
       </c>
       <c r="P82" t="n">
-        <v>31437266.82431904</v>
+        <v>39821802.19195306</v>
       </c>
       <c r="Q82" t="n">
-        <v>32598577.34015742</v>
+        <v>40598298.82844367</v>
       </c>
       <c r="R82" t="n">
-        <v>35129429.8099971</v>
+        <v>44458311.35395368</v>
       </c>
       <c r="S82" t="n">
-        <v>38061003.94589761</v>
+        <v>44032866.49989862</v>
       </c>
       <c r="T82" t="n">
-        <v>37918055.87560632</v>
+        <v>43867489.53547326</v>
       </c>
       <c r="U82" t="n">
-        <v>39318770.42482486</v>
+        <v>47273225.40787137</v>
       </c>
     </row>
     <row r="83">
@@ -5768,64 +5768,64 @@
         <v>22561132</v>
       </c>
       <c r="B83" t="n">
-        <v>23394553.04729505</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C83" t="n">
-        <v>24530781.84689261</v>
+        <v>22651038.90577017</v>
       </c>
       <c r="D83" t="n">
-        <v>24581266.18558834</v>
+        <v>23487781.16529721</v>
       </c>
       <c r="E83" t="n">
-        <v>25060583.27982187</v>
+        <v>23536119.00903007</v>
       </c>
       <c r="F83" t="n">
-        <v>25549246.71427605</v>
+        <v>24542390.0140972</v>
       </c>
       <c r="G83" t="n">
-        <v>27829885.46651575</v>
+        <v>26733152.28449538</v>
       </c>
       <c r="H83" t="n">
-        <v>29828715.16766521</v>
+        <v>27720690.13385693</v>
       </c>
       <c r="I83" t="n">
-        <v>32491358.19983279</v>
+        <v>28261223.74773962</v>
       </c>
       <c r="J83" t="n">
-        <v>33124916.42594139</v>
+        <v>28155081.31900726</v>
       </c>
       <c r="K83" t="n">
-        <v>33385667.85462744</v>
+        <v>29849893.74967255</v>
       </c>
       <c r="L83" t="n">
-        <v>34424857.10136668</v>
+        <v>29564244.49077961</v>
       </c>
       <c r="M83" t="n">
-        <v>36096806.72064467</v>
+        <v>31859520.76641821</v>
       </c>
       <c r="N83" t="n">
-        <v>37010526.83806969</v>
+        <v>34703442.48748715</v>
       </c>
       <c r="O83" t="n">
-        <v>39453568.63334128</v>
+        <v>36388922.46736733</v>
       </c>
       <c r="P83" t="n">
-        <v>39764137.70031257</v>
+        <v>36252254.33706568</v>
       </c>
       <c r="Q83" t="n">
-        <v>39614793.0650755</v>
+        <v>38645243.03743637</v>
       </c>
       <c r="R83" t="n">
-        <v>40156942.21201801</v>
+        <v>40297494.52109961</v>
       </c>
       <c r="S83" t="n">
-        <v>40006122.2965432</v>
+        <v>42254666.93358101</v>
       </c>
       <c r="T83" t="n">
-        <v>42414315.42526004</v>
+        <v>44798212.58920336</v>
       </c>
       <c r="U83" t="n">
-        <v>46200404.79573514</v>
+        <v>44890407.29181954</v>
       </c>
     </row>
     <row r="84">
@@ -5833,64 +5833,64 @@
         <v>22561132</v>
       </c>
       <c r="B84" t="n">
-        <v>22607562.80014147</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C84" t="n">
-        <v>24231308.9003507</v>
+        <v>24257998.57979958</v>
       </c>
       <c r="D84" t="n">
-        <v>25549052.38641474</v>
+        <v>24448951.7494744</v>
       </c>
       <c r="E84" t="n">
-        <v>27681137.69431421</v>
+        <v>24214986.93182665</v>
       </c>
       <c r="F84" t="n">
-        <v>27738105.46401536</v>
+        <v>23842480.88662956</v>
       </c>
       <c r="G84" t="n">
-        <v>27633927.74302687</v>
+        <v>23891548.70223934</v>
       </c>
       <c r="H84" t="n">
-        <v>27690798.35466818</v>
+        <v>23940717.49939295</v>
       </c>
       <c r="I84" t="n">
-        <v>27908773.7040877</v>
+        <v>24129173.10820007</v>
       </c>
       <c r="J84" t="n">
-        <v>29588759.49643492</v>
+        <v>24038549.67802349</v>
       </c>
       <c r="K84" t="n">
-        <v>32402005.01574035</v>
+        <v>25625319.35082685</v>
       </c>
       <c r="L84" t="n">
-        <v>34164086.09937046</v>
+        <v>27465810.19587543</v>
       </c>
       <c r="M84" t="n">
-        <v>35227505.0207391</v>
+        <v>28640092.5157508</v>
       </c>
       <c r="N84" t="n">
-        <v>35300003.21121556</v>
+        <v>30197593.82565138</v>
       </c>
       <c r="O84" t="n">
-        <v>37014457.00707925</v>
+        <v>30786425.28844405</v>
       </c>
       <c r="P84" t="n">
-        <v>39027371.77828957</v>
+        <v>32818618.02203437</v>
       </c>
       <c r="Q84" t="n">
-        <v>40469065.08785556</v>
+        <v>34412555.67428367</v>
       </c>
       <c r="R84" t="n">
-        <v>40081795.41958202</v>
+        <v>36884173.40540865</v>
       </c>
       <c r="S84" t="n">
-        <v>40164283.73765213</v>
+        <v>38246695.74817707</v>
       </c>
       <c r="T84" t="n">
-        <v>41414469.65410271</v>
+        <v>38547764.60011379</v>
       </c>
       <c r="U84" t="n">
-        <v>45352082.21953835</v>
+        <v>37954773.35123131</v>
       </c>
     </row>
     <row r="85">
@@ -5898,64 +5898,64 @@
         <v>22561132</v>
       </c>
       <c r="B85" t="n">
-        <v>24312708.33564088</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C85" t="n">
-        <v>26341619.9153607</v>
+        <v>24251898.08163983</v>
       </c>
       <c r="D85" t="n">
-        <v>26242687.06165564</v>
+        <v>24301808.47766428</v>
       </c>
       <c r="E85" t="n">
-        <v>27364675.57110627</v>
+        <v>24634391.42751544</v>
       </c>
       <c r="F85" t="n">
-        <v>27739175.4578749</v>
+        <v>26260492.24261097</v>
       </c>
       <c r="G85" t="n">
-        <v>28763876.37541765</v>
+        <v>28146603.19784616</v>
       </c>
       <c r="H85" t="n">
-        <v>28321393.46748504</v>
+        <v>29349992.36656406</v>
       </c>
       <c r="I85" t="n">
-        <v>30684832.47093602</v>
+        <v>30092930.06404916</v>
       </c>
       <c r="J85" t="n">
-        <v>32175136.23069668</v>
+        <v>31729439.37238072</v>
       </c>
       <c r="K85" t="n">
-        <v>34298996.90752698</v>
+        <v>34746216.84678543</v>
       </c>
       <c r="L85" t="n">
-        <v>34369584.22869802</v>
+        <v>37847817.8262861</v>
       </c>
       <c r="M85" t="n">
-        <v>36838115.61576165</v>
+        <v>38145746.80651214</v>
       </c>
       <c r="N85" t="n">
-        <v>39483944.67300861</v>
+        <v>40663723.76393005</v>
       </c>
       <c r="O85" t="n">
-        <v>42090255.2370379</v>
+        <v>43347910.80999159</v>
       </c>
       <c r="P85" t="n">
-        <v>44623904.02950114</v>
+        <v>44949207.28861311</v>
       </c>
       <c r="Q85" t="n">
-        <v>47828932.84152152</v>
+        <v>49222896.28920329</v>
       </c>
       <c r="R85" t="n">
-        <v>49873826.83204138</v>
+        <v>49324196.98900807</v>
       </c>
       <c r="S85" t="n">
-        <v>50266421.68219204</v>
+        <v>48852187.92815323</v>
       </c>
       <c r="T85" t="n">
-        <v>53876713.81759291</v>
+        <v>49236740.6809182</v>
       </c>
       <c r="U85" t="n">
-        <v>57119855.73101406</v>
+        <v>52200576.55856951</v>
       </c>
     </row>
     <row r="86">
@@ -5963,64 +5963,64 @@
         <v>22561132</v>
       </c>
       <c r="B86" t="n">
-        <v>22607562.80014147</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C86" t="n">
-        <v>24231308.9003507</v>
+        <v>25352181.89725156</v>
       </c>
       <c r="D86" t="n">
-        <v>25267302.28362229</v>
+        <v>25551748.21660505</v>
       </c>
       <c r="E86" t="n">
-        <v>26347588.87014577</v>
+        <v>25604333.70365908</v>
       </c>
       <c r="F86" t="n">
-        <v>27780419.58308449</v>
+        <v>27592174.78384874</v>
       </c>
       <c r="G86" t="n">
-        <v>30098713.95833388</v>
+        <v>27167716.49543194</v>
       </c>
       <c r="H86" t="n">
-        <v>29635696.86343711</v>
+        <v>28013360.76900007</v>
       </c>
       <c r="I86" t="n">
-        <v>29524392.2408794</v>
+        <v>29699642.24402324</v>
       </c>
       <c r="J86" t="n">
-        <v>29756801.20333244</v>
+        <v>32005430.38141064</v>
       </c>
       <c r="K86" t="n">
-        <v>29991039.63361627</v>
+        <v>32257369.48339519</v>
       </c>
       <c r="L86" t="n">
-        <v>31098925.69451586</v>
+        <v>33824048.36510739</v>
       </c>
       <c r="M86" t="n">
-        <v>31162927.27048006</v>
+        <v>36253397.65461984</v>
       </c>
       <c r="N86" t="n">
-        <v>33582320.32027343</v>
+        <v>39067999.041572</v>
       </c>
       <c r="O86" t="n">
-        <v>36384787.14671828</v>
+        <v>39148400.9671237</v>
       </c>
       <c r="P86" t="n">
-        <v>39844186.63332806</v>
+        <v>41732562.5003866</v>
       </c>
       <c r="Q86" t="n">
-        <v>39926185.95261627</v>
+        <v>41090578.59774293</v>
       </c>
       <c r="R86" t="n">
-        <v>40008354.02646898</v>
+        <v>43802942.06517996</v>
       </c>
       <c r="S86" t="n">
-        <v>40788488.29019038</v>
+        <v>44657068.07931797</v>
       </c>
       <c r="T86" t="n">
-        <v>42295238.24530753</v>
+        <v>44489346.76235326</v>
       </c>
       <c r="U86" t="n">
-        <v>46316592.68890642</v>
+        <v>48460662.60672051</v>
       </c>
     </row>
     <row r="87">
@@ -6028,64 +6028,64 @@
         <v>22561132</v>
       </c>
       <c r="B87" t="n">
-        <v>23788048.17087183</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C87" t="n">
-        <v>25219984.35618987</v>
+        <v>25625727.72661456</v>
       </c>
       <c r="D87" t="n">
-        <v>26884739.79530701</v>
+        <v>27615229.77241237</v>
       </c>
       <c r="E87" t="n">
-        <v>28815686.16859305</v>
+        <v>28314255.3451076</v>
       </c>
       <c r="F87" t="n">
-        <v>30885319.16949368</v>
+        <v>29854037.02579219</v>
       </c>
       <c r="G87" t="n">
-        <v>32385360.18563093</v>
+        <v>31477554.88796111</v>
       </c>
       <c r="H87" t="n">
-        <v>35087939.89772747</v>
+        <v>31359332.68512279</v>
       </c>
       <c r="I87" t="n">
-        <v>35772129.60819406</v>
+        <v>31423870.17856384</v>
       </c>
       <c r="J87" t="n">
-        <v>37093572.4206396</v>
+        <v>32401994.92726398</v>
       </c>
       <c r="K87" t="n">
-        <v>40404708.73974879</v>
+        <v>32468678.21915964</v>
       </c>
       <c r="L87" t="n">
-        <v>43306701.70671498</v>
+        <v>33290559.35409334</v>
       </c>
       <c r="M87" t="n">
-        <v>46417124.91468515</v>
+        <v>36455765.2813428</v>
       </c>
       <c r="N87" t="n">
-        <v>48401658.00284237</v>
+        <v>39498022.98894814</v>
       </c>
       <c r="O87" t="n">
-        <v>51878016.95938078</v>
+        <v>41875630.76744819</v>
       </c>
       <c r="P87" t="n">
-        <v>55000846.08655745</v>
+        <v>45613634.7630556</v>
       </c>
       <c r="Q87" t="n">
-        <v>59590703.04444383</v>
+        <v>49420122.73166283</v>
       </c>
       <c r="R87" t="n">
-        <v>65256478.87233013</v>
+        <v>50671096.55588502</v>
       </c>
       <c r="S87" t="n">
-        <v>64632005.46602032</v>
+        <v>50775377.6512279</v>
       </c>
       <c r="T87" t="n">
-        <v>63637752.90593901</v>
+        <v>51470265.23107911</v>
       </c>
       <c r="U87" t="n">
-        <v>63768719.37458196</v>
+        <v>53970077.79686092</v>
       </c>
     </row>
     <row r="88">
@@ -6093,64 +6093,64 @@
         <v>22561132</v>
       </c>
       <c r="B88" t="n">
-        <v>22214067.67656468</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C88" t="n">
-        <v>22259784.21847488</v>
+        <v>24393246.36994114</v>
       </c>
       <c r="D88" t="n">
-        <v>21917355.6138463</v>
+        <v>25861612.83294787</v>
       </c>
       <c r="E88" t="n">
-        <v>21580194.68603421</v>
+        <v>27117662.01864645</v>
       </c>
       <c r="F88" t="n">
-        <v>23004689.87894915</v>
+        <v>27961748.2561659</v>
       </c>
       <c r="G88" t="n">
-        <v>23720752.42563448</v>
+        <v>27531604.71369671</v>
       </c>
       <c r="H88" t="n">
-        <v>24872824.10657843</v>
+        <v>29348948.77098994</v>
       </c>
       <c r="I88" t="n">
-        <v>26948477.71758289</v>
+        <v>31798137.94366527</v>
       </c>
       <c r="J88" t="n">
-        <v>28257313.85675295</v>
+        <v>34451713.57155428</v>
       </c>
       <c r="K88" t="n">
-        <v>30943967.94256198</v>
+        <v>36926143.74573417</v>
       </c>
       <c r="L88" t="n">
-        <v>30647848.91499938</v>
+        <v>37002137.73399031</v>
       </c>
       <c r="M88" t="n">
-        <v>33027252.87832046</v>
+        <v>39229504.16501603</v>
       </c>
       <c r="N88" t="n">
-        <v>34055285.81119262</v>
+        <v>40222522.39595233</v>
       </c>
       <c r="O88" t="n">
-        <v>35511296.74774206</v>
+        <v>41708365.24905398</v>
       </c>
       <c r="P88" t="n">
-        <v>35377924.77072205</v>
+        <v>45188955.89558996</v>
       </c>
       <c r="Q88" t="n">
-        <v>36273447.79651009</v>
+        <v>45281954.7477659</v>
       </c>
       <c r="R88" t="n">
-        <v>39300490.98950619</v>
+        <v>45901661.96416011</v>
       </c>
       <c r="S88" t="n">
-        <v>40295306.11317349</v>
+        <v>48931602.04422193</v>
       </c>
       <c r="T88" t="n">
-        <v>43423708.74054344</v>
+        <v>49601256.59128033</v>
       </c>
       <c r="U88" t="n">
-        <v>43260619.62765049</v>
+        <v>49126596.20205823</v>
       </c>
     </row>
     <row r="89">
@@ -6158,64 +6158,64 @@
         <v>22561132</v>
       </c>
       <c r="B89" t="n">
-        <v>24312708.33564088</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C89" t="n">
-        <v>24504092.16744373</v>
+        <v>23574134.0063921</v>
       </c>
       <c r="D89" t="n">
-        <v>26264052.95790122</v>
+        <v>24719084.71049337</v>
       </c>
       <c r="E89" t="n">
-        <v>28608498.47664897</v>
+        <v>26925619.53091711</v>
       </c>
       <c r="F89" t="n">
-        <v>28334728.77896004</v>
+        <v>28702962.88421271</v>
       </c>
       <c r="G89" t="n">
-        <v>30205086.5549396</v>
+        <v>30764499.74511658</v>
       </c>
       <c r="H89" t="n">
-        <v>31847695.14110623</v>
+        <v>33331817.58216942</v>
       </c>
       <c r="I89" t="n">
-        <v>33579631.82644718</v>
+        <v>35144463.59639042</v>
       </c>
       <c r="J89" t="n">
-        <v>33063066.77993032</v>
+        <v>38077292.3117018</v>
       </c>
       <c r="K89" t="n">
-        <v>32746668.98630271</v>
+        <v>39926633.73950279</v>
       </c>
       <c r="L89" t="n">
-        <v>32623680.29302721</v>
+        <v>42097918.07858085</v>
       </c>
       <c r="M89" t="n">
-        <v>34587482.78637489</v>
+        <v>45366269.90978288</v>
       </c>
       <c r="N89" t="n">
-        <v>36267330.82484844</v>
+        <v>45987131.02323485</v>
       </c>
       <c r="O89" t="n">
-        <v>39083013.93993609</v>
+        <v>49824787.50161065</v>
       </c>
       <c r="P89" t="n">
-        <v>40072324.05711325</v>
+        <v>50216996.32586747</v>
       </c>
       <c r="Q89" t="n">
-        <v>41319647.56231701</v>
+        <v>50904242.16545475</v>
       </c>
       <c r="R89" t="n">
-        <v>44767799.46097782</v>
+        <v>55152234.81853776</v>
       </c>
       <c r="S89" t="n">
-        <v>44339392.9532181</v>
+        <v>59113441.38450445</v>
       </c>
       <c r="T89" t="n">
-        <v>43915086.0915902</v>
+        <v>61984468.43121105</v>
       </c>
       <c r="U89" t="n">
-        <v>46558581.69930908</v>
+        <v>63913847.02980736</v>
       </c>
     </row>
     <row r="90">
@@ -6223,64 +6223,64 @@
         <v>22561132</v>
       </c>
       <c r="B90" t="n">
-        <v>22476397.75894921</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C90" t="n">
-        <v>23568033.50823235</v>
+        <v>21872342.34252943</v>
       </c>
       <c r="D90" t="n">
-        <v>24849706.84921983</v>
+        <v>22171676.77861136</v>
       </c>
       <c r="E90" t="n">
-        <v>26778961.04021994</v>
+        <v>22088405.23866118</v>
       </c>
       <c r="F90" t="n">
-        <v>27145445.11752189</v>
+        <v>21748613.00572176</v>
       </c>
       <c r="G90" t="n">
-        <v>28306030.44303469</v>
+        <v>22552019.13926343</v>
       </c>
       <c r="H90" t="n">
-        <v>29022542.28466121</v>
+        <v>22467319.12394821</v>
       </c>
       <c r="I90" t="n">
-        <v>30432111.78208673</v>
+        <v>24080992.4832649</v>
       </c>
       <c r="J90" t="n">
-        <v>31556291.29900222</v>
+        <v>24970558.04120351</v>
       </c>
       <c r="K90" t="n">
-        <v>33455841.65558878</v>
+        <v>25602638.91755781</v>
       </c>
       <c r="L90" t="n">
-        <v>36636762.32390938</v>
+        <v>27143805.50854253</v>
       </c>
       <c r="M90" t="n">
-        <v>36073168.56767373</v>
+        <v>29251166.40639118</v>
       </c>
       <c r="N90" t="n">
-        <v>36986290.3314528</v>
+        <v>30331721.12948823</v>
       </c>
       <c r="O90" t="n">
-        <v>40072820.70513219</v>
+        <v>30041461.01217439</v>
       </c>
       <c r="P90" t="n">
-        <v>43416924.07848989</v>
+        <v>30103286.32626829</v>
       </c>
       <c r="Q90" t="n">
-        <v>43001444.80441148</v>
+        <v>31390332.17166597</v>
       </c>
       <c r="R90" t="n">
-        <v>44339942.48639815</v>
+        <v>32367412.98929133</v>
       </c>
       <c r="S90" t="n">
-        <v>43915630.36599958</v>
+        <v>32057672.27094207</v>
       </c>
       <c r="T90" t="n">
-        <v>47325103.74321474</v>
+        <v>33614652.24011126</v>
       </c>
       <c r="U90" t="n">
-        <v>50999278.06205498</v>
+        <v>36810672.33040594</v>
       </c>
     </row>
     <row r="91">
@@ -6288,64 +6288,64 @@
         <v>22561132</v>
       </c>
       <c r="B91" t="n">
-        <v>22476397.75894921</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C91" t="n">
-        <v>24221395.59084112</v>
+        <v>23809551.72225669</v>
       </c>
       <c r="D91" t="n">
-        <v>26242687.06165564</v>
+        <v>24965936.21558915</v>
       </c>
       <c r="E91" t="n">
-        <v>28585225.36601469</v>
+        <v>26613922.09538027</v>
       </c>
       <c r="F91" t="n">
-        <v>28976429.11462159</v>
+        <v>28989598.48062169</v>
       </c>
       <c r="G91" t="n">
-        <v>30383758.98337226</v>
+        <v>30734645.18491889</v>
       </c>
       <c r="H91" t="n">
-        <v>30799576.60449886</v>
+        <v>33656839.43454038</v>
       </c>
       <c r="I91" t="n">
-        <v>32474514.6613333</v>
+        <v>35682833.57763158</v>
       </c>
       <c r="J91" t="n">
-        <v>34995735.28945667</v>
+        <v>38245686.65375935</v>
       </c>
       <c r="K91" t="n">
-        <v>34864299.63854311</v>
+        <v>38991450.16551019</v>
       </c>
       <c r="L91" t="n">
-        <v>37368363.03870124</v>
+        <v>42698686.43820892</v>
       </c>
       <c r="M91" t="n">
-        <v>40269526.88102203</v>
+        <v>45517200.10131194</v>
       </c>
       <c r="N91" t="n">
-        <v>44098280.36682581</v>
+        <v>47727883.65348758</v>
       </c>
       <c r="O91" t="n">
-        <v>48034687.89525277</v>
+        <v>50323414.42100196</v>
       </c>
       <c r="P91" t="n">
-        <v>47575018.82193879</v>
+        <v>49841843.3254774</v>
       </c>
       <c r="Q91" t="n">
-        <v>47949518.00461058</v>
+        <v>50813723.59127174</v>
       </c>
       <c r="R91" t="n">
-        <v>50835868.72183482</v>
+        <v>52395392.56889296</v>
       </c>
       <c r="S91" t="n">
-        <v>51531584.15360168</v>
+        <v>57377051.34355187</v>
       </c>
       <c r="T91" t="n">
-        <v>52836005.49724916</v>
+        <v>62498780.69419583</v>
       </c>
       <c r="U91" t="n">
-        <v>54173445.71795446</v>
+        <v>62264050.15191972</v>
       </c>
     </row>
     <row r="92">
@@ -6353,64 +6353,64 @@
         <v>22561132</v>
       </c>
       <c r="B92" t="n">
-        <v>23788048.17087183</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C92" t="n">
-        <v>24943388.277747</v>
+        <v>23182116.75682683</v>
       </c>
       <c r="D92" t="n">
-        <v>25719796.3157214</v>
+        <v>23364600.84181536</v>
       </c>
       <c r="E92" t="n">
-        <v>26221313.93248102</v>
+        <v>23141012.74563102</v>
       </c>
       <c r="F92" t="n">
-        <v>28714388.84289561</v>
+        <v>24534000.23570808</v>
       </c>
       <c r="G92" t="n">
-        <v>30943684.96108714</v>
+        <v>25012395.67775407</v>
       </c>
       <c r="H92" t="n">
-        <v>32626459.89742993</v>
+        <v>26518032.21401789</v>
       </c>
       <c r="I92" t="n">
-        <v>33072970.05266635</v>
+        <v>27189284.3747974</v>
       </c>
       <c r="J92" t="n">
-        <v>33525590.93273642</v>
+        <v>27245239.91057441</v>
       </c>
       <c r="K92" t="n">
-        <v>33009857.21268906</v>
+        <v>27301310.60282044</v>
       </c>
       <c r="L92" t="n">
-        <v>33653525.79838325</v>
+        <v>28309836.54359017</v>
       </c>
       <c r="M92" t="n">
-        <v>34896706.18117873</v>
+        <v>30178551.1986368</v>
       </c>
       <c r="N92" t="n">
-        <v>36185810.3543499</v>
+        <v>30416109.54412917</v>
       </c>
       <c r="O92" t="n">
-        <v>38784788.80086421</v>
+        <v>31539697.92927354</v>
       </c>
       <c r="P92" t="n">
-        <v>40893977.49598949</v>
+        <v>31054513.76727414</v>
       </c>
       <c r="Q92" t="n">
-        <v>43355615.61431951</v>
+        <v>31840598.0928381</v>
       </c>
       <c r="R92" t="n">
-        <v>44705137.50282402</v>
+        <v>32461466.96270392</v>
       </c>
       <c r="S92" t="n">
-        <v>45316950.67375967</v>
+        <v>32150826.19264839</v>
       </c>
       <c r="T92" t="n">
-        <v>48044832.38191458</v>
+        <v>32777744.28838516</v>
       </c>
       <c r="U92" t="n">
-        <v>47585066.23069737</v>
+        <v>34750820.758657</v>
       </c>
     </row>
     <row r="93">
@@ -6418,64 +6418,64 @@
         <v>22561132</v>
       </c>
       <c r="B93" t="n">
-        <v>22214067.67656468</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C93" t="n">
-        <v>22518078.80243852</v>
+        <v>26200271.62705939</v>
       </c>
       <c r="D93" t="n">
-        <v>24135397.88114234</v>
+        <v>26863480.29958589</v>
       </c>
       <c r="E93" t="n">
-        <v>23764116.17699466</v>
+        <v>28168188.27635745</v>
       </c>
       <c r="F93" t="n">
-        <v>24780135.04827847</v>
+        <v>28389921.52519383</v>
       </c>
       <c r="G93" t="n">
-        <v>26703987.90036718</v>
+        <v>29273609.139089</v>
       </c>
       <c r="H93" t="n">
-        <v>26758944.69620447</v>
+        <v>29163664.43182793</v>
       </c>
       <c r="I93" t="n">
-        <v>29303136.56328864</v>
+        <v>29223683.24092967</v>
       </c>
       <c r="J93" t="n">
-        <v>30896695.43731874</v>
+        <v>29453725.09397336</v>
       </c>
       <c r="K93" t="n">
-        <v>30421402.76590756</v>
+        <v>29685577.78152807</v>
       </c>
       <c r="L93" t="n">
-        <v>30130284.43806894</v>
+        <v>30437010.16795172</v>
       </c>
       <c r="M93" t="n">
-        <v>32119165.72332282</v>
+        <v>30145742.48471289</v>
       </c>
       <c r="N93" t="n">
-        <v>31811800.61301226</v>
+        <v>30032522.25221946</v>
       </c>
       <c r="O93" t="n">
-        <v>33171892.84247325</v>
+        <v>31316542.62702497</v>
       </c>
       <c r="P93" t="n">
-        <v>34590134.90429184</v>
+        <v>33019594.25426131</v>
       </c>
       <c r="Q93" t="n">
-        <v>37074506.93293898</v>
+        <v>35967069.26523381</v>
       </c>
       <c r="R93" t="n">
-        <v>39952856.69833594</v>
+        <v>38132129.11338868</v>
       </c>
       <c r="S93" t="n">
-        <v>40499632.42278153</v>
+        <v>39319060.54463796</v>
       </c>
       <c r="T93" t="n">
-        <v>41995711.87787532</v>
+        <v>43057445.41723897</v>
       </c>
       <c r="U93" t="n">
-        <v>45744434.84445337</v>
+        <v>46400291.97591275</v>
       </c>
     </row>
     <row r="94">
@@ -6483,64 +6483,64 @@
         <v>22561132</v>
       </c>
       <c r="B94" t="n">
-        <v>24706203.45921767</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C94" t="n">
-        <v>26480680.5168521</v>
+        <v>22391981.75953657</v>
       </c>
       <c r="D94" t="n">
-        <v>26381225.3846316</v>
+        <v>22047519.52245779</v>
       </c>
       <c r="E94" t="n">
-        <v>28276007.77297328</v>
+        <v>24015578.61930711</v>
       </c>
       <c r="F94" t="n">
-        <v>28498589.75112935</v>
+        <v>23785760.97600091</v>
       </c>
       <c r="G94" t="n">
-        <v>29219975.8553178</v>
+        <v>24802705.25616977</v>
       </c>
       <c r="H94" t="n">
-        <v>30469256.35312148</v>
+        <v>24997946.22667258</v>
       </c>
       <c r="I94" t="n">
-        <v>32126230.98250107</v>
+        <v>24758727.79348895</v>
       </c>
       <c r="J94" t="n">
-        <v>31632024.01538309</v>
+        <v>25673329.27923631</v>
       </c>
       <c r="K94" t="n">
-        <v>33903935.23778082</v>
+        <v>26621716.6640294</v>
       </c>
       <c r="L94" t="n">
-        <v>36339022.25316439</v>
+        <v>28378999.57860825</v>
       </c>
       <c r="M94" t="n">
-        <v>35991275.12674038</v>
+        <v>29922302.17070156</v>
       </c>
       <c r="N94" t="n">
-        <v>35437611.0840214</v>
+        <v>29635959.99772397</v>
       </c>
       <c r="O94" t="n">
-        <v>37570799.87142993</v>
+        <v>30213840.00291502</v>
       </c>
       <c r="P94" t="n">
-        <v>40269252.61099698</v>
+        <v>32910860.9810762</v>
       </c>
       <c r="Q94" t="n">
-        <v>42225053.36779641</v>
+        <v>33361263.31377862</v>
       </c>
       <c r="R94" t="n">
-        <v>45503275.58865862</v>
+        <v>35951328.3578331</v>
       </c>
       <c r="S94" t="n">
-        <v>49829644.39702107</v>
+        <v>38115440.67238896</v>
       </c>
       <c r="T94" t="n">
-        <v>49063100.77590867</v>
+        <v>38415476.31572542</v>
       </c>
       <c r="U94" t="n">
-        <v>48593590.2813937</v>
+        <v>39611227.44071407</v>
       </c>
     </row>
     <row r="95">
@@ -6548,64 +6548,64 @@
         <v>22561132</v>
       </c>
       <c r="B95" t="n">
-        <v>24575038.41802541</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C95" t="n">
-        <v>24625613.83672586</v>
+        <v>23182116.75682683</v>
       </c>
       <c r="D95" t="n">
-        <v>26823805.03358591</v>
+        <v>23499376.14029476</v>
       </c>
       <c r="E95" t="n">
-        <v>29062269.29241998</v>
+        <v>24777315.76637058</v>
       </c>
       <c r="F95" t="n">
-        <v>31318573.77007764</v>
+        <v>27133097.95347297</v>
       </c>
       <c r="G95" t="n">
-        <v>32475499.69698792</v>
+        <v>28135410.02330805</v>
       </c>
       <c r="H95" t="n">
-        <v>35374406.42154174</v>
+        <v>28193312.68527069</v>
       </c>
       <c r="I95" t="n">
-        <v>37915107.29151058</v>
+        <v>29562608.08340473</v>
       </c>
       <c r="J95" t="n">
-        <v>40417859.87837967</v>
+        <v>31857757.31344858</v>
       </c>
       <c r="K95" t="n">
-        <v>40031080.21956013</v>
+        <v>32664174.17958909</v>
       </c>
       <c r="L95" t="n">
-        <v>43837162.62981471</v>
+        <v>35769824.54197124</v>
       </c>
       <c r="M95" t="n">
-        <v>46475967.58684211</v>
+        <v>36883224.97426523</v>
       </c>
       <c r="N95" t="n">
-        <v>46571615.10853588</v>
+        <v>39746724.20147785</v>
       </c>
       <c r="O95" t="n">
-        <v>49916534.6419434</v>
+        <v>43525770.5579278</v>
       </c>
       <c r="P95" t="n">
-        <v>53211493.96362352</v>
+        <v>46145831.07773392</v>
       </c>
       <c r="Q95" t="n">
-        <v>53321003.19576018</v>
+        <v>48387046.03686937</v>
       </c>
       <c r="R95" t="n">
-        <v>58390667.34789933</v>
+        <v>51018423.27642255</v>
       </c>
       <c r="S95" t="n">
-        <v>62244998.88467671</v>
+        <v>52606463.90167848</v>
       </c>
       <c r="T95" t="n">
-        <v>64182486.96446921</v>
+        <v>53938093.72548962</v>
       </c>
       <c r="U95" t="n">
-        <v>66553424.53550635</v>
+        <v>53735515.08557227</v>
       </c>
     </row>
     <row r="96">
@@ -6613,64 +6613,64 @@
         <v>22561132</v>
       </c>
       <c r="B96" t="n">
-        <v>23263388.00610278</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C96" t="n">
-        <v>23852255.2093749</v>
+        <v>23698705.92475411</v>
       </c>
       <c r="D96" t="n">
-        <v>24733371.08232604</v>
+        <v>25951935.84688668</v>
       </c>
       <c r="E96" t="n">
-        <v>25934623.71912825</v>
+        <v>28419398.77811747</v>
       </c>
       <c r="F96" t="n">
-        <v>26741885.75158183</v>
+        <v>30791016.38951583</v>
       </c>
       <c r="G96" t="n">
-        <v>27418804.32718334</v>
+        <v>31928454.04674992</v>
       </c>
       <c r="H96" t="n">
-        <v>28431670.55295335</v>
+        <v>32551036.04482574</v>
       </c>
       <c r="I96" t="n">
-        <v>28159593.01423084</v>
+        <v>32239538.14133642</v>
       </c>
       <c r="J96" t="n">
-        <v>29690963.87072551</v>
+        <v>32493320.08367963</v>
       </c>
       <c r="K96" t="n">
-        <v>30097300.22866058</v>
+        <v>35016000.70648605</v>
       </c>
       <c r="L96" t="n">
-        <v>30859154.56419602</v>
+        <v>36716661.04263376</v>
       </c>
       <c r="M96" t="n">
-        <v>31102070.45678847</v>
+        <v>36365300.09294975</v>
       </c>
       <c r="N96" t="n">
-        <v>33878378.81342611</v>
+        <v>37497235.77791467</v>
       </c>
       <c r="O96" t="n">
-        <v>34538982.94860751</v>
+        <v>39754404.94009693</v>
       </c>
       <c r="P96" t="n">
-        <v>34610064.16094989</v>
+        <v>41454077.89805438</v>
       </c>
       <c r="Q96" t="n">
-        <v>36291008.93369636</v>
+        <v>42744410.98867064</v>
       </c>
       <c r="R96" t="n">
-        <v>39741492.1581146</v>
+        <v>43329390.5925272</v>
       </c>
       <c r="S96" t="n">
-        <v>39130137.45799733</v>
+        <v>44678096.17983442</v>
       </c>
       <c r="T96" t="n">
-        <v>38528187.40146688</v>
+        <v>46068782.66593478</v>
       </c>
       <c r="U96" t="n">
-        <v>39055465.78201107</v>
+        <v>46699258.03360836</v>
       </c>
     </row>
     <row r="97">
@@ -6678,64 +6678,64 @@
         <v>22561132</v>
       </c>
       <c r="B97" t="n">
-        <v>24050378.25325636</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C97" t="n">
-        <v>24379520.24908172</v>
+        <v>24768487.24956711</v>
       </c>
       <c r="D97" t="n">
-        <v>24854903.44197227</v>
+        <v>25683449.25517251</v>
       </c>
       <c r="E97" t="n">
-        <v>26784561.08032117</v>
+        <v>27528115.17235607</v>
       </c>
       <c r="F97" t="n">
-        <v>27929717.05052321</v>
+        <v>28705061.29977251</v>
       </c>
       <c r="G97" t="n">
-        <v>30585223.82691646</v>
+        <v>28430367.54188111</v>
       </c>
       <c r="H97" t="n">
-        <v>32781950.57504126</v>
+        <v>30141750.9959873</v>
       </c>
       <c r="I97" t="n">
-        <v>35708212.46023689</v>
+        <v>31255204.42032709</v>
       </c>
       <c r="J97" t="n">
-        <v>37442492.20037328</v>
+        <v>32228079.14248842</v>
       </c>
       <c r="K97" t="n">
-        <v>38390275.7158177</v>
+        <v>31919671.78265666</v>
       </c>
       <c r="L97" t="n">
-        <v>38469282.88705082</v>
+        <v>32727655.8925845</v>
       </c>
       <c r="M97" t="n">
-        <v>38548452.65500902</v>
+        <v>32795009.39460946</v>
       </c>
       <c r="N97" t="n">
-        <v>37955450.82158199</v>
+        <v>35341112.24010136</v>
       </c>
       <c r="O97" t="n">
-        <v>40460866.45971118</v>
+        <v>34797449.83836272</v>
       </c>
       <c r="P97" t="n">
-        <v>43837352.50776137</v>
+        <v>36285191.50083424</v>
       </c>
       <c r="Q97" t="n">
-        <v>43417849.93396048</v>
+        <v>37414633.66109688</v>
       </c>
       <c r="R97" t="n">
-        <v>42749940.77442246</v>
+        <v>36839073.68838944</v>
       </c>
       <c r="S97" t="n">
-        <v>44080609.93895624</v>
+        <v>38199930.02196156</v>
       </c>
       <c r="T97" t="n">
-        <v>47246617.66460001</v>
+        <v>37612289.61152698</v>
       </c>
       <c r="U97" t="n">
-        <v>47343851.1838288</v>
+        <v>37689695.68768556</v>
       </c>
     </row>
     <row r="98">
@@ -6743,64 +6743,64 @@
         <v>22561132</v>
       </c>
       <c r="B98" t="n">
-        <v>22607562.80014147</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C98" t="n">
-        <v>22391219.1972666</v>
+        <v>23292962.55432942</v>
       </c>
       <c r="D98" t="n">
-        <v>23739072.4037022</v>
+        <v>25507615.13363785</v>
       </c>
       <c r="E98" t="n">
-        <v>23649914.09890714</v>
+        <v>26894766.51805577</v>
       </c>
       <c r="F98" t="n">
-        <v>23836080.57281749</v>
+        <v>27419195.21266393</v>
       </c>
       <c r="G98" t="n">
-        <v>25686639.96255806</v>
+        <v>27794441.22922084</v>
       </c>
       <c r="H98" t="n">
-        <v>25739503.05676838</v>
+        <v>30437086.22618751</v>
       </c>
       <c r="I98" t="n">
-        <v>27438551.60131716</v>
+        <v>33154035.1495355</v>
       </c>
       <c r="J98" t="n">
-        <v>27335498.93332733</v>
+        <v>34378764.06368673</v>
       </c>
       <c r="K98" t="n">
-        <v>29457742.31431339</v>
+        <v>34849255.41724367</v>
       </c>
       <c r="L98" t="n">
-        <v>29860886.91336058</v>
+        <v>35326185.69086654</v>
       </c>
       <c r="M98" t="n">
-        <v>30616756.90784645</v>
+        <v>38479557.25427894</v>
       </c>
       <c r="N98" t="n">
-        <v>31213761.75068597</v>
+        <v>39229881.07532472</v>
       </c>
       <c r="O98" t="n">
-        <v>30915060.92494376</v>
+        <v>40450982.02025269</v>
       </c>
       <c r="P98" t="n">
-        <v>31517882.48257713</v>
+        <v>40769402.48712742</v>
       </c>
       <c r="Q98" t="n">
-        <v>31399508.81889353</v>
+        <v>44171636.07058764</v>
       </c>
       <c r="R98" t="n">
-        <v>32559424.53253734</v>
+        <v>46830574.86202762</v>
       </c>
       <c r="S98" t="n">
-        <v>34897944.57015207</v>
+        <v>47471475.75403956</v>
       </c>
       <c r="T98" t="n">
-        <v>38013089.43725024</v>
+        <v>50605038.26336992</v>
       </c>
       <c r="U98" t="n">
-        <v>40080311.69078609</v>
+        <v>49826566.53742571</v>
       </c>
     </row>
     <row r="99">
@@ -6808,64 +6808,64 @@
         <v>22561132</v>
       </c>
       <c r="B99" t="n">
-        <v>23001057.92371826</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C99" t="n">
-        <v>24118175.41603821</v>
+        <v>26058923.33875809</v>
       </c>
       <c r="D99" t="n">
-        <v>25149331.85295844</v>
+        <v>27021554.7874092</v>
       </c>
       <c r="E99" t="n">
-        <v>27101848.00023428</v>
+        <v>27548455.76250897</v>
       </c>
       <c r="F99" t="n">
-        <v>27945441.99785147</v>
+        <v>27444990.3206527</v>
       </c>
       <c r="G99" t="n">
-        <v>29952571.33168443</v>
+        <v>29735292.90225534</v>
       </c>
       <c r="H99" t="n">
-        <v>31755584.77881866</v>
+        <v>32389596.64985619</v>
       </c>
       <c r="I99" t="n">
-        <v>32005557.15590678</v>
+        <v>35280835.28852023</v>
       </c>
       <c r="J99" t="n">
-        <v>31885351.90224248</v>
+        <v>34738100.14430658</v>
       </c>
       <c r="K99" t="n">
-        <v>31580224.27878097</v>
+        <v>36627222.4105304</v>
       </c>
       <c r="L99" t="n">
-        <v>34215614.86730869</v>
+        <v>37554368.96454294</v>
       </c>
       <c r="M99" t="n">
-        <v>35081716.28941721</v>
+        <v>39378313.00322422</v>
       </c>
       <c r="N99" t="n">
-        <v>35765784.64397688</v>
+        <v>40604034.16015506</v>
       </c>
       <c r="O99" t="n">
-        <v>38958396.75405273</v>
+        <v>43992467.64743178</v>
       </c>
       <c r="P99" t="n">
-        <v>42662490.36841556</v>
+        <v>48175191.58039147</v>
       </c>
       <c r="Q99" t="n">
-        <v>44734526.1162732</v>
+        <v>47994257.02905597</v>
       </c>
       <c r="R99" t="n">
-        <v>45866893.21933156</v>
+        <v>51162328.00432193</v>
       </c>
       <c r="S99" t="n">
-        <v>45427968.90805265</v>
+        <v>51862511.20198678</v>
       </c>
       <c r="T99" t="n">
-        <v>48162533.42707847</v>
+        <v>55285923.22280315</v>
       </c>
       <c r="U99" t="n">
-        <v>51621717.7062404</v>
+        <v>60542408.40279033</v>
       </c>
     </row>
     <row r="100">
@@ -6873,64 +6873,64 @@
         <v>22561132</v>
       </c>
       <c r="B100" t="n">
-        <v>23394553.04729505</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C100" t="n">
-        <v>23170678.32277732</v>
+        <v>24645440.45574503</v>
       </c>
       <c r="D100" t="n">
-        <v>25373704.33941971</v>
+        <v>24839443.47530887</v>
       </c>
       <c r="E100" t="n">
-        <v>26311023.40852998</v>
+        <v>27201132.65215229</v>
       </c>
       <c r="F100" t="n">
-        <v>26824069.53037219</v>
+        <v>27889676.16552639</v>
       </c>
       <c r="G100" t="n">
-        <v>28594709.63146263</v>
+        <v>29730656.29604658</v>
       </c>
       <c r="H100" t="n">
-        <v>30648471.40406787</v>
+        <v>32038852.2682712</v>
       </c>
       <c r="I100" t="n">
-        <v>33027923.69551015</v>
+        <v>33967450.67909723</v>
       </c>
       <c r="J100" t="n">
-        <v>35592109.28515203</v>
+        <v>36604578.23065606</v>
       </c>
       <c r="K100" t="n">
-        <v>35665357.83105089</v>
+        <v>36254289.86007214</v>
       </c>
       <c r="L100" t="n">
-        <v>36153456.89272565</v>
+        <v>35696579.78675162</v>
       </c>
       <c r="M100" t="n">
-        <v>38329736.45871463</v>
+        <v>37845357.35444345</v>
       </c>
       <c r="N100" t="n">
-        <v>38408619.04018216</v>
+        <v>39463410.26144861</v>
       </c>
       <c r="O100" t="n">
-        <v>40497350.92656336</v>
+        <v>42068365.36177695</v>
       </c>
       <c r="P100" t="n">
-        <v>41287020.27979044</v>
+        <v>44845271.92371923</v>
       </c>
       <c r="Q100" t="n">
-        <v>43532284.96014372</v>
+        <v>47544760.63951188</v>
       </c>
       <c r="R100" t="n">
-        <v>45140392.32473116</v>
+        <v>47366193.83671445</v>
       </c>
       <c r="S100" t="n">
-        <v>49432258.85136064</v>
+        <v>49115927.97566522</v>
       </c>
       <c r="T100" t="n">
-        <v>53557413.52399778</v>
+        <v>53214684.62765155</v>
       </c>
       <c r="U100" t="n">
-        <v>53044894.59814664</v>
+        <v>57964862.71733364</v>
       </c>
     </row>
     <row r="101">
@@ -6938,64 +6938,64 @@
         <v>22561132</v>
       </c>
       <c r="B101" t="n">
-        <v>23919213.21206409</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C101" t="n">
-        <v>26054347.96513828</v>
+        <v>24339867.01104338</v>
       </c>
       <c r="D101" t="n">
-        <v>26562389.09957428</v>
+        <v>26654057.36490253</v>
       </c>
       <c r="E101" t="n">
-        <v>26462627.08936804</v>
+        <v>28878356.06859285</v>
       </c>
       <c r="F101" t="n">
-        <v>28209408.60033839</v>
+        <v>31456165.84465206</v>
       </c>
       <c r="G101" t="n">
-        <v>28267463.55134135</v>
+        <v>32069538.56087229</v>
       </c>
       <c r="H101" t="n">
-        <v>29476020.02352749</v>
+        <v>33999984.15194838</v>
       </c>
       <c r="I101" t="n">
-        <v>30907614.06939531</v>
+        <v>35651298.50282337</v>
       </c>
       <c r="J101" t="n">
-        <v>30791532.4285955</v>
+        <v>36139205.15524353</v>
       </c>
       <c r="K101" t="n">
-        <v>31570959.89552048</v>
+        <v>39155045.71110034</v>
       </c>
       <c r="L101" t="n">
-        <v>31635932.91767128</v>
+        <v>42650198.25289936</v>
       </c>
       <c r="M101" t="n">
-        <v>31149268.34541858</v>
+        <v>46457343.56775192</v>
       </c>
       <c r="N101" t="n">
-        <v>33748695.37647352</v>
+        <v>47363228.51104908</v>
       </c>
       <c r="O101" t="n">
-        <v>34995391.37760954</v>
+        <v>47460702.01535068</v>
       </c>
       <c r="P101" t="n">
-        <v>34660502.1583877</v>
+        <v>51145403.7636048</v>
       </c>
       <c r="Q101" t="n">
-        <v>36343896.60842303</v>
+        <v>51250660.98298114</v>
       </c>
       <c r="R101" t="n">
-        <v>36418692.33231613</v>
+        <v>51356134.82167056</v>
       </c>
       <c r="S101" t="n">
-        <v>38187478.72408886</v>
+        <v>52954687.32908652</v>
       </c>
       <c r="T101" t="n">
-        <v>39376133.0119993</v>
+        <v>54602997.67220875</v>
       </c>
       <c r="U101" t="n">
-        <v>43119944.2311526</v>
+        <v>56937512.26767839</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -503,64 +503,64 @@
         <v>22561132</v>
       </c>
       <c r="B2" t="n">
-        <v>24575038.41802541</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C2" t="n">
-        <v>24768487.24956711</v>
+        <v>23850730.08483496</v>
       </c>
       <c r="D2" t="n">
-        <v>25827447.33338771</v>
+        <v>24593127.16189704</v>
       </c>
       <c r="E2" t="n">
-        <v>26030754.82871532</v>
+        <v>25358632.68964678</v>
       </c>
       <c r="F2" t="n">
-        <v>26538335.91388011</v>
+        <v>25115962.65888945</v>
       </c>
       <c r="G2" t="n">
-        <v>26747239.35428473</v>
+        <v>24875614.86468756</v>
       </c>
       <c r="H2" t="n">
-        <v>27268791.37480599</v>
+        <v>24782187.97696618</v>
       </c>
       <c r="I2" t="n">
-        <v>27800513.28637683</v>
+        <v>24977267.4403486</v>
       </c>
       <c r="J2" t="n">
-        <v>28180977.84006045</v>
+        <v>25173882.52266301</v>
       </c>
       <c r="K2" t="n">
-        <v>29877349.12773257</v>
+        <v>27274659.65746966</v>
       </c>
       <c r="L2" t="n">
-        <v>32718033.22509884</v>
+        <v>26855085.79473314</v>
       </c>
       <c r="M2" t="n">
-        <v>35828804.40771924</v>
+        <v>29096160.45375948</v>
       </c>
       <c r="N2" t="n">
-        <v>37777241.19319768</v>
+        <v>31693412.41246986</v>
       </c>
       <c r="O2" t="n">
-        <v>37635358.868255</v>
+        <v>33416958.91709424</v>
       </c>
       <c r="P2" t="n">
-        <v>39244433.4306283</v>
+        <v>33097174.54435326</v>
       </c>
       <c r="Q2" t="n">
-        <v>39325198.45807828</v>
+        <v>35666736.55518078</v>
       </c>
       <c r="R2" t="n">
-        <v>41235148.30613168</v>
+        <v>38228433.49264555</v>
       </c>
       <c r="S2" t="n">
-        <v>41320010.22395591</v>
+        <v>38084856.59683376</v>
       </c>
       <c r="T2" t="n">
-        <v>44768192.38697018</v>
+        <v>39491732.85955917</v>
       </c>
       <c r="U2" t="n">
-        <v>49024670.81943783</v>
+        <v>39573006.8291296</v>
       </c>
     </row>
     <row r="3">
@@ -568,64 +568,64 @@
         <v>22561132</v>
       </c>
       <c r="B3" t="n">
-        <v>24312708.33564088</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C3" t="n">
-        <v>25493530.18555287</v>
+        <v>24118175.41603821</v>
       </c>
       <c r="D3" t="n">
-        <v>26731702.29944944</v>
+        <v>24868897.21236267</v>
       </c>
       <c r="E3" t="n">
-        <v>27563774.84320035</v>
+        <v>25498404.74351265</v>
       </c>
       <c r="F3" t="n">
-        <v>29703740.85803875</v>
+        <v>25550880.44972155</v>
       </c>
       <c r="G3" t="n">
-        <v>29764871.14419787</v>
+        <v>27386024.85931214</v>
       </c>
       <c r="H3" t="n">
-        <v>30172218.96179651</v>
+        <v>29989838.36951793</v>
       </c>
       <c r="I3" t="n">
-        <v>30760555.63290849</v>
+        <v>32666863.9712438</v>
       </c>
       <c r="J3" t="n">
-        <v>30466191.77374829</v>
+        <v>33303844.43425993</v>
       </c>
       <c r="K3" t="n">
-        <v>29997521.66288653</v>
+        <v>36083072.2639626</v>
       </c>
       <c r="L3" t="n">
-        <v>30756850.29902864</v>
+        <v>35527996.07971972</v>
       </c>
       <c r="M3" t="n">
-        <v>33681155.77057488</v>
+        <v>36014215.27403826</v>
       </c>
       <c r="N3" t="n">
-        <v>33946285.78249838</v>
+        <v>35878954.45475466</v>
       </c>
       <c r="O3" t="n">
-        <v>34608214.0549658</v>
+        <v>38455893.54768191</v>
       </c>
       <c r="P3" t="n">
-        <v>36691476.77826983</v>
+        <v>39205755.9433886</v>
       </c>
       <c r="Q3" t="n">
-        <v>36766987.82200589</v>
+        <v>39742307.20354609</v>
       </c>
       <c r="R3" t="n">
-        <v>36201390.76981901</v>
+        <v>43289881.30330133</v>
       </c>
       <c r="S3" t="n">
-        <v>39011954.5034873</v>
+        <v>44385680.04621743</v>
       </c>
       <c r="T3" t="n">
-        <v>38638628.68915309</v>
+        <v>45251169.03383539</v>
       </c>
       <c r="U3" t="n">
-        <v>41638412.01800093</v>
+        <v>46396613.94266629</v>
       </c>
     </row>
     <row r="4">
@@ -633,64 +633,64 @@
         <v>22561132</v>
       </c>
       <c r="B4" t="n">
-        <v>23263388.00610278</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C4" t="n">
-        <v>25069485.32064895</v>
+        <v>23574134.0063921</v>
       </c>
       <c r="D4" t="n">
-        <v>25412574.32930667</v>
+        <v>24856139.1037756</v>
       </c>
       <c r="E4" t="n">
-        <v>25908101.33725463</v>
+        <v>26207862.01430429</v>
       </c>
       <c r="F4" t="n">
-        <v>27015784.85814513</v>
+        <v>27175995.34233612</v>
       </c>
       <c r="G4" t="n">
-        <v>29113206.62963657</v>
+        <v>29601844.87134732</v>
       </c>
       <c r="H4" t="n">
-        <v>30696436.76187614</v>
+        <v>31900040.3239498</v>
       </c>
       <c r="I4" t="n">
-        <v>31651918.83086016</v>
+        <v>32151149.82057931</v>
       </c>
       <c r="J4" t="n">
-        <v>32637142.00599381</v>
+        <v>33899588.93378478</v>
       </c>
       <c r="K4" t="n">
-        <v>33083798.35146871</v>
+        <v>37122700.28746478</v>
       </c>
       <c r="L4" t="n">
-        <v>35459980.56218316</v>
+        <v>36767453.73569655</v>
       </c>
       <c r="M4" t="n">
-        <v>37800671.76476886</v>
+        <v>36843121.13997895</v>
       </c>
       <c r="N4" t="n">
-        <v>39856342.35159993</v>
+        <v>40346098.19032679</v>
       </c>
       <c r="O4" t="n">
-        <v>43414095.73298634</v>
+        <v>40898255.63010976</v>
       </c>
       <c r="P4" t="n">
-        <v>47541829.11465233</v>
+        <v>43122378.56831302</v>
       </c>
       <c r="Q4" t="n">
-        <v>51509226.1763107</v>
+        <v>43211124.40522093</v>
       </c>
       <c r="R4" t="n">
-        <v>54609855.71555579</v>
+        <v>46817121.29656459</v>
       </c>
       <c r="S4" t="n">
-        <v>54087265.41944896</v>
+        <v>49363123.11918693</v>
       </c>
       <c r="T4" t="n">
-        <v>55141928.37701002</v>
+        <v>52908537.51734693</v>
       </c>
       <c r="U4" t="n">
-        <v>56537738.52890547</v>
+        <v>55478204.22353556</v>
       </c>
     </row>
     <row r="5">
@@ -698,64 +698,64 @@
         <v>22561132</v>
       </c>
       <c r="B5" t="n">
-        <v>22607562.80014147</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C5" t="n">
-        <v>23442699.02760037</v>
+        <v>23698705.92475411</v>
       </c>
       <c r="D5" t="n">
-        <v>24308685.66226947</v>
+        <v>24849706.84921983</v>
       </c>
       <c r="E5" t="n">
-        <v>24924012.53286142</v>
+        <v>24900847.53543585</v>
       </c>
       <c r="F5" t="n">
-        <v>25410012.9355134</v>
+        <v>25965466.59463132</v>
       </c>
       <c r="G5" t="n">
-        <v>26053217.7536817</v>
+        <v>26924645.69800265</v>
       </c>
       <c r="H5" t="n">
-        <v>26561236.84980336</v>
+        <v>26980056.60749441</v>
       </c>
       <c r="I5" t="n">
-        <v>29086631.01389202</v>
+        <v>28604137.70320645</v>
       </c>
       <c r="J5" t="n">
-        <v>31175724.12377543</v>
+        <v>29827088.45327025</v>
       </c>
       <c r="K5" t="n">
-        <v>31602380.20175254</v>
+        <v>30061880.16799423</v>
       </c>
       <c r="L5" t="n">
-        <v>31851146.58901</v>
+        <v>31347155.7208264</v>
       </c>
       <c r="M5" t="n">
-        <v>33212921.02932305</v>
+        <v>33416361.92056338</v>
       </c>
       <c r="N5" t="n">
-        <v>33281273.20679477</v>
+        <v>34067957.05706661</v>
       </c>
       <c r="O5" t="n">
-        <v>36445596.22402287</v>
+        <v>36910950.59017099</v>
       </c>
       <c r="P5" t="n">
-        <v>37368145.26607963</v>
+        <v>37416096.23973744</v>
       </c>
       <c r="Q5" t="n">
-        <v>38965795.28985651</v>
+        <v>37710626.81077085</v>
       </c>
       <c r="R5" t="n">
-        <v>41311365.29477868</v>
+        <v>39761400.58612253</v>
       </c>
       <c r="S5" t="n">
-        <v>41876732.91936284</v>
+        <v>43541842.34657197</v>
       </c>
       <c r="T5" t="n">
-        <v>44640989.94329135</v>
+        <v>45150302.76644965</v>
       </c>
       <c r="U5" t="n">
-        <v>46290053.50051115</v>
+        <v>45243222.07050212</v>
       </c>
     </row>
     <row r="6">
@@ -763,64 +763,64 @@
         <v>22561132</v>
       </c>
       <c r="B6" t="n">
-        <v>22476397.75894921</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C6" t="n">
-        <v>24221395.59084112</v>
+        <v>24659166.57660446</v>
       </c>
       <c r="D6" t="n">
-        <v>25397782.55498281</v>
+        <v>24709915.13101979</v>
       </c>
       <c r="E6" t="n">
-        <v>25745364.4828701</v>
+        <v>27059288.98811354</v>
       </c>
       <c r="F6" t="n">
-        <v>25648671.02262918</v>
+        <v>28688139.52569162</v>
       </c>
       <c r="G6" t="n">
-        <v>25552340.72000678</v>
+        <v>29414323.71198222</v>
       </c>
       <c r="H6" t="n">
-        <v>25307816.99570609</v>
+        <v>29987881.96825861</v>
       </c>
       <c r="I6" t="n">
-        <v>27419771.0508101</v>
+        <v>30921308.98878714</v>
       </c>
       <c r="J6" t="n">
-        <v>26997964.89815336</v>
+        <v>32782636.19480236</v>
       </c>
       <c r="K6" t="n">
-        <v>29564882.37197468</v>
+        <v>35518368.85243773</v>
       </c>
       <c r="L6" t="n">
-        <v>29969493.23870549</v>
+        <v>37243428.25080632</v>
       </c>
       <c r="M6" t="n">
-        <v>30553876.90333745</v>
+        <v>38186172.8514021</v>
       </c>
       <c r="N6" t="n">
-        <v>32037820.40107163</v>
+        <v>37820749.37397078</v>
       </c>
       <c r="O6" t="n">
-        <v>32848795.21237445</v>
+        <v>37458822.82508418</v>
       </c>
       <c r="P6" t="n">
-        <v>35781023.94551617</v>
+        <v>36882583.0778733</v>
       </c>
       <c r="Q6" t="n">
-        <v>36686750.63912938</v>
+        <v>36958487.41829335</v>
       </c>
       <c r="R6" t="n">
-        <v>37828692.05327135</v>
+        <v>37034547.96981398</v>
       </c>
       <c r="S6" t="n">
-        <v>37906543.48556378</v>
+        <v>37541385.11411645</v>
       </c>
       <c r="T6" t="n">
-        <v>40408730.78094307</v>
+        <v>37836901.92923792</v>
       </c>
       <c r="U6" t="n">
-        <v>39787111.7589291</v>
+        <v>39894542.77955844</v>
       </c>
     </row>
     <row r="7">
@@ -828,64 +828,64 @@
         <v>22561132</v>
       </c>
       <c r="B7" t="n">
-        <v>24706203.45921767</v>
+        <v>23919213.21206409</v>
       </c>
       <c r="C7" t="n">
-        <v>26337044.54174089</v>
+        <v>25359044.95768127</v>
       </c>
       <c r="D7" t="n">
-        <v>28534888.31581362</v>
+        <v>25263802.42161251</v>
       </c>
       <c r="E7" t="n">
-        <v>28759508.13975734</v>
+        <v>26050183.92886894</v>
       </c>
       <c r="F7" t="n">
-        <v>29320297.96112204</v>
+        <v>26709593.42463512</v>
       </c>
       <c r="G7" t="n">
-        <v>30744328.88357048</v>
+        <v>26298712.13680109</v>
       </c>
       <c r="H7" t="n">
-        <v>30271380.11027979</v>
+        <v>26964412.63844745</v>
       </c>
       <c r="I7" t="n">
-        <v>31037640.93781064</v>
+        <v>29057846.0300858</v>
       </c>
       <c r="J7" t="n">
-        <v>32184189.04612176</v>
+        <v>30300194.7757971</v>
       </c>
       <c r="K7" t="n">
-        <v>34869980.8936653</v>
+        <v>30010236.35066491</v>
       </c>
       <c r="L7" t="n">
-        <v>37374452.33939341</v>
+        <v>30246469.76188383</v>
       </c>
       <c r="M7" t="n">
-        <v>38320513.55872879</v>
+        <v>30308716.98389817</v>
       </c>
       <c r="N7" t="n">
-        <v>39958881.45101536</v>
+        <v>30547299.963356</v>
       </c>
       <c r="O7" t="n">
-        <v>41667296.66525031</v>
+        <v>30254976.85933125</v>
       </c>
       <c r="P7" t="n">
-        <v>41026316.76554918</v>
+        <v>31900298.57271277</v>
       </c>
       <c r="Q7" t="n">
-        <v>43972955.57146206</v>
+        <v>32893253.01618483</v>
       </c>
       <c r="R7" t="n">
-        <v>47386879.49988732</v>
+        <v>33725881.43235024</v>
       </c>
       <c r="S7" t="n">
-        <v>48861881.76215255</v>
+        <v>33991363.51399844</v>
       </c>
       <c r="T7" t="n">
-        <v>52939438.08971331</v>
+        <v>34258935.4071707</v>
       </c>
       <c r="U7" t="n">
-        <v>55510605.57773674</v>
+        <v>35325306.68465681</v>
       </c>
     </row>
     <row r="8">
@@ -893,64 +893,64 @@
         <v>22561132</v>
       </c>
       <c r="B8" t="n">
-        <v>23788048.17087183</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C8" t="n">
-        <v>24943388.277747</v>
+        <v>23306688.67518884</v>
       </c>
       <c r="D8" t="n">
-        <v>25284751.58247061</v>
+        <v>24980648.18951967</v>
       </c>
       <c r="E8" t="n">
-        <v>26071785.1702182</v>
+        <v>25903447.54090942</v>
       </c>
       <c r="F8" t="n">
-        <v>28095917.73289578</v>
+        <v>27763914.42530366</v>
       </c>
       <c r="G8" t="n">
-        <v>28480425.05081699</v>
+        <v>27982465.32696407</v>
       </c>
       <c r="H8" t="n">
-        <v>28042302.5553938</v>
+        <v>29016153.51063746</v>
       </c>
       <c r="I8" t="n">
-        <v>28426076.12159004</v>
+        <v>29413254.73611914</v>
       </c>
       <c r="J8" t="n">
-        <v>30632988.53403918</v>
+        <v>28960782.25579227</v>
       </c>
       <c r="K8" t="n">
-        <v>30161752.54107712</v>
+        <v>29188754.61508702</v>
       </c>
       <c r="L8" t="n">
-        <v>30574531.88801386</v>
+        <v>30436700.26967486</v>
       </c>
       <c r="M8" t="n">
-        <v>30992960.33604396</v>
+        <v>30145435.55201486</v>
       </c>
       <c r="N8" t="n">
-        <v>33218971.99968405</v>
+        <v>30908508.3391892</v>
       </c>
       <c r="O8" t="n">
-        <v>33866718.1740308</v>
+        <v>31511202.12609099</v>
       </c>
       <c r="P8" t="n">
-        <v>33739522.84263706</v>
+        <v>34140832.7703576</v>
       </c>
       <c r="Q8" t="n">
-        <v>33612805.22662884</v>
+        <v>33615634.60977937</v>
       </c>
       <c r="R8" t="n">
-        <v>33291146.69803174</v>
+        <v>33684815.57162984</v>
       </c>
       <c r="S8" t="n">
-        <v>35682221.31763135</v>
+        <v>33166632.45358367</v>
       </c>
       <c r="T8" t="n">
-        <v>35963103.23949418</v>
+        <v>35163118.28606083</v>
       </c>
       <c r="U8" t="n">
-        <v>36246196.19674428</v>
+        <v>36666493.85810961</v>
       </c>
     </row>
     <row r="9">
@@ -958,64 +958,64 @@
         <v>22561132</v>
       </c>
       <c r="B9" t="n">
-        <v>23525718.08848731</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C9" t="n">
-        <v>25488954.81193306</v>
+        <v>22654089.15485005</v>
       </c>
       <c r="D9" t="n">
-        <v>27764211.64233109</v>
+        <v>23095827.67654493</v>
       </c>
       <c r="E9" t="n">
-        <v>28144179.38904365</v>
+        <v>25023189.76098464</v>
       </c>
       <c r="F9" t="n">
-        <v>29674712.02403446</v>
+        <v>25365645.19071294</v>
       </c>
       <c r="G9" t="n">
-        <v>30943434.462175</v>
+        <v>24975438.241584</v>
       </c>
       <c r="H9" t="n">
-        <v>31906604.78095645</v>
+        <v>26624051.34418517</v>
       </c>
       <c r="I9" t="n">
-        <v>34383734.64682353</v>
+        <v>26678843.63062355</v>
       </c>
       <c r="J9" t="n">
-        <v>34254597.52463523</v>
+        <v>26578644.24492102</v>
       </c>
       <c r="K9" t="n">
-        <v>33926797.34957781</v>
+        <v>27405952.58011736</v>
       </c>
       <c r="L9" t="n">
-        <v>35771799.46623085</v>
+        <v>28896339.07307758</v>
       </c>
       <c r="M9" t="n">
-        <v>38964948.4859414</v>
+        <v>28787811.30237425</v>
       </c>
       <c r="N9" t="n">
-        <v>41990066.27202771</v>
+        <v>28344960.19663885</v>
       </c>
       <c r="O9" t="n">
-        <v>45982405.51860387</v>
+        <v>29062457.46889668</v>
       </c>
       <c r="P9" t="n">
-        <v>46077037.28976935</v>
+        <v>30136041.17651806</v>
       </c>
       <c r="Q9" t="n">
-        <v>46171863.81307998</v>
+        <v>30022857.37982879</v>
       </c>
       <c r="R9" t="n">
-        <v>49488071.95407479</v>
+        <v>30259190.14077418</v>
       </c>
       <c r="S9" t="n">
-        <v>50740765.78006782</v>
+        <v>32608419.84193625</v>
       </c>
       <c r="T9" t="n">
-        <v>54090132.08515058</v>
+        <v>34571303.72304787</v>
       </c>
       <c r="U9" t="n">
-        <v>54830383.81181742</v>
+        <v>37456301.86810761</v>
       </c>
     </row>
     <row r="10">
@@ -1023,64 +1023,64 @@
         <v>22561132</v>
       </c>
       <c r="B10" t="n">
-        <v>23788048.17087183</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C10" t="n">
-        <v>24943388.277747</v>
+        <v>24625613.83672586</v>
       </c>
       <c r="D10" t="n">
-        <v>27169945.42655737</v>
+        <v>25105795.67841052</v>
       </c>
       <c r="E10" t="n">
-        <v>28015659.07963492</v>
+        <v>24719586.06838595</v>
       </c>
       <c r="F10" t="n">
-        <v>29213449.82027768</v>
+        <v>26926165.64223242</v>
       </c>
       <c r="G10" t="n">
-        <v>28933891.02650609</v>
+        <v>26825037.37392998</v>
       </c>
       <c r="H10" t="n">
-        <v>28825222.21960502</v>
+        <v>28439786.9915667</v>
       </c>
       <c r="I10" t="n">
-        <v>29219710.45058267</v>
+        <v>28663658.2006053</v>
       </c>
       <c r="J10" t="n">
-        <v>30638856.02958712</v>
+        <v>30055797.38289732</v>
       </c>
       <c r="K10" t="n">
-        <v>32305053.80369324</v>
+        <v>30816601.1550021</v>
       </c>
       <c r="L10" t="n">
-        <v>35188745.77402142</v>
+        <v>32313304.66830446</v>
       </c>
       <c r="M10" t="n">
-        <v>37716111.91370384</v>
+        <v>35385594.99473777</v>
       </c>
       <c r="N10" t="n">
-        <v>41302091.34145355</v>
+        <v>38338546.28461333</v>
       </c>
       <c r="O10" t="n">
-        <v>45229019.18100315</v>
+        <v>38863229.3273614</v>
       </c>
       <c r="P10" t="n">
-        <v>49003410.72508235</v>
+        <v>41202625.31111027</v>
       </c>
       <c r="Q10" t="n">
-        <v>49389153.86757819</v>
+        <v>43203758.19887552</v>
       </c>
       <c r="R10" t="n">
-        <v>53797848.1633591</v>
+        <v>46306787.6810879</v>
       </c>
       <c r="S10" t="n">
-        <v>55785171.27101728</v>
+        <v>49632686.47765844</v>
       </c>
       <c r="T10" t="n">
-        <v>60440480.68393451</v>
+        <v>52908909.15903367</v>
       </c>
       <c r="U10" t="n">
-        <v>61619026.79123335</v>
+        <v>53325395.45219256</v>
       </c>
     </row>
     <row r="11">
@@ -1088,64 +1088,64 @@
         <v>22561132</v>
       </c>
       <c r="B11" t="n">
-        <v>24050378.25325636</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C11" t="n">
-        <v>24379520.24908172</v>
+        <v>23852255.2093749</v>
       </c>
       <c r="D11" t="n">
-        <v>25705323.74297092</v>
+        <v>25704070.34774686</v>
       </c>
       <c r="E11" t="n">
-        <v>25309891.42186487</v>
+        <v>27998529.3422115</v>
       </c>
       <c r="F11" t="n">
-        <v>27716309.93512655</v>
+        <v>30009471.5756983</v>
       </c>
       <c r="G11" t="n">
-        <v>27612214.07295609</v>
+        <v>32862717.63548087</v>
       </c>
       <c r="H11" t="n">
-        <v>28953286.6203529</v>
+        <v>32548237.08769379</v>
       </c>
       <c r="I11" t="n">
-        <v>28507889.96064089</v>
+        <v>32615221.34589394</v>
       </c>
       <c r="J11" t="n">
-        <v>28069344.96468242</v>
+        <v>32682343.45766922</v>
       </c>
       <c r="K11" t="n">
-        <v>29269431.00938461</v>
+        <v>33319625.75958973</v>
       </c>
       <c r="L11" t="n">
-        <v>29329667.48605835</v>
+        <v>34550471.68505288</v>
       </c>
       <c r="M11" t="n">
-        <v>29901575.00653</v>
+        <v>37031994.97683571</v>
       </c>
       <c r="N11" t="n">
-        <v>30136953.06160668</v>
+        <v>40122339.43338008</v>
       </c>
       <c r="O11" t="n">
-        <v>29848556.78189015</v>
+        <v>43004051.75072083</v>
       </c>
       <c r="P11" t="n">
-        <v>30951179.44521256</v>
+        <v>45092676.48314343</v>
       </c>
       <c r="Q11" t="n">
-        <v>30834934.18323204</v>
+        <v>48855690.13897263</v>
       </c>
       <c r="R11" t="n">
-        <v>32511795.05072646</v>
+        <v>51228517.78171034</v>
       </c>
       <c r="S11" t="n">
-        <v>34090830.89674447</v>
+        <v>51631776.43538617</v>
       </c>
       <c r="T11" t="n">
-        <v>35151969.61754417</v>
+        <v>51738034.60951593</v>
       </c>
       <c r="U11" t="n">
-        <v>35224312.3561927</v>
+        <v>53950059.62803069</v>
       </c>
     </row>
     <row r="12">
@@ -1153,64 +1153,64 @@
         <v>22561132</v>
       </c>
       <c r="B12" t="n">
-        <v>23394553.04729505</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C12" t="n">
-        <v>23578709.3800119</v>
+        <v>24080047.30253981</v>
       </c>
       <c r="D12" t="n">
-        <v>24723882.30127908</v>
+        <v>26229538.8178122</v>
       </c>
       <c r="E12" t="n">
-        <v>24631025.2849455</v>
+        <v>27198472.89929388</v>
       </c>
       <c r="F12" t="n">
-        <v>25827307.18166704</v>
+        <v>27728823.65092939</v>
       </c>
       <c r="G12" t="n">
-        <v>26931536.40254675</v>
+        <v>28591933.39874834</v>
       </c>
       <c r="H12" t="n">
-        <v>28552696.79469015</v>
+        <v>30479269.09127659</v>
       </c>
       <c r="I12" t="n">
-        <v>30603441.07352699</v>
+        <v>33377182.64568125</v>
       </c>
       <c r="J12" t="n">
-        <v>32445634.0249475</v>
+        <v>33445872.87349016</v>
       </c>
       <c r="K12" t="n">
-        <v>32323775.94732463</v>
+        <v>34292489.78134727</v>
       </c>
       <c r="L12" t="n">
-        <v>33893680.06427188</v>
+        <v>33964326.99544981</v>
       </c>
       <c r="M12" t="n">
-        <v>34357532.78977778</v>
+        <v>34626607.05865507</v>
       </c>
       <c r="N12" t="n">
-        <v>34228494.07552711</v>
+        <v>34697868.60137897</v>
       </c>
       <c r="O12" t="n">
-        <v>34298936.30189963</v>
+        <v>37795153.80267647</v>
       </c>
       <c r="P12" t="n">
-        <v>37360611.04188344</v>
+        <v>40070256.32352905</v>
       </c>
       <c r="Q12" t="n">
-        <v>40912790.09233519</v>
+        <v>40851597.63773065</v>
       </c>
       <c r="R12" t="n">
-        <v>43851275.05634434</v>
+        <v>40698168.76184155</v>
       </c>
       <c r="S12" t="n">
-        <v>43686580.10615261</v>
+        <v>42674801.15762194</v>
       </c>
       <c r="T12" t="n">
-        <v>43522503.7109877</v>
+        <v>44251232.58286661</v>
       </c>
       <c r="U12" t="n">
-        <v>45130249.75066841</v>
+        <v>48458559.41596658</v>
       </c>
     </row>
     <row r="13">
@@ -1218,64 +1218,64 @@
         <v>22561132</v>
       </c>
       <c r="B13" t="n">
-        <v>22214067.67656468</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C13" t="n">
-        <v>23292962.55432942</v>
+        <v>23048394.09122521</v>
       </c>
       <c r="D13" t="n">
-        <v>25236775.6746135</v>
+        <v>24569804.21124637</v>
       </c>
       <c r="E13" t="n">
-        <v>25288712.94830894</v>
+        <v>26763013.59412028</v>
       </c>
       <c r="F13" t="n">
-        <v>27546095.30439824</v>
+        <v>28374029.6521971</v>
       </c>
       <c r="G13" t="n">
-        <v>29684688.73466107</v>
+        <v>28597383.23516936</v>
       </c>
       <c r="H13" t="n">
-        <v>30090939.21407954</v>
+        <v>29155011.73695096</v>
       </c>
       <c r="I13" t="n">
-        <v>32602047.97963787</v>
+        <v>31249016.16493522</v>
       </c>
       <c r="J13" t="n">
-        <v>35322710.43136076</v>
+        <v>32766721.25012788</v>
       </c>
       <c r="K13" t="n">
-        <v>36627551.44381546</v>
+        <v>32262661.43868449</v>
       </c>
       <c r="L13" t="n">
-        <v>37341762.47730698</v>
+        <v>32329057.98231942</v>
       </c>
       <c r="M13" t="n">
-        <v>40240861.13451858</v>
+        <v>32583544.60346489</v>
       </c>
       <c r="N13" t="n">
-        <v>44066889.13320222</v>
+        <v>32650601.52451762</v>
       </c>
       <c r="O13" t="n">
-        <v>44413773.15704337</v>
+        <v>34805847.36887304</v>
       </c>
       <c r="P13" t="n">
-        <v>48120131.88159881</v>
+        <v>36901006.75101916</v>
       </c>
       <c r="Q13" t="n">
-        <v>52135788.69137918</v>
+        <v>39765886.50024495</v>
       </c>
       <c r="R13" t="n">
-        <v>52546189.16491229</v>
+        <v>40772482.20173488</v>
       </c>
       <c r="S13" t="n">
-        <v>55098257.30306285</v>
+        <v>40382308.97626807</v>
       </c>
       <c r="T13" t="n">
-        <v>56172633.87864053</v>
+        <v>40465415.75111111</v>
       </c>
       <c r="U13" t="n">
-        <v>55961662.83784653</v>
+        <v>44312793.99494593</v>
       </c>
     </row>
     <row r="14">
@@ -1283,64 +1283,64 @@
         <v>22561132</v>
       </c>
       <c r="B14" t="n">
-        <v>22214067.67656468</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C14" t="n">
-        <v>22905520.67838397</v>
+        <v>26767952.46707452</v>
       </c>
       <c r="D14" t="n">
-        <v>23884830.87416348</v>
+        <v>26511795.91762666</v>
       </c>
       <c r="E14" t="n">
-        <v>26155757.2184803</v>
+        <v>26566357.18244452</v>
       </c>
       <c r="F14" t="n">
-        <v>26665775.76076312</v>
+        <v>28628886.7826859</v>
       </c>
       <c r="G14" t="n">
-        <v>26565625.45486894</v>
+        <v>28521363.4991175</v>
       </c>
       <c r="H14" t="n">
-        <v>28782544.45721925</v>
+        <v>30901490.13387533</v>
       </c>
       <c r="I14" t="n">
-        <v>29678453.16942405</v>
+        <v>33659893.80383127</v>
       </c>
       <c r="J14" t="n">
-        <v>31119879.00690147</v>
+        <v>36077452.99765494</v>
       </c>
       <c r="K14" t="n">
-        <v>33355006.36773858</v>
+        <v>37410174.62975404</v>
       </c>
       <c r="L14" t="n">
-        <v>35556749.53649876</v>
+        <v>39009621.59082592</v>
       </c>
       <c r="M14" t="n">
-        <v>36870236.08660256</v>
+        <v>41357829.7468808</v>
       </c>
       <c r="N14" t="n">
-        <v>38660953.09687701</v>
+        <v>42885611.49921023</v>
       </c>
       <c r="O14" t="n">
-        <v>40538641.81526188</v>
+        <v>43223196.78771941</v>
       </c>
       <c r="P14" t="n">
-        <v>41093434.315181</v>
+        <v>43312150.10848036</v>
       </c>
       <c r="Q14" t="n">
-        <v>42372541.72252324</v>
+        <v>44660319.05456451</v>
       </c>
       <c r="R14" t="n">
-        <v>41967056.68991464</v>
+        <v>46569741.08478168</v>
       </c>
       <c r="S14" t="n">
-        <v>43517343.63200599</v>
+        <v>47207072.33023267</v>
       </c>
       <c r="T14" t="n">
-        <v>46136896.88782509</v>
+        <v>50872083.0561361</v>
       </c>
       <c r="U14" t="n">
-        <v>48109449.01437483</v>
+        <v>52751326.73676017</v>
       </c>
     </row>
     <row r="15">
@@ -1348,64 +1348,64 @@
         <v>22561132</v>
       </c>
       <c r="B15" t="n">
-        <v>22607562.80014147</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C15" t="n">
-        <v>22916959.11243349</v>
+        <v>24928137.03234765</v>
       </c>
       <c r="D15" t="n">
-        <v>22564420.99911756</v>
+        <v>25414217.8597871</v>
       </c>
       <c r="E15" t="n">
-        <v>24316252.68245209</v>
+        <v>25318768.10743209</v>
       </c>
       <c r="F15" t="n">
-        <v>24083557.73164101</v>
+        <v>26695649.64057336</v>
       </c>
       <c r="G15" t="n">
-        <v>25813314.41933099</v>
+        <v>28923419.24715819</v>
       </c>
       <c r="H15" t="n">
-        <v>27817380.11432173</v>
+        <v>29655559.07978587</v>
       </c>
       <c r="I15" t="n">
-        <v>28198075.49936087</v>
+        <v>32130335.08537959</v>
       </c>
       <c r="J15" t="n">
-        <v>29239728.44542679</v>
+        <v>34811632.78430524</v>
       </c>
       <c r="K15" t="n">
-        <v>29639889.41073786</v>
+        <v>34276115.51593574</v>
       </c>
       <c r="L15" t="n">
-        <v>32285677.02076773</v>
+        <v>36737933.68675482</v>
       </c>
       <c r="M15" t="n">
-        <v>32915224.61112048</v>
+        <v>39590152.94889396</v>
       </c>
       <c r="N15" t="n">
-        <v>34131131.72816371</v>
+        <v>39901797.17496781</v>
       </c>
       <c r="O15" t="n">
-        <v>35987245.92701866</v>
+        <v>40215894.58993866</v>
       </c>
       <c r="P15" t="n">
-        <v>37316635.2586249</v>
+        <v>41233881.36675943</v>
       </c>
       <c r="Q15" t="n">
-        <v>40647683.15313914</v>
+        <v>43715980.20757449</v>
       </c>
       <c r="R15" t="n">
-        <v>43567127.30490048</v>
+        <v>45585027.66285346</v>
       </c>
       <c r="S15" t="n">
-        <v>43656788.43452074</v>
+        <v>47003944.03037439</v>
       </c>
       <c r="T15" t="n">
-        <v>44761874.71440974</v>
+        <v>46554138.68466963</v>
       </c>
       <c r="U15" t="n">
-        <v>47976813.01395622</v>
+        <v>46108637.7617787</v>
       </c>
     </row>
     <row r="16">
@@ -1413,64 +1413,64 @@
         <v>22561132</v>
       </c>
       <c r="B16" t="n">
-        <v>23788048.17087183</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C16" t="n">
-        <v>23560407.88553267</v>
+        <v>22522654.17605833</v>
       </c>
       <c r="D16" t="n">
-        <v>24156793.56658069</v>
+        <v>23878419.19185282</v>
       </c>
       <c r="E16" t="n">
-        <v>24768275.58561603</v>
+        <v>25315795.31634188</v>
       </c>
       <c r="F16" t="n">
-        <v>24963245.53397736</v>
+        <v>26103795.19640861</v>
       </c>
       <c r="G16" t="n">
-        <v>27046444.8728609</v>
+        <v>28433935.39863199</v>
       </c>
       <c r="H16" t="n">
-        <v>29303488.57343284</v>
+        <v>28161836.18641559</v>
       </c>
       <c r="I16" t="n">
-        <v>31237793.57928651</v>
+        <v>27892340.83399738</v>
       </c>
       <c r="J16" t="n">
-        <v>33299780.85226323</v>
+        <v>28274062.09566195</v>
       </c>
       <c r="K16" t="n">
-        <v>34723490.68028823</v>
+        <v>28496628.75791104</v>
       </c>
       <c r="L16" t="n">
-        <v>37419314.83336882</v>
+        <v>28886620.01563287</v>
       </c>
       <c r="M16" t="n">
-        <v>38148964.68617647</v>
+        <v>30289588.027821</v>
       </c>
       <c r="N16" t="n">
-        <v>38671053.20566905</v>
+        <v>31056309.75320031</v>
       </c>
       <c r="O16" t="n">
-        <v>41448529.59216817</v>
+        <v>32745209.43446658</v>
       </c>
       <c r="P16" t="n">
-        <v>43220633.71499588</v>
+        <v>35668191.64296828</v>
       </c>
       <c r="Q16" t="n">
-        <v>44565954.0479439</v>
+        <v>36778428.56760927</v>
       </c>
       <c r="R16" t="n">
-        <v>44657670.76258011</v>
+        <v>37709402.60998306</v>
       </c>
       <c r="S16" t="n">
-        <v>46307350.51875134</v>
+        <v>37787008.54465151</v>
       </c>
       <c r="T16" t="n">
-        <v>46671870.91938166</v>
+        <v>37425404.87942307</v>
       </c>
       <c r="U16" t="n">
-        <v>46767921.61005118</v>
+        <v>36849679.20999434</v>
       </c>
     </row>
     <row r="17">
@@ -1478,64 +1478,64 @@
         <v>22561132</v>
       </c>
       <c r="B17" t="n">
-        <v>24181543.29444862</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C17" t="n">
-        <v>24934237.53050739</v>
+        <v>22914671.42562358</v>
       </c>
       <c r="D17" t="n">
-        <v>24550667.04836575</v>
+        <v>22828609.3746512</v>
       </c>
       <c r="E17" t="n">
-        <v>25457582.65185767</v>
+        <v>24999112.09690792</v>
       </c>
       <c r="F17" t="n">
-        <v>26990017.49174322</v>
+        <v>25777254.63945811</v>
       </c>
       <c r="G17" t="n">
-        <v>29242352.29006607</v>
+        <v>25980167.02988995</v>
       </c>
       <c r="H17" t="n">
-        <v>29302533.03874688</v>
+        <v>26033634.20268105</v>
       </c>
       <c r="I17" t="n">
-        <v>29533195.57856207</v>
+        <v>26843978.1153675</v>
       </c>
       <c r="J17" t="n">
-        <v>31139265.4882128</v>
+        <v>26587094.03669378</v>
       </c>
       <c r="K17" t="n">
-        <v>31022313.81982919</v>
+        <v>28805804.6063867</v>
       </c>
       <c r="L17" t="n">
-        <v>33250433.74278256</v>
+        <v>29534967.25423989</v>
       </c>
       <c r="M17" t="n">
-        <v>32932242.93660593</v>
+        <v>30797714.99834102</v>
       </c>
       <c r="N17" t="n">
-        <v>35297539.96186168</v>
+        <v>31219197.82387796</v>
       </c>
       <c r="O17" t="n">
-        <v>35780605.24376424</v>
+        <v>32190951.77565348</v>
       </c>
       <c r="P17" t="n">
-        <v>38350480.58774977</v>
+        <v>34503006.94364416</v>
       </c>
       <c r="Q17" t="n">
-        <v>37983484.76357874</v>
+        <v>34373421.8631021</v>
       </c>
       <c r="R17" t="n">
-        <v>39386616.29313041</v>
+        <v>33844645.71822274</v>
       </c>
       <c r="S17" t="n">
-        <v>40383611.51054256</v>
+        <v>35094886.17955291</v>
       </c>
       <c r="T17" t="n">
-        <v>40231940.27914175</v>
+        <v>35371144.73952097</v>
       </c>
       <c r="U17" t="n">
-        <v>41952029.94069386</v>
+        <v>38117250.74565016</v>
       </c>
     </row>
     <row r="18">
@@ -1543,64 +1543,64 @@
         <v>22561132</v>
       </c>
       <c r="B18" t="n">
-        <v>23525718.08848731</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C18" t="n">
-        <v>25625727.72661456</v>
+        <v>23987502.99951646</v>
       </c>
       <c r="D18" t="n">
-        <v>26870320.42281876</v>
+        <v>26128733.6010275</v>
       </c>
       <c r="E18" t="n">
-        <v>28644013.51647561</v>
+        <v>27853475.01106241</v>
       </c>
       <c r="F18" t="n">
-        <v>29535610.20279589</v>
+        <v>29368198.60321403</v>
       </c>
       <c r="G18" t="n">
-        <v>32172089.38955422</v>
+        <v>31989733.89022257</v>
       </c>
       <c r="H18" t="n">
-        <v>35230953.22373295</v>
+        <v>32799491.48547967</v>
       </c>
       <c r="I18" t="n">
-        <v>37146877.75382422</v>
+        <v>33629746.51173531</v>
       </c>
       <c r="J18" t="n">
-        <v>40462772.34271417</v>
+        <v>36631686.41158392</v>
       </c>
       <c r="K18" t="n">
-        <v>42898453.80172371</v>
+        <v>36494106.51769844</v>
       </c>
       <c r="L18" t="n">
-        <v>42238534.66091479</v>
+        <v>39963899.89157546</v>
       </c>
       <c r="M18" t="n">
-        <v>45272238.75987162</v>
+        <v>41904870.24947217</v>
       </c>
       <c r="N18" t="n">
-        <v>49313439.00624596</v>
+        <v>45401859.36817001</v>
       </c>
       <c r="O18" t="n">
-        <v>50848408.91483563</v>
+        <v>49718585.70646172</v>
       </c>
       <c r="P18" t="n">
-        <v>54500501.19949323</v>
+        <v>53289530.54304006</v>
       </c>
       <c r="Q18" t="n">
-        <v>55880074.87594375</v>
+        <v>55258076.10870767</v>
       </c>
       <c r="R18" t="n">
-        <v>58594063.48129805</v>
+        <v>57620598.14399528</v>
       </c>
       <c r="S18" t="n">
-        <v>58373998.12734462</v>
+        <v>63099059.97568595</v>
       </c>
       <c r="T18" t="n">
-        <v>58833504.29527269</v>
+        <v>65796818.02475782</v>
       </c>
       <c r="U18" t="n">
-        <v>61348891.36805691</v>
+        <v>66697281.8667639</v>
       </c>
     </row>
     <row r="19">
@@ -1608,64 +1608,64 @@
         <v>22561132</v>
       </c>
       <c r="B19" t="n">
-        <v>22345232.71775694</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C19" t="n">
-        <v>24339867.01104338</v>
+        <v>23048394.09122521</v>
       </c>
       <c r="D19" t="n">
-        <v>25238995.5412681</v>
+        <v>23363823.41012701</v>
       </c>
       <c r="E19" t="n">
-        <v>26318071.89198048</v>
+        <v>24770223.12514471</v>
       </c>
       <c r="F19" t="n">
-        <v>28667339.37968073</v>
+        <v>26117273.76552674</v>
       </c>
       <c r="G19" t="n">
-        <v>28893001.82675714</v>
+        <v>27537579.5162316</v>
       </c>
       <c r="H19" t="n">
-        <v>30968187.88083466</v>
+        <v>29675511.80710515</v>
       </c>
       <c r="I19" t="n">
-        <v>33372461.96822313</v>
+        <v>32151952.88098111</v>
       </c>
       <c r="J19" t="n">
-        <v>32859083.87467834</v>
+        <v>34274283.2393548</v>
       </c>
       <c r="K19" t="n">
-        <v>34454986.87617288</v>
+        <v>36735969.81032038</v>
       </c>
       <c r="L19" t="n">
-        <v>34325582.14757293</v>
+        <v>36170849.91704732</v>
       </c>
       <c r="M19" t="n">
-        <v>35394027.92529842</v>
+        <v>37717310.38005716</v>
       </c>
       <c r="N19" t="n">
-        <v>38347682.94880288</v>
+        <v>38672050.38063765</v>
       </c>
       <c r="O19" t="n">
-        <v>37980713.89670341</v>
+        <v>40999938.23014538</v>
       </c>
       <c r="P19" t="n">
-        <v>38721310.62937117</v>
+        <v>40845952.22230407</v>
       </c>
       <c r="Q19" t="n">
-        <v>41052163.72983824</v>
+        <v>44729511.18276018</v>
       </c>
       <c r="R19" t="n">
-        <v>43761991.45580199</v>
+        <v>44561517.78674422</v>
       </c>
       <c r="S19" t="n">
-        <v>46141849.65558907</v>
+        <v>45689505.52205418</v>
       </c>
       <c r="T19" t="n">
-        <v>48919386.66513015</v>
+        <v>47908557.61971895</v>
       </c>
       <c r="U19" t="n">
-        <v>53286147.46289386</v>
+        <v>50235384.84333193</v>
       </c>
     </row>
     <row r="20">
@@ -1673,64 +1673,64 @@
         <v>22561132</v>
       </c>
       <c r="B20" t="n">
-        <v>24312708.33564088</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C20" t="n">
-        <v>24786788.74404634</v>
+        <v>26482968.203662</v>
       </c>
       <c r="D20" t="n">
-        <v>24405486.50860945</v>
+        <v>28846955.0653903</v>
       </c>
       <c r="E20" t="n">
-        <v>24881376.02497297</v>
+        <v>28906322.08674946</v>
       </c>
       <c r="F20" t="n">
-        <v>24498618.72643639</v>
+        <v>29301920.21179414</v>
       </c>
       <c r="G20" t="n">
-        <v>25830899.01625023</v>
+        <v>29191869.17488352</v>
       </c>
       <c r="H20" t="n">
-        <v>26034233.68240074</v>
+        <v>29082231.46346958</v>
       </c>
       <c r="I20" t="n">
-        <v>27147309.90723163</v>
+        <v>28973005.52520014</v>
       </c>
       <c r="J20" t="n">
-        <v>27361007.0454303</v>
+        <v>31222379.84074127</v>
       </c>
       <c r="K20" t="n">
-        <v>28689878.94685798</v>
+        <v>32920310.72114692</v>
       </c>
       <c r="L20" t="n">
-        <v>29582903.27758716</v>
+        <v>32605279.0349747</v>
       </c>
       <c r="M20" t="n">
-        <v>32395591.99823953</v>
+        <v>35515770.43718115</v>
       </c>
       <c r="N20" t="n">
-        <v>35099025.56186082</v>
+        <v>35795342.09747758</v>
       </c>
       <c r="O20" t="n">
-        <v>35171259.34166509</v>
+        <v>38574381.47121608</v>
       </c>
       <c r="P20" t="n">
-        <v>37492892.23654299</v>
+        <v>41793439.10013313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36916128.38986592</v>
+        <v>45038152.12751321</v>
       </c>
       <c r="R20" t="n">
-        <v>37635966.46722895</v>
+        <v>45392681.70161446</v>
       </c>
       <c r="S20" t="n">
-        <v>39682680.07473026</v>
+        <v>47597317.63272506</v>
       </c>
       <c r="T20" t="n">
-        <v>39533641.37494367</v>
+        <v>51015906.3399551</v>
       </c>
       <c r="U20" t="n">
-        <v>41453714.89771467</v>
+        <v>52010679.99408419</v>
       </c>
     </row>
     <row r="21">
@@ -1738,64 +1738,64 @@
         <v>22561132</v>
       </c>
       <c r="B21" t="n">
-        <v>24706203.45921767</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C21" t="n">
-        <v>24326140.89018396</v>
+        <v>24352068.00736287</v>
       </c>
       <c r="D21" t="n">
-        <v>24376204.07787708</v>
+        <v>24543761.66909863</v>
       </c>
       <c r="E21" t="n">
-        <v>24709805.17039846</v>
+        <v>24594272.72026298</v>
       </c>
       <c r="F21" t="n">
-        <v>25909913.25582724</v>
+        <v>26503695.79748759</v>
       </c>
       <c r="G21" t="n">
-        <v>27168308.30089734</v>
+        <v>28099102.06135902</v>
       </c>
       <c r="H21" t="n">
-        <v>28487821.19201428</v>
+        <v>28483652.95847948</v>
       </c>
       <c r="I21" t="n">
-        <v>29043313.31238384</v>
+        <v>31026229.78937122</v>
       </c>
       <c r="J21" t="n">
-        <v>29103084.43893251</v>
+        <v>33435010.07057426</v>
       </c>
       <c r="K21" t="n">
-        <v>30178168.92993284</v>
+        <v>33503819.30719921</v>
       </c>
       <c r="L21" t="n">
-        <v>32696557.07293227</v>
+        <v>33377986.9375602</v>
       </c>
       <c r="M21" t="n">
-        <v>35235016.38542952</v>
+        <v>34416937.10187473</v>
       </c>
       <c r="N21" t="n">
-        <v>34897834.06907073</v>
+        <v>35888410.19714367</v>
       </c>
       <c r="O21" t="n">
-        <v>38215856.75738609</v>
+        <v>38257381.7727465</v>
       </c>
       <c r="P21" t="n">
-        <v>40960639.506616</v>
+        <v>40560308.39045037</v>
       </c>
       <c r="Q21" t="n">
-        <v>41759342.65551113</v>
+        <v>41115397.40877453</v>
       </c>
       <c r="R21" t="n">
-        <v>43301956.52303819</v>
+        <v>43112293.8037732</v>
       </c>
       <c r="S21" t="n">
-        <v>42635830.18486979</v>
+        <v>46960687.81109589</v>
       </c>
       <c r="T21" t="n">
-        <v>44458696.54935153</v>
+        <v>48149405.84682655</v>
       </c>
       <c r="U21" t="n">
-        <v>45584081.56598248</v>
+        <v>47688638.97738226</v>
       </c>
     </row>
     <row r="22">
@@ -1803,64 +1803,64 @@
         <v>22561132</v>
       </c>
       <c r="B22" t="n">
-        <v>23656883.12967957</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C22" t="n">
-        <v>23292962.55432942</v>
+        <v>24943388.277747</v>
       </c>
       <c r="D22" t="n">
-        <v>24017998.10900394</v>
+        <v>24704691.93813623</v>
       </c>
       <c r="E22" t="n">
-        <v>25463776.2722286</v>
+        <v>24324652.62126209</v>
       </c>
       <c r="F22" t="n">
-        <v>25664221.03584242</v>
+        <v>25506054.58233439</v>
       </c>
       <c r="G22" t="n">
-        <v>26463066.2961055</v>
+        <v>26893121.10108024</v>
       </c>
       <c r="H22" t="n">
-        <v>27286777.05877185</v>
+        <v>26792116.94020803</v>
       </c>
       <c r="I22" t="n">
-        <v>27660210.86368715</v>
+        <v>28093358.93479146</v>
       </c>
       <c r="J22" t="n">
-        <v>28521184.91450578</v>
+        <v>29947784.03788577</v>
       </c>
       <c r="K22" t="n">
-        <v>29243142.97109693</v>
+        <v>30357635.11403015</v>
       </c>
       <c r="L22" t="n">
-        <v>30493413.96341972</v>
+        <v>31126079.31841107</v>
       </c>
       <c r="M22" t="n">
-        <v>31974420.89153857</v>
+        <v>31371096.37890137</v>
       </c>
       <c r="N22" t="n">
-        <v>31668440.9202933</v>
+        <v>33259498.81340855</v>
       </c>
       <c r="O22" t="n">
-        <v>33758854.95568023</v>
+        <v>33714672.43705475</v>
       </c>
       <c r="P22" t="n">
-        <v>34809660.32536554</v>
+        <v>34372084.41508537</v>
       </c>
       <c r="Q22" t="n">
-        <v>37309799.35859943</v>
+        <v>33843328.84455001</v>
       </c>
       <c r="R22" t="n">
-        <v>40423326.77441252</v>
+        <v>35880548.83233654</v>
       </c>
       <c r="S22" t="n">
-        <v>41916587.45545816</v>
+        <v>36788794.80395614</v>
       </c>
       <c r="T22" t="n">
-        <v>45658247.42616666</v>
+        <v>36864506.12814803</v>
       </c>
       <c r="U22" t="n">
-        <v>46548550.56673217</v>
+        <v>39512230.63480494</v>
       </c>
     </row>
     <row r="23">
@@ -1868,64 +1868,64 @@
         <v>22561132</v>
       </c>
       <c r="B23" t="n">
-        <v>22345232.71775694</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C23" t="n">
-        <v>23820227.59403624</v>
+        <v>24504092.16744373</v>
       </c>
       <c r="D23" t="n">
-        <v>25392585.96223036</v>
+        <v>24127138.7340127</v>
       </c>
       <c r="E23" t="n">
-        <v>26182976.08992685</v>
+        <v>24737870.09891661</v>
       </c>
       <c r="F23" t="n">
-        <v>28520184.32888</v>
+        <v>24788780.62514767</v>
       </c>
       <c r="G23" t="n">
-        <v>30900212.56110216</v>
+        <v>25416260.16146573</v>
       </c>
       <c r="H23" t="n">
-        <v>30604512.2516895</v>
+        <v>27537263.87042624</v>
       </c>
       <c r="I23" t="n">
-        <v>32624697.01917221</v>
+        <v>27593935.5478585</v>
       </c>
       <c r="J23" t="n">
-        <v>35536921.7565234</v>
+        <v>28934120.34217073</v>
       </c>
       <c r="K23" t="n">
-        <v>38709104.55312817</v>
+        <v>29834747.12772343</v>
       </c>
       <c r="L23" t="n">
-        <v>41039222.90133109</v>
+        <v>29722694.91975753</v>
       </c>
       <c r="M23" t="n">
-        <v>41123681.60475487</v>
+        <v>29783864.21336767</v>
       </c>
       <c r="N23" t="n">
-        <v>41208314.12415469</v>
+        <v>32096191.08331711</v>
       </c>
       <c r="O23" t="n">
-        <v>42970147.99553023</v>
+        <v>32162245.03103089</v>
       </c>
       <c r="P23" t="n">
-        <v>44807307.89409956</v>
+        <v>35033189.25874513</v>
       </c>
       <c r="Q23" t="n">
-        <v>45420519.32023704</v>
+        <v>37142033.62572935</v>
       </c>
       <c r="R23" t="n">
-        <v>49210891.67750438</v>
+        <v>40025625.95418191</v>
       </c>
       <c r="S23" t="n">
-        <v>50456569.22649497</v>
+        <v>39642599.78710674</v>
       </c>
       <c r="T23" t="n">
-        <v>52907148.51168719</v>
+        <v>42720328.31909611</v>
       </c>
       <c r="U23" t="n">
-        <v>54553979.12320545</v>
+        <v>42559880.93562442</v>
       </c>
     </row>
     <row r="24">
@@ -1933,64 +1933,64 @@
         <v>22561132</v>
       </c>
       <c r="B24" t="n">
-        <v>23263388.00610278</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C24" t="n">
-        <v>23311264.04880865</v>
+        <v>24090723.17431936</v>
       </c>
       <c r="D24" t="n">
-        <v>25527656.70097639</v>
+        <v>25400821.34805325</v>
       </c>
       <c r="E24" t="n">
-        <v>26767486.27460626</v>
+        <v>26043793.49914831</v>
       </c>
       <c r="F24" t="n">
-        <v>29001250.69578046</v>
+        <v>27308690.8521638</v>
       </c>
       <c r="G24" t="n">
-        <v>28892328.90199676</v>
+        <v>29905151.5854096</v>
       </c>
       <c r="H24" t="n">
-        <v>29455708.633146</v>
+        <v>31705310.5717616</v>
       </c>
       <c r="I24" t="n">
-        <v>30886316.19354155</v>
+        <v>32692195.66132065</v>
       </c>
       <c r="J24" t="n">
-        <v>31488577.24948936</v>
+        <v>33899863.96211479</v>
       </c>
       <c r="K24" t="n">
-        <v>33750185.67504134</v>
+        <v>36531744.29052586</v>
       </c>
       <c r="L24" t="n">
-        <v>36566660.9762896</v>
+        <v>38093634.55076709</v>
       </c>
       <c r="M24" t="n">
-        <v>36216735.45576137</v>
+        <v>38614965.84843946</v>
       </c>
       <c r="N24" t="n">
-        <v>36080714.01888571</v>
+        <v>42061908.47321574</v>
       </c>
       <c r="O24" t="n">
-        <v>39511202.78470237</v>
+        <v>42393009.76828387</v>
       </c>
       <c r="P24" t="n">
-        <v>41430186.50796307</v>
+        <v>45684271.60331586</v>
       </c>
       <c r="Q24" t="n">
-        <v>42478910.71157375</v>
+        <v>46840679.65727219</v>
       </c>
       <c r="R24" t="n">
-        <v>46023803.88623718</v>
+        <v>49115642.08599318</v>
       </c>
       <c r="S24" t="n">
-        <v>45315806.59435941</v>
+        <v>52357734.98952504</v>
       </c>
       <c r="T24" t="n">
-        <v>49360895.89831715</v>
+        <v>52465487.18605306</v>
       </c>
       <c r="U24" t="n">
-        <v>48888535.64638826</v>
+        <v>51658395.64410685</v>
       </c>
     </row>
     <row r="25">
@@ -1998,64 +1998,64 @@
         <v>22561132</v>
       </c>
       <c r="B25" t="n">
-        <v>23263388.00610278</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C25" t="n">
-        <v>23852255.2093749</v>
+        <v>24636289.70850541</v>
       </c>
       <c r="D25" t="n">
-        <v>23762671.81690522</v>
+        <v>25116679.7220475</v>
       </c>
       <c r="E25" t="n">
-        <v>25745682.48559836</v>
+        <v>26190526.54182934</v>
       </c>
       <c r="F25" t="n">
-        <v>27744497.44695305</v>
+        <v>27158019.48764873</v>
       </c>
       <c r="G25" t="n">
-        <v>29737194.31259985</v>
+        <v>26740239.9338868</v>
       </c>
       <c r="H25" t="n">
-        <v>31700127.96381893</v>
+        <v>28505346.49559287</v>
       </c>
       <c r="I25" t="n">
-        <v>31765366.81379982</v>
+        <v>31215583.07427194</v>
       </c>
       <c r="J25" t="n">
-        <v>34785560.20408991</v>
+        <v>32368704.46630516</v>
       </c>
       <c r="K25" t="n">
-        <v>37081733.33943456</v>
+        <v>34881710.31896067</v>
       </c>
       <c r="L25" t="n">
-        <v>37373631.88559482</v>
+        <v>35561878.70026979</v>
       </c>
       <c r="M25" t="n">
-        <v>38319672.33674572</v>
+        <v>36875554.7246004</v>
       </c>
       <c r="N25" t="n">
-        <v>37730189.89615648</v>
+        <v>37380215.96324761</v>
       </c>
       <c r="O25" t="n">
-        <v>38904610.24288263</v>
+        <v>38978382.06159763</v>
       </c>
       <c r="P25" t="n">
-        <v>42151225.68105488</v>
+        <v>42684375.84270822</v>
       </c>
       <c r="Q25" t="n">
-        <v>45913830.49745832</v>
+        <v>44509317.7442777</v>
       </c>
       <c r="R25" t="n">
-        <v>47876845.56988521</v>
+        <v>44083384.78337318</v>
       </c>
       <c r="S25" t="n">
-        <v>48532065.22334579</v>
+        <v>47762172.37978072</v>
       </c>
       <c r="T25" t="n">
-        <v>48914098.04665463</v>
+        <v>48693500.55085678</v>
       </c>
       <c r="U25" t="n">
-        <v>52142887.15384103</v>
+        <v>50775358.55475063</v>
       </c>
     </row>
     <row r="26">
@@ -2063,64 +2063,64 @@
         <v>22561132</v>
       </c>
       <c r="B26" t="n">
-        <v>23001057.92371826</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C26" t="n">
-        <v>23717007.41923333</v>
+        <v>25773176.51307561</v>
       </c>
       <c r="D26" t="n">
-        <v>23627931.9852673</v>
+        <v>26575413.20947251</v>
       </c>
       <c r="E26" t="n">
-        <v>25187597.04025016</v>
+        <v>27093614.74317089</v>
       </c>
       <c r="F26" t="n">
-        <v>26118041.19988412</v>
+        <v>28094468.28076208</v>
       </c>
       <c r="G26" t="n">
-        <v>27690232.7481397</v>
+        <v>28315621.22340458</v>
       </c>
       <c r="H26" t="n">
-        <v>28552141.28436763</v>
+        <v>29361616.37536857</v>
       </c>
       <c r="I26" t="n">
-        <v>29938864.30283658</v>
+        <v>30446251.18313597</v>
       </c>
       <c r="J26" t="n">
-        <v>32089167.48174095</v>
+        <v>30685916.79895379</v>
       </c>
       <c r="K26" t="n">
-        <v>33647677.11319891</v>
+        <v>33246676.83721117</v>
       </c>
       <c r="L26" t="n">
-        <v>35086261.01285893</v>
+        <v>35247980.9905747</v>
       </c>
       <c r="M26" t="n">
-        <v>37606266.3754094</v>
+        <v>34910674.60912265</v>
       </c>
       <c r="N26" t="n">
-        <v>40963168.02428988</v>
+        <v>37823993.4789273</v>
       </c>
       <c r="O26" t="n">
-        <v>43428971.10901155</v>
+        <v>37901835.24155571</v>
       </c>
       <c r="P26" t="n">
-        <v>42760890.86926821</v>
+        <v>37979837.20249878</v>
       </c>
       <c r="Q26" t="n">
-        <v>44340502.49742298</v>
+        <v>41590891.15177818</v>
       </c>
       <c r="R26" t="n">
-        <v>46494036.0923734</v>
+        <v>41676485.18822873</v>
       </c>
       <c r="S26" t="n">
-        <v>46860026.03724079</v>
+        <v>43700632.54599763</v>
       </c>
       <c r="T26" t="n">
-        <v>49135928.08271974</v>
+        <v>43282438.31708002</v>
       </c>
       <c r="U26" t="n">
-        <v>49522714.370197</v>
+        <v>45887851.30303966</v>
       </c>
     </row>
     <row r="27">
@@ -2128,64 +2128,64 @@
         <v>22561132</v>
       </c>
       <c r="B27" t="n">
-        <v>23525718.08848731</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C27" t="n">
-        <v>23847679.83575509</v>
+        <v>23560407.88553267</v>
       </c>
       <c r="D27" t="n">
-        <v>25421850.30930471</v>
+        <v>25389564.90258066</v>
       </c>
       <c r="E27" t="n">
-        <v>25030778.74081813</v>
+        <v>25294207.74086421</v>
       </c>
       <c r="F27" t="n">
-        <v>25227815.05130618</v>
+        <v>25493317.70150843</v>
       </c>
       <c r="G27" t="n">
-        <v>26453081.88817483</v>
+        <v>27027903.63467878</v>
       </c>
       <c r="H27" t="n">
-        <v>27737857.59723383</v>
+        <v>27869195.98028539</v>
       </c>
       <c r="I27" t="n">
-        <v>28762509.83225499</v>
+        <v>28898699.92987269</v>
       </c>
       <c r="J27" t="n">
-        <v>28821703.06535998</v>
+        <v>29798224.19108064</v>
       </c>
       <c r="K27" t="n">
-        <v>28378330.59297549</v>
+        <v>32458145.46383315</v>
       </c>
       <c r="L27" t="n">
-        <v>30416551.34406432</v>
+        <v>34600687.40364642</v>
       </c>
       <c r="M27" t="n">
-        <v>30302314.01796198</v>
+        <v>34671895.60373124</v>
       </c>
       <c r="N27" t="n">
-        <v>32302550.86849978</v>
+        <v>34541676.21758632</v>
       </c>
       <c r="O27" t="n">
-        <v>33683624.79645731</v>
+        <v>35215214.17733048</v>
       </c>
       <c r="P27" t="n">
-        <v>34536259.92960101</v>
+        <v>34673488.50137214</v>
       </c>
       <c r="Q27" t="n">
-        <v>35812049.01324194</v>
+        <v>36962263.85351298</v>
       </c>
       <c r="R27" t="n">
-        <v>38592385.46011908</v>
+        <v>38542560.68933203</v>
       </c>
       <c r="S27" t="n">
-        <v>41812945.53380954</v>
+        <v>40414499.31440097</v>
       </c>
       <c r="T27" t="n">
-        <v>43600630.01615688</v>
+        <v>42847274.94879135</v>
       </c>
       <c r="U27" t="n">
-        <v>45718229.41653027</v>
+        <v>42437246.94543075</v>
       </c>
     </row>
     <row r="28">
@@ -2199,58 +2199,58 @@
         <v>25496580.43463274</v>
       </c>
       <c r="D28" t="n">
-        <v>27327824.84675251</v>
+        <v>27031362.77002955</v>
       </c>
       <c r="E28" t="n">
-        <v>28337330.23877256</v>
+        <v>27401301.09691645</v>
       </c>
       <c r="F28" t="n">
-        <v>30372606.21576819</v>
+        <v>28732130.00353498</v>
       </c>
       <c r="G28" t="n">
-        <v>32024324.8315561</v>
+        <v>28290135.45908869</v>
       </c>
       <c r="H28" t="n">
-        <v>34510594.11715004</v>
+        <v>28512828.64701481</v>
       </c>
       <c r="I28" t="n">
-        <v>34982889.63388686</v>
+        <v>31058009.82889353</v>
       </c>
       <c r="J28" t="n">
-        <v>36071795.29501361</v>
+        <v>30760799.47482282</v>
       </c>
       <c r="K28" t="n">
-        <v>36984882.29707911</v>
+        <v>31360613.04460618</v>
       </c>
       <c r="L28" t="n">
-        <v>36630954.59780483</v>
+        <v>32519091.92622658</v>
       </c>
       <c r="M28" t="n">
-        <v>39687831.96965761</v>
+        <v>34665656.90401369</v>
       </c>
       <c r="N28" t="n">
-        <v>42076865.41645224</v>
+        <v>35946225.98548149</v>
       </c>
       <c r="O28" t="n">
-        <v>42897334.17154403</v>
+        <v>35393254.94654141</v>
       </c>
       <c r="P28" t="n">
-        <v>46726539.93144354</v>
+        <v>36494933.96963899</v>
       </c>
       <c r="Q28" t="n">
-        <v>46551046.17084587</v>
+        <v>39752633.17315722</v>
       </c>
       <c r="R28" t="n">
-        <v>48000031.61022206</v>
+        <v>39372219.41690791</v>
       </c>
       <c r="S28" t="n">
-        <v>50052240.81400542</v>
+        <v>40368850.20553459</v>
       </c>
       <c r="T28" t="n">
-        <v>49282272.928771</v>
+        <v>43033572.8319019</v>
       </c>
       <c r="U28" t="n">
-        <v>52535365.03031668</v>
+        <v>45123631.34690481</v>
       </c>
     </row>
     <row r="29">
@@ -2258,64 +2258,64 @@
         <v>22561132</v>
       </c>
       <c r="B29" t="n">
-        <v>22345232.71775694</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C29" t="n">
-        <v>22521129.05151839</v>
+        <v>25777751.88669541</v>
       </c>
       <c r="D29" t="n">
-        <v>24531464.62945089</v>
+        <v>26580130.99986487</v>
       </c>
       <c r="E29" t="n">
-        <v>25437670.88466708</v>
+        <v>26634832.89825316</v>
       </c>
       <c r="F29" t="n">
-        <v>26673130.01891137</v>
+        <v>29167224.44097694</v>
       </c>
       <c r="G29" t="n">
-        <v>27658450.61164572</v>
+        <v>29396821.8638352</v>
       </c>
       <c r="H29" t="n">
-        <v>29644967.32357579</v>
+        <v>31337287.74198179</v>
       </c>
       <c r="I29" t="n">
-        <v>29188930.34247843</v>
+        <v>31583967.38472554</v>
       </c>
       <c r="J29" t="n">
-        <v>29758093.5893963</v>
+        <v>32750697.10269849</v>
       </c>
       <c r="K29" t="n">
-        <v>29473322.81429191</v>
+        <v>35293359.6792407</v>
       </c>
       <c r="L29" t="n">
-        <v>30904785.86185402</v>
+        <v>38238613.87107652</v>
       </c>
       <c r="M29" t="n">
-        <v>33843156.77806056</v>
+        <v>41207341.28973117</v>
       </c>
       <c r="N29" t="n">
-        <v>34503074.10876587</v>
+        <v>43687842.53429181</v>
       </c>
       <c r="O29" t="n">
-        <v>35376451.99978456</v>
+        <v>47841603.26469777</v>
       </c>
       <c r="P29" t="n">
-        <v>37917299.78960159</v>
+        <v>48774480.28116948</v>
       </c>
       <c r="Q29" t="n">
-        <v>40861081.37923403</v>
+        <v>50859800.51919719</v>
       </c>
       <c r="R29" t="n">
-        <v>42608069.54715738</v>
+        <v>52147216.97301985</v>
       </c>
       <c r="S29" t="n">
-        <v>43191183.24713083</v>
+        <v>56195765.21162207</v>
       </c>
       <c r="T29" t="n">
-        <v>43280070.68403874</v>
+        <v>61212047.73793922</v>
       </c>
       <c r="U29" t="n">
-        <v>44375621.09030129</v>
+        <v>65608489.08276557</v>
       </c>
     </row>
     <row r="30">
@@ -2323,64 +2323,64 @@
         <v>22561132</v>
       </c>
       <c r="B30" t="n">
-        <v>24312708.33564088</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C30" t="n">
-        <v>26482968.203662</v>
+        <v>26199509.06478943</v>
       </c>
       <c r="D30" t="n">
-        <v>26229538.8178122</v>
+        <v>28690510.80798186</v>
       </c>
       <c r="E30" t="n">
-        <v>27045980.61568452</v>
+        <v>28916355.65500629</v>
       </c>
       <c r="F30" t="n">
-        <v>28988507.81064502</v>
+        <v>28471527.11485946</v>
       </c>
       <c r="G30" t="n">
-        <v>29048166.14749423</v>
+        <v>28033541.49892099</v>
       </c>
       <c r="H30" t="n">
-        <v>31810013.03290772</v>
+        <v>30372959.06534398</v>
       </c>
       <c r="I30" t="n">
-        <v>32245349.6861042</v>
+        <v>31318372.30643275</v>
       </c>
       <c r="J30" t="n">
-        <v>31749310.28202008</v>
+        <v>34296066.27071088</v>
       </c>
       <c r="K30" t="n">
-        <v>32368399.10492291</v>
+        <v>35762371.61454586</v>
       </c>
       <c r="L30" t="n">
-        <v>34505016.94355409</v>
+        <v>35628056.66009521</v>
       </c>
       <c r="M30" t="n">
-        <v>36582067.65328772</v>
+        <v>36944177.33589923</v>
       </c>
       <c r="N30" t="n">
-        <v>39634865.37730946</v>
+        <v>40456762.62583564</v>
       </c>
       <c r="O30" t="n">
-        <v>41790282.812115</v>
+        <v>43597700.23623809</v>
       </c>
       <c r="P30" t="n">
-        <v>41390369.7198167</v>
+        <v>45715157.34279148</v>
       </c>
       <c r="Q30" t="n">
-        <v>45325690.90726626</v>
+        <v>45277685.07154476</v>
       </c>
       <c r="R30" t="n">
-        <v>49635175.28661827</v>
+        <v>49319371.47978514</v>
       </c>
       <c r="S30" t="n">
-        <v>50025891.52881632</v>
+        <v>49134139.66112277</v>
       </c>
       <c r="T30" t="n">
-        <v>49547167.58559217</v>
+        <v>52663107.74880114</v>
       </c>
       <c r="U30" t="n">
-        <v>52241634.38502669</v>
+        <v>55833195.89874654</v>
       </c>
     </row>
     <row r="31">
@@ -2388,64 +2388,64 @@
         <v>22561132</v>
       </c>
       <c r="B31" t="n">
-        <v>24312708.33564088</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C31" t="n">
-        <v>25069485.32064895</v>
+        <v>24362743.87914242</v>
       </c>
       <c r="D31" t="n">
-        <v>27307298.44916789</v>
+        <v>24412882.39577138</v>
       </c>
       <c r="E31" t="n">
-        <v>29586110.5530898</v>
+        <v>25030846.80303819</v>
       </c>
       <c r="F31" t="n">
-        <v>29302985.57368824</v>
+        <v>27265210.88659789</v>
       </c>
       <c r="G31" t="n">
-        <v>31577978.51706088</v>
+        <v>28589430.15139104</v>
       </c>
       <c r="H31" t="n">
-        <v>32010139.65663998</v>
+        <v>28980691.44468336</v>
       </c>
       <c r="I31" t="n">
-        <v>34123109.01251555</v>
+        <v>30219741.49776956</v>
       </c>
       <c r="J31" t="n">
-        <v>36970705.01275398</v>
+        <v>30984695.19474308</v>
       </c>
       <c r="K31" t="n">
-        <v>39411118.19417103</v>
+        <v>32129287.45719341</v>
       </c>
       <c r="L31" t="n">
-        <v>42012621.52774989</v>
+        <v>33689745.63930144</v>
       </c>
       <c r="M31" t="n">
-        <v>45030099.83659367</v>
+        <v>33171486.68061922</v>
       </c>
       <c r="N31" t="n">
-        <v>46955331.59648819</v>
+        <v>32661200.24720121</v>
       </c>
       <c r="O31" t="n">
-        <v>47051965.64911165</v>
+        <v>35196914.56537575</v>
       </c>
       <c r="P31" t="n">
-        <v>48242994.2049256</v>
+        <v>38134120.34871563</v>
       </c>
       <c r="Q31" t="n">
-        <v>51988430.69321032</v>
+        <v>37990897.67062092</v>
       </c>
       <c r="R31" t="n">
-        <v>55117906.24298084</v>
+        <v>41382133.20992853</v>
       </c>
       <c r="S31" t="n">
-        <v>54270011.78274757</v>
+        <v>43151398.59990212</v>
       </c>
       <c r="T31" t="n">
-        <v>53750673.63113277</v>
+        <v>44243691.92382117</v>
       </c>
       <c r="U31" t="n">
-        <v>55736254.08474089</v>
+        <v>44334745.42314184</v>
       </c>
     </row>
     <row r="32">
@@ -2453,64 +2453,64 @@
         <v>22561132</v>
       </c>
       <c r="B32" t="n">
-        <v>23394553.04729505</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C32" t="n">
-        <v>25346843.96136178</v>
+        <v>23446511.83895021</v>
       </c>
       <c r="D32" t="n">
-        <v>25841089.2741876</v>
+        <v>24994201.46321585</v>
       </c>
       <c r="E32" t="n">
-        <v>26645439.87800644</v>
+        <v>24755018.86563401</v>
       </c>
       <c r="F32" t="n">
-        <v>29178839.91310273</v>
+        <v>24949884.46026262</v>
       </c>
       <c r="G32" t="n">
-        <v>30935278.12177997</v>
+        <v>26741863.45203474</v>
       </c>
       <c r="H32" t="n">
-        <v>30459391.92193773</v>
+        <v>28973489.63173033</v>
       </c>
       <c r="I32" t="n">
-        <v>32824164.66864553</v>
+        <v>31728236.40963864</v>
       </c>
       <c r="J32" t="n">
-        <v>32891716.78569092</v>
+        <v>34007057.90809511</v>
       </c>
       <c r="K32" t="n">
-        <v>34106755.51029315</v>
+        <v>35658715.81780788</v>
       </c>
       <c r="L32" t="n">
-        <v>36754698.25701874</v>
+        <v>38841770.49095227</v>
       </c>
       <c r="M32" t="n">
-        <v>38112437.71416911</v>
+        <v>39373340.41996374</v>
       </c>
       <c r="N32" t="n">
-        <v>40628215.9591744</v>
+        <v>41285628.43124054</v>
       </c>
       <c r="O32" t="n">
-        <v>42837653.63960569</v>
+        <v>43770842.21841785</v>
       </c>
       <c r="P32" t="n">
-        <v>45167244.63586593</v>
+        <v>47932494.40806188</v>
       </c>
       <c r="Q32" t="n">
-        <v>45785381.98442794</v>
+        <v>52211160.83846807</v>
       </c>
       <c r="R32" t="n">
-        <v>48275275.91112623</v>
+        <v>56264673.48051993</v>
       </c>
       <c r="S32" t="n">
-        <v>48374626.40859256</v>
+        <v>57688903.73050762</v>
       </c>
       <c r="T32" t="n">
-        <v>50724089.70392022</v>
+        <v>62167691.34645802</v>
       </c>
       <c r="U32" t="n">
-        <v>51713173.14254222</v>
+        <v>61572776.16487899</v>
       </c>
     </row>
     <row r="33">
@@ -2518,64 +2518,64 @@
         <v>22561132</v>
       </c>
       <c r="B33" t="n">
-        <v>23263388.00610278</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C33" t="n">
-        <v>24663741.95022427</v>
+        <v>26337044.54174089</v>
       </c>
       <c r="D33" t="n">
-        <v>24571110.80673267</v>
+        <v>26085011.57579905</v>
       </c>
       <c r="E33" t="n">
-        <v>24193126.40647327</v>
+        <v>27200258.77545402</v>
       </c>
       <c r="F33" t="n">
-        <v>26212058.79516821</v>
+        <v>29153866.71195609</v>
       </c>
       <c r="G33" t="n">
-        <v>28551863.08500831</v>
+        <v>30061333.50039522</v>
       </c>
       <c r="H33" t="n">
-        <v>30768541.20728334</v>
+        <v>29948430.28795309</v>
       </c>
       <c r="I33" t="n">
-        <v>33157315.34595993</v>
+        <v>29661838.08134416</v>
       </c>
       <c r="J33" t="n">
-        <v>34574934.15667827</v>
+        <v>31274903.80871028</v>
       </c>
       <c r="K33" t="n">
-        <v>37862256.10771428</v>
+        <v>31884742.04498523</v>
       </c>
       <c r="L33" t="n">
-        <v>39481031.5095977</v>
+        <v>33247952.83651817</v>
       </c>
       <c r="M33" t="n">
-        <v>39791816.75777011</v>
+        <v>35635925.13744656</v>
       </c>
       <c r="N33" t="n">
-        <v>42187109.63281843</v>
+        <v>38195409.10220701</v>
       </c>
       <c r="O33" t="n">
-        <v>44481322.84033159</v>
+        <v>41160782.23656695</v>
       </c>
       <c r="P33" t="n">
-        <v>48710526.23726409</v>
+        <v>44834975.69091881</v>
       </c>
       <c r="Q33" t="n">
-        <v>48244389.71307253</v>
+        <v>48576484.04531349</v>
       </c>
       <c r="R33" t="n">
-        <v>47782713.89329067</v>
+        <v>49523690.71094621</v>
       </c>
       <c r="S33" t="n">
-        <v>52325807.55616457</v>
+        <v>52792718.64973507</v>
       </c>
       <c r="T33" t="n">
-        <v>51825074.51253164</v>
+        <v>52594441.76594247</v>
       </c>
       <c r="U33" t="n">
-        <v>51630431.86976796</v>
+        <v>56983482.69279762</v>
       </c>
     </row>
     <row r="34">
@@ -2583,64 +2583,64 @@
         <v>22561132</v>
       </c>
       <c r="B34" t="n">
-        <v>23394553.04729505</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C34" t="n">
-        <v>24938812.9041272</v>
+        <v>23960050.75779761</v>
       </c>
       <c r="D34" t="n">
-        <v>25570090.21437656</v>
+        <v>26098830.85080638</v>
       </c>
       <c r="E34" t="n">
-        <v>26811980.70277987</v>
+        <v>27518133.64162836</v>
       </c>
       <c r="F34" t="n">
-        <v>28737701.28973105</v>
+        <v>29014620.74861953</v>
       </c>
       <c r="G34" t="n">
-        <v>29799288.31939516</v>
+        <v>30592489.59793945</v>
       </c>
       <c r="H34" t="n">
-        <v>31246582.88952686</v>
+        <v>31722593.56258437</v>
       </c>
       <c r="I34" t="n">
-        <v>31310888.34393612</v>
+        <v>32894444.21040843</v>
       </c>
       <c r="J34" t="n">
-        <v>30829224.02499826</v>
+        <v>35257026.41254066</v>
       </c>
       <c r="K34" t="n">
-        <v>33760410.65897796</v>
+        <v>35329585.35802899</v>
       </c>
       <c r="L34" t="n">
-        <v>33241064.64015865</v>
+        <v>37661669.25450836</v>
       </c>
       <c r="M34" t="n">
-        <v>34275752.85051983</v>
+        <v>38396044.84503995</v>
       </c>
       <c r="N34" t="n">
-        <v>37335358.13310559</v>
+        <v>37805387.54438961</v>
       </c>
       <c r="O34" t="n">
-        <v>40668077.31419715</v>
+        <v>37223816.49333137</v>
       </c>
       <c r="P34" t="n">
-        <v>42406813.72258307</v>
+        <v>40762989.36652768</v>
       </c>
       <c r="Q34" t="n">
-        <v>44466431.74363944</v>
+        <v>43216742.57386895</v>
       </c>
       <c r="R34" t="n">
-        <v>48177184.86205021</v>
+        <v>44561941.7880173</v>
       </c>
       <c r="S34" t="n">
-        <v>47996242.82442329</v>
+        <v>46208085.26142413</v>
       </c>
       <c r="T34" t="n">
-        <v>48932135.20161164</v>
+        <v>45765895.90488974</v>
       </c>
       <c r="U34" t="n">
-        <v>48179398.22024062</v>
+        <v>45860082.0993615</v>
       </c>
     </row>
     <row r="35">
@@ -2648,64 +2648,64 @@
         <v>22561132</v>
       </c>
       <c r="B35" t="n">
-        <v>23001057.92371826</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C35" t="n">
-        <v>23449562.08803008</v>
+        <v>25204733.11079051</v>
       </c>
       <c r="D35" t="n">
-        <v>24861122.89547912</v>
+        <v>26721947.51709133</v>
       </c>
       <c r="E35" t="n">
-        <v>25201360.35545211</v>
+        <v>29262621.75957283</v>
       </c>
       <c r="F35" t="n">
-        <v>25839283.54133005</v>
+        <v>31194229.17252985</v>
       </c>
       <c r="G35" t="n">
-        <v>25892460.7759611</v>
+        <v>31439782.69239103</v>
       </c>
       <c r="H35" t="n">
-        <v>27902671.14868014</v>
+        <v>34246236.73669743</v>
       </c>
       <c r="I35" t="n">
-        <v>30555606.44984189</v>
+        <v>35511312.19864731</v>
       </c>
       <c r="J35" t="n">
-        <v>30263203.85669975</v>
+        <v>35997303.0653339</v>
       </c>
       <c r="K35" t="n">
-        <v>31381143.81878827</v>
+        <v>38373462.59125583</v>
       </c>
       <c r="L35" t="n">
-        <v>32905266.0920002</v>
+        <v>39567905.96314292</v>
       </c>
       <c r="M35" t="n">
-        <v>34312108.70567386</v>
+        <v>41949720.39024097</v>
       </c>
       <c r="N35" t="n">
-        <v>35180652.68072076</v>
+        <v>43743252.58997096</v>
       </c>
       <c r="O35" t="n">
-        <v>35253054.44910122</v>
+        <v>45613466.05769379</v>
       </c>
       <c r="P35" t="n">
-        <v>35325605.22029047</v>
+        <v>49419939.94772707</v>
       </c>
       <c r="Q35" t="n">
-        <v>37246677.10137378</v>
+        <v>53831382.34517228</v>
       </c>
       <c r="R35" t="n">
-        <v>40354936.9231017</v>
+        <v>53942167.30733675</v>
       </c>
       <c r="S35" t="n">
-        <v>39968759.40697966</v>
+        <v>54366787.16179757</v>
       </c>
       <c r="T35" t="n">
-        <v>42607072.28924768</v>
+        <v>57323353.80602254</v>
       </c>
       <c r="U35" t="n">
-        <v>46658075.34744925</v>
+        <v>59774175.40605242</v>
       </c>
     </row>
     <row r="36">
@@ -2713,64 +2713,64 @@
         <v>22561132</v>
       </c>
       <c r="B36" t="n">
-        <v>24181543.29444862</v>
+        <v>22738727.84133373</v>
       </c>
       <c r="C36" t="n">
-        <v>25215408.98257006</v>
+        <v>22653326.59258008</v>
       </c>
       <c r="D36" t="n">
-        <v>27466247.90249365</v>
+        <v>24412060.63053117</v>
       </c>
       <c r="E36" t="n">
-        <v>29598642.22804673</v>
+        <v>25030004.23641691</v>
       </c>
       <c r="F36" t="n">
-        <v>30347874.01083389</v>
+        <v>25809108.35263776</v>
       </c>
       <c r="G36" t="n">
-        <v>29881024.01583938</v>
+        <v>27662799.50050491</v>
       </c>
       <c r="H36" t="n">
-        <v>32200894.07159993</v>
+        <v>28845503.96616739</v>
       </c>
       <c r="I36" t="n">
-        <v>33952038.36936729</v>
+        <v>29743372.40686898</v>
       </c>
       <c r="J36" t="n">
-        <v>36390580.30260343</v>
+        <v>29804584.25473887</v>
       </c>
       <c r="K36" t="n">
-        <v>36677038.25717165</v>
+        <v>31078859.29312209</v>
       </c>
       <c r="L36" t="n">
-        <v>38671603.57142134</v>
+        <v>34033780.79505374</v>
       </c>
       <c r="M36" t="n">
-        <v>41898774.44885796</v>
+        <v>35884600.86974497</v>
       </c>
       <c r="N36" t="n">
-        <v>42715770.55756725</v>
+        <v>38461945.50591463</v>
       </c>
       <c r="O36" t="n">
-        <v>46280429.84292771</v>
+        <v>39211925.91047459</v>
       </c>
       <c r="P36" t="n">
-        <v>49335372.15445152</v>
+        <v>39064655.25126458</v>
       </c>
       <c r="Q36" t="n">
-        <v>50010552.50649045</v>
+        <v>41643288.78205094</v>
       </c>
       <c r="R36" t="n">
-        <v>54474715.59289134</v>
+        <v>43423719.70360336</v>
       </c>
       <c r="S36" t="n">
-        <v>59337369.61896736</v>
+        <v>42755720.24772605</v>
       </c>
       <c r="T36" t="n">
-        <v>63599165.69876722</v>
+        <v>42097996.81785706</v>
       </c>
       <c r="U36" t="n">
-        <v>69646058.87640038</v>
+        <v>44876859.33373577</v>
       </c>
     </row>
     <row r="37">
@@ -2778,64 +2778,64 @@
         <v>22561132</v>
       </c>
       <c r="B37" t="n">
-        <v>23919213.21206409</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C37" t="n">
-        <v>23829378.34127586</v>
+        <v>24530781.84689261</v>
       </c>
       <c r="D37" t="n">
-        <v>24848187.4526846</v>
+        <v>24438650.0698976</v>
       </c>
       <c r="E37" t="n">
-        <v>25621632.19293148</v>
+        <v>26335991.08707001</v>
       </c>
       <c r="F37" t="n">
-        <v>25376445.38225418</v>
+        <v>27002635.23248743</v>
       </c>
       <c r="G37" t="n">
-        <v>26313865.70704568</v>
+        <v>28314101.69881206</v>
       </c>
       <c r="H37" t="n">
-        <v>27744862.49187563</v>
+        <v>30018486.45901065</v>
       </c>
       <c r="I37" t="n">
-        <v>29737585.57619423</v>
+        <v>30778345.77799472</v>
       </c>
       <c r="J37" t="n">
-        <v>31008996.13094821</v>
+        <v>32452129.26313662</v>
       </c>
       <c r="K37" t="n">
-        <v>33055880.62704777</v>
+        <v>33839598.31517769</v>
       </c>
       <c r="L37" t="n">
-        <v>33123909.61543783</v>
+        <v>35876593.741455</v>
       </c>
       <c r="M37" t="n">
-        <v>35502972.74299502</v>
+        <v>36159005.71660333</v>
       </c>
       <c r="N37" t="n">
-        <v>38465719.28354166</v>
+        <v>37915179.62498958</v>
       </c>
       <c r="O37" t="n">
-        <v>38097620.67996629</v>
+        <v>37331919.61106494</v>
       </c>
       <c r="P37" t="n">
-        <v>41055401.82442535</v>
+        <v>36974670.93006859</v>
       </c>
       <c r="Q37" t="n">
-        <v>40662521.19298834</v>
+        <v>40490155.49556182</v>
       </c>
       <c r="R37" t="n">
-        <v>43346628.85809198</v>
+        <v>43162885.40847279</v>
       </c>
       <c r="S37" t="n">
-        <v>45199884.9437945</v>
+        <v>43000775.88592537</v>
       </c>
       <c r="T37" t="n">
-        <v>45030124.9359059</v>
+        <v>47089211.56712762</v>
       </c>
       <c r="U37" t="n">
-        <v>46693563.36106601</v>
+        <v>50471306.50234871</v>
       </c>
     </row>
     <row r="38">
@@ -2843,64 +2843,64 @@
         <v>22561132</v>
       </c>
       <c r="B38" t="n">
-        <v>23263388.00610278</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C38" t="n">
-        <v>25475228.69107363</v>
+        <v>25215408.98257006</v>
       </c>
       <c r="D38" t="n">
-        <v>26416298.12747405</v>
+        <v>27466247.90249365</v>
       </c>
       <c r="E38" t="n">
-        <v>27699287.31946725</v>
+        <v>29758324.44335079</v>
       </c>
       <c r="F38" t="n">
-        <v>30332885.25549543</v>
+        <v>31549645.07961242</v>
       </c>
       <c r="G38" t="n">
-        <v>30395310.32055918</v>
+        <v>31797996.34858661</v>
       </c>
       <c r="H38" t="n">
-        <v>30457863.85638051</v>
+        <v>33712096.28924111</v>
       </c>
       <c r="I38" t="n">
-        <v>32999592.72585206</v>
+        <v>33781475.76918722</v>
       </c>
       <c r="J38" t="n">
-        <v>36137134.07448795</v>
+        <v>34047395.47617372</v>
       </c>
       <c r="K38" t="n">
-        <v>36211504.28117342</v>
+        <v>37086616.56962398</v>
       </c>
       <c r="L38" t="n">
-        <v>37970227.94466212</v>
+        <v>40397131.97870953</v>
       </c>
       <c r="M38" t="n">
-        <v>38710620.2087714</v>
+        <v>41184847.13419473</v>
       </c>
       <c r="N38" t="n">
-        <v>40365666.84960912</v>
+        <v>40790727.77282746</v>
       </c>
       <c r="O38" t="n">
-        <v>39979386.6532035</v>
+        <v>43720445.8380322</v>
       </c>
       <c r="P38" t="n">
-        <v>42618401.03336716</v>
+        <v>46606405.20190574</v>
       </c>
       <c r="Q38" t="n">
-        <v>43449429.34533303</v>
+        <v>49953823.46898636</v>
       </c>
       <c r="R38" t="n">
-        <v>43538848.25260213</v>
+        <v>51799146.11821843</v>
       </c>
       <c r="S38" t="n">
-        <v>45906571.51144625</v>
+        <v>51905748.73908487</v>
       </c>
       <c r="T38" t="n">
-        <v>47068606.65313177</v>
+        <v>53823176.61791477</v>
       </c>
       <c r="U38" t="n">
-        <v>46344536.86252408</v>
+        <v>56437265.5998871</v>
       </c>
     </row>
     <row r="39">
@@ -2908,64 +2908,64 @@
         <v>22561132</v>
       </c>
       <c r="B39" t="n">
-        <v>24443873.37683315</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C39" t="n">
-        <v>24352068.00736287</v>
+        <v>22391981.75953657</v>
       </c>
       <c r="D39" t="n">
-        <v>25534801.48142355</v>
+        <v>22307882.80652227</v>
       </c>
       <c r="E39" t="n">
-        <v>26626524.81699316</v>
+        <v>21964714.28760574</v>
       </c>
       <c r="F39" t="n">
-        <v>26371721.66276243</v>
+        <v>21754522.43866093</v>
       </c>
       <c r="G39" t="n">
-        <v>28419140.3647408</v>
+        <v>21419866.41998987</v>
       </c>
       <c r="H39" t="n">
-        <v>30460292.20169414</v>
+        <v>23207368.42986924</v>
       </c>
       <c r="I39" t="n">
-        <v>32470957.09361831</v>
+        <v>23929739.71273376</v>
       </c>
       <c r="J39" t="n">
-        <v>33859231.11694181</v>
+        <v>25648448.70764277</v>
       </c>
       <c r="K39" t="n">
-        <v>33732063.90515219</v>
+        <v>25850347.16855062</v>
       </c>
       <c r="L39" t="n">
-        <v>36154806.58211411</v>
+        <v>26955561.44863866</v>
       </c>
       <c r="M39" t="n">
-        <v>37490385.69961651</v>
+        <v>28108028.42506172</v>
       </c>
       <c r="N39" t="n">
-        <v>38003461.22148543</v>
+        <v>28982941.60677651</v>
       </c>
       <c r="O39" t="n">
-        <v>40512045.99617096</v>
+        <v>28537088.75595673</v>
       </c>
       <c r="P39" t="n">
-        <v>43186220.8873753</v>
+        <v>30254896.35915991</v>
       </c>
       <c r="Q39" t="n">
-        <v>42521874.94347474</v>
+        <v>32603792.7044307</v>
       </c>
       <c r="R39" t="n">
-        <v>42114960.863103</v>
+        <v>32102239.2692401</v>
       </c>
       <c r="S39" t="n">
-        <v>41467094.41746287</v>
+        <v>34781192.35373941</v>
       </c>
       <c r="T39" t="n">
-        <v>42034593.27647954</v>
+        <v>37885915.40166857</v>
       </c>
       <c r="U39" t="n">
-        <v>41632342.2494579</v>
+        <v>39725962.01813813</v>
       </c>
     </row>
     <row r="40">
@@ -2973,64 +2973,64 @@
         <v>22561132</v>
       </c>
       <c r="B40" t="n">
-        <v>24443873.37683315</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C40" t="n">
-        <v>25346843.96136178</v>
+        <v>23300588.1770291</v>
       </c>
       <c r="D40" t="n">
-        <v>27756775.85497249</v>
+        <v>25109573.59750348</v>
       </c>
       <c r="E40" t="n">
-        <v>27652528.01244011</v>
+        <v>25307230.16227956</v>
       </c>
       <c r="F40" t="n">
-        <v>29638619.3447108</v>
+        <v>25506442.63231415</v>
       </c>
       <c r="G40" t="n">
-        <v>30216551.20526441</v>
+        <v>25410646.5056679</v>
       </c>
       <c r="H40" t="n">
-        <v>32386798.72885035</v>
+        <v>26497061.67840107</v>
       </c>
       <c r="I40" t="n">
-        <v>33771474.61765271</v>
+        <v>27938020.99967176</v>
       </c>
       <c r="J40" t="n">
-        <v>33251958.39880391</v>
+        <v>27833092.44352182</v>
       </c>
       <c r="K40" t="n">
-        <v>33320390.91516555</v>
+        <v>29023077.66991038</v>
       </c>
       <c r="L40" t="n">
-        <v>35326132.33277339</v>
+        <v>29926473.41305315</v>
       </c>
       <c r="M40" t="n">
-        <v>35398833.49821641</v>
+        <v>30510018.22188044</v>
       </c>
       <c r="N40" t="n">
-        <v>38764490.30243273</v>
+        <v>33410855.34778205</v>
       </c>
       <c r="O40" t="n">
-        <v>42450147.64351246</v>
+        <v>33479614.87399768</v>
       </c>
       <c r="P40" t="n">
-        <v>42537510.02946063</v>
+        <v>36273510.86306924</v>
       </c>
       <c r="Q40" t="n">
-        <v>43366961.02475577</v>
+        <v>38457017.15161616</v>
       </c>
       <c r="R40" t="n">
-        <v>45725336.73758974</v>
+        <v>39877641.23689447</v>
       </c>
       <c r="S40" t="n">
-        <v>49806982.51326292</v>
+        <v>43205456.75462687</v>
       </c>
       <c r="T40" t="n">
-        <v>53673842.20451913</v>
+        <v>45555049.56593418</v>
       </c>
       <c r="U40" t="n">
-        <v>52848162.192945</v>
+        <v>49356648.56112064</v>
       </c>
     </row>
     <row r="41">
@@ -3038,64 +3038,64 @@
         <v>22561132</v>
       </c>
       <c r="B41" t="n">
-        <v>23788048.17087183</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C41" t="n">
-        <v>25081686.31696844</v>
+        <v>23430498.03128088</v>
       </c>
       <c r="D41" t="n">
-        <v>27320588.56037727</v>
+        <v>25658227.23397144</v>
       </c>
       <c r="E41" t="n">
-        <v>28012155.86661302</v>
+        <v>26456885.92631926</v>
       </c>
       <c r="F41" t="n">
-        <v>27906948.87755086</v>
+        <v>27741846.390252</v>
       </c>
       <c r="G41" t="n">
-        <v>28775603.09495729</v>
+        <v>28766645.9735558</v>
       </c>
       <c r="H41" t="n">
-        <v>31176946.1920237</v>
+        <v>31167241.59292118</v>
       </c>
       <c r="I41" t="n">
-        <v>32328640.31565268</v>
+        <v>32499776.13316742</v>
       </c>
       <c r="J41" t="n">
-        <v>32771074.65426327</v>
+        <v>33700336.34715664</v>
       </c>
       <c r="K41" t="n">
-        <v>32266947.87316335</v>
+        <v>36708577.40789568</v>
       </c>
       <c r="L41" t="n">
-        <v>31958168.55810105</v>
+        <v>38491442.96462536</v>
       </c>
       <c r="M41" t="n">
-        <v>32023938.45551615</v>
+        <v>41703579.32035048</v>
       </c>
       <c r="N41" t="n">
-        <v>33206920.95506929</v>
+        <v>42031859.93393075</v>
       </c>
       <c r="O41" t="n">
-        <v>34626660.62038207</v>
+        <v>43095814.32445744</v>
       </c>
       <c r="P41" t="n">
-        <v>37717589.48238134</v>
+        <v>47193286.08780415</v>
       </c>
       <c r="Q41" t="n">
-        <v>37356650.12449874</v>
+        <v>47016039.33975342</v>
       </c>
       <c r="R41" t="n">
-        <v>39388173.99162335</v>
+        <v>48752838.57244273</v>
       </c>
       <c r="S41" t="n">
-        <v>39240241.3865769</v>
+        <v>51970983.04230455</v>
       </c>
       <c r="T41" t="n">
-        <v>40689798.22053856</v>
+        <v>55099408.32000141</v>
       </c>
       <c r="U41" t="n">
-        <v>42192902.50835468</v>
+        <v>57134811.80008356</v>
       </c>
     </row>
     <row r="42">
@@ -3103,64 +3103,64 @@
         <v>22561132</v>
       </c>
       <c r="B42" t="n">
-        <v>23788048.17087183</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C42" t="n">
-        <v>25634878.47385417</v>
+        <v>22130636.92649306</v>
       </c>
       <c r="D42" t="n">
-        <v>26581845.46402828</v>
+        <v>22433506.25894883</v>
       </c>
       <c r="E42" t="n">
-        <v>29109199.0577319</v>
+        <v>23523058.84992329</v>
       </c>
       <c r="F42" t="n">
-        <v>31369147.01685838</v>
+        <v>24528771.47663476</v>
       </c>
       <c r="G42" t="n">
-        <v>33986923.06837039</v>
+        <v>24436647.25011186</v>
       </c>
       <c r="H42" t="n">
-        <v>35835194.93304281</v>
+        <v>24060731.34106582</v>
       </c>
       <c r="I42" t="n">
-        <v>36325618.30422016</v>
+        <v>24390015.02430868</v>
       </c>
       <c r="J42" t="n">
-        <v>37033941.857627</v>
+        <v>24156614.20303581</v>
       </c>
       <c r="K42" t="n">
-        <v>36464238.17542877</v>
+        <v>26312940.41846053</v>
       </c>
       <c r="L42" t="n">
-        <v>38659225.41180858</v>
+        <v>28202818.36626152</v>
       </c>
       <c r="M42" t="n">
-        <v>38289275.04679666</v>
+        <v>29408610.97685527</v>
       </c>
       <c r="N42" t="n">
-        <v>39035888.50100917</v>
+        <v>32033753.65105714</v>
       </c>
       <c r="O42" t="n">
-        <v>38435388.30304484</v>
+        <v>33030862.12502341</v>
       </c>
       <c r="P42" t="n">
-        <v>39631759.22462386</v>
+        <v>34827141.62372185</v>
       </c>
       <c r="Q42" t="n">
-        <v>40404550.15929292</v>
+        <v>36113676.04257703</v>
       </c>
       <c r="R42" t="n">
-        <v>41897117.22149721</v>
+        <v>36817866.87359972</v>
       </c>
       <c r="S42" t="n">
-        <v>43688400.40797819</v>
+        <v>38820090.70900948</v>
       </c>
       <c r="T42" t="n">
-        <v>44286299.0003944</v>
+        <v>38674291.68953869</v>
       </c>
       <c r="U42" t="n">
-        <v>45407320.10999347</v>
+        <v>38304197.14742839</v>
       </c>
     </row>
     <row r="43">
@@ -3168,64 +3168,64 @@
         <v>22561132</v>
       </c>
       <c r="B43" t="n">
-        <v>22869892.88252599</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C43" t="n">
-        <v>23182879.3190968</v>
+        <v>23680404.43027487</v>
       </c>
       <c r="D43" t="n">
-        <v>25117505.9206429</v>
+        <v>25931894.27954814</v>
       </c>
       <c r="E43" t="n">
-        <v>27067551.20121295</v>
+        <v>27040595.05175123</v>
       </c>
       <c r="F43" t="n">
-        <v>28224806.22450291</v>
+        <v>27725074.86951299</v>
       </c>
       <c r="G43" t="n">
-        <v>28446985.15630129</v>
+        <v>27459759.11476882</v>
       </c>
       <c r="H43" t="n">
-        <v>28174761.06412256</v>
+        <v>29910938.65304131</v>
       </c>
       <c r="I43" t="n">
-        <v>30362162.15473509</v>
+        <v>29972495.35217516</v>
       </c>
       <c r="J43" t="n">
-        <v>30954202.58213941</v>
+        <v>31253949.31707189</v>
       </c>
       <c r="K43" t="n">
-        <v>31737747.72609184</v>
+        <v>32045081.96381812</v>
       </c>
       <c r="L43" t="n">
-        <v>33094673.87396899</v>
+        <v>34160357.83959904</v>
       </c>
       <c r="M43" t="n">
-        <v>32777973.61551308</v>
+        <v>34429260.01573031</v>
       </c>
       <c r="N43" t="n">
-        <v>35322753.85593691</v>
+        <v>34700278.92555236</v>
       </c>
       <c r="O43" t="n">
-        <v>37243670.67454222</v>
+        <v>34368213.79186755</v>
       </c>
       <c r="P43" t="n">
-        <v>36670740.67418107</v>
+        <v>33839517.76423228</v>
       </c>
       <c r="Q43" t="n">
-        <v>39517743.27916202</v>
+        <v>36073243.22811347</v>
       </c>
       <c r="R43" t="n">
-        <v>39599070.77816502</v>
+        <v>35728039.48030822</v>
       </c>
       <c r="S43" t="n">
-        <v>39680565.64912667</v>
+        <v>35593853.4691809</v>
       </c>
       <c r="T43" t="n">
-        <v>40915694.96589389</v>
+        <v>37529513.18718532</v>
       </c>
       <c r="U43" t="n">
-        <v>42427144.00795791</v>
+        <v>38915874.74851732</v>
       </c>
     </row>
     <row r="44">
@@ -3233,64 +3233,64 @@
         <v>22561132</v>
       </c>
       <c r="B44" t="n">
-        <v>23263388.00610278</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C44" t="n">
-        <v>24663741.95022427</v>
+        <v>25625727.72661456</v>
       </c>
       <c r="D44" t="n">
-        <v>25001278.1488044</v>
+        <v>27764211.64233109</v>
       </c>
       <c r="E44" t="n">
-        <v>26942299.86554367</v>
+        <v>29435495.43248937</v>
       </c>
       <c r="F44" t="n">
-        <v>29190652.59642195</v>
+        <v>31036252.22712827</v>
       </c>
       <c r="G44" t="n">
-        <v>29759849.42605885</v>
+        <v>31641436.9284</v>
       </c>
       <c r="H44" t="n">
-        <v>32416345.19757465</v>
+        <v>32810289.604001</v>
       </c>
       <c r="I44" t="n">
-        <v>32294597.1218151</v>
+        <v>34976076.35889497</v>
       </c>
       <c r="J44" t="n">
-        <v>34989602.59624776</v>
+        <v>36471455.07861789</v>
       </c>
       <c r="K44" t="n">
-        <v>34858189.97826999</v>
+        <v>39939094.79480246</v>
       </c>
       <c r="L44" t="n">
-        <v>34727270.91480221</v>
+        <v>43504235.0252385</v>
       </c>
       <c r="M44" t="n">
-        <v>37423388.55356952</v>
+        <v>47134692.19154958</v>
       </c>
       <c r="N44" t="n">
-        <v>39893683.09320345</v>
+        <v>47779755.08815663</v>
       </c>
       <c r="O44" t="n">
-        <v>39279987.19655758</v>
+        <v>50933666.92407619</v>
       </c>
       <c r="P44" t="n">
-        <v>41644470.17647912</v>
+        <v>54295766.51337374</v>
       </c>
       <c r="Q44" t="n">
-        <v>41245952.44162014</v>
+        <v>55670157.73136222</v>
       </c>
       <c r="R44" t="n">
-        <v>43009395.5140509</v>
+        <v>60639522.20951328</v>
       </c>
       <c r="S44" t="n">
-        <v>45848418.8894791</v>
+        <v>63232124.36865199</v>
       </c>
       <c r="T44" t="n">
-        <v>45676223.14247585</v>
+        <v>65935571.4967261</v>
       </c>
       <c r="U44" t="n">
-        <v>49222383.48397881</v>
+        <v>66454600.56378628</v>
       </c>
     </row>
     <row r="45">
@@ -3298,64 +3298,64 @@
         <v>22561132</v>
       </c>
       <c r="B45" t="n">
-        <v>23656883.12967957</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C45" t="n">
-        <v>24118175.41603821</v>
+        <v>26049772.59151847</v>
       </c>
       <c r="D45" t="n">
-        <v>24868897.21236267</v>
+        <v>26709171.67508351</v>
       </c>
       <c r="E45" t="n">
-        <v>25353822.90571897</v>
+        <v>27074700.6484496</v>
       </c>
       <c r="F45" t="n">
-        <v>26143006.46322873</v>
+        <v>26973014.518023</v>
       </c>
       <c r="G45" t="n">
-        <v>27108743.99031847</v>
+        <v>27812598.34067778</v>
       </c>
       <c r="H45" t="n">
-        <v>29370986.59341789</v>
+        <v>27384749.21386599</v>
       </c>
       <c r="I45" t="n">
-        <v>28919164.33597653</v>
+        <v>29829233.0366556</v>
       </c>
       <c r="J45" t="n">
-        <v>30155583.83873735</v>
+        <v>30237461.68038993</v>
       </c>
       <c r="K45" t="n">
-        <v>30743596.13685784</v>
+        <v>31881830.88587961</v>
       </c>
       <c r="L45" t="n">
-        <v>31521810.19024033</v>
+        <v>34913097.46864261</v>
       </c>
       <c r="M45" t="n">
-        <v>33419284.93528486</v>
+        <v>37420665.6820804</v>
       </c>
       <c r="N45" t="n">
-        <v>36013854.59813178</v>
+        <v>40760999.79226267</v>
       </c>
       <c r="O45" t="n">
-        <v>35878595.13346102</v>
+        <v>44399506.89761405</v>
       </c>
       <c r="P45" t="n">
-        <v>38455508.41880546</v>
+        <v>48362803.23834147</v>
       </c>
       <c r="Q45" t="n">
-        <v>39428934.46006173</v>
+        <v>51274031.91431146</v>
       </c>
       <c r="R45" t="n">
-        <v>41114692.14562704</v>
+        <v>53466218.80835556</v>
       </c>
       <c r="S45" t="n">
-        <v>41438337.18005084</v>
+        <v>53887092.10993472</v>
       </c>
       <c r="T45" t="n">
-        <v>45137306.41613373</v>
+        <v>57130858.75104429</v>
       </c>
       <c r="U45" t="n">
-        <v>46017451.57991681</v>
+        <v>60237740.73096669</v>
       </c>
     </row>
     <row r="46">
@@ -3363,64 +3363,64 @@
         <v>22561132</v>
       </c>
       <c r="B46" t="n">
-        <v>22607562.80014147</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C46" t="n">
-        <v>22259784.21847488</v>
+        <v>23292962.55432942</v>
       </c>
       <c r="D46" t="n">
-        <v>23082073.30733456</v>
+        <v>23070060.00241872</v>
       </c>
       <c r="E46" t="n">
-        <v>24605706.57140733</v>
+        <v>24861147.93018989</v>
       </c>
       <c r="F46" t="n">
-        <v>25943810.49669738</v>
+        <v>25490459.30340623</v>
       </c>
       <c r="G46" t="n">
-        <v>26751358.48420519</v>
+        <v>25246527.75477422</v>
       </c>
       <c r="H46" t="n">
-        <v>28050620.91835659</v>
+        <v>25885594.26509446</v>
       </c>
       <c r="I46" t="n">
-        <v>27782189.84305659</v>
+        <v>27142808.1831906</v>
       </c>
       <c r="J46" t="n">
-        <v>28808479.73645156</v>
+        <v>29092289.83788303</v>
       </c>
       <c r="K46" t="n">
-        <v>30877595.14878283</v>
+        <v>31689196.28830263</v>
       </c>
       <c r="L46" t="n">
-        <v>32915805.94799679</v>
+        <v>32859813.22182066</v>
       </c>
       <c r="M46" t="n">
-        <v>32600817.37035697</v>
+        <v>33500556.05710121</v>
       </c>
       <c r="N46" t="n">
-        <v>34563243.61601763</v>
+        <v>33179971.69956669</v>
       </c>
       <c r="O46" t="n">
-        <v>36844741.77202953</v>
+        <v>34405658.724627</v>
       </c>
       <c r="P46" t="n">
-        <v>39062633.65635282</v>
+        <v>33876386.67091935</v>
       </c>
       <c r="Q46" t="n">
-        <v>40732730.39638315</v>
+        <v>36506444.29523548</v>
       </c>
       <c r="R46" t="n">
-        <v>43184662.14641237</v>
+        <v>37855013.10984786</v>
       </c>
       <c r="S46" t="n">
-        <v>46035254.76293916</v>
+        <v>37712838.69210008</v>
       </c>
       <c r="T46" t="n">
-        <v>48806375.22737914</v>
+        <v>41298506.90788393</v>
       </c>
       <c r="U46" t="n">
-        <v>50041813.23298936</v>
+        <v>41143399.54716415</v>
       </c>
     </row>
     <row r="47">
@@ -3428,64 +3428,64 @@
         <v>22561132</v>
       </c>
       <c r="B47" t="n">
-        <v>23525718.08848731</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C47" t="n">
-        <v>24941863.15320707</v>
+        <v>24943388.277747</v>
       </c>
       <c r="D47" t="n">
-        <v>25573217.67455073</v>
+        <v>24994721.76030342</v>
       </c>
       <c r="E47" t="n">
-        <v>26666583.46872849</v>
+        <v>25191474.23885475</v>
       </c>
       <c r="F47" t="n">
-        <v>26411396.9722897</v>
+        <v>25096861.05851521</v>
       </c>
       <c r="G47" t="n">
-        <v>28922544.63293575</v>
+        <v>25148510.38798973</v>
       </c>
       <c r="H47" t="n">
-        <v>31336150.09846521</v>
+        <v>26808547.87504013</v>
       </c>
       <c r="I47" t="n">
-        <v>33404629.82393369</v>
+        <v>26863719.8552612</v>
       </c>
       <c r="J47" t="n">
-        <v>33861789.64130864</v>
+        <v>28324618.72771985</v>
       </c>
       <c r="K47" t="n">
-        <v>36490713.9975052</v>
+        <v>29700291.40977508</v>
       </c>
       <c r="L47" t="n">
-        <v>39111591.58042311</v>
+        <v>30970107.47742134</v>
       </c>
       <c r="M47" t="n">
-        <v>41920708.81535526</v>
+        <v>32294213.68058868</v>
       </c>
       <c r="N47" t="n">
-        <v>44687868.66075303</v>
+        <v>34238183.72863374</v>
       </c>
       <c r="O47" t="n">
-        <v>44000422.44118786</v>
+        <v>35702014.34314868</v>
       </c>
       <c r="P47" t="n">
-        <v>46393246.95984611</v>
+        <v>35775489.07361054</v>
       </c>
       <c r="Q47" t="n">
-        <v>49455636.25890024</v>
+        <v>36057105.17696713</v>
       </c>
       <c r="R47" t="n">
-        <v>48694846.11156816</v>
+        <v>36969820.32740347</v>
       </c>
       <c r="S47" t="n">
-        <v>53041563.42649929</v>
+        <v>37905639.07813572</v>
       </c>
       <c r="T47" t="n">
-        <v>54075835.94375876</v>
+        <v>38865146.25165354</v>
       </c>
       <c r="U47" t="n">
-        <v>53558355.96239299</v>
+        <v>39397036.09016706</v>
       </c>
     </row>
     <row r="48">
@@ -3496,61 +3496,61 @@
         <v>23525718.08848731</v>
       </c>
       <c r="C48" t="n">
-        <v>24121225.66511808</v>
+        <v>23300588.1770291</v>
       </c>
       <c r="D48" t="n">
-        <v>25853687.78198799</v>
+        <v>23348540.77767105</v>
       </c>
       <c r="E48" t="n">
-        <v>25455973.13458627</v>
+        <v>25568477.63352394</v>
       </c>
       <c r="F48" t="n">
-        <v>25508361.51656189</v>
+        <v>26364342.70736185</v>
       </c>
       <c r="G48" t="n">
-        <v>27192152.55219115</v>
+        <v>27338256.52119065</v>
       </c>
       <c r="H48" t="n">
-        <v>26773847.91976951</v>
+        <v>29619652.09668412</v>
       </c>
       <c r="I48" t="n">
-        <v>26517634.9536487</v>
+        <v>30197214.10947884</v>
       </c>
       <c r="J48" t="n">
-        <v>29038883.52863265</v>
+        <v>31312716.3727746</v>
       </c>
       <c r="K48" t="n">
-        <v>30955722.12049781</v>
+        <v>33561693.91832995</v>
       </c>
       <c r="L48" t="n">
-        <v>32099244.10110763</v>
+        <v>35972200.08823709</v>
       </c>
       <c r="M48" t="n">
-        <v>33658243.13473985</v>
+        <v>36046230.8608484</v>
       </c>
       <c r="N48" t="n">
-        <v>36271364.77128085</v>
+        <v>38844748.46027162</v>
       </c>
       <c r="O48" t="n">
-        <v>39509107.19942778</v>
+        <v>41408866.08092759</v>
       </c>
       <c r="P48" t="n">
-        <v>43035864.8354977</v>
+        <v>44623722.05150013</v>
       </c>
       <c r="Q48" t="n">
-        <v>44125233.64796079</v>
+        <v>44456125.97427779</v>
       </c>
       <c r="R48" t="n">
-        <v>46268312.04567274</v>
+        <v>47132189.81038412</v>
       </c>
       <c r="S48" t="n">
-        <v>46632525.14476914</v>
+        <v>49421310.3309768</v>
       </c>
       <c r="T48" t="n">
-        <v>48084046.76445796</v>
+        <v>52396256.49219286</v>
       </c>
       <c r="U48" t="n">
-        <v>48742102.07455566</v>
+        <v>54027184.66631746</v>
       </c>
     </row>
     <row r="49">
@@ -3558,64 +3558,64 @@
         <v>22561132</v>
       </c>
       <c r="B49" t="n">
-        <v>23525718.08848731</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C49" t="n">
-        <v>25215408.98257006</v>
+        <v>24613412.84040638</v>
       </c>
       <c r="D49" t="n">
-        <v>26879862.40412795</v>
+        <v>24807163.74623355</v>
       </c>
       <c r="E49" t="n">
-        <v>28185366.02845649</v>
+        <v>25002439.81290502</v>
       </c>
       <c r="F49" t="n">
-        <v>28734960.48964779</v>
+        <v>26652835.27238979</v>
       </c>
       <c r="G49" t="n">
-        <v>31467028.34989926</v>
+        <v>28412172.30689964</v>
       </c>
       <c r="H49" t="n">
-        <v>30982962.08475007</v>
+        <v>28966189.32816236</v>
       </c>
       <c r="I49" t="n">
-        <v>33208255.64260889</v>
+        <v>28857399.21652898</v>
       </c>
       <c r="J49" t="n">
-        <v>34241922.61362872</v>
+        <v>31097798.21671275</v>
       </c>
       <c r="K49" t="n">
-        <v>35705913.08166753</v>
+        <v>32427363.75191845</v>
       </c>
       <c r="L49" t="n">
-        <v>38685595.12760668</v>
+        <v>34944923.72963053</v>
       </c>
       <c r="M49" t="n">
-        <v>39215027.71514897</v>
+        <v>34813678.91483985</v>
       </c>
       <c r="N49" t="n">
-        <v>41347613.59979799</v>
+        <v>34480528.59729575</v>
       </c>
       <c r="O49" t="n">
-        <v>42875017.96184395</v>
+        <v>35754258.93382519</v>
       </c>
       <c r="P49" t="n">
-        <v>42963254.73072807</v>
+        <v>36867174.85843538</v>
       </c>
       <c r="Q49" t="n">
-        <v>45049898.02973923</v>
+        <v>39943764.96716393</v>
       </c>
       <c r="R49" t="n">
-        <v>47761704.33979461</v>
+        <v>40954863.31441249</v>
       </c>
       <c r="S49" t="n">
-        <v>52302800.45247576</v>
+        <v>41515352.023077</v>
       </c>
       <c r="T49" t="n">
-        <v>53626743.62952586</v>
+        <v>45221195.94464348</v>
       </c>
       <c r="U49" t="n">
-        <v>57790157.73033241</v>
+        <v>48732029.38535988</v>
       </c>
     </row>
     <row r="50">
@@ -3623,64 +3623,64 @@
         <v>22561132</v>
       </c>
       <c r="B50" t="n">
-        <v>23919213.21206409</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C50" t="n">
-        <v>26054347.96513828</v>
+        <v>25339980.90093207</v>
       </c>
       <c r="D50" t="n">
-        <v>26713862.86534476</v>
+        <v>27454619.05518544</v>
       </c>
       <c r="E50" t="n">
-        <v>27700688.15259239</v>
+        <v>29107266.7292128</v>
       </c>
       <c r="F50" t="n">
-        <v>29207102.91221941</v>
+        <v>31705510.0831872</v>
       </c>
       <c r="G50" t="n">
-        <v>30965242.4295055</v>
+        <v>33245386.2068994</v>
       </c>
       <c r="H50" t="n">
-        <v>33189263.30612244</v>
+        <v>33120524.45046439</v>
       </c>
       <c r="I50" t="n">
-        <v>35958929.2649514</v>
+        <v>34729125.12183922</v>
       </c>
       <c r="J50" t="n">
-        <v>39377838.95752686</v>
+        <v>34800597.64669392</v>
       </c>
       <c r="K50" t="n">
-        <v>43121812.3748829</v>
+        <v>38109375.27255244</v>
       </c>
       <c r="L50" t="n">
-        <v>44714756.64872232</v>
+        <v>39960274.90854065</v>
       </c>
       <c r="M50" t="n">
-        <v>46626506.12181848</v>
+        <v>39345554.61102092</v>
       </c>
       <c r="N50" t="n">
-        <v>48077840.38854033</v>
+        <v>39197782.07422234</v>
       </c>
       <c r="O50" t="n">
-        <v>50133376.25452876</v>
+        <v>41329430.1089563</v>
       </c>
       <c r="P50" t="n">
-        <v>52568258.67379526</v>
+        <v>42375603.86123636</v>
       </c>
       <c r="Q50" t="n">
-        <v>55427018.00561659</v>
+        <v>42709174.49145833</v>
       </c>
       <c r="R50" t="n">
-        <v>54574368.39104243</v>
+        <v>42548768.99910805</v>
       </c>
       <c r="S50" t="n">
-        <v>57224941.32399783</v>
+        <v>42636334.34776445</v>
       </c>
       <c r="T50" t="n">
-        <v>56677325.90477807</v>
+        <v>45450732.18826259</v>
       </c>
       <c r="U50" t="n">
-        <v>56793967.81758801</v>
+        <v>45280030.05783866</v>
       </c>
     </row>
     <row r="51">
@@ -3688,64 +3688,64 @@
         <v>22561132</v>
       </c>
       <c r="B51" t="n">
-        <v>22214067.67656468</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C51" t="n">
-        <v>23034667.97036579</v>
+        <v>26624316.49196331</v>
       </c>
       <c r="D51" t="n">
-        <v>25090844.30329997</v>
+        <v>27298259.03152552</v>
       </c>
       <c r="E51" t="n">
-        <v>27330564.02906958</v>
+        <v>27195733.26903079</v>
       </c>
       <c r="F51" t="n">
-        <v>28340170.60804228</v>
+        <v>28990906.66172506</v>
       </c>
       <c r="G51" t="n">
-        <v>28563257.66070776</v>
+        <v>30398939.67731223</v>
       </c>
       <c r="H51" t="n">
-        <v>28289920.89606889</v>
+        <v>30638232.86825875</v>
       </c>
       <c r="I51" t="n">
-        <v>30157320.93164288</v>
+        <v>32660643.51261162</v>
       </c>
       <c r="J51" t="n">
-        <v>32849296.76754897</v>
+        <v>35576076.99293914</v>
       </c>
       <c r="K51" t="n">
-        <v>33298856.56181402</v>
+        <v>37303939.16557216</v>
       </c>
       <c r="L51" t="n">
-        <v>33173793.98345472</v>
+        <v>40633853.75067256</v>
       </c>
       <c r="M51" t="n">
-        <v>32856336.58325392</v>
+        <v>43788540.16692023</v>
       </c>
       <c r="N51" t="n">
-        <v>32350898.19360086</v>
+        <v>45915266.00474264</v>
       </c>
       <c r="O51" t="n">
-        <v>31853235.1067448</v>
+        <v>45475878.7889583</v>
       </c>
       <c r="P51" t="n">
-        <v>33770660.17840922</v>
+        <v>45569468.12832779</v>
       </c>
       <c r="Q51" t="n">
-        <v>35999840.3959927</v>
+        <v>49902130.40315537</v>
       </c>
       <c r="R51" t="n">
-        <v>38585461.89654569</v>
+        <v>50585067.13803221</v>
       </c>
       <c r="S51" t="n">
-        <v>38440544.08704047</v>
+        <v>51571439.73613805</v>
       </c>
       <c r="T51" t="n">
-        <v>40754496.27286746</v>
+        <v>54975638.31101806</v>
       </c>
       <c r="U51" t="n">
-        <v>41786116.69869157</v>
+        <v>59563391.66337499</v>
       </c>
     </row>
     <row r="52">
@@ -3753,64 +3753,64 @@
         <v>22561132</v>
       </c>
       <c r="B52" t="n">
-        <v>24575038.41802541</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C52" t="n">
-        <v>24768487.24956711</v>
+        <v>21872342.34252943</v>
       </c>
       <c r="D52" t="n">
-        <v>24675462.70766609</v>
+        <v>23443282.60243667</v>
       </c>
       <c r="E52" t="n">
-        <v>26017360.10092545</v>
+        <v>24718171.7579652</v>
       </c>
       <c r="F52" t="n">
-        <v>26524679.99848689</v>
+        <v>25631275.08069485</v>
       </c>
       <c r="G52" t="n">
-        <v>28121349.41923924</v>
+        <v>27472193.68495094</v>
       </c>
       <c r="H52" t="n">
-        <v>28342713.96378202</v>
+        <v>29605049.62261856</v>
       </c>
       <c r="I52" t="n">
-        <v>29389709.93698403</v>
+        <v>30526560.29453231</v>
       </c>
       <c r="J52" t="n">
-        <v>29621058.71251591</v>
+        <v>31831702.9349581</v>
       </c>
       <c r="K52" t="n">
-        <v>31576326.32520045</v>
+        <v>33932893.79411605</v>
       </c>
       <c r="L52" t="n">
-        <v>34211391.62692559</v>
+        <v>36764616.20865921</v>
       </c>
       <c r="M52" t="n">
-        <v>35077386.14595737</v>
+        <v>38336462.75179577</v>
       </c>
       <c r="N52" t="n">
-        <v>36781027.85576339</v>
+        <v>41089907.80199178</v>
       </c>
       <c r="O52" t="n">
-        <v>40064265.06479587</v>
+        <v>41174470.81491974</v>
       </c>
       <c r="P52" t="n">
-        <v>40146717.30540322</v>
+        <v>42934857.73827528</v>
       </c>
       <c r="Q52" t="n">
-        <v>43730390.83933774</v>
+        <v>46018573.94562898</v>
       </c>
       <c r="R52" t="n">
-        <v>43566149.90148826</v>
+        <v>49591313.34199898</v>
       </c>
       <c r="S52" t="n">
-        <v>44922225.05015962</v>
+        <v>52288180.86948255</v>
       </c>
       <c r="T52" t="n">
-        <v>47887513.11034601</v>
+        <v>51483816.8811361</v>
       </c>
       <c r="U52" t="n">
-        <v>51605351.14864899</v>
+        <v>55480860.79353672</v>
       </c>
     </row>
     <row r="53">
@@ -3818,64 +3818,64 @@
         <v>22561132</v>
       </c>
       <c r="B53" t="n">
-        <v>24575038.41802541</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C53" t="n">
-        <v>24625613.83672586</v>
+        <v>26624316.49196331</v>
       </c>
       <c r="D53" t="n">
-        <v>25392130.57093975</v>
+        <v>27143471.60466307</v>
       </c>
       <c r="E53" t="n">
-        <v>25149139.98142111</v>
+        <v>27514944.19954328</v>
       </c>
       <c r="F53" t="n">
-        <v>26809219.02754127</v>
+        <v>27891500.59102685</v>
       </c>
       <c r="G53" t="n">
-        <v>27331979.60732318</v>
+        <v>30543373.81585283</v>
       </c>
       <c r="H53" t="n">
-        <v>27864933.64419509</v>
+        <v>32204379.09021819</v>
       </c>
       <c r="I53" t="n">
-        <v>27436279.42849383</v>
+        <v>33768484.32965102</v>
       </c>
       <c r="J53" t="n">
-        <v>27014219.32275833</v>
+        <v>36979130.49565783</v>
       </c>
       <c r="K53" t="n">
-        <v>28483302.63518124</v>
+        <v>36840245.68450262</v>
       </c>
       <c r="L53" t="n">
-        <v>30363467.67875311</v>
+        <v>39057866.92407288</v>
       </c>
       <c r="M53" t="n">
-        <v>32544267.20447182</v>
+        <v>40727759.86565708</v>
       </c>
       <c r="N53" t="n">
-        <v>34692493.98667555</v>
+        <v>40338014.61163511</v>
       </c>
       <c r="O53" t="n">
-        <v>34360503.35114605</v>
+        <v>43469732.99440404</v>
       </c>
       <c r="P53" t="n">
-        <v>37427673.83822341</v>
+        <v>46591865.62102926</v>
       </c>
       <c r="Q53" t="n">
-        <v>39245464.53638128</v>
+        <v>49125617.62254798</v>
       </c>
       <c r="R53" t="n">
-        <v>41836033.17531798</v>
+        <v>53510787.50761898</v>
       </c>
       <c r="S53" t="n">
-        <v>43138255.31421076</v>
+        <v>54243110.60095992</v>
       </c>
       <c r="T53" t="n">
-        <v>42976238.29643412</v>
+        <v>58139021.01289409</v>
       </c>
       <c r="U53" t="n">
-        <v>45313365.78317265</v>
+        <v>60624715.91806591</v>
       </c>
     </row>
     <row r="54">
@@ -3883,64 +3883,64 @@
         <v>22561132</v>
       </c>
       <c r="B54" t="n">
-        <v>23656883.12967957</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C54" t="n">
-        <v>25493530.18555287</v>
+        <v>24080047.30253981</v>
       </c>
       <c r="D54" t="n">
-        <v>27472768.82415313</v>
+        <v>25529560.55511925</v>
       </c>
       <c r="E54" t="n">
-        <v>29445949.28745762</v>
+        <v>26917905.37222893</v>
       </c>
       <c r="F54" t="n">
-        <v>30704891.12800819</v>
+        <v>29164222.36651693</v>
       </c>
       <c r="G54" t="n">
-        <v>32196169.09846655</v>
+        <v>31597995.99864691</v>
       </c>
       <c r="H54" t="n">
-        <v>34882960.68929628</v>
+        <v>31846727.8745049</v>
       </c>
       <c r="I54" t="n">
-        <v>35765954.66668119</v>
+        <v>32467716.27072524</v>
       </c>
       <c r="J54" t="n">
-        <v>36255430.44862641</v>
+        <v>35177168.6525549</v>
       </c>
       <c r="K54" t="n">
-        <v>39280970.08203334</v>
+        <v>35863098.25986663</v>
       </c>
       <c r="L54" t="n">
-        <v>38676699.72426033</v>
+        <v>35936904.50096116</v>
       </c>
       <c r="M54" t="n">
-        <v>41904295.87901959</v>
+        <v>39353720.11897372</v>
       </c>
       <c r="N54" t="n">
-        <v>42965021.23479718</v>
+        <v>40349882.63402674</v>
       </c>
       <c r="O54" t="n">
-        <v>44052596.7799596</v>
+        <v>41840430.24675657</v>
       </c>
       <c r="P54" t="n">
-        <v>45679924.75908849</v>
+        <v>44115790.38675223</v>
       </c>
       <c r="Q54" t="n">
-        <v>47632939.34832824</v>
+        <v>46258410.14328709</v>
       </c>
       <c r="R54" t="n">
-        <v>47730967.91741922</v>
+        <v>50656575.77376833</v>
       </c>
       <c r="S54" t="n">
-        <v>48106694.69411498</v>
+        <v>54294890.00028438</v>
       </c>
       <c r="T54" t="n">
-        <v>50163464.20661326</v>
+        <v>59457149.54120516</v>
       </c>
       <c r="U54" t="n">
-        <v>52308169.52211028</v>
+        <v>59579512.32988656</v>
       </c>
     </row>
     <row r="55">
@@ -3948,64 +3948,64 @@
         <v>22561132</v>
       </c>
       <c r="B55" t="n">
-        <v>22738727.84133373</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C55" t="n">
-        <v>24504092.16744373</v>
+        <v>24469776.86529516</v>
       </c>
       <c r="D55" t="n">
-        <v>24127138.7340127</v>
+        <v>25515965.78669557</v>
       </c>
       <c r="E55" t="n">
-        <v>24176792.37535235</v>
+        <v>26755227.55492763</v>
       </c>
       <c r="F55" t="n">
-        <v>24788780.62514767</v>
+        <v>26343644.26426167</v>
       </c>
       <c r="G55" t="n">
-        <v>24983911.98428161</v>
+        <v>25938392.47665648</v>
       </c>
       <c r="H55" t="n">
-        <v>26197332.91460513</v>
+        <v>27650569.58777633</v>
       </c>
       <c r="I55" t="n">
-        <v>27469687.38404267</v>
+        <v>28832751.171711</v>
       </c>
       <c r="J55" t="n">
-        <v>28324731.04724227</v>
+        <v>31574116.79242374</v>
       </c>
       <c r="K55" t="n">
-        <v>28053676.86862981</v>
+        <v>31822660.69687499</v>
       </c>
       <c r="L55" t="n">
-        <v>28437606.09824724</v>
+        <v>31703142.3587718</v>
       </c>
       <c r="M55" t="n">
-        <v>30314754.74191437</v>
+        <v>34348790.54231557</v>
       </c>
       <c r="N55" t="n">
-        <v>32315812.79688171</v>
+        <v>35218263.04636902</v>
       </c>
       <c r="O55" t="n">
-        <v>34261083.01701187</v>
+        <v>38362000.95724998</v>
       </c>
       <c r="P55" t="n">
-        <v>36323449.9740587</v>
+        <v>38887004.98945118</v>
       </c>
       <c r="Q55" t="n">
-        <v>37665258.87437227</v>
+        <v>38514874.88242443</v>
       </c>
       <c r="R55" t="n">
-        <v>39932542.29015191</v>
+        <v>39265887.37193708</v>
       </c>
       <c r="S55" t="n">
-        <v>39782565.16736459</v>
+        <v>41401239.09898081</v>
       </c>
       <c r="T55" t="n">
-        <v>39401864.97619414</v>
+        <v>44615502.93432316</v>
       </c>
       <c r="U55" t="n">
-        <v>41315538.37073599</v>
+        <v>46004241.09253813</v>
       </c>
     </row>
     <row r="56">
@@ -4013,64 +4013,64 @@
         <v>22561132</v>
       </c>
       <c r="B56" t="n">
-        <v>24575038.41802541</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C56" t="n">
-        <v>24625613.83672586</v>
+        <v>22522654.17605833</v>
       </c>
       <c r="D56" t="n">
-        <v>26537470.14105668</v>
+        <v>22438064.4485545</v>
       </c>
       <c r="E56" t="n">
-        <v>26283519.19763768</v>
+        <v>24310535.75687992</v>
       </c>
       <c r="F56" t="n">
-        <v>26643222.89439152</v>
+        <v>26056594.71857321</v>
       </c>
       <c r="G56" t="n">
-        <v>28247028.07764691</v>
+        <v>27625087.45810697</v>
       </c>
       <c r="H56" t="n">
-        <v>28797824.90465694</v>
+        <v>29127390.91185655</v>
       </c>
       <c r="I56" t="n">
-        <v>30698751.36708768</v>
+        <v>30034033.59317036</v>
       </c>
       <c r="J56" t="n">
-        <v>32368206.36065155</v>
+        <v>29746622.20372282</v>
       </c>
       <c r="K56" t="n">
-        <v>32434820.11569138</v>
+        <v>31191358.88111474</v>
       </c>
       <c r="L56" t="n">
-        <v>33821549.12672611</v>
+        <v>32706263.66205492</v>
       </c>
       <c r="M56" t="n">
-        <v>34481045.12369813</v>
+        <v>35245476.56403549</v>
       </c>
       <c r="N56" t="n">
-        <v>34952936.24701639</v>
+        <v>37572008.4914771</v>
       </c>
       <c r="O56" t="n">
-        <v>36853741.69866291</v>
+        <v>37212462.27430414</v>
       </c>
       <c r="P56" t="n">
-        <v>37143845.54909337</v>
+        <v>39452489.32034847</v>
       </c>
       <c r="Q56" t="n">
-        <v>39379742.16917583</v>
+        <v>40451151.98470768</v>
       </c>
       <c r="R56" t="n">
-        <v>41750229.96100675</v>
+        <v>40769573.78950199</v>
       </c>
       <c r="S56" t="n">
-        <v>44748862.48417281</v>
+        <v>42986698.770726</v>
       </c>
       <c r="T56" t="n">
-        <v>47442547.77447629</v>
+        <v>46324052.77912091</v>
       </c>
       <c r="U56" t="n">
-        <v>47540184.51778858</v>
+        <v>45611436.67295355</v>
       </c>
     </row>
     <row r="57">
@@ -4078,64 +4078,64 @@
         <v>22561132</v>
       </c>
       <c r="B57" t="n">
-        <v>23656883.12967957</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C57" t="n">
-        <v>23568033.50823235</v>
+        <v>26340094.79082076</v>
       </c>
       <c r="D57" t="n">
-        <v>24986725.77566057</v>
+        <v>26853707.78380703</v>
       </c>
       <c r="E57" t="n">
-        <v>26345550.23142361</v>
+        <v>28470183.2343938</v>
       </c>
       <c r="F57" t="n">
-        <v>26706102.85529404</v>
+        <v>29190850.28312652</v>
       </c>
       <c r="G57" t="n">
-        <v>28624218.96300641</v>
+        <v>31457137.3902256</v>
       </c>
       <c r="H57" t="n">
-        <v>28350298.82775428</v>
+        <v>32436297.64100939</v>
       </c>
       <c r="I57" t="n">
-        <v>28903109.36046551</v>
+        <v>34577397.41966329</v>
       </c>
       <c r="J57" t="n">
-        <v>30306878.22866691</v>
+        <v>36055730.88835201</v>
       </c>
       <c r="K57" t="n">
-        <v>32131219.39730449</v>
+        <v>37597269.51439021</v>
       </c>
       <c r="L57" t="n">
-        <v>33504968.16295923</v>
+        <v>37237481.56126553</v>
       </c>
       <c r="M57" t="n">
-        <v>33379131.47849147</v>
+        <v>39046034.9834599</v>
       </c>
       <c r="N57" t="n">
-        <v>33447825.71699748</v>
+        <v>40261413.3865309</v>
       </c>
       <c r="O57" t="n">
-        <v>33127745.9636903</v>
+        <v>41046482.12662214</v>
       </c>
       <c r="P57" t="n">
-        <v>36277471.88945171</v>
+        <v>41130955.76952851</v>
       </c>
       <c r="Q57" t="n">
-        <v>36984856.62223596</v>
+        <v>41454728.82731434</v>
       </c>
       <c r="R57" t="n">
-        <v>37060971.44156718</v>
+        <v>43468105.90179314</v>
       </c>
       <c r="S57" t="n">
-        <v>40153734.00324494</v>
+        <v>43810276.44708371</v>
       </c>
       <c r="T57" t="n">
-        <v>40469814.60474123</v>
+        <v>47211570.47269364</v>
       </c>
       <c r="U57" t="n">
-        <v>40317819.61503951</v>
+        <v>50053499.98451979</v>
       </c>
     </row>
     <row r="58">
@@ -4143,64 +4143,64 @@
         <v>22561132</v>
       </c>
       <c r="B58" t="n">
-        <v>24050378.25325636</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C58" t="n">
-        <v>26197221.37797952</v>
+        <v>24258761.14206955</v>
       </c>
       <c r="D58" t="n">
-        <v>27012657.23713279</v>
+        <v>26001101.48846444</v>
       </c>
       <c r="E58" t="n">
-        <v>28952791.04248082</v>
+        <v>28473238.99961092</v>
       </c>
       <c r="F58" t="n">
-        <v>30527297.47779146</v>
+        <v>30187203.12747393</v>
       </c>
       <c r="G58" t="n">
-        <v>33252299.05641328</v>
+        <v>32881846.38033272</v>
       </c>
       <c r="H58" t="n">
-        <v>35640583.51649246</v>
+        <v>35817025.40689386</v>
       </c>
       <c r="I58" t="n">
-        <v>36335549.3819176</v>
+        <v>39222443.13834468</v>
       </c>
       <c r="J58" t="n">
-        <v>37677805.24123877</v>
+        <v>41811492.14915408</v>
       </c>
       <c r="K58" t="n">
-        <v>39507744.34433582</v>
+        <v>44328360.62614945</v>
       </c>
       <c r="L58" t="n">
-        <v>40507805.68164127</v>
+        <v>44677302.89111852</v>
       </c>
       <c r="M58" t="n">
-        <v>40591170.72865105</v>
+        <v>46587451.05389274</v>
       </c>
       <c r="N58" t="n">
-        <v>40674707.3408924</v>
+        <v>47495873.0000328</v>
       </c>
       <c r="O58" t="n">
-        <v>42177254.16303173</v>
+        <v>47317489.80757141</v>
       </c>
       <c r="P58" t="n">
-        <v>44470931.41183268</v>
+        <v>51266165.60578027</v>
       </c>
       <c r="Q58" t="n">
-        <v>44820995.95996702</v>
+        <v>51371671.35297687</v>
       </c>
       <c r="R58" t="n">
-        <v>47779601.95104048</v>
+        <v>51477394.23095672</v>
       </c>
       <c r="S58" t="n">
-        <v>49544607.62085246</v>
+        <v>55473939.50871141</v>
       </c>
       <c r="T58" t="n">
-        <v>53103056.80539934</v>
+        <v>56555641.61836888</v>
       </c>
       <c r="U58" t="n">
-        <v>52903614.36537094</v>
+        <v>56343232.09168053</v>
       </c>
     </row>
     <row r="59">
@@ -4208,64 +4208,64 @@
         <v>22561132</v>
       </c>
       <c r="B59" t="n">
-        <v>23132222.96491052</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C59" t="n">
-        <v>24121225.66511808</v>
+        <v>25054234.07524959</v>
       </c>
       <c r="D59" t="n">
-        <v>23750161.97620855</v>
+        <v>26271070.41534152</v>
       </c>
       <c r="E59" t="n">
-        <v>24627506.46706294</v>
+        <v>28768876.081788</v>
       </c>
       <c r="F59" t="n">
-        <v>24391832.96585408</v>
+        <v>30166125.4957904</v>
       </c>
       <c r="G59" t="n">
-        <v>25860114.34813278</v>
+        <v>32508129.94647131</v>
       </c>
       <c r="H59" t="n">
-        <v>28318847.05801121</v>
+        <v>34086987.78536947</v>
       </c>
       <c r="I59" t="n">
-        <v>30846712.58537964</v>
+        <v>33760791.5556462</v>
       </c>
       <c r="J59" t="n">
-        <v>32344878.55339626</v>
+        <v>35596765.96956548</v>
       </c>
       <c r="K59" t="n">
-        <v>34667989.22556876</v>
+        <v>36704779.64104094</v>
       </c>
       <c r="L59" t="n">
-        <v>36553298.73009454</v>
+        <v>38060675.07612682</v>
       </c>
       <c r="M59" t="n">
-        <v>38541134.8595344</v>
+        <v>40351760.81328593</v>
       </c>
       <c r="N59" t="n">
-        <v>40861142.16875817</v>
+        <v>41607782.29252522</v>
       </c>
       <c r="O59" t="n">
-        <v>44508588.42551119</v>
+        <v>45321876.94871183</v>
       </c>
       <c r="P59" t="n">
-        <v>44082662.44383972</v>
+        <v>49367508.11934496</v>
       </c>
       <c r="Q59" t="n">
-        <v>44429670.63141402</v>
+        <v>52339215.62335248</v>
       </c>
       <c r="R59" t="n">
-        <v>47362445.48159651</v>
+        <v>52446929.70703273</v>
       </c>
       <c r="S59" t="n">
-        <v>49112041.15417741</v>
+        <v>54689263.06066389</v>
       </c>
       <c r="T59" t="n">
-        <v>48642062.32356384</v>
+        <v>59571068.54254091</v>
       </c>
       <c r="U59" t="n">
-        <v>51570101.17186643</v>
+        <v>60386329.74912448</v>
       </c>
     </row>
     <row r="60">
@@ -4273,64 +4273,64 @@
         <v>22561132</v>
       </c>
       <c r="B60" t="n">
-        <v>22345232.71775694</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C60" t="n">
-        <v>22910858.61427374</v>
+        <v>24531544.40916258</v>
       </c>
       <c r="D60" t="n">
-        <v>23357603.95662016</v>
+        <v>25437753.6114867</v>
       </c>
       <c r="E60" t="n">
-        <v>25171015.90543938</v>
+        <v>25194326.43121064</v>
       </c>
       <c r="F60" t="n">
-        <v>26393524.11617844</v>
+        <v>26417966.78970484</v>
       </c>
       <c r="G60" t="n">
-        <v>28902972.45812279</v>
+        <v>28161800.30214645</v>
       </c>
       <c r="H60" t="n">
-        <v>30642804.65573515</v>
+        <v>29202113.22179644</v>
       </c>
       <c r="I60" t="n">
-        <v>32309217.16344922</v>
+        <v>30280855.8923565</v>
       </c>
       <c r="J60" t="n">
-        <v>33690576.10438262</v>
+        <v>32103630.6304605</v>
       </c>
       <c r="K60" t="n">
-        <v>35718601.04705738</v>
+        <v>32356342.74134589</v>
       </c>
       <c r="L60" t="n">
-        <v>36415088.19848003</v>
+        <v>31858595.89946018</v>
       </c>
       <c r="M60" t="n">
-        <v>39877368.65406417</v>
+        <v>33591125.38824287</v>
       </c>
       <c r="N60" t="n">
-        <v>41350461.33164084</v>
+        <v>36394327.00342935</v>
       </c>
       <c r="O60" t="n">
-        <v>45041586.38086723</v>
+        <v>37527166.20344054</v>
       </c>
       <c r="P60" t="n">
-        <v>46443587.15637624</v>
+        <v>39786137.04598954</v>
       </c>
       <c r="Q60" t="n">
-        <v>49509299.38040908</v>
+        <v>43568930.70412137</v>
       </c>
       <c r="R60" t="n">
-        <v>49323354.23776484</v>
+        <v>47458086.14062759</v>
       </c>
       <c r="S60" t="n">
-        <v>52579158.09089719</v>
+        <v>50866674.80520296</v>
       </c>
       <c r="T60" t="n">
-        <v>54215779.40782225</v>
+        <v>54815805.72033319</v>
       </c>
       <c r="U60" t="n">
-        <v>54327355.45897955</v>
+        <v>57478104.80365715</v>
       </c>
     </row>
     <row r="61">
@@ -4338,64 +4338,64 @@
         <v>22561132</v>
       </c>
       <c r="B61" t="n">
-        <v>22607562.80014147</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C61" t="n">
-        <v>24625613.83672586</v>
+        <v>24469776.86529517</v>
       </c>
       <c r="D61" t="n">
-        <v>26823805.03358591</v>
+        <v>24093351.31393689</v>
       </c>
       <c r="E61" t="n">
-        <v>26411166.79602131</v>
+        <v>23862789.42300389</v>
       </c>
       <c r="F61" t="n">
-        <v>26772617.41687139</v>
+        <v>23495701.33246063</v>
       </c>
       <c r="G61" t="n">
-        <v>27917262.74374183</v>
+        <v>25046637.92451628</v>
       </c>
       <c r="H61" t="n">
-        <v>28461629.38280169</v>
+        <v>27136796.41350721</v>
       </c>
       <c r="I61" t="n">
-        <v>31002240.29193005</v>
+        <v>29243613.14694965</v>
       </c>
       <c r="J61" t="n">
-        <v>31426522.15300064</v>
+        <v>32024042.77813679</v>
       </c>
       <c r="K61" t="n">
-        <v>32039316.83845397</v>
+        <v>33393209.27921985</v>
       </c>
       <c r="L61" t="n">
-        <v>35085556.89959096</v>
+        <v>35985754.50897983</v>
       </c>
       <c r="M61" t="n">
-        <v>36585616.38650746</v>
+        <v>38151939.12687029</v>
       </c>
       <c r="N61" t="n">
-        <v>38787910.05893046</v>
+        <v>38008649.52568664</v>
       </c>
       <c r="O61" t="n">
-        <v>39093239.22062735</v>
+        <v>37423951.63764083</v>
       </c>
       <c r="P61" t="n">
-        <v>40082808.17080174</v>
+        <v>37500970.11432859</v>
       </c>
       <c r="Q61" t="n">
-        <v>39466202.90918689</v>
+        <v>37142103.7005732</v>
       </c>
       <c r="R61" t="n">
-        <v>42071342.35045082</v>
+        <v>39377895.46901304</v>
       </c>
       <c r="S61" t="n">
-        <v>42157925.15526562</v>
+        <v>41977205.7912233</v>
       </c>
       <c r="T61" t="n">
-        <v>42979974.51723803</v>
+        <v>43527867.6468891</v>
       </c>
       <c r="U61" t="n">
-        <v>43318302.60888215</v>
+        <v>45135811.83341265</v>
       </c>
     </row>
     <row r="62">
@@ -4403,64 +4403,64 @@
         <v>22561132</v>
       </c>
       <c r="B62" t="n">
-        <v>23656883.12967957</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C62" t="n">
-        <v>24393246.36994114</v>
+        <v>24352068.00736287</v>
       </c>
       <c r="D62" t="n">
-        <v>24585264.17790976</v>
+        <v>23977453.20491296</v>
       </c>
       <c r="E62" t="n">
-        <v>24349994.91527849</v>
+        <v>23748000.40365471</v>
       </c>
       <c r="F62" t="n">
-        <v>24824802.38529545</v>
+        <v>24073004.20057678</v>
       </c>
       <c r="G62" t="n">
-        <v>25597519.22305822</v>
+        <v>25242184.07805647</v>
       </c>
       <c r="H62" t="n">
-        <v>27733649.120509</v>
+        <v>27495413.06141496</v>
       </c>
       <c r="I62" t="n">
-        <v>29886803.64752702</v>
+        <v>28031553.93364859</v>
       </c>
       <c r="J62" t="n">
-        <v>32380877.16513629</v>
+        <v>27926274.0900644</v>
       </c>
       <c r="K62" t="n">
-        <v>32071007.60104023</v>
+        <v>27821389.65251055</v>
       </c>
       <c r="L62" t="n">
-        <v>32137009.72115811</v>
+        <v>27878646.06068252</v>
       </c>
       <c r="M62" t="n">
-        <v>31642636.94163144</v>
+        <v>29394738.50116218</v>
       </c>
       <c r="N62" t="n">
-        <v>31523794.72989778</v>
+        <v>31847748.8570844</v>
       </c>
       <c r="O62" t="n">
-        <v>32138486.16096848</v>
+        <v>33024222.81266699</v>
       </c>
       <c r="P62" t="n">
-        <v>34820464.07253936</v>
+        <v>33668171.5172772</v>
       </c>
       <c r="Q62" t="n">
-        <v>35094562.44723942</v>
+        <v>36869280.12325303</v>
       </c>
       <c r="R62" t="n">
-        <v>36595006.96031421</v>
+        <v>38659950.70421178</v>
       </c>
       <c r="S62" t="n">
-        <v>38797865.90410115</v>
+        <v>38065233.66451713</v>
       </c>
       <c r="T62" t="n">
-        <v>38201027.27558104</v>
+        <v>38364874.0902819</v>
       </c>
       <c r="U62" t="n">
-        <v>39612194.94924925</v>
+        <v>41566448.1897893</v>
       </c>
     </row>
     <row r="63">
@@ -4468,64 +4468,64 @@
         <v>22561132</v>
       </c>
       <c r="B63" t="n">
-        <v>22476397.75894921</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C63" t="n">
-        <v>24352068.00736287</v>
+        <v>23182879.3190968</v>
       </c>
       <c r="D63" t="n">
-        <v>25534801.48142355</v>
+        <v>23904488.33413167</v>
       </c>
       <c r="E63" t="n">
-        <v>27368791.04905704</v>
+        <v>25621383.69579359</v>
       </c>
       <c r="F63" t="n">
-        <v>28379809.75588897</v>
+        <v>27461591.86974806</v>
       </c>
       <c r="G63" t="n">
-        <v>29758162.96086586</v>
+        <v>27039142.37551474</v>
       </c>
       <c r="H63" t="n">
-        <v>31895487.60237009</v>
+        <v>27251988.04474455</v>
       </c>
       <c r="I63" t="n">
-        <v>33073725.05435403</v>
+        <v>28417128.54175432</v>
       </c>
       <c r="J63" t="n">
-        <v>33910921.7674656</v>
+        <v>29466873.43178851</v>
       </c>
       <c r="K63" t="n">
-        <v>35360760.51601238</v>
+        <v>31069336.62018238</v>
       </c>
       <c r="L63" t="n">
-        <v>38311639.35222434</v>
+        <v>31133277.30184408</v>
       </c>
       <c r="M63" t="n">
-        <v>41508770.97765616</v>
+        <v>30835346.67392424</v>
       </c>
       <c r="N63" t="n">
-        <v>42318162.29785919</v>
+        <v>32512229.97342698</v>
       </c>
       <c r="O63" t="n">
-        <v>43143336.16940716</v>
+        <v>32957176.83245352</v>
       </c>
       <c r="P63" t="n">
-        <v>46242025.95186581</v>
+        <v>33791423.35510019</v>
       </c>
       <c r="Q63" t="n">
-        <v>46874872.24444935</v>
+        <v>36611339.96800477</v>
       </c>
       <c r="R63" t="n">
-        <v>48061418.02682144</v>
+        <v>39453730.88633548</v>
       </c>
       <c r="S63" t="n">
-        <v>51233922.25766551</v>
+        <v>38846802.8998734</v>
       </c>
       <c r="T63" t="n">
-        <v>54615841.51428153</v>
+        <v>39152595.65194491</v>
       </c>
       <c r="U63" t="n">
-        <v>58538522.62999672</v>
+        <v>40826538.65684531</v>
       </c>
     </row>
     <row r="64">
@@ -4533,64 +4533,64 @@
         <v>22561132</v>
       </c>
       <c r="B64" t="n">
-        <v>23525718.08848731</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C64" t="n">
-        <v>25352181.89725156</v>
+        <v>24385620.74724146</v>
       </c>
       <c r="D64" t="n">
-        <v>26583488.99450871</v>
+        <v>24435806.34445532</v>
       </c>
       <c r="E64" t="n">
-        <v>27410948.13129143</v>
+        <v>25764670.78052638</v>
       </c>
       <c r="F64" t="n">
-        <v>27467359.85098582</v>
+        <v>26716432.37232587</v>
       </c>
       <c r="G64" t="n">
-        <v>28162642.38560526</v>
+        <v>28945936.31161147</v>
       </c>
       <c r="H64" t="n">
-        <v>29857909.95932322</v>
+        <v>30183500.4322602</v>
       </c>
       <c r="I64" t="n">
-        <v>30960878.13433945</v>
+        <v>32877813.16616919</v>
       </c>
       <c r="J64" t="n">
-        <v>33184585.55358291</v>
+        <v>32945475.69179986</v>
       </c>
       <c r="K64" t="n">
-        <v>36146788.41760027</v>
+        <v>35120185.99604174</v>
       </c>
       <c r="L64" t="n">
-        <v>37061773.7240035</v>
+        <v>36825906.41289491</v>
       </c>
       <c r="M64" t="n">
-        <v>37353515.15283938</v>
+        <v>39684955.60472415</v>
       </c>
       <c r="N64" t="n">
-        <v>37213224.24203511</v>
+        <v>39535908.35858859</v>
       </c>
       <c r="O64" t="n">
-        <v>37938855.47584075</v>
+        <v>39617273.24131739</v>
       </c>
       <c r="P64" t="n">
-        <v>41325445.49868775</v>
+        <v>43384011.63556011</v>
       </c>
       <c r="Q64" t="n">
-        <v>40689724.39290878</v>
+        <v>46247763.18754288</v>
       </c>
       <c r="R64" t="n">
-        <v>41246584.53686317</v>
+        <v>47418434.92971109</v>
       </c>
       <c r="S64" t="n">
-        <v>41811065.60291894</v>
+        <v>50548496.247306</v>
       </c>
       <c r="T64" t="n">
-        <v>44084828.839161</v>
+        <v>52121909.54452594</v>
       </c>
       <c r="U64" t="n">
-        <v>44431854.08008172</v>
+        <v>52532200.76473071</v>
       </c>
     </row>
     <row r="65">
@@ -4598,64 +4598,64 @@
         <v>22561132</v>
       </c>
       <c r="B65" t="n">
-        <v>22607562.80014147</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C65" t="n">
-        <v>23311264.04880865</v>
+        <v>25187956.74085121</v>
       </c>
       <c r="D65" t="n">
-        <v>23223712.49035358</v>
+        <v>26850598.0570536</v>
       </c>
       <c r="E65" t="n">
-        <v>24621678.14241074</v>
+        <v>27998577.393968</v>
       </c>
       <c r="F65" t="n">
-        <v>25101783.2408736</v>
+        <v>29358414.87060088</v>
       </c>
       <c r="G65" t="n">
-        <v>26612800.51645781</v>
+        <v>31125662.7042533</v>
       </c>
       <c r="H65" t="n">
-        <v>28524215.35742307</v>
+        <v>34085034.18951963</v>
       </c>
       <c r="I65" t="n">
-        <v>29246250.12375422</v>
+        <v>36929452.82061408</v>
       </c>
       <c r="J65" t="n">
-        <v>29986561.78910812</v>
+        <v>37649550.71483846</v>
       </c>
       <c r="K65" t="n">
-        <v>29699604.68220384</v>
+        <v>39697003.05890056</v>
       </c>
       <c r="L65" t="n">
-        <v>32178056.32243061</v>
+        <v>40932644.01975277</v>
       </c>
       <c r="M65" t="n">
-        <v>31683052.11133837</v>
+        <v>44586472.84793965</v>
       </c>
       <c r="N65" t="n">
-        <v>34142826.04108166</v>
+        <v>45974307.39225259</v>
       </c>
       <c r="O65" t="n">
-        <v>34610088.45949116</v>
+        <v>47672624.45433598</v>
       </c>
       <c r="P65" t="n">
-        <v>36894678.81440634</v>
+        <v>48047891.96522837</v>
       </c>
       <c r="Q65" t="n">
-        <v>38686582.96132816</v>
+        <v>50940164.36349554</v>
       </c>
       <c r="R65" t="n">
-        <v>41240260.17603748</v>
+        <v>54895000.78007055</v>
       </c>
       <c r="S65" t="n">
-        <v>44442026.10693228</v>
+        <v>55327121.11200037</v>
       </c>
       <c r="T65" t="n">
-        <v>43758361.75343719</v>
+        <v>56727619.05605625</v>
       </c>
       <c r="U65" t="n">
-        <v>45883621.88330373</v>
+        <v>55854961.92485438</v>
       </c>
     </row>
     <row r="66">
@@ -4663,64 +4663,64 @@
         <v>22561132</v>
       </c>
       <c r="B66" t="n">
-        <v>24443873.37683315</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C66" t="n">
-        <v>26767952.46707452</v>
+        <v>23176016.25866709</v>
       </c>
       <c r="D66" t="n">
-        <v>28534888.31581363</v>
+        <v>22954232.82707777</v>
       </c>
       <c r="E66" t="n">
-        <v>30750248.5696402</v>
+        <v>24069076.11380639</v>
       </c>
       <c r="F66" t="n">
-        <v>30277208.73213159</v>
+        <v>24538405.86828907</v>
       </c>
       <c r="G66" t="n">
-        <v>32275788.39840843</v>
+        <v>25016887.21701663</v>
       </c>
       <c r="H66" t="n">
-        <v>32529855.69411526</v>
+        <v>25795583.04230349</v>
       </c>
       <c r="I66" t="n">
-        <v>33731527.06419306</v>
+        <v>27198394.65528769</v>
       </c>
       <c r="J66" t="n">
-        <v>34585374.74962814</v>
+        <v>29784368.626434</v>
       </c>
       <c r="K66" t="n">
-        <v>36265120.4047795</v>
+        <v>30365142.49364727</v>
       </c>
       <c r="L66" t="n">
-        <v>36128917.24555351</v>
+        <v>30780705.33838245</v>
       </c>
       <c r="M66" t="n">
-        <v>38723809.45047011</v>
+        <v>30307196.97572017</v>
       </c>
       <c r="N66" t="n">
-        <v>41505074.95601381</v>
+        <v>30721966.8057585</v>
       </c>
       <c r="O66" t="n">
-        <v>43520897.24589214</v>
+        <v>32214074.10930108</v>
       </c>
       <c r="P66" t="n">
-        <v>44875563.82387722</v>
+        <v>34340505.05121478</v>
       </c>
       <c r="Q66" t="n">
-        <v>45228813.54169399</v>
+        <v>36607300.37347311</v>
       </c>
       <c r="R66" t="n">
-        <v>44795995.34886764</v>
+        <v>39236551.55574752</v>
       </c>
       <c r="S66" t="n">
-        <v>48794684.00220831</v>
+        <v>41370307.94673858</v>
       </c>
       <c r="T66" t="n">
-        <v>49746145.41080305</v>
+        <v>43139067.75550438</v>
       </c>
       <c r="U66" t="n">
-        <v>49559310.73085051</v>
+        <v>47240651.97652617</v>
       </c>
     </row>
     <row r="67">
@@ -4728,64 +4728,64 @@
         <v>22561132</v>
       </c>
       <c r="B67" t="n">
-        <v>23919213.21206409</v>
+        <v>23525718.08848731</v>
       </c>
       <c r="C67" t="n">
-        <v>23968438.94276726</v>
+        <v>24257998.57979958</v>
       </c>
       <c r="D67" t="n">
-        <v>25550580.64966033</v>
+        <v>25013072.62478531</v>
       </c>
       <c r="E67" t="n">
-        <v>26642978.6129999</v>
+        <v>25355389.59621722</v>
       </c>
       <c r="F67" t="n">
-        <v>28866352.78752162</v>
+        <v>27471313.61627627</v>
       </c>
       <c r="G67" t="n">
-        <v>30603980.64154717</v>
+        <v>29604101.22814072</v>
       </c>
       <c r="H67" t="n">
-        <v>30311115.13044203</v>
+        <v>29148692.9018362</v>
       </c>
       <c r="I67" t="n">
-        <v>30725938.58247548</v>
+        <v>31072779.94194482</v>
       </c>
       <c r="J67" t="n">
-        <v>33111405.18545529</v>
+        <v>33846473.69769137</v>
       </c>
       <c r="K67" t="n">
-        <v>35682072.01913457</v>
+        <v>33325803.74661974</v>
       </c>
       <c r="L67" t="n">
-        <v>38867211.57010125</v>
+        <v>33588136.51230294</v>
       </c>
       <c r="M67" t="n">
-        <v>38947200.27512135</v>
+        <v>35219448.20921546</v>
       </c>
       <c r="N67" t="n">
-        <v>40385932.00376429</v>
+        <v>37339504.54824135</v>
       </c>
       <c r="O67" t="n">
-        <v>43521370.54428589</v>
+        <v>40238427.90684121</v>
       </c>
       <c r="P67" t="n">
-        <v>42851868.89769606</v>
+        <v>44064224.55865607</v>
       </c>
       <c r="Q67" t="n">
-        <v>43936580.21258063</v>
+        <v>45435803.18115506</v>
       </c>
       <c r="R67" t="n">
-        <v>44282438.47572896</v>
+        <v>48699145.13789234</v>
       </c>
       <c r="S67" t="n">
-        <v>46690599.54900794</v>
+        <v>49648743.60702398</v>
       </c>
       <c r="T67" t="n">
-        <v>47329584.80570603</v>
+        <v>50905504.52190761</v>
       </c>
       <c r="U67" t="n">
-        <v>50453781.18202601</v>
+        <v>51306220.49236894</v>
       </c>
     </row>
     <row r="68">
@@ -4793,64 +4793,64 @@
         <v>22561132</v>
       </c>
       <c r="B68" t="n">
-        <v>22476397.75894921</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C68" t="n">
-        <v>23568033.50823235</v>
+        <v>24911360.66240835</v>
       </c>
       <c r="D68" t="n">
-        <v>24986725.77566057</v>
+        <v>26410915.3338038</v>
       </c>
       <c r="E68" t="n">
-        <v>26055016.50150046</v>
+        <v>28307830.14745863</v>
       </c>
       <c r="F68" t="n">
-        <v>27017503.62936134</v>
+        <v>30176412.36154789</v>
       </c>
       <c r="G68" t="n">
-        <v>29115058.8409208</v>
+        <v>30589392.33578942</v>
       </c>
       <c r="H68" t="n">
-        <v>29344245.62863758</v>
+        <v>32252900.1825554</v>
       </c>
       <c r="I68" t="n">
-        <v>29745836.96622461</v>
+        <v>33069319.31819178</v>
       </c>
       <c r="J68" t="n">
-        <v>32055211.51861281</v>
+        <v>33137375.96340255</v>
       </c>
       <c r="K68" t="n">
-        <v>33425710.61831986</v>
+        <v>33976183.87488244</v>
       </c>
       <c r="L68" t="n">
-        <v>35437791.82021308</v>
+        <v>33651047.98578142</v>
       </c>
       <c r="M68" t="n">
-        <v>38395098.96967324</v>
+        <v>33720301.82834476</v>
       </c>
       <c r="N68" t="n">
-        <v>40706315.55871916</v>
+        <v>34769907.16226833</v>
       </c>
       <c r="O68" t="n">
-        <v>40316775.51649579</v>
+        <v>35650039.41055929</v>
       </c>
       <c r="P68" t="n">
-        <v>41102923.77849063</v>
+        <v>36759711.31416174</v>
       </c>
       <c r="Q68" t="n">
-        <v>43816102.14360984</v>
+        <v>38972484.73779416</v>
       </c>
       <c r="R68" t="n">
-        <v>45434693.87637015</v>
+        <v>40638727.22118817</v>
       </c>
       <c r="S68" t="n">
-        <v>49754542.06007358</v>
+        <v>42848736.52352837</v>
       </c>
       <c r="T68" t="n">
-        <v>52460286.26775904</v>
+        <v>44929817.89174156</v>
       </c>
       <c r="U68" t="n">
-        <v>54093207.48436311</v>
+        <v>46067128.42443329</v>
       </c>
     </row>
     <row r="69">
@@ -4858,64 +4858,64 @@
         <v>22561132</v>
       </c>
       <c r="B69" t="n">
-        <v>24443873.37683315</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C69" t="n">
-        <v>24778400.55907669</v>
+        <v>24251898.08163984</v>
       </c>
       <c r="D69" t="n">
-        <v>26990230.17446695</v>
+        <v>23878824.22170556</v>
       </c>
       <c r="E69" t="n">
-        <v>28458008.91254651</v>
+        <v>24066792.6214168</v>
       </c>
       <c r="F69" t="n">
-        <v>29840160.10134121</v>
+        <v>24256240.66346562</v>
       </c>
       <c r="G69" t="n">
-        <v>31809890.46006135</v>
+        <v>26562479.97606373</v>
       </c>
       <c r="H69" t="n">
-        <v>32984965.90492665</v>
+        <v>28624708.56202334</v>
       </c>
       <c r="I69" t="n">
-        <v>35354049.65920573</v>
+        <v>29016452.65880269</v>
       </c>
       <c r="J69" t="n">
-        <v>35221268.26481715</v>
+        <v>29919642.18650197</v>
       </c>
       <c r="K69" t="n">
-        <v>38365274.43478725</v>
+        <v>31894619.10809522</v>
       </c>
       <c r="L69" t="n">
-        <v>38890323.26623936</v>
+        <v>33072824.47740671</v>
       </c>
       <c r="M69" t="n">
-        <v>41005251.12117954</v>
+        <v>32756333.30726406</v>
       </c>
       <c r="N69" t="n">
-        <v>40851245.15938425</v>
+        <v>34537683.42006646</v>
       </c>
       <c r="O69" t="n">
-        <v>43310310.97843908</v>
+        <v>37821463.63871329</v>
       </c>
       <c r="P69" t="n">
-        <v>45917401.77638625</v>
+        <v>40318034.86646132</v>
       </c>
       <c r="Q69" t="n">
-        <v>49749239.30302606</v>
+        <v>40401009.36521348</v>
       </c>
       <c r="R69" t="n">
-        <v>51297774.28343371</v>
+        <v>40953918.29312296</v>
       </c>
       <c r="S69" t="n">
-        <v>51999811.13421638</v>
+        <v>43895357.2135682</v>
       </c>
       <c r="T69" t="n">
-        <v>54827657.23532741</v>
+        <v>47303256.64608733</v>
       </c>
       <c r="U69" t="n">
-        <v>59084306.54494668</v>
+        <v>48775655.99590436</v>
       </c>
     </row>
     <row r="70">
@@ -4923,64 +4923,64 @@
         <v>22561132</v>
       </c>
       <c r="B70" t="n">
-        <v>22214067.67656468</v>
+        <v>22607562.80014147</v>
       </c>
       <c r="C70" t="n">
-        <v>23163815.2623476</v>
+        <v>22522654.17605833</v>
       </c>
       <c r="D70" t="n">
-        <v>24692844.26189309</v>
+        <v>22438064.4485545</v>
       </c>
       <c r="E70" t="n">
-        <v>24887220.43289433</v>
+        <v>22092893.30833708</v>
       </c>
       <c r="F70" t="n">
-        <v>24793749.9574215</v>
+        <v>22395246.09965246</v>
       </c>
       <c r="G70" t="n">
-        <v>25277210.33310027</v>
+        <v>24133943.56833467</v>
       </c>
       <c r="H70" t="n">
-        <v>26945743.22326475</v>
+        <v>23902993.22887041</v>
       </c>
       <c r="I70" t="n">
-        <v>27784478.17758535</v>
+        <v>26175646.41688966</v>
       </c>
       <c r="J70" t="n">
-        <v>29133917.26382653</v>
+        <v>27142589.68243099</v>
       </c>
       <c r="K70" t="n">
-        <v>31565161.91510731</v>
+        <v>29565457.27450385</v>
       </c>
       <c r="L70" t="n">
-        <v>32914709.27222405</v>
+        <v>30141962.52706116</v>
       </c>
       <c r="M70" t="n">
-        <v>34896030.43390863</v>
+        <v>32482091.03976941</v>
       </c>
       <c r="N70" t="n">
-        <v>37808127.23761284</v>
+        <v>32360096.03827757</v>
       </c>
       <c r="O70" t="n">
-        <v>38325551.21849023</v>
+        <v>35436835.20319412</v>
       </c>
       <c r="P70" t="n">
-        <v>40186950.10766178</v>
+        <v>38188041.21324364</v>
       </c>
       <c r="Q70" t="n">
-        <v>42839665.622009</v>
+        <v>39598729.17438353</v>
       </c>
       <c r="R70" t="n">
-        <v>46663723.63214016</v>
+        <v>41982399.02363332</v>
       </c>
       <c r="S70" t="n">
-        <v>50829133.97199948</v>
+        <v>44265479.68882732</v>
       </c>
       <c r="T70" t="n">
-        <v>55661875.72361405</v>
+        <v>46158020.62640352</v>
       </c>
       <c r="U70" t="n">
-        <v>58688871.68402776</v>
+        <v>49473234.50629291</v>
       </c>
     </row>
     <row r="71">
@@ -4988,64 +4988,64 @@
         <v>22561132</v>
       </c>
       <c r="B71" t="n">
-        <v>22607562.80014147</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C71" t="n">
-        <v>23574134.0063921</v>
+        <v>24385620.74724146</v>
       </c>
       <c r="D71" t="n">
-        <v>23759703.95751774</v>
+        <v>25002895.07915371</v>
       </c>
       <c r="E71" t="n">
-        <v>23394201.66006922</v>
+        <v>25199711.89611845</v>
       </c>
       <c r="F71" t="n">
-        <v>23850371.84580977</v>
+        <v>25691088.23899583</v>
       </c>
       <c r="G71" t="n">
-        <v>25979361.5140839</v>
+        <v>25445236.7670554</v>
       </c>
       <c r="H71" t="n">
-        <v>25579713.59184458</v>
+        <v>27272793.51585931</v>
       </c>
       <c r="I71" t="n">
-        <v>26375928.4051909</v>
+        <v>29548726.16029112</v>
       </c>
       <c r="J71" t="n">
-        <v>28116986.99008764</v>
+        <v>30640272.90992869</v>
       </c>
       <c r="K71" t="n">
-        <v>30299902.68072587</v>
+        <v>31950277.25706747</v>
       </c>
       <c r="L71" t="n">
-        <v>32476136.76882669</v>
+        <v>34430797.71856933</v>
       </c>
       <c r="M71" t="n">
-        <v>33487015.21681076</v>
+        <v>35302346.07402138</v>
       </c>
       <c r="N71" t="n">
-        <v>33750617.00067449</v>
+        <v>35374998.28735393</v>
       </c>
       <c r="O71" t="n">
-        <v>35978474.18059546</v>
+        <v>36887432.64695273</v>
       </c>
       <c r="P71" t="n">
-        <v>35425007.05847926</v>
+        <v>36319982.75769714</v>
       </c>
       <c r="Q71" t="n">
-        <v>37763389.6818964</v>
+        <v>37872819.29542821</v>
       </c>
       <c r="R71" t="n">
-        <v>41353864.19398876</v>
+        <v>40813147.55740884</v>
       </c>
       <c r="S71" t="n">
-        <v>44324028.4840179</v>
+        <v>44693587.50990046</v>
       </c>
       <c r="T71" t="n">
-        <v>44415247.31594558</v>
+        <v>44265891.17514851</v>
       </c>
       <c r="U71" t="n">
-        <v>47347070.09206899</v>
+        <v>45901098.37054282</v>
       </c>
     </row>
     <row r="72">
@@ -5056,61 +5056,61 @@
         <v>24575038.41802541</v>
       </c>
       <c r="C72" t="n">
-        <v>26482968.203662</v>
+        <v>26768715.02934449</v>
       </c>
       <c r="D72" t="n">
-        <v>27307298.44916789</v>
+        <v>28224447.36329664</v>
       </c>
       <c r="E72" t="n">
-        <v>26887222.49459669</v>
+        <v>29102984.29485694</v>
       </c>
       <c r="F72" t="n">
-        <v>26942556.38715163</v>
+        <v>30685658.51758606</v>
       </c>
       <c r="G72" t="n">
-        <v>27781192.14543894</v>
+        <v>31105607.79161988</v>
       </c>
       <c r="H72" t="n">
-        <v>27353826.1490792</v>
+        <v>32616347.80577507</v>
       </c>
       <c r="I72" t="n">
-        <v>29159435.15419216</v>
+        <v>32304224.89985631</v>
       </c>
       <c r="J72" t="n">
-        <v>30067075.2704592</v>
+        <v>33121943.22040624</v>
       </c>
       <c r="K72" t="n">
-        <v>30303756.10407614</v>
+        <v>34538049.71958679</v>
       </c>
       <c r="L72" t="n">
-        <v>30542300.03267314</v>
+        <v>34809924.99596814</v>
       </c>
       <c r="M72" t="n">
-        <v>31315418.66857518</v>
+        <v>36702953.23073885</v>
       </c>
       <c r="N72" t="n">
-        <v>31561926.16319751</v>
+        <v>39339074.50136963</v>
       </c>
       <c r="O72" t="n">
-        <v>32544348.1539149</v>
+        <v>43079362.26463105</v>
       </c>
       <c r="P72" t="n">
-        <v>34692580.27954088</v>
+        <v>43919378.9906296</v>
       </c>
       <c r="Q72" t="n">
-        <v>35570755.14891706</v>
+        <v>45031112.23726055</v>
       </c>
       <c r="R72" t="n">
-        <v>36264359.41116078</v>
+        <v>47479987.57721421</v>
       </c>
       <c r="S72" t="n">
-        <v>37393153.13498446</v>
+        <v>47853738.69663014</v>
       </c>
       <c r="T72" t="n">
-        <v>40731031.35353982</v>
+        <v>48786852.34533744</v>
       </c>
       <c r="U72" t="n">
-        <v>42235658.81673955</v>
+        <v>48887255.66688964</v>
       </c>
     </row>
     <row r="73">
@@ -5118,64 +5118,64 @@
         <v>22561132</v>
       </c>
       <c r="B73" t="n">
-        <v>24706203.45921767</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C73" t="n">
-        <v>25906136.61640726</v>
+        <v>23442699.02760037</v>
       </c>
       <c r="D73" t="n">
-        <v>26561899.83597301</v>
+        <v>25671588.27886381</v>
       </c>
       <c r="E73" t="n">
-        <v>28778507.93296406</v>
+        <v>27664650.79574344</v>
       </c>
       <c r="F73" t="n">
-        <v>30678159.29414022</v>
+        <v>27399913.27059152</v>
       </c>
       <c r="G73" t="n">
-        <v>33238271.9634937</v>
+        <v>29208564.45785365</v>
       </c>
       <c r="H73" t="n">
-        <v>33886394.47331894</v>
+        <v>30117733.8124839</v>
       </c>
       <c r="I73" t="n">
-        <v>36517229.07238328</v>
+        <v>31230300.02840577</v>
       </c>
       <c r="J73" t="n">
-        <v>38715406.12838581</v>
+        <v>32020834.03962769</v>
       </c>
       <c r="K73" t="n">
-        <v>38570000.27927939</v>
+        <v>32645217.38143483</v>
       </c>
       <c r="L73" t="n">
-        <v>38200903.75626756</v>
+        <v>32712401.22503861</v>
       </c>
       <c r="M73" t="n">
-        <v>39834157.81155778</v>
+        <v>35061908.52873185</v>
       </c>
       <c r="N73" t="n">
-        <v>42000413.13828788</v>
+        <v>36560956.94539061</v>
       </c>
       <c r="O73" t="n">
-        <v>42819391.12868347</v>
+        <v>37273869.4338342</v>
       </c>
       <c r="P73" t="n">
-        <v>44650105.5183792</v>
+        <v>37567280.42942899</v>
       </c>
       <c r="Q73" t="n">
-        <v>48635771.40025852</v>
+        <v>39610258.76289839</v>
       </c>
       <c r="R73" t="n">
-        <v>50432404.45645472</v>
+        <v>39000922.863501</v>
       </c>
       <c r="S73" t="n">
-        <v>52295406.15954771</v>
+        <v>41802091.52391823</v>
       </c>
       <c r="T73" t="n">
-        <v>53011096.12394653</v>
+        <v>45776558.47280901</v>
       </c>
       <c r="U73" t="n">
-        <v>53428386.80848113</v>
+        <v>48532106.55500965</v>
       </c>
     </row>
     <row r="74">
@@ -5183,64 +5183,64 @@
         <v>22561132</v>
       </c>
       <c r="B74" t="n">
-        <v>24706203.45921767</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C74" t="n">
-        <v>26624316.49196331</v>
+        <v>26054347.96513828</v>
       </c>
       <c r="D74" t="n">
-        <v>26833896.75093815</v>
+        <v>26865336.63111524</v>
       </c>
       <c r="E74" t="n">
-        <v>27825156.1581866</v>
+        <v>29107266.7292128</v>
       </c>
       <c r="F74" t="n">
-        <v>29338339.7186353</v>
+        <v>28997946.76444494</v>
       </c>
       <c r="G74" t="n">
-        <v>28887019.67737302</v>
+        <v>28551863.08500831</v>
       </c>
       <c r="H74" t="n">
-        <v>31465602.80546641</v>
+        <v>29772578.86878163</v>
       </c>
       <c r="I74" t="n">
-        <v>32079159.53566711</v>
+        <v>31391666.88540532</v>
       </c>
       <c r="J74" t="n">
-        <v>34010184.26723627</v>
+        <v>33463811.23935713</v>
       </c>
       <c r="K74" t="n">
-        <v>37046083.72361168</v>
+        <v>36256388.40467276</v>
       </c>
       <c r="L74" t="n">
-        <v>37337701.64451275</v>
+        <v>36541790.0326784</v>
       </c>
       <c r="M74" t="n">
-        <v>40887702.5110663</v>
+        <v>40016117.06856576</v>
       </c>
       <c r="N74" t="n">
-        <v>41447272.08903681</v>
+        <v>39400537.73518344</v>
       </c>
       <c r="O74" t="n">
-        <v>45388003.4504163</v>
+        <v>42688538.65036383</v>
       </c>
       <c r="P74" t="n">
-        <v>47592412.16779333</v>
+        <v>42776391.64490357</v>
       </c>
       <c r="Q74" t="n">
-        <v>51287339.4839038</v>
+        <v>46843493.27995451</v>
       </c>
       <c r="R74" t="n">
-        <v>54672784.7783106</v>
+        <v>46939897.16936971</v>
       </c>
       <c r="S74" t="n">
-        <v>59553119.33583021</v>
+        <v>47309396.82612066</v>
       </c>
       <c r="T74" t="n">
-        <v>64869094.13903874</v>
+        <v>50982351.70861844</v>
       </c>
       <c r="U74" t="n">
-        <v>68773929.14438535</v>
+        <v>51976471.0714564</v>
       </c>
     </row>
     <row r="75">
@@ -5248,64 +5248,64 @@
         <v>22561132</v>
       </c>
       <c r="B75" t="n">
-        <v>23919213.21206409</v>
+        <v>23656883.12967957</v>
       </c>
       <c r="C75" t="n">
-        <v>25637166.16066407</v>
+        <v>25355994.7086014</v>
       </c>
       <c r="D75" t="n">
-        <v>25540879.06756445</v>
+        <v>27324555.51921239</v>
       </c>
       <c r="E75" t="n">
-        <v>26187396.50611134</v>
+        <v>29763666.18661301</v>
       </c>
       <c r="F75" t="n">
-        <v>26545784.71359512</v>
+        <v>32420502.65905534</v>
       </c>
       <c r="G75" t="n">
-        <v>28915378.85480355</v>
+        <v>32675709.11085029</v>
       </c>
       <c r="H75" t="n">
-        <v>31664600.56557166</v>
+        <v>34072737.1695392</v>
       </c>
       <c r="I75" t="n">
-        <v>31729766.30018194</v>
+        <v>34340949.61668801</v>
       </c>
       <c r="J75" t="n">
-        <v>31979535.44037417</v>
+        <v>34611273.36814582</v>
       </c>
       <c r="K75" t="n">
-        <v>33718641.84552991</v>
+        <v>34078838.28577715</v>
       </c>
       <c r="L75" t="n">
-        <v>35160259.79479256</v>
+        <v>34941477.4760294</v>
       </c>
       <c r="M75" t="n">
-        <v>35437032.96024227</v>
+        <v>34810245.60454684</v>
       </c>
       <c r="N75" t="n">
-        <v>38188254.32353585</v>
+        <v>37310426.67436808</v>
       </c>
       <c r="O75" t="n">
-        <v>38932897.94595999</v>
+        <v>38471781.13221765</v>
       </c>
       <c r="P75" t="n">
-        <v>41502834.25919255</v>
+        <v>38327290.28060121</v>
       </c>
       <c r="Q75" t="n">
-        <v>41346959.49358196</v>
+        <v>39074645.00465988</v>
       </c>
       <c r="R75" t="n">
-        <v>44076246.50406349</v>
+        <v>40518084.61409374</v>
       </c>
       <c r="S75" t="n">
-        <v>48266935.97856811</v>
+        <v>43663783.07353015</v>
       </c>
       <c r="T75" t="n">
-        <v>48927494.22314415</v>
+        <v>44261344.7648587</v>
       </c>
       <c r="U75" t="n">
-        <v>49312639.7690729</v>
+        <v>43837784.78720131</v>
       </c>
     </row>
     <row r="76">
@@ -5313,64 +5313,64 @@
         <v>22561132</v>
       </c>
       <c r="B76" t="n">
-        <v>24575038.41802541</v>
+        <v>22345232.71775694</v>
       </c>
       <c r="C76" t="n">
-        <v>26482968.203662</v>
+        <v>23040768.46852553</v>
       </c>
       <c r="D76" t="n">
-        <v>28539023.74214581</v>
+        <v>22954232.82707777</v>
       </c>
       <c r="E76" t="n">
-        <v>29759190.58841411</v>
+        <v>23935625.67815004</v>
       </c>
       <c r="F76" t="n">
-        <v>32069601.87462498</v>
+        <v>24124041.20535676</v>
       </c>
       <c r="G76" t="n">
-        <v>34932276.36448777</v>
+        <v>23752934.20418931</v>
       </c>
       <c r="H76" t="n">
-        <v>37238134.14208195</v>
+        <v>24078005.52275024</v>
       </c>
       <c r="I76" t="n">
-        <v>36665289.31177754</v>
+        <v>25527395.86913989</v>
       </c>
       <c r="J76" t="n">
-        <v>36527583.2133982</v>
+        <v>26767212.77466518</v>
       </c>
       <c r="K76" t="n">
-        <v>38514020.88538136</v>
+        <v>26355445.11194824</v>
       </c>
       <c r="L76" t="n">
-        <v>39936750.72100475</v>
+        <v>27175805.97076409</v>
       </c>
       <c r="M76" t="n">
-        <v>39554575.0475596</v>
+        <v>29127657.63010328</v>
       </c>
       <c r="N76" t="n">
-        <v>40555821.81259499</v>
+        <v>31897062.42132556</v>
       </c>
       <c r="O76" t="n">
-        <v>44411795.70057698</v>
+        <v>34002567.61941772</v>
       </c>
       <c r="P76" t="n">
-        <v>44244995.56827904</v>
+        <v>35851690.26377025</v>
       </c>
       <c r="Q76" t="n">
-        <v>45622201.01514291</v>
+        <v>38426671.15694915</v>
       </c>
       <c r="R76" t="n">
-        <v>46511801.27649711</v>
+        <v>40739788.25321975</v>
       </c>
       <c r="S76" t="n">
-        <v>49041199.23057634</v>
+        <v>41534184.960769</v>
       </c>
       <c r="T76" t="n">
-        <v>48286784.48616473</v>
+        <v>42585541.68196621</v>
       </c>
       <c r="U76" t="n">
-        <v>49509070.06760763</v>
+        <v>45149004.54650025</v>
       </c>
     </row>
     <row r="77">
@@ -5378,64 +5378,64 @@
         <v>22561132</v>
       </c>
       <c r="B77" t="n">
-        <v>23656883.12967957</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C77" t="n">
-        <v>23843104.46213528</v>
+        <v>25062622.26021924</v>
       </c>
       <c r="D77" t="n">
-        <v>25694209.16486428</v>
+        <v>25988449.78040183</v>
       </c>
       <c r="E77" t="n">
-        <v>27689027.89719488</v>
+        <v>26797387.2462873</v>
       </c>
       <c r="F77" t="n">
-        <v>27424057.09479842</v>
+        <v>27008329.87689423</v>
       </c>
       <c r="G77" t="n">
-        <v>29553175.85685848</v>
+        <v>27220932.99749589</v>
       </c>
       <c r="H77" t="n">
-        <v>31675777.68132721</v>
+        <v>29334281.83444608</v>
       </c>
       <c r="I77" t="n">
-        <v>31740966.41843699</v>
+        <v>30247364.36961992</v>
       </c>
       <c r="J77" t="n">
-        <v>32175358.13262866</v>
+        <v>31188868.24882885</v>
       </c>
       <c r="K77" t="n">
-        <v>33176874.30199226</v>
+        <v>31797028.85327428</v>
       </c>
       <c r="L77" t="n">
-        <v>33438034.73066603</v>
+        <v>34080791.24089536</v>
       </c>
       <c r="M77" t="n">
-        <v>33312449.43223628</v>
+        <v>36330443.01650288</v>
       </c>
       <c r="N77" t="n">
-        <v>34155688.98643013</v>
+        <v>36616427.58472148</v>
       </c>
       <c r="O77" t="n">
-        <v>35417419.56298783</v>
+        <v>39672092.66773105</v>
       </c>
       <c r="P77" t="n">
-        <v>37549392.90937334</v>
+        <v>42290822.76355503</v>
       </c>
       <c r="Q77" t="n">
-        <v>39809701.70215168</v>
+        <v>46311757.39116746</v>
       </c>
       <c r="R77" t="n">
-        <v>43363291.73290192</v>
+        <v>49907258.64120717</v>
       </c>
       <c r="S77" t="n">
-        <v>44965156.39156336</v>
+        <v>54362201.26037987</v>
       </c>
       <c r="T77" t="n">
-        <v>46364778.1455306</v>
+        <v>59530860.6336723</v>
       </c>
       <c r="U77" t="n">
-        <v>49694841.99922474</v>
+        <v>61729964.48252574</v>
       </c>
     </row>
     <row r="78">
@@ -5446,61 +5446,61 @@
         <v>23788048.17087183</v>
       </c>
       <c r="C78" t="n">
-        <v>24251898.08163983</v>
+        <v>24113600.0424184</v>
       </c>
       <c r="D78" t="n">
-        <v>24301808.47766428</v>
+        <v>24443607.26146999</v>
       </c>
       <c r="E78" t="n">
-        <v>24493106.50838907</v>
+        <v>24351802.89146567</v>
       </c>
       <c r="F78" t="n">
-        <v>26537072.43485611</v>
+        <v>25251372.3399015</v>
       </c>
       <c r="G78" t="n">
-        <v>27671647.19377522</v>
+        <v>27358616.05117239</v>
       </c>
       <c r="H78" t="n">
-        <v>29337359.01004101</v>
+        <v>29323597.70412327</v>
       </c>
       <c r="I78" t="n">
-        <v>31785581.00950509</v>
+        <v>29042984.84759177</v>
       </c>
       <c r="J78" t="n">
-        <v>31296614.35800629</v>
+        <v>30622396.18918118</v>
       </c>
       <c r="K78" t="n">
-        <v>30815169.61986205</v>
+        <v>33533918.00813373</v>
       </c>
       <c r="L78" t="n">
-        <v>32849259.74884311</v>
+        <v>36722262.03426652</v>
       </c>
       <c r="M78" t="n">
-        <v>32725885.74908553</v>
+        <v>37438319.85647368</v>
       </c>
       <c r="N78" t="n">
-        <v>32602975.11270151</v>
+        <v>37950682.83006806</v>
       </c>
       <c r="O78" t="n">
-        <v>32290980.17708301</v>
+        <v>40014511.29664671</v>
       </c>
       <c r="P78" t="n">
-        <v>32920631.17518767</v>
+        <v>40329495.97025643</v>
       </c>
       <c r="Q78" t="n">
-        <v>33371167.2181027</v>
+        <v>42522688.70407041</v>
       </c>
       <c r="R78" t="n">
-        <v>35962001.17058095</v>
+        <v>43599067.46567675</v>
       </c>
       <c r="S78" t="n">
-        <v>39172128.43558124</v>
+        <v>44956167.23302229</v>
       </c>
       <c r="T78" t="n">
-        <v>39480482.07255078</v>
+        <v>49230517.97248752</v>
       </c>
       <c r="U78" t="n">
-        <v>40938913.53408465</v>
+        <v>49331834.3577133</v>
       </c>
     </row>
     <row r="79">
@@ -5508,64 +5508,64 @@
         <v>22561132</v>
       </c>
       <c r="B79" t="n">
-        <v>22738727.84133373</v>
+        <v>23132222.96491052</v>
       </c>
       <c r="C79" t="n">
-        <v>23314314.29788852</v>
+        <v>22776373.38640215</v>
       </c>
       <c r="D79" t="n">
-        <v>25124365.37182734</v>
+        <v>22425997.94337642</v>
       </c>
       <c r="E79" t="n">
-        <v>25322138.37391721</v>
+        <v>22341771.23367326</v>
       </c>
       <c r="F79" t="n">
-        <v>26551986.3145756</v>
+        <v>22777419.77947653</v>
       </c>
       <c r="G79" t="n">
-        <v>27224097.95705355</v>
+        <v>23486408.13359199</v>
       </c>
       <c r="H79" t="n">
-        <v>29337692.51165056</v>
+        <v>24217465.03151698</v>
       </c>
       <c r="I79" t="n">
-        <v>30762568.25422558</v>
+        <v>23985715.43145033</v>
       </c>
       <c r="J79" t="n">
-        <v>30647031.37097898</v>
+        <v>25011208.63044373</v>
       </c>
       <c r="K79" t="n">
-        <v>32491848.26715535</v>
+        <v>25353500.09213889</v>
       </c>
       <c r="L79" t="n">
-        <v>33503215.76391882</v>
+        <v>26732270.41497756</v>
       </c>
       <c r="M79" t="n">
-        <v>33572165.36783191</v>
+        <v>27875190.73280417</v>
       </c>
       <c r="N79" t="n">
-        <v>36568965.32012539</v>
+        <v>28256677.28637077</v>
       </c>
       <c r="O79" t="n">
-        <v>39408066.40218119</v>
+        <v>28479107.09955429</v>
       </c>
       <c r="P79" t="n">
-        <v>41780259.18863254</v>
+        <v>30690136.67270521</v>
       </c>
       <c r="Q79" t="n">
-        <v>45266849.43194355</v>
+        <v>33608099.13381352</v>
       </c>
       <c r="R79" t="n">
-        <v>44833667.25377265</v>
+        <v>35435769.85084756</v>
       </c>
       <c r="S79" t="n">
-        <v>44925934.92207355</v>
+        <v>37362832.68870948</v>
       </c>
       <c r="T79" t="n">
-        <v>49197411.2283161</v>
+        <v>37874162.58096121</v>
       </c>
       <c r="U79" t="n">
-        <v>51872857.62883592</v>
+        <v>37291533.54391463</v>
       </c>
     </row>
     <row r="80">
@@ -5573,64 +5573,64 @@
         <v>22561132</v>
       </c>
       <c r="B80" t="n">
-        <v>23525718.08848731</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C80" t="n">
-        <v>25488954.81193306</v>
+        <v>24352068.00736287</v>
       </c>
       <c r="D80" t="n">
-        <v>25985971.18461562</v>
+        <v>24260607.43700579</v>
       </c>
       <c r="E80" t="n">
-        <v>26492679.02077863</v>
+        <v>24169490.37077853</v>
       </c>
       <c r="F80" t="n">
-        <v>28241444.24099976</v>
+        <v>24359746.82497621</v>
       </c>
       <c r="G80" t="n">
-        <v>30598211.42865933</v>
+        <v>25826096.76227715</v>
       </c>
       <c r="H80" t="n">
-        <v>31906417.46533684</v>
+        <v>27831154.83874141</v>
       </c>
       <c r="I80" t="n">
-        <v>31415591.95219982</v>
+        <v>29506468.31576648</v>
       </c>
       <c r="J80" t="n">
-        <v>31114959.70760674</v>
+        <v>29910279.75560918</v>
       </c>
       <c r="K80" t="n">
-        <v>32083469.05963362</v>
+        <v>31710747.43531931</v>
       </c>
       <c r="L80" t="n">
-        <v>33455176.29158172</v>
+        <v>34725747.71429306</v>
       </c>
       <c r="M80" t="n">
-        <v>35274530.78104216</v>
+        <v>36614198.2324799</v>
       </c>
       <c r="N80" t="n">
-        <v>37192825.13946251</v>
+        <v>37328148.8879092</v>
       </c>
       <c r="O80" t="n">
-        <v>38350519.03700799</v>
+        <v>39575139.76078743</v>
       </c>
       <c r="P80" t="n">
-        <v>37983522.84489587</v>
+        <v>41497228.78097089</v>
       </c>
       <c r="Q80" t="n">
-        <v>39607482.92490987</v>
+        <v>42788905.02080043</v>
       </c>
       <c r="R80" t="n">
-        <v>40149532.02876371</v>
+        <v>45364609.46655006</v>
       </c>
       <c r="S80" t="n">
-        <v>42332937.98991082</v>
+        <v>49414055.13070828</v>
       </c>
       <c r="T80" t="n">
-        <v>42666172.76458643</v>
+        <v>50952156.89800586</v>
       </c>
       <c r="U80" t="n">
-        <v>42009826.86917145</v>
+        <v>55204148.06718877</v>
       </c>
     </row>
     <row r="81">
@@ -5638,64 +5638,64 @@
         <v>22561132</v>
       </c>
       <c r="B81" t="n">
-        <v>23919213.21206409</v>
+        <v>22476397.75894921</v>
       </c>
       <c r="C81" t="n">
-        <v>23968438.94276726</v>
+        <v>22653326.59258008</v>
       </c>
       <c r="D81" t="n">
-        <v>25550580.64966033</v>
+        <v>23621854.39912641</v>
       </c>
       <c r="E81" t="n">
-        <v>26345888.64753195</v>
+        <v>25730445.5895003</v>
       </c>
       <c r="F81" t="n">
-        <v>25940602.33393927</v>
+        <v>26082580.18487438</v>
       </c>
       <c r="G81" t="n">
-        <v>27049675.41317568</v>
+        <v>27046085.53087541</v>
       </c>
       <c r="H81" t="n">
-        <v>29306988.70447206</v>
+        <v>29303099.24412116</v>
       </c>
       <c r="I81" t="n">
-        <v>31923060.12522056</v>
+        <v>29022682.54808379</v>
       </c>
       <c r="J81" t="n">
-        <v>33473502.2393414</v>
+        <v>29588604.08201868</v>
       </c>
       <c r="K81" t="n">
-        <v>36461495.08445208</v>
+        <v>29993539.59274909</v>
       </c>
       <c r="L81" t="n">
-        <v>37172468.13780668</v>
+        <v>32845270.86852556</v>
       </c>
       <c r="M81" t="n">
-        <v>37032857.19649212</v>
+        <v>33867639.28246395</v>
       </c>
       <c r="N81" t="n">
-        <v>38616172.2034108</v>
+        <v>35512525.89557096</v>
       </c>
       <c r="O81" t="n">
-        <v>40491685.99925173</v>
+        <v>38063146.93956743</v>
       </c>
       <c r="P81" t="n">
-        <v>42222880.91510411</v>
+        <v>37920190.82070207</v>
       </c>
       <c r="Q81" t="n">
-        <v>44764513.19180116</v>
+        <v>40202820.02173156</v>
       </c>
       <c r="R81" t="n">
-        <v>47198890.38157277</v>
+        <v>39818098.19186775</v>
       </c>
       <c r="S81" t="n">
-        <v>51412072.07224002</v>
+        <v>41520494.31214652</v>
       </c>
       <c r="T81" t="n">
-        <v>56001340.99324404</v>
+        <v>41123162.96723132</v>
       </c>
       <c r="U81" t="n">
-        <v>59697954.58743428</v>
+        <v>44554918.09656876</v>
       </c>
     </row>
     <row r="82">
@@ -5703,64 +5703,64 @@
         <v>22561132</v>
       </c>
       <c r="B82" t="n">
-        <v>23394553.04729505</v>
+        <v>23788048.17087183</v>
       </c>
       <c r="C82" t="n">
-        <v>24122750.78965802</v>
+        <v>24528494.1600827</v>
       </c>
       <c r="D82" t="n">
-        <v>25574834.60490004</v>
+        <v>24151165.34384439</v>
       </c>
       <c r="E82" t="n">
-        <v>26370897.55096039</v>
+        <v>24200868.43193693</v>
       </c>
       <c r="F82" t="n">
-        <v>26271854.73742564</v>
+        <v>24954164.19782452</v>
       </c>
       <c r="G82" t="n">
-        <v>27395090.29131895</v>
+        <v>27181683.25291709</v>
       </c>
       <c r="H82" t="n">
-        <v>28566349.0290392</v>
+        <v>27237623.14558847</v>
       </c>
       <c r="I82" t="n">
-        <v>28292982.68147853</v>
+        <v>29668973.84486447</v>
       </c>
       <c r="J82" t="n">
-        <v>29502630.20698241</v>
+        <v>29730032.58052513</v>
       </c>
       <c r="K82" t="n">
-        <v>32307686.70985874</v>
+        <v>30309746.93373938</v>
       </c>
       <c r="L82" t="n">
-        <v>33125492.6593634</v>
+        <v>31429406.22356423</v>
       </c>
       <c r="M82" t="n">
-        <v>34541750.91242935</v>
+        <v>33504041.72769209</v>
       </c>
       <c r="N82" t="n">
-        <v>36420195.34352822</v>
+        <v>35910407.13636175</v>
       </c>
       <c r="O82" t="n">
-        <v>37977316.40324976</v>
+        <v>38072056.17283143</v>
       </c>
       <c r="P82" t="n">
-        <v>39821802.19195306</v>
+        <v>41027852.56822161</v>
       </c>
       <c r="Q82" t="n">
-        <v>40598298.82844367</v>
+        <v>41350814.02223773</v>
       </c>
       <c r="R82" t="n">
-        <v>44458311.35395368</v>
+        <v>44801566.78257791</v>
       </c>
       <c r="S82" t="n">
-        <v>44032866.49989862</v>
+        <v>45675165.2638443</v>
       </c>
       <c r="T82" t="n">
-        <v>43867489.53547326</v>
+        <v>48955698.95645072</v>
       </c>
       <c r="U82" t="n">
-        <v>47273225.40787137</v>
+        <v>48487216.24616805</v>
       </c>
     </row>
     <row r="83">
@@ -5768,64 +5768,64 @@
         <v>22561132</v>
       </c>
       <c r="B83" t="n">
-        <v>22345232.71775694</v>
+        <v>23394553.04729505</v>
       </c>
       <c r="C83" t="n">
-        <v>22651038.90577017</v>
+        <v>23034667.97036579</v>
       </c>
       <c r="D83" t="n">
-        <v>23487781.16529721</v>
+        <v>23349909.44012995</v>
       </c>
       <c r="E83" t="n">
-        <v>23536119.00903007</v>
+        <v>24212468.37466557</v>
       </c>
       <c r="F83" t="n">
-        <v>24542390.0140972</v>
+        <v>25529187.27802557</v>
       </c>
       <c r="G83" t="n">
-        <v>26733152.28449538</v>
+        <v>26917511.7956351</v>
       </c>
       <c r="H83" t="n">
-        <v>27720690.13385693</v>
+        <v>28068351.98462751</v>
       </c>
       <c r="I83" t="n">
-        <v>28261223.74773962</v>
+        <v>30410674.50909016</v>
       </c>
       <c r="J83" t="n">
-        <v>28155081.31900726</v>
+        <v>30650060.07382903</v>
       </c>
       <c r="K83" t="n">
-        <v>29849893.74967255</v>
+        <v>31247714.30456529</v>
       </c>
       <c r="L83" t="n">
-        <v>29564244.49077961</v>
+        <v>32220355.88333734</v>
       </c>
       <c r="M83" t="n">
-        <v>31859520.76641821</v>
+        <v>33410594.15438288</v>
       </c>
       <c r="N83" t="n">
-        <v>34703442.48748715</v>
+        <v>36198730.31878439</v>
       </c>
       <c r="O83" t="n">
-        <v>36388922.46736733</v>
+        <v>36273227.29051464</v>
       </c>
       <c r="P83" t="n">
-        <v>36252254.33706568</v>
+        <v>38878484.29568849</v>
       </c>
       <c r="Q83" t="n">
-        <v>38645243.03743637</v>
+        <v>39862617.14463788</v>
       </c>
       <c r="R83" t="n">
-        <v>40297494.52109961</v>
+        <v>41566916.64292605</v>
       </c>
       <c r="S83" t="n">
-        <v>42254666.93358101</v>
+        <v>41894121.48055784</v>
       </c>
       <c r="T83" t="n">
-        <v>44798212.58920336</v>
+        <v>43685276.58614135</v>
       </c>
       <c r="U83" t="n">
-        <v>44890407.29181954</v>
+        <v>43013253.52619675</v>
       </c>
     </row>
     <row r="84">
@@ -5833,64 +5833,64 @@
         <v>22561132</v>
       </c>
       <c r="B84" t="n">
-        <v>23525718.08848731</v>
+        <v>24181543.29444862</v>
       </c>
       <c r="C84" t="n">
-        <v>24257998.57979958</v>
+        <v>24512480.35241337</v>
       </c>
       <c r="D84" t="n">
-        <v>24448951.7494744</v>
+        <v>26415553.32380281</v>
       </c>
       <c r="E84" t="n">
-        <v>24214986.93182665</v>
+        <v>26469916.52140317</v>
       </c>
       <c r="F84" t="n">
-        <v>23842480.88662956</v>
+        <v>28524958.76774433</v>
       </c>
       <c r="G84" t="n">
-        <v>23891548.70223934</v>
+        <v>30242036.19884915</v>
       </c>
       <c r="H84" t="n">
-        <v>23940717.49939295</v>
+        <v>29776814.33707997</v>
       </c>
       <c r="I84" t="n">
-        <v>24129173.10820007</v>
+        <v>30357440.90105854</v>
       </c>
       <c r="J84" t="n">
-        <v>24038549.67802349</v>
+        <v>31478862.0331612</v>
       </c>
       <c r="K84" t="n">
-        <v>25625319.35082685</v>
+        <v>34105793.87529814</v>
       </c>
       <c r="L84" t="n">
-        <v>27465810.19587543</v>
+        <v>37348510.82034606</v>
       </c>
       <c r="M84" t="n">
-        <v>28640092.5157508</v>
+        <v>40030998.06274708</v>
       </c>
       <c r="N84" t="n">
-        <v>30197593.82565138</v>
+        <v>42207957.92714233</v>
       </c>
       <c r="O84" t="n">
-        <v>30786425.28844405</v>
+        <v>43276369.89421536</v>
       </c>
       <c r="P84" t="n">
-        <v>32818618.02203437</v>
+        <v>45126622.10497282</v>
       </c>
       <c r="Q84" t="n">
-        <v>34412555.67428367</v>
+        <v>44432426.41613133</v>
       </c>
       <c r="R84" t="n">
-        <v>36884173.40540865</v>
+        <v>45557146.45568006</v>
       </c>
       <c r="S84" t="n">
-        <v>38246695.74817707</v>
+        <v>48299486.89660791</v>
       </c>
       <c r="T84" t="n">
-        <v>38547764.60011379</v>
+        <v>48679688.91889077</v>
       </c>
       <c r="U84" t="n">
-        <v>37954773.35123131</v>
+        <v>47930835.39063356</v>
       </c>
     </row>
     <row r="85">
@@ -5898,64 +5898,64 @@
         <v>22561132</v>
       </c>
       <c r="B85" t="n">
-        <v>23788048.17087183</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C85" t="n">
-        <v>24251898.08163983</v>
+        <v>25777751.88669541</v>
       </c>
       <c r="D85" t="n">
-        <v>24301808.47766428</v>
+        <v>26879862.40412795</v>
       </c>
       <c r="E85" t="n">
-        <v>24634391.42751544</v>
+        <v>28966731.57772942</v>
       </c>
       <c r="F85" t="n">
-        <v>26260492.24261097</v>
+        <v>28521128.0904063</v>
       </c>
       <c r="G85" t="n">
-        <v>28146603.19784616</v>
+        <v>29740529.82006997</v>
       </c>
       <c r="H85" t="n">
-        <v>29349992.36656406</v>
+        <v>29801735.81789743</v>
       </c>
       <c r="I85" t="n">
-        <v>30092930.06404916</v>
+        <v>30209588.14782221</v>
       </c>
       <c r="J85" t="n">
-        <v>31729439.37238072</v>
+        <v>32730598.24532056</v>
       </c>
       <c r="K85" t="n">
-        <v>34746216.84678543</v>
+        <v>33178533.58827361</v>
       </c>
       <c r="L85" t="n">
-        <v>37847817.8262861</v>
+        <v>35561519.98096354</v>
       </c>
       <c r="M85" t="n">
-        <v>38145746.80651214</v>
+        <v>35841451.77073923</v>
       </c>
       <c r="N85" t="n">
-        <v>40663723.76393005</v>
+        <v>35498466.15672608</v>
       </c>
       <c r="O85" t="n">
-        <v>43347910.80999159</v>
+        <v>37222558.91914263</v>
       </c>
       <c r="P85" t="n">
-        <v>44949207.28861311</v>
+        <v>38813984.49616174</v>
       </c>
       <c r="Q85" t="n">
-        <v>49222896.28920329</v>
+        <v>41827381.90615912</v>
       </c>
       <c r="R85" t="n">
-        <v>49324196.98900807</v>
+        <v>44102032.4532105</v>
       </c>
       <c r="S85" t="n">
-        <v>48852187.92815323</v>
+        <v>45474787.91475414</v>
       </c>
       <c r="T85" t="n">
-        <v>49236740.6809182</v>
+        <v>48476550.30503115</v>
       </c>
       <c r="U85" t="n">
-        <v>52200576.55856951</v>
+        <v>51676457.15866602</v>
       </c>
     </row>
     <row r="86">
@@ -5963,64 +5963,64 @@
         <v>22561132</v>
       </c>
       <c r="B86" t="n">
-        <v>24312708.33564088</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C86" t="n">
-        <v>25352181.89725156</v>
+        <v>24798989.74036583</v>
       </c>
       <c r="D86" t="n">
-        <v>25551748.21660505</v>
+        <v>26580130.99986487</v>
       </c>
       <c r="E86" t="n">
-        <v>25604333.70365908</v>
+        <v>26480302.35530465</v>
       </c>
       <c r="F86" t="n">
-        <v>27592174.78384874</v>
+        <v>26996649.29543142</v>
       </c>
       <c r="G86" t="n">
-        <v>27167716.49543194</v>
+        <v>28935633.3601754</v>
       </c>
       <c r="H86" t="n">
-        <v>28013360.76900007</v>
+        <v>30509206.72892382</v>
       </c>
       <c r="I86" t="n">
-        <v>29699642.24402324</v>
+        <v>33232593.44729609</v>
       </c>
       <c r="J86" t="n">
-        <v>32005430.38141064</v>
+        <v>34846637.09599495</v>
       </c>
       <c r="K86" t="n">
-        <v>32257369.48339519</v>
+        <v>36944251.84084404</v>
       </c>
       <c r="L86" t="n">
-        <v>33824048.36510739</v>
+        <v>38094208.44524697</v>
       </c>
       <c r="M86" t="n">
-        <v>36253397.65461984</v>
+        <v>41273195.31778391</v>
       </c>
       <c r="N86" t="n">
-        <v>39067999.041572</v>
+        <v>43517708.17108138</v>
       </c>
       <c r="O86" t="n">
-        <v>39148400.9671237</v>
+        <v>45631280.21567242</v>
       </c>
       <c r="P86" t="n">
-        <v>41732562.5003866</v>
+        <v>46521057.51493765</v>
       </c>
       <c r="Q86" t="n">
-        <v>41090578.59774293</v>
+        <v>50673732.84624027</v>
       </c>
       <c r="R86" t="n">
-        <v>43802942.06517996</v>
+        <v>53134859.35404796</v>
       </c>
       <c r="S86" t="n">
-        <v>44657068.07931797</v>
+        <v>55097691.27802791</v>
       </c>
       <c r="T86" t="n">
-        <v>44489346.76235326</v>
+        <v>55211082.30344217</v>
       </c>
       <c r="U86" t="n">
-        <v>48460662.60672051</v>
+        <v>59818483.61257997</v>
       </c>
     </row>
     <row r="87">
@@ -6028,64 +6028,64 @@
         <v>22561132</v>
       </c>
       <c r="B87" t="n">
-        <v>23525718.08848731</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C87" t="n">
-        <v>25625727.72661456</v>
+        <v>25054234.07524959</v>
       </c>
       <c r="D87" t="n">
-        <v>27615229.77241237</v>
+        <v>25397114.36264328</v>
       </c>
       <c r="E87" t="n">
-        <v>28314255.3451076</v>
+        <v>25006423.31427388</v>
       </c>
       <c r="F87" t="n">
-        <v>29854037.02579219</v>
+        <v>25930174.81343117</v>
       </c>
       <c r="G87" t="n">
-        <v>31477554.88796111</v>
+        <v>28395568.74511935</v>
       </c>
       <c r="H87" t="n">
-        <v>31359332.68512279</v>
+        <v>28949262.00881294</v>
       </c>
       <c r="I87" t="n">
-        <v>31423870.17856384</v>
+        <v>31028488.84570361</v>
       </c>
       <c r="J87" t="n">
-        <v>32401994.92726398</v>
+        <v>31272737.69730676</v>
       </c>
       <c r="K87" t="n">
-        <v>32468678.21915964</v>
+        <v>34064280.56660212</v>
       </c>
       <c r="L87" t="n">
-        <v>33290559.35409334</v>
+        <v>36114800.87914594</v>
       </c>
       <c r="M87" t="n">
-        <v>36455765.2813428</v>
+        <v>38288753.5226305</v>
       </c>
       <c r="N87" t="n">
-        <v>39498022.98894814</v>
+        <v>39925763.53584476</v>
       </c>
       <c r="O87" t="n">
-        <v>41875630.76744819</v>
+        <v>42097000.55163514</v>
       </c>
       <c r="P87" t="n">
-        <v>45613634.7630556</v>
+        <v>42183636.16101716</v>
       </c>
       <c r="Q87" t="n">
-        <v>49420122.73166283</v>
+        <v>45458642.87836284</v>
       </c>
       <c r="R87" t="n">
-        <v>50671096.55588502</v>
+        <v>48459339.54485638</v>
       </c>
       <c r="S87" t="n">
-        <v>50775377.6512279</v>
+        <v>49404261.97658753</v>
       </c>
       <c r="T87" t="n">
-        <v>51470265.23107911</v>
+        <v>52378181.90162925</v>
       </c>
       <c r="U87" t="n">
-        <v>53970077.79686092</v>
+        <v>56444661.54116096</v>
       </c>
     </row>
     <row r="88">
@@ -6093,64 +6093,64 @@
         <v>22561132</v>
       </c>
       <c r="B88" t="n">
-        <v>23263388.00610278</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C88" t="n">
-        <v>24393246.36994114</v>
+        <v>24246560.14575006</v>
       </c>
       <c r="D88" t="n">
-        <v>25861612.83294787</v>
+        <v>24155495.83780476</v>
       </c>
       <c r="E88" t="n">
-        <v>27117662.01864645</v>
+        <v>25749985.05368277</v>
       </c>
       <c r="F88" t="n">
-        <v>27961748.2561659</v>
+        <v>28048542.5978552</v>
       </c>
       <c r="G88" t="n">
-        <v>27531604.71369671</v>
+        <v>30715347.09149986</v>
       </c>
       <c r="H88" t="n">
-        <v>29348948.77098994</v>
+        <v>31314274.37234529</v>
       </c>
       <c r="I88" t="n">
-        <v>31798137.94366527</v>
+        <v>33745417.54186204</v>
       </c>
       <c r="J88" t="n">
-        <v>34451713.57155428</v>
+        <v>35188180.26808853</v>
       </c>
       <c r="K88" t="n">
-        <v>36926143.74573417</v>
+        <v>36283475.97120717</v>
       </c>
       <c r="L88" t="n">
-        <v>37002137.73399031</v>
+        <v>37834751.68573204</v>
       </c>
       <c r="M88" t="n">
-        <v>39229504.16501603</v>
+        <v>41212048.94387908</v>
       </c>
       <c r="N88" t="n">
-        <v>40222522.39595233</v>
+        <v>41776057.37229555</v>
       </c>
       <c r="O88" t="n">
-        <v>41708365.24905398</v>
+        <v>44533668.86614762</v>
       </c>
       <c r="P88" t="n">
-        <v>45188955.89558996</v>
+        <v>47473308.57494724</v>
       </c>
       <c r="Q88" t="n">
-        <v>45281954.7477659</v>
+        <v>49226999.59324779</v>
       </c>
       <c r="R88" t="n">
-        <v>45901661.96416011</v>
+        <v>51904055.06388893</v>
       </c>
       <c r="S88" t="n">
-        <v>48931602.04422193</v>
+        <v>52916146.98235758</v>
       </c>
       <c r="T88" t="n">
-        <v>49601256.59128033</v>
+        <v>55793825.1251425</v>
       </c>
       <c r="U88" t="n">
-        <v>49126596.20205823</v>
+        <v>55908648.79372054</v>
       </c>
     </row>
     <row r="89">
@@ -6158,64 +6158,64 @@
         <v>22561132</v>
       </c>
       <c r="B89" t="n">
-        <v>22607562.80014147</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C89" t="n">
-        <v>23574134.0063921</v>
+        <v>26197221.37797952</v>
       </c>
       <c r="D89" t="n">
-        <v>24719084.71049337</v>
+        <v>27774179.22573813</v>
       </c>
       <c r="E89" t="n">
-        <v>26925619.53091711</v>
+        <v>30414897.74820976</v>
       </c>
       <c r="F89" t="n">
-        <v>28702962.88421271</v>
+        <v>32068916.25591105</v>
       </c>
       <c r="G89" t="n">
-        <v>30764499.74511658</v>
+        <v>33067119.22949946</v>
       </c>
       <c r="H89" t="n">
-        <v>33331817.58216942</v>
+        <v>36018836.52993902</v>
       </c>
       <c r="I89" t="n">
-        <v>35144463.59639042</v>
+        <v>36092963.28032769</v>
       </c>
       <c r="J89" t="n">
-        <v>38077292.3117018</v>
+        <v>39314780.80241866</v>
       </c>
       <c r="K89" t="n">
-        <v>39926633.73950279</v>
+        <v>41452791.44482654</v>
       </c>
       <c r="L89" t="n">
-        <v>42097918.07858085</v>
+        <v>43707071.0683594</v>
       </c>
       <c r="M89" t="n">
-        <v>45366269.90978288</v>
+        <v>44305225.17852075</v>
       </c>
       <c r="N89" t="n">
-        <v>45987131.02323485</v>
+        <v>44653985.32677305</v>
       </c>
       <c r="O89" t="n">
-        <v>49824787.50161065</v>
+        <v>47341959.42825326</v>
       </c>
       <c r="P89" t="n">
-        <v>50216996.32586747</v>
+        <v>47439389.16079145</v>
       </c>
       <c r="Q89" t="n">
-        <v>50904242.16545475</v>
+        <v>48088621.9946661</v>
       </c>
       <c r="R89" t="n">
-        <v>55152234.81853776</v>
+        <v>49585467.26027425</v>
       </c>
       <c r="S89" t="n">
-        <v>59113441.38450445</v>
+        <v>53723407.27589598</v>
       </c>
       <c r="T89" t="n">
-        <v>61984468.43121105</v>
+        <v>56332650.6513081</v>
       </c>
       <c r="U89" t="n">
-        <v>63913847.02980736</v>
+        <v>58413610.80449186</v>
       </c>
     </row>
     <row r="90">
@@ -6223,64 +6223,64 @@
         <v>22561132</v>
       </c>
       <c r="B90" t="n">
-        <v>22214067.67656468</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C90" t="n">
-        <v>21872342.34252943</v>
+        <v>26049772.59151847</v>
       </c>
       <c r="D90" t="n">
-        <v>22171676.77861136</v>
+        <v>27769301.83455907</v>
       </c>
       <c r="E90" t="n">
-        <v>22088405.23866118</v>
+        <v>28795115.63759033</v>
       </c>
       <c r="F90" t="n">
-        <v>21748613.00572176</v>
+        <v>31365495.00465077</v>
       </c>
       <c r="G90" t="n">
-        <v>22552019.13926343</v>
+        <v>33253560.26099103</v>
       </c>
       <c r="H90" t="n">
-        <v>22467319.12394821</v>
+        <v>35448607.03551083</v>
       </c>
       <c r="I90" t="n">
-        <v>24080992.4832649</v>
+        <v>37994637.22640784</v>
       </c>
       <c r="J90" t="n">
-        <v>24970558.04120351</v>
+        <v>40281747.77460089</v>
       </c>
       <c r="K90" t="n">
-        <v>25602638.91755781</v>
+        <v>42238155.39765307</v>
       </c>
       <c r="L90" t="n">
-        <v>27143805.50854253</v>
+        <v>44780707.1312184</v>
       </c>
       <c r="M90" t="n">
-        <v>29251166.40639118</v>
+        <v>48517686.73843811</v>
       </c>
       <c r="N90" t="n">
-        <v>30331721.12948823</v>
+        <v>51438238.72192387</v>
       </c>
       <c r="O90" t="n">
-        <v>30041461.01217439</v>
+        <v>52441247.55517668</v>
       </c>
       <c r="P90" t="n">
-        <v>30103286.32626829</v>
+        <v>57427266.13865813</v>
       </c>
       <c r="Q90" t="n">
-        <v>31390332.17166597</v>
+        <v>58547056.71931974</v>
       </c>
       <c r="R90" t="n">
-        <v>32367412.98929133</v>
+        <v>59348303.78892407</v>
       </c>
       <c r="S90" t="n">
-        <v>32057672.27094207</v>
+        <v>63955922.0802893</v>
       </c>
       <c r="T90" t="n">
-        <v>33614652.24011126</v>
+        <v>68921261.5694571</v>
       </c>
       <c r="U90" t="n">
-        <v>36810672.33040594</v>
+        <v>74272094.62107776</v>
       </c>
     </row>
     <row r="91">
@@ -6291,61 +6291,61 @@
         <v>24181543.29444862</v>
       </c>
       <c r="C91" t="n">
-        <v>23809551.72225669</v>
+        <v>24793651.80447605</v>
       </c>
       <c r="D91" t="n">
-        <v>24965936.21558915</v>
+        <v>24412243.99262461</v>
       </c>
       <c r="E91" t="n">
-        <v>26613922.09538027</v>
+        <v>25455973.13458626</v>
       </c>
       <c r="F91" t="n">
-        <v>28989598.48062169</v>
+        <v>26988311.08859007</v>
       </c>
       <c r="G91" t="n">
-        <v>30734645.18491889</v>
+        <v>27043853.02142882</v>
       </c>
       <c r="H91" t="n">
-        <v>33656839.43454038</v>
+        <v>28986227.40589374</v>
       </c>
       <c r="I91" t="n">
-        <v>35682833.57763158</v>
+        <v>30731071.18627504</v>
       </c>
       <c r="J91" t="n">
-        <v>38245686.65375935</v>
+        <v>31687631.31431001</v>
       </c>
       <c r="K91" t="n">
-        <v>38991450.16551019</v>
+        <v>33779312.09563805</v>
       </c>
       <c r="L91" t="n">
-        <v>42698686.43820892</v>
+        <v>36794602.88095365</v>
       </c>
       <c r="M91" t="n">
-        <v>45517200.10131194</v>
+        <v>40079051.85676961</v>
       </c>
       <c r="N91" t="n">
-        <v>47727883.65348758</v>
+        <v>39928524.4789271</v>
       </c>
       <c r="O91" t="n">
-        <v>50323414.42100196</v>
+        <v>40242832.28484967</v>
       </c>
       <c r="P91" t="n">
-        <v>49841843.3254774</v>
+        <v>42665274.31684969</v>
       </c>
       <c r="Q91" t="n">
-        <v>50813723.59127174</v>
+        <v>42256987.97280849</v>
       </c>
       <c r="R91" t="n">
-        <v>52395392.56889296</v>
+        <v>44309329.24309851</v>
       </c>
       <c r="S91" t="n">
-        <v>57377051.34355187</v>
+        <v>44915725.57113887</v>
       </c>
       <c r="T91" t="n">
-        <v>62498780.69419583</v>
+        <v>46052679.38427545</v>
       </c>
       <c r="U91" t="n">
-        <v>62264050.15191972</v>
+        <v>46682934.37012348</v>
       </c>
     </row>
     <row r="92">
@@ -6353,64 +6353,64 @@
         <v>22561132</v>
       </c>
       <c r="B92" t="n">
-        <v>22738727.84133373</v>
+        <v>24312708.33564088</v>
       </c>
       <c r="C92" t="n">
-        <v>23182116.75682683</v>
+        <v>25352181.89725156</v>
       </c>
       <c r="D92" t="n">
-        <v>23364600.84181536</v>
+        <v>25109573.59750348</v>
       </c>
       <c r="E92" t="n">
-        <v>23141012.74563102</v>
+        <v>27204984.11000156</v>
       </c>
       <c r="F92" t="n">
-        <v>24534000.23570808</v>
+        <v>28842604.85501982</v>
       </c>
       <c r="G92" t="n">
-        <v>25012395.67775407</v>
+        <v>31249539.29324723</v>
       </c>
       <c r="H92" t="n">
-        <v>26518032.21401789</v>
+        <v>32403915.04732135</v>
       </c>
       <c r="I92" t="n">
-        <v>27189284.3747974</v>
+        <v>34919654.54031336</v>
       </c>
       <c r="J92" t="n">
-        <v>27245239.91057441</v>
+        <v>37630708.24726244</v>
       </c>
       <c r="K92" t="n">
-        <v>27301310.60282044</v>
+        <v>37489376.26518212</v>
       </c>
       <c r="L92" t="n">
-        <v>28309836.54359017</v>
+        <v>39746072.31916317</v>
       </c>
       <c r="M92" t="n">
-        <v>30178551.1986368</v>
+        <v>40521092.27734525</v>
       </c>
       <c r="N92" t="n">
-        <v>30416109.54412917</v>
+        <v>40368904.70091202</v>
       </c>
       <c r="O92" t="n">
-        <v>31539697.92927354</v>
+        <v>43268326.10946004</v>
       </c>
       <c r="P92" t="n">
-        <v>31054513.76727414</v>
+        <v>46879096.52082904</v>
       </c>
       <c r="Q92" t="n">
-        <v>31840598.0928381</v>
+        <v>50518644.22180916</v>
       </c>
       <c r="R92" t="n">
-        <v>32461466.96270392</v>
+        <v>54440755.12154514</v>
       </c>
       <c r="S92" t="n">
-        <v>32150826.19264839</v>
+        <v>59300377.68575998</v>
       </c>
       <c r="T92" t="n">
-        <v>32777744.28838516</v>
+        <v>58732901.32956039</v>
       </c>
       <c r="U92" t="n">
-        <v>34750820.758657</v>
+        <v>62268364.43600781</v>
       </c>
     </row>
     <row r="93">
@@ -6418,64 +6418,64 @@
         <v>22561132</v>
       </c>
       <c r="B93" t="n">
-        <v>24312708.33564088</v>
+        <v>24050378.25325636</v>
       </c>
       <c r="C93" t="n">
-        <v>26200271.62705939</v>
+        <v>26197221.37797952</v>
       </c>
       <c r="D93" t="n">
-        <v>26863480.29958589</v>
+        <v>27774179.22573813</v>
       </c>
       <c r="E93" t="n">
-        <v>28168188.27635745</v>
+        <v>28961645.6569571</v>
       </c>
       <c r="F93" t="n">
-        <v>28389921.52519383</v>
+        <v>30199881.42014486</v>
       </c>
       <c r="G93" t="n">
-        <v>29273609.139089</v>
+        <v>31666632.03276096</v>
       </c>
       <c r="H93" t="n">
-        <v>29163664.43182793</v>
+        <v>31547699.70117712</v>
       </c>
       <c r="I93" t="n">
-        <v>29223683.24092967</v>
+        <v>31429214.05111853</v>
       </c>
       <c r="J93" t="n">
-        <v>29453725.09397336</v>
+        <v>32407505.13750941</v>
       </c>
       <c r="K93" t="n">
-        <v>29685577.78152807</v>
+        <v>34169885.32795474</v>
       </c>
       <c r="L93" t="n">
-        <v>30437010.16795172</v>
+        <v>34041551.37290066</v>
       </c>
       <c r="M93" t="n">
-        <v>30145742.48471289</v>
+        <v>36486522.41093197</v>
       </c>
       <c r="N93" t="n">
-        <v>30032522.25221946</v>
+        <v>39319222.88113973</v>
       </c>
       <c r="O93" t="n">
-        <v>31316542.62702497</v>
+        <v>42600438.01800637</v>
       </c>
       <c r="P93" t="n">
-        <v>33019594.25426131</v>
+        <v>42440440.91396534</v>
       </c>
       <c r="Q93" t="n">
-        <v>35967069.26523381</v>
+        <v>45735385.15608346</v>
       </c>
       <c r="R93" t="n">
-        <v>38132129.11338868</v>
+        <v>47956665.54002469</v>
       </c>
       <c r="S93" t="n">
-        <v>39319060.54463796</v>
+        <v>52516298.20957135</v>
       </c>
       <c r="T93" t="n">
-        <v>43057445.41723897</v>
+        <v>51708425.02716932</v>
       </c>
       <c r="U93" t="n">
-        <v>46400291.97591275</v>
+        <v>54520425.01175112</v>
       </c>
     </row>
     <row r="94">
@@ -6483,64 +6483,64 @@
         <v>22561132</v>
       </c>
       <c r="B94" t="n">
-        <v>22476397.75894921</v>
+        <v>24575038.41802541</v>
       </c>
       <c r="C94" t="n">
-        <v>22391981.75953657</v>
+        <v>25197107.48809083</v>
       </c>
       <c r="D94" t="n">
-        <v>22047519.52245779</v>
+        <v>26274392.94314387</v>
       </c>
       <c r="E94" t="n">
-        <v>24015578.61930711</v>
+        <v>27550490.0711202</v>
       </c>
       <c r="F94" t="n">
-        <v>23785760.97600091</v>
+        <v>28408048.86398216</v>
       </c>
       <c r="G94" t="n">
-        <v>24802705.25616977</v>
+        <v>27971039.75206811</v>
       </c>
       <c r="H94" t="n">
-        <v>24997946.22667258</v>
+        <v>29980007.59693168</v>
       </c>
       <c r="I94" t="n">
-        <v>24758727.79348895</v>
+        <v>30041706.43992293</v>
       </c>
       <c r="J94" t="n">
-        <v>25673329.27923631</v>
+        <v>29754221.62498829</v>
       </c>
       <c r="K94" t="n">
-        <v>26621716.6640294</v>
+        <v>32064247.13628549</v>
       </c>
       <c r="L94" t="n">
-        <v>28378999.57860825</v>
+        <v>31943821.45702621</v>
       </c>
       <c r="M94" t="n">
-        <v>29922302.17070156</v>
+        <v>32938130.62892732</v>
       </c>
       <c r="N94" t="n">
-        <v>29635959.99772397</v>
+        <v>35686839.39986207</v>
       </c>
       <c r="O94" t="n">
-        <v>30213840.00291502</v>
+        <v>38457454.96058017</v>
       </c>
       <c r="P94" t="n">
-        <v>32910860.9810762</v>
+        <v>38760182.85868733</v>
       </c>
       <c r="Q94" t="n">
-        <v>33361263.31377862</v>
+        <v>40417348.51742795</v>
       </c>
       <c r="R94" t="n">
-        <v>35951328.3578331</v>
+        <v>41440434.70671768</v>
       </c>
       <c r="S94" t="n">
-        <v>38115440.67238896</v>
+        <v>41043869.49407584</v>
       </c>
       <c r="T94" t="n">
-        <v>38415476.31572542</v>
+        <v>44469007.53067065</v>
       </c>
       <c r="U94" t="n">
-        <v>39611227.44071407</v>
+        <v>46628782.36987028</v>
       </c>
     </row>
     <row r="95">
@@ -6548,64 +6548,64 @@
         <v>22561132</v>
       </c>
       <c r="B95" t="n">
-        <v>23001057.92371826</v>
+        <v>22214067.67656468</v>
       </c>
       <c r="C95" t="n">
-        <v>23182116.75682683</v>
+        <v>23034667.97036579</v>
       </c>
       <c r="D95" t="n">
-        <v>23499376.14029476</v>
+        <v>24689090.10410688</v>
       </c>
       <c r="E95" t="n">
-        <v>24777315.76637058</v>
+        <v>25314046.16971198</v>
       </c>
       <c r="F95" t="n">
-        <v>27133097.95347297</v>
+        <v>26837840.74280383</v>
       </c>
       <c r="G95" t="n">
-        <v>28135410.02330805</v>
+        <v>27361159.42554463</v>
       </c>
       <c r="H95" t="n">
-        <v>28193312.68527069</v>
+        <v>29167252.49566373</v>
       </c>
       <c r="I95" t="n">
-        <v>29562608.08340473</v>
+        <v>29566421.58972424</v>
       </c>
       <c r="J95" t="n">
-        <v>31857757.31344858</v>
+        <v>31861866.88857462</v>
       </c>
       <c r="K95" t="n">
-        <v>32664174.17958909</v>
+        <v>33965048.85149928</v>
       </c>
       <c r="L95" t="n">
-        <v>35769824.54197124</v>
+        <v>36996919.32105644</v>
       </c>
       <c r="M95" t="n">
-        <v>36883224.97426523</v>
+        <v>39439062.8926162</v>
       </c>
       <c r="N95" t="n">
-        <v>39746724.20147785</v>
+        <v>42500989.45120196</v>
       </c>
       <c r="O95" t="n">
-        <v>43525770.5579278</v>
+        <v>44812272.02495459</v>
       </c>
       <c r="P95" t="n">
-        <v>46145831.07773392</v>
+        <v>49072941.46935254</v>
       </c>
       <c r="Q95" t="n">
-        <v>48387046.03686937</v>
+        <v>49744530.32031195</v>
       </c>
       <c r="R95" t="n">
-        <v>51018423.27642255</v>
+        <v>52160527.23455638</v>
       </c>
       <c r="S95" t="n">
-        <v>52606463.90167848</v>
+        <v>57119855.43974543</v>
       </c>
       <c r="T95" t="n">
-        <v>53938093.72548962</v>
+        <v>58897814.16762681</v>
       </c>
       <c r="U95" t="n">
-        <v>53735515.08557227</v>
+        <v>61073532.91999137</v>
       </c>
     </row>
     <row r="96">
@@ -6613,64 +6613,64 @@
         <v>22561132</v>
       </c>
       <c r="B96" t="n">
-        <v>22476397.75894921</v>
+        <v>23263388.00610278</v>
       </c>
       <c r="C96" t="n">
-        <v>23698705.92475411</v>
+        <v>23717007.41923334</v>
       </c>
       <c r="D96" t="n">
-        <v>25951935.84688668</v>
+        <v>25144667.26282831</v>
       </c>
       <c r="E96" t="n">
-        <v>28419398.77811747</v>
+        <v>24904044.77924526</v>
       </c>
       <c r="F96" t="n">
-        <v>30791016.38951583</v>
+        <v>26837517.59865285</v>
       </c>
       <c r="G96" t="n">
-        <v>31928454.04674992</v>
+        <v>28765072.32559744</v>
       </c>
       <c r="H96" t="n">
-        <v>32551036.04482574</v>
+        <v>30831070.08147376</v>
       </c>
       <c r="I96" t="n">
-        <v>32239538.14133642</v>
+        <v>32507720.81195319</v>
       </c>
       <c r="J96" t="n">
-        <v>32493320.08367963</v>
+        <v>34086558.77996853</v>
       </c>
       <c r="K96" t="n">
-        <v>35016000.70648605</v>
+        <v>36931104.63914359</v>
       </c>
       <c r="L96" t="n">
-        <v>36716661.04263376</v>
+        <v>38939486.55410802</v>
       </c>
       <c r="M96" t="n">
-        <v>36365300.09294975</v>
+        <v>42641782.2210013</v>
       </c>
       <c r="N96" t="n">
-        <v>37497235.77791467</v>
+        <v>43473266.44938871</v>
       </c>
       <c r="O96" t="n">
-        <v>39754404.94009693</v>
+        <v>45079193.6366232</v>
       </c>
       <c r="P96" t="n">
-        <v>41454077.89805438</v>
+        <v>46482365.00593166</v>
       </c>
       <c r="Q96" t="n">
-        <v>42744410.98867064</v>
+        <v>49010162.16106308</v>
       </c>
       <c r="R96" t="n">
-        <v>43329390.5925272</v>
+        <v>51960359.0054038</v>
       </c>
       <c r="S96" t="n">
-        <v>44678096.17983442</v>
+        <v>51463123.13025542</v>
       </c>
       <c r="T96" t="n">
-        <v>46068782.66593478</v>
+        <v>50671451.24025137</v>
       </c>
       <c r="U96" t="n">
-        <v>46699258.03360836</v>
+        <v>51364916.53285339</v>
       </c>
     </row>
     <row r="97">
@@ -6678,64 +6678,64 @@
         <v>22561132</v>
       </c>
       <c r="B97" t="n">
-        <v>24575038.41802541</v>
+        <v>22869892.88252599</v>
       </c>
       <c r="C97" t="n">
-        <v>24768487.24956711</v>
+        <v>23847679.83575509</v>
       </c>
       <c r="D97" t="n">
-        <v>25683449.25517251</v>
+        <v>24867271.41530298</v>
       </c>
       <c r="E97" t="n">
-        <v>27528115.17235607</v>
+        <v>26797889.26475326</v>
       </c>
       <c r="F97" t="n">
-        <v>28705061.29977251</v>
+        <v>26385649.69684654</v>
       </c>
       <c r="G97" t="n">
-        <v>28430367.54188111</v>
+        <v>27973950.10311127</v>
       </c>
       <c r="H97" t="n">
-        <v>30141750.9959873</v>
+        <v>30145760.85334351</v>
       </c>
       <c r="I97" t="n">
-        <v>31255204.42032709</v>
+        <v>29857280.28725721</v>
       </c>
       <c r="J97" t="n">
-        <v>32228079.14248842</v>
+        <v>29397977.23533075</v>
       </c>
       <c r="K97" t="n">
-        <v>31919671.78265666</v>
+        <v>32193083.52371374</v>
       </c>
       <c r="L97" t="n">
-        <v>32727655.8925845</v>
+        <v>31697848.14490143</v>
       </c>
       <c r="M97" t="n">
-        <v>32795009.39460946</v>
+        <v>32684500.95293832</v>
       </c>
       <c r="N97" t="n">
-        <v>35341112.24010136</v>
+        <v>34081904.90094742</v>
       </c>
       <c r="O97" t="n">
-        <v>34797449.83836272</v>
+        <v>33557613.24457866</v>
       </c>
       <c r="P97" t="n">
-        <v>36285191.50083424</v>
+        <v>35967826.3276923</v>
       </c>
       <c r="Q97" t="n">
-        <v>37414633.66109688</v>
+        <v>37923823.38282922</v>
       </c>
       <c r="R97" t="n">
-        <v>36839073.68838944</v>
+        <v>40868111.44401286</v>
       </c>
       <c r="S97" t="n">
-        <v>38199930.02196156</v>
+        <v>42377802.72371636</v>
       </c>
       <c r="T97" t="n">
-        <v>37612289.61152698</v>
+        <v>45421509.49195058</v>
       </c>
       <c r="U97" t="n">
-        <v>37689695.68768556</v>
+        <v>45514986.93932975</v>
       </c>
     </row>
     <row r="98">
@@ -6743,64 +6743,64 @@
         <v>22561132</v>
       </c>
       <c r="B98" t="n">
-        <v>23656883.12967957</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C98" t="n">
-        <v>23292962.55432942</v>
+        <v>25631065.66250433</v>
       </c>
       <c r="D98" t="n">
-        <v>25507615.13363785</v>
+        <v>26577891.80525871</v>
       </c>
       <c r="E98" t="n">
-        <v>26894766.51805577</v>
+        <v>27714211.76902087</v>
       </c>
       <c r="F98" t="n">
-        <v>27419195.21266393</v>
+        <v>27771247.60515381</v>
       </c>
       <c r="G98" t="n">
-        <v>27794441.22922084</v>
+        <v>28958588.69689814</v>
       </c>
       <c r="H98" t="n">
-        <v>30437086.22618751</v>
+        <v>31206843.73459059</v>
       </c>
       <c r="I98" t="n">
-        <v>33154035.1495355</v>
+        <v>33266788.02762055</v>
       </c>
       <c r="J98" t="n">
-        <v>34378764.06368673</v>
+        <v>34882492.44183505</v>
       </c>
       <c r="K98" t="n">
-        <v>34849255.41724367</v>
+        <v>36779467.02880178</v>
       </c>
       <c r="L98" t="n">
-        <v>35326185.69086654</v>
+        <v>40276391.96185568</v>
       </c>
       <c r="M98" t="n">
-        <v>38479557.25427894</v>
+        <v>41061752.77344341</v>
       </c>
       <c r="N98" t="n">
-        <v>39229881.07532472</v>
+        <v>43294766.98931161</v>
       </c>
       <c r="O98" t="n">
-        <v>40450982.02025269</v>
+        <v>42880456.70036544</v>
       </c>
       <c r="P98" t="n">
-        <v>40769402.48712742</v>
+        <v>46957452.65190604</v>
       </c>
       <c r="Q98" t="n">
-        <v>44171636.07058764</v>
+        <v>46781091.63809974</v>
       </c>
       <c r="R98" t="n">
-        <v>46830574.86202762</v>
+        <v>47421315.32633086</v>
       </c>
       <c r="S98" t="n">
-        <v>47471475.75403956</v>
+        <v>50000174.34004912</v>
       </c>
       <c r="T98" t="n">
-        <v>50605038.26336992</v>
+        <v>53591343.75588409</v>
       </c>
       <c r="U98" t="n">
-        <v>49826566.53742571</v>
+        <v>55259471.18085942</v>
       </c>
     </row>
     <row r="99">
@@ -6808,64 +6808,64 @@
         <v>22561132</v>
       </c>
       <c r="B99" t="n">
-        <v>24181543.29444862</v>
+        <v>24706203.45921767</v>
       </c>
       <c r="C99" t="n">
-        <v>26058923.33875809</v>
+        <v>24469776.86529516</v>
       </c>
       <c r="D99" t="n">
-        <v>27021554.7874092</v>
+        <v>24946919.9975921</v>
       </c>
       <c r="E99" t="n">
-        <v>27548455.76250897</v>
+        <v>27318827.84699529</v>
       </c>
       <c r="F99" t="n">
-        <v>27444990.3206527</v>
+        <v>27692700.2836981</v>
       </c>
       <c r="G99" t="n">
-        <v>29735292.90225534</v>
+        <v>30325671.9363275</v>
       </c>
       <c r="H99" t="n">
-        <v>32389596.64985619</v>
+        <v>31093307.05533116</v>
       </c>
       <c r="I99" t="n">
-        <v>35280835.28852023</v>
+        <v>32061142.42942517</v>
       </c>
       <c r="J99" t="n">
-        <v>34738100.14430658</v>
+        <v>33804686.77388832</v>
       </c>
       <c r="K99" t="n">
-        <v>36627222.4105304</v>
+        <v>36232645.45316499</v>
       </c>
       <c r="L99" t="n">
-        <v>37554368.96454294</v>
+        <v>36939156.10253043</v>
       </c>
       <c r="M99" t="n">
-        <v>39378313.00322422</v>
+        <v>38733220.42646408</v>
       </c>
       <c r="N99" t="n">
-        <v>40604034.16015506</v>
+        <v>42190718.977851</v>
       </c>
       <c r="O99" t="n">
-        <v>43992467.64743178</v>
+        <v>43258694.57461314</v>
       </c>
       <c r="P99" t="n">
-        <v>48175191.58039147</v>
+        <v>46114174.02555575</v>
       </c>
       <c r="Q99" t="n">
-        <v>47994257.02905597</v>
+        <v>48621948.27280328</v>
       </c>
       <c r="R99" t="n">
-        <v>51162328.00432193</v>
+        <v>49852717.87048768</v>
       </c>
       <c r="S99" t="n">
-        <v>51862511.20198678</v>
+        <v>54302791.93926159</v>
       </c>
       <c r="T99" t="n">
-        <v>55285923.22280315</v>
+        <v>56624471.43967994</v>
       </c>
       <c r="U99" t="n">
-        <v>60542408.40279033</v>
+        <v>57728608.09838834</v>
       </c>
     </row>
     <row r="100">
@@ -6873,64 +6873,64 @@
         <v>22561132</v>
       </c>
       <c r="B100" t="n">
-        <v>24312708.33564088</v>
+        <v>24443873.37683315</v>
       </c>
       <c r="C100" t="n">
-        <v>24645440.45574503</v>
+        <v>24067846.30622032</v>
       </c>
       <c r="D100" t="n">
-        <v>24839443.47530887</v>
+        <v>25516625.11232474</v>
       </c>
       <c r="E100" t="n">
-        <v>27201132.65215229</v>
+        <v>25717485.88938241</v>
       </c>
       <c r="F100" t="n">
-        <v>27889676.16552639</v>
+        <v>26667504.44446753</v>
       </c>
       <c r="G100" t="n">
-        <v>29730656.29604658</v>
+        <v>28272771.27055884</v>
       </c>
       <c r="H100" t="n">
-        <v>32038852.2682712</v>
+        <v>29481554.67072531</v>
       </c>
       <c r="I100" t="n">
-        <v>33967450.67909723</v>
+        <v>29885025.15431503</v>
       </c>
       <c r="J100" t="n">
-        <v>36604578.23065606</v>
+        <v>31683972.6177729</v>
       </c>
       <c r="K100" t="n">
-        <v>36254289.86007214</v>
+        <v>31564975.15907972</v>
       </c>
       <c r="L100" t="n">
-        <v>35696579.78675162</v>
+        <v>31996958.34090892</v>
       </c>
       <c r="M100" t="n">
-        <v>37845357.35444345</v>
+        <v>34481102.97702129</v>
       </c>
       <c r="N100" t="n">
-        <v>39463410.26144861</v>
+        <v>36757179.08067937</v>
       </c>
       <c r="O100" t="n">
-        <v>42068365.36177695</v>
+        <v>38969800.07496043</v>
       </c>
       <c r="P100" t="n">
-        <v>44845271.92371923</v>
+        <v>40409366.65306263</v>
       </c>
       <c r="Q100" t="n">
-        <v>47544760.63951188</v>
+        <v>40492529.1125931</v>
       </c>
       <c r="R100" t="n">
-        <v>47366193.83671445</v>
+        <v>41517518.3517225</v>
       </c>
       <c r="S100" t="n">
-        <v>49115927.97566522</v>
+        <v>41361588.43615595</v>
       </c>
       <c r="T100" t="n">
-        <v>53214684.62765155</v>
+        <v>40965777.74475098</v>
       </c>
       <c r="U100" t="n">
-        <v>57964862.71733364</v>
+        <v>42479076.8731496</v>
       </c>
     </row>
     <row r="101">
@@ -6938,64 +6938,64 @@
         <v>22561132</v>
       </c>
       <c r="B101" t="n">
-        <v>24575038.41802541</v>
+        <v>23001057.92371826</v>
       </c>
       <c r="C101" t="n">
-        <v>24339867.01104338</v>
+        <v>24920511.40964796</v>
       </c>
       <c r="D101" t="n">
-        <v>26654057.36490253</v>
+        <v>25261561.63247553</v>
       </c>
       <c r="E101" t="n">
-        <v>28878356.06859285</v>
+        <v>27222790.95185444</v>
       </c>
       <c r="F101" t="n">
-        <v>31456165.84465206</v>
+        <v>28703216.77601493</v>
       </c>
       <c r="G101" t="n">
-        <v>32069538.56087229</v>
+        <v>29763529.92812995</v>
       </c>
       <c r="H101" t="n">
-        <v>33999984.15194838</v>
+        <v>32074278.10722183</v>
       </c>
       <c r="I101" t="n">
-        <v>35651298.50282337</v>
+        <v>31580870.34599074</v>
       </c>
       <c r="J101" t="n">
-        <v>36139205.15524353</v>
+        <v>33114692.95550711</v>
       </c>
       <c r="K101" t="n">
-        <v>39155045.71110034</v>
+        <v>35685615.04145919</v>
       </c>
       <c r="L101" t="n">
-        <v>42650198.25289936</v>
+        <v>38456135.54678713</v>
       </c>
       <c r="M101" t="n">
-        <v>46457343.56775192</v>
+        <v>39429577.46256264</v>
       </c>
       <c r="N101" t="n">
-        <v>47363228.51104908</v>
+        <v>39969191.83718568</v>
       </c>
       <c r="O101" t="n">
-        <v>47460702.01535068</v>
+        <v>40051448.41713071</v>
       </c>
       <c r="P101" t="n">
-        <v>51145403.7636048</v>
+        <v>40366723.85092875</v>
       </c>
       <c r="Q101" t="n">
-        <v>51250660.98298114</v>
+        <v>43031306.11795461</v>
       </c>
       <c r="R101" t="n">
-        <v>51356134.82167056</v>
+        <v>44120559.53539229</v>
       </c>
       <c r="S101" t="n">
-        <v>52954687.32908652</v>
+        <v>44724372.45132613</v>
       </c>
       <c r="T101" t="n">
-        <v>54602997.67220875</v>
+        <v>46116499.37000741</v>
       </c>
       <c r="U101" t="n">
-        <v>56937512.26767839</v>
+        <v>46211407.10626253</v>
       </c>
     </row>
   </sheetData>
